--- a/ConfigData/Xlsx/HItem.xlsx
+++ b/ConfigData/Xlsx/HItem.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="材料" sheetId="1" r:id="rId1"/>
     <sheet name="任务" sheetId="3" r:id="rId2"/>
     <sheet name="其他" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -3152,52 +3152,34 @@
     <t>木材补给车</t>
   </si>
   <si>
-    <t>使用后获得5单位木材</t>
-  </si>
-  <si>
     <t>ziyuanmucai</t>
   </si>
   <si>
     <t>矿石补给车</t>
   </si>
   <si>
-    <t>使用后获得5单位矿石</t>
-  </si>
-  <si>
     <t>ziyuankuangshi</t>
   </si>
   <si>
     <t>水银补给车</t>
   </si>
   <si>
-    <t>使用后获得2单位水银</t>
-  </si>
-  <si>
     <t>ziyuanshuiyin</t>
   </si>
   <si>
     <t>红宝石补给车</t>
   </si>
   <si>
-    <t>使用后获得2单位红宝石</t>
-  </si>
-  <si>
     <t>ziyuanbaoshi</t>
   </si>
   <si>
     <t>硫磺补给车</t>
   </si>
   <si>
-    <t>使用后获得2单位硫磺</t>
-  </si>
-  <si>
     <t>ziyuanliuhuang</t>
   </si>
   <si>
     <t>水晶补给车</t>
-  </si>
-  <si>
-    <t>使用后获得2单位水晶</t>
   </si>
   <si>
     <t>ziyuanshuijing</t>
@@ -4055,6 +4037,30 @@
   </si>
   <si>
     <t>金币</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后获得10单位水银</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后获得10单位红宝石</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后获得10单位硫磺</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后获得10单位水晶</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后获得30单位矿石</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后获得30单位木材</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -6606,8 +6612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B215" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B221" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="D237" sqref="D237"/>
@@ -6625,134 +6631,134 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>1206</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>1207</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>1208</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>1209</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="J1" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>1210</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>1227</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>1211</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>1212</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>1213</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>1255</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>1216</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>1233</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>1217</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>1219</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>1220</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>1221</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="J3" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>1226</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>1229</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>1222</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>1223</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>1224</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>1225</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>1226</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>1227</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>1231</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>1232</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>1235</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>1228</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -6784,13 +6790,13 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K4" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L4" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N4" t="s">
         <v>2</v>
@@ -6825,13 +6831,13 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K5" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L5" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N5" t="s">
         <v>5</v>
@@ -6866,13 +6872,13 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K6" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L6" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N6" t="s">
         <v>7</v>
@@ -6907,13 +6913,13 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K7" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L7" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N7" t="s">
         <v>10</v>
@@ -6948,13 +6954,13 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K8" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L8" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N8" t="s">
         <v>12</v>
@@ -6989,13 +6995,13 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K9" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L9" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N9" t="s">
         <v>15</v>
@@ -7030,13 +7036,13 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K10" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L10" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N10" t="s">
         <v>17</v>
@@ -7071,13 +7077,13 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K11" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L11" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N11" t="s">
         <v>20</v>
@@ -7112,13 +7118,13 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K12" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L12" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N12" t="s">
         <v>23</v>
@@ -7153,13 +7159,13 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K13" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L13" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N13" t="s">
         <v>26</v>
@@ -7194,13 +7200,13 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K14" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L14" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N14" t="s">
         <v>28</v>
@@ -7235,13 +7241,13 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K15" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L15" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N15" t="s">
         <v>31</v>
@@ -7276,13 +7282,13 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K16" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L16" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N16" t="s">
         <v>33</v>
@@ -7317,13 +7323,13 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K17" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L17" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N17" t="s">
         <v>35</v>
@@ -7358,13 +7364,13 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K18" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L18" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N18" t="s">
         <v>38</v>
@@ -7399,13 +7405,13 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K19" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L19" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N19" t="s">
         <v>40</v>
@@ -7440,13 +7446,13 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K20" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L20" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N20" t="s">
         <v>43</v>
@@ -7481,13 +7487,13 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K21" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L21" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N21" t="s">
         <v>46</v>
@@ -7522,13 +7528,13 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K22" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L22" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N22" t="s">
         <v>49</v>
@@ -7563,13 +7569,13 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K23" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L23" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N23" t="s">
         <v>52</v>
@@ -7604,13 +7610,13 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K24" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L24" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N24" t="s">
         <v>55</v>
@@ -7645,13 +7651,13 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K25" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L25" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N25" t="s">
         <v>58</v>
@@ -7686,13 +7692,13 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K26" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L26" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N26" t="s">
         <v>61</v>
@@ -7727,13 +7733,13 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K27" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L27" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N27" t="s">
         <v>64</v>
@@ -7768,13 +7774,13 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K28" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L28" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N28" t="s">
         <v>67</v>
@@ -7809,13 +7815,13 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K29" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L29" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N29" t="s">
         <v>69</v>
@@ -7850,13 +7856,13 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K30" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L30" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N30" t="s">
         <v>72</v>
@@ -7891,13 +7897,13 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K31" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L31" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N31" t="s">
         <v>75</v>
@@ -7932,13 +7938,13 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K32" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L32" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N32" t="s">
         <v>77</v>
@@ -7973,13 +7979,13 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K33" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L33" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N33" t="s">
         <v>80</v>
@@ -8014,13 +8020,13 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K34" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L34" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N34" t="s">
         <v>83</v>
@@ -8055,13 +8061,13 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K35" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L35" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N35" t="s">
         <v>80</v>
@@ -8096,13 +8102,13 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K36" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L36" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N36" t="s">
         <v>88</v>
@@ -8137,13 +8143,13 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K37" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L37" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N37" t="s">
         <v>91</v>
@@ -8178,13 +8184,13 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K38" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L38" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N38" t="s">
         <v>94</v>
@@ -8219,13 +8225,13 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K39" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L39" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N39" t="s">
         <v>97</v>
@@ -8260,13 +8266,13 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K40" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L40" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N40" t="s">
         <v>100</v>
@@ -8301,13 +8307,13 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K41" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L41" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N41" t="s">
         <v>103</v>
@@ -8342,13 +8348,13 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K42" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L42" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N42" t="s">
         <v>106</v>
@@ -8383,13 +8389,13 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K43" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L43" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N43" t="s">
         <v>109</v>
@@ -8424,13 +8430,13 @@
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K44" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L44" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N44" t="s">
         <v>112</v>
@@ -8465,13 +8471,13 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K45" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L45" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N45" t="s">
         <v>115</v>
@@ -8506,13 +8512,13 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K46" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L46" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N46" t="s">
         <v>118</v>
@@ -8547,13 +8553,13 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K47" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L47" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N47" t="s">
         <v>121</v>
@@ -8588,13 +8594,13 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K48" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L48" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N48" t="s">
         <v>124</v>
@@ -8629,13 +8635,13 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K49" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L49" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N49" t="s">
         <v>127</v>
@@ -8670,13 +8676,13 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K50" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L50" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N50" t="s">
         <v>130</v>
@@ -8711,13 +8717,13 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K51" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L51" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N51" t="s">
         <v>133</v>
@@ -8752,13 +8758,13 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K52" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L52" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N52" t="s">
         <v>136</v>
@@ -8793,13 +8799,13 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K53" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L53" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N53" t="s">
         <v>139</v>
@@ -8834,13 +8840,13 @@
         <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K54" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L54" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N54" t="s">
         <v>142</v>
@@ -8875,13 +8881,13 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K55" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L55" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N55" t="s">
         <v>145</v>
@@ -8916,13 +8922,13 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K56" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L56" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N56" t="s">
         <v>148</v>
@@ -8957,13 +8963,13 @@
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K57" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L57" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N57" t="s">
         <v>151</v>
@@ -8998,13 +9004,13 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K58" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L58" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N58" t="s">
         <v>154</v>
@@ -9039,13 +9045,13 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K59" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L59" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N59" t="s">
         <v>157</v>
@@ -9080,13 +9086,13 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K60" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L60" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N60" t="s">
         <v>160</v>
@@ -9121,13 +9127,13 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K61" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L61" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N61" t="s">
         <v>163</v>
@@ -9162,13 +9168,13 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K62" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L62" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N62" t="s">
         <v>166</v>
@@ -9203,13 +9209,13 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K63" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L63" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N63" t="s">
         <v>169</v>
@@ -9244,13 +9250,13 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K64" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L64" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N64" t="s">
         <v>172</v>
@@ -9285,13 +9291,13 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K65" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L65" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N65" t="s">
         <v>175</v>
@@ -9326,13 +9332,13 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K66" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L66" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N66" t="s">
         <v>178</v>
@@ -9367,13 +9373,13 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K67" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L67" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N67" t="s">
         <v>181</v>
@@ -9408,13 +9414,13 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K68" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L68" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N68" t="s">
         <v>184</v>
@@ -9449,13 +9455,13 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K69" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L69" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N69" t="s">
         <v>187</v>
@@ -9490,13 +9496,13 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K70" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L70" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N70" t="s">
         <v>190</v>
@@ -9531,13 +9537,13 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K71" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L71" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N71" t="s">
         <v>193</v>
@@ -9572,13 +9578,13 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K72" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L72" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N72" t="s">
         <v>196</v>
@@ -9613,13 +9619,13 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K73" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L73" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N73" t="s">
         <v>199</v>
@@ -9654,13 +9660,13 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K74" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L74" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N74" t="s">
         <v>202</v>
@@ -9695,13 +9701,13 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K75" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L75" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N75" t="s">
         <v>205</v>
@@ -9736,13 +9742,13 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K76" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L76" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N76" t="s">
         <v>208</v>
@@ -9777,13 +9783,13 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K77" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L77" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N77" t="s">
         <v>211</v>
@@ -9818,13 +9824,13 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K78" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L78" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N78" t="s">
         <v>214</v>
@@ -9859,13 +9865,13 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K79" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L79" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N79" t="s">
         <v>211</v>
@@ -9900,13 +9906,13 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K80" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L80" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N80" t="s">
         <v>219</v>
@@ -9941,13 +9947,13 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K81" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L81" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N81" t="s">
         <v>222</v>
@@ -9982,13 +9988,13 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K82" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L82" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N82" t="s">
         <v>225</v>
@@ -10023,13 +10029,13 @@
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K83" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L83" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N83" t="s">
         <v>228</v>
@@ -10064,13 +10070,13 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K84" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L84" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N84" t="s">
         <v>231</v>
@@ -10105,13 +10111,13 @@
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K85" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L85" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N85" t="s">
         <v>234</v>
@@ -10146,13 +10152,13 @@
         <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K86" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L86" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N86" t="s">
         <v>169</v>
@@ -10187,13 +10193,13 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K87" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L87" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N87" t="s">
         <v>239</v>
@@ -10228,13 +10234,13 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K88" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L88" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N88" t="s">
         <v>242</v>
@@ -10269,13 +10275,13 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K89" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L89" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N89" t="s">
         <v>245</v>
@@ -10310,13 +10316,13 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K90" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L90" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N90" t="s">
         <v>248</v>
@@ -10351,13 +10357,13 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K91" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L91" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N91" t="s">
         <v>251</v>
@@ -10392,13 +10398,13 @@
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K92" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L92" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N92" t="s">
         <v>254</v>
@@ -10433,13 +10439,13 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K93" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L93" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N93" t="s">
         <v>257</v>
@@ -10474,13 +10480,13 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K94" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L94" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N94" t="s">
         <v>260</v>
@@ -10515,13 +10521,13 @@
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K95" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L95" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N95" t="s">
         <v>263</v>
@@ -10556,13 +10562,13 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K96" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L96" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N96" t="s">
         <v>266</v>
@@ -10597,13 +10603,13 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K97" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L97" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N97" t="s">
         <v>269</v>
@@ -10638,13 +10644,13 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K98" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L98" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N98" t="s">
         <v>272</v>
@@ -10679,13 +10685,13 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K99" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L99" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N99" t="s">
         <v>275</v>
@@ -10720,13 +10726,13 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K100" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L100" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N100" t="s">
         <v>278</v>
@@ -10761,13 +10767,13 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K101" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L101" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N101" t="s">
         <v>281</v>
@@ -10802,13 +10808,13 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K102" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L102" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N102" t="s">
         <v>284</v>
@@ -10843,13 +10849,13 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K103" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L103" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N103" t="s">
         <v>287</v>
@@ -10884,13 +10890,13 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K104" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L104" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N104" t="s">
         <v>290</v>
@@ -10925,13 +10931,13 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K105" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L105" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N105" t="s">
         <v>293</v>
@@ -10966,13 +10972,13 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K106" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L106" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N106" t="s">
         <v>296</v>
@@ -11007,13 +11013,13 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K107" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L107" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N107" t="s">
         <v>299</v>
@@ -11048,13 +11054,13 @@
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K108" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L108" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N108" t="s">
         <v>302</v>
@@ -11089,13 +11095,13 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K109" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L109" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N109" t="s">
         <v>305</v>
@@ -11130,13 +11136,13 @@
         <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K110" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L110" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N110" t="s">
         <v>308</v>
@@ -11171,13 +11177,13 @@
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K111" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L111" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N111" t="s">
         <v>311</v>
@@ -11212,13 +11218,13 @@
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K112" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L112" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N112" t="s">
         <v>314</v>
@@ -11253,13 +11259,13 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K113" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L113" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N113" t="s">
         <v>317</v>
@@ -11294,13 +11300,13 @@
         <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K114" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L114" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N114" t="s">
         <v>320</v>
@@ -11335,13 +11341,13 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K115" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L115" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N115" t="s">
         <v>323</v>
@@ -11376,13 +11382,13 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K116" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L116" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N116" t="s">
         <v>326</v>
@@ -11417,13 +11423,13 @@
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K117" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L117" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N117" t="s">
         <v>329</v>
@@ -11458,13 +11464,13 @@
         <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K118" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L118" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N118" t="s">
         <v>332</v>
@@ -11499,13 +11505,13 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K119" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L119" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N119" t="s">
         <v>335</v>
@@ -11540,13 +11546,13 @@
         <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K120" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L120" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N120" t="s">
         <v>338</v>
@@ -11581,13 +11587,13 @@
         <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K121" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L121" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N121" t="s">
         <v>341</v>
@@ -11622,13 +11628,13 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K122" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L122" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N122" t="s">
         <v>344</v>
@@ -11663,13 +11669,13 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K123" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L123" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N123" t="s">
         <v>347</v>
@@ -11704,13 +11710,13 @@
         <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K124" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L124" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N124" t="s">
         <v>350</v>
@@ -11745,13 +11751,13 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K125" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L125" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N125" t="s">
         <v>353</v>
@@ -11786,13 +11792,13 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K126" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L126" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N126" t="s">
         <v>356</v>
@@ -11827,13 +11833,13 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K127" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L127" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N127" t="s">
         <v>359</v>
@@ -11868,13 +11874,13 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K128" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L128" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N128" t="s">
         <v>362</v>
@@ -11909,13 +11915,13 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K129" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L129" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N129" t="s">
         <v>365</v>
@@ -11950,13 +11956,13 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K130" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L130" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N130" t="s">
         <v>368</v>
@@ -11991,13 +11997,13 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K131" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L131" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N131" t="s">
         <v>371</v>
@@ -12032,13 +12038,13 @@
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K132" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L132" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N132" t="s">
         <v>374</v>
@@ -12073,13 +12079,13 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K133" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L133" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N133" t="s">
         <v>377</v>
@@ -12114,13 +12120,13 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K134" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L134" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N134" t="s">
         <v>196</v>
@@ -12155,13 +12161,13 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K135" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L135" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N135" t="s">
         <v>382</v>
@@ -12196,13 +12202,13 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K136" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L136" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N136" t="s">
         <v>385</v>
@@ -12237,13 +12243,13 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K137" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L137" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N137" t="s">
         <v>388</v>
@@ -12278,13 +12284,13 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K138" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L138" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N138" t="s">
         <v>391</v>
@@ -12319,13 +12325,13 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K139" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L139" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N139" t="s">
         <v>394</v>
@@ -12360,13 +12366,13 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K140" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L140" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N140" t="s">
         <v>397</v>
@@ -12401,13 +12407,13 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K141" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L141" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N141" t="s">
         <v>400</v>
@@ -12442,13 +12448,13 @@
         <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K142" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L142" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N142" t="s">
         <v>403</v>
@@ -12483,13 +12489,13 @@
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K143" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L143" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N143" t="s">
         <v>406</v>
@@ -12524,13 +12530,13 @@
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K144" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L144" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N144" t="s">
         <v>409</v>
@@ -12565,13 +12571,13 @@
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K145" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L145" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N145" t="s">
         <v>412</v>
@@ -12606,13 +12612,13 @@
         <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K146" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L146" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N146" t="s">
         <v>415</v>
@@ -12647,13 +12653,13 @@
         <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K147" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L147" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N147" t="s">
         <v>418</v>
@@ -12688,13 +12694,13 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K148" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L148" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N148" t="s">
         <v>421</v>
@@ -12729,13 +12735,13 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K149" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L149" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N149" t="s">
         <v>424</v>
@@ -12770,13 +12776,13 @@
         <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K150" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L150" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N150" t="s">
         <v>427</v>
@@ -12811,13 +12817,13 @@
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K151" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L151" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N151" t="s">
         <v>430</v>
@@ -12852,13 +12858,13 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K152" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L152" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N152" t="s">
         <v>433</v>
@@ -12893,13 +12899,13 @@
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K153" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L153" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N153" t="s">
         <v>436</v>
@@ -12934,13 +12940,13 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K154" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L154" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N154" t="s">
         <v>439</v>
@@ -12975,13 +12981,13 @@
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K155" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L155" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N155" t="s">
         <v>442</v>
@@ -13016,13 +13022,13 @@
         <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K156" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L156" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N156" t="s">
         <v>445</v>
@@ -13057,13 +13063,13 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K157" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L157" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N157" t="s">
         <v>448</v>
@@ -13098,13 +13104,13 @@
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K158" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L158" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N158" t="s">
         <v>451</v>
@@ -13139,13 +13145,13 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K159" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L159" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N159" t="s">
         <v>454</v>
@@ -13180,13 +13186,13 @@
         <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K160" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L160" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N160" t="s">
         <v>457</v>
@@ -13221,13 +13227,13 @@
         <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K161" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L161" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N161" t="s">
         <v>460</v>
@@ -13262,13 +13268,13 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K162" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L162" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N162" t="s">
         <v>463</v>
@@ -13303,13 +13309,13 @@
         <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K163" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L163" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N163" t="s">
         <v>466</v>
@@ -13344,13 +13350,13 @@
         <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K164" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L164" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N164" t="s">
         <v>469</v>
@@ -13385,13 +13391,13 @@
         <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K165" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L165" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N165" t="s">
         <v>472</v>
@@ -13426,13 +13432,13 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K166" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L166" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N166" t="s">
         <v>475</v>
@@ -13467,13 +13473,13 @@
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K167" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L167" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N167" t="s">
         <v>478</v>
@@ -13508,13 +13514,13 @@
         <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K168" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L168" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N168" t="s">
         <v>481</v>
@@ -13549,13 +13555,13 @@
         <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K169" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L169" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N169" t="s">
         <v>484</v>
@@ -13590,13 +13596,13 @@
         <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K170" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L170" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N170" t="s">
         <v>487</v>
@@ -13631,13 +13637,13 @@
         <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K171" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L171" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N171" t="s">
         <v>490</v>
@@ -13672,13 +13678,13 @@
         <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K172" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L172" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N172" t="s">
         <v>493</v>
@@ -13713,13 +13719,13 @@
         <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K173" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L173" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N173" t="s">
         <v>496</v>
@@ -13754,13 +13760,13 @@
         <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K174" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L174" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N174" t="s">
         <v>499</v>
@@ -13795,13 +13801,13 @@
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K175" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L175" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N175" t="s">
         <v>502</v>
@@ -13836,13 +13842,13 @@
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K176" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L176" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N176" t="s">
         <v>505</v>
@@ -13877,13 +13883,13 @@
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K177" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L177" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N177" t="s">
         <v>508</v>
@@ -13918,13 +13924,13 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K178" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L178" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N178" t="s">
         <v>511</v>
@@ -13959,13 +13965,13 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K179" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L179" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N179" t="s">
         <v>514</v>
@@ -14000,13 +14006,13 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K180" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L180" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N180" t="s">
         <v>517</v>
@@ -14041,13 +14047,13 @@
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K181" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L181" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N181" t="s">
         <v>520</v>
@@ -14082,13 +14088,13 @@
         <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K182" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L182" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N182" t="s">
         <v>523</v>
@@ -14123,13 +14129,13 @@
         <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K183" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L183" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N183" t="s">
         <v>526</v>
@@ -14164,13 +14170,13 @@
         <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K184" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L184" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N184" t="s">
         <v>529</v>
@@ -14205,13 +14211,13 @@
         <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K185" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L185" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N185" t="s">
         <v>532</v>
@@ -14246,13 +14252,13 @@
         <v>2</v>
       </c>
       <c r="J186" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K186" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L186" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N186" t="s">
         <v>535</v>
@@ -14287,13 +14293,13 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K187" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L187" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N187" t="s">
         <v>175</v>
@@ -14328,13 +14334,13 @@
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K188" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L188" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N188" t="s">
         <v>463</v>
@@ -14369,13 +14375,13 @@
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K189" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L189" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N189" t="s">
         <v>542</v>
@@ -14410,13 +14416,13 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K190" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L190" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N190" t="s">
         <v>545</v>
@@ -14451,13 +14457,13 @@
         <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K191" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L191" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N191" t="s">
         <v>548</v>
@@ -14492,13 +14498,13 @@
         <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K192" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L192" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N192" t="s">
         <v>15</v>
@@ -14533,13 +14539,13 @@
         <v>2</v>
       </c>
       <c r="J193" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K193" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L193" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N193" t="s">
         <v>553</v>
@@ -14574,13 +14580,13 @@
         <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K194" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L194" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N194" t="s">
         <v>556</v>
@@ -14615,13 +14621,13 @@
         <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K195" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L195" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N195" t="s">
         <v>559</v>
@@ -14656,13 +14662,13 @@
         <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K196" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L196" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N196" t="s">
         <v>562</v>
@@ -14697,13 +14703,13 @@
         <v>2</v>
       </c>
       <c r="J197" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K197" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L197" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N197" t="s">
         <v>565</v>
@@ -14738,13 +14744,13 @@
         <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K198" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L198" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N198" t="s">
         <v>568</v>
@@ -14779,13 +14785,13 @@
         <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K199" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L199" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N199" t="s">
         <v>571</v>
@@ -14820,13 +14826,13 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K200" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L200" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N200" t="s">
         <v>574</v>
@@ -14861,13 +14867,13 @@
         <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K201" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L201" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N201" t="s">
         <v>577</v>
@@ -14902,13 +14908,13 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K202" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L202" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N202" t="s">
         <v>580</v>
@@ -14943,13 +14949,13 @@
         <v>2</v>
       </c>
       <c r="J203" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K203" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L203" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N203" t="s">
         <v>583</v>
@@ -14984,13 +14990,13 @@
         <v>2</v>
       </c>
       <c r="J204" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K204" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L204" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N204" t="s">
         <v>586</v>
@@ -15025,13 +15031,13 @@
         <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K205" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L205" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N205" t="s">
         <v>589</v>
@@ -15066,13 +15072,13 @@
         <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K206" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L206" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N206" t="s">
         <v>592</v>
@@ -15107,13 +15113,13 @@
         <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K207" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L207" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N207" t="s">
         <v>595</v>
@@ -15148,13 +15154,13 @@
         <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K208" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L208" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N208" t="s">
         <v>598</v>
@@ -15189,13 +15195,13 @@
         <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K209" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L209" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N209" t="s">
         <v>601</v>
@@ -15230,13 +15236,13 @@
         <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K210" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L210" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N210" t="s">
         <v>604</v>
@@ -15271,13 +15277,13 @@
         <v>2</v>
       </c>
       <c r="J211" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K211" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L211" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N211" t="s">
         <v>607</v>
@@ -15312,13 +15318,13 @@
         <v>2</v>
       </c>
       <c r="J212" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K212" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L212" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N212" t="s">
         <v>610</v>
@@ -15353,13 +15359,13 @@
         <v>2</v>
       </c>
       <c r="J213" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K213" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L213" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N213" t="s">
         <v>613</v>
@@ -15394,13 +15400,13 @@
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K214" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L214" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N214" t="s">
         <v>616</v>
@@ -15435,13 +15441,13 @@
         <v>2</v>
       </c>
       <c r="J215" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K215" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L215" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N215" t="s">
         <v>619</v>
@@ -15476,13 +15482,13 @@
         <v>2</v>
       </c>
       <c r="J216" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K216" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L216" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N216" t="s">
         <v>622</v>
@@ -15517,13 +15523,13 @@
         <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K217" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L217" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N217" t="s">
         <v>625</v>
@@ -15558,13 +15564,13 @@
         <v>2</v>
       </c>
       <c r="J218" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K218" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L218" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N218" t="s">
         <v>628</v>
@@ -15599,13 +15605,13 @@
         <v>2</v>
       </c>
       <c r="J219" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K219" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L219" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N219" t="s">
         <v>631</v>
@@ -15640,13 +15646,13 @@
         <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K220" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L220" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N220" t="s">
         <v>634</v>
@@ -15681,13 +15687,13 @@
         <v>2</v>
       </c>
       <c r="J221" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K221" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L221" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N221" t="s">
         <v>637</v>
@@ -15722,13 +15728,13 @@
         <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K222" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L222" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N222" t="s">
         <v>640</v>
@@ -15763,13 +15769,13 @@
         <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K223" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L223" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N223" t="s">
         <v>643</v>
@@ -15801,13 +15807,13 @@
         <v>3</v>
       </c>
       <c r="J224" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K224" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L224" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N224" t="s">
         <v>646</v>
@@ -15839,13 +15845,13 @@
         <v>3</v>
       </c>
       <c r="J225" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K225" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L225" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N225" t="s">
         <v>649</v>
@@ -15877,13 +15883,13 @@
         <v>3</v>
       </c>
       <c r="J226" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K226" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L226" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N226" t="s">
         <v>652</v>
@@ -15915,13 +15921,13 @@
         <v>3</v>
       </c>
       <c r="J227" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K227" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L227" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N227" t="s">
         <v>655</v>
@@ -15953,13 +15959,13 @@
         <v>3</v>
       </c>
       <c r="J228" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K228" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L228" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N228" t="s">
         <v>658</v>
@@ -15991,13 +15997,13 @@
         <v>3</v>
       </c>
       <c r="J229" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K229" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L229" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N229" t="s">
         <v>661</v>
@@ -16032,13 +16038,13 @@
         <v>2</v>
       </c>
       <c r="J230" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K230" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L230" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N230" t="s">
         <v>664</v>
@@ -16073,13 +16079,13 @@
         <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K231" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L231" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N231" t="s">
         <v>667</v>
@@ -16114,13 +16120,13 @@
         <v>2</v>
       </c>
       <c r="J232" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K232" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L232" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N232" t="s">
         <v>670</v>
@@ -16155,13 +16161,13 @@
         <v>2</v>
       </c>
       <c r="J233" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K233" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L233" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N233" t="s">
         <v>673</v>
@@ -16196,13 +16202,13 @@
         <v>2</v>
       </c>
       <c r="J234" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K234" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L234" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N234" t="s">
         <v>676</v>
@@ -16237,13 +16243,13 @@
         <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K235" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L235" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N235" t="s">
         <v>679</v>
@@ -16278,13 +16284,13 @@
         <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K236" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L236" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N236" t="s">
         <v>682</v>
@@ -16319,13 +16325,13 @@
         <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K237" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L237" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N237" t="s">
         <v>685</v>
@@ -16360,13 +16366,13 @@
         <v>2</v>
       </c>
       <c r="J238" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K238" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L238" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N238" t="s">
         <v>688</v>
@@ -16401,13 +16407,13 @@
         <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K239" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L239" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N239" t="s">
         <v>691</v>
@@ -16442,13 +16448,13 @@
         <v>2</v>
       </c>
       <c r="J240" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K240" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L240" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N240" t="s">
         <v>694</v>
@@ -16483,13 +16489,13 @@
         <v>2</v>
       </c>
       <c r="J241" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K241" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L241" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N241" t="s">
         <v>697</v>
@@ -16524,13 +16530,13 @@
         <v>2</v>
       </c>
       <c r="J242" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K242" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L242" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N242" t="s">
         <v>700</v>
@@ -16565,13 +16571,13 @@
         <v>2</v>
       </c>
       <c r="J243" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K243" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L243" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N243" t="s">
         <v>703</v>
@@ -16606,13 +16612,13 @@
         <v>2</v>
       </c>
       <c r="J244" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K244" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L244" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N244" t="s">
         <v>706</v>
@@ -16647,13 +16653,13 @@
         <v>2</v>
       </c>
       <c r="J245" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K245" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L245" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N245" t="s">
         <v>709</v>
@@ -16688,13 +16694,13 @@
         <v>2</v>
       </c>
       <c r="J246" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K246" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L246" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N246" t="s">
         <v>712</v>
@@ -16729,13 +16735,13 @@
         <v>2</v>
       </c>
       <c r="J247" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K247" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L247" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N247" t="s">
         <v>715</v>
@@ -16770,13 +16776,13 @@
         <v>2</v>
       </c>
       <c r="J248" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K248" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L248" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N248" t="s">
         <v>718</v>
@@ -16811,13 +16817,13 @@
         <v>2</v>
       </c>
       <c r="J249" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K249" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L249" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N249" t="s">
         <v>721</v>
@@ -16852,13 +16858,13 @@
         <v>2</v>
       </c>
       <c r="J250" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K250" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L250" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N250" t="s">
         <v>724</v>
@@ -16893,13 +16899,13 @@
         <v>2</v>
       </c>
       <c r="J251" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K251" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L251" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N251" t="s">
         <v>727</v>
@@ -16934,13 +16940,13 @@
         <v>2</v>
       </c>
       <c r="J252" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K252" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L252" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N252" t="s">
         <v>730</v>
@@ -16975,13 +16981,13 @@
         <v>2</v>
       </c>
       <c r="J253" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K253" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L253" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N253" t="s">
         <v>733</v>
@@ -17016,13 +17022,13 @@
         <v>2</v>
       </c>
       <c r="J254" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K254" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L254" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N254" t="s">
         <v>736</v>
@@ -17057,13 +17063,13 @@
         <v>2</v>
       </c>
       <c r="J255" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K255" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L255" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N255" t="s">
         <v>739</v>
@@ -17098,13 +17104,13 @@
         <v>2</v>
       </c>
       <c r="J256" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K256" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L256" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N256" t="s">
         <v>742</v>
@@ -17139,13 +17145,13 @@
         <v>2</v>
       </c>
       <c r="J257" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K257" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L257" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N257" t="s">
         <v>745</v>
@@ -17180,13 +17186,13 @@
         <v>2</v>
       </c>
       <c r="J258" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K258" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L258" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N258" t="s">
         <v>748</v>
@@ -17221,13 +17227,13 @@
         <v>2</v>
       </c>
       <c r="J259" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K259" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L259" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N259" t="s">
         <v>751</v>
@@ -17262,13 +17268,13 @@
         <v>2</v>
       </c>
       <c r="J260" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K260" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L260" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N260" t="s">
         <v>754</v>
@@ -17303,13 +17309,13 @@
         <v>2</v>
       </c>
       <c r="J261" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K261" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L261" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N261" t="s">
         <v>757</v>
@@ -17344,13 +17350,13 @@
         <v>2</v>
       </c>
       <c r="J262" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K262" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L262" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N262" t="s">
         <v>760</v>
@@ -17385,13 +17391,13 @@
         <v>2</v>
       </c>
       <c r="J263" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K263" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L263" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N263" t="s">
         <v>763</v>
@@ -17426,13 +17432,13 @@
         <v>2</v>
       </c>
       <c r="J264" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K264" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L264" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N264" t="s">
         <v>766</v>
@@ -17467,13 +17473,13 @@
         <v>2</v>
       </c>
       <c r="J265" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K265" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L265" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N265" t="s">
         <v>769</v>
@@ -17508,13 +17514,13 @@
         <v>2</v>
       </c>
       <c r="J266" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K266" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L266" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N266" t="s">
         <v>772</v>
@@ -17549,13 +17555,13 @@
         <v>2</v>
       </c>
       <c r="J267" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K267" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L267" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N267" t="s">
         <v>775</v>
@@ -17590,13 +17596,13 @@
         <v>2</v>
       </c>
       <c r="J268" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K268" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L268" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N268" t="s">
         <v>778</v>
@@ -17631,13 +17637,13 @@
         <v>2</v>
       </c>
       <c r="J269" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K269" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L269" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N269" t="s">
         <v>781</v>
@@ -17672,13 +17678,13 @@
         <v>2</v>
       </c>
       <c r="J270" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K270" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L270" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N270" t="s">
         <v>784</v>
@@ -17713,13 +17719,13 @@
         <v>2</v>
       </c>
       <c r="J271" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K271" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L271" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N271" t="s">
         <v>786</v>
@@ -17754,13 +17760,13 @@
         <v>2</v>
       </c>
       <c r="J272" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K272" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L272" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N272" t="s">
         <v>789</v>
@@ -17795,13 +17801,13 @@
         <v>2</v>
       </c>
       <c r="J273" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K273" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L273" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N273" t="s">
         <v>792</v>
@@ -17836,13 +17842,13 @@
         <v>2</v>
       </c>
       <c r="J274" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K274" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L274" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N274" t="s">
         <v>795</v>
@@ -17877,13 +17883,13 @@
         <v>2</v>
       </c>
       <c r="J275" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K275" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L275" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N275" t="s">
         <v>798</v>
@@ -17918,13 +17924,13 @@
         <v>2</v>
       </c>
       <c r="J276" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K276" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L276" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N276" t="s">
         <v>801</v>
@@ -17959,13 +17965,13 @@
         <v>2</v>
       </c>
       <c r="J277" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K277" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L277" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N277" t="s">
         <v>804</v>
@@ -18000,13 +18006,13 @@
         <v>2</v>
       </c>
       <c r="J278" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K278" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L278" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N278" t="s">
         <v>807</v>
@@ -18041,13 +18047,13 @@
         <v>2</v>
       </c>
       <c r="J279" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K279" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L279" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N279" t="s">
         <v>810</v>
@@ -18082,13 +18088,13 @@
         <v>2</v>
       </c>
       <c r="J280" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K280" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L280" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N280" t="s">
         <v>813</v>
@@ -18123,13 +18129,13 @@
         <v>2</v>
       </c>
       <c r="J281" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K281" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L281" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N281" t="s">
         <v>816</v>
@@ -18164,13 +18170,13 @@
         <v>2</v>
       </c>
       <c r="J282" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K282" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L282" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N282" t="s">
         <v>819</v>
@@ -18205,13 +18211,13 @@
         <v>2</v>
       </c>
       <c r="J283" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K283" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L283" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N283" t="s">
         <v>822</v>
@@ -18246,13 +18252,13 @@
         <v>2</v>
       </c>
       <c r="J284" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K284" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L284" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N284" t="s">
         <v>825</v>
@@ -18287,13 +18293,13 @@
         <v>2</v>
       </c>
       <c r="J285" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K285" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L285" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N285" t="s">
         <v>828</v>
@@ -18328,13 +18334,13 @@
         <v>2</v>
       </c>
       <c r="J286" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K286" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L286" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N286" t="s">
         <v>831</v>
@@ -18369,13 +18375,13 @@
         <v>2</v>
       </c>
       <c r="J287" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K287" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L287" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N287" t="s">
         <v>834</v>
@@ -18410,13 +18416,13 @@
         <v>2</v>
       </c>
       <c r="J288" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K288" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L288" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N288" t="s">
         <v>837</v>
@@ -18451,13 +18457,13 @@
         <v>2</v>
       </c>
       <c r="J289" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K289" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L289" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N289" t="s">
         <v>840</v>
@@ -18492,13 +18498,13 @@
         <v>2</v>
       </c>
       <c r="J290" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K290" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L290" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N290" t="s">
         <v>843</v>
@@ -18533,13 +18539,13 @@
         <v>2</v>
       </c>
       <c r="J291" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K291" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L291" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N291" t="s">
         <v>846</v>
@@ -18574,13 +18580,13 @@
         <v>2</v>
       </c>
       <c r="J292" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K292" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L292" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N292" t="s">
         <v>849</v>
@@ -18615,13 +18621,13 @@
         <v>2</v>
       </c>
       <c r="J293" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K293" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L293" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N293" t="s">
         <v>852</v>
@@ -18656,13 +18662,13 @@
         <v>2</v>
       </c>
       <c r="J294" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K294" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L294" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N294" t="s">
         <v>855</v>
@@ -18697,13 +18703,13 @@
         <v>2</v>
       </c>
       <c r="J295" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K295" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L295" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N295" t="s">
         <v>858</v>
@@ -18738,13 +18744,13 @@
         <v>2</v>
       </c>
       <c r="J296" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K296" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L296" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N296" t="s">
         <v>861</v>
@@ -18779,13 +18785,13 @@
         <v>2</v>
       </c>
       <c r="J297" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K297" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L297" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N297" t="s">
         <v>864</v>
@@ -18820,13 +18826,13 @@
         <v>2</v>
       </c>
       <c r="J298" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K298" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L298" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N298" t="s">
         <v>867</v>
@@ -18861,13 +18867,13 @@
         <v>2</v>
       </c>
       <c r="J299" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K299" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L299" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N299" t="s">
         <v>870</v>
@@ -18902,13 +18908,13 @@
         <v>2</v>
       </c>
       <c r="J300" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K300" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L300" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N300" t="s">
         <v>873</v>
@@ -18943,13 +18949,13 @@
         <v>2</v>
       </c>
       <c r="J301" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K301" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L301" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N301" t="s">
         <v>876</v>
@@ -18984,13 +18990,13 @@
         <v>2</v>
       </c>
       <c r="J302" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K302" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L302" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N302" t="s">
         <v>879</v>
@@ -19025,13 +19031,13 @@
         <v>2</v>
       </c>
       <c r="J303" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K303" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L303" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N303" t="s">
         <v>882</v>
@@ -19066,13 +19072,13 @@
         <v>2</v>
       </c>
       <c r="J304" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K304" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L304" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N304" t="s">
         <v>885</v>
@@ -19107,13 +19113,13 @@
         <v>2</v>
       </c>
       <c r="J305" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K305" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L305" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N305" t="s">
         <v>888</v>
@@ -19148,13 +19154,13 @@
         <v>2</v>
       </c>
       <c r="J306" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K306" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L306" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N306" t="s">
         <v>891</v>
@@ -19189,13 +19195,13 @@
         <v>2</v>
       </c>
       <c r="J307" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K307" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L307" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N307" t="s">
         <v>894</v>
@@ -19230,13 +19236,13 @@
         <v>2</v>
       </c>
       <c r="J308" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K308" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L308" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N308" t="s">
         <v>897</v>
@@ -19271,13 +19277,13 @@
         <v>2</v>
       </c>
       <c r="J309" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K309" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L309" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N309" t="s">
         <v>900</v>
@@ -19312,13 +19318,13 @@
         <v>2</v>
       </c>
       <c r="J310" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K310" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L310" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="N310" t="s">
         <v>903</v>
@@ -19361,134 +19367,134 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>1206</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>1207</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>1208</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>1209</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>1210</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>1227</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>1211</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>1212</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>1213</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>1215</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>1216</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>1233</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>1217</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>1219</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>1220</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>1221</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="J3" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>1226</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>1229</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>1222</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>1223</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>1224</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>1225</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>1226</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>1227</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>1231</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>1232</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>1235</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>1228</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -19514,13 +19520,13 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K4" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="L4" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N4" t="s">
         <v>906</v>
@@ -19552,13 +19558,13 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
       <c r="K5" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="L5" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N5" t="s">
         <v>909</v>
@@ -19587,13 +19593,13 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K6" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="L6" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N6" t="s">
         <v>912</v>
@@ -19625,13 +19631,13 @@
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K7" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="L7" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N7" t="s">
         <v>915</v>
@@ -19660,13 +19666,13 @@
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K8" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="L8" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N8" t="s">
         <v>918</v>
@@ -19695,13 +19701,13 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K9" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="L9" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N9" t="s">
         <v>921</v>
@@ -19733,13 +19739,13 @@
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K10" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="L10" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N10" t="s">
         <v>924</v>
@@ -19771,13 +19777,13 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K11" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="L11" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N11" t="s">
         <v>927</v>
@@ -19809,13 +19815,13 @@
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K12" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="L12" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N12" t="s">
         <v>930</v>
@@ -19847,13 +19853,13 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K13" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="L13" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N13" t="s">
         <v>933</v>
@@ -19885,13 +19891,13 @@
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="K14" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="L14" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N14" t="s">
         <v>936</v>
@@ -19917,11 +19923,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19936,134 +19942,134 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>1206</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>1207</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>1208</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>1209</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>1210</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>1227</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>1211</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>1212</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>1213</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>1215</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>1216</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>1233</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>1217</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>1218</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1204</v>
+        <v>1198</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>1218</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>1219</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>1220</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="I3" s="8" t="s">
         <v>1221</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="J3" s="8" t="s">
+        <v>1225</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>1226</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>1229</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>1222</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>1223</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>1224</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>1225</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>1226</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>1227</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>1231</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>1232</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>1235</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>1228</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -20092,13 +20098,13 @@
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K4" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="L4" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="N4" t="s">
         <v>938</v>
@@ -20130,13 +20136,13 @@
         <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K5" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="L5" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="N5" t="s">
         <v>941</v>
@@ -20168,13 +20174,13 @@
         <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K6" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="L6" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="N6" t="s">
         <v>944</v>
@@ -20206,13 +20212,13 @@
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="K7" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="L7" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="N7" t="s">
         <v>947</v>
@@ -20244,13 +20250,13 @@
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K8" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="L8" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="N8" t="s">
         <v>950</v>
@@ -20282,13 +20288,13 @@
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K9" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="L9" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="N9" t="s">
         <v>953</v>
@@ -20320,13 +20326,13 @@
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K10" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="L10" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="N10" t="s">
         <v>956</v>
@@ -20358,13 +20364,13 @@
         <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K11" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="L11" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="N11" t="s">
         <v>959</v>
@@ -20399,13 +20405,13 @@
         <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K12" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="L12" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="N12" t="s">
         <v>962</v>
@@ -20440,13 +20446,13 @@
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K13" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="L13" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="N13" t="s">
         <v>965</v>
@@ -20481,13 +20487,13 @@
         <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K14" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="L14" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="N14" t="s">
         <v>968</v>
@@ -20519,13 +20525,13 @@
         <v>12</v>
       </c>
       <c r="J15" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K15" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="L15" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="N15" t="s">
         <v>971</v>
@@ -20557,13 +20563,13 @@
         <v>12</v>
       </c>
       <c r="J16" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K16" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="L16" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="N16" t="s">
         <v>974</v>
@@ -20595,13 +20601,13 @@
         <v>12</v>
       </c>
       <c r="J17" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K17" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="L17" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="N17" t="s">
         <v>977</v>
@@ -20618,7 +20624,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>979</v>
+        <v>1264</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -20636,16 +20642,16 @@
         <v>14</v>
       </c>
       <c r="J18" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K18" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L18" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="N18" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
@@ -20653,13 +20659,13 @@
         <v>22032002</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>982</v>
+        <v>1263</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -20677,16 +20683,16 @@
         <v>14</v>
       </c>
       <c r="J19" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K19" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L19" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="N19" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -20694,13 +20700,13 @@
         <v>22032003</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>985</v>
+        <v>1259</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -20718,16 +20724,16 @@
         <v>14</v>
       </c>
       <c r="J20" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K20" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L20" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="N20" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
@@ -20735,13 +20741,13 @@
         <v>22032004</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>988</v>
+        <v>1260</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -20759,16 +20765,16 @@
         <v>14</v>
       </c>
       <c r="J21" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K21" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L21" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="N21" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
@@ -20776,13 +20782,13 @@
         <v>22032005</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>991</v>
+        <v>1261</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -20800,16 +20806,16 @@
         <v>14</v>
       </c>
       <c r="J22" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K22" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L22" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N22" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
@@ -20817,13 +20823,13 @@
         <v>22032006</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>994</v>
+        <v>1262</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -20841,16 +20847,16 @@
         <v>14</v>
       </c>
       <c r="J23" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K23" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L23" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N23" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
@@ -20858,13 +20864,13 @@
         <v>22032007</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -20882,16 +20888,16 @@
         <v>14</v>
       </c>
       <c r="J24" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K24" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L24" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N24" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
@@ -20899,13 +20905,13 @@
         <v>22032008</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -20923,16 +20929,16 @@
         <v>14</v>
       </c>
       <c r="J25" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K25" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L25" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N25" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
@@ -20940,13 +20946,13 @@
         <v>22033001</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -20964,13 +20970,13 @@
         <v>11</v>
       </c>
       <c r="J26" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K26" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L26" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="M26">
         <v>2</v>
@@ -20984,13 +20990,13 @@
         <v>22033002</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -21008,19 +21014,19 @@
         <v>11</v>
       </c>
       <c r="J27" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="K27" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L27" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="M27">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
@@ -21028,13 +21034,13 @@
         <v>22033003</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="C28" s="7">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -21052,19 +21058,19 @@
         <v>11</v>
       </c>
       <c r="J28" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K28" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L28" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="M28">
         <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
@@ -21072,13 +21078,13 @@
         <v>22033004</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -21096,19 +21102,19 @@
         <v>11</v>
       </c>
       <c r="J29" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K29" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L29" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="M29">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
@@ -21116,13 +21122,13 @@
         <v>22033005</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="C30" s="7">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>1246</v>
+        <v>1240</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -21140,19 +21146,19 @@
         <v>11</v>
       </c>
       <c r="J30" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K30" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L30" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="M30">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
@@ -21160,13 +21166,13 @@
         <v>22033006</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>1247</v>
+        <v>1241</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -21184,19 +21190,19 @@
         <v>11</v>
       </c>
       <c r="J31" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K31" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L31" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="M31">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
@@ -21204,13 +21210,13 @@
         <v>22033007</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -21228,19 +21234,19 @@
         <v>11</v>
       </c>
       <c r="J32" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K32" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L32" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="M32">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
@@ -21248,13 +21254,13 @@
         <v>22033008</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -21272,19 +21278,19 @@
         <v>11</v>
       </c>
       <c r="J33" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K33" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L33" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="M33">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
@@ -21292,13 +21298,13 @@
         <v>22033009</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="C34" s="7">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -21316,19 +21322,19 @@
         <v>11</v>
       </c>
       <c r="J34" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K34" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L34" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="M34">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
@@ -21336,13 +21342,13 @@
         <v>22033013</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -21360,19 +21366,19 @@
         <v>11</v>
       </c>
       <c r="J35" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K35" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L35" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="M35">
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
@@ -21380,13 +21386,13 @@
         <v>22033014</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -21404,19 +21410,19 @@
         <v>11</v>
       </c>
       <c r="J36" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K36" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L36" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="M36">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>1018</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
@@ -21424,13 +21430,13 @@
         <v>22033015</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1019</v>
+        <v>1013</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -21448,19 +21454,19 @@
         <v>11</v>
       </c>
       <c r="J37" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K37" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L37" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="M37">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
@@ -21468,13 +21474,13 @@
         <v>22033016</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1022</v>
+        <v>1016</v>
       </c>
       <c r="C38" s="7">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -21492,19 +21498,19 @@
         <v>11</v>
       </c>
       <c r="J38" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="K38" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L38" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="M38">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
@@ -21512,13 +21518,13 @@
         <v>22033017</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -21536,19 +21542,19 @@
         <v>11</v>
       </c>
       <c r="J39" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K39" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L39" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="M39">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
@@ -21556,13 +21562,13 @@
         <v>22033018</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="C40" s="7">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -21580,19 +21586,19 @@
         <v>11</v>
       </c>
       <c r="J40" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K40" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L40" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="M40">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
@@ -21600,13 +21606,13 @@
         <v>22033030</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -21624,13 +21630,13 @@
         <v>11</v>
       </c>
       <c r="J41" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K41" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L41" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -21644,13 +21650,13 @@
         <v>22033031</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>1033</v>
+        <v>1027</v>
       </c>
       <c r="C42" s="7">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -21668,19 +21674,19 @@
         <v>11</v>
       </c>
       <c r="J42" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K42" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L42" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="M42">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>1035</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
@@ -21688,13 +21694,13 @@
         <v>22033032</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>1036</v>
+        <v>1030</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>1037</v>
+        <v>1031</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -21712,19 +21718,19 @@
         <v>11</v>
       </c>
       <c r="J43" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K43" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L43" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="M43">
         <v>1</v>
       </c>
       <c r="N43" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
@@ -21732,13 +21738,13 @@
         <v>22034001</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1039</v>
+        <v>1033</v>
       </c>
       <c r="C44" s="7">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>1040</v>
+        <v>1034</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -21756,16 +21762,16 @@
         <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="K44" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L44" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="N44" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
@@ -21773,13 +21779,13 @@
         <v>22034002</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>1043</v>
+        <v>1037</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -21797,16 +21803,16 @@
         <v>13</v>
       </c>
       <c r="J45" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K45" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L45" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="N45" t="s">
-        <v>1044</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
@@ -21814,13 +21820,13 @@
         <v>22034003</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>1045</v>
+        <v>1039</v>
       </c>
       <c r="C46" s="7">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -21838,16 +21844,16 @@
         <v>13</v>
       </c>
       <c r="J46" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K46" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L46" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="N46" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
@@ -21855,13 +21861,13 @@
         <v>22034004</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>1048</v>
+        <v>1042</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>1049</v>
+        <v>1043</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -21879,16 +21885,16 @@
         <v>13</v>
       </c>
       <c r="J47" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K47" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L47" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="N47" t="s">
-        <v>1050</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
@@ -21896,13 +21902,13 @@
         <v>22034005</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="C48" s="7">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>1052</v>
+        <v>1046</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -21920,16 +21926,16 @@
         <v>13</v>
       </c>
       <c r="J48" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K48" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L48" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="N48" t="s">
-        <v>1053</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
@@ -21937,13 +21943,13 @@
         <v>22034006</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>1054</v>
+        <v>1048</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>1055</v>
+        <v>1049</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -21961,16 +21967,16 @@
         <v>13</v>
       </c>
       <c r="J49" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K49" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L49" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="N49" t="s">
-        <v>1056</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.15">
@@ -21978,13 +21984,13 @@
         <v>22034007</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>1057</v>
+        <v>1051</v>
       </c>
       <c r="C50" s="7">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -22002,16 +22008,16 @@
         <v>13</v>
       </c>
       <c r="J50" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K50" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L50" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="N50" t="s">
-        <v>1059</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.15">
@@ -22019,13 +22025,13 @@
         <v>22034008</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="C51" s="7">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>1061</v>
+        <v>1055</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -22043,16 +22049,16 @@
         <v>13</v>
       </c>
       <c r="J51" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K51" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L51" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="N51" t="s">
-        <v>1062</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.15">
@@ -22060,13 +22066,13 @@
         <v>22034009</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="C52" s="7">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -22084,16 +22090,16 @@
         <v>13</v>
       </c>
       <c r="J52" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K52" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L52" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="N52" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.15">
@@ -22101,13 +22107,13 @@
         <v>22034010</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -22125,16 +22131,16 @@
         <v>13</v>
       </c>
       <c r="J53" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K53" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L53" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="N53" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.15">
@@ -22142,13 +22148,13 @@
         <v>22034011</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="C54" s="7">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -22166,16 +22172,16 @@
         <v>13</v>
       </c>
       <c r="J54" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K54" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L54" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="N54" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.15">
@@ -22183,13 +22189,13 @@
         <v>22035001</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1072</v>
+        <v>1066</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -22207,16 +22213,16 @@
         <v>16</v>
       </c>
       <c r="J55" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="K55" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L55" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N55" t="s">
-        <v>1073</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.15">
@@ -22224,13 +22230,13 @@
         <v>22035002</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="C56" s="7">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -22248,16 +22254,16 @@
         <v>16</v>
       </c>
       <c r="J56" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K56" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L56" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N56" t="s">
-        <v>1075</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.15">
@@ -22265,13 +22271,13 @@
         <v>22035003</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="C57" s="7">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -22289,16 +22295,16 @@
         <v>16</v>
       </c>
       <c r="J57" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K57" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L57" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N57" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.15">
@@ -22306,13 +22312,13 @@
         <v>22036101</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1078</v>
+        <v>1072</v>
       </c>
       <c r="C58" s="7">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -22324,16 +22330,16 @@
         <v>15</v>
       </c>
       <c r="J58" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K58" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L58" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N58" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.15">
@@ -22341,13 +22347,13 @@
         <v>22036102</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="C59" s="7">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -22359,16 +22365,16 @@
         <v>15</v>
       </c>
       <c r="J59" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K59" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L59" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N59" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
@@ -22376,13 +22382,13 @@
         <v>22036103</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="C60" s="7">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -22394,16 +22400,16 @@
         <v>15</v>
       </c>
       <c r="J60" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="K60" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L60" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N60" t="s">
-        <v>1086</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
@@ -22411,13 +22417,13 @@
         <v>22036104</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1087</v>
+        <v>1081</v>
       </c>
       <c r="C61" s="7">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>1088</v>
+        <v>1082</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -22429,16 +22435,16 @@
         <v>15</v>
       </c>
       <c r="J61" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K61" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L61" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N61" t="s">
-        <v>1089</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.15">
@@ -22446,13 +22452,13 @@
         <v>22036105</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1090</v>
+        <v>1084</v>
       </c>
       <c r="C62" s="7">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -22464,16 +22470,16 @@
         <v>15</v>
       </c>
       <c r="J62" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K62" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L62" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N62" t="s">
-        <v>1092</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.15">
@@ -22481,13 +22487,13 @@
         <v>22036106</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1093</v>
+        <v>1087</v>
       </c>
       <c r="C63" s="7">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -22499,16 +22505,16 @@
         <v>15</v>
       </c>
       <c r="J63" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K63" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L63" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N63" t="s">
-        <v>1095</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.15">
@@ -22516,13 +22522,13 @@
         <v>22036107</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1096</v>
+        <v>1090</v>
       </c>
       <c r="C64" s="7">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>1097</v>
+        <v>1091</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -22534,16 +22540,16 @@
         <v>15</v>
       </c>
       <c r="J64" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K64" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L64" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N64" t="s">
-        <v>1098</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.15">
@@ -22551,13 +22557,13 @@
         <v>22036108</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1099</v>
+        <v>1093</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>1100</v>
+        <v>1094</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -22569,16 +22575,16 @@
         <v>15</v>
       </c>
       <c r="J65" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K65" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L65" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N65" t="s">
-        <v>1101</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.15">
@@ -22586,13 +22592,13 @@
         <v>22036109</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="C66" s="7">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -22604,16 +22610,16 @@
         <v>15</v>
       </c>
       <c r="J66" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K66" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L66" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N66" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.15">
@@ -22621,13 +22627,13 @@
         <v>22036110</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="C67" s="7">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -22639,16 +22645,16 @@
         <v>15</v>
       </c>
       <c r="J67" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K67" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L67" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N67" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.15">
@@ -22656,13 +22662,13 @@
         <v>22036201</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="C68" s="7">
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -22674,16 +22680,16 @@
         <v>15</v>
       </c>
       <c r="J68" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K68" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L68" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N68" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.15">
@@ -22691,13 +22697,13 @@
         <v>22036202</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="C69" s="7">
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -22709,16 +22715,16 @@
         <v>15</v>
       </c>
       <c r="J69" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K69" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L69" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N69" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.15">
@@ -22726,13 +22732,13 @@
         <v>22036203</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="C70" s="7">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -22744,16 +22750,16 @@
         <v>15</v>
       </c>
       <c r="J70" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K70" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L70" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N70" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.15">
@@ -22761,13 +22767,13 @@
         <v>22036301</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="C71" s="7">
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -22779,16 +22785,16 @@
         <v>15</v>
       </c>
       <c r="J71" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="K71" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L71" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N71" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.15">
@@ -22796,13 +22802,13 @@
         <v>22036302</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="C72" s="7">
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -22814,16 +22820,16 @@
         <v>15</v>
       </c>
       <c r="J72" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K72" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L72" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N72" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.15">
@@ -22831,13 +22837,13 @@
         <v>22036303</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="C73" s="7">
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -22849,16 +22855,16 @@
         <v>15</v>
       </c>
       <c r="J73" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K73" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L73" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N73" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.15">
@@ -22866,13 +22872,13 @@
         <v>22036304</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="C74" s="7">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -22884,16 +22890,16 @@
         <v>15</v>
       </c>
       <c r="J74" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K74" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L74" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N74" t="s">
-        <v>1128</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.15">
@@ -22901,13 +22907,13 @@
         <v>22036305</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>1129</v>
+        <v>1123</v>
       </c>
       <c r="C75" s="7">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>1130</v>
+        <v>1124</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -22919,16 +22925,16 @@
         <v>15</v>
       </c>
       <c r="J75" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K75" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L75" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N75" t="s">
-        <v>1131</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.15">
@@ -22936,13 +22942,13 @@
         <v>22036306</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>1132</v>
+        <v>1126</v>
       </c>
       <c r="C76" s="7">
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>1133</v>
+        <v>1127</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -22954,16 +22960,16 @@
         <v>15</v>
       </c>
       <c r="J76" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K76" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L76" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N76" t="s">
-        <v>1134</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.15">
@@ -22971,13 +22977,13 @@
         <v>22036307</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>1135</v>
+        <v>1129</v>
       </c>
       <c r="C77" s="7">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>1136</v>
+        <v>1130</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -22989,16 +22995,16 @@
         <v>15</v>
       </c>
       <c r="J77" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K77" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L77" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N77" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.15">
@@ -23006,13 +23012,13 @@
         <v>22036308</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="C78" s="7">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>1139</v>
+        <v>1133</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -23024,16 +23030,16 @@
         <v>15</v>
       </c>
       <c r="J78" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K78" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L78" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N78" t="s">
-        <v>1140</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.15">
@@ -23041,13 +23047,13 @@
         <v>22036309</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>1141</v>
+        <v>1135</v>
       </c>
       <c r="C79" s="7">
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>1142</v>
+        <v>1136</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -23059,16 +23065,16 @@
         <v>15</v>
       </c>
       <c r="J79" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K79" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L79" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N79" t="s">
-        <v>1143</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.15">
@@ -23076,13 +23082,13 @@
         <v>22036310</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>1144</v>
+        <v>1138</v>
       </c>
       <c r="C80" s="7">
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -23094,16 +23100,16 @@
         <v>15</v>
       </c>
       <c r="J80" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K80" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L80" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N80" t="s">
-        <v>1146</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.15">
@@ -23111,13 +23117,13 @@
         <v>22036311</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>1147</v>
+        <v>1141</v>
       </c>
       <c r="C81" s="7">
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>1148</v>
+        <v>1142</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -23129,16 +23135,16 @@
         <v>15</v>
       </c>
       <c r="J81" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K81" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L81" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N81" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.15">
@@ -23146,13 +23152,13 @@
         <v>22036312</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>1150</v>
+        <v>1144</v>
       </c>
       <c r="C82" s="7">
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>1151</v>
+        <v>1145</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -23164,16 +23170,16 @@
         <v>15</v>
       </c>
       <c r="J82" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="K82" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L82" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N82" t="s">
-        <v>1152</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.15">
@@ -23181,13 +23187,13 @@
         <v>22036401</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>1153</v>
+        <v>1147</v>
       </c>
       <c r="C83" s="7">
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -23199,16 +23205,16 @@
         <v>15</v>
       </c>
       <c r="J83" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K83" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L83" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N83" t="s">
-        <v>1155</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.15">
@@ -23216,13 +23222,13 @@
         <v>22036402</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>1156</v>
+        <v>1150</v>
       </c>
       <c r="C84" s="7">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -23234,16 +23240,16 @@
         <v>15</v>
       </c>
       <c r="J84" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K84" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L84" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N84" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.15">
@@ -23251,13 +23257,13 @@
         <v>22036403</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="C85" s="7">
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -23269,16 +23275,16 @@
         <v>15</v>
       </c>
       <c r="J85" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K85" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L85" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N85" t="s">
-        <v>1161</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.15">
@@ -23286,13 +23292,13 @@
         <v>22036404</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="C86" s="7">
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -23304,16 +23310,16 @@
         <v>15</v>
       </c>
       <c r="J86" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K86" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L86" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N86" t="s">
-        <v>1164</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.15">
@@ -23321,13 +23327,13 @@
         <v>22036405</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>1165</v>
+        <v>1159</v>
       </c>
       <c r="C87" s="7">
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>1166</v>
+        <v>1160</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -23339,16 +23345,16 @@
         <v>15</v>
       </c>
       <c r="J87" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K87" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L87" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N87" t="s">
-        <v>1167</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.15">
@@ -23356,13 +23362,13 @@
         <v>22036406</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>1168</v>
+        <v>1162</v>
       </c>
       <c r="C88" s="7">
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>1169</v>
+        <v>1163</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -23374,16 +23380,16 @@
         <v>15</v>
       </c>
       <c r="J88" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K88" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L88" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N88" t="s">
-        <v>1170</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.15">
@@ -23391,13 +23397,13 @@
         <v>22036407</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>1171</v>
+        <v>1165</v>
       </c>
       <c r="C89" s="7">
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>1172</v>
+        <v>1166</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -23409,16 +23415,16 @@
         <v>15</v>
       </c>
       <c r="J89" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K89" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L89" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N89" t="s">
-        <v>1173</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.15">
@@ -23426,13 +23432,13 @@
         <v>22036408</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>1174</v>
+        <v>1168</v>
       </c>
       <c r="C90" s="7">
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -23444,16 +23450,16 @@
         <v>15</v>
       </c>
       <c r="J90" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K90" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L90" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N90" t="s">
-        <v>1176</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.15">
@@ -23461,13 +23467,13 @@
         <v>22036501</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>1177</v>
+        <v>1171</v>
       </c>
       <c r="C91" s="7">
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>1178</v>
+        <v>1172</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -23479,16 +23485,16 @@
         <v>15</v>
       </c>
       <c r="J91" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K91" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L91" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N91" t="s">
-        <v>1179</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.15">
@@ -23496,13 +23502,13 @@
         <v>22036502</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>1180</v>
+        <v>1174</v>
       </c>
       <c r="C92" s="7">
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>1181</v>
+        <v>1175</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -23514,16 +23520,16 @@
         <v>15</v>
       </c>
       <c r="J92" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K92" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L92" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N92" t="s">
-        <v>1182</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.15">
@@ -23531,13 +23537,13 @@
         <v>22037001</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="C93" s="7">
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>1184</v>
+        <v>1178</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -23552,16 +23558,16 @@
         <v>17</v>
       </c>
       <c r="J93" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K93" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L93" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N93" t="s">
-        <v>1185</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.15">
@@ -23569,13 +23575,13 @@
         <v>22037002</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>1186</v>
+        <v>1180</v>
       </c>
       <c r="C94" s="7">
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>1187</v>
+        <v>1181</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -23590,16 +23596,16 @@
         <v>17</v>
       </c>
       <c r="J94" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K94" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L94" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N94" t="s">
-        <v>1188</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.15">
@@ -23607,13 +23613,13 @@
         <v>22037003</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>1189</v>
+        <v>1183</v>
       </c>
       <c r="C95" s="7">
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>1190</v>
+        <v>1184</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -23628,16 +23634,16 @@
         <v>17</v>
       </c>
       <c r="J95" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K95" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L95" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N95" t="s">
-        <v>1191</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.15">
@@ -23645,13 +23651,13 @@
         <v>22037004</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>1192</v>
+        <v>1186</v>
       </c>
       <c r="C96" s="7">
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -23666,16 +23672,16 @@
         <v>17</v>
       </c>
       <c r="J96" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K96" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L96" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N96" t="s">
-        <v>1194</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.15">
@@ -23683,13 +23689,13 @@
         <v>22037101</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="C97" s="7">
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>1196</v>
+        <v>1190</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -23704,16 +23710,16 @@
         <v>13</v>
       </c>
       <c r="J97" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="K97" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L97" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="N97" t="s">
-        <v>1197</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.15">
@@ -23721,13 +23727,13 @@
         <v>22037102</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>1195</v>
+        <v>1189</v>
       </c>
       <c r="C98" s="7">
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>1198</v>
+        <v>1192</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -23742,16 +23748,16 @@
         <v>14</v>
       </c>
       <c r="J98" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K98" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L98" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="N98" t="s">
-        <v>1199</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.15">
@@ -23759,13 +23765,13 @@
         <v>22037103</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>1200</v>
+        <v>1194</v>
       </c>
       <c r="C99" s="7">
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -23780,19 +23786,19 @@
         <v>11</v>
       </c>
       <c r="J99" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K99" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L99" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="M99">
         <v>1</v>
       </c>
       <c r="N99" t="s">
-        <v>1201</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.15">
@@ -23800,13 +23806,13 @@
         <v>22037104</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>1202</v>
+        <v>1196</v>
       </c>
       <c r="C100" s="7">
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -23821,19 +23827,19 @@
         <v>11</v>
       </c>
       <c r="J100" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="K100" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
       <c r="L100" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="M100">
         <v>2</v>
       </c>
       <c r="N100" t="s">
-        <v>1203</v>
+        <v>1197</v>
       </c>
     </row>
   </sheetData>

--- a/ConfigData/Xlsx/HItem.xlsx
+++ b/ConfigData/Xlsx/HItem.xlsx
@@ -19927,7 +19927,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/ConfigData/Xlsx/HItem.xlsx
+++ b/ConfigData/Xlsx/HItem.xlsx
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="1372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="1370">
   <si>
     <t>血蓟</t>
   </si>
@@ -3889,22 +3889,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>使用后获得随机卡片5张，极小概率获得高等级卡片</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>获得一张随机武器卡(战斗时使用)</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>使用后获得随机卡片5张，小概率获得高等级卡片</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用后获得随机卡片5张，高概率获得高等级卡片</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>随机幻兽卡</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -4515,6 +4503,10 @@
   </si>
   <si>
     <t>libaohei</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后获得随机卡片5张</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -5364,7 +5356,14 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="55">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -6711,78 +6710,78 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:N346" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51" tableBorderDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:N346" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52" tableBorderDxfId="51">
   <autoFilter ref="A3:N346"/>
   <sortState ref="A4:O435">
     <sortCondition ref="A3:A435"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="49"/>
-    <tableColumn id="2" name="Name" dataDxfId="48"/>
-    <tableColumn id="3" name="Type" dataDxfId="47"/>
-    <tableColumn id="4" name="Descript" dataDxfId="46"/>
-    <tableColumn id="5" name="Level" dataDxfId="45"/>
-    <tableColumn id="6" name="Rare" dataDxfId="44"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="43"/>
-    <tableColumn id="8" name="Value" dataDxfId="42"/>
-    <tableColumn id="9" name="SubType" dataDxfId="41"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="40"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="39"/>
-    <tableColumn id="15" name="IsRandom" dataDxfId="38"/>
-    <tableColumn id="13" name="CdGroup" dataDxfId="37"/>
-    <tableColumn id="14" name="Url" dataDxfId="36"/>
+    <tableColumn id="1" name="Id" dataDxfId="50"/>
+    <tableColumn id="2" name="Name" dataDxfId="49"/>
+    <tableColumn id="3" name="Type" dataDxfId="48"/>
+    <tableColumn id="4" name="Descript" dataDxfId="47"/>
+    <tableColumn id="5" name="Level" dataDxfId="46"/>
+    <tableColumn id="6" name="Rare" dataDxfId="45"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="44"/>
+    <tableColumn id="8" name="Value" dataDxfId="43"/>
+    <tableColumn id="9" name="SubType" dataDxfId="42"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="41"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="40"/>
+    <tableColumn id="15" name="IsRandom" dataDxfId="39"/>
+    <tableColumn id="13" name="CdGroup" dataDxfId="38"/>
+    <tableColumn id="14" name="Url" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:N14" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33" tableBorderDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:N14" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33">
   <autoFilter ref="A3:N14"/>
   <sortState ref="A4:O435">
     <sortCondition ref="A3:A435"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="31"/>
-    <tableColumn id="2" name="Name" dataDxfId="30"/>
-    <tableColumn id="3" name="Type" dataDxfId="29"/>
-    <tableColumn id="4" name="Descript" dataDxfId="28"/>
-    <tableColumn id="5" name="Level" dataDxfId="27"/>
-    <tableColumn id="6" name="Rare" dataDxfId="26"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="25"/>
-    <tableColumn id="8" name="Value" dataDxfId="24"/>
-    <tableColumn id="9" name="SubType" dataDxfId="23"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="22"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="21"/>
-    <tableColumn id="15" name="IsRandom" dataDxfId="20"/>
-    <tableColumn id="13" name="CdGroup" dataDxfId="19"/>
-    <tableColumn id="14" name="Url" dataDxfId="18"/>
+    <tableColumn id="1" name="Id" dataDxfId="32"/>
+    <tableColumn id="2" name="Name" dataDxfId="31"/>
+    <tableColumn id="3" name="Type" dataDxfId="30"/>
+    <tableColumn id="4" name="Descript" dataDxfId="29"/>
+    <tableColumn id="5" name="Level" dataDxfId="28"/>
+    <tableColumn id="6" name="Rare" dataDxfId="27"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="26"/>
+    <tableColumn id="8" name="Value" dataDxfId="25"/>
+    <tableColumn id="9" name="SubType" dataDxfId="24"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="23"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="22"/>
+    <tableColumn id="15" name="IsRandom" dataDxfId="21"/>
+    <tableColumn id="13" name="CdGroup" dataDxfId="20"/>
+    <tableColumn id="14" name="Url" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:N100" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:N100" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A3:N100"/>
   <sortState ref="A4:O99">
     <sortCondition ref="A3:A99"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="13"/>
-    <tableColumn id="2" name="Name" dataDxfId="12"/>
-    <tableColumn id="3" name="Type" dataDxfId="11"/>
-    <tableColumn id="4" name="Descript" dataDxfId="10"/>
-    <tableColumn id="5" name="Level" dataDxfId="9"/>
-    <tableColumn id="6" name="Rare" dataDxfId="8"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="7"/>
-    <tableColumn id="8" name="Value" dataDxfId="6"/>
-    <tableColumn id="9" name="SubType" dataDxfId="5"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="4"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="3"/>
-    <tableColumn id="15" name="IsRandom" dataDxfId="2"/>
-    <tableColumn id="13" name="CdGroup" dataDxfId="1"/>
-    <tableColumn id="14" name="Url" dataDxfId="0"/>
+    <tableColumn id="1" name="Id" dataDxfId="14"/>
+    <tableColumn id="2" name="Name" dataDxfId="13"/>
+    <tableColumn id="3" name="Type" dataDxfId="12"/>
+    <tableColumn id="4" name="Descript" dataDxfId="11"/>
+    <tableColumn id="5" name="Level" dataDxfId="10"/>
+    <tableColumn id="6" name="Rare" dataDxfId="9"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="8"/>
+    <tableColumn id="8" name="Value" dataDxfId="7"/>
+    <tableColumn id="9" name="SubType" dataDxfId="6"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="5"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="4"/>
+    <tableColumn id="15" name="IsRandom" dataDxfId="3"/>
+    <tableColumn id="13" name="CdGroup" dataDxfId="2"/>
+    <tableColumn id="14" name="Url" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7123,7 +7122,7 @@
         <v>1179</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>1181</v>
@@ -10962,13 +10961,13 @@
         <v>22011057</v>
       </c>
       <c r="B95" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="C95">
         <v>2</v>
       </c>
       <c r="D95" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -10995,7 +10994,7 @@
         <v>1202</v>
       </c>
       <c r="N95" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.25">
@@ -11577,13 +11576,13 @@
         <v>22011072</v>
       </c>
       <c r="B110" t="s">
-        <v>1260</v>
+        <v>1257</v>
       </c>
       <c r="C110">
         <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -11610,7 +11609,7 @@
         <v>1202</v>
       </c>
       <c r="N110" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.25">
@@ -15226,13 +15225,13 @@
         <v>22011161</v>
       </c>
       <c r="B199" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="C199">
         <v>2</v>
       </c>
       <c r="D199" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -15259,7 +15258,7 @@
         <v>1202</v>
       </c>
       <c r="N199" t="s">
-        <v>1264</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.25">
@@ -15997,7 +15996,7 @@
         <v>1202</v>
       </c>
       <c r="N217" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.25">
@@ -16251,13 +16250,13 @@
         <v>22011186</v>
       </c>
       <c r="B224" t="s">
-        <v>1237</v>
+        <v>1234</v>
       </c>
       <c r="C224">
         <v>2</v>
       </c>
       <c r="D224" t="s">
-        <v>1238</v>
+        <v>1235</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -16284,7 +16283,7 @@
         <v>1202</v>
       </c>
       <c r="N224" t="s">
-        <v>1236</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.25">
@@ -16292,13 +16291,13 @@
         <v>22011187</v>
       </c>
       <c r="B225" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="C225">
         <v>2</v>
       </c>
       <c r="D225" t="s">
-        <v>1241</v>
+        <v>1238</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -16325,7 +16324,7 @@
         <v>1202</v>
       </c>
       <c r="N225" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.25">
@@ -16333,13 +16332,13 @@
         <v>22011188</v>
       </c>
       <c r="B226" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="C226">
         <v>2</v>
       </c>
       <c r="D226" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -16366,7 +16365,7 @@
         <v>1202</v>
       </c>
       <c r="N226" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.25">
@@ -16374,13 +16373,13 @@
         <v>22011189</v>
       </c>
       <c r="B227" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="C227">
         <v>2</v>
       </c>
       <c r="D227" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -16407,7 +16406,7 @@
         <v>1202</v>
       </c>
       <c r="N227" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.25">
@@ -16415,13 +16414,13 @@
         <v>22011190</v>
       </c>
       <c r="B228" t="s">
-        <v>1249</v>
+        <v>1246</v>
       </c>
       <c r="C228">
         <v>2</v>
       </c>
       <c r="D228" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -16449,7 +16448,7 @@
       </c>
       <c r="M228" s="19"/>
       <c r="N228" s="19" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.25">
@@ -16457,13 +16456,13 @@
         <v>22011191</v>
       </c>
       <c r="B229" t="s">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="C229">
         <v>2</v>
       </c>
       <c r="D229" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -16491,7 +16490,7 @@
       </c>
       <c r="M229" s="19"/>
       <c r="N229" s="19" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.25">
@@ -16499,13 +16498,13 @@
         <v>22011192</v>
       </c>
       <c r="B230" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="C230">
         <v>2</v>
       </c>
       <c r="D230" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -16533,7 +16532,7 @@
       </c>
       <c r="M230" s="19"/>
       <c r="N230" s="19" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.25">
@@ -16541,13 +16540,13 @@
         <v>22011193</v>
       </c>
       <c r="B231" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="C231">
         <v>2</v>
       </c>
       <c r="D231" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -16575,7 +16574,7 @@
       </c>
       <c r="M231" s="19"/>
       <c r="N231" s="19" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.25">
@@ -16583,13 +16582,13 @@
         <v>22011194</v>
       </c>
       <c r="B232" t="s">
-        <v>1271</v>
+        <v>1268</v>
       </c>
       <c r="C232">
         <v>2</v>
       </c>
       <c r="D232" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -16617,7 +16616,7 @@
       </c>
       <c r="M232" s="19"/>
       <c r="N232" s="19" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.25">
@@ -16625,13 +16624,13 @@
         <v>22011195</v>
       </c>
       <c r="B233" t="s">
-        <v>1272</v>
+        <v>1269</v>
       </c>
       <c r="C233">
         <v>2</v>
       </c>
       <c r="D233" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -16659,7 +16658,7 @@
       </c>
       <c r="M233" s="19"/>
       <c r="N233" s="19" t="s">
-        <v>1270</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.25">
@@ -16667,13 +16666,13 @@
         <v>22011196</v>
       </c>
       <c r="B234" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="C234">
         <v>2</v>
       </c>
       <c r="D234" t="s">
-        <v>1277</v>
+        <v>1274</v>
       </c>
       <c r="E234">
         <v>1</v>
@@ -16701,7 +16700,7 @@
       </c>
       <c r="M234" s="19"/>
       <c r="N234" s="19" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.25">
@@ -16709,13 +16708,13 @@
         <v>22011197</v>
       </c>
       <c r="B235" t="s">
-        <v>1279</v>
+        <v>1276</v>
       </c>
       <c r="C235">
         <v>2</v>
       </c>
       <c r="D235" t="s">
-        <v>1280</v>
+        <v>1277</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -16743,7 +16742,7 @@
       </c>
       <c r="M235" s="19"/>
       <c r="N235" s="19" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.25">
@@ -16751,13 +16750,13 @@
         <v>22011198</v>
       </c>
       <c r="B236" t="s">
-        <v>1282</v>
+        <v>1279</v>
       </c>
       <c r="C236">
         <v>2</v>
       </c>
       <c r="D236" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -16785,7 +16784,7 @@
       </c>
       <c r="M236" s="19"/>
       <c r="N236" s="19" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.25">
@@ -16793,13 +16792,13 @@
         <v>22011199</v>
       </c>
       <c r="B237" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="C237">
         <v>2</v>
       </c>
       <c r="D237" t="s">
-        <v>1286</v>
+        <v>1283</v>
       </c>
       <c r="E237">
         <v>1</v>
@@ -16827,7 +16826,7 @@
       </c>
       <c r="M237" s="19"/>
       <c r="N237" s="19" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.25">
@@ -16835,13 +16834,13 @@
         <v>22011200</v>
       </c>
       <c r="B238" t="s">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="C238">
         <v>2</v>
       </c>
       <c r="D238" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="E238">
         <v>1</v>
@@ -16869,7 +16868,7 @@
       </c>
       <c r="M238" s="19"/>
       <c r="N238" s="19" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.25">
@@ -16877,13 +16876,13 @@
         <v>22011201</v>
       </c>
       <c r="B239" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="C239">
         <v>2</v>
       </c>
       <c r="D239" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="E239">
         <v>1</v>
@@ -16911,7 +16910,7 @@
       </c>
       <c r="M239" s="19"/>
       <c r="N239" s="19" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.25">
@@ -16919,13 +16918,13 @@
         <v>22011202</v>
       </c>
       <c r="B240" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="C240">
         <v>2</v>
       </c>
       <c r="D240" t="s">
-        <v>1292</v>
+        <v>1289</v>
       </c>
       <c r="E240">
         <v>1</v>
@@ -16953,7 +16952,7 @@
       </c>
       <c r="M240" s="19"/>
       <c r="N240" s="19" t="s">
-        <v>1290</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.25">
@@ -16961,13 +16960,13 @@
         <v>22011203</v>
       </c>
       <c r="B241" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="C241">
         <v>2</v>
       </c>
       <c r="D241" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -16995,7 +16994,7 @@
       </c>
       <c r="M241" s="19"/>
       <c r="N241" s="19" t="s">
-        <v>1293</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.25">
@@ -17003,13 +17002,13 @@
         <v>22011204</v>
       </c>
       <c r="B242" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="C242">
         <v>2</v>
       </c>
       <c r="D242" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -17037,7 +17036,7 @@
       </c>
       <c r="M242" s="19"/>
       <c r="N242" s="19" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.25">
@@ -17045,13 +17044,13 @@
         <v>22011205</v>
       </c>
       <c r="B243" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="C243">
         <v>2</v>
       </c>
       <c r="D243" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -17079,7 +17078,7 @@
       </c>
       <c r="M243" s="19"/>
       <c r="N243" s="19" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.25">
@@ -17087,13 +17086,13 @@
         <v>22011206</v>
       </c>
       <c r="B244" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="C244">
         <v>2</v>
       </c>
       <c r="D244" t="s">
-        <v>1304</v>
+        <v>1301</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -17121,7 +17120,7 @@
       </c>
       <c r="M244" s="19"/>
       <c r="N244" s="19" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.25">
@@ -17129,13 +17128,13 @@
         <v>22011207</v>
       </c>
       <c r="B245" t="s">
-        <v>1306</v>
+        <v>1303</v>
       </c>
       <c r="C245">
         <v>2</v>
       </c>
       <c r="D245" t="s">
-        <v>1307</v>
+        <v>1304</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -17163,7 +17162,7 @@
       </c>
       <c r="M245" s="19"/>
       <c r="N245" s="19" t="s">
-        <v>1305</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.25">
@@ -17171,13 +17170,13 @@
         <v>22011208</v>
       </c>
       <c r="B246" t="s">
-        <v>1309</v>
+        <v>1306</v>
       </c>
       <c r="C246">
         <v>2</v>
       </c>
       <c r="D246" t="s">
-        <v>1310</v>
+        <v>1307</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -17205,7 +17204,7 @@
       </c>
       <c r="M246" s="19"/>
       <c r="N246" s="19" t="s">
-        <v>1308</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.25">
@@ -17213,13 +17212,13 @@
         <v>22011209</v>
       </c>
       <c r="B247" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="C247">
         <v>2</v>
       </c>
       <c r="D247" t="s">
-        <v>1313</v>
+        <v>1310</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -17247,7 +17246,7 @@
       </c>
       <c r="M247" s="19"/>
       <c r="N247" s="19" t="s">
-        <v>1311</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.25">
@@ -17255,13 +17254,13 @@
         <v>22011210</v>
       </c>
       <c r="B248" t="s">
-        <v>1315</v>
+        <v>1312</v>
       </c>
       <c r="C248">
         <v>2</v>
       </c>
       <c r="D248" t="s">
-        <v>1316</v>
+        <v>1313</v>
       </c>
       <c r="E248">
         <v>1</v>
@@ -17289,7 +17288,7 @@
       </c>
       <c r="M248" s="19"/>
       <c r="N248" s="19" t="s">
-        <v>1335</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.25">
@@ -17297,13 +17296,13 @@
         <v>22011211</v>
       </c>
       <c r="B249" t="s">
-        <v>1318</v>
+        <v>1315</v>
       </c>
       <c r="C249">
         <v>2</v>
       </c>
       <c r="D249" t="s">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -17331,7 +17330,7 @@
       </c>
       <c r="M249" s="19"/>
       <c r="N249" s="19" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.25">
@@ -17339,13 +17338,13 @@
         <v>22011212</v>
       </c>
       <c r="B250" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="C250">
         <v>2</v>
       </c>
       <c r="D250" t="s">
-        <v>1322</v>
+        <v>1319</v>
       </c>
       <c r="E250">
         <v>1</v>
@@ -17373,7 +17372,7 @@
       </c>
       <c r="M250" s="19"/>
       <c r="N250" s="19" t="s">
-        <v>1320</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="251" spans="1:14" x14ac:dyDescent="0.25">
@@ -17381,13 +17380,13 @@
         <v>22011213</v>
       </c>
       <c r="B251" t="s">
-        <v>1324</v>
+        <v>1321</v>
       </c>
       <c r="C251">
         <v>2</v>
       </c>
       <c r="D251" t="s">
-        <v>1325</v>
+        <v>1322</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -17415,7 +17414,7 @@
       </c>
       <c r="M251" s="19"/>
       <c r="N251" s="19" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.25">
@@ -17423,13 +17422,13 @@
         <v>22011214</v>
       </c>
       <c r="B252" t="s">
-        <v>1327</v>
+        <v>1324</v>
       </c>
       <c r="C252">
         <v>2</v>
       </c>
       <c r="D252" t="s">
-        <v>1328</v>
+        <v>1325</v>
       </c>
       <c r="E252">
         <v>1</v>
@@ -17457,7 +17456,7 @@
       </c>
       <c r="M252" s="19"/>
       <c r="N252" s="19" t="s">
-        <v>1326</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.25">
@@ -17465,13 +17464,13 @@
         <v>22011215</v>
       </c>
       <c r="B253" t="s">
-        <v>1330</v>
+        <v>1327</v>
       </c>
       <c r="C253">
         <v>2</v>
       </c>
       <c r="D253" t="s">
-        <v>1331</v>
+        <v>1328</v>
       </c>
       <c r="E253">
         <v>1</v>
@@ -17499,7 +17498,7 @@
       </c>
       <c r="M253" s="19"/>
       <c r="N253" s="19" t="s">
-        <v>1329</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.25">
@@ -17507,13 +17506,13 @@
         <v>22011216</v>
       </c>
       <c r="B254" t="s">
-        <v>1332</v>
+        <v>1329</v>
       </c>
       <c r="C254">
         <v>2</v>
       </c>
       <c r="D254" t="s">
-        <v>1333</v>
+        <v>1330</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -17549,13 +17548,13 @@
         <v>22011217</v>
       </c>
       <c r="B255" t="s">
-        <v>1336</v>
+        <v>1333</v>
       </c>
       <c r="C255">
         <v>2</v>
       </c>
       <c r="D255" t="s">
-        <v>1337</v>
+        <v>1334</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -17583,7 +17582,7 @@
       </c>
       <c r="M255" s="19"/>
       <c r="N255" s="19" t="s">
-        <v>1334</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.25">
@@ -17591,13 +17590,13 @@
         <v>22011218</v>
       </c>
       <c r="B256" t="s">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="C256">
         <v>2</v>
       </c>
       <c r="D256" t="s">
-        <v>1340</v>
+        <v>1337</v>
       </c>
       <c r="E256">
         <v>1</v>
@@ -17625,7 +17624,7 @@
       </c>
       <c r="M256" s="19"/>
       <c r="N256" s="19" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="257" spans="1:14" x14ac:dyDescent="0.25">
@@ -17633,13 +17632,13 @@
         <v>22011219</v>
       </c>
       <c r="B257" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="C257">
         <v>2</v>
       </c>
       <c r="D257" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="E257">
         <v>1</v>
@@ -17666,7 +17665,7 @@
         <v>1202</v>
       </c>
       <c r="N257" t="s">
-        <v>1341</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="258" spans="1:14" x14ac:dyDescent="0.25">
@@ -17674,13 +17673,13 @@
         <v>22011220</v>
       </c>
       <c r="B258" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="C258">
         <v>2</v>
       </c>
       <c r="D258" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="E258">
         <v>1</v>
@@ -17707,7 +17706,7 @@
         <v>1202</v>
       </c>
       <c r="N258" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.25">
@@ -17715,13 +17714,13 @@
         <v>22011221</v>
       </c>
       <c r="B259" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="C259">
         <v>2</v>
       </c>
       <c r="D259" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="E259">
         <v>1</v>
@@ -17748,7 +17747,7 @@
         <v>1202</v>
       </c>
       <c r="N259" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.25">
@@ -18878,7 +18877,7 @@
         <v>1202</v>
       </c>
       <c r="N287" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.25">
@@ -21303,7 +21302,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A4:N346">
-    <cfRule type="containsBlanks" dxfId="53" priority="1">
+    <cfRule type="containsBlanks" dxfId="54" priority="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21528,7 +21527,7 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="K5" t="s">
         <v>1203</v>
@@ -21876,7 +21875,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A4:N14">
-    <cfRule type="containsBlanks" dxfId="35" priority="1">
+    <cfRule type="containsBlanks" dxfId="36" priority="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21894,10 +21893,10 @@
   <dimension ref="A1:N100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B49" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N11" sqref="N11"/>
+      <selection pane="bottomRight" activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -22075,7 +22074,7 @@
         <v>1203</v>
       </c>
       <c r="L4" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N4" t="s">
         <v>927</v>
@@ -22086,13 +22085,13 @@
         <v>22031002</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -22107,7 +22106,7 @@
         <v>50</v>
       </c>
       <c r="I5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
         <v>1201</v>
@@ -22116,7 +22115,7 @@
         <v>1203</v>
       </c>
       <c r="L5" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N5" t="s">
         <v>928</v>
@@ -22127,13 +22126,13 @@
         <v>22031003</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -22148,7 +22147,7 @@
         <v>50</v>
       </c>
       <c r="I6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
         <v>1201</v>
@@ -22157,7 +22156,7 @@
         <v>1203</v>
       </c>
       <c r="L6" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N6" t="s">
         <v>929</v>
@@ -22168,13 +22167,13 @@
         <v>22031004</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -22189,16 +22188,16 @@
         <v>50</v>
       </c>
       <c r="I7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="K7" t="s">
         <v>1203</v>
       </c>
       <c r="L7" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N7" t="s">
         <v>930</v>
@@ -22209,13 +22208,13 @@
         <v>22031005</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -22230,7 +22229,7 @@
         <v>50</v>
       </c>
       <c r="I8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
         <v>1201</v>
@@ -22239,7 +22238,7 @@
         <v>1203</v>
       </c>
       <c r="L8" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N8" t="s">
         <v>931</v>
@@ -22250,13 +22249,13 @@
         <v>22031006</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -22271,7 +22270,7 @@
         <v>50</v>
       </c>
       <c r="I9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
         <v>1201</v>
@@ -22280,10 +22279,10 @@
         <v>1203</v>
       </c>
       <c r="L9" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N9" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -22291,13 +22290,13 @@
         <v>22031007</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -22312,7 +22311,7 @@
         <v>50</v>
       </c>
       <c r="I10">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
         <v>1201</v>
@@ -22321,10 +22320,10 @@
         <v>1203</v>
       </c>
       <c r="L10" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N10" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -22332,13 +22331,13 @@
         <v>22031008</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -22353,7 +22352,7 @@
         <v>50</v>
       </c>
       <c r="I11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
         <v>1201</v>
@@ -22362,10 +22361,10 @@
         <v>1203</v>
       </c>
       <c r="L11" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N11" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -22403,7 +22402,7 @@
         <v>1203</v>
       </c>
       <c r="L12" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N12" t="s">
         <v>934</v>
@@ -22444,7 +22443,7 @@
         <v>1203</v>
       </c>
       <c r="L13" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N13" t="s">
         <v>937</v>
@@ -22485,7 +22484,7 @@
         <v>1203</v>
       </c>
       <c r="L14" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N14" t="s">
         <v>940</v>
@@ -22502,7 +22501,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -22523,7 +22522,7 @@
         <v>1203</v>
       </c>
       <c r="L15" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N15" t="s">
         <v>942</v>
@@ -22561,7 +22560,7 @@
         <v>1203</v>
       </c>
       <c r="L16" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N16" t="s">
         <v>945</v>
@@ -22599,7 +22598,7 @@
         <v>1203</v>
       </c>
       <c r="L17" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N17" t="s">
         <v>948</v>
@@ -22616,7 +22615,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -22640,7 +22639,7 @@
         <v>1201</v>
       </c>
       <c r="L18" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N18" t="s">
         <v>950</v>
@@ -22657,7 +22656,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -22681,7 +22680,7 @@
         <v>1201</v>
       </c>
       <c r="L19" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N19" t="s">
         <v>952</v>
@@ -22698,7 +22697,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -22722,7 +22721,7 @@
         <v>1201</v>
       </c>
       <c r="L20" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N20" t="s">
         <v>954</v>
@@ -22739,7 +22738,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -22763,7 +22762,7 @@
         <v>1201</v>
       </c>
       <c r="L21" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N21" t="s">
         <v>956</v>
@@ -22780,7 +22779,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -22821,7 +22820,7 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>1233</v>
+        <v>1230</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -22897,13 +22896,13 @@
         <v>22032008</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1229</v>
+        <v>1226</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -22930,7 +22929,7 @@
         <v>1204</v>
       </c>
       <c r="N25" t="s">
-        <v>1227</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -22968,7 +22967,7 @@
         <v>1201</v>
       </c>
       <c r="L26" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="M26">
         <v>2</v>
@@ -23012,7 +23011,7 @@
         <v>1201</v>
       </c>
       <c r="L27" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="M27">
         <v>2</v>
@@ -23056,7 +23055,7 @@
         <v>1201</v>
       </c>
       <c r="L28" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="M28">
         <v>2</v>
@@ -23100,7 +23099,7 @@
         <v>1201</v>
       </c>
       <c r="L29" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="M29">
         <v>3</v>
@@ -23144,7 +23143,7 @@
         <v>1201</v>
       </c>
       <c r="L30" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="M30">
         <v>3</v>
@@ -23188,7 +23187,7 @@
         <v>1201</v>
       </c>
       <c r="L31" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="M31">
         <v>3</v>
@@ -23232,7 +23231,7 @@
         <v>1201</v>
       </c>
       <c r="L32" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="M32">
         <v>1</v>
@@ -23276,7 +23275,7 @@
         <v>1201</v>
       </c>
       <c r="L33" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="M33">
         <v>1</v>
@@ -23320,7 +23319,7 @@
         <v>1201</v>
       </c>
       <c r="L34" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="M34">
         <v>1</v>
@@ -23334,7 +23333,7 @@
         <v>22033013</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
@@ -23364,7 +23363,7 @@
         <v>1201</v>
       </c>
       <c r="L35" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="M35">
         <v>1</v>
@@ -23384,7 +23383,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -23408,7 +23407,7 @@
         <v>1201</v>
       </c>
       <c r="L36" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="M36">
         <v>4</v>
@@ -23452,7 +23451,7 @@
         <v>1201</v>
       </c>
       <c r="L37" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="M37">
         <v>4</v>
@@ -23490,13 +23489,13 @@
         <v>11</v>
       </c>
       <c r="J38" t="s">
-        <v>1224</v>
+        <v>1221</v>
       </c>
       <c r="K38" t="s">
         <v>1201</v>
       </c>
       <c r="L38" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="M38">
         <v>4</v>
@@ -23540,7 +23539,7 @@
         <v>1201</v>
       </c>
       <c r="L39" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="M39">
         <v>4</v>
@@ -23584,7 +23583,7 @@
         <v>1201</v>
       </c>
       <c r="L40" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="M40">
         <v>4</v>
@@ -23628,7 +23627,7 @@
         <v>1201</v>
       </c>
       <c r="L41" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="M41">
         <v>1</v>
@@ -23672,7 +23671,7 @@
         <v>1201</v>
       </c>
       <c r="L42" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="M42">
         <v>1</v>
@@ -23716,7 +23715,7 @@
         <v>1201</v>
       </c>
       <c r="L43" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="M43">
         <v>1</v>
@@ -23754,13 +23753,13 @@
         <v>13</v>
       </c>
       <c r="J44" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="K44" t="s">
         <v>1201</v>
       </c>
       <c r="L44" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N44" t="s">
         <v>1006</v>
@@ -23801,7 +23800,7 @@
         <v>1201</v>
       </c>
       <c r="L45" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N45" t="s">
         <v>1009</v>
@@ -23842,7 +23841,7 @@
         <v>1201</v>
       </c>
       <c r="L46" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N46" t="s">
         <v>1012</v>
@@ -23883,7 +23882,7 @@
         <v>1201</v>
       </c>
       <c r="L47" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N47" t="s">
         <v>1015</v>
@@ -23924,7 +23923,7 @@
         <v>1201</v>
       </c>
       <c r="L48" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N48" t="s">
         <v>1018</v>
@@ -23965,7 +23964,7 @@
         <v>1201</v>
       </c>
       <c r="L49" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N49" t="s">
         <v>1021</v>
@@ -24006,7 +24005,7 @@
         <v>1201</v>
       </c>
       <c r="L50" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N50" t="s">
         <v>1024</v>
@@ -24047,7 +24046,7 @@
         <v>1201</v>
       </c>
       <c r="L51" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N51" t="s">
         <v>1027</v>
@@ -24088,7 +24087,7 @@
         <v>1201</v>
       </c>
       <c r="L52" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N52" t="s">
         <v>1030</v>
@@ -24129,7 +24128,7 @@
         <v>1201</v>
       </c>
       <c r="L53" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N53" t="s">
         <v>1033</v>
@@ -24170,7 +24169,7 @@
         <v>1201</v>
       </c>
       <c r="L54" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N54" t="s">
         <v>1036</v>
@@ -24187,7 +24186,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>1214</v>
+        <v>1369</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -24228,7 +24227,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>1216</v>
+        <v>1369</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -24269,7 +24268,7 @@
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>1217</v>
+        <v>1369</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -25702,13 +25701,13 @@
         <v>13</v>
       </c>
       <c r="J97" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="K97" t="s">
         <v>1201</v>
       </c>
       <c r="L97" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="N97" t="s">
         <v>1162</v>
@@ -25763,7 +25762,7 @@
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -25784,7 +25783,7 @@
         <v>1201</v>
       </c>
       <c r="L99" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="M99">
         <v>1</v>
@@ -25804,7 +25803,7 @@
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -25825,7 +25824,7 @@
         <v>1201</v>
       </c>
       <c r="L100" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="M100">
         <v>2</v>
@@ -25837,7 +25836,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="D4:N100">
-    <cfRule type="containsBlanks" dxfId="17" priority="1">
+    <cfRule type="containsBlanks" dxfId="18" priority="1">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/HItem.xlsx
+++ b/ConfigData/Xlsx/HItem.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="36" windowWidth="18132" windowHeight="8388" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="材料" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2832" uniqueCount="1370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2850" uniqueCount="1376">
   <si>
     <t>血蓟</t>
   </si>
@@ -4432,34 +4432,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>随机卡牌（无）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机卡牌（水）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机卡牌（风）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机卡牌（地）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机卡牌（火）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机卡牌（光）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机卡牌（暗）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>获得一张随机无属性卡牌</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -4509,6 +4481,51 @@
   </si>
   <si>
     <t>对敌方所有单位造成100点伤害(战斗时使用)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌补给包（无）</t>
+  </si>
+  <si>
+    <t>卡牌补给包（水）</t>
+  </si>
+  <si>
+    <t>卡牌补给包（风）</t>
+  </si>
+  <si>
+    <t>卡牌补给包（地）</t>
+  </si>
+  <si>
+    <t>卡牌补给包（火）</t>
+  </si>
+  <si>
+    <t>卡牌补给包（光）</t>
+  </si>
+  <si>
+    <t>卡牌补给包（暗）</t>
+  </si>
+  <si>
+    <t>卡牌补给包（生物）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌补给包（武器）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌补给包（法术）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得一张随机生物卡牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得一张随机武器卡牌</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得一张随机法术卡牌</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -5358,7 +5375,35 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="56">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5804,13 +5849,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -6244,13 +6282,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="3" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6691,13 +6722,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -6712,78 +6736,78 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:N346" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52" tableBorderDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:N346" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" tableBorderDxfId="53">
   <autoFilter ref="A3:N346"/>
   <sortState ref="A4:O435">
     <sortCondition ref="A3:A435"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="50"/>
-    <tableColumn id="2" name="Name" dataDxfId="49"/>
-    <tableColumn id="3" name="Type" dataDxfId="48"/>
-    <tableColumn id="4" name="Descript" dataDxfId="47"/>
-    <tableColumn id="5" name="Level" dataDxfId="46"/>
-    <tableColumn id="6" name="Rare" dataDxfId="45"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="44"/>
-    <tableColumn id="8" name="Value" dataDxfId="43"/>
-    <tableColumn id="9" name="SubType" dataDxfId="42"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="41"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="40"/>
-    <tableColumn id="15" name="IsRandom" dataDxfId="39"/>
-    <tableColumn id="13" name="CdGroup" dataDxfId="38"/>
-    <tableColumn id="14" name="Url" dataDxfId="37"/>
+    <tableColumn id="1" name="Id" dataDxfId="52"/>
+    <tableColumn id="2" name="Name" dataDxfId="51"/>
+    <tableColumn id="3" name="Type" dataDxfId="50"/>
+    <tableColumn id="4" name="Descript" dataDxfId="49"/>
+    <tableColumn id="5" name="Level" dataDxfId="48"/>
+    <tableColumn id="6" name="Rare" dataDxfId="47"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="46"/>
+    <tableColumn id="8" name="Value" dataDxfId="45"/>
+    <tableColumn id="9" name="SubType" dataDxfId="44"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="43"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="42"/>
+    <tableColumn id="15" name="IsRandom" dataDxfId="41"/>
+    <tableColumn id="13" name="CdGroup" dataDxfId="40"/>
+    <tableColumn id="14" name="Url" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:N14" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:N14" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37" tableBorderDxfId="36">
   <autoFilter ref="A3:N14"/>
   <sortState ref="A4:O435">
     <sortCondition ref="A3:A435"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="32"/>
-    <tableColumn id="2" name="Name" dataDxfId="31"/>
-    <tableColumn id="3" name="Type" dataDxfId="30"/>
-    <tableColumn id="4" name="Descript" dataDxfId="29"/>
-    <tableColumn id="5" name="Level" dataDxfId="28"/>
-    <tableColumn id="6" name="Rare" dataDxfId="27"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="26"/>
-    <tableColumn id="8" name="Value" dataDxfId="25"/>
-    <tableColumn id="9" name="SubType" dataDxfId="24"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="23"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="22"/>
-    <tableColumn id="15" name="IsRandom" dataDxfId="21"/>
-    <tableColumn id="13" name="CdGroup" dataDxfId="20"/>
-    <tableColumn id="14" name="Url" dataDxfId="19"/>
+    <tableColumn id="1" name="Id" dataDxfId="35"/>
+    <tableColumn id="2" name="Name" dataDxfId="34"/>
+    <tableColumn id="3" name="Type" dataDxfId="33"/>
+    <tableColumn id="4" name="Descript" dataDxfId="32"/>
+    <tableColumn id="5" name="Level" dataDxfId="31"/>
+    <tableColumn id="6" name="Rare" dataDxfId="30"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="29"/>
+    <tableColumn id="8" name="Value" dataDxfId="28"/>
+    <tableColumn id="9" name="SubType" dataDxfId="27"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="26"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="25"/>
+    <tableColumn id="15" name="IsRandom" dataDxfId="24"/>
+    <tableColumn id="13" name="CdGroup" dataDxfId="23"/>
+    <tableColumn id="14" name="Url" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:N100" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="A3:N100"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:N103" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
+  <autoFilter ref="A3:N103"/>
   <sortState ref="A4:O99">
     <sortCondition ref="A3:A99"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="14"/>
-    <tableColumn id="2" name="Name" dataDxfId="13"/>
-    <tableColumn id="3" name="Type" dataDxfId="12"/>
-    <tableColumn id="4" name="Descript" dataDxfId="11"/>
-    <tableColumn id="5" name="Level" dataDxfId="10"/>
-    <tableColumn id="6" name="Rare" dataDxfId="9"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="8"/>
-    <tableColumn id="8" name="Value" dataDxfId="7"/>
-    <tableColumn id="9" name="SubType" dataDxfId="6"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="5"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="4"/>
-    <tableColumn id="15" name="IsRandom" dataDxfId="3"/>
-    <tableColumn id="13" name="CdGroup" dataDxfId="2"/>
-    <tableColumn id="14" name="Url" dataDxfId="1"/>
+    <tableColumn id="1" name="Id" dataDxfId="18"/>
+    <tableColumn id="2" name="Name" dataDxfId="17"/>
+    <tableColumn id="3" name="Type" dataDxfId="16"/>
+    <tableColumn id="4" name="Descript" dataDxfId="15"/>
+    <tableColumn id="5" name="Level" dataDxfId="14"/>
+    <tableColumn id="6" name="Rare" dataDxfId="13"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="12"/>
+    <tableColumn id="8" name="Value" dataDxfId="11"/>
+    <tableColumn id="9" name="SubType" dataDxfId="10"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="9"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="8"/>
+    <tableColumn id="15" name="IsRandom" dataDxfId="7"/>
+    <tableColumn id="13" name="CdGroup" dataDxfId="6"/>
+    <tableColumn id="14" name="Url" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7085,17 +7109,17 @@
       <selection pane="bottomRight" activeCell="F240" sqref="F240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.25" customWidth="1"/>
-    <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="7" width="4.75" customWidth="1"/>
-    <col min="8" max="13" width="6.5" customWidth="1"/>
-    <col min="17" max="17" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="5" max="7" width="4.77734375" customWidth="1"/>
+    <col min="8" max="13" width="6.44140625" customWidth="1"/>
+    <col min="17" max="17" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1169</v>
       </c>
@@ -7139,7 +7163,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1167</v>
       </c>
@@ -7183,7 +7207,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1182</v>
       </c>
@@ -7227,7 +7251,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>22010001</v>
       </c>
@@ -7268,7 +7292,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>22010002</v>
       </c>
@@ -7309,7 +7333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>22010003</v>
       </c>
@@ -7350,7 +7374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>22010004</v>
       </c>
@@ -7391,7 +7415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>22010005</v>
       </c>
@@ -7432,7 +7456,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>22010006</v>
       </c>
@@ -7473,7 +7497,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>22010007</v>
       </c>
@@ -7514,7 +7538,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>22010008</v>
       </c>
@@ -7555,7 +7579,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>22010101</v>
       </c>
@@ -7596,7 +7620,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>22010102</v>
       </c>
@@ -7637,7 +7661,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>22010103</v>
       </c>
@@ -7678,7 +7702,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>22010104</v>
       </c>
@@ -7719,7 +7743,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>22010105</v>
       </c>
@@ -7760,7 +7784,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>22010106</v>
       </c>
@@ -7801,7 +7825,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>22010107</v>
       </c>
@@ -7842,7 +7866,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>22010108</v>
       </c>
@@ -7883,7 +7907,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
         <v>22010201</v>
       </c>
@@ -7924,7 +7948,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
         <v>22010202</v>
       </c>
@@ -7965,7 +7989,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
         <v>22010203</v>
       </c>
@@ -8006,7 +8030,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
         <v>22010204</v>
       </c>
@@ -8047,7 +8071,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
         <v>22010205</v>
       </c>
@@ -8088,7 +8112,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
         <v>22010206</v>
       </c>
@@ -8129,7 +8153,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
         <v>22010207</v>
       </c>
@@ -8170,7 +8194,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
         <v>22010208</v>
       </c>
@@ -8211,7 +8235,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>22010301</v>
       </c>
@@ -8252,7 +8276,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>22010302</v>
       </c>
@@ -8293,7 +8317,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="14">
         <v>22010401</v>
       </c>
@@ -8334,7 +8358,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="14">
         <v>22010402</v>
       </c>
@@ -8375,7 +8399,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="14">
         <v>22010403</v>
       </c>
@@ -8416,7 +8440,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>22010501</v>
       </c>
@@ -8457,7 +8481,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>22010502</v>
       </c>
@@ -8498,7 +8522,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>22010503</v>
       </c>
@@ -8539,7 +8563,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>22010504</v>
       </c>
@@ -8580,7 +8604,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>22010901</v>
       </c>
@@ -8621,7 +8645,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="15">
         <v>22010902</v>
       </c>
@@ -8662,7 +8686,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>22011001</v>
       </c>
@@ -8703,7 +8727,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>22011002</v>
       </c>
@@ -8744,7 +8768,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>22011003</v>
       </c>
@@ -8785,7 +8809,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>22011004</v>
       </c>
@@ -8826,7 +8850,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>22011005</v>
       </c>
@@ -8867,7 +8891,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>22011006</v>
       </c>
@@ -8908,7 +8932,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>22011007</v>
       </c>
@@ -8949,7 +8973,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>22011008</v>
       </c>
@@ -8990,7 +9014,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>22011009</v>
       </c>
@@ -9031,7 +9055,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>22011010</v>
       </c>
@@ -9072,7 +9096,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>22011011</v>
       </c>
@@ -9113,7 +9137,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>22011012</v>
       </c>
@@ -9154,7 +9178,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>22011013</v>
       </c>
@@ -9195,7 +9219,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>22011014</v>
       </c>
@@ -9236,7 +9260,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>22011015</v>
       </c>
@@ -9277,7 +9301,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>22011016</v>
       </c>
@@ -9318,7 +9342,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>22011017</v>
       </c>
@@ -9359,7 +9383,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>22011018</v>
       </c>
@@ -9400,7 +9424,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>22011019</v>
       </c>
@@ -9441,7 +9465,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>22011020</v>
       </c>
@@ -9482,7 +9506,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>22011021</v>
       </c>
@@ -9523,7 +9547,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>22011022</v>
       </c>
@@ -9564,7 +9588,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>22011023</v>
       </c>
@@ -9605,7 +9629,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>22011024</v>
       </c>
@@ -9646,7 +9670,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>22011025</v>
       </c>
@@ -9687,7 +9711,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>22011026</v>
       </c>
@@ -9728,7 +9752,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>22011027</v>
       </c>
@@ -9769,7 +9793,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>22011028</v>
       </c>
@@ -9810,7 +9834,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>22011029</v>
       </c>
@@ -9851,7 +9875,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>22011030</v>
       </c>
@@ -9892,7 +9916,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>22011031</v>
       </c>
@@ -9933,7 +9957,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>22011032</v>
       </c>
@@ -9974,7 +9998,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>22011033</v>
       </c>
@@ -10015,7 +10039,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>22011034</v>
       </c>
@@ -10056,7 +10080,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>22011035</v>
       </c>
@@ -10097,7 +10121,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>22011036</v>
       </c>
@@ -10138,7 +10162,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>22011037</v>
       </c>
@@ -10179,7 +10203,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>22011038</v>
       </c>
@@ -10220,7 +10244,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>22011039</v>
       </c>
@@ -10261,7 +10285,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>22011040</v>
       </c>
@@ -10302,7 +10326,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>22011041</v>
       </c>
@@ -10343,7 +10367,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>22011042</v>
       </c>
@@ -10384,7 +10408,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>22011043</v>
       </c>
@@ -10425,7 +10449,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>22011044</v>
       </c>
@@ -10466,7 +10490,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>22011045</v>
       </c>
@@ -10507,7 +10531,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>22011046</v>
       </c>
@@ -10548,7 +10572,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>22011047</v>
       </c>
@@ -10589,7 +10613,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>22011048</v>
       </c>
@@ -10630,7 +10654,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>22011049</v>
       </c>
@@ -10671,7 +10695,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>22011050</v>
       </c>
@@ -10712,7 +10736,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>22011051</v>
       </c>
@@ -10753,7 +10777,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>22011052</v>
       </c>
@@ -10794,7 +10818,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>22011053</v>
       </c>
@@ -10835,7 +10859,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>22011054</v>
       </c>
@@ -10876,7 +10900,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>22011055</v>
       </c>
@@ -10917,7 +10941,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>22011056</v>
       </c>
@@ -10958,7 +10982,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>22011057</v>
       </c>
@@ -10999,7 +11023,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>22011058</v>
       </c>
@@ -11040,7 +11064,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>22011059</v>
       </c>
@@ -11081,7 +11105,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>22011060</v>
       </c>
@@ -11122,7 +11146,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>22011061</v>
       </c>
@@ -11163,7 +11187,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>22011062</v>
       </c>
@@ -11204,7 +11228,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>22011063</v>
       </c>
@@ -11245,7 +11269,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>22011064</v>
       </c>
@@ -11286,7 +11310,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>22011065</v>
       </c>
@@ -11327,7 +11351,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>22011066</v>
       </c>
@@ -11368,7 +11392,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>22011067</v>
       </c>
@@ -11409,7 +11433,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>22011068</v>
       </c>
@@ -11450,7 +11474,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>22011069</v>
       </c>
@@ -11491,7 +11515,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>22011070</v>
       </c>
@@ -11532,7 +11556,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>22011071</v>
       </c>
@@ -11573,7 +11597,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>22011072</v>
       </c>
@@ -11614,7 +11638,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>22011073</v>
       </c>
@@ -11655,7 +11679,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>22011074</v>
       </c>
@@ -11696,7 +11720,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>22011075</v>
       </c>
@@ -11737,7 +11761,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>22011076</v>
       </c>
@@ -11778,7 +11802,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>22011077</v>
       </c>
@@ -11819,7 +11843,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>22011078</v>
       </c>
@@ -11860,7 +11884,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>22011079</v>
       </c>
@@ -11901,7 +11925,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>22011080</v>
       </c>
@@ -11942,7 +11966,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>22011081</v>
       </c>
@@ -11983,7 +12007,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>22011082</v>
       </c>
@@ -12024,7 +12048,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>22011083</v>
       </c>
@@ -12065,7 +12089,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>22011084</v>
       </c>
@@ -12106,7 +12130,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>22011085</v>
       </c>
@@ -12147,7 +12171,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>22011086</v>
       </c>
@@ -12188,7 +12212,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>22011087</v>
       </c>
@@ -12229,7 +12253,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>22011088</v>
       </c>
@@ -12270,7 +12294,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>22011089</v>
       </c>
@@ -12311,7 +12335,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>22011090</v>
       </c>
@@ -12352,7 +12376,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>22011091</v>
       </c>
@@ -12393,7 +12417,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>22011092</v>
       </c>
@@ -12434,7 +12458,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>22011093</v>
       </c>
@@ -12475,7 +12499,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>22011094</v>
       </c>
@@ -12516,7 +12540,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>22011095</v>
       </c>
@@ -12557,7 +12581,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>22011096</v>
       </c>
@@ -12598,7 +12622,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>22011097</v>
       </c>
@@ -12639,7 +12663,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>22011098</v>
       </c>
@@ -12680,7 +12704,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>22011099</v>
       </c>
@@ -12721,7 +12745,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>22011100</v>
       </c>
@@ -12762,7 +12786,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>22011101</v>
       </c>
@@ -12803,7 +12827,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>22011102</v>
       </c>
@@ -12844,7 +12868,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>22011103</v>
       </c>
@@ -12885,7 +12909,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>22011104</v>
       </c>
@@ -12926,7 +12950,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>22011105</v>
       </c>
@@ -12967,7 +12991,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>22011106</v>
       </c>
@@ -13008,7 +13032,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>22011107</v>
       </c>
@@ -13049,7 +13073,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>22011108</v>
       </c>
@@ -13090,7 +13114,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>22011109</v>
       </c>
@@ -13131,7 +13155,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>22011110</v>
       </c>
@@ -13172,7 +13196,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>22011111</v>
       </c>
@@ -13213,7 +13237,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>22011112</v>
       </c>
@@ -13254,7 +13278,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>22011113</v>
       </c>
@@ -13295,7 +13319,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>22011114</v>
       </c>
@@ -13336,7 +13360,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>22011115</v>
       </c>
@@ -13377,7 +13401,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>22011116</v>
       </c>
@@ -13418,7 +13442,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>22011117</v>
       </c>
@@ -13459,7 +13483,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>22011118</v>
       </c>
@@ -13500,7 +13524,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>22011119</v>
       </c>
@@ -13541,7 +13565,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>22011120</v>
       </c>
@@ -13582,7 +13606,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>22011121</v>
       </c>
@@ -13623,7 +13647,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>22011122</v>
       </c>
@@ -13664,7 +13688,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>22011123</v>
       </c>
@@ -13705,7 +13729,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>22011124</v>
       </c>
@@ -13746,7 +13770,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>22011125</v>
       </c>
@@ -13787,7 +13811,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>22011126</v>
       </c>
@@ -13828,7 +13852,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>22011127</v>
       </c>
@@ -13869,7 +13893,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>22011128</v>
       </c>
@@ -13910,7 +13934,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>22011129</v>
       </c>
@@ -13951,7 +13975,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>22011130</v>
       </c>
@@ -13992,7 +14016,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>22011131</v>
       </c>
@@ -14033,7 +14057,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>22011132</v>
       </c>
@@ -14074,7 +14098,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>22011133</v>
       </c>
@@ -14115,7 +14139,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>22011134</v>
       </c>
@@ -14156,7 +14180,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>22011135</v>
       </c>
@@ -14197,7 +14221,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>22011136</v>
       </c>
@@ -14238,7 +14262,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>22011137</v>
       </c>
@@ -14279,7 +14303,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>22011138</v>
       </c>
@@ -14320,7 +14344,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>22011139</v>
       </c>
@@ -14361,7 +14385,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>22011140</v>
       </c>
@@ -14402,7 +14426,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>22011141</v>
       </c>
@@ -14443,7 +14467,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>22011142</v>
       </c>
@@ -14484,7 +14508,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>22011143</v>
       </c>
@@ -14525,7 +14549,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>22011144</v>
       </c>
@@ -14566,7 +14590,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>22011145</v>
       </c>
@@ -14607,7 +14631,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>22011146</v>
       </c>
@@ -14648,7 +14672,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>22011147</v>
       </c>
@@ -14689,7 +14713,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>22011148</v>
       </c>
@@ -14730,7 +14754,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>22011149</v>
       </c>
@@ -14771,7 +14795,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>22011150</v>
       </c>
@@ -14812,7 +14836,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>22011151</v>
       </c>
@@ -14853,7 +14877,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>22011152</v>
       </c>
@@ -14894,7 +14918,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>22011153</v>
       </c>
@@ -14935,7 +14959,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>22011154</v>
       </c>
@@ -14976,7 +15000,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>22011155</v>
       </c>
@@ -15017,7 +15041,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>22011156</v>
       </c>
@@ -15058,7 +15082,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>22011157</v>
       </c>
@@ -15099,7 +15123,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>22011158</v>
       </c>
@@ -15140,7 +15164,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>22011159</v>
       </c>
@@ -15181,7 +15205,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>22011160</v>
       </c>
@@ -15222,7 +15246,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>22011161</v>
       </c>
@@ -15263,7 +15287,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>22011162</v>
       </c>
@@ -15304,7 +15328,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>22011163</v>
       </c>
@@ -15345,7 +15369,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>22011164</v>
       </c>
@@ -15386,7 +15410,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>22011165</v>
       </c>
@@ -15427,7 +15451,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>22011166</v>
       </c>
@@ -15468,7 +15492,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>22011167</v>
       </c>
@@ -15509,7 +15533,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>22011168</v>
       </c>
@@ -15550,7 +15574,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>22011169</v>
       </c>
@@ -15591,7 +15615,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>22011170</v>
       </c>
@@ -15632,7 +15656,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>22011171</v>
       </c>
@@ -15673,7 +15697,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>22011172</v>
       </c>
@@ -15714,7 +15738,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>22011173</v>
       </c>
@@ -15755,7 +15779,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>22011174</v>
       </c>
@@ -15796,7 +15820,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>22011175</v>
       </c>
@@ -15837,7 +15861,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>22011176</v>
       </c>
@@ -15878,7 +15902,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>22011177</v>
       </c>
@@ -15919,7 +15943,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>22011178</v>
       </c>
@@ -15960,7 +15984,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>22011179</v>
       </c>
@@ -16001,7 +16025,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>22011180</v>
       </c>
@@ -16042,7 +16066,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>22011181</v>
       </c>
@@ -16083,7 +16107,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>22011182</v>
       </c>
@@ -16124,7 +16148,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>22011183</v>
       </c>
@@ -16165,7 +16189,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>22011184</v>
       </c>
@@ -16206,7 +16230,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>22011185</v>
       </c>
@@ -16247,7 +16271,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>22011186</v>
       </c>
@@ -16288,7 +16312,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>22011187</v>
       </c>
@@ -16329,7 +16353,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>22011188</v>
       </c>
@@ -16370,7 +16394,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>22011189</v>
       </c>
@@ -16411,7 +16435,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>22011190</v>
       </c>
@@ -16453,7 +16477,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>22011191</v>
       </c>
@@ -16495,7 +16519,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>22011192</v>
       </c>
@@ -16537,7 +16561,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>22011193</v>
       </c>
@@ -16579,7 +16603,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>22011194</v>
       </c>
@@ -16621,7 +16645,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>22011195</v>
       </c>
@@ -16663,7 +16687,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>22011196</v>
       </c>
@@ -16705,7 +16729,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>22011197</v>
       </c>
@@ -16747,7 +16771,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>22011198</v>
       </c>
@@ -16789,7 +16813,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>22011199</v>
       </c>
@@ -16831,7 +16855,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>22011200</v>
       </c>
@@ -16873,7 +16897,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>22011201</v>
       </c>
@@ -16915,7 +16939,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>22011202</v>
       </c>
@@ -16957,7 +16981,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>22011203</v>
       </c>
@@ -16999,7 +17023,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>22011204</v>
       </c>
@@ -17041,7 +17065,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>22011205</v>
       </c>
@@ -17083,7 +17107,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>22011206</v>
       </c>
@@ -17125,7 +17149,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>22011207</v>
       </c>
@@ -17167,7 +17191,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>22011208</v>
       </c>
@@ -17209,7 +17233,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>22011209</v>
       </c>
@@ -17251,7 +17275,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>22011210</v>
       </c>
@@ -17293,7 +17317,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>22011211</v>
       </c>
@@ -17335,7 +17359,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>22011212</v>
       </c>
@@ -17377,7 +17401,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>22011213</v>
       </c>
@@ -17419,7 +17443,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>22011214</v>
       </c>
@@ -17461,7 +17485,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>22011215</v>
       </c>
@@ -17503,7 +17527,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>22011216</v>
       </c>
@@ -17545,7 +17569,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>22011217</v>
       </c>
@@ -17587,7 +17611,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>22011218</v>
       </c>
@@ -17629,7 +17653,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>22011219</v>
       </c>
@@ -17670,7 +17694,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>22011220</v>
       </c>
@@ -17711,7 +17735,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>22011221</v>
       </c>
@@ -17752,7 +17776,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A260" s="16">
         <v>22013001</v>
       </c>
@@ -17790,7 +17814,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A261" s="16">
         <v>22013002</v>
       </c>
@@ -17828,7 +17852,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A262" s="16">
         <v>22013003</v>
       </c>
@@ -17866,7 +17890,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A263" s="16">
         <v>22013004</v>
       </c>
@@ -17904,7 +17928,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A264" s="16">
         <v>22013005</v>
       </c>
@@ -17942,7 +17966,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A265" s="16">
         <v>22013006</v>
       </c>
@@ -17980,7 +18004,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A266" s="17">
         <v>22018001</v>
       </c>
@@ -18021,7 +18045,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A267" s="17">
         <v>22018002</v>
       </c>
@@ -18062,7 +18086,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A268" s="17">
         <v>22018003</v>
       </c>
@@ -18103,7 +18127,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A269" s="17">
         <v>22018011</v>
       </c>
@@ -18144,7 +18168,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A270" s="17">
         <v>22018012</v>
       </c>
@@ -18185,7 +18209,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A271" s="17">
         <v>22018013</v>
       </c>
@@ -18226,7 +18250,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A272" s="17">
         <v>22018021</v>
       </c>
@@ -18267,7 +18291,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A273" s="17">
         <v>22018022</v>
       </c>
@@ -18308,7 +18332,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A274" s="17">
         <v>22018023</v>
       </c>
@@ -18349,7 +18373,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A275" s="17">
         <v>22018031</v>
       </c>
@@ -18390,7 +18414,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A276" s="17">
         <v>22018032</v>
       </c>
@@ -18431,7 +18455,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A277" s="17">
         <v>22018033</v>
       </c>
@@ -18472,7 +18496,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A278" s="17">
         <v>22018041</v>
       </c>
@@ -18513,7 +18537,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A279" s="17">
         <v>22018042</v>
       </c>
@@ -18554,7 +18578,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A280" s="17">
         <v>22018043</v>
       </c>
@@ -18595,7 +18619,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A281" s="17">
         <v>22018051</v>
       </c>
@@ -18636,7 +18660,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A282" s="17">
         <v>22018052</v>
       </c>
@@ -18677,7 +18701,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A283" s="17">
         <v>22018053</v>
       </c>
@@ -18718,7 +18742,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A284" s="17">
         <v>22018061</v>
       </c>
@@ -18759,7 +18783,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A285" s="17">
         <v>22018062</v>
       </c>
@@ -18800,7 +18824,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A286" s="17">
         <v>22018063</v>
       </c>
@@ -18841,7 +18865,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A287" s="18">
         <v>22019001</v>
       </c>
@@ -18882,7 +18906,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A288" s="18">
         <v>22019002</v>
       </c>
@@ -18923,7 +18947,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A289" s="18">
         <v>22019003</v>
       </c>
@@ -18964,7 +18988,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A290" s="18">
         <v>22019004</v>
       </c>
@@ -19005,7 +19029,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A291" s="18">
         <v>22019011</v>
       </c>
@@ -19046,7 +19070,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A292" s="18">
         <v>22019012</v>
       </c>
@@ -19087,7 +19111,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A293" s="18">
         <v>22019013</v>
       </c>
@@ -19128,7 +19152,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A294" s="18">
         <v>22019014</v>
       </c>
@@ -19169,7 +19193,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A295" s="18">
         <v>22019021</v>
       </c>
@@ -19210,7 +19234,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A296" s="18">
         <v>22019022</v>
       </c>
@@ -19251,7 +19275,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A297" s="18">
         <v>22019023</v>
       </c>
@@ -19292,7 +19316,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A298" s="18">
         <v>22019024</v>
       </c>
@@ -19333,7 +19357,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A299" s="18">
         <v>22019031</v>
       </c>
@@ -19374,7 +19398,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A300" s="18">
         <v>22019032</v>
       </c>
@@ -19415,7 +19439,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A301" s="18">
         <v>22019033</v>
       </c>
@@ -19456,7 +19480,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A302" s="18">
         <v>22019034</v>
       </c>
@@ -19497,7 +19521,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A303" s="18">
         <v>22019041</v>
       </c>
@@ -19538,7 +19562,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A304" s="18">
         <v>22019042</v>
       </c>
@@ -19579,7 +19603,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A305" s="18">
         <v>22019043</v>
       </c>
@@ -19620,7 +19644,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A306" s="18">
         <v>22019044</v>
       </c>
@@ -19661,7 +19685,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A307" s="18">
         <v>22019051</v>
       </c>
@@ -19702,7 +19726,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A308" s="18">
         <v>22019052</v>
       </c>
@@ -19743,7 +19767,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A309" s="18">
         <v>22019053</v>
       </c>
@@ -19784,7 +19808,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A310" s="18">
         <v>22019054</v>
       </c>
@@ -19825,7 +19849,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A311" s="18">
         <v>22019061</v>
       </c>
@@ -19866,7 +19890,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A312" s="18">
         <v>22019062</v>
       </c>
@@ -19907,7 +19931,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A313" s="18">
         <v>22019063</v>
       </c>
@@ -19948,7 +19972,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A314" s="18">
         <v>22019064</v>
       </c>
@@ -19989,7 +20013,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A315" s="18">
         <v>22019071</v>
       </c>
@@ -20030,7 +20054,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A316" s="18">
         <v>22019072</v>
       </c>
@@ -20071,7 +20095,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A317" s="18">
         <v>22019073</v>
       </c>
@@ -20112,7 +20136,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A318" s="18">
         <v>22019074</v>
       </c>
@@ -20153,7 +20177,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A319" s="18">
         <v>22019081</v>
       </c>
@@ -20194,7 +20218,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A320" s="18">
         <v>22019082</v>
       </c>
@@ -20235,7 +20259,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A321" s="18">
         <v>22019083</v>
       </c>
@@ -20276,7 +20300,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A322" s="18">
         <v>22019084</v>
       </c>
@@ -20317,7 +20341,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A323" s="18">
         <v>22019091</v>
       </c>
@@ -20358,7 +20382,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A324" s="18">
         <v>22019092</v>
       </c>
@@ -20399,7 +20423,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A325" s="18">
         <v>22019093</v>
       </c>
@@ -20440,7 +20464,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A326" s="18">
         <v>22019094</v>
       </c>
@@ -20481,7 +20505,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A327" s="18">
         <v>22019101</v>
       </c>
@@ -20522,7 +20546,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A328" s="18">
         <v>22019102</v>
       </c>
@@ -20563,7 +20587,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A329" s="18">
         <v>22019103</v>
       </c>
@@ -20604,7 +20628,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A330" s="18">
         <v>22019104</v>
       </c>
@@ -20645,7 +20669,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A331" s="18">
         <v>22019111</v>
       </c>
@@ -20686,7 +20710,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A332" s="18">
         <v>22019112</v>
       </c>
@@ -20727,7 +20751,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A333" s="18">
         <v>22019113</v>
       </c>
@@ -20768,7 +20792,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A334" s="18">
         <v>22019114</v>
       </c>
@@ -20809,7 +20833,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A335" s="18">
         <v>22019121</v>
       </c>
@@ -20850,7 +20874,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A336" s="18">
         <v>22019122</v>
       </c>
@@ -20891,7 +20915,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A337" s="18">
         <v>22019123</v>
       </c>
@@ -20932,7 +20956,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A338" s="18">
         <v>22019124</v>
       </c>
@@ -20973,7 +20997,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A339" s="18">
         <v>22019131</v>
       </c>
@@ -21014,7 +21038,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A340" s="18">
         <v>22019132</v>
       </c>
@@ -21055,7 +21079,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A341" s="18">
         <v>22019133</v>
       </c>
@@ -21096,7 +21120,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A342" s="18">
         <v>22019134</v>
       </c>
@@ -21137,7 +21161,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A343" s="18">
         <v>22019141</v>
       </c>
@@ -21178,7 +21202,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A344" s="18">
         <v>22019142</v>
       </c>
@@ -21219,7 +21243,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A345" s="18">
         <v>22019143</v>
       </c>
@@ -21260,7 +21284,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A346" s="18">
         <v>22019144</v>
       </c>
@@ -21304,7 +21328,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A4:N346">
-    <cfRule type="containsBlanks" dxfId="54" priority="1">
+    <cfRule type="containsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21328,15 +21352,15 @@
       <selection pane="bottomRight" activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="7.25" customWidth="1"/>
-    <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="7" width="5.75" customWidth="1"/>
-    <col min="8" max="13" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="5" max="7" width="5.77734375" customWidth="1"/>
+    <col min="8" max="13" width="6.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1169</v>
       </c>
@@ -21380,7 +21404,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1167</v>
       </c>
@@ -21424,7 +21448,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1182</v>
       </c>
@@ -21468,7 +21492,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>22020001</v>
       </c>
@@ -21503,7 +21527,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>22020002</v>
       </c>
@@ -21541,7 +21565,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>22020003</v>
       </c>
@@ -21576,7 +21600,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>22020004</v>
       </c>
@@ -21614,7 +21638,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>22020005</v>
       </c>
@@ -21649,7 +21673,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>22020006</v>
       </c>
@@ -21684,7 +21708,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>22020007</v>
       </c>
@@ -21722,7 +21746,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>22020008</v>
       </c>
@@ -21760,7 +21784,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>22020009</v>
       </c>
@@ -21798,7 +21822,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>22020010</v>
       </c>
@@ -21836,7 +21860,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>22020011</v>
       </c>
@@ -21877,7 +21901,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A4:N14">
-    <cfRule type="containsBlanks" dxfId="36" priority="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21892,27 +21916,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N100"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="3" max="3" width="7.25" customWidth="1"/>
-    <col min="4" max="4" width="22.75" customWidth="1"/>
-    <col min="5" max="7" width="4.875" customWidth="1"/>
-    <col min="8" max="13" width="6.5" customWidth="1"/>
-    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+    <col min="5" max="7" width="4.88671875" customWidth="1"/>
+    <col min="8" max="13" width="6.44140625" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1169</v>
       </c>
@@ -21956,7 +21980,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1167</v>
       </c>
@@ -22000,7 +22024,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1182</v>
       </c>
@@ -22044,7 +22068,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>22031001</v>
       </c>
@@ -22082,18 +22106,18 @@
         <v>927</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>22031002</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>1350</v>
-      </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1357</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -22123,18 +22147,18 @@
         <v>928</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>22031003</v>
       </c>
       <c r="B6" s="7" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>1351</v>
-      </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1358</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -22164,18 +22188,18 @@
         <v>929</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>22031004</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>1352</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1359</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -22205,18 +22229,18 @@
         <v>930</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>22031005</v>
       </c>
       <c r="B8" s="7" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>1353</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1360</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -22246,18 +22270,18 @@
         <v>931</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>22031006</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>1354</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1361</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -22284,21 +22308,21 @@
         <v>1220</v>
       </c>
       <c r="N9" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>22031007</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>1355</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1362</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -22325,21 +22349,21 @@
         <v>1220</v>
       </c>
       <c r="N10" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>22031008</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>1356</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1363</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -22366,36 +22390,36 @@
         <v>1220</v>
       </c>
       <c r="N11" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>22031101</v>
+        <v>22031011</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>932</v>
+        <v>1370</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>933</v>
+        <v>1373</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12">
         <v>20</v>
       </c>
       <c r="H12">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="I12">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
         <v>1199</v>
@@ -22404,39 +22428,39 @@
         <v>1201</v>
       </c>
       <c r="L12" t="s">
-        <v>1220</v>
+        <v>1202</v>
       </c>
       <c r="N12" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>22031102</v>
+        <v>22031012</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>935</v>
+        <v>1371</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>936</v>
+        <v>1374</v>
       </c>
       <c r="E13">
         <v>1</v>
       </c>
       <c r="F13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G13">
         <v>20</v>
       </c>
       <c r="H13">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="I13">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
         <v>1199</v>
@@ -22445,39 +22469,39 @@
         <v>1201</v>
       </c>
       <c r="L13" t="s">
-        <v>1220</v>
+        <v>1202</v>
       </c>
       <c r="N13" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>22031103</v>
+        <v>22031013</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>938</v>
+        <v>1372</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>939</v>
+        <v>1375</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14">
         <v>20</v>
       </c>
       <c r="H14">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="I14">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J14" t="s">
         <v>1199</v>
@@ -22486,24 +22510,24 @@
         <v>1201</v>
       </c>
       <c r="L14" t="s">
-        <v>1220</v>
+        <v>1202</v>
       </c>
       <c r="N14" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>22031201</v>
+        <v>22031101</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>1349</v>
+        <v>933</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -22514,6 +22538,9 @@
       <c r="G15">
         <v>20</v>
       </c>
+      <c r="H15">
+        <v>1000</v>
+      </c>
       <c r="I15">
         <v>12</v>
       </c>
@@ -22527,31 +22554,34 @@
         <v>1220</v>
       </c>
       <c r="N15" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>22031202</v>
+        <v>22031102</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G16">
         <v>20</v>
       </c>
+      <c r="H16">
+        <v>1000</v>
+      </c>
       <c r="I16">
         <v>12</v>
       </c>
@@ -22565,31 +22595,34 @@
         <v>1220</v>
       </c>
       <c r="N16" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>22031203</v>
+        <v>22031103</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G17">
         <v>20</v>
       </c>
+      <c r="H17">
+        <v>1000</v>
+      </c>
       <c r="I17">
         <v>12</v>
       </c>
@@ -22603,21 +22636,21 @@
         <v>1220</v>
       </c>
       <c r="N17" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>22032001</v>
+        <v>22031201</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>1230</v>
+        <v>1349</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -22626,121 +22659,112 @@
         <v>4</v>
       </c>
       <c r="G18">
-        <v>99</v>
-      </c>
-      <c r="H18">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I18">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J18" t="s">
         <v>1199</v>
       </c>
       <c r="K18" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="L18" t="s">
         <v>1220</v>
       </c>
       <c r="N18" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>22032002</v>
+        <v>22031202</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>1229</v>
+        <v>944</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>99</v>
-      </c>
-      <c r="H19">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I19">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J19" t="s">
         <v>1199</v>
       </c>
       <c r="K19" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="L19" t="s">
         <v>1220</v>
       </c>
       <c r="N19" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>22032003</v>
+        <v>22031203</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>1225</v>
+        <v>947</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G20">
-        <v>99</v>
-      </c>
-      <c r="H20">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I20">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J20" t="s">
         <v>1199</v>
       </c>
       <c r="K20" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="L20" t="s">
         <v>1220</v>
       </c>
       <c r="N20" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>22032004</v>
+        <v>22032001</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>1226</v>
+        <v>1230</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -22767,21 +22791,21 @@
         <v>1220</v>
       </c>
       <c r="N21" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>22032005</v>
+        <v>22032002</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -22805,24 +22829,24 @@
         <v>1199</v>
       </c>
       <c r="L22" t="s">
-        <v>1202</v>
+        <v>1220</v>
       </c>
       <c r="N22" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22032006</v>
+        <v>22032003</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -22846,24 +22870,24 @@
         <v>1199</v>
       </c>
       <c r="L23" t="s">
-        <v>1202</v>
+        <v>1220</v>
       </c>
       <c r="N23" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>22032007</v>
+        <v>22032004</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>1193</v>
+        <v>1226</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -22887,24 +22911,24 @@
         <v>1199</v>
       </c>
       <c r="L24" t="s">
-        <v>1202</v>
+        <v>1220</v>
       </c>
       <c r="N24" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>22032008</v>
+        <v>22032005</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1224</v>
+        <v>957</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>1223</v>
+        <v>1227</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -22916,7 +22940,7 @@
         <v>99</v>
       </c>
       <c r="H25">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I25">
         <v>14</v>
@@ -22931,36 +22955,36 @@
         <v>1202</v>
       </c>
       <c r="N25" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>22033001</v>
+        <v>22032006</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>1203</v>
+        <v>1228</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
       <c r="F26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G26">
         <v>99</v>
       </c>
       <c r="H26">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="I26">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J26" t="s">
         <v>1199</v>
@@ -22969,27 +22993,24 @@
         <v>1199</v>
       </c>
       <c r="L26" t="s">
-        <v>1218</v>
-      </c>
-      <c r="M26">
-        <v>2</v>
+        <v>1202</v>
       </c>
       <c r="N26" t="s">
-        <v>904</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>22033002</v>
+        <v>22032007</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>1204</v>
+        <v>1193</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -23001,54 +23022,51 @@
         <v>99</v>
       </c>
       <c r="H27">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I27">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J27" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="K27" t="s">
         <v>1199</v>
       </c>
       <c r="L27" t="s">
-        <v>1218</v>
-      </c>
-      <c r="M27">
-        <v>2</v>
+        <v>1202</v>
       </c>
       <c r="N27" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>22033003</v>
+        <v>22032008</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>966</v>
+        <v>1224</v>
       </c>
       <c r="C28" s="7">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>1211</v>
+        <v>1223</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G28">
         <v>99</v>
       </c>
       <c r="H28">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="I28">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J28" t="s">
         <v>1199</v>
@@ -23057,27 +23075,24 @@
         <v>1199</v>
       </c>
       <c r="L28" t="s">
-        <v>1218</v>
-      </c>
-      <c r="M28">
-        <v>2</v>
+        <v>1202</v>
       </c>
       <c r="N28" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>22033004</v>
+        <v>22033001</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -23104,24 +23119,24 @@
         <v>1218</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>22033005</v>
+        <v>22033002</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="C30" s="7">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -23139,7 +23154,7 @@
         <v>11</v>
       </c>
       <c r="J30" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="K30" t="s">
         <v>1199</v>
@@ -23148,24 +23163,24 @@
         <v>1218</v>
       </c>
       <c r="M30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>22033006</v>
+        <v>22033003</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -23192,24 +23207,24 @@
         <v>1218</v>
       </c>
       <c r="M31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>22033007</v>
+        <v>22033004</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>1205</v>
+        <v>1208</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -23236,24 +23251,24 @@
         <v>1218</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.15">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>22033008</v>
+        <v>22033005</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>1206</v>
+        <v>1209</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -23280,24 +23295,24 @@
         <v>1218</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.15">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>22033009</v>
+        <v>22033006</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="C34" s="7">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>1207</v>
+        <v>1210</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -23324,36 +23339,36 @@
         <v>1218</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.15">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>22033013</v>
+        <v>22033007</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1213</v>
+        <v>974</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>980</v>
+        <v>1205</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35">
+        <v>99</v>
+      </c>
+      <c r="H35">
         <v>5</v>
-      </c>
-      <c r="G35">
-        <v>99</v>
-      </c>
-      <c r="H35">
-        <v>150</v>
       </c>
       <c r="I35">
         <v>11</v>
@@ -23371,33 +23386,33 @@
         <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.15">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>22033014</v>
+        <v>22033008</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G36">
         <v>99</v>
       </c>
       <c r="H36">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="I36">
         <v>11</v>
@@ -23412,24 +23427,24 @@
         <v>1218</v>
       </c>
       <c r="M36">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.15">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>22033015</v>
+        <v>22033009</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>985</v>
+        <v>1207</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -23441,7 +23456,7 @@
         <v>99</v>
       </c>
       <c r="H37">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="I37">
         <v>11</v>
@@ -23456,80 +23471,80 @@
         <v>1218</v>
       </c>
       <c r="M37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.15">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>22033016</v>
+        <v>22033013</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>987</v>
+        <v>1213</v>
       </c>
       <c r="C38" s="7">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>1368</v>
+        <v>980</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G38">
         <v>99</v>
       </c>
       <c r="H38">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="I38">
         <v>11</v>
       </c>
       <c r="J38" t="s">
-        <v>1219</v>
+        <v>1199</v>
       </c>
       <c r="K38" t="s">
         <v>1199</v>
       </c>
       <c r="L38" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="M38">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.15">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>22033017</v>
+        <v>22033014</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>1369</v>
+        <v>1212</v>
       </c>
       <c r="E39">
         <v>1</v>
       </c>
       <c r="F39">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G39">
         <v>99</v>
       </c>
       <c r="H39">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I39">
         <v>11</v>
@@ -23541,27 +23556,27 @@
         <v>1199</v>
       </c>
       <c r="L39" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="M39">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.15">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>22033018</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>991</v>
+        <v>22033015</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>984</v>
       </c>
       <c r="C40" s="7">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -23573,7 +23588,7 @@
         <v>99</v>
       </c>
       <c r="H40">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="I40">
         <v>11</v>
@@ -23585,45 +23600,45 @@
         <v>1199</v>
       </c>
       <c r="L40" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="M40">
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.15">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>22033030</v>
-      </c>
-      <c r="B41" s="10" t="s">
-        <v>994</v>
+        <v>22033016</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>987</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>995</v>
+        <v>1361</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G41">
         <v>99</v>
       </c>
       <c r="H41">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="I41">
         <v>11</v>
       </c>
       <c r="J41" t="s">
-        <v>1199</v>
+        <v>1219</v>
       </c>
       <c r="K41" t="s">
         <v>1199</v>
@@ -23632,24 +23647,24 @@
         <v>1220</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.15">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>22033031</v>
-      </c>
-      <c r="B42" s="10" t="s">
-        <v>996</v>
+        <v>22033017</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>989</v>
       </c>
       <c r="C42" s="7">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>997</v>
+        <v>1362</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -23676,24 +23691,24 @@
         <v>1220</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.15">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>22033032</v>
-      </c>
-      <c r="B43" s="10" t="s">
-        <v>999</v>
+        <v>22033018</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>991</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -23705,7 +23720,7 @@
         <v>99</v>
       </c>
       <c r="H43">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="I43">
         <v>11</v>
@@ -23720,42 +23735,42 @@
         <v>1220</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.15">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>22034001</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>1002</v>
+        <v>22033030</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>994</v>
       </c>
       <c r="C44" s="7">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G44">
         <v>99</v>
       </c>
       <c r="H44">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I44">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J44" t="s">
-        <v>1221</v>
+        <v>1199</v>
       </c>
       <c r="K44" t="s">
         <v>1199</v>
@@ -23763,37 +23778,40 @@
       <c r="L44" t="s">
         <v>1220</v>
       </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
       <c r="N44" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.15">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>22034002</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>1005</v>
+        <v>22033031</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>996</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G45">
         <v>99</v>
       </c>
       <c r="H45">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="I45">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J45" t="s">
         <v>1199</v>
@@ -23804,37 +23822,40 @@
       <c r="L45" t="s">
         <v>1220</v>
       </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
       <c r="N45" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.15">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>22034003</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>1008</v>
+        <v>22033032</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>999</v>
       </c>
       <c r="C46" s="7">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G46">
         <v>99</v>
       </c>
       <c r="H46">
-        <v>500</v>
+        <v>250</v>
       </c>
       <c r="I46">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J46" t="s">
         <v>1199</v>
@@ -23845,40 +23866,43 @@
       <c r="L46" t="s">
         <v>1220</v>
       </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
       <c r="N46" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>22034004</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>1011</v>
+        <v>22034001</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>1002</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>1012</v>
+        <v>1003</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G47">
         <v>99</v>
       </c>
       <c r="H47">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I47">
         <v>13</v>
       </c>
       <c r="J47" t="s">
-        <v>1199</v>
+        <v>1221</v>
       </c>
       <c r="K47" t="s">
         <v>1199</v>
@@ -23887,21 +23911,21 @@
         <v>1220</v>
       </c>
       <c r="N47" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>22034005</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>1014</v>
+        <v>22034002</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>1005</v>
       </c>
       <c r="C48" s="7">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -23913,7 +23937,7 @@
         <v>99</v>
       </c>
       <c r="H48">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="I48">
         <v>13</v>
@@ -23928,21 +23952,21 @@
         <v>1220</v>
       </c>
       <c r="N48" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>22034006</v>
+        <v>22034003</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -23969,21 +23993,21 @@
         <v>1220</v>
       </c>
       <c r="N49" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>22034007</v>
+        <v>22034004</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="C50" s="7">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -24010,21 +24034,21 @@
         <v>1220</v>
       </c>
       <c r="N50" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>22034008</v>
+        <v>22034005</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="C51" s="7">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -24051,21 +24075,21 @@
         <v>1220</v>
       </c>
       <c r="N51" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>22034009</v>
+        <v>22034006</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="C52" s="7">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -24092,21 +24116,21 @@
         <v>1220</v>
       </c>
       <c r="N52" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>22034010</v>
+        <v>22034007</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -24133,33 +24157,33 @@
         <v>1220</v>
       </c>
       <c r="N53" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>22034011</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>1032</v>
+        <v>22034008</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>1023</v>
       </c>
       <c r="C54" s="7">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
       <c r="F54">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G54">
         <v>99</v>
       </c>
       <c r="H54">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I54">
         <v>13</v>
@@ -24174,156 +24198,162 @@
         <v>1220</v>
       </c>
       <c r="N54" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>22034009</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C55" s="7">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>7</v>
+      </c>
+      <c r="G55">
+        <v>99</v>
+      </c>
+      <c r="H55">
+        <v>500</v>
+      </c>
+      <c r="I55">
+        <v>13</v>
+      </c>
+      <c r="J55" t="s">
+        <v>1199</v>
+      </c>
+      <c r="K55" t="s">
+        <v>1199</v>
+      </c>
+      <c r="L55" t="s">
+        <v>1220</v>
+      </c>
+      <c r="N55" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>22034010</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C56" s="7">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+      <c r="G56">
+        <v>99</v>
+      </c>
+      <c r="H56">
+        <v>500</v>
+      </c>
+      <c r="I56">
+        <v>13</v>
+      </c>
+      <c r="J56" t="s">
+        <v>1199</v>
+      </c>
+      <c r="K56" t="s">
+        <v>1199</v>
+      </c>
+      <c r="L56" t="s">
+        <v>1220</v>
+      </c>
+      <c r="N56" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>22034011</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C57" s="7">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>5</v>
+      </c>
+      <c r="G57">
+        <v>99</v>
+      </c>
+      <c r="H57">
+        <v>100</v>
+      </c>
+      <c r="I57">
+        <v>13</v>
+      </c>
+      <c r="J57" t="s">
+        <v>1199</v>
+      </c>
+      <c r="K57" t="s">
+        <v>1199</v>
+      </c>
+      <c r="L57" t="s">
+        <v>1220</v>
+      </c>
+      <c r="N57" t="s">
         <v>1034</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A55">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>22035001</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B58" s="7" t="s">
         <v>1035</v>
       </c>
-      <c r="C55" s="7">
-        <v>1</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1367</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
+      <c r="C58" s="7">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1360</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
         <v>4</v>
       </c>
-      <c r="G55">
-        <v>99</v>
-      </c>
-      <c r="H55">
+      <c r="G58">
+        <v>99</v>
+      </c>
+      <c r="H58">
         <v>1000</v>
       </c>
-      <c r="I55">
+      <c r="I58">
         <v>16</v>
       </c>
-      <c r="J55" t="s">
-        <v>1200</v>
-      </c>
-      <c r="K55" t="s">
-        <v>1199</v>
-      </c>
-      <c r="L55" t="s">
-        <v>1202</v>
-      </c>
-      <c r="N55" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A56">
-        <v>22035002</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>1037</v>
-      </c>
-      <c r="C56" s="7">
-        <v>1</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1367</v>
-      </c>
-      <c r="E56">
-        <v>1</v>
-      </c>
-      <c r="F56">
-        <v>5</v>
-      </c>
-      <c r="G56">
-        <v>99</v>
-      </c>
-      <c r="H56">
-        <v>2000</v>
-      </c>
-      <c r="I56">
-        <v>16</v>
-      </c>
-      <c r="J56" t="s">
-        <v>1199</v>
-      </c>
-      <c r="K56" t="s">
-        <v>1199</v>
-      </c>
-      <c r="L56" t="s">
-        <v>1202</v>
-      </c>
-      <c r="N56" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A57">
-        <v>22035003</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C57" s="7">
-        <v>1</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1367</v>
-      </c>
-      <c r="E57">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>6</v>
-      </c>
-      <c r="G57">
-        <v>99</v>
-      </c>
-      <c r="H57">
-        <v>4000</v>
-      </c>
-      <c r="I57">
-        <v>16</v>
-      </c>
-      <c r="J57" t="s">
-        <v>1199</v>
-      </c>
-      <c r="K57" t="s">
-        <v>1199</v>
-      </c>
-      <c r="L57" t="s">
-        <v>1202</v>
-      </c>
-      <c r="N57" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A58">
-        <v>22036101</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C58" s="7">
-        <v>1</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E58">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>1</v>
-      </c>
-      <c r="I58">
-        <v>15</v>
-      </c>
       <c r="J58" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="K58" t="s">
         <v>1199</v>
@@ -24332,30 +24362,36 @@
         <v>1202</v>
       </c>
       <c r="N58" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>22036102</v>
+        <v>22035002</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="C59" s="7">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>1045</v>
+        <v>1360</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
+      <c r="F59">
+        <v>5</v>
+      </c>
       <c r="G59">
-        <v>1</v>
+        <v>99</v>
+      </c>
+      <c r="H59">
+        <v>2000</v>
       </c>
       <c r="I59">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J59" t="s">
         <v>1199</v>
@@ -24367,33 +24403,39 @@
         <v>1202</v>
       </c>
       <c r="N59" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>22036103</v>
+        <v>22035003</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
       <c r="C60" s="7">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>1048</v>
+        <v>1360</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
+      <c r="F60">
+        <v>6</v>
+      </c>
       <c r="G60">
-        <v>1</v>
+        <v>99</v>
+      </c>
+      <c r="H60">
+        <v>4000</v>
       </c>
       <c r="I60">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J60" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="K60" t="s">
         <v>1199</v>
@@ -24402,21 +24444,21 @@
         <v>1202</v>
       </c>
       <c r="N60" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>22036104</v>
+        <v>22036101</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1050</v>
+        <v>1041</v>
       </c>
       <c r="C61" s="7">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>1051</v>
+        <v>1042</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -24437,21 +24479,21 @@
         <v>1202</v>
       </c>
       <c r="N61" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>22036105</v>
+        <v>22036102</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1053</v>
+        <v>1044</v>
       </c>
       <c r="C62" s="7">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>1054</v>
+        <v>1045</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -24472,21 +24514,21 @@
         <v>1202</v>
       </c>
       <c r="N62" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>22036106</v>
+        <v>22036103</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1056</v>
+        <v>1047</v>
       </c>
       <c r="C63" s="7">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>1057</v>
+        <v>1048</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -24498,7 +24540,7 @@
         <v>15</v>
       </c>
       <c r="J63" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="K63" t="s">
         <v>1199</v>
@@ -24507,21 +24549,21 @@
         <v>1202</v>
       </c>
       <c r="N63" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>22036107</v>
+        <v>22036104</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1059</v>
+        <v>1050</v>
       </c>
       <c r="C64" s="7">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>1060</v>
+        <v>1051</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -24542,21 +24584,21 @@
         <v>1202</v>
       </c>
       <c r="N64" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>22036108</v>
+        <v>22036105</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1062</v>
+        <v>1053</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>1063</v>
+        <v>1054</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -24577,21 +24619,21 @@
         <v>1202</v>
       </c>
       <c r="N65" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>22036109</v>
+        <v>22036106</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1065</v>
+        <v>1056</v>
       </c>
       <c r="C66" s="7">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>1066</v>
+        <v>1057</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -24612,21 +24654,21 @@
         <v>1202</v>
       </c>
       <c r="N66" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>22036110</v>
+        <v>22036107</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1068</v>
+        <v>1059</v>
       </c>
       <c r="C67" s="7">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>1069</v>
+        <v>1060</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -24647,21 +24689,21 @@
         <v>1202</v>
       </c>
       <c r="N67" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>22036201</v>
+        <v>22036108</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1071</v>
+        <v>1062</v>
       </c>
       <c r="C68" s="7">
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>1072</v>
+        <v>1063</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -24682,21 +24724,21 @@
         <v>1202</v>
       </c>
       <c r="N68" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>22036202</v>
+        <v>22036109</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>1074</v>
+        <v>1065</v>
       </c>
       <c r="C69" s="7">
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>1075</v>
+        <v>1066</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -24717,21 +24759,21 @@
         <v>1202</v>
       </c>
       <c r="N69" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>22036203</v>
+        <v>22036110</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>1077</v>
+        <v>1068</v>
       </c>
       <c r="C70" s="7">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>1078</v>
+        <v>1069</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -24752,21 +24794,21 @@
         <v>1202</v>
       </c>
       <c r="N70" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>22036301</v>
+        <v>22036201</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>1080</v>
+        <v>1071</v>
       </c>
       <c r="C71" s="7">
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>1081</v>
+        <v>1072</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -24778,7 +24820,7 @@
         <v>15</v>
       </c>
       <c r="J71" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="K71" t="s">
         <v>1199</v>
@@ -24787,21 +24829,21 @@
         <v>1202</v>
       </c>
       <c r="N71" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>22036302</v>
+        <v>22036202</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>1083</v>
+        <v>1074</v>
       </c>
       <c r="C72" s="7">
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>1084</v>
+        <v>1075</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -24822,21 +24864,21 @@
         <v>1202</v>
       </c>
       <c r="N72" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>22036303</v>
+        <v>22036203</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>1086</v>
+        <v>1077</v>
       </c>
       <c r="C73" s="7">
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>1087</v>
+        <v>1078</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -24857,21 +24899,21 @@
         <v>1202</v>
       </c>
       <c r="N73" t="s">
-        <v>1088</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>22036304</v>
+        <v>22036301</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>1089</v>
+        <v>1080</v>
       </c>
       <c r="C74" s="7">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>1090</v>
+        <v>1081</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -24883,7 +24925,7 @@
         <v>15</v>
       </c>
       <c r="J74" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="K74" t="s">
         <v>1199</v>
@@ -24892,21 +24934,21 @@
         <v>1202</v>
       </c>
       <c r="N74" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>22036305</v>
+        <v>22036302</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>1092</v>
+        <v>1083</v>
       </c>
       <c r="C75" s="7">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>1093</v>
+        <v>1084</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -24927,21 +24969,21 @@
         <v>1202</v>
       </c>
       <c r="N75" t="s">
-        <v>1094</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>22036306</v>
+        <v>22036303</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>1095</v>
+        <v>1086</v>
       </c>
       <c r="C76" s="7">
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>1096</v>
+        <v>1087</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -24962,21 +25004,21 @@
         <v>1202</v>
       </c>
       <c r="N76" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>22036307</v>
+        <v>22036304</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>1098</v>
+        <v>1089</v>
       </c>
       <c r="C77" s="7">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>1099</v>
+        <v>1090</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -24997,21 +25039,21 @@
         <v>1202</v>
       </c>
       <c r="N77" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>22036308</v>
+        <v>22036305</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>1101</v>
+        <v>1092</v>
       </c>
       <c r="C78" s="7">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>1102</v>
+        <v>1093</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -25032,21 +25074,21 @@
         <v>1202</v>
       </c>
       <c r="N78" t="s">
-        <v>1103</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>22036309</v>
+        <v>22036306</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>1104</v>
+        <v>1095</v>
       </c>
       <c r="C79" s="7">
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>1105</v>
+        <v>1096</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -25067,21 +25109,21 @@
         <v>1202</v>
       </c>
       <c r="N79" t="s">
-        <v>1106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>22036310</v>
+        <v>22036307</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>1107</v>
+        <v>1098</v>
       </c>
       <c r="C80" s="7">
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>1108</v>
+        <v>1099</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -25102,21 +25144,21 @@
         <v>1202</v>
       </c>
       <c r="N80" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>22036311</v>
+        <v>22036308</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>1110</v>
+        <v>1101</v>
       </c>
       <c r="C81" s="7">
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>1111</v>
+        <v>1102</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -25137,21 +25179,21 @@
         <v>1202</v>
       </c>
       <c r="N81" t="s">
-        <v>1112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>22036312</v>
+        <v>22036309</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>1113</v>
+        <v>1104</v>
       </c>
       <c r="C82" s="7">
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>1114</v>
+        <v>1105</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -25163,7 +25205,7 @@
         <v>15</v>
       </c>
       <c r="J82" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="K82" t="s">
         <v>1199</v>
@@ -25172,21 +25214,21 @@
         <v>1202</v>
       </c>
       <c r="N82" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>22036401</v>
+        <v>22036310</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>1116</v>
+        <v>1107</v>
       </c>
       <c r="C83" s="7">
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>1117</v>
+        <v>1108</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -25207,21 +25249,21 @@
         <v>1202</v>
       </c>
       <c r="N83" t="s">
-        <v>1118</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>22036402</v>
+        <v>22036311</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>1119</v>
+        <v>1110</v>
       </c>
       <c r="C84" s="7">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>1120</v>
+        <v>1111</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -25242,21 +25284,21 @@
         <v>1202</v>
       </c>
       <c r="N84" t="s">
-        <v>1121</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>22036403</v>
+        <v>22036312</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>1122</v>
+        <v>1113</v>
       </c>
       <c r="C85" s="7">
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>1123</v>
+        <v>1114</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -25268,7 +25310,7 @@
         <v>15</v>
       </c>
       <c r="J85" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="K85" t="s">
         <v>1199</v>
@@ -25277,21 +25319,21 @@
         <v>1202</v>
       </c>
       <c r="N85" t="s">
-        <v>1124</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>22036404</v>
+        <v>22036401</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>1125</v>
+        <v>1116</v>
       </c>
       <c r="C86" s="7">
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>1126</v>
+        <v>1117</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -25312,21 +25354,21 @@
         <v>1202</v>
       </c>
       <c r="N86" t="s">
-        <v>1127</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>22036405</v>
+        <v>22036402</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>1128</v>
+        <v>1119</v>
       </c>
       <c r="C87" s="7">
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>1129</v>
+        <v>1120</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -25347,21 +25389,21 @@
         <v>1202</v>
       </c>
       <c r="N87" t="s">
-        <v>1130</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>22036406</v>
+        <v>22036403</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="C88" s="7">
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>1132</v>
+        <v>1123</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -25382,21 +25424,21 @@
         <v>1202</v>
       </c>
       <c r="N88" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>22036407</v>
+        <v>22036404</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>1134</v>
+        <v>1125</v>
       </c>
       <c r="C89" s="7">
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>1135</v>
+        <v>1126</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -25417,21 +25459,21 @@
         <v>1202</v>
       </c>
       <c r="N89" t="s">
-        <v>1136</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>22036408</v>
+        <v>22036405</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>1137</v>
+        <v>1128</v>
       </c>
       <c r="C90" s="7">
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>1138</v>
+        <v>1129</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -25452,21 +25494,21 @@
         <v>1202</v>
       </c>
       <c r="N90" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>22036501</v>
+        <v>22036406</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>1140</v>
+        <v>1131</v>
       </c>
       <c r="C91" s="7">
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>1141</v>
+        <v>1132</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -25487,21 +25529,21 @@
         <v>1202</v>
       </c>
       <c r="N91" t="s">
-        <v>1142</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>22036502</v>
+        <v>22036407</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>1143</v>
+        <v>1134</v>
       </c>
       <c r="C92" s="7">
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>1144</v>
+        <v>1135</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -25522,33 +25564,30 @@
         <v>1202</v>
       </c>
       <c r="N92" t="s">
-        <v>1145</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>22037001</v>
+        <v>22036408</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>1146</v>
+        <v>1137</v>
       </c>
       <c r="C93" s="7">
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>1147</v>
+        <v>1138</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
       <c r="G93">
-        <v>99</v>
-      </c>
-      <c r="H93">
         <v>1</v>
       </c>
       <c r="I93">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J93" t="s">
         <v>1199</v>
@@ -25560,33 +25599,30 @@
         <v>1202</v>
       </c>
       <c r="N93" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>22037002</v>
+        <v>22036501</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>1149</v>
+        <v>1140</v>
       </c>
       <c r="C94" s="7">
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>1150</v>
+        <v>1141</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
       <c r="G94">
-        <v>99</v>
-      </c>
-      <c r="H94">
         <v>1</v>
       </c>
       <c r="I94">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J94" t="s">
         <v>1199</v>
@@ -25598,33 +25634,30 @@
         <v>1202</v>
       </c>
       <c r="N94" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>22037003</v>
+        <v>22036502</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>1152</v>
+        <v>1143</v>
       </c>
       <c r="C95" s="7">
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>1153</v>
+        <v>1144</v>
       </c>
       <c r="E95">
         <v>1</v>
       </c>
       <c r="G95">
-        <v>99</v>
-      </c>
-      <c r="H95">
         <v>1</v>
       </c>
       <c r="I95">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J95" t="s">
         <v>1199</v>
@@ -25636,21 +25669,21 @@
         <v>1202</v>
       </c>
       <c r="N95" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>22037004</v>
+        <v>22037001</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>1155</v>
+        <v>1146</v>
       </c>
       <c r="C96" s="7">
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>1156</v>
+        <v>1147</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -25674,21 +25707,21 @@
         <v>1202</v>
       </c>
       <c r="N96" t="s">
-        <v>1157</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>22037101</v>
+        <v>22037002</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>1158</v>
+        <v>1149</v>
       </c>
       <c r="C97" s="7">
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>1159</v>
+        <v>1150</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -25697,36 +25730,36 @@
         <v>99</v>
       </c>
       <c r="H97">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J97" t="s">
-        <v>1221</v>
+        <v>1199</v>
       </c>
       <c r="K97" t="s">
         <v>1199</v>
       </c>
       <c r="L97" t="s">
-        <v>1220</v>
+        <v>1202</v>
       </c>
       <c r="N97" t="s">
-        <v>1160</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>22037102</v>
+        <v>22037003</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="C98" s="7">
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -25735,10 +25768,10 @@
         <v>99</v>
       </c>
       <c r="H98">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I98">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J98" t="s">
         <v>1199</v>
@@ -25750,21 +25783,21 @@
         <v>1202</v>
       </c>
       <c r="N98" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>22037103</v>
+        <v>22037004</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="C99" s="7">
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>1216</v>
+        <v>1156</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -25773,10 +25806,10 @@
         <v>99</v>
       </c>
       <c r="H99">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="I99">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J99" t="s">
         <v>1199</v>
@@ -25785,27 +25818,24 @@
         <v>1199</v>
       </c>
       <c r="L99" t="s">
-        <v>1220</v>
-      </c>
-      <c r="M99">
-        <v>1</v>
+        <v>1202</v>
       </c>
       <c r="N99" t="s">
-        <v>1164</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.15">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>22037104</v>
+        <v>22037101</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>1165</v>
+        <v>1158</v>
       </c>
       <c r="C100" s="7">
         <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>1217</v>
+        <v>1159</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -25814,13 +25844,13 @@
         <v>99</v>
       </c>
       <c r="H100">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I100">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J100" t="s">
-        <v>1199</v>
+        <v>1221</v>
       </c>
       <c r="K100" t="s">
         <v>1199</v>
@@ -25828,18 +25858,140 @@
       <c r="L100" t="s">
         <v>1220</v>
       </c>
-      <c r="M100">
-        <v>2</v>
-      </c>
       <c r="N100" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>22037102</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C101" s="7">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>99</v>
+      </c>
+      <c r="H101">
+        <v>50</v>
+      </c>
+      <c r="I101">
+        <v>14</v>
+      </c>
+      <c r="J101" t="s">
+        <v>1199</v>
+      </c>
+      <c r="K101" t="s">
+        <v>1199</v>
+      </c>
+      <c r="L101" t="s">
+        <v>1202</v>
+      </c>
+      <c r="N101" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>22037103</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C102" s="7">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="G102">
+        <v>99</v>
+      </c>
+      <c r="H102">
+        <v>40</v>
+      </c>
+      <c r="I102">
+        <v>11</v>
+      </c>
+      <c r="J102" t="s">
+        <v>1199</v>
+      </c>
+      <c r="K102" t="s">
+        <v>1199</v>
+      </c>
+      <c r="L102" t="s">
+        <v>1220</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>22037104</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C103" s="7">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>99</v>
+      </c>
+      <c r="H103">
+        <v>40</v>
+      </c>
+      <c r="I103">
+        <v>11</v>
+      </c>
+      <c r="J103" t="s">
+        <v>1199</v>
+      </c>
+      <c r="K103" t="s">
+        <v>1199</v>
+      </c>
+      <c r="L103" t="s">
+        <v>1220</v>
+      </c>
+      <c r="M103">
+        <v>2</v>
+      </c>
+      <c r="N103" t="s">
         <v>1166</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="D4:N100">
-    <cfRule type="containsBlanks" dxfId="18" priority="1">
+  <conditionalFormatting sqref="D4:N11 D15:N103">
+    <cfRule type="containsBlanks" dxfId="2" priority="2">
       <formula>LEN(TRIM(D4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:N14">
+    <cfRule type="containsBlanks" dxfId="1" priority="1">
+      <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ConfigData/Xlsx/HItem.xlsx
+++ b/ConfigData/Xlsx/HItem.xlsx
@@ -5372,21 +5372,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="57">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="55">
     <dxf>
       <font>
         <b val="0"/>
@@ -6740,78 +6726,78 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:N346" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" tableBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:N346" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52" tableBorderDxfId="51">
   <autoFilter ref="A3:N346"/>
   <sortState ref="A4:O435">
     <sortCondition ref="A3:A435"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="52"/>
-    <tableColumn id="2" name="Name" dataDxfId="51"/>
-    <tableColumn id="3" name="Type" dataDxfId="50"/>
-    <tableColumn id="4" name="Descript" dataDxfId="49"/>
-    <tableColumn id="5" name="Level" dataDxfId="48"/>
-    <tableColumn id="6" name="Rare" dataDxfId="47"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="46"/>
-    <tableColumn id="8" name="Value" dataDxfId="45"/>
-    <tableColumn id="9" name="SubType" dataDxfId="44"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="43"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="42"/>
-    <tableColumn id="15" name="IsRandom" dataDxfId="41"/>
-    <tableColumn id="13" name="CdGroup" dataDxfId="40"/>
-    <tableColumn id="14" name="Url" dataDxfId="39"/>
+    <tableColumn id="1" name="Id" dataDxfId="50"/>
+    <tableColumn id="2" name="Name" dataDxfId="49"/>
+    <tableColumn id="3" name="Type" dataDxfId="48"/>
+    <tableColumn id="4" name="Descript" dataDxfId="47"/>
+    <tableColumn id="5" name="Level" dataDxfId="46"/>
+    <tableColumn id="6" name="Rare" dataDxfId="45"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="44"/>
+    <tableColumn id="8" name="Value" dataDxfId="43"/>
+    <tableColumn id="9" name="SubType" dataDxfId="42"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="41"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="40"/>
+    <tableColumn id="15" name="IsRandom" dataDxfId="39"/>
+    <tableColumn id="13" name="CdGroup" dataDxfId="38"/>
+    <tableColumn id="14" name="Url" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:N14" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:N14" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33">
   <autoFilter ref="A3:N14"/>
   <sortState ref="A4:O435">
     <sortCondition ref="A3:A435"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="34"/>
-    <tableColumn id="2" name="Name" dataDxfId="33"/>
-    <tableColumn id="3" name="Type" dataDxfId="32"/>
-    <tableColumn id="4" name="Descript" dataDxfId="31"/>
-    <tableColumn id="5" name="Level" dataDxfId="30"/>
-    <tableColumn id="6" name="Rare" dataDxfId="29"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="28"/>
-    <tableColumn id="8" name="Value" dataDxfId="27"/>
-    <tableColumn id="9" name="SubType" dataDxfId="26"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="25"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="24"/>
-    <tableColumn id="15" name="IsRandom" dataDxfId="23"/>
-    <tableColumn id="13" name="CdGroup" dataDxfId="22"/>
-    <tableColumn id="14" name="Url" dataDxfId="21"/>
+    <tableColumn id="1" name="Id" dataDxfId="32"/>
+    <tableColumn id="2" name="Name" dataDxfId="31"/>
+    <tableColumn id="3" name="Type" dataDxfId="30"/>
+    <tableColumn id="4" name="Descript" dataDxfId="29"/>
+    <tableColumn id="5" name="Level" dataDxfId="28"/>
+    <tableColumn id="6" name="Rare" dataDxfId="27"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="26"/>
+    <tableColumn id="8" name="Value" dataDxfId="25"/>
+    <tableColumn id="9" name="SubType" dataDxfId="24"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="23"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="22"/>
+    <tableColumn id="15" name="IsRandom" dataDxfId="21"/>
+    <tableColumn id="13" name="CdGroup" dataDxfId="20"/>
+    <tableColumn id="14" name="Url" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:N103" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17" tableBorderDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:N103" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="A3:N103"/>
   <sortState ref="A4:O99">
     <sortCondition ref="A3:A99"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="15"/>
-    <tableColumn id="2" name="Name" dataDxfId="14"/>
-    <tableColumn id="3" name="Type" dataDxfId="13"/>
-    <tableColumn id="4" name="Descript" dataDxfId="12"/>
-    <tableColumn id="5" name="Level" dataDxfId="11"/>
-    <tableColumn id="6" name="Rare" dataDxfId="10"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="9"/>
-    <tableColumn id="8" name="Value" dataDxfId="8"/>
-    <tableColumn id="9" name="SubType" dataDxfId="7"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="6"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="5"/>
-    <tableColumn id="15" name="IsRandom" dataDxfId="4"/>
-    <tableColumn id="13" name="CdGroup" dataDxfId="3"/>
-    <tableColumn id="14" name="Url" dataDxfId="2"/>
+    <tableColumn id="1" name="Id" dataDxfId="13"/>
+    <tableColumn id="2" name="Name" dataDxfId="12"/>
+    <tableColumn id="3" name="Type" dataDxfId="11"/>
+    <tableColumn id="4" name="Descript" dataDxfId="10"/>
+    <tableColumn id="5" name="Level" dataDxfId="9"/>
+    <tableColumn id="6" name="Rare" dataDxfId="8"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="7"/>
+    <tableColumn id="8" name="Value" dataDxfId="6"/>
+    <tableColumn id="9" name="SubType" dataDxfId="5"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="4"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="3"/>
+    <tableColumn id="15" name="IsRandom" dataDxfId="2"/>
+    <tableColumn id="13" name="CdGroup" dataDxfId="1"/>
+    <tableColumn id="14" name="Url" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -21332,7 +21318,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A4:N346">
-    <cfRule type="containsBlanks" dxfId="56" priority="1">
+    <cfRule type="containsBlanks" dxfId="54" priority="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21905,7 +21891,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A4:N14">
-    <cfRule type="containsBlanks" dxfId="38" priority="1">
+    <cfRule type="containsBlanks" dxfId="36" priority="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21923,10 +21909,10 @@
   <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B46" sqref="B46"/>
+      <selection pane="bottomRight" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -26013,12 +25999,12 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="D4:N11 D15:N103">
-    <cfRule type="containsBlanks" dxfId="20" priority="2">
+    <cfRule type="containsBlanks" dxfId="18" priority="2">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:N14">
-    <cfRule type="containsBlanks" dxfId="19" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="1">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/HItem.xlsx
+++ b/ConfigData/Xlsx/HItem.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -6726,6 +6726,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6823,7 +6891,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACD"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -21921,10 +21989,10 @@
   <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D90" sqref="D90"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/ConfigData/Xlsx/HItem.xlsx
+++ b/ConfigData/Xlsx/HItem.xlsx
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="1275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2646" uniqueCount="1278">
   <si>
     <t>血蓟</t>
   </si>
@@ -4234,6 +4234,18 @@
   </si>
   <si>
     <t>资源袋(灰)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lidaihong</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源袋(红)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机获得2个素材</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -5065,7 +5077,49 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="58">
+  <dxfs count="60">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5525,20 +5579,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -5972,13 +6012,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="3" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6419,13 +6452,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -6440,78 +6466,78 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:N346" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" tableBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:N346" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57">
   <autoFilter ref="A3:N346"/>
   <sortState ref="A4:O435">
     <sortCondition ref="A3:A435"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="53"/>
-    <tableColumn id="2" name="Name" dataDxfId="52"/>
-    <tableColumn id="3" name="Type" dataDxfId="51"/>
-    <tableColumn id="4" name="Descript" dataDxfId="50"/>
-    <tableColumn id="5" name="Level" dataDxfId="49"/>
-    <tableColumn id="6" name="Rare" dataDxfId="48"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="47"/>
-    <tableColumn id="8" name="Value" dataDxfId="46"/>
-    <tableColumn id="9" name="SubType" dataDxfId="45"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="44"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="43"/>
-    <tableColumn id="15" name="IsRandom" dataDxfId="42"/>
-    <tableColumn id="13" name="CdGroup" dataDxfId="41"/>
-    <tableColumn id="14" name="Url" dataDxfId="40"/>
+    <tableColumn id="1" name="Id" dataDxfId="56"/>
+    <tableColumn id="2" name="Name" dataDxfId="55"/>
+    <tableColumn id="3" name="Type" dataDxfId="54"/>
+    <tableColumn id="4" name="Descript" dataDxfId="53"/>
+    <tableColumn id="5" name="Level" dataDxfId="52"/>
+    <tableColumn id="6" name="Rare" dataDxfId="51"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="50"/>
+    <tableColumn id="8" name="Value" dataDxfId="49"/>
+    <tableColumn id="9" name="SubType" dataDxfId="48"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="47"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="46"/>
+    <tableColumn id="15" name="IsRandom" dataDxfId="45"/>
+    <tableColumn id="13" name="CdGroup" dataDxfId="44"/>
+    <tableColumn id="14" name="Url" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:N14" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37" tableBorderDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:N14" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41" tableBorderDxfId="40">
   <autoFilter ref="A3:N14"/>
   <sortState ref="A4:O435">
     <sortCondition ref="A3:A435"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="35"/>
-    <tableColumn id="2" name="Name" dataDxfId="34"/>
-    <tableColumn id="3" name="Type" dataDxfId="33"/>
-    <tableColumn id="4" name="Descript" dataDxfId="32"/>
-    <tableColumn id="5" name="Level" dataDxfId="31"/>
-    <tableColumn id="6" name="Rare" dataDxfId="30"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="29"/>
-    <tableColumn id="8" name="Value" dataDxfId="28"/>
-    <tableColumn id="9" name="SubType" dataDxfId="27"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="26"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="25"/>
-    <tableColumn id="15" name="IsRandom" dataDxfId="24"/>
-    <tableColumn id="13" name="CdGroup" dataDxfId="23"/>
-    <tableColumn id="14" name="Url" dataDxfId="22"/>
+    <tableColumn id="1" name="Id" dataDxfId="39"/>
+    <tableColumn id="2" name="Name" dataDxfId="38"/>
+    <tableColumn id="3" name="Type" dataDxfId="37"/>
+    <tableColumn id="4" name="Descript" dataDxfId="36"/>
+    <tableColumn id="5" name="Level" dataDxfId="35"/>
+    <tableColumn id="6" name="Rare" dataDxfId="34"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="33"/>
+    <tableColumn id="8" name="Value" dataDxfId="32"/>
+    <tableColumn id="9" name="SubType" dataDxfId="31"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="30"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="29"/>
+    <tableColumn id="15" name="IsRandom" dataDxfId="28"/>
+    <tableColumn id="13" name="CdGroup" dataDxfId="27"/>
+    <tableColumn id="14" name="Url" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:N68" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18" tableBorderDxfId="17">
-  <autoFilter ref="A3:N68"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:N69" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" tableBorderDxfId="23">
+  <autoFilter ref="A3:N69"/>
   <sortState ref="A4:O64">
     <sortCondition ref="A3:A64"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="16"/>
-    <tableColumn id="2" name="Name" dataDxfId="15"/>
-    <tableColumn id="3" name="Type" dataDxfId="14"/>
-    <tableColumn id="4" name="Descript" dataDxfId="13"/>
-    <tableColumn id="5" name="Level" dataDxfId="12"/>
-    <tableColumn id="6" name="Rare" dataDxfId="11"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="10"/>
-    <tableColumn id="8" name="Value" dataDxfId="9"/>
-    <tableColumn id="9" name="SubType" dataDxfId="8"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="7"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="6"/>
-    <tableColumn id="15" name="IsRandom" dataDxfId="5"/>
-    <tableColumn id="13" name="CdGroup" dataDxfId="4"/>
-    <tableColumn id="14" name="Url" dataDxfId="3"/>
+    <tableColumn id="1" name="Id" dataDxfId="22"/>
+    <tableColumn id="2" name="Name" dataDxfId="21"/>
+    <tableColumn id="3" name="Type" dataDxfId="20"/>
+    <tableColumn id="4" name="Descript" dataDxfId="19"/>
+    <tableColumn id="5" name="Level" dataDxfId="18"/>
+    <tableColumn id="6" name="Rare" dataDxfId="17"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="16"/>
+    <tableColumn id="8" name="Value" dataDxfId="15"/>
+    <tableColumn id="9" name="SubType" dataDxfId="14"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="13"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="12"/>
+    <tableColumn id="15" name="IsRandom" dataDxfId="11"/>
+    <tableColumn id="13" name="CdGroup" dataDxfId="10"/>
+    <tableColumn id="14" name="Url" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -21032,7 +21058,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A4:N346">
-    <cfRule type="containsBlanks" dxfId="57" priority="1">
+    <cfRule type="containsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21606,7 +21632,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A4:N14">
-    <cfRule type="containsBlanks" dxfId="39" priority="1">
+    <cfRule type="containsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21621,13 +21647,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N68"/>
+  <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H17" sqref="H17"/>
+      <selection pane="bottomRight" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22226,25 +22252,25 @@
         <v>22031101</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>1269</v>
+        <v>1277</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>20</v>
       </c>
       <c r="H15">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I15">
         <v>15</v>
@@ -22259,7 +22285,7 @@
         <v>1068</v>
       </c>
       <c r="N15" t="s">
-        <v>932</v>
+        <v>934</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
@@ -22267,25 +22293,25 @@
         <v>22031102</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G16">
         <v>20</v>
       </c>
       <c r="H16">
-        <v>700</v>
+        <v>400</v>
       </c>
       <c r="I16">
         <v>15</v>
@@ -22300,7 +22326,7 @@
         <v>1068</v>
       </c>
       <c r="N16" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
@@ -22308,25 +22334,25 @@
         <v>22031103</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G17">
         <v>20</v>
       </c>
       <c r="H17">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="I17">
         <v>15</v>
@@ -22341,33 +22367,36 @@
         <v>1068</v>
       </c>
       <c r="N17" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>22031201</v>
+        <v>22031104</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>935</v>
+        <v>1276</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>1197</v>
+        <v>1271</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G18">
         <v>20</v>
       </c>
+      <c r="H18">
+        <v>1000</v>
+      </c>
       <c r="I18">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J18" t="s">
         <v>1059</v>
@@ -22379,27 +22408,27 @@
         <v>1068</v>
       </c>
       <c r="N18" t="s">
-        <v>936</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>22031202</v>
+        <v>22031201</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>938</v>
+        <v>1197</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G19">
         <v>20</v>
@@ -22417,27 +22446,27 @@
         <v>1068</v>
       </c>
       <c r="N19" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>22031203</v>
+        <v>22031202</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G20">
         <v>20</v>
@@ -22455,62 +22484,59 @@
         <v>1068</v>
       </c>
       <c r="N20" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>22032001</v>
+        <v>22031203</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>1078</v>
+        <v>941</v>
       </c>
       <c r="E21">
         <v>1</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G21">
-        <v>99</v>
-      </c>
-      <c r="H21">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="I21">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21" t="s">
         <v>1059</v>
       </c>
       <c r="K21" t="s">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="L21" t="s">
         <v>1068</v>
       </c>
       <c r="N21" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>22032002</v>
+        <v>22032001</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -22537,21 +22563,21 @@
         <v>1068</v>
       </c>
       <c r="N22" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>22032003</v>
+        <v>22032002</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>1073</v>
+        <v>1077</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -22578,21 +22604,21 @@
         <v>1068</v>
       </c>
       <c r="N23" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>22032004</v>
+        <v>22032003</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -22619,21 +22645,21 @@
         <v>1068</v>
       </c>
       <c r="N24" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>22032005</v>
+        <v>22032004</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -22657,24 +22683,24 @@
         <v>1059</v>
       </c>
       <c r="L25" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="N25" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>22032006</v>
+        <v>22032005</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -22701,21 +22727,21 @@
         <v>1062</v>
       </c>
       <c r="N26" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>22032007</v>
+        <v>22032006</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>1053</v>
+        <v>1076</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -22742,21 +22768,21 @@
         <v>1062</v>
       </c>
       <c r="N27" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>22032008</v>
+        <v>22032007</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1072</v>
+        <v>955</v>
       </c>
       <c r="C28" s="7">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>1071</v>
+        <v>1053</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -22768,7 +22794,7 @@
         <v>99</v>
       </c>
       <c r="H28">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I28">
         <v>13</v>
@@ -22783,36 +22809,36 @@
         <v>1062</v>
       </c>
       <c r="N28" t="s">
-        <v>1070</v>
+        <v>956</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>22033001</v>
+        <v>22032008</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>957</v>
+        <v>1072</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>1237</v>
+        <v>1071</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G29">
         <v>99</v>
       </c>
       <c r="H29">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="I29">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J29" t="s">
         <v>1059</v>
@@ -22821,45 +22847,42 @@
         <v>1059</v>
       </c>
       <c r="L29" t="s">
-        <v>1066</v>
-      </c>
-      <c r="M29">
-        <v>2</v>
+        <v>1062</v>
       </c>
       <c r="N29" t="s">
-        <v>904</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>22033002</v>
+        <v>22033001</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C30" s="7">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30">
         <v>99</v>
       </c>
       <c r="H30">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="I30">
         <v>11</v>
       </c>
       <c r="J30" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="K30" t="s">
         <v>1059</v>
@@ -22871,39 +22894,39 @@
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>959</v>
+        <v>904</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>22033003</v>
+        <v>22033002</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
       <c r="F31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G31">
         <v>99</v>
       </c>
       <c r="H31">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="I31">
         <v>11</v>
       </c>
       <c r="J31" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="K31" t="s">
         <v>1059</v>
@@ -22915,33 +22938,33 @@
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>22033004</v>
+        <v>22033003</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G32">
         <v>99</v>
       </c>
       <c r="H32">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="I32">
         <v>11</v>
@@ -22956,36 +22979,36 @@
         <v>1066</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>1231</v>
+        <v>961</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>22033005</v>
+        <v>22033004</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33">
         <v>99</v>
       </c>
       <c r="H33">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="I33">
         <v>11</v>
@@ -23003,33 +23026,33 @@
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>22033006</v>
+        <v>22033005</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C34" s="7">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G34">
         <v>99</v>
       </c>
       <c r="H34">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="I34">
         <v>11</v>
@@ -23047,33 +23070,33 @@
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>22033007</v>
+        <v>22033006</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1234</v>
+        <v>966</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
       <c r="F35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G35">
         <v>99</v>
       </c>
       <c r="H35">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="I35">
         <v>11</v>
@@ -23088,36 +23111,36 @@
         <v>1066</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>963</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>22033008</v>
+        <v>22033007</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G36">
         <v>99</v>
       </c>
       <c r="H36">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="I36">
         <v>11</v>
@@ -23135,33 +23158,33 @@
         <v>1</v>
       </c>
       <c r="N36" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>22033009</v>
+        <v>22033008</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
       <c r="F37">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G37">
         <v>99</v>
       </c>
       <c r="H37">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="I37">
         <v>11</v>
@@ -23179,33 +23202,33 @@
         <v>1</v>
       </c>
       <c r="N37" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>22033013</v>
+        <v>22033009</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1063</v>
+        <v>1236</v>
       </c>
       <c r="C38" s="7">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="E38">
         <v>1</v>
       </c>
       <c r="F38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G38">
         <v>99</v>
       </c>
       <c r="H38">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I38">
         <v>11</v>
@@ -23223,21 +23246,21 @@
         <v>1</v>
       </c>
       <c r="N38" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>22033014</v>
+        <v>22033013</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>969</v>
+        <v>1063</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -23264,24 +23287,24 @@
         <v>1066</v>
       </c>
       <c r="M39">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>22033015</v>
+        <v>22033014</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C40" s="7">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -23311,83 +23334,83 @@
         <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>22033016</v>
+        <v>22033015</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="E41">
         <v>1</v>
       </c>
       <c r="F41">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G41">
         <v>99</v>
       </c>
       <c r="H41">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I41">
         <v>11</v>
       </c>
       <c r="J41" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
       <c r="K41" t="s">
         <v>1059</v>
       </c>
       <c r="L41" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="M41">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>22033017</v>
+        <v>22033016</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C42" s="7">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="E42">
         <v>1</v>
       </c>
       <c r="F42">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G42">
         <v>99</v>
       </c>
       <c r="H42">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="I42">
         <v>11</v>
       </c>
       <c r="J42" t="s">
-        <v>1059</v>
+        <v>1067</v>
       </c>
       <c r="K42" t="s">
         <v>1059</v>
@@ -23399,27 +23422,27 @@
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>22033018</v>
+        <v>22033017</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E43">
         <v>1</v>
       </c>
       <c r="F43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G43">
         <v>99</v>
@@ -23443,27 +23466,27 @@
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>22033030</v>
+        <v>22033018</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1264</v>
+        <v>977</v>
       </c>
       <c r="C44" s="7">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>1258</v>
+        <v>1251</v>
       </c>
       <c r="E44">
         <v>1</v>
       </c>
       <c r="F44">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G44">
         <v>99</v>
@@ -23484,36 +23507,36 @@
         <v>1068</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>1261</v>
+        <v>978</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>22033031</v>
+        <v>22033030</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="E45">
         <v>1</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G45">
         <v>99</v>
       </c>
       <c r="H45">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I45">
         <v>11</v>
@@ -23531,33 +23554,33 @@
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>22033032</v>
+        <v>22033031</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="C46" s="7">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="E46">
         <v>1</v>
       </c>
       <c r="F46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G46">
         <v>99</v>
       </c>
       <c r="H46">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="I46">
         <v>11</v>
@@ -23575,39 +23598,39 @@
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>22034001</v>
+        <v>22033032</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>979</v>
+        <v>1266</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>1225</v>
+        <v>1260</v>
       </c>
       <c r="E47">
         <v>1</v>
       </c>
       <c r="F47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G47">
         <v>99</v>
       </c>
       <c r="H47">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="I47">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J47" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K47" t="s">
         <v>1059</v>
@@ -23615,40 +23638,43 @@
       <c r="L47" t="s">
         <v>1068</v>
       </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
       <c r="N47" t="s">
-        <v>980</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>22034002</v>
+        <v>22034001</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="C48" s="7">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E48">
         <v>1</v>
       </c>
       <c r="F48">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G48">
         <v>99</v>
       </c>
       <c r="H48">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I48">
         <v>13</v>
       </c>
       <c r="J48" t="s">
-        <v>1059</v>
+        <v>1069</v>
       </c>
       <c r="K48" t="s">
         <v>1059</v>
@@ -23657,36 +23683,36 @@
         <v>1068</v>
       </c>
       <c r="N48" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>22034003</v>
+        <v>22034002</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1228</v>
+        <v>981</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="E49">
         <v>1</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G49">
         <v>99</v>
       </c>
       <c r="H49">
-        <v>70</v>
+        <v>500</v>
       </c>
       <c r="I49">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J49" t="s">
         <v>1059</v>
@@ -23697,25 +23723,22 @@
       <c r="L49" t="s">
         <v>1068</v>
       </c>
-      <c r="M49">
-        <v>4</v>
-      </c>
       <c r="N49" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>22034004</v>
+        <v>22034003</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>984</v>
+        <v>1228</v>
       </c>
       <c r="C50" s="7">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>1252</v>
+        <v>1227</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -23745,21 +23768,21 @@
         <v>4</v>
       </c>
       <c r="N50" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>22034005</v>
+        <v>22034004</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="C51" s="7">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -23789,21 +23812,21 @@
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>22034006</v>
+        <v>22034005</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="C52" s="7">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -23833,21 +23856,21 @@
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>22034007</v>
+        <v>22034006</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -23877,21 +23900,21 @@
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>22034008</v>
+        <v>22034007</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="C54" s="7">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -23921,21 +23944,21 @@
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>22034009</v>
+        <v>22034008</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1230</v>
+        <v>992</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -23965,21 +23988,21 @@
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>22034010</v>
+        <v>22034009</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="C56" s="7">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>995</v>
+        <v>1257</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -24009,36 +24032,36 @@
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>22034011</v>
+        <v>22034010</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>997</v>
+        <v>1229</v>
       </c>
       <c r="C57" s="7">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
       <c r="F57">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G57">
         <v>99</v>
       </c>
       <c r="H57">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="I57">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J57" t="s">
         <v>1059</v>
@@ -24049,57 +24072,60 @@
       <c r="L57" t="s">
         <v>1068</v>
       </c>
+      <c r="M57">
+        <v>4</v>
+      </c>
       <c r="N57" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58">
-        <v>22035001</v>
+        <v>22034011</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C58" s="7">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>1208</v>
+        <v>998</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
       <c r="F58">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G58">
         <v>99</v>
       </c>
       <c r="H58">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="I58">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J58" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="K58" t="s">
         <v>1059</v>
       </c>
       <c r="L58" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="N58" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59">
-        <v>22035002</v>
+        <v>22035001</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="C59" s="7">
         <v>1</v>
@@ -24111,19 +24137,19 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G59">
         <v>99</v>
       </c>
       <c r="H59">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I59">
         <v>16</v>
       </c>
       <c r="J59" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="K59" t="s">
         <v>1059</v>
@@ -24132,15 +24158,15 @@
         <v>1062</v>
       </c>
       <c r="N59" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>22035003</v>
+        <v>22035002</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="C60" s="7">
         <v>1</v>
@@ -24152,13 +24178,13 @@
         <v>1</v>
       </c>
       <c r="F60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G60">
         <v>99</v>
       </c>
       <c r="H60">
-        <v>4000</v>
+        <v>2000</v>
       </c>
       <c r="I60">
         <v>16</v>
@@ -24173,33 +24199,36 @@
         <v>1062</v>
       </c>
       <c r="N60" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>22037001</v>
+        <v>22035003</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="C61" s="7">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>1007</v>
+        <v>1208</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
       <c r="G61">
         <v>99</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>4000</v>
       </c>
       <c r="I61">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J61" t="s">
         <v>1059</v>
@@ -24211,21 +24240,21 @@
         <v>1062</v>
       </c>
       <c r="N61" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62">
-        <v>22037002</v>
+        <v>22037001</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="C62" s="7">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -24249,21 +24278,21 @@
         <v>1062</v>
       </c>
       <c r="N62" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>22037003</v>
+        <v>22037002</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="C63" s="7">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -24287,21 +24316,21 @@
         <v>1062</v>
       </c>
       <c r="N63" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64">
-        <v>22037004</v>
+        <v>22037003</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="C64" s="7">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -24325,21 +24354,21 @@
         <v>1062</v>
       </c>
       <c r="N64" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A65">
-        <v>22037101</v>
+        <v>22037004</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -24348,27 +24377,27 @@
         <v>99</v>
       </c>
       <c r="H65">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J65" t="s">
-        <v>1069</v>
+        <v>1059</v>
       </c>
       <c r="K65" t="s">
         <v>1059</v>
       </c>
       <c r="L65" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="N65" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>22037102</v>
+        <v>22037101</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>1018</v>
@@ -24377,7 +24406,7 @@
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -24392,30 +24421,30 @@
         <v>13</v>
       </c>
       <c r="J66" t="s">
-        <v>1059</v>
+        <v>1069</v>
       </c>
       <c r="K66" t="s">
         <v>1059</v>
       </c>
       <c r="L66" t="s">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="N66" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>22037103</v>
+        <v>22037102</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="C67" s="7">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>1267</v>
+        <v>1021</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -24424,10 +24453,10 @@
         <v>99</v>
       </c>
       <c r="H67">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I67">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J67" t="s">
         <v>1059</v>
@@ -24436,27 +24465,24 @@
         <v>1059</v>
       </c>
       <c r="L67" t="s">
-        <v>1068</v>
-      </c>
-      <c r="M67">
-        <v>1</v>
+        <v>1062</v>
       </c>
       <c r="N67" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A68">
-        <v>22037104</v>
+        <v>22037103</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="C68" s="7">
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -24480,21 +24506,62 @@
         <v>1068</v>
       </c>
       <c r="M68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N68" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>22037104</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C69" s="7">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <v>99</v>
+      </c>
+      <c r="H69">
+        <v>40</v>
+      </c>
+      <c r="I69">
+        <v>11</v>
+      </c>
+      <c r="J69" t="s">
+        <v>1059</v>
+      </c>
+      <c r="K69" t="s">
+        <v>1059</v>
+      </c>
+      <c r="L69" t="s">
+        <v>1068</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69" t="s">
         <v>1026</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="D4:N11 D15:N68">
-    <cfRule type="containsBlanks" dxfId="21" priority="2">
+  <conditionalFormatting sqref="D4:N11 D15:N69">
+    <cfRule type="containsBlanks" dxfId="3" priority="2">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:N14">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/HItem.xlsx
+++ b/ConfigData/Xlsx/HItem.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="1370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="1381">
   <si>
     <t>血蓟</t>
   </si>
@@ -4199,19 +4199,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>图腾素材1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>图腾素材2</t>
-  </si>
-  <si>
-    <t>图腾素材3</t>
-  </si>
-  <si>
-    <t>图腾素材4</t>
-  </si>
-  <si>
     <t>一种来自图腾怪物的低级别素材</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -4560,6 +4547,60 @@
   </si>
   <si>
     <t>ValueFactor</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sctuteng1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sctuteng2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sctuteng3</t>
+  </si>
+  <si>
+    <t>sctuteng4</t>
+  </si>
+  <si>
+    <t>生命图腾</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>沼泽图腾</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素图腾</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>希望图腾</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>scfeng4</t>
+  </si>
+  <si>
+    <t>schuo4</t>
+  </si>
+  <si>
+    <t>scdi4</t>
+  </si>
+  <si>
+    <t>scan4</t>
+  </si>
+  <si>
+    <t>scwu4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>scshui4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>scguang4</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -5414,7 +5455,35 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="63">
+  <dxfs count="67">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6812,74 +6881,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6892,78 +6893,78 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:N347" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60" tableBorderDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:N347" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64" tableBorderDxfId="63">
   <autoFilter ref="A3:N347"/>
   <sortState ref="A4:N342">
     <sortCondition ref="A3:A342"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="58"/>
-    <tableColumn id="2" name="Name" dataDxfId="57"/>
-    <tableColumn id="3" name="Type" dataDxfId="56"/>
-    <tableColumn id="4" name="Descript" dataDxfId="55"/>
-    <tableColumn id="5" name="Level" dataDxfId="54"/>
-    <tableColumn id="6" name="Rare" dataDxfId="53"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="52"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="51"/>
-    <tableColumn id="9" name="SubType" dataDxfId="50"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="49"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="48"/>
-    <tableColumn id="15" name="RandomGroup" dataDxfId="47"/>
-    <tableColumn id="13" name="CdGroup" dataDxfId="46"/>
-    <tableColumn id="14" name="Url" dataDxfId="45"/>
+    <tableColumn id="1" name="Id" dataDxfId="62"/>
+    <tableColumn id="2" name="Name" dataDxfId="61"/>
+    <tableColumn id="3" name="Type" dataDxfId="60"/>
+    <tableColumn id="4" name="Descript" dataDxfId="59"/>
+    <tableColumn id="5" name="Level" dataDxfId="58"/>
+    <tableColumn id="6" name="Rare" dataDxfId="57"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="56"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="55"/>
+    <tableColumn id="9" name="SubType" dataDxfId="54"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="53"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="52"/>
+    <tableColumn id="15" name="RandomGroup" dataDxfId="51"/>
+    <tableColumn id="13" name="CdGroup" dataDxfId="50"/>
+    <tableColumn id="14" name="Url" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:N20" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:N20" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45" tableBorderDxfId="44">
   <autoFilter ref="A3:N20"/>
   <sortState ref="A4:O435">
     <sortCondition ref="A3:A435"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="39"/>
-    <tableColumn id="2" name="Name" dataDxfId="38"/>
-    <tableColumn id="3" name="Type" dataDxfId="37"/>
-    <tableColumn id="4" name="Descript" dataDxfId="36"/>
-    <tableColumn id="5" name="Level" dataDxfId="35"/>
-    <tableColumn id="6" name="Rare" dataDxfId="34"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="33"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="32"/>
-    <tableColumn id="9" name="SubType" dataDxfId="31"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="30"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="29"/>
-    <tableColumn id="15" name="RandomGroup" dataDxfId="28"/>
-    <tableColumn id="13" name="CdGroup" dataDxfId="27"/>
-    <tableColumn id="14" name="Url" dataDxfId="26"/>
+    <tableColumn id="1" name="Id" dataDxfId="43"/>
+    <tableColumn id="2" name="Name" dataDxfId="42"/>
+    <tableColumn id="3" name="Type" dataDxfId="41"/>
+    <tableColumn id="4" name="Descript" dataDxfId="40"/>
+    <tableColumn id="5" name="Level" dataDxfId="39"/>
+    <tableColumn id="6" name="Rare" dataDxfId="38"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="37"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="36"/>
+    <tableColumn id="9" name="SubType" dataDxfId="35"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="34"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="33"/>
+    <tableColumn id="15" name="RandomGroup" dataDxfId="32"/>
+    <tableColumn id="13" name="CdGroup" dataDxfId="31"/>
+    <tableColumn id="14" name="Url" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:N96" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" tableBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:N96" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" tableBorderDxfId="25">
   <autoFilter ref="A3:N96"/>
   <sortState ref="A4:N96">
     <sortCondition ref="A3:A96"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="20"/>
-    <tableColumn id="2" name="Name" dataDxfId="19"/>
-    <tableColumn id="3" name="Type" dataDxfId="18"/>
-    <tableColumn id="4" name="Descript" dataDxfId="17"/>
-    <tableColumn id="5" name="Level" dataDxfId="16"/>
-    <tableColumn id="6" name="Rare" dataDxfId="15"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="14"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="13"/>
-    <tableColumn id="9" name="SubType" dataDxfId="12"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="11"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="10"/>
-    <tableColumn id="15" name="RandomGroup" dataDxfId="9"/>
-    <tableColumn id="13" name="CdGroup" dataDxfId="8"/>
-    <tableColumn id="14" name="Url" dataDxfId="7"/>
+    <tableColumn id="1" name="Id" dataDxfId="24"/>
+    <tableColumn id="2" name="Name" dataDxfId="23"/>
+    <tableColumn id="3" name="Type" dataDxfId="22"/>
+    <tableColumn id="4" name="Descript" dataDxfId="21"/>
+    <tableColumn id="5" name="Level" dataDxfId="20"/>
+    <tableColumn id="6" name="Rare" dataDxfId="19"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="18"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="17"/>
+    <tableColumn id="9" name="SubType" dataDxfId="16"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="15"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="14"/>
+    <tableColumn id="15" name="RandomGroup" dataDxfId="13"/>
+    <tableColumn id="13" name="CdGroup" dataDxfId="12"/>
+    <tableColumn id="14" name="Url" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6977,7 +6978,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACD"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -7259,10 +7260,10 @@
   <dimension ref="A1:N347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B247" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B334" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K252" sqref="K252"/>
+      <selection pane="bottomRight" activeCell="H343" sqref="H343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7355,7 +7356,7 @@
         <v>1036</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>1007</v>
@@ -7387,7 +7388,7 @@
         <v>1028</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>1029</v>
@@ -7399,7 +7400,7 @@
         <v>1034</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>1030</v>
@@ -7431,10 +7432,10 @@
         <v>99</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="I4">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
         <v>1039</v>
@@ -7472,10 +7473,10 @@
         <v>99</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="I5">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
         <v>1039</v>
@@ -7513,10 +7514,10 @@
         <v>99</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="I6">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
         <v>1039</v>
@@ -7554,10 +7555,10 @@
         <v>99</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="I7">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J7" t="s">
         <v>1039</v>
@@ -7595,10 +7596,10 @@
         <v>99</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="I8">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J8" t="s">
         <v>1039</v>
@@ -7636,10 +7637,10 @@
         <v>99</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="I9">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J9" t="s">
         <v>1039</v>
@@ -7677,10 +7678,10 @@
         <v>99</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="I10">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J10" t="s">
         <v>1039</v>
@@ -7718,10 +7719,10 @@
         <v>99</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="I11">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
         <v>1039</v>
@@ -7759,10 +7760,10 @@
         <v>99</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="I12">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J12" t="s">
         <v>1039</v>
@@ -7800,10 +7801,10 @@
         <v>99</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="I13">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>1039</v>
@@ -7841,10 +7842,10 @@
         <v>99</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="I14">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
         <v>1039</v>
@@ -7882,10 +7883,10 @@
         <v>99</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="I15">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J15" t="s">
         <v>1039</v>
@@ -7923,10 +7924,10 @@
         <v>99</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="I16">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J16" t="s">
         <v>1039</v>
@@ -7964,10 +7965,10 @@
         <v>99</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="I17">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J17" t="s">
         <v>1039</v>
@@ -8005,10 +8006,10 @@
         <v>99</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="I18">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>1039</v>
@@ -8046,10 +8047,10 @@
         <v>99</v>
       </c>
       <c r="H19">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="I19">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
         <v>1039</v>
@@ -8087,10 +8088,10 @@
         <v>99</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="I20">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>1039</v>
@@ -8128,10 +8129,10 @@
         <v>99</v>
       </c>
       <c r="H21">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="I21">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
         <v>1039</v>
@@ -8169,10 +8170,10 @@
         <v>99</v>
       </c>
       <c r="H22">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="I22">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J22" t="s">
         <v>1039</v>
@@ -8210,10 +8211,10 @@
         <v>99</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="I23">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J23" t="s">
         <v>1039</v>
@@ -8251,10 +8252,10 @@
         <v>99</v>
       </c>
       <c r="H24">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="I24">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
         <v>1039</v>
@@ -8292,10 +8293,10 @@
         <v>99</v>
       </c>
       <c r="H25">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="I25">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J25" t="s">
         <v>1039</v>
@@ -8333,10 +8334,10 @@
         <v>99</v>
       </c>
       <c r="H26">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="I26">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J26" t="s">
         <v>1039</v>
@@ -8374,10 +8375,10 @@
         <v>99</v>
       </c>
       <c r="H27">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="I27">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
         <v>1039</v>
@@ -8415,10 +8416,10 @@
         <v>99</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="I28">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J28" t="s">
         <v>1039</v>
@@ -8456,10 +8457,10 @@
         <v>99</v>
       </c>
       <c r="H29">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="I29">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J29" t="s">
         <v>1039</v>
@@ -8497,10 +8498,10 @@
         <v>99</v>
       </c>
       <c r="H30">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="I30">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
         <v>1039</v>
@@ -8538,10 +8539,10 @@
         <v>99</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>70</v>
       </c>
       <c r="I31">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
         <v>1039</v>
@@ -8579,10 +8580,10 @@
         <v>99</v>
       </c>
       <c r="H32">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="I32">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
         <v>1039</v>
@@ -8620,10 +8621,10 @@
         <v>99</v>
       </c>
       <c r="H33">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="I33">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
         <v>1039</v>
@@ -8661,10 +8662,10 @@
         <v>99</v>
       </c>
       <c r="H34">
-        <v>10</v>
+        <v>70</v>
       </c>
       <c r="I34">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="J34" t="s">
         <v>1039</v>
@@ -8702,10 +8703,10 @@
         <v>99</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="I35">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J35" t="s">
         <v>1039</v>
@@ -8743,10 +8744,10 @@
         <v>99</v>
       </c>
       <c r="H36">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="I36">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="J36" t="s">
         <v>1039</v>
@@ -8784,10 +8785,10 @@
         <v>99</v>
       </c>
       <c r="H37">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="I37">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J37" t="s">
         <v>1039</v>
@@ -8825,10 +8826,10 @@
         <v>99</v>
       </c>
       <c r="H38">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="I38">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
         <v>1039</v>
@@ -8866,10 +8867,10 @@
         <v>99</v>
       </c>
       <c r="H39">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I39">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
         <v>1039</v>
@@ -8907,10 +8908,10 @@
         <v>99</v>
       </c>
       <c r="H40">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I40">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J40" t="s">
         <v>1039</v>
@@ -8948,10 +8949,10 @@
         <v>99</v>
       </c>
       <c r="H41">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="I41">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
         <v>1039</v>
@@ -8989,10 +8990,10 @@
         <v>99</v>
       </c>
       <c r="H42">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I42">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
         <v>1039</v>
@@ -9030,10 +9031,10 @@
         <v>99</v>
       </c>
       <c r="H43">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I43">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J43" t="s">
         <v>1039</v>
@@ -9071,10 +9072,10 @@
         <v>99</v>
       </c>
       <c r="H44">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I44">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J44" t="s">
         <v>1039</v>
@@ -9112,10 +9113,10 @@
         <v>99</v>
       </c>
       <c r="H45">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="I45">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J45" t="s">
         <v>1039</v>
@@ -9153,10 +9154,10 @@
         <v>99</v>
       </c>
       <c r="H46">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="I46">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J46" t="s">
         <v>1039</v>
@@ -9194,10 +9195,10 @@
         <v>99</v>
       </c>
       <c r="H47">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="I47">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J47" t="s">
         <v>1039</v>
@@ -9235,10 +9236,10 @@
         <v>99</v>
       </c>
       <c r="H48">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="I48">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J48" t="s">
         <v>1039</v>
@@ -9276,10 +9277,10 @@
         <v>99</v>
       </c>
       <c r="H49">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="I49">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
         <v>1039</v>
@@ -9317,10 +9318,10 @@
         <v>99</v>
       </c>
       <c r="H50">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="I50">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
         <v>1039</v>
@@ -9358,10 +9359,10 @@
         <v>99</v>
       </c>
       <c r="H51">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I51">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J51" t="s">
         <v>1039</v>
@@ -9399,10 +9400,10 @@
         <v>99</v>
       </c>
       <c r="H52">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="I52">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
         <v>1039</v>
@@ -9440,10 +9441,10 @@
         <v>99</v>
       </c>
       <c r="H53">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="I53">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J53" t="s">
         <v>1039</v>
@@ -9481,10 +9482,10 @@
         <v>99</v>
       </c>
       <c r="H54">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="I54">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
         <v>1039</v>
@@ -9522,10 +9523,10 @@
         <v>99</v>
       </c>
       <c r="H55">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I55">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
         <v>1039</v>
@@ -9563,10 +9564,10 @@
         <v>99</v>
       </c>
       <c r="H56">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="I56">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J56" t="s">
         <v>1039</v>
@@ -9604,10 +9605,10 @@
         <v>99</v>
       </c>
       <c r="H57">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="I57">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J57" t="s">
         <v>1039</v>
@@ -9645,10 +9646,10 @@
         <v>99</v>
       </c>
       <c r="H58">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I58">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J58" t="s">
         <v>1039</v>
@@ -9686,10 +9687,10 @@
         <v>99</v>
       </c>
       <c r="H59">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="I59">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
         <v>1039</v>
@@ -9727,10 +9728,10 @@
         <v>99</v>
       </c>
       <c r="H60">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I60">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J60" t="s">
         <v>1039</v>
@@ -9768,10 +9769,10 @@
         <v>99</v>
       </c>
       <c r="H61">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="I61">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
         <v>1039</v>
@@ -9809,10 +9810,10 @@
         <v>99</v>
       </c>
       <c r="H62">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="I62">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
         <v>1039</v>
@@ -9850,10 +9851,10 @@
         <v>99</v>
       </c>
       <c r="H63">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="I63">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
         <v>1039</v>
@@ -9891,10 +9892,10 @@
         <v>99</v>
       </c>
       <c r="H64">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="I64">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J64" t="s">
         <v>1039</v>
@@ -9932,10 +9933,10 @@
         <v>99</v>
       </c>
       <c r="H65">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I65">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
         <v>1039</v>
@@ -9973,10 +9974,10 @@
         <v>99</v>
       </c>
       <c r="H66">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="I66">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J66" t="s">
         <v>1039</v>
@@ -10014,10 +10015,10 @@
         <v>99</v>
       </c>
       <c r="H67">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="I67">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
         <v>1039</v>
@@ -10055,10 +10056,10 @@
         <v>99</v>
       </c>
       <c r="H68">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I68">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
         <v>1039</v>
@@ -10096,10 +10097,10 @@
         <v>99</v>
       </c>
       <c r="H69">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="I69">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
         <v>1039</v>
@@ -10137,10 +10138,10 @@
         <v>99</v>
       </c>
       <c r="H70">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I70">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J70" t="s">
         <v>1039</v>
@@ -10178,10 +10179,10 @@
         <v>99</v>
       </c>
       <c r="H71">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I71">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
         <v>1039</v>
@@ -10219,10 +10220,10 @@
         <v>99</v>
       </c>
       <c r="H72">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="I72">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J72" t="s">
         <v>1039</v>
@@ -10260,10 +10261,10 @@
         <v>99</v>
       </c>
       <c r="H73">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="I73">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J73" t="s">
         <v>1039</v>
@@ -10301,10 +10302,10 @@
         <v>99</v>
       </c>
       <c r="H74">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I74">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J74" t="s">
         <v>1039</v>
@@ -10342,10 +10343,10 @@
         <v>99</v>
       </c>
       <c r="H75">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="I75">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J75" t="s">
         <v>1039</v>
@@ -10383,10 +10384,10 @@
         <v>99</v>
       </c>
       <c r="H76">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I76">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J76" t="s">
         <v>1039</v>
@@ -10424,10 +10425,10 @@
         <v>99</v>
       </c>
       <c r="H77">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I77">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J77" t="s">
         <v>1039</v>
@@ -10465,10 +10466,10 @@
         <v>99</v>
       </c>
       <c r="H78">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I78">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>1039</v>
@@ -10506,10 +10507,10 @@
         <v>99</v>
       </c>
       <c r="H79">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I79">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
         <v>1039</v>
@@ -10547,10 +10548,10 @@
         <v>99</v>
       </c>
       <c r="H80">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="I80">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
         <v>1039</v>
@@ -10588,10 +10589,10 @@
         <v>99</v>
       </c>
       <c r="H81">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="I81">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J81" t="s">
         <v>1039</v>
@@ -10629,10 +10630,10 @@
         <v>99</v>
       </c>
       <c r="H82">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="I82">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J82" t="s">
         <v>1039</v>
@@ -10670,10 +10671,10 @@
         <v>99</v>
       </c>
       <c r="H83">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I83">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
         <v>1039</v>
@@ -10711,10 +10712,10 @@
         <v>99</v>
       </c>
       <c r="H84">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I84">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
         <v>1039</v>
@@ -10752,10 +10753,10 @@
         <v>99</v>
       </c>
       <c r="H85">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="I85">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
         <v>1039</v>
@@ -10793,10 +10794,10 @@
         <v>99</v>
       </c>
       <c r="H86">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I86">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
         <v>1039</v>
@@ -10834,10 +10835,10 @@
         <v>99</v>
       </c>
       <c r="H87">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="I87">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J87" t="s">
         <v>1039</v>
@@ -10875,10 +10876,10 @@
         <v>99</v>
       </c>
       <c r="H88">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="I88">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J88" t="s">
         <v>1039</v>
@@ -10916,10 +10917,10 @@
         <v>99</v>
       </c>
       <c r="H89">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I89">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J89" t="s">
         <v>1039</v>
@@ -10957,10 +10958,10 @@
         <v>99</v>
       </c>
       <c r="H90">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="I90">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
         <v>1039</v>
@@ -10998,10 +10999,10 @@
         <v>99</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="I91">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
         <v>1039</v>
@@ -11039,10 +11040,10 @@
         <v>99</v>
       </c>
       <c r="H92">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="I92">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J92" t="s">
         <v>1039</v>
@@ -11080,10 +11081,10 @@
         <v>99</v>
       </c>
       <c r="H93">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I93">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
         <v>1039</v>
@@ -11121,10 +11122,10 @@
         <v>99</v>
       </c>
       <c r="H94">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I94">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J94" t="s">
         <v>1039</v>
@@ -11162,10 +11163,10 @@
         <v>99</v>
       </c>
       <c r="H95">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I95">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
         <v>1039</v>
@@ -11203,10 +11204,10 @@
         <v>99</v>
       </c>
       <c r="H96">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I96">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
         <v>1039</v>
@@ -11244,10 +11245,10 @@
         <v>99</v>
       </c>
       <c r="H97">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="I97">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
         <v>1039</v>
@@ -11285,10 +11286,10 @@
         <v>99</v>
       </c>
       <c r="H98">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I98">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
         <v>1039</v>
@@ -11326,10 +11327,10 @@
         <v>99</v>
       </c>
       <c r="H99">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I99">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
         <v>1039</v>
@@ -11367,10 +11368,10 @@
         <v>99</v>
       </c>
       <c r="H100">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I100">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J100" t="s">
         <v>1039</v>
@@ -11408,10 +11409,10 @@
         <v>99</v>
       </c>
       <c r="H101">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I101">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
         <v>1039</v>
@@ -11449,10 +11450,10 @@
         <v>99</v>
       </c>
       <c r="H102">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I102">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
         <v>1039</v>
@@ -11490,10 +11491,10 @@
         <v>99</v>
       </c>
       <c r="H103">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I103">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>1039</v>
@@ -11531,10 +11532,10 @@
         <v>99</v>
       </c>
       <c r="H104">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I104">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J104" t="s">
         <v>1039</v>
@@ -11572,10 +11573,10 @@
         <v>99</v>
       </c>
       <c r="H105">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I105">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J105" t="s">
         <v>1039</v>
@@ -11613,10 +11614,10 @@
         <v>99</v>
       </c>
       <c r="H106">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="I106">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J106" t="s">
         <v>1039</v>
@@ -11654,10 +11655,10 @@
         <v>99</v>
       </c>
       <c r="H107">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="I107">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
         <v>1039</v>
@@ -11695,10 +11696,10 @@
         <v>99</v>
       </c>
       <c r="H108">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="I108">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J108" t="s">
         <v>1039</v>
@@ -11736,10 +11737,10 @@
         <v>99</v>
       </c>
       <c r="H109">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="I109">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
         <v>1039</v>
@@ -11777,10 +11778,10 @@
         <v>99</v>
       </c>
       <c r="H110">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="I110">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
         <v>1039</v>
@@ -11818,10 +11819,10 @@
         <v>99</v>
       </c>
       <c r="H111">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="I111">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
         <v>1039</v>
@@ -11859,10 +11860,10 @@
         <v>99</v>
       </c>
       <c r="H112">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I112">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
         <v>1039</v>
@@ -11900,10 +11901,10 @@
         <v>99</v>
       </c>
       <c r="H113">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="I113">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J113" t="s">
         <v>1039</v>
@@ -11941,10 +11942,10 @@
         <v>99</v>
       </c>
       <c r="H114">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I114">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J114" t="s">
         <v>1039</v>
@@ -11982,10 +11983,10 @@
         <v>99</v>
       </c>
       <c r="H115">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I115">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
         <v>1039</v>
@@ -12023,10 +12024,10 @@
         <v>99</v>
       </c>
       <c r="H116">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="I116">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
         <v>1039</v>
@@ -12064,10 +12065,10 @@
         <v>99</v>
       </c>
       <c r="H117">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="I117">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J117" t="s">
         <v>1039</v>
@@ -12105,10 +12106,10 @@
         <v>99</v>
       </c>
       <c r="H118">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I118">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
         <v>1039</v>
@@ -12146,10 +12147,10 @@
         <v>99</v>
       </c>
       <c r="H119">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I119">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
         <v>1039</v>
@@ -12187,10 +12188,10 @@
         <v>99</v>
       </c>
       <c r="H120">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I120">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
         <v>1039</v>
@@ -12228,10 +12229,10 @@
         <v>99</v>
       </c>
       <c r="H121">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I121">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J121" t="s">
         <v>1039</v>
@@ -12269,10 +12270,10 @@
         <v>99</v>
       </c>
       <c r="H122">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="I122">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J122" t="s">
         <v>1039</v>
@@ -12310,10 +12311,10 @@
         <v>99</v>
       </c>
       <c r="H123">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I123">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J123" t="s">
         <v>1039</v>
@@ -12351,10 +12352,10 @@
         <v>99</v>
       </c>
       <c r="H124">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="I124">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J124" t="s">
         <v>1039</v>
@@ -12392,10 +12393,10 @@
         <v>99</v>
       </c>
       <c r="H125">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="I125">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J125" t="s">
         <v>1039</v>
@@ -12433,10 +12434,10 @@
         <v>99</v>
       </c>
       <c r="H126">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="I126">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J126" t="s">
         <v>1039</v>
@@ -12474,10 +12475,10 @@
         <v>99</v>
       </c>
       <c r="H127">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I127">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J127" t="s">
         <v>1039</v>
@@ -12515,10 +12516,10 @@
         <v>99</v>
       </c>
       <c r="H128">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="I128">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J128" t="s">
         <v>1039</v>
@@ -12556,10 +12557,10 @@
         <v>99</v>
       </c>
       <c r="H129">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I129">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J129" t="s">
         <v>1039</v>
@@ -12597,10 +12598,10 @@
         <v>99</v>
       </c>
       <c r="H130">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="I130">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J130" t="s">
         <v>1039</v>
@@ -12638,10 +12639,10 @@
         <v>99</v>
       </c>
       <c r="H131">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="I131">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J131" t="s">
         <v>1039</v>
@@ -12679,10 +12680,10 @@
         <v>99</v>
       </c>
       <c r="H132">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I132">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J132" t="s">
         <v>1039</v>
@@ -12720,10 +12721,10 @@
         <v>99</v>
       </c>
       <c r="H133">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="I133">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J133" t="s">
         <v>1039</v>
@@ -12761,10 +12762,10 @@
         <v>99</v>
       </c>
       <c r="H134">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="I134">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J134" t="s">
         <v>1039</v>
@@ -12802,10 +12803,10 @@
         <v>99</v>
       </c>
       <c r="H135">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="I135">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J135" t="s">
         <v>1039</v>
@@ -12843,10 +12844,10 @@
         <v>99</v>
       </c>
       <c r="H136">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="I136">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J136" t="s">
         <v>1039</v>
@@ -12884,10 +12885,10 @@
         <v>99</v>
       </c>
       <c r="H137">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="I137">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J137" t="s">
         <v>1039</v>
@@ -12925,10 +12926,10 @@
         <v>99</v>
       </c>
       <c r="H138">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="I138">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J138" t="s">
         <v>1039</v>
@@ -12966,10 +12967,10 @@
         <v>99</v>
       </c>
       <c r="H139">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="I139">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J139" t="s">
         <v>1039</v>
@@ -13007,10 +13008,10 @@
         <v>99</v>
       </c>
       <c r="H140">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="I140">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J140" t="s">
         <v>1039</v>
@@ -13048,10 +13049,10 @@
         <v>99</v>
       </c>
       <c r="H141">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="I141">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J141" t="s">
         <v>1039</v>
@@ -13089,10 +13090,10 @@
         <v>99</v>
       </c>
       <c r="H142">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="I142">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J142" t="s">
         <v>1039</v>
@@ -13130,10 +13131,10 @@
         <v>99</v>
       </c>
       <c r="H143">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="I143">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J143" t="s">
         <v>1039</v>
@@ -13171,10 +13172,10 @@
         <v>99</v>
       </c>
       <c r="H144">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="I144">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
         <v>1039</v>
@@ -13212,10 +13213,10 @@
         <v>99</v>
       </c>
       <c r="H145">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="I145">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J145" t="s">
         <v>1039</v>
@@ -13253,10 +13254,10 @@
         <v>99</v>
       </c>
       <c r="H146">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I146">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J146" t="s">
         <v>1039</v>
@@ -13294,10 +13295,10 @@
         <v>99</v>
       </c>
       <c r="H147">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I147">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J147" t="s">
         <v>1039</v>
@@ -13335,10 +13336,10 @@
         <v>99</v>
       </c>
       <c r="H148">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I148">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J148" t="s">
         <v>1039</v>
@@ -13376,10 +13377,10 @@
         <v>99</v>
       </c>
       <c r="H149">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I149">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J149" t="s">
         <v>1039</v>
@@ -13417,10 +13418,10 @@
         <v>99</v>
       </c>
       <c r="H150">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I150">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J150" t="s">
         <v>1039</v>
@@ -13458,10 +13459,10 @@
         <v>99</v>
       </c>
       <c r="H151">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I151">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J151" t="s">
         <v>1039</v>
@@ -13499,10 +13500,10 @@
         <v>99</v>
       </c>
       <c r="H152">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I152">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J152" t="s">
         <v>1039</v>
@@ -13540,10 +13541,10 @@
         <v>99</v>
       </c>
       <c r="H153">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I153">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J153" t="s">
         <v>1039</v>
@@ -13581,10 +13582,10 @@
         <v>99</v>
       </c>
       <c r="H154">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="I154">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J154" t="s">
         <v>1039</v>
@@ -13622,10 +13623,10 @@
         <v>99</v>
       </c>
       <c r="H155">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I155">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J155" t="s">
         <v>1039</v>
@@ -13663,10 +13664,10 @@
         <v>99</v>
       </c>
       <c r="H156">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="I156">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
         <v>1039</v>
@@ -13704,10 +13705,10 @@
         <v>99</v>
       </c>
       <c r="H157">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I157">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J157" t="s">
         <v>1039</v>
@@ -13745,10 +13746,10 @@
         <v>99</v>
       </c>
       <c r="H158">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I158">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J158" t="s">
         <v>1039</v>
@@ -13786,10 +13787,10 @@
         <v>99</v>
       </c>
       <c r="H159">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="I159">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
         <v>1039</v>
@@ -13827,10 +13828,10 @@
         <v>99</v>
       </c>
       <c r="H160">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="I160">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J160" t="s">
         <v>1039</v>
@@ -13868,10 +13869,10 @@
         <v>99</v>
       </c>
       <c r="H161">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I161">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J161" t="s">
         <v>1039</v>
@@ -13909,10 +13910,10 @@
         <v>99</v>
       </c>
       <c r="H162">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I162">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J162" t="s">
         <v>1039</v>
@@ -13950,10 +13951,10 @@
         <v>99</v>
       </c>
       <c r="H163">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I163">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J163" t="s">
         <v>1039</v>
@@ -13991,10 +13992,10 @@
         <v>99</v>
       </c>
       <c r="H164">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I164">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
         <v>1039</v>
@@ -14032,10 +14033,10 @@
         <v>99</v>
       </c>
       <c r="H165">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I165">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J165" t="s">
         <v>1039</v>
@@ -14073,10 +14074,10 @@
         <v>99</v>
       </c>
       <c r="H166">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="I166">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J166" t="s">
         <v>1039</v>
@@ -14114,10 +14115,10 @@
         <v>99</v>
       </c>
       <c r="H167">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="I167">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J167" t="s">
         <v>1039</v>
@@ -14155,10 +14156,10 @@
         <v>99</v>
       </c>
       <c r="H168">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="I168">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J168" t="s">
         <v>1039</v>
@@ -14196,10 +14197,10 @@
         <v>99</v>
       </c>
       <c r="H169">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I169">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J169" t="s">
         <v>1039</v>
@@ -14237,10 +14238,10 @@
         <v>99</v>
       </c>
       <c r="H170">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I170">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J170" t="s">
         <v>1039</v>
@@ -14278,10 +14279,10 @@
         <v>99</v>
       </c>
       <c r="H171">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="I171">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J171" t="s">
         <v>1039</v>
@@ -14319,10 +14320,10 @@
         <v>99</v>
       </c>
       <c r="H172">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I172">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J172" t="s">
         <v>1039</v>
@@ -14360,10 +14361,10 @@
         <v>99</v>
       </c>
       <c r="H173">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="I173">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J173" t="s">
         <v>1039</v>
@@ -14401,10 +14402,10 @@
         <v>99</v>
       </c>
       <c r="H174">
-        <v>33</v>
+        <v>100</v>
       </c>
       <c r="I174">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J174" t="s">
         <v>1039</v>
@@ -14442,10 +14443,10 @@
         <v>99</v>
       </c>
       <c r="H175">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="I175">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J175" t="s">
         <v>1039</v>
@@ -14483,10 +14484,10 @@
         <v>99</v>
       </c>
       <c r="H176">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I176">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J176" t="s">
         <v>1039</v>
@@ -14524,10 +14525,10 @@
         <v>99</v>
       </c>
       <c r="H177">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I177">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J177" t="s">
         <v>1039</v>
@@ -14565,10 +14566,10 @@
         <v>99</v>
       </c>
       <c r="H178">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="I178">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J178" t="s">
         <v>1039</v>
@@ -14606,10 +14607,10 @@
         <v>99</v>
       </c>
       <c r="H179">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="I179">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J179" t="s">
         <v>1039</v>
@@ -14647,10 +14648,10 @@
         <v>99</v>
       </c>
       <c r="H180">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="I180">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
         <v>1039</v>
@@ -14688,10 +14689,10 @@
         <v>99</v>
       </c>
       <c r="H181">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="I181">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J181" t="s">
         <v>1039</v>
@@ -14729,10 +14730,10 @@
         <v>99</v>
       </c>
       <c r="H182">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I182">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J182" t="s">
         <v>1039</v>
@@ -14770,10 +14771,10 @@
         <v>99</v>
       </c>
       <c r="H183">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="I183">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J183" t="s">
         <v>1039</v>
@@ -14811,10 +14812,10 @@
         <v>99</v>
       </c>
       <c r="H184">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="I184">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J184" t="s">
         <v>1039</v>
@@ -14852,10 +14853,10 @@
         <v>99</v>
       </c>
       <c r="H185">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I185">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J185" t="s">
         <v>1039</v>
@@ -14893,10 +14894,10 @@
         <v>99</v>
       </c>
       <c r="H186">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="I186">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J186" t="s">
         <v>1039</v>
@@ -14934,10 +14935,10 @@
         <v>99</v>
       </c>
       <c r="H187">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I187">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J187" t="s">
         <v>1039</v>
@@ -14975,10 +14976,10 @@
         <v>99</v>
       </c>
       <c r="H188">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="I188">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J188" t="s">
         <v>1039</v>
@@ -15016,10 +15017,10 @@
         <v>99</v>
       </c>
       <c r="H189">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="I189">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J189" t="s">
         <v>1039</v>
@@ -15057,10 +15058,10 @@
         <v>99</v>
       </c>
       <c r="H190">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I190">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J190" t="s">
         <v>1039</v>
@@ -15098,10 +15099,10 @@
         <v>99</v>
       </c>
       <c r="H191">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I191">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J191" t="s">
         <v>1039</v>
@@ -15139,10 +15140,10 @@
         <v>99</v>
       </c>
       <c r="H192">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="I192">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J192" t="s">
         <v>1039</v>
@@ -15180,10 +15181,10 @@
         <v>99</v>
       </c>
       <c r="H193">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I193">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J193" t="s">
         <v>1039</v>
@@ -15221,10 +15222,10 @@
         <v>99</v>
       </c>
       <c r="H194">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I194">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J194" t="s">
         <v>1039</v>
@@ -15262,10 +15263,10 @@
         <v>99</v>
       </c>
       <c r="H195">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="I195">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J195" t="s">
         <v>1039</v>
@@ -15303,10 +15304,10 @@
         <v>99</v>
       </c>
       <c r="H196">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="I196">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J196" t="s">
         <v>1039</v>
@@ -15344,10 +15345,10 @@
         <v>99</v>
       </c>
       <c r="H197">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I197">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J197" t="s">
         <v>1039</v>
@@ -15385,10 +15386,10 @@
         <v>99</v>
       </c>
       <c r="H198">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I198">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J198" t="s">
         <v>1039</v>
@@ -15426,10 +15427,10 @@
         <v>99</v>
       </c>
       <c r="H199">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I199">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J199" t="s">
         <v>1039</v>
@@ -15467,10 +15468,10 @@
         <v>99</v>
       </c>
       <c r="H200">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="I200">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J200" t="s">
         <v>1039</v>
@@ -15508,10 +15509,10 @@
         <v>99</v>
       </c>
       <c r="H201">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="I201">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J201" t="s">
         <v>1039</v>
@@ -15549,10 +15550,10 @@
         <v>99</v>
       </c>
       <c r="H202">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I202">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J202" t="s">
         <v>1039</v>
@@ -15590,10 +15591,10 @@
         <v>99</v>
       </c>
       <c r="H203">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I203">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J203" t="s">
         <v>1039</v>
@@ -15631,10 +15632,10 @@
         <v>99</v>
       </c>
       <c r="H204">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="I204">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J204" t="s">
         <v>1039</v>
@@ -15672,10 +15673,10 @@
         <v>99</v>
       </c>
       <c r="H205">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="I205">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J205" t="s">
         <v>1039</v>
@@ -15713,10 +15714,10 @@
         <v>99</v>
       </c>
       <c r="H206">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="I206">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J206" t="s">
         <v>1039</v>
@@ -15754,10 +15755,10 @@
         <v>99</v>
       </c>
       <c r="H207">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="I207">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J207" t="s">
         <v>1039</v>
@@ -15795,10 +15796,10 @@
         <v>99</v>
       </c>
       <c r="H208">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="I208">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J208" t="s">
         <v>1039</v>
@@ -15836,10 +15837,10 @@
         <v>99</v>
       </c>
       <c r="H209">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I209">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J209" t="s">
         <v>1039</v>
@@ -15877,10 +15878,10 @@
         <v>99</v>
       </c>
       <c r="H210">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I210">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J210" t="s">
         <v>1039</v>
@@ -15918,10 +15919,10 @@
         <v>99</v>
       </c>
       <c r="H211">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I211">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J211" t="s">
         <v>1039</v>
@@ -15959,10 +15960,10 @@
         <v>99</v>
       </c>
       <c r="H212">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="I212">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J212" t="s">
         <v>1039</v>
@@ -16000,10 +16001,10 @@
         <v>99</v>
       </c>
       <c r="H213">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I213">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J213" t="s">
         <v>1039</v>
@@ -16041,10 +16042,10 @@
         <v>99</v>
       </c>
       <c r="H214">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I214">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J214" t="s">
         <v>1039</v>
@@ -16082,10 +16083,10 @@
         <v>99</v>
       </c>
       <c r="H215">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="I215">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J215" t="s">
         <v>1039</v>
@@ -16123,10 +16124,10 @@
         <v>99</v>
       </c>
       <c r="H216">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="I216">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J216" t="s">
         <v>1039</v>
@@ -16164,10 +16165,10 @@
         <v>99</v>
       </c>
       <c r="H217">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="I217">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J217" t="s">
         <v>1039</v>
@@ -16205,10 +16206,10 @@
         <v>99</v>
       </c>
       <c r="H218">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I218">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="J218" t="s">
         <v>1039</v>
@@ -16246,10 +16247,10 @@
         <v>99</v>
       </c>
       <c r="H219">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="I219">
-        <v>150</v>
+        <v>2</v>
       </c>
       <c r="J219" t="s">
         <v>1039</v>
@@ -16287,10 +16288,10 @@
         <v>99</v>
       </c>
       <c r="H220">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="I220">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J220" t="s">
         <v>1039</v>
@@ -16328,10 +16329,10 @@
         <v>99</v>
       </c>
       <c r="H221">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I221">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J221" t="s">
         <v>1039</v>
@@ -16369,10 +16370,10 @@
         <v>99</v>
       </c>
       <c r="H222">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="I222">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J222" t="s">
         <v>1039</v>
@@ -16410,10 +16411,10 @@
         <v>99</v>
       </c>
       <c r="H223">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="I223">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J223" t="s">
         <v>1039</v>
@@ -16451,10 +16452,10 @@
         <v>99</v>
       </c>
       <c r="H224">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="I224">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J224" t="s">
         <v>1039</v>
@@ -16493,10 +16494,10 @@
         <v>99</v>
       </c>
       <c r="H225">
-        <v>6</v>
+        <v>100</v>
       </c>
       <c r="I225">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J225" t="s">
         <v>1039</v>
@@ -16535,10 +16536,10 @@
         <v>99</v>
       </c>
       <c r="H226">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="I226">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J226" t="s">
         <v>1039</v>
@@ -16577,10 +16578,10 @@
         <v>99</v>
       </c>
       <c r="H227">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I227">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J227" t="s">
         <v>1039</v>
@@ -16619,10 +16620,10 @@
         <v>99</v>
       </c>
       <c r="H228">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="I228">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J228" t="s">
         <v>1039</v>
@@ -16661,10 +16662,10 @@
         <v>99</v>
       </c>
       <c r="H229">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="I229">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J229" t="s">
         <v>1039</v>
@@ -16703,10 +16704,10 @@
         <v>99</v>
       </c>
       <c r="H230">
-        <v>60</v>
+        <v>250</v>
       </c>
       <c r="I230">
-        <v>250</v>
+        <v>2</v>
       </c>
       <c r="J230" t="s">
         <v>1039</v>
@@ -16745,10 +16746,10 @@
         <v>99</v>
       </c>
       <c r="H231">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="I231">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J231" t="s">
         <v>1039</v>
@@ -16787,10 +16788,10 @@
         <v>99</v>
       </c>
       <c r="H232">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="I232">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J232" t="s">
         <v>1039</v>
@@ -16829,10 +16830,10 @@
         <v>99</v>
       </c>
       <c r="H233">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="I233">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J233" t="s">
         <v>1039</v>
@@ -16871,10 +16872,10 @@
         <v>99</v>
       </c>
       <c r="H234">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="I234">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J234" t="s">
         <v>1039</v>
@@ -16913,10 +16914,10 @@
         <v>99</v>
       </c>
       <c r="H235">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="I235">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J235" t="s">
         <v>1039</v>
@@ -16955,10 +16956,10 @@
         <v>99</v>
       </c>
       <c r="H236">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="I236">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J236" t="s">
         <v>1039</v>
@@ -16997,10 +16998,10 @@
         <v>99</v>
       </c>
       <c r="H237">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="I237">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J237" t="s">
         <v>1039</v>
@@ -17039,10 +17040,10 @@
         <v>99</v>
       </c>
       <c r="H238">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="I238">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J238" t="s">
         <v>1039</v>
@@ -17081,10 +17082,10 @@
         <v>99</v>
       </c>
       <c r="H239">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="I239">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J239" t="s">
         <v>1039</v>
@@ -17123,10 +17124,10 @@
         <v>99</v>
       </c>
       <c r="H240">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I240">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J240" t="s">
         <v>1039</v>
@@ -17165,10 +17166,10 @@
         <v>99</v>
       </c>
       <c r="H241">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="I241">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="J241" t="s">
         <v>1039</v>
@@ -17207,10 +17208,10 @@
         <v>99</v>
       </c>
       <c r="H242">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="I242">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J242" t="s">
         <v>1039</v>
@@ -17249,10 +17250,10 @@
         <v>99</v>
       </c>
       <c r="H243">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="I243">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J243" t="s">
         <v>1039</v>
@@ -17291,10 +17292,10 @@
         <v>99</v>
       </c>
       <c r="H244">
-        <v>38</v>
+        <v>100</v>
       </c>
       <c r="I244">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J244" t="s">
         <v>1039</v>
@@ -17333,10 +17334,10 @@
         <v>99</v>
       </c>
       <c r="H245">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="I245">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J245" t="s">
         <v>1039</v>
@@ -17375,10 +17376,10 @@
         <v>99</v>
       </c>
       <c r="H246">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="I246">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J246" t="s">
         <v>1039</v>
@@ -17417,10 +17418,10 @@
         <v>99</v>
       </c>
       <c r="H247">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="I247">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J247" t="s">
         <v>1039</v>
@@ -17459,10 +17460,10 @@
         <v>99</v>
       </c>
       <c r="H248">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="I248">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J248" t="s">
         <v>1039</v>
@@ -17501,10 +17502,10 @@
         <v>99</v>
       </c>
       <c r="H249">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="I249">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J249" t="s">
         <v>1039</v>
@@ -17543,10 +17544,10 @@
         <v>99</v>
       </c>
       <c r="H250">
-        <v>35</v>
+        <v>100</v>
       </c>
       <c r="I250">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J250" t="s">
         <v>1039</v>
@@ -17585,10 +17586,10 @@
         <v>99</v>
       </c>
       <c r="H251">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="I251">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J251" t="s">
         <v>1039</v>
@@ -17627,10 +17628,10 @@
         <v>99</v>
       </c>
       <c r="H252">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="I252">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J252" t="s">
         <v>1039</v>
@@ -17669,10 +17670,10 @@
         <v>99</v>
       </c>
       <c r="H253">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="I253">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J253" t="s">
         <v>1039</v>
@@ -17710,10 +17711,10 @@
         <v>99</v>
       </c>
       <c r="H254">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="I254">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J254" t="s">
         <v>1039</v>
@@ -17751,10 +17752,10 @@
         <v>99</v>
       </c>
       <c r="H255">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="I255">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J255" t="s">
         <v>1039</v>
@@ -17792,10 +17793,10 @@
         <v>99</v>
       </c>
       <c r="H256">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="I256">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J256" t="s">
         <v>1039</v>
@@ -17815,7 +17816,7 @@
         <v>22018002</v>
       </c>
       <c r="B257" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="C257">
         <v>2</v>
@@ -17833,10 +17834,10 @@
         <v>99</v>
       </c>
       <c r="H257">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="I257">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J257" t="s">
         <v>1039</v>
@@ -17856,13 +17857,13 @@
         <v>22018003</v>
       </c>
       <c r="B258" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="C258">
         <v>2</v>
       </c>
       <c r="D258" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="E258">
         <v>1</v>
@@ -17874,10 +17875,10 @@
         <v>99</v>
       </c>
       <c r="H258">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I258">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J258" t="s">
         <v>1039</v>
@@ -17889,7 +17890,7 @@
         <v>2</v>
       </c>
       <c r="N258" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="259" spans="1:14" x14ac:dyDescent="0.15">
@@ -17915,10 +17916,10 @@
         <v>99</v>
       </c>
       <c r="H259">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="I259">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J259" t="s">
         <v>1039</v>
@@ -17930,7 +17931,7 @@
         <v>2</v>
       </c>
       <c r="N259" t="s">
-        <v>648</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.15">
@@ -17956,10 +17957,10 @@
         <v>99</v>
       </c>
       <c r="H260">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="I260">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J260" t="s">
         <v>1039</v>
@@ -17985,7 +17986,7 @@
         <v>2</v>
       </c>
       <c r="D261" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
       <c r="E261">
         <v>1</v>
@@ -17997,10 +17998,10 @@
         <v>99</v>
       </c>
       <c r="H261">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="I261">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J261" t="s">
         <v>1039</v>
@@ -18020,13 +18021,13 @@
         <v>22018013</v>
       </c>
       <c r="B262" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="C262">
         <v>2</v>
       </c>
       <c r="D262" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -18038,10 +18039,10 @@
         <v>99</v>
       </c>
       <c r="H262">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I262">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J262" t="s">
         <v>1039</v>
@@ -18053,7 +18054,7 @@
         <v>2</v>
       </c>
       <c r="N262" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="263" spans="1:14" x14ac:dyDescent="0.15">
@@ -18079,10 +18080,10 @@
         <v>99</v>
       </c>
       <c r="H263">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="I263">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J263" t="s">
         <v>1039</v>
@@ -18094,7 +18095,7 @@
         <v>2</v>
       </c>
       <c r="N263" t="s">
-        <v>656</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.15">
@@ -18120,10 +18121,10 @@
         <v>99</v>
       </c>
       <c r="H264">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="I264">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J264" t="s">
         <v>1039</v>
@@ -18149,7 +18150,7 @@
         <v>2</v>
       </c>
       <c r="D265" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="E265">
         <v>1</v>
@@ -18161,10 +18162,10 @@
         <v>99</v>
       </c>
       <c r="H265">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="I265">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J265" t="s">
         <v>1039</v>
@@ -18184,13 +18185,13 @@
         <v>22018023</v>
       </c>
       <c r="B266" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="C266">
         <v>2</v>
       </c>
       <c r="D266" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
       <c r="E266">
         <v>1</v>
@@ -18202,10 +18203,10 @@
         <v>99</v>
       </c>
       <c r="H266">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I266">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J266" t="s">
         <v>1039</v>
@@ -18217,7 +18218,7 @@
         <v>2</v>
       </c>
       <c r="N266" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="267" spans="1:14" x14ac:dyDescent="0.15">
@@ -18243,10 +18244,10 @@
         <v>99</v>
       </c>
       <c r="H267">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="I267">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J267" t="s">
         <v>1039</v>
@@ -18258,7 +18259,7 @@
         <v>2</v>
       </c>
       <c r="N267" t="s">
-        <v>664</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.15">
@@ -18284,10 +18285,10 @@
         <v>99</v>
       </c>
       <c r="H268">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="I268">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J268" t="s">
         <v>1039</v>
@@ -18325,10 +18326,10 @@
         <v>99</v>
       </c>
       <c r="H269">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="I269">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J269" t="s">
         <v>1039</v>
@@ -18348,13 +18349,13 @@
         <v>22018033</v>
       </c>
       <c r="B270" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="C270">
         <v>2</v>
       </c>
       <c r="D270" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="E270">
         <v>1</v>
@@ -18366,10 +18367,10 @@
         <v>99</v>
       </c>
       <c r="H270">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I270">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J270" t="s">
         <v>1039</v>
@@ -18381,7 +18382,7 @@
         <v>2</v>
       </c>
       <c r="N270" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="271" spans="1:14" x14ac:dyDescent="0.15">
@@ -18407,10 +18408,10 @@
         <v>99</v>
       </c>
       <c r="H271">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="I271">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J271" t="s">
         <v>1039</v>
@@ -18422,7 +18423,7 @@
         <v>2</v>
       </c>
       <c r="N271" t="s">
-        <v>673</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.15">
@@ -18448,10 +18449,10 @@
         <v>99</v>
       </c>
       <c r="H272">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="I272">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J272" t="s">
         <v>1039</v>
@@ -18489,10 +18490,10 @@
         <v>99</v>
       </c>
       <c r="H273">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="I273">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J273" t="s">
         <v>1039</v>
@@ -18512,13 +18513,13 @@
         <v>22018043</v>
       </c>
       <c r="B274" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="C274">
         <v>2</v>
       </c>
       <c r="D274" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="E274">
         <v>1</v>
@@ -18530,10 +18531,10 @@
         <v>99</v>
       </c>
       <c r="H274">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I274">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J274" t="s">
         <v>1039</v>
@@ -18545,7 +18546,7 @@
         <v>2</v>
       </c>
       <c r="N274" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="275" spans="1:14" x14ac:dyDescent="0.15">
@@ -18571,10 +18572,10 @@
         <v>99</v>
       </c>
       <c r="H275">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="I275">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J275" t="s">
         <v>1039</v>
@@ -18586,7 +18587,7 @@
         <v>2</v>
       </c>
       <c r="N275" t="s">
-        <v>682</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.15">
@@ -18612,10 +18613,10 @@
         <v>99</v>
       </c>
       <c r="H276">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="I276">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J276" t="s">
         <v>1039</v>
@@ -18635,7 +18636,7 @@
         <v>22018052</v>
       </c>
       <c r="B277" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="C277">
         <v>2</v>
@@ -18653,10 +18654,10 @@
         <v>99</v>
       </c>
       <c r="H277">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="I277">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J277" t="s">
         <v>1039</v>
@@ -18676,13 +18677,13 @@
         <v>22018053</v>
       </c>
       <c r="B278" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="C278">
         <v>2</v>
       </c>
       <c r="D278" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
       <c r="E278">
         <v>1</v>
@@ -18694,10 +18695,10 @@
         <v>99</v>
       </c>
       <c r="H278">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I278">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J278" t="s">
         <v>1039</v>
@@ -18709,7 +18710,7 @@
         <v>2</v>
       </c>
       <c r="N278" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.15">
@@ -18735,10 +18736,10 @@
         <v>99</v>
       </c>
       <c r="H279">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="I279">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J279" t="s">
         <v>1039</v>
@@ -18750,7 +18751,7 @@
         <v>2</v>
       </c>
       <c r="N279" t="s">
-        <v>690</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.15">
@@ -18776,10 +18777,10 @@
         <v>99</v>
       </c>
       <c r="H280">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="I280">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J280" t="s">
         <v>1039</v>
@@ -18799,7 +18800,7 @@
         <v>22018062</v>
       </c>
       <c r="B281" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="C281">
         <v>2</v>
@@ -18817,10 +18818,10 @@
         <v>99</v>
       </c>
       <c r="H281">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="I281">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J281" t="s">
         <v>1039</v>
@@ -18840,13 +18841,13 @@
         <v>22018063</v>
       </c>
       <c r="B282" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="C282">
         <v>2</v>
       </c>
       <c r="D282" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="E282">
         <v>1</v>
@@ -18858,10 +18859,10 @@
         <v>99</v>
       </c>
       <c r="H282">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="I282">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J282" t="s">
         <v>1039</v>
@@ -18873,7 +18874,7 @@
         <v>2</v>
       </c>
       <c r="N282" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.15">
@@ -18899,10 +18900,10 @@
         <v>99</v>
       </c>
       <c r="H283">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="I283">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J283" t="s">
         <v>1039</v>
@@ -18914,7 +18915,7 @@
         <v>2</v>
       </c>
       <c r="N283" t="s">
-        <v>698</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.15">
@@ -18940,10 +18941,10 @@
         <v>99</v>
       </c>
       <c r="H284">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="I284">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J284" t="s">
         <v>1039</v>
@@ -18981,10 +18982,10 @@
         <v>99</v>
       </c>
       <c r="H285">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I285">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J285" t="s">
         <v>1039</v>
@@ -19022,10 +19023,10 @@
         <v>99</v>
       </c>
       <c r="H286">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I286">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J286" t="s">
         <v>1039</v>
@@ -19063,10 +19064,10 @@
         <v>99</v>
       </c>
       <c r="H287">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I287">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J287" t="s">
         <v>1039</v>
@@ -19104,10 +19105,10 @@
         <v>99</v>
       </c>
       <c r="H288">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="I288">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J288" t="s">
         <v>1039</v>
@@ -19145,10 +19146,10 @@
         <v>99</v>
       </c>
       <c r="H289">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I289">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J289" t="s">
         <v>1039</v>
@@ -19186,10 +19187,10 @@
         <v>99</v>
       </c>
       <c r="H290">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I290">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J290" t="s">
         <v>1039</v>
@@ -19227,10 +19228,10 @@
         <v>99</v>
       </c>
       <c r="H291">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I291">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J291" t="s">
         <v>1039</v>
@@ -19268,10 +19269,10 @@
         <v>99</v>
       </c>
       <c r="H292">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="I292">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J292" t="s">
         <v>1039</v>
@@ -19309,10 +19310,10 @@
         <v>99</v>
       </c>
       <c r="H293">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I293">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J293" t="s">
         <v>1039</v>
@@ -19350,10 +19351,10 @@
         <v>99</v>
       </c>
       <c r="H294">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I294">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J294" t="s">
         <v>1039</v>
@@ -19391,10 +19392,10 @@
         <v>99</v>
       </c>
       <c r="H295">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I295">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J295" t="s">
         <v>1039</v>
@@ -19432,10 +19433,10 @@
         <v>99</v>
       </c>
       <c r="H296">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="I296">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J296" t="s">
         <v>1039</v>
@@ -19473,10 +19474,10 @@
         <v>99</v>
       </c>
       <c r="H297">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I297">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J297" t="s">
         <v>1039</v>
@@ -19514,10 +19515,10 @@
         <v>99</v>
       </c>
       <c r="H298">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I298">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J298" t="s">
         <v>1039</v>
@@ -19555,10 +19556,10 @@
         <v>99</v>
       </c>
       <c r="H299">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I299">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J299" t="s">
         <v>1039</v>
@@ -19596,10 +19597,10 @@
         <v>99</v>
       </c>
       <c r="H300">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="I300">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J300" t="s">
         <v>1039</v>
@@ -19637,10 +19638,10 @@
         <v>99</v>
       </c>
       <c r="H301">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I301">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J301" t="s">
         <v>1039</v>
@@ -19678,10 +19679,10 @@
         <v>99</v>
       </c>
       <c r="H302">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I302">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J302" t="s">
         <v>1039</v>
@@ -19719,10 +19720,10 @@
         <v>99</v>
       </c>
       <c r="H303">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I303">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J303" t="s">
         <v>1039</v>
@@ -19760,10 +19761,10 @@
         <v>99</v>
       </c>
       <c r="H304">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="I304">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J304" t="s">
         <v>1039</v>
@@ -19801,10 +19802,10 @@
         <v>99</v>
       </c>
       <c r="H305">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I305">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J305" t="s">
         <v>1039</v>
@@ -19842,10 +19843,10 @@
         <v>99</v>
       </c>
       <c r="H306">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I306">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J306" t="s">
         <v>1039</v>
@@ -19883,10 +19884,10 @@
         <v>99</v>
       </c>
       <c r="H307">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I307">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J307" t="s">
         <v>1039</v>
@@ -19924,10 +19925,10 @@
         <v>99</v>
       </c>
       <c r="H308">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="I308">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J308" t="s">
         <v>1039</v>
@@ -19965,10 +19966,10 @@
         <v>99</v>
       </c>
       <c r="H309">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I309">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J309" t="s">
         <v>1039</v>
@@ -20006,10 +20007,10 @@
         <v>99</v>
       </c>
       <c r="H310">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I310">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J310" t="s">
         <v>1039</v>
@@ -20047,10 +20048,10 @@
         <v>99</v>
       </c>
       <c r="H311">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I311">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J311" t="s">
         <v>1039</v>
@@ -20088,10 +20089,10 @@
         <v>99</v>
       </c>
       <c r="H312">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="I312">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J312" t="s">
         <v>1039</v>
@@ -20129,10 +20130,10 @@
         <v>99</v>
       </c>
       <c r="H313">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I313">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J313" t="s">
         <v>1039</v>
@@ -20170,10 +20171,10 @@
         <v>99</v>
       </c>
       <c r="H314">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I314">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J314" t="s">
         <v>1039</v>
@@ -20211,10 +20212,10 @@
         <v>99</v>
       </c>
       <c r="H315">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I315">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J315" t="s">
         <v>1039</v>
@@ -20252,10 +20253,10 @@
         <v>99</v>
       </c>
       <c r="H316">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="I316">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J316" t="s">
         <v>1039</v>
@@ -20293,10 +20294,10 @@
         <v>99</v>
       </c>
       <c r="H317">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I317">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J317" t="s">
         <v>1039</v>
@@ -20334,10 +20335,10 @@
         <v>99</v>
       </c>
       <c r="H318">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I318">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J318" t="s">
         <v>1039</v>
@@ -20375,10 +20376,10 @@
         <v>99</v>
       </c>
       <c r="H319">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I319">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J319" t="s">
         <v>1039</v>
@@ -20416,10 +20417,10 @@
         <v>99</v>
       </c>
       <c r="H320">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="I320">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J320" t="s">
         <v>1039</v>
@@ -20457,10 +20458,10 @@
         <v>99</v>
       </c>
       <c r="H321">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I321">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J321" t="s">
         <v>1039</v>
@@ -20498,10 +20499,10 @@
         <v>99</v>
       </c>
       <c r="H322">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I322">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J322" t="s">
         <v>1039</v>
@@ -20539,10 +20540,10 @@
         <v>99</v>
       </c>
       <c r="H323">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I323">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J323" t="s">
         <v>1039</v>
@@ -20580,10 +20581,10 @@
         <v>99</v>
       </c>
       <c r="H324">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="I324">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J324" t="s">
         <v>1039</v>
@@ -20621,10 +20622,10 @@
         <v>99</v>
       </c>
       <c r="H325">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I325">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J325" t="s">
         <v>1039</v>
@@ -20662,10 +20663,10 @@
         <v>99</v>
       </c>
       <c r="H326">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I326">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J326" t="s">
         <v>1039</v>
@@ -20703,10 +20704,10 @@
         <v>99</v>
       </c>
       <c r="H327">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I327">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J327" t="s">
         <v>1039</v>
@@ -20744,10 +20745,10 @@
         <v>99</v>
       </c>
       <c r="H328">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="I328">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J328" t="s">
         <v>1039</v>
@@ -20785,10 +20786,10 @@
         <v>99</v>
       </c>
       <c r="H329">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I329">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J329" t="s">
         <v>1039</v>
@@ -20826,10 +20827,10 @@
         <v>99</v>
       </c>
       <c r="H330">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I330">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J330" t="s">
         <v>1039</v>
@@ -20867,10 +20868,10 @@
         <v>99</v>
       </c>
       <c r="H331">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I331">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J331" t="s">
         <v>1039</v>
@@ -20908,10 +20909,10 @@
         <v>99</v>
       </c>
       <c r="H332">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="I332">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J332" t="s">
         <v>1039</v>
@@ -20949,10 +20950,10 @@
         <v>99</v>
       </c>
       <c r="H333">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I333">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J333" t="s">
         <v>1039</v>
@@ -20990,10 +20991,10 @@
         <v>99</v>
       </c>
       <c r="H334">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I334">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J334" t="s">
         <v>1039</v>
@@ -21031,10 +21032,10 @@
         <v>99</v>
       </c>
       <c r="H335">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I335">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J335" t="s">
         <v>1039</v>
@@ -21072,10 +21073,10 @@
         <v>99</v>
       </c>
       <c r="H336">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="I336">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J336" t="s">
         <v>1039</v>
@@ -21113,10 +21114,10 @@
         <v>99</v>
       </c>
       <c r="H337">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I337">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J337" t="s">
         <v>1039</v>
@@ -21154,10 +21155,10 @@
         <v>99</v>
       </c>
       <c r="H338">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I338">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J338" t="s">
         <v>1039</v>
@@ -21195,10 +21196,10 @@
         <v>99</v>
       </c>
       <c r="H339">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I339">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J339" t="s">
         <v>1039</v>
@@ -21236,10 +21237,10 @@
         <v>99</v>
       </c>
       <c r="H340">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="I340">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J340" t="s">
         <v>1039</v>
@@ -21277,10 +21278,10 @@
         <v>99</v>
       </c>
       <c r="H341">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I341">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J341" t="s">
         <v>1039</v>
@@ -21318,10 +21319,10 @@
         <v>99</v>
       </c>
       <c r="H342">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I342">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J342" t="s">
         <v>1039</v>
@@ -21359,10 +21360,10 @@
         <v>99</v>
       </c>
       <c r="H343">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I343">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J343" t="s">
         <v>1039</v>
@@ -21382,14 +21383,14 @@
         <v>22019161</v>
       </c>
       <c r="B344" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C344">
+        <v>2</v>
+      </c>
+      <c r="D344" t="s">
         <v>1261</v>
       </c>
-      <c r="C344">
-        <v>2</v>
-      </c>
-      <c r="D344" t="s">
-        <v>1265</v>
-      </c>
       <c r="E344">
         <v>1</v>
       </c>
@@ -21400,10 +21401,10 @@
         <v>99</v>
       </c>
       <c r="H344">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="I344">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J344" t="s">
         <v>1039</v>
@@ -21415,7 +21416,7 @@
         <v>2</v>
       </c>
       <c r="N344" t="s">
-        <v>1162</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.15">
@@ -21423,13 +21424,13 @@
         <v>22019162</v>
       </c>
       <c r="B345" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C345">
+        <v>2</v>
+      </c>
+      <c r="D345" t="s">
         <v>1262</v>
-      </c>
-      <c r="C345">
-        <v>2</v>
-      </c>
-      <c r="D345" t="s">
-        <v>1266</v>
       </c>
       <c r="E345">
         <v>1</v>
@@ -21441,10 +21442,10 @@
         <v>99</v>
       </c>
       <c r="H345">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="I345">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J345" t="s">
         <v>1039</v>
@@ -21456,7 +21457,7 @@
         <v>2</v>
       </c>
       <c r="N345" t="s">
-        <v>1162</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.15">
@@ -21464,13 +21465,13 @@
         <v>22019163</v>
       </c>
       <c r="B346" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C346">
+        <v>2</v>
+      </c>
+      <c r="D346" t="s">
         <v>1263</v>
-      </c>
-      <c r="C346">
-        <v>2</v>
-      </c>
-      <c r="D346" t="s">
-        <v>1267</v>
       </c>
       <c r="E346">
         <v>1</v>
@@ -21482,10 +21483,10 @@
         <v>99</v>
       </c>
       <c r="H346">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I346">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J346" t="s">
         <v>1039</v>
@@ -21497,7 +21498,7 @@
         <v>2</v>
       </c>
       <c r="N346" t="s">
-        <v>1162</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.15">
@@ -21505,13 +21506,13 @@
         <v>22019164</v>
       </c>
       <c r="B347" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C347">
+        <v>2</v>
+      </c>
+      <c r="D347" t="s">
         <v>1264</v>
-      </c>
-      <c r="C347">
-        <v>2</v>
-      </c>
-      <c r="D347" t="s">
-        <v>1268</v>
       </c>
       <c r="E347">
         <v>1</v>
@@ -21523,10 +21524,10 @@
         <v>99</v>
       </c>
       <c r="H347">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I347">
-        <v>85</v>
+        <v>2</v>
       </c>
       <c r="J347" t="s">
         <v>1039</v>
@@ -21538,13 +21539,13 @@
         <v>2</v>
       </c>
       <c r="N347" t="s">
-        <v>1162</v>
+        <v>1369</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A4:N347">
-    <cfRule type="containsBlanks" dxfId="62" priority="1">
+    <cfRule type="containsBlanks" dxfId="66" priority="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21657,7 +21658,7 @@
         <v>1036</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>1007</v>
@@ -21689,7 +21690,7 @@
         <v>1028</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>1029</v>
@@ -21701,7 +21702,7 @@
         <v>1034</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>1030</v>
@@ -22275,12 +22276,12 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A4:N20">
-    <cfRule type="containsBlanks" dxfId="44" priority="2">
+    <cfRule type="containsBlanks" dxfId="48" priority="2">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:N20">
-    <cfRule type="containsBlanks" dxfId="43" priority="1">
+    <cfRule type="containsBlanks" dxfId="47" priority="1">
       <formula>LEN(TRIM(A15))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22298,7 +22299,7 @@
   <dimension ref="A1:N96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="H57" sqref="H57"/>
@@ -22395,7 +22396,7 @@
         <v>1036</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>1007</v>
@@ -22427,7 +22428,7 @@
         <v>1028</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>1029</v>
@@ -22439,7 +22440,7 @@
         <v>1034</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>1030</v>
@@ -22874,7 +22875,7 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -22912,7 +22913,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -22950,7 +22951,7 @@
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -22988,7 +22989,7 @@
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -23134,7 +23135,7 @@
         <v>22031301</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
@@ -23179,7 +23180,7 @@
         <v>1</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -23218,7 +23219,7 @@
         <v>1</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -23257,7 +23258,7 @@
         <v>1</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -23296,7 +23297,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -23329,13 +23330,13 @@
         <v>22031401</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -23360,7 +23361,7 @@
       </c>
       <c r="M27" s="15"/>
       <c r="N27" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
@@ -23368,13 +23369,13 @@
         <v>22031402</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
       <c r="C28" s="7">
         <v>1</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -23399,7 +23400,7 @@
       </c>
       <c r="M28" s="15"/>
       <c r="N28" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
@@ -23407,13 +23408,13 @@
         <v>22031403</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -23438,7 +23439,7 @@
       </c>
       <c r="M29" s="15"/>
       <c r="N29" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
@@ -23446,13 +23447,13 @@
         <v>22031404</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="C30" s="7">
         <v>1</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -23477,7 +23478,7 @@
       </c>
       <c r="M30" s="15"/>
       <c r="N30" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
@@ -23485,13 +23486,13 @@
         <v>22031405</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -23516,7 +23517,7 @@
       </c>
       <c r="M31" s="15"/>
       <c r="N31" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
@@ -23524,13 +23525,13 @@
         <v>22031406</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -23555,7 +23556,7 @@
       </c>
       <c r="M32" s="15"/>
       <c r="N32" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
@@ -23563,13 +23564,13 @@
         <v>22031407</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -23594,7 +23595,7 @@
       </c>
       <c r="M33" s="15"/>
       <c r="N33" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
@@ -23602,13 +23603,13 @@
         <v>22031501</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
       <c r="C34" s="7">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -23632,7 +23633,7 @@
         <v>1039</v>
       </c>
       <c r="N34" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
@@ -23640,13 +23641,13 @@
         <v>22031502</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -23670,7 +23671,7 @@
         <v>1039</v>
       </c>
       <c r="N35" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
@@ -23678,13 +23679,13 @@
         <v>22031503</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -23708,7 +23709,7 @@
         <v>1039</v>
       </c>
       <c r="N36" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
@@ -23716,13 +23717,13 @@
         <v>22031504</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -23746,7 +23747,7 @@
         <v>1039</v>
       </c>
       <c r="N37" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
@@ -23754,13 +23755,13 @@
         <v>22031505</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
       <c r="C38" s="7">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -23784,7 +23785,7 @@
         <v>1039</v>
       </c>
       <c r="N38" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
@@ -23792,13 +23793,13 @@
         <v>22031506</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -23822,7 +23823,7 @@
         <v>1039</v>
       </c>
       <c r="N39" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
@@ -23830,13 +23831,13 @@
         <v>22031507</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
       <c r="C40" s="7">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -23860,7 +23861,7 @@
         <v>1039</v>
       </c>
       <c r="N40" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
@@ -23868,13 +23869,13 @@
         <v>22031508</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -23898,7 +23899,7 @@
         <v>1039</v>
       </c>
       <c r="N41" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
@@ -23906,13 +23907,13 @@
         <v>22031509</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="C42" s="7">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -23936,7 +23937,7 @@
         <v>1039</v>
       </c>
       <c r="N42" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
@@ -23944,13 +23945,13 @@
         <v>22031510</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -23974,7 +23975,7 @@
         <v>1039</v>
       </c>
       <c r="N43" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
@@ -23982,13 +23983,13 @@
         <v>22031511</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
       <c r="C44" s="7">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -24012,7 +24013,7 @@
         <v>1039</v>
       </c>
       <c r="N44" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
@@ -24020,13 +24021,13 @@
         <v>22031512</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -24050,7 +24051,7 @@
         <v>1039</v>
       </c>
       <c r="N45" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
@@ -24058,13 +24059,13 @@
         <v>22031513</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="C46" s="7">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -24088,7 +24089,7 @@
         <v>1039</v>
       </c>
       <c r="N46" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
@@ -24096,13 +24097,13 @@
         <v>22031514</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -24126,7 +24127,7 @@
         <v>1039</v>
       </c>
       <c r="N47" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
@@ -24134,13 +24135,13 @@
         <v>22031515</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="C48" s="7">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -24164,7 +24165,7 @@
         <v>1039</v>
       </c>
       <c r="N48" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
@@ -24172,13 +24173,13 @@
         <v>22031516</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -24202,7 +24203,7 @@
         <v>1039</v>
       </c>
       <c r="N49" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.15">
@@ -26030,12 +26031,12 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="D4:N7 D8:K11 M8:N11 L8:L96 M15:N96 D15:K96 H5:H89">
-    <cfRule type="containsBlanks" dxfId="25" priority="2">
+    <cfRule type="containsBlanks" dxfId="29" priority="2">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:K14 M12:N14">
-    <cfRule type="containsBlanks" dxfId="24" priority="1">
+    <cfRule type="containsBlanks" dxfId="28" priority="1">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/HItem.xlsx
+++ b/ConfigData/Xlsx/HItem.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="材料" sheetId="1" r:id="rId1"/>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2396" uniqueCount="1381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="1384">
   <si>
     <t>血蓟</t>
   </si>
@@ -3147,21 +3147,6 @@
   </si>
   <si>
     <t>yaoshuivit</t>
-  </si>
-  <si>
-    <t>使用后提升1点生存</t>
-  </si>
-  <si>
-    <t>yaoshuiadp</t>
-  </si>
-  <si>
-    <t>体力药水</t>
-  </si>
-  <si>
-    <t>使用后立即回复20点体力</t>
-  </si>
-  <si>
-    <t>tiliyaoshui</t>
   </si>
   <si>
     <t>猛兽卡片</t>
@@ -4001,10 +3986,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>生存药水</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>暴击药水</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -4601,6 +4582,41 @@
   </si>
   <si>
     <t>scguang4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后获得50点食物</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后获得50点健康</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后获得50点精神</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bingan</t>
+  </si>
+  <si>
+    <t>pillred</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>pillblue</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>饼干</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色胶囊</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色胶囊</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -5455,7 +5471,14 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="63">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5971,20 +5994,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -6418,20 +6427,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="3" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6872,15 +6867,76 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6893,78 +6949,78 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:N347" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64" tableBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:N347" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" tableBorderDxfId="60">
   <autoFilter ref="A3:N347"/>
   <sortState ref="A4:N342">
     <sortCondition ref="A3:A342"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="62"/>
-    <tableColumn id="2" name="Name" dataDxfId="61"/>
-    <tableColumn id="3" name="Type" dataDxfId="60"/>
-    <tableColumn id="4" name="Descript" dataDxfId="59"/>
-    <tableColumn id="5" name="Level" dataDxfId="58"/>
-    <tableColumn id="6" name="Rare" dataDxfId="57"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="56"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="55"/>
-    <tableColumn id="9" name="SubType" dataDxfId="54"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="53"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="52"/>
-    <tableColumn id="15" name="RandomGroup" dataDxfId="51"/>
-    <tableColumn id="13" name="CdGroup" dataDxfId="50"/>
-    <tableColumn id="14" name="Url" dataDxfId="49"/>
+    <tableColumn id="1" name="Id" dataDxfId="59"/>
+    <tableColumn id="2" name="Name" dataDxfId="58"/>
+    <tableColumn id="3" name="Type" dataDxfId="57"/>
+    <tableColumn id="4" name="Descript" dataDxfId="56"/>
+    <tableColumn id="5" name="Level" dataDxfId="55"/>
+    <tableColumn id="6" name="Rare" dataDxfId="54"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="53"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="52"/>
+    <tableColumn id="9" name="SubType" dataDxfId="51"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="50"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="49"/>
+    <tableColumn id="15" name="RandomGroup" dataDxfId="48"/>
+    <tableColumn id="13" name="CdGroup" dataDxfId="47"/>
+    <tableColumn id="14" name="Url" dataDxfId="46"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:N20" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45" tableBorderDxfId="44">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:N20" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" tableBorderDxfId="43">
   <autoFilter ref="A3:N20"/>
   <sortState ref="A4:O435">
     <sortCondition ref="A3:A435"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="43"/>
-    <tableColumn id="2" name="Name" dataDxfId="42"/>
-    <tableColumn id="3" name="Type" dataDxfId="41"/>
-    <tableColumn id="4" name="Descript" dataDxfId="40"/>
-    <tableColumn id="5" name="Level" dataDxfId="39"/>
-    <tableColumn id="6" name="Rare" dataDxfId="38"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="37"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="36"/>
-    <tableColumn id="9" name="SubType" dataDxfId="35"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="34"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="33"/>
-    <tableColumn id="15" name="RandomGroup" dataDxfId="32"/>
-    <tableColumn id="13" name="CdGroup" dataDxfId="31"/>
-    <tableColumn id="14" name="Url" dataDxfId="30"/>
+    <tableColumn id="1" name="Id" dataDxfId="42"/>
+    <tableColumn id="2" name="Name" dataDxfId="41"/>
+    <tableColumn id="3" name="Type" dataDxfId="40"/>
+    <tableColumn id="4" name="Descript" dataDxfId="39"/>
+    <tableColumn id="5" name="Level" dataDxfId="38"/>
+    <tableColumn id="6" name="Rare" dataDxfId="37"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="36"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="35"/>
+    <tableColumn id="9" name="SubType" dataDxfId="34"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="33"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="32"/>
+    <tableColumn id="15" name="RandomGroup" dataDxfId="31"/>
+    <tableColumn id="13" name="CdGroup" dataDxfId="30"/>
+    <tableColumn id="14" name="Url" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:N96" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" tableBorderDxfId="25">
-  <autoFilter ref="A3:N96"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:N97" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26">
+  <autoFilter ref="A3:N97"/>
   <sortState ref="A4:N96">
     <sortCondition ref="A3:A96"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="24"/>
-    <tableColumn id="2" name="Name" dataDxfId="23"/>
-    <tableColumn id="3" name="Type" dataDxfId="22"/>
-    <tableColumn id="4" name="Descript" dataDxfId="21"/>
-    <tableColumn id="5" name="Level" dataDxfId="20"/>
-    <tableColumn id="6" name="Rare" dataDxfId="19"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="18"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="17"/>
-    <tableColumn id="9" name="SubType" dataDxfId="16"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="15"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="14"/>
-    <tableColumn id="15" name="RandomGroup" dataDxfId="13"/>
-    <tableColumn id="13" name="CdGroup" dataDxfId="12"/>
-    <tableColumn id="14" name="Url" dataDxfId="11"/>
+    <tableColumn id="1" name="Id" dataDxfId="25"/>
+    <tableColumn id="2" name="Name" dataDxfId="24"/>
+    <tableColumn id="3" name="Type" dataDxfId="23"/>
+    <tableColumn id="4" name="Descript" dataDxfId="22"/>
+    <tableColumn id="5" name="Level" dataDxfId="21"/>
+    <tableColumn id="6" name="Rare" dataDxfId="20"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="19"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="18"/>
+    <tableColumn id="9" name="SubType" dataDxfId="17"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="16"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="15"/>
+    <tableColumn id="15" name="RandomGroup" dataDxfId="14"/>
+    <tableColumn id="13" name="CdGroup" dataDxfId="13"/>
+    <tableColumn id="14" name="Url" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6978,7 +7034,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CAEACD"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -7259,11 +7315,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N347"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B334" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H343" sqref="H343"/>
+      <selection pane="bottomRight" activeCell="G344" sqref="G344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7279,134 +7335,134 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>1009</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>1011</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>1012</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F1" s="5" t="s">
+      <c r="J1" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>1014</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>1015</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>1016</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>1017</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>1042</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>1019</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>1035</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>1020</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>1022</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>1023</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="H3" s="8" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>1024</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="J3" s="8" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>1260</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>1025</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>1026</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>1027</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>1028</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>1364</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>1029</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>1033</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>1034</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>1266</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>1030</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -7438,10 +7494,10 @@
         <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K4" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -7479,10 +7535,10 @@
         <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K5" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -7520,10 +7576,10 @@
         <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K6" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -7561,10 +7617,10 @@
         <v>2</v>
       </c>
       <c r="J7" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K7" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -7602,10 +7658,10 @@
         <v>2</v>
       </c>
       <c r="J8" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K8" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -7643,10 +7699,10 @@
         <v>2</v>
       </c>
       <c r="J9" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K9" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -7684,10 +7740,10 @@
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K10" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L10">
         <v>1</v>
@@ -7725,10 +7781,10 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K11" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -7766,10 +7822,10 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K12" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -7807,10 +7863,10 @@
         <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K13" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -7848,10 +7904,10 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K14" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -7889,10 +7945,10 @@
         <v>2</v>
       </c>
       <c r="J15" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K15" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -7930,10 +7986,10 @@
         <v>2</v>
       </c>
       <c r="J16" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K16" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L16">
         <v>1</v>
@@ -7971,10 +8027,10 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K17" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -8012,10 +8068,10 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K18" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -8053,10 +8109,10 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K19" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L19">
         <v>1</v>
@@ -8094,10 +8150,10 @@
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K20" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -8135,10 +8191,10 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K21" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -8176,10 +8232,10 @@
         <v>2</v>
       </c>
       <c r="J22" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K22" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -8217,10 +8273,10 @@
         <v>2</v>
       </c>
       <c r="J23" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K23" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -8258,10 +8314,10 @@
         <v>2</v>
       </c>
       <c r="J24" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K24" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -8299,10 +8355,10 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K25" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -8340,10 +8396,10 @@
         <v>2</v>
       </c>
       <c r="J26" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K26" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L26">
         <v>1</v>
@@ -8381,10 +8437,10 @@
         <v>2</v>
       </c>
       <c r="J27" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K27" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -8422,10 +8478,10 @@
         <v>2</v>
       </c>
       <c r="J28" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K28" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -8463,10 +8519,10 @@
         <v>2</v>
       </c>
       <c r="J29" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K29" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -8504,10 +8560,10 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K30" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -8545,10 +8601,10 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K31" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -8586,10 +8642,10 @@
         <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K32" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -8627,10 +8683,10 @@
         <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K33" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -8668,10 +8724,10 @@
         <v>2</v>
       </c>
       <c r="J34" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K34" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -8709,10 +8765,10 @@
         <v>2</v>
       </c>
       <c r="J35" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K35" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L35">
         <v>2</v>
@@ -8750,10 +8806,10 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K36" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L36">
         <v>2</v>
@@ -8791,10 +8847,10 @@
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K37" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L37">
         <v>2</v>
@@ -8832,10 +8888,10 @@
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K38" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L38">
         <v>2</v>
@@ -8873,10 +8929,10 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K39" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L39">
         <v>2</v>
@@ -8914,10 +8970,10 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K40" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L40">
         <v>2</v>
@@ -8955,10 +9011,10 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K41" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L41">
         <v>2</v>
@@ -8996,10 +9052,10 @@
         <v>2</v>
       </c>
       <c r="J42" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K42" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L42">
         <v>2</v>
@@ -9037,10 +9093,10 @@
         <v>2</v>
       </c>
       <c r="J43" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K43" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L43">
         <v>2</v>
@@ -9078,10 +9134,10 @@
         <v>2</v>
       </c>
       <c r="J44" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K44" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L44">
         <v>2</v>
@@ -9119,10 +9175,10 @@
         <v>2</v>
       </c>
       <c r="J45" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K45" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L45">
         <v>2</v>
@@ -9160,10 +9216,10 @@
         <v>2</v>
       </c>
       <c r="J46" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K46" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L46">
         <v>2</v>
@@ -9201,10 +9257,10 @@
         <v>2</v>
       </c>
       <c r="J47" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K47" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L47">
         <v>2</v>
@@ -9242,10 +9298,10 @@
         <v>2</v>
       </c>
       <c r="J48" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K48" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L48">
         <v>2</v>
@@ -9283,10 +9339,10 @@
         <v>2</v>
       </c>
       <c r="J49" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K49" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L49">
         <v>2</v>
@@ -9324,10 +9380,10 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K50" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L50">
         <v>2</v>
@@ -9365,10 +9421,10 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K51" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L51">
         <v>2</v>
@@ -9406,10 +9462,10 @@
         <v>2</v>
       </c>
       <c r="J52" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K52" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L52">
         <v>2</v>
@@ -9447,10 +9503,10 @@
         <v>2</v>
       </c>
       <c r="J53" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K53" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L53">
         <v>2</v>
@@ -9488,10 +9544,10 @@
         <v>2</v>
       </c>
       <c r="J54" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K54" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L54">
         <v>2</v>
@@ -9529,10 +9585,10 @@
         <v>2</v>
       </c>
       <c r="J55" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K55" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L55">
         <v>2</v>
@@ -9570,10 +9626,10 @@
         <v>2</v>
       </c>
       <c r="J56" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K56" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L56">
         <v>2</v>
@@ -9611,10 +9667,10 @@
         <v>2</v>
       </c>
       <c r="J57" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K57" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L57">
         <v>2</v>
@@ -9652,10 +9708,10 @@
         <v>2</v>
       </c>
       <c r="J58" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K58" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L58">
         <v>2</v>
@@ -9693,10 +9749,10 @@
         <v>2</v>
       </c>
       <c r="J59" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K59" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L59">
         <v>2</v>
@@ -9734,10 +9790,10 @@
         <v>2</v>
       </c>
       <c r="J60" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K60" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L60">
         <v>2</v>
@@ -9775,10 +9831,10 @@
         <v>2</v>
       </c>
       <c r="J61" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K61" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L61">
         <v>2</v>
@@ -9816,10 +9872,10 @@
         <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K62" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L62">
         <v>2</v>
@@ -9857,10 +9913,10 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K63" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L63">
         <v>2</v>
@@ -9898,10 +9954,10 @@
         <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K64" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L64">
         <v>2</v>
@@ -9939,10 +9995,10 @@
         <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K65" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L65">
         <v>2</v>
@@ -9980,10 +10036,10 @@
         <v>2</v>
       </c>
       <c r="J66" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K66" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L66">
         <v>2</v>
@@ -10021,10 +10077,10 @@
         <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K67" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L67">
         <v>2</v>
@@ -10062,10 +10118,10 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K68" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L68">
         <v>2</v>
@@ -10103,10 +10159,10 @@
         <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K69" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L69">
         <v>2</v>
@@ -10144,10 +10200,10 @@
         <v>2</v>
       </c>
       <c r="J70" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K70" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L70">
         <v>2</v>
@@ -10185,10 +10241,10 @@
         <v>2</v>
       </c>
       <c r="J71" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K71" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L71">
         <v>2</v>
@@ -10226,10 +10282,10 @@
         <v>2</v>
       </c>
       <c r="J72" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K72" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L72">
         <v>2</v>
@@ -10267,10 +10323,10 @@
         <v>2</v>
       </c>
       <c r="J73" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K73" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L73">
         <v>2</v>
@@ -10308,10 +10364,10 @@
         <v>2</v>
       </c>
       <c r="J74" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K74" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L74">
         <v>2</v>
@@ -10349,10 +10405,10 @@
         <v>2</v>
       </c>
       <c r="J75" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K75" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L75">
         <v>2</v>
@@ -10390,10 +10446,10 @@
         <v>2</v>
       </c>
       <c r="J76" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K76" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L76">
         <v>2</v>
@@ -10431,10 +10487,10 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K77" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L77">
         <v>2</v>
@@ -10472,10 +10528,10 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K78" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L78">
         <v>2</v>
@@ -10513,10 +10569,10 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K79" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L79">
         <v>2</v>
@@ -10554,10 +10610,10 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K80" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L80">
         <v>2</v>
@@ -10595,10 +10651,10 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K81" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L81">
         <v>2</v>
@@ -10636,10 +10692,10 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K82" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L82">
         <v>2</v>
@@ -10677,10 +10733,10 @@
         <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K83" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L83">
         <v>2</v>
@@ -10718,10 +10774,10 @@
         <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K84" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L84">
         <v>2</v>
@@ -10759,10 +10815,10 @@
         <v>2</v>
       </c>
       <c r="J85" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K85" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L85">
         <v>2</v>
@@ -10800,10 +10856,10 @@
         <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K86" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L86">
         <v>2</v>
@@ -10841,10 +10897,10 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K87" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L87">
         <v>2</v>
@@ -10882,10 +10938,10 @@
         <v>2</v>
       </c>
       <c r="J88" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K88" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L88">
         <v>2</v>
@@ -10923,10 +10979,10 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K89" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L89">
         <v>2</v>
@@ -10964,10 +11020,10 @@
         <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K90" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L90">
         <v>2</v>
@@ -10981,13 +11037,13 @@
         <v>22011057</v>
       </c>
       <c r="B91" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="C91">
         <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -11005,16 +11061,16 @@
         <v>2</v>
       </c>
       <c r="J91" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K91" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L91">
         <v>2</v>
       </c>
       <c r="N91" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.15">
@@ -11046,10 +11102,10 @@
         <v>2</v>
       </c>
       <c r="J92" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K92" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L92">
         <v>2</v>
@@ -11087,10 +11143,10 @@
         <v>2</v>
       </c>
       <c r="J93" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K93" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L93">
         <v>2</v>
@@ -11128,10 +11184,10 @@
         <v>2</v>
       </c>
       <c r="J94" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K94" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L94">
         <v>2</v>
@@ -11169,10 +11225,10 @@
         <v>2</v>
       </c>
       <c r="J95" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K95" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L95">
         <v>2</v>
@@ -11210,10 +11266,10 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K96" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L96">
         <v>2</v>
@@ -11251,10 +11307,10 @@
         <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K97" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L97">
         <v>2</v>
@@ -11292,10 +11348,10 @@
         <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K98" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L98">
         <v>2</v>
@@ -11333,10 +11389,10 @@
         <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K99" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L99">
         <v>2</v>
@@ -11374,10 +11430,10 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K100" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L100">
         <v>2</v>
@@ -11415,10 +11471,10 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K101" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L101">
         <v>2</v>
@@ -11456,10 +11512,10 @@
         <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K102" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L102">
         <v>2</v>
@@ -11497,10 +11553,10 @@
         <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K103" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L103">
         <v>2</v>
@@ -11538,10 +11594,10 @@
         <v>2</v>
       </c>
       <c r="J104" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K104" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L104">
         <v>2</v>
@@ -11579,10 +11635,10 @@
         <v>2</v>
       </c>
       <c r="J105" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K105" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L105">
         <v>2</v>
@@ -11596,13 +11652,13 @@
         <v>22011072</v>
       </c>
       <c r="B106" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="C106">
         <v>2</v>
       </c>
       <c r="D106" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -11620,16 +11676,16 @@
         <v>2</v>
       </c>
       <c r="J106" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K106" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L106">
         <v>2</v>
       </c>
       <c r="N106" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.15">
@@ -11661,10 +11717,10 @@
         <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K107" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L107">
         <v>2</v>
@@ -11702,10 +11758,10 @@
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K108" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L108">
         <v>2</v>
@@ -11743,10 +11799,10 @@
         <v>2</v>
       </c>
       <c r="J109" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K109" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L109">
         <v>2</v>
@@ -11784,10 +11840,10 @@
         <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K110" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L110">
         <v>2</v>
@@ -11825,10 +11881,10 @@
         <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K111" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L111">
         <v>2</v>
@@ -11866,10 +11922,10 @@
         <v>2</v>
       </c>
       <c r="J112" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K112" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L112">
         <v>2</v>
@@ -11907,10 +11963,10 @@
         <v>2</v>
       </c>
       <c r="J113" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K113" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L113">
         <v>2</v>
@@ -11948,10 +12004,10 @@
         <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K114" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L114">
         <v>2</v>
@@ -11989,10 +12045,10 @@
         <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K115" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L115">
         <v>2</v>
@@ -12030,10 +12086,10 @@
         <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K116" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L116">
         <v>2</v>
@@ -12071,10 +12127,10 @@
         <v>2</v>
       </c>
       <c r="J117" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K117" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L117">
         <v>2</v>
@@ -12112,10 +12168,10 @@
         <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K118" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L118">
         <v>2</v>
@@ -12153,10 +12209,10 @@
         <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K119" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L119">
         <v>2</v>
@@ -12194,10 +12250,10 @@
         <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K120" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L120">
         <v>2</v>
@@ -12235,10 +12291,10 @@
         <v>2</v>
       </c>
       <c r="J121" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K121" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L121">
         <v>2</v>
@@ -12276,10 +12332,10 @@
         <v>2</v>
       </c>
       <c r="J122" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K122" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L122">
         <v>2</v>
@@ -12317,10 +12373,10 @@
         <v>2</v>
       </c>
       <c r="J123" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K123" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L123">
         <v>2</v>
@@ -12358,10 +12414,10 @@
         <v>2</v>
       </c>
       <c r="J124" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K124" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L124">
         <v>2</v>
@@ -12399,10 +12455,10 @@
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K125" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L125">
         <v>2</v>
@@ -12440,10 +12496,10 @@
         <v>2</v>
       </c>
       <c r="J126" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K126" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L126">
         <v>2</v>
@@ -12481,10 +12537,10 @@
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K127" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L127">
         <v>2</v>
@@ -12522,10 +12578,10 @@
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K128" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L128">
         <v>2</v>
@@ -12563,10 +12619,10 @@
         <v>2</v>
       </c>
       <c r="J129" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K129" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L129">
         <v>2</v>
@@ -12604,10 +12660,10 @@
         <v>2</v>
       </c>
       <c r="J130" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K130" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L130">
         <v>2</v>
@@ -12645,10 +12701,10 @@
         <v>2</v>
       </c>
       <c r="J131" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K131" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L131">
         <v>2</v>
@@ -12686,10 +12742,10 @@
         <v>2</v>
       </c>
       <c r="J132" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K132" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L132">
         <v>2</v>
@@ -12727,10 +12783,10 @@
         <v>2</v>
       </c>
       <c r="J133" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K133" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L133">
         <v>2</v>
@@ -12768,10 +12824,10 @@
         <v>2</v>
       </c>
       <c r="J134" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K134" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L134">
         <v>2</v>
@@ -12809,10 +12865,10 @@
         <v>2</v>
       </c>
       <c r="J135" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K135" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L135">
         <v>2</v>
@@ -12850,10 +12906,10 @@
         <v>2</v>
       </c>
       <c r="J136" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K136" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L136">
         <v>2</v>
@@ -12891,10 +12947,10 @@
         <v>2</v>
       </c>
       <c r="J137" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K137" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L137">
         <v>2</v>
@@ -12932,10 +12988,10 @@
         <v>2</v>
       </c>
       <c r="J138" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K138" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L138">
         <v>2</v>
@@ -12973,10 +13029,10 @@
         <v>2</v>
       </c>
       <c r="J139" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K139" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L139">
         <v>2</v>
@@ -13014,10 +13070,10 @@
         <v>2</v>
       </c>
       <c r="J140" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K140" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L140">
         <v>2</v>
@@ -13055,10 +13111,10 @@
         <v>2</v>
       </c>
       <c r="J141" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K141" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L141">
         <v>2</v>
@@ -13096,10 +13152,10 @@
         <v>2</v>
       </c>
       <c r="J142" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K142" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L142">
         <v>2</v>
@@ -13137,10 +13193,10 @@
         <v>2</v>
       </c>
       <c r="J143" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K143" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L143">
         <v>2</v>
@@ -13178,10 +13234,10 @@
         <v>2</v>
       </c>
       <c r="J144" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K144" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L144">
         <v>2</v>
@@ -13219,10 +13275,10 @@
         <v>2</v>
       </c>
       <c r="J145" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K145" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L145">
         <v>2</v>
@@ -13260,10 +13316,10 @@
         <v>2</v>
       </c>
       <c r="J146" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K146" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L146">
         <v>2</v>
@@ -13301,10 +13357,10 @@
         <v>2</v>
       </c>
       <c r="J147" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K147" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L147">
         <v>2</v>
@@ -13342,10 +13398,10 @@
         <v>2</v>
       </c>
       <c r="J148" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K148" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L148">
         <v>2</v>
@@ -13383,10 +13439,10 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K149" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L149">
         <v>2</v>
@@ -13424,10 +13480,10 @@
         <v>2</v>
       </c>
       <c r="J150" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K150" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L150">
         <v>2</v>
@@ -13465,10 +13521,10 @@
         <v>2</v>
       </c>
       <c r="J151" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K151" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L151">
         <v>2</v>
@@ -13506,10 +13562,10 @@
         <v>2</v>
       </c>
       <c r="J152" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K152" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L152">
         <v>2</v>
@@ -13547,10 +13603,10 @@
         <v>2</v>
       </c>
       <c r="J153" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K153" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L153">
         <v>2</v>
@@ -13588,10 +13644,10 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K154" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L154">
         <v>2</v>
@@ -13629,10 +13685,10 @@
         <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K155" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L155">
         <v>2</v>
@@ -13670,10 +13726,10 @@
         <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K156" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L156">
         <v>2</v>
@@ -13711,10 +13767,10 @@
         <v>2</v>
       </c>
       <c r="J157" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K157" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L157">
         <v>2</v>
@@ -13752,10 +13808,10 @@
         <v>2</v>
       </c>
       <c r="J158" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K158" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L158">
         <v>2</v>
@@ -13793,10 +13849,10 @@
         <v>2</v>
       </c>
       <c r="J159" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K159" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L159">
         <v>2</v>
@@ -13834,10 +13890,10 @@
         <v>2</v>
       </c>
       <c r="J160" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K160" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L160">
         <v>2</v>
@@ -13875,10 +13931,10 @@
         <v>2</v>
       </c>
       <c r="J161" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K161" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L161">
         <v>2</v>
@@ -13916,10 +13972,10 @@
         <v>2</v>
       </c>
       <c r="J162" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K162" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L162">
         <v>2</v>
@@ -13957,10 +14013,10 @@
         <v>2</v>
       </c>
       <c r="J163" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K163" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L163">
         <v>2</v>
@@ -13998,10 +14054,10 @@
         <v>2</v>
       </c>
       <c r="J164" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K164" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L164">
         <v>2</v>
@@ -14039,10 +14095,10 @@
         <v>2</v>
       </c>
       <c r="J165" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K165" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L165">
         <v>2</v>
@@ -14080,10 +14136,10 @@
         <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K166" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L166">
         <v>2</v>
@@ -14121,10 +14177,10 @@
         <v>2</v>
       </c>
       <c r="J167" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K167" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L167">
         <v>2</v>
@@ -14162,10 +14218,10 @@
         <v>2</v>
       </c>
       <c r="J168" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K168" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L168">
         <v>2</v>
@@ -14203,10 +14259,10 @@
         <v>2</v>
       </c>
       <c r="J169" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K169" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L169">
         <v>2</v>
@@ -14244,10 +14300,10 @@
         <v>2</v>
       </c>
       <c r="J170" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K170" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L170">
         <v>2</v>
@@ -14285,10 +14341,10 @@
         <v>2</v>
       </c>
       <c r="J171" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K171" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L171">
         <v>2</v>
@@ -14326,10 +14382,10 @@
         <v>2</v>
       </c>
       <c r="J172" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K172" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L172">
         <v>2</v>
@@ -14367,10 +14423,10 @@
         <v>2</v>
       </c>
       <c r="J173" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K173" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L173">
         <v>2</v>
@@ -14408,10 +14464,10 @@
         <v>2</v>
       </c>
       <c r="J174" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K174" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L174">
         <v>2</v>
@@ -14449,10 +14505,10 @@
         <v>2</v>
       </c>
       <c r="J175" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K175" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L175">
         <v>2</v>
@@ -14490,10 +14546,10 @@
         <v>2</v>
       </c>
       <c r="J176" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K176" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L176">
         <v>2</v>
@@ -14531,10 +14587,10 @@
         <v>2</v>
       </c>
       <c r="J177" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K177" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L177">
         <v>2</v>
@@ -14572,10 +14628,10 @@
         <v>2</v>
       </c>
       <c r="J178" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K178" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L178">
         <v>2</v>
@@ -14613,10 +14669,10 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K179" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L179">
         <v>2</v>
@@ -14654,10 +14710,10 @@
         <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K180" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L180">
         <v>2</v>
@@ -14695,10 +14751,10 @@
         <v>2</v>
       </c>
       <c r="J181" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K181" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L181">
         <v>2</v>
@@ -14736,10 +14792,10 @@
         <v>2</v>
       </c>
       <c r="J182" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K182" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L182">
         <v>2</v>
@@ -14777,10 +14833,10 @@
         <v>2</v>
       </c>
       <c r="J183" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K183" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L183">
         <v>2</v>
@@ -14818,10 +14874,10 @@
         <v>2</v>
       </c>
       <c r="J184" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K184" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L184">
         <v>2</v>
@@ -14859,10 +14915,10 @@
         <v>2</v>
       </c>
       <c r="J185" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K185" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L185">
         <v>2</v>
@@ -14900,10 +14956,10 @@
         <v>2</v>
       </c>
       <c r="J186" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K186" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L186">
         <v>2</v>
@@ -14941,10 +14997,10 @@
         <v>2</v>
       </c>
       <c r="J187" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K187" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L187">
         <v>2</v>
@@ -14982,10 +15038,10 @@
         <v>2</v>
       </c>
       <c r="J188" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K188" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L188">
         <v>2</v>
@@ -15023,10 +15079,10 @@
         <v>2</v>
       </c>
       <c r="J189" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K189" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L189">
         <v>2</v>
@@ -15064,10 +15120,10 @@
         <v>2</v>
       </c>
       <c r="J190" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K190" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L190">
         <v>2</v>
@@ -15105,10 +15161,10 @@
         <v>2</v>
       </c>
       <c r="J191" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K191" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L191">
         <v>2</v>
@@ -15146,10 +15202,10 @@
         <v>2</v>
       </c>
       <c r="J192" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K192" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L192">
         <v>2</v>
@@ -15187,10 +15243,10 @@
         <v>2</v>
       </c>
       <c r="J193" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K193" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L193">
         <v>2</v>
@@ -15228,10 +15284,10 @@
         <v>2</v>
       </c>
       <c r="J194" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K194" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L194">
         <v>2</v>
@@ -15245,13 +15301,13 @@
         <v>22011161</v>
       </c>
       <c r="B195" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="C195">
         <v>2</v>
       </c>
       <c r="D195" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -15269,16 +15325,16 @@
         <v>2</v>
       </c>
       <c r="J195" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K195" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L195">
         <v>2</v>
       </c>
       <c r="N195" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.15">
@@ -15310,10 +15366,10 @@
         <v>2</v>
       </c>
       <c r="J196" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K196" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L196">
         <v>2</v>
@@ -15351,10 +15407,10 @@
         <v>2</v>
       </c>
       <c r="J197" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K197" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L197">
         <v>2</v>
@@ -15392,10 +15448,10 @@
         <v>2</v>
       </c>
       <c r="J198" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K198" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L198">
         <v>2</v>
@@ -15433,10 +15489,10 @@
         <v>2</v>
       </c>
       <c r="J199" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K199" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L199">
         <v>2</v>
@@ -15474,10 +15530,10 @@
         <v>2</v>
       </c>
       <c r="J200" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K200" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L200">
         <v>2</v>
@@ -15515,10 +15571,10 @@
         <v>2</v>
       </c>
       <c r="J201" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K201" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L201">
         <v>2</v>
@@ -15556,10 +15612,10 @@
         <v>2</v>
       </c>
       <c r="J202" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K202" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L202">
         <v>2</v>
@@ -15597,10 +15653,10 @@
         <v>2</v>
       </c>
       <c r="J203" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K203" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L203">
         <v>2</v>
@@ -15638,10 +15694,10 @@
         <v>2</v>
       </c>
       <c r="J204" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K204" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L204">
         <v>2</v>
@@ -15679,10 +15735,10 @@
         <v>2</v>
       </c>
       <c r="J205" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K205" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L205">
         <v>2</v>
@@ -15720,10 +15776,10 @@
         <v>2</v>
       </c>
       <c r="J206" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K206" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L206">
         <v>2</v>
@@ -15761,10 +15817,10 @@
         <v>2</v>
       </c>
       <c r="J207" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K207" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L207">
         <v>2</v>
@@ -15802,10 +15858,10 @@
         <v>2</v>
       </c>
       <c r="J208" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K208" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L208">
         <v>2</v>
@@ -15843,10 +15899,10 @@
         <v>2</v>
       </c>
       <c r="J209" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K209" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L209">
         <v>2</v>
@@ -15884,10 +15940,10 @@
         <v>2</v>
       </c>
       <c r="J210" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K210" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L210">
         <v>2</v>
@@ -15925,10 +15981,10 @@
         <v>2</v>
       </c>
       <c r="J211" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K211" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L211">
         <v>2</v>
@@ -15966,10 +16022,10 @@
         <v>2</v>
       </c>
       <c r="J212" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K212" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L212">
         <v>2</v>
@@ -16007,16 +16063,16 @@
         <v>2</v>
       </c>
       <c r="J213" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K213" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L213">
         <v>2</v>
       </c>
       <c r="N213" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.15">
@@ -16048,10 +16104,10 @@
         <v>2</v>
       </c>
       <c r="J214" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K214" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L214">
         <v>2</v>
@@ -16089,10 +16145,10 @@
         <v>2</v>
       </c>
       <c r="J215" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K215" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L215">
         <v>2</v>
@@ -16130,10 +16186,10 @@
         <v>2</v>
       </c>
       <c r="J216" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K216" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L216">
         <v>2</v>
@@ -16171,10 +16227,10 @@
         <v>2</v>
       </c>
       <c r="J217" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K217" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L217">
         <v>2</v>
@@ -16212,10 +16268,10 @@
         <v>2</v>
       </c>
       <c r="J218" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K218" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L218">
         <v>2</v>
@@ -16253,10 +16309,10 @@
         <v>2</v>
       </c>
       <c r="J219" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K219" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L219">
         <v>2</v>
@@ -16270,13 +16326,13 @@
         <v>22011186</v>
       </c>
       <c r="B220" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="C220">
         <v>2</v>
       </c>
       <c r="D220" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="E220">
         <v>1</v>
@@ -16294,16 +16350,16 @@
         <v>2</v>
       </c>
       <c r="J220" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K220" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L220">
         <v>2</v>
       </c>
       <c r="N220" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.15">
@@ -16311,13 +16367,13 @@
         <v>22011187</v>
       </c>
       <c r="B221" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="C221">
         <v>2</v>
       </c>
       <c r="D221" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="E221">
         <v>1</v>
@@ -16335,16 +16391,16 @@
         <v>2</v>
       </c>
       <c r="J221" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K221" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L221">
         <v>2</v>
       </c>
       <c r="N221" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.15">
@@ -16352,13 +16408,13 @@
         <v>22011188</v>
       </c>
       <c r="B222" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="C222">
         <v>2</v>
       </c>
       <c r="D222" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="E222">
         <v>1</v>
@@ -16376,16 +16432,16 @@
         <v>2</v>
       </c>
       <c r="J222" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K222" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L222">
         <v>2</v>
       </c>
       <c r="N222" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.15">
@@ -16393,13 +16449,13 @@
         <v>22011189</v>
       </c>
       <c r="B223" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="C223">
         <v>2</v>
       </c>
       <c r="D223" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="E223">
         <v>1</v>
@@ -16417,16 +16473,16 @@
         <v>2</v>
       </c>
       <c r="J223" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K223" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L223">
         <v>2</v>
       </c>
       <c r="N223" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.15">
@@ -16434,13 +16490,13 @@
         <v>22011190</v>
       </c>
       <c r="B224" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="C224">
         <v>2</v>
       </c>
       <c r="D224" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -16458,17 +16514,17 @@
         <v>2</v>
       </c>
       <c r="J224" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K224" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L224">
         <v>2</v>
       </c>
       <c r="M224" s="15"/>
       <c r="N224" s="15" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.15">
@@ -16476,13 +16532,13 @@
         <v>22011191</v>
       </c>
       <c r="B225" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="C225">
         <v>2</v>
       </c>
       <c r="D225" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="E225">
         <v>1</v>
@@ -16500,17 +16556,17 @@
         <v>2</v>
       </c>
       <c r="J225" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K225" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L225">
         <v>2</v>
       </c>
       <c r="M225" s="15"/>
       <c r="N225" s="15" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="226" spans="1:14" x14ac:dyDescent="0.15">
@@ -16518,13 +16574,13 @@
         <v>22011192</v>
       </c>
       <c r="B226" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="C226">
         <v>2</v>
       </c>
       <c r="D226" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -16542,17 +16598,17 @@
         <v>2</v>
       </c>
       <c r="J226" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K226" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L226">
         <v>2</v>
       </c>
       <c r="M226" s="15"/>
       <c r="N226" s="15" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="227" spans="1:14" x14ac:dyDescent="0.15">
@@ -16560,13 +16616,13 @@
         <v>22011193</v>
       </c>
       <c r="B227" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="C227">
         <v>2</v>
       </c>
       <c r="D227" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -16584,17 +16640,17 @@
         <v>2</v>
       </c>
       <c r="J227" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K227" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L227">
         <v>2</v>
       </c>
       <c r="M227" s="15"/>
       <c r="N227" s="15" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.15">
@@ -16602,13 +16658,13 @@
         <v>22011194</v>
       </c>
       <c r="B228" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="C228">
         <v>2</v>
       </c>
       <c r="D228" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -16626,17 +16682,17 @@
         <v>2</v>
       </c>
       <c r="J228" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K228" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L228">
         <v>2</v>
       </c>
       <c r="M228" s="15"/>
       <c r="N228" s="15" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.15">
@@ -16644,13 +16700,13 @@
         <v>22011195</v>
       </c>
       <c r="B229" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="C229">
         <v>2</v>
       </c>
       <c r="D229" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -16668,17 +16724,17 @@
         <v>2</v>
       </c>
       <c r="J229" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K229" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L229">
         <v>2</v>
       </c>
       <c r="M229" s="15"/>
       <c r="N229" s="15" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.15">
@@ -16686,13 +16742,13 @@
         <v>22011196</v>
       </c>
       <c r="B230" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="C230">
         <v>2</v>
       </c>
       <c r="D230" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -16710,17 +16766,17 @@
         <v>2</v>
       </c>
       <c r="J230" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K230" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L230">
         <v>2</v>
       </c>
       <c r="M230" s="15"/>
       <c r="N230" s="15" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.15">
@@ -16728,13 +16784,13 @@
         <v>22011197</v>
       </c>
       <c r="B231" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="C231">
         <v>2</v>
       </c>
       <c r="D231" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -16752,17 +16808,17 @@
         <v>2</v>
       </c>
       <c r="J231" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K231" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L231">
         <v>2</v>
       </c>
       <c r="M231" s="15"/>
       <c r="N231" s="15" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.15">
@@ -16770,13 +16826,13 @@
         <v>22011198</v>
       </c>
       <c r="B232" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="C232">
         <v>2</v>
       </c>
       <c r="D232" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="E232">
         <v>1</v>
@@ -16794,17 +16850,17 @@
         <v>2</v>
       </c>
       <c r="J232" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K232" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L232">
         <v>2</v>
       </c>
       <c r="M232" s="15"/>
       <c r="N232" s="15" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.15">
@@ -16812,13 +16868,13 @@
         <v>22011199</v>
       </c>
       <c r="B233" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="C233">
         <v>2</v>
       </c>
       <c r="D233" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -16836,17 +16892,17 @@
         <v>2</v>
       </c>
       <c r="J233" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K233" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L233">
         <v>2</v>
       </c>
       <c r="M233" s="15"/>
       <c r="N233" s="15" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.15">
@@ -16854,13 +16910,13 @@
         <v>22011200</v>
       </c>
       <c r="B234" t="s">
-        <v>1106</v>
+        <v>1101</v>
       </c>
       <c r="C234">
         <v>2</v>
       </c>
       <c r="D234" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="E234">
         <v>1</v>
@@ -16878,17 +16934,17 @@
         <v>2</v>
       </c>
       <c r="J234" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K234" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L234">
         <v>2</v>
       </c>
       <c r="M234" s="15"/>
       <c r="N234" s="15" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.15">
@@ -16896,13 +16952,13 @@
         <v>22011201</v>
       </c>
       <c r="B235" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="C235">
         <v>2</v>
       </c>
       <c r="D235" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -16920,17 +16976,17 @@
         <v>2</v>
       </c>
       <c r="J235" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K235" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L235">
         <v>2</v>
       </c>
       <c r="M235" s="15"/>
       <c r="N235" s="15" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.15">
@@ -16938,13 +16994,13 @@
         <v>22011202</v>
       </c>
       <c r="B236" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="C236">
         <v>2</v>
       </c>
       <c r="D236" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -16962,17 +17018,17 @@
         <v>2</v>
       </c>
       <c r="J236" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K236" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L236">
         <v>2</v>
       </c>
       <c r="M236" s="15"/>
       <c r="N236" s="15" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.15">
@@ -16980,13 +17036,13 @@
         <v>22011203</v>
       </c>
       <c r="B237" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="C237">
         <v>2</v>
       </c>
       <c r="D237" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="E237">
         <v>1</v>
@@ -17004,17 +17060,17 @@
         <v>2</v>
       </c>
       <c r="J237" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K237" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L237">
         <v>2</v>
       </c>
       <c r="M237" s="15"/>
       <c r="N237" s="15" t="s">
-        <v>1111</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.15">
@@ -17022,13 +17078,13 @@
         <v>22011204</v>
       </c>
       <c r="B238" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="C238">
         <v>2</v>
       </c>
       <c r="D238" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="E238">
         <v>1</v>
@@ -17046,17 +17102,17 @@
         <v>2</v>
       </c>
       <c r="J238" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K238" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L238">
         <v>2</v>
       </c>
       <c r="M238" s="15"/>
       <c r="N238" s="15" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.15">
@@ -17064,13 +17120,13 @@
         <v>22011205</v>
       </c>
       <c r="B239" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
       <c r="C239">
         <v>2</v>
       </c>
       <c r="D239" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="E239">
         <v>1</v>
@@ -17088,17 +17144,17 @@
         <v>2</v>
       </c>
       <c r="J239" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K239" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L239">
         <v>2</v>
       </c>
       <c r="M239" s="15"/>
       <c r="N239" s="15" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.15">
@@ -17106,13 +17162,13 @@
         <v>22011206</v>
       </c>
       <c r="B240" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="C240">
         <v>2</v>
       </c>
       <c r="D240" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="E240">
         <v>1</v>
@@ -17130,17 +17186,17 @@
         <v>2</v>
       </c>
       <c r="J240" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K240" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L240">
         <v>2</v>
       </c>
       <c r="M240" s="15"/>
       <c r="N240" s="15" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.15">
@@ -17148,13 +17204,13 @@
         <v>22011207</v>
       </c>
       <c r="B241" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="C241">
         <v>2</v>
       </c>
       <c r="D241" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -17172,17 +17228,17 @@
         <v>2</v>
       </c>
       <c r="J241" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K241" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L241">
         <v>2</v>
       </c>
       <c r="M241" s="15"/>
       <c r="N241" s="15" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.15">
@@ -17190,13 +17246,13 @@
         <v>22011208</v>
       </c>
       <c r="B242" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="C242">
         <v>2</v>
       </c>
       <c r="D242" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -17214,17 +17270,17 @@
         <v>2</v>
       </c>
       <c r="J242" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K242" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L242">
         <v>2</v>
       </c>
       <c r="M242" s="15"/>
       <c r="N242" s="15" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.15">
@@ -17232,13 +17288,13 @@
         <v>22011209</v>
       </c>
       <c r="B243" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="C243">
         <v>2</v>
       </c>
       <c r="D243" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -17256,17 +17312,17 @@
         <v>2</v>
       </c>
       <c r="J243" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K243" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L243">
         <v>2</v>
       </c>
       <c r="M243" s="15"/>
       <c r="N243" s="15" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="244" spans="1:14" x14ac:dyDescent="0.15">
@@ -17274,13 +17330,13 @@
         <v>22011210</v>
       </c>
       <c r="B244" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="C244">
         <v>2</v>
       </c>
       <c r="D244" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -17298,17 +17354,17 @@
         <v>2</v>
       </c>
       <c r="J244" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K244" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L244">
         <v>2</v>
       </c>
       <c r="M244" s="15"/>
       <c r="N244" s="15" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.15">
@@ -17316,13 +17372,13 @@
         <v>22011211</v>
       </c>
       <c r="B245" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="C245">
         <v>2</v>
       </c>
       <c r="D245" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -17340,17 +17396,17 @@
         <v>2</v>
       </c>
       <c r="J245" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K245" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L245">
         <v>2</v>
       </c>
       <c r="M245" s="15"/>
       <c r="N245" s="15" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.15">
@@ -17358,13 +17414,13 @@
         <v>22011212</v>
       </c>
       <c r="B246" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="C246">
         <v>2</v>
       </c>
       <c r="D246" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -17382,17 +17438,17 @@
         <v>2</v>
       </c>
       <c r="J246" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K246" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L246">
         <v>2</v>
       </c>
       <c r="M246" s="15"/>
       <c r="N246" s="15" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.15">
@@ -17400,13 +17456,13 @@
         <v>22011213</v>
       </c>
       <c r="B247" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="C247">
         <v>2</v>
       </c>
       <c r="D247" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -17424,17 +17480,17 @@
         <v>2</v>
       </c>
       <c r="J247" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K247" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L247">
         <v>2</v>
       </c>
       <c r="M247" s="15"/>
       <c r="N247" s="15" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.15">
@@ -17442,13 +17498,13 @@
         <v>22011214</v>
       </c>
       <c r="B248" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="C248">
         <v>2</v>
       </c>
       <c r="D248" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="E248">
         <v>1</v>
@@ -17466,17 +17522,17 @@
         <v>2</v>
       </c>
       <c r="J248" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K248" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L248">
         <v>2</v>
       </c>
       <c r="M248" s="15"/>
       <c r="N248" s="15" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.15">
@@ -17484,13 +17540,13 @@
         <v>22011215</v>
       </c>
       <c r="B249" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="C249">
         <v>2</v>
       </c>
       <c r="D249" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -17508,17 +17564,17 @@
         <v>2</v>
       </c>
       <c r="J249" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K249" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L249">
         <v>2</v>
       </c>
       <c r="M249" s="15"/>
       <c r="N249" s="15" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="250" spans="1:14" x14ac:dyDescent="0.15">
@@ -17526,13 +17582,13 @@
         <v>22011216</v>
       </c>
       <c r="B250" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="C250">
         <v>2</v>
       </c>
       <c r="D250" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="E250">
         <v>1</v>
@@ -17550,10 +17606,10 @@
         <v>2</v>
       </c>
       <c r="J250" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K250" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L250">
         <v>2</v>
@@ -17568,13 +17624,13 @@
         <v>22011217</v>
       </c>
       <c r="B251" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C251">
         <v>2</v>
       </c>
       <c r="D251" t="s">
-        <v>1155</v>
+        <v>1150</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -17592,17 +17648,17 @@
         <v>2</v>
       </c>
       <c r="J251" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K251" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L251">
         <v>2</v>
       </c>
       <c r="M251" s="15"/>
       <c r="N251" s="15" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="252" spans="1:14" x14ac:dyDescent="0.15">
@@ -17610,13 +17666,13 @@
         <v>22011218</v>
       </c>
       <c r="B252" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="C252">
         <v>2</v>
       </c>
       <c r="D252" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="E252">
         <v>1</v>
@@ -17634,17 +17690,17 @@
         <v>2</v>
       </c>
       <c r="J252" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K252" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L252">
         <v>2</v>
       </c>
       <c r="M252" s="15"/>
       <c r="N252" s="15" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="253" spans="1:14" x14ac:dyDescent="0.15">
@@ -17652,13 +17708,13 @@
         <v>22011219</v>
       </c>
       <c r="B253" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="C253">
         <v>2</v>
       </c>
       <c r="D253" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="E253">
         <v>1</v>
@@ -17676,16 +17732,16 @@
         <v>2</v>
       </c>
       <c r="J253" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K253" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L253">
         <v>2</v>
       </c>
       <c r="N253" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="254" spans="1:14" x14ac:dyDescent="0.15">
@@ -17693,13 +17749,13 @@
         <v>22011220</v>
       </c>
       <c r="B254" t="s">
-        <v>1167</v>
+        <v>1162</v>
       </c>
       <c r="C254">
         <v>2</v>
       </c>
       <c r="D254" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -17717,16 +17773,16 @@
         <v>2</v>
       </c>
       <c r="J254" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K254" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L254">
         <v>2</v>
       </c>
       <c r="N254" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="255" spans="1:14" x14ac:dyDescent="0.15">
@@ -17734,13 +17790,13 @@
         <v>22011221</v>
       </c>
       <c r="B255" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="C255">
         <v>2</v>
       </c>
       <c r="D255" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -17758,16 +17814,16 @@
         <v>2</v>
       </c>
       <c r="J255" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K255" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L255">
         <v>2</v>
       </c>
       <c r="N255" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="256" spans="1:14" x14ac:dyDescent="0.15">
@@ -17799,10 +17855,10 @@
         <v>2</v>
       </c>
       <c r="J256" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K256" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L256">
         <v>2</v>
@@ -17816,7 +17872,7 @@
         <v>22018002</v>
       </c>
       <c r="B257" t="s">
-        <v>1345</v>
+        <v>1339</v>
       </c>
       <c r="C257">
         <v>2</v>
@@ -17840,10 +17896,10 @@
         <v>2</v>
       </c>
       <c r="J257" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K257" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L257">
         <v>2</v>
@@ -17857,13 +17913,13 @@
         <v>22018003</v>
       </c>
       <c r="B258" t="s">
-        <v>1346</v>
+        <v>1340</v>
       </c>
       <c r="C258">
         <v>2</v>
       </c>
       <c r="D258" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="E258">
         <v>1</v>
@@ -17881,10 +17937,10 @@
         <v>2</v>
       </c>
       <c r="J258" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K258" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L258">
         <v>2</v>
@@ -17922,16 +17978,16 @@
         <v>2</v>
       </c>
       <c r="J259" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K259" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L259">
         <v>2</v>
       </c>
       <c r="N259" t="s">
-        <v>1378</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.15">
@@ -17963,10 +18019,10 @@
         <v>2</v>
       </c>
       <c r="J260" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K260" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L260">
         <v>2</v>
@@ -17986,7 +18042,7 @@
         <v>2</v>
       </c>
       <c r="D261" t="s">
-        <v>1358</v>
+        <v>1352</v>
       </c>
       <c r="E261">
         <v>1</v>
@@ -18004,10 +18060,10 @@
         <v>2</v>
       </c>
       <c r="J261" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K261" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L261">
         <v>2</v>
@@ -18021,13 +18077,13 @@
         <v>22018013</v>
       </c>
       <c r="B262" t="s">
-        <v>1347</v>
+        <v>1341</v>
       </c>
       <c r="C262">
         <v>2</v>
       </c>
       <c r="D262" t="s">
-        <v>1356</v>
+        <v>1350</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -18045,10 +18101,10 @@
         <v>2</v>
       </c>
       <c r="J262" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K262" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L262">
         <v>2</v>
@@ -18086,16 +18142,16 @@
         <v>2</v>
       </c>
       <c r="J263" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K263" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L263">
         <v>2</v>
       </c>
       <c r="N263" t="s">
-        <v>1379</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.15">
@@ -18127,10 +18183,10 @@
         <v>2</v>
       </c>
       <c r="J264" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K264" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L264">
         <v>2</v>
@@ -18150,7 +18206,7 @@
         <v>2</v>
       </c>
       <c r="D265" t="s">
-        <v>1357</v>
+        <v>1351</v>
       </c>
       <c r="E265">
         <v>1</v>
@@ -18168,10 +18224,10 @@
         <v>2</v>
       </c>
       <c r="J265" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K265" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L265">
         <v>2</v>
@@ -18185,13 +18241,13 @@
         <v>22018023</v>
       </c>
       <c r="B266" t="s">
-        <v>1348</v>
+        <v>1342</v>
       </c>
       <c r="C266">
         <v>2</v>
       </c>
       <c r="D266" t="s">
-        <v>1359</v>
+        <v>1353</v>
       </c>
       <c r="E266">
         <v>1</v>
@@ -18209,10 +18265,10 @@
         <v>2</v>
       </c>
       <c r="J266" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K266" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L266">
         <v>2</v>
@@ -18250,16 +18306,16 @@
         <v>2</v>
       </c>
       <c r="J267" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K267" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L267">
         <v>2</v>
       </c>
       <c r="N267" t="s">
-        <v>1374</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.15">
@@ -18291,10 +18347,10 @@
         <v>2</v>
       </c>
       <c r="J268" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K268" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L268">
         <v>2</v>
@@ -18332,10 +18388,10 @@
         <v>2</v>
       </c>
       <c r="J269" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K269" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L269">
         <v>2</v>
@@ -18349,13 +18405,13 @@
         <v>22018033</v>
       </c>
       <c r="B270" t="s">
-        <v>1349</v>
+        <v>1343</v>
       </c>
       <c r="C270">
         <v>2</v>
       </c>
       <c r="D270" t="s">
-        <v>1360</v>
+        <v>1354</v>
       </c>
       <c r="E270">
         <v>1</v>
@@ -18373,10 +18429,10 @@
         <v>2</v>
       </c>
       <c r="J270" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K270" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L270">
         <v>2</v>
@@ -18414,16 +18470,16 @@
         <v>2</v>
       </c>
       <c r="J271" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K271" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L271">
         <v>2</v>
       </c>
       <c r="N271" t="s">
-        <v>1375</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.15">
@@ -18455,10 +18511,10 @@
         <v>2</v>
       </c>
       <c r="J272" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K272" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L272">
         <v>2</v>
@@ -18496,10 +18552,10 @@
         <v>2</v>
       </c>
       <c r="J273" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K273" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L273">
         <v>2</v>
@@ -18513,13 +18569,13 @@
         <v>22018043</v>
       </c>
       <c r="B274" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="C274">
         <v>2</v>
       </c>
       <c r="D274" t="s">
-        <v>1361</v>
+        <v>1355</v>
       </c>
       <c r="E274">
         <v>1</v>
@@ -18537,10 +18593,10 @@
         <v>2</v>
       </c>
       <c r="J274" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K274" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L274">
         <v>2</v>
@@ -18578,16 +18634,16 @@
         <v>2</v>
       </c>
       <c r="J275" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K275" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L275">
         <v>2</v>
       </c>
       <c r="N275" t="s">
-        <v>1376</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.15">
@@ -18619,10 +18675,10 @@
         <v>2</v>
       </c>
       <c r="J276" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K276" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L276">
         <v>2</v>
@@ -18636,7 +18692,7 @@
         <v>22018052</v>
       </c>
       <c r="B277" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="C277">
         <v>2</v>
@@ -18660,10 +18716,10 @@
         <v>2</v>
       </c>
       <c r="J277" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K277" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L277">
         <v>2</v>
@@ -18677,13 +18733,13 @@
         <v>22018053</v>
       </c>
       <c r="B278" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="C278">
         <v>2</v>
       </c>
       <c r="D278" t="s">
-        <v>1362</v>
+        <v>1356</v>
       </c>
       <c r="E278">
         <v>1</v>
@@ -18701,10 +18757,10 @@
         <v>2</v>
       </c>
       <c r="J278" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K278" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L278">
         <v>2</v>
@@ -18742,16 +18798,16 @@
         <v>2</v>
       </c>
       <c r="J279" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K279" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L279">
         <v>2</v>
       </c>
       <c r="N279" t="s">
-        <v>1380</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.15">
@@ -18783,10 +18839,10 @@
         <v>2</v>
       </c>
       <c r="J280" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K280" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L280">
         <v>2</v>
@@ -18800,7 +18856,7 @@
         <v>22018062</v>
       </c>
       <c r="B281" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="C281">
         <v>2</v>
@@ -18824,10 +18880,10 @@
         <v>2</v>
       </c>
       <c r="J281" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K281" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L281">
         <v>2</v>
@@ -18841,13 +18897,13 @@
         <v>22018063</v>
       </c>
       <c r="B282" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="C282">
         <v>2</v>
       </c>
       <c r="D282" t="s">
-        <v>1363</v>
+        <v>1357</v>
       </c>
       <c r="E282">
         <v>1</v>
@@ -18865,10 +18921,10 @@
         <v>2</v>
       </c>
       <c r="J282" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K282" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L282">
         <v>2</v>
@@ -18906,16 +18962,16 @@
         <v>2</v>
       </c>
       <c r="J283" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K283" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L283">
         <v>2</v>
       </c>
       <c r="N283" t="s">
-        <v>1377</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.15">
@@ -18947,10 +19003,10 @@
         <v>2</v>
       </c>
       <c r="J284" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K284" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L284">
         <v>2</v>
@@ -18988,10 +19044,10 @@
         <v>2</v>
       </c>
       <c r="J285" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K285" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L285">
         <v>2</v>
@@ -19029,10 +19085,10 @@
         <v>2</v>
       </c>
       <c r="J286" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K286" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L286">
         <v>2</v>
@@ -19070,10 +19126,10 @@
         <v>2</v>
       </c>
       <c r="J287" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K287" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L287">
         <v>2</v>
@@ -19111,10 +19167,10 @@
         <v>2</v>
       </c>
       <c r="J288" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K288" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L288">
         <v>2</v>
@@ -19152,10 +19208,10 @@
         <v>2</v>
       </c>
       <c r="J289" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K289" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L289">
         <v>2</v>
@@ -19193,10 +19249,10 @@
         <v>2</v>
       </c>
       <c r="J290" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K290" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L290">
         <v>2</v>
@@ -19234,10 +19290,10 @@
         <v>2</v>
       </c>
       <c r="J291" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K291" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L291">
         <v>2</v>
@@ -19275,10 +19331,10 @@
         <v>2</v>
       </c>
       <c r="J292" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K292" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L292">
         <v>2</v>
@@ -19316,10 +19372,10 @@
         <v>2</v>
       </c>
       <c r="J293" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K293" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L293">
         <v>2</v>
@@ -19357,10 +19413,10 @@
         <v>2</v>
       </c>
       <c r="J294" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K294" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L294">
         <v>2</v>
@@ -19398,10 +19454,10 @@
         <v>2</v>
       </c>
       <c r="J295" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K295" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L295">
         <v>2</v>
@@ -19439,10 +19495,10 @@
         <v>2</v>
       </c>
       <c r="J296" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K296" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L296">
         <v>2</v>
@@ -19480,10 +19536,10 @@
         <v>2</v>
       </c>
       <c r="J297" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K297" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L297">
         <v>2</v>
@@ -19521,10 +19577,10 @@
         <v>2</v>
       </c>
       <c r="J298" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K298" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L298">
         <v>2</v>
@@ -19562,10 +19618,10 @@
         <v>2</v>
       </c>
       <c r="J299" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K299" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L299">
         <v>2</v>
@@ -19603,10 +19659,10 @@
         <v>2</v>
       </c>
       <c r="J300" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K300" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L300">
         <v>2</v>
@@ -19644,10 +19700,10 @@
         <v>2</v>
       </c>
       <c r="J301" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K301" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L301">
         <v>2</v>
@@ -19685,10 +19741,10 @@
         <v>2</v>
       </c>
       <c r="J302" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K302" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L302">
         <v>2</v>
@@ -19726,10 +19782,10 @@
         <v>2</v>
       </c>
       <c r="J303" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K303" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L303">
         <v>2</v>
@@ -19767,10 +19823,10 @@
         <v>2</v>
       </c>
       <c r="J304" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K304" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L304">
         <v>2</v>
@@ -19808,10 +19864,10 @@
         <v>2</v>
       </c>
       <c r="J305" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K305" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L305">
         <v>2</v>
@@ -19849,10 +19905,10 @@
         <v>2</v>
       </c>
       <c r="J306" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K306" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L306">
         <v>2</v>
@@ -19890,10 +19946,10 @@
         <v>2</v>
       </c>
       <c r="J307" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K307" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L307">
         <v>2</v>
@@ -19931,10 +19987,10 @@
         <v>2</v>
       </c>
       <c r="J308" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K308" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L308">
         <v>2</v>
@@ -19972,10 +20028,10 @@
         <v>2</v>
       </c>
       <c r="J309" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K309" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L309">
         <v>2</v>
@@ -20013,10 +20069,10 @@
         <v>2</v>
       </c>
       <c r="J310" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K310" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L310">
         <v>2</v>
@@ -20054,10 +20110,10 @@
         <v>2</v>
       </c>
       <c r="J311" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K311" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L311">
         <v>2</v>
@@ -20095,10 +20151,10 @@
         <v>2</v>
       </c>
       <c r="J312" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K312" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L312">
         <v>2</v>
@@ -20136,10 +20192,10 @@
         <v>2</v>
       </c>
       <c r="J313" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K313" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L313">
         <v>2</v>
@@ -20177,10 +20233,10 @@
         <v>2</v>
       </c>
       <c r="J314" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K314" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L314">
         <v>2</v>
@@ -20218,10 +20274,10 @@
         <v>2</v>
       </c>
       <c r="J315" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K315" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L315">
         <v>2</v>
@@ -20259,10 +20315,10 @@
         <v>2</v>
       </c>
       <c r="J316" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K316" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L316">
         <v>2</v>
@@ -20300,10 +20356,10 @@
         <v>2</v>
       </c>
       <c r="J317" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K317" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L317">
         <v>2</v>
@@ -20341,10 +20397,10 @@
         <v>2</v>
       </c>
       <c r="J318" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K318" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L318">
         <v>2</v>
@@ -20382,10 +20438,10 @@
         <v>2</v>
       </c>
       <c r="J319" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K319" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L319">
         <v>2</v>
@@ -20423,10 +20479,10 @@
         <v>2</v>
       </c>
       <c r="J320" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K320" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L320">
         <v>2</v>
@@ -20464,10 +20520,10 @@
         <v>2</v>
       </c>
       <c r="J321" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K321" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L321">
         <v>2</v>
@@ -20505,10 +20561,10 @@
         <v>2</v>
       </c>
       <c r="J322" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K322" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L322">
         <v>2</v>
@@ -20546,10 +20602,10 @@
         <v>2</v>
       </c>
       <c r="J323" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K323" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L323">
         <v>2</v>
@@ -20587,10 +20643,10 @@
         <v>2</v>
       </c>
       <c r="J324" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K324" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L324">
         <v>2</v>
@@ -20628,10 +20684,10 @@
         <v>2</v>
       </c>
       <c r="J325" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K325" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L325">
         <v>2</v>
@@ -20669,10 +20725,10 @@
         <v>2</v>
       </c>
       <c r="J326" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K326" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L326">
         <v>2</v>
@@ -20710,10 +20766,10 @@
         <v>2</v>
       </c>
       <c r="J327" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K327" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L327">
         <v>2</v>
@@ -20751,10 +20807,10 @@
         <v>2</v>
       </c>
       <c r="J328" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K328" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L328">
         <v>2</v>
@@ -20792,10 +20848,10 @@
         <v>2</v>
       </c>
       <c r="J329" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K329" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L329">
         <v>2</v>
@@ -20833,10 +20889,10 @@
         <v>2</v>
       </c>
       <c r="J330" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K330" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L330">
         <v>2</v>
@@ -20874,10 +20930,10 @@
         <v>2</v>
       </c>
       <c r="J331" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K331" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L331">
         <v>2</v>
@@ -20915,10 +20971,10 @@
         <v>2</v>
       </c>
       <c r="J332" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K332" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L332">
         <v>2</v>
@@ -20956,10 +21012,10 @@
         <v>2</v>
       </c>
       <c r="J333" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K333" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L333">
         <v>2</v>
@@ -20997,10 +21053,10 @@
         <v>2</v>
       </c>
       <c r="J334" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K334" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L334">
         <v>2</v>
@@ -21038,10 +21094,10 @@
         <v>2</v>
       </c>
       <c r="J335" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K335" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L335">
         <v>2</v>
@@ -21079,10 +21135,10 @@
         <v>2</v>
       </c>
       <c r="J336" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K336" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L336">
         <v>2</v>
@@ -21120,10 +21176,10 @@
         <v>2</v>
       </c>
       <c r="J337" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K337" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L337">
         <v>2</v>
@@ -21161,10 +21217,10 @@
         <v>2</v>
       </c>
       <c r="J338" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K338" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L338">
         <v>2</v>
@@ -21202,10 +21258,10 @@
         <v>2</v>
       </c>
       <c r="J339" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K339" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L339">
         <v>2</v>
@@ -21243,16 +21299,16 @@
         <v>2</v>
       </c>
       <c r="J340" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K340" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L340">
         <v>2</v>
       </c>
       <c r="N340" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.15">
@@ -21284,10 +21340,10 @@
         <v>2</v>
       </c>
       <c r="J341" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K341" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L341">
         <v>2</v>
@@ -21325,10 +21381,10 @@
         <v>2</v>
       </c>
       <c r="J342" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K342" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L342">
         <v>2</v>
@@ -21366,10 +21422,10 @@
         <v>2</v>
       </c>
       <c r="J343" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K343" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L343">
         <v>2</v>
@@ -21383,13 +21439,13 @@
         <v>22019161</v>
       </c>
       <c r="B344" t="s">
-        <v>1370</v>
+        <v>1364</v>
       </c>
       <c r="C344">
         <v>2</v>
       </c>
       <c r="D344" t="s">
-        <v>1261</v>
+        <v>1255</v>
       </c>
       <c r="E344">
         <v>1</v>
@@ -21407,16 +21463,16 @@
         <v>2</v>
       </c>
       <c r="J344" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K344" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L344">
         <v>2</v>
       </c>
       <c r="N344" t="s">
-        <v>1366</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.15">
@@ -21424,13 +21480,13 @@
         <v>22019162</v>
       </c>
       <c r="B345" t="s">
-        <v>1371</v>
+        <v>1365</v>
       </c>
       <c r="C345">
         <v>2</v>
       </c>
       <c r="D345" t="s">
-        <v>1262</v>
+        <v>1256</v>
       </c>
       <c r="E345">
         <v>1</v>
@@ -21448,16 +21504,16 @@
         <v>2</v>
       </c>
       <c r="J345" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K345" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L345">
         <v>2</v>
       </c>
       <c r="N345" t="s">
-        <v>1367</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.15">
@@ -21465,13 +21521,13 @@
         <v>22019163</v>
       </c>
       <c r="B346" t="s">
-        <v>1372</v>
+        <v>1366</v>
       </c>
       <c r="C346">
         <v>2</v>
       </c>
       <c r="D346" t="s">
-        <v>1263</v>
+        <v>1257</v>
       </c>
       <c r="E346">
         <v>1</v>
@@ -21489,16 +21545,16 @@
         <v>2</v>
       </c>
       <c r="J346" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K346" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L346">
         <v>2</v>
       </c>
       <c r="N346" t="s">
-        <v>1368</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.15">
@@ -21506,13 +21562,13 @@
         <v>22019164</v>
       </c>
       <c r="B347" t="s">
-        <v>1373</v>
+        <v>1367</v>
       </c>
       <c r="C347">
         <v>2</v>
       </c>
       <c r="D347" t="s">
-        <v>1264</v>
+        <v>1258</v>
       </c>
       <c r="E347">
         <v>1</v>
@@ -21530,22 +21586,22 @@
         <v>2</v>
       </c>
       <c r="J347" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K347" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L347">
         <v>2</v>
       </c>
       <c r="N347" t="s">
-        <v>1369</v>
+        <v>1363</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A4:N347">
-    <cfRule type="containsBlanks" dxfId="66" priority="1">
+    <cfRule type="containsBlanks" dxfId="11" priority="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21581,134 +21637,134 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>1009</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>1011</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>1012</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>1013</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>1014</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>1015</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>1016</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>1017</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>1018</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>1019</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>1035</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>1020</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>1022</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>1023</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="H3" s="8" t="s">
+        <v>1359</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>1024</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="J3" s="8" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>1260</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>1025</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>1026</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>1027</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>1028</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>1365</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>1029</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>1033</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>1034</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>1266</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>1030</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -21734,10 +21790,10 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K4" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N4" t="s">
         <v>879</v>
@@ -21766,10 +21822,10 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="K5" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N5" t="s">
         <v>882</v>
@@ -21798,10 +21854,10 @@
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K6" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N6" t="s">
         <v>885</v>
@@ -21830,10 +21886,10 @@
         <v>3</v>
       </c>
       <c r="J7" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K7" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N7" t="s">
         <v>888</v>
@@ -21862,10 +21918,10 @@
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K8" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N8" t="s">
         <v>891</v>
@@ -21894,10 +21950,10 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K9" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N9" t="s">
         <v>894</v>
@@ -21926,10 +21982,10 @@
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K10" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N10" t="s">
         <v>897</v>
@@ -21958,10 +22014,10 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K11" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N11" t="s">
         <v>900</v>
@@ -21990,10 +22046,10 @@
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K12" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N12" t="s">
         <v>903</v>
@@ -22022,10 +22078,10 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K13" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N13" t="s">
         <v>906</v>
@@ -22054,10 +22110,10 @@
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K14" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N14" t="s">
         <v>909</v>
@@ -22087,10 +22143,10 @@
         <v>3</v>
       </c>
       <c r="J15" s="21" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K15" s="21" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L15" s="21"/>
       <c r="M15" s="19"/>
@@ -22122,10 +22178,10 @@
         <v>3</v>
       </c>
       <c r="J16" s="22" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L16" s="22"/>
       <c r="M16" s="20"/>
@@ -22157,10 +22213,10 @@
         <v>3</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K17" s="22" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L17" s="22"/>
       <c r="M17" s="20"/>
@@ -22192,10 +22248,10 @@
         <v>3</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K18" s="22" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L18" s="22"/>
       <c r="M18" s="20"/>
@@ -22227,10 +22283,10 @@
         <v>3</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K19" s="22" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L19" s="22"/>
       <c r="M19" s="20"/>
@@ -22262,10 +22318,10 @@
         <v>3</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="K20" s="22" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="L20" s="22"/>
       <c r="M20" s="20"/>
@@ -22276,12 +22332,12 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A4:N20">
-    <cfRule type="containsBlanks" dxfId="48" priority="2">
+    <cfRule type="containsBlanks" dxfId="10" priority="2">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:N20">
-    <cfRule type="containsBlanks" dxfId="47" priority="1">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
       <formula>LEN(TRIM(A15))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22296,13 +22352,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N96"/>
+  <dimension ref="A1:N97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H57" sqref="H57"/>
+      <selection pane="bottomRight" activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -22319,134 +22375,134 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>1009</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>1011</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>1012</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>1013</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>1014</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>1015</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>1016</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>1017</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>1018</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>1019</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>1035</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>1020</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1267</v>
+        <v>1261</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>1022</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="G3" s="8" t="s">
         <v>1023</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="H3" s="8" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>1024</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="J3" s="8" t="s">
+        <v>1028</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>1029</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>1260</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>1025</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>1026</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>1027</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>1028</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>1364</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>1029</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>1033</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>1034</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>1266</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>1030</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>1031</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -22475,10 +22531,10 @@
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K4" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N4" t="s">
         <v>911</v>
@@ -22489,13 +22545,13 @@
         <v>22031002</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1184</v>
+        <v>1179</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1173</v>
+        <v>1168</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -22513,10 +22569,10 @@
         <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K5" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N5" t="s">
         <v>912</v>
@@ -22527,13 +22583,13 @@
         <v>22031003</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1185</v>
+        <v>1180</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -22551,10 +22607,10 @@
         <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K6" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N6" t="s">
         <v>913</v>
@@ -22565,13 +22621,13 @@
         <v>22031004</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1186</v>
+        <v>1181</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>1175</v>
+        <v>1170</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -22589,10 +22645,10 @@
         <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="K7" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N7" t="s">
         <v>914</v>
@@ -22603,13 +22659,13 @@
         <v>22031005</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1176</v>
+        <v>1171</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -22627,10 +22683,10 @@
         <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K8" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N8" t="s">
         <v>915</v>
@@ -22641,13 +22697,13 @@
         <v>22031006</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>1188</v>
+        <v>1183</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>1177</v>
+        <v>1172</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -22665,13 +22721,13 @@
         <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K9" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N9" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
@@ -22679,13 +22735,13 @@
         <v>22031007</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>1189</v>
+        <v>1184</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -22703,13 +22759,13 @@
         <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K10" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N10" t="s">
-        <v>1181</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
@@ -22717,13 +22773,13 @@
         <v>22031008</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>1190</v>
+        <v>1185</v>
       </c>
       <c r="C11" s="7">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -22741,13 +22797,13 @@
         <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K11" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N11" t="s">
-        <v>1182</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
@@ -22755,13 +22811,13 @@
         <v>22031011</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1191</v>
+        <v>1186</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -22779,13 +22835,13 @@
         <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K12" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N12" t="s">
-        <v>1197</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
@@ -22793,13 +22849,13 @@
         <v>22031012</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1192</v>
+        <v>1187</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>1195</v>
+        <v>1190</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -22817,13 +22873,13 @@
         <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K13" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N13" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
@@ -22831,13 +22887,13 @@
         <v>22031013</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1193</v>
+        <v>1188</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -22855,13 +22911,13 @@
         <v>16</v>
       </c>
       <c r="J14" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K14" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N14" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
@@ -22869,13 +22925,13 @@
         <v>22031101</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1257</v>
+        <v>1251</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>1341</v>
+        <v>1335</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -22893,13 +22949,13 @@
         <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K15" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N15" t="s">
-        <v>1253</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
@@ -22907,13 +22963,13 @@
         <v>22031102</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1258</v>
+        <v>1252</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>1342</v>
+        <v>1336</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -22931,13 +22987,13 @@
         <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K16" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N16" t="s">
-        <v>1254</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
@@ -22945,13 +23001,13 @@
         <v>22031103</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1259</v>
+        <v>1253</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>1343</v>
+        <v>1337</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -22969,13 +23025,13 @@
         <v>15</v>
       </c>
       <c r="J17" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K17" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N17" t="s">
-        <v>1255</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
@@ -22983,13 +23039,13 @@
         <v>22031104</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1260</v>
+        <v>1254</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>1344</v>
+        <v>1338</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -23007,13 +23063,13 @@
         <v>15</v>
       </c>
       <c r="J18" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K18" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N18" t="s">
-        <v>1256</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
@@ -23027,7 +23083,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>1172</v>
+        <v>1167</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -23045,10 +23101,10 @@
         <v>12</v>
       </c>
       <c r="J19" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K19" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N19" t="s">
         <v>919</v>
@@ -23083,10 +23139,10 @@
         <v>12</v>
       </c>
       <c r="J20" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K20" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N20" t="s">
         <v>922</v>
@@ -23121,10 +23177,10 @@
         <v>12</v>
       </c>
       <c r="J21" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K21" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N21" t="s">
         <v>925</v>
@@ -23135,13 +23191,13 @@
         <v>22031301</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>1248</v>
+        <v>1242</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -23159,10 +23215,10 @@
         <v>15</v>
       </c>
       <c r="J22" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K22" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="M22" s="15"/>
       <c r="N22" t="s">
@@ -23174,13 +23230,13 @@
         <v>22031302</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>1314</v>
+        <v>1308</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -23198,10 +23254,10 @@
         <v>15</v>
       </c>
       <c r="J23" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K23" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="M23" s="15"/>
       <c r="N23" t="s">
@@ -23213,13 +23269,13 @@
         <v>22031303</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1245</v>
+        <v>1239</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>1315</v>
+        <v>1309</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -23237,14 +23293,14 @@
         <v>15</v>
       </c>
       <c r="J24" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K24" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="M24" s="15"/>
       <c r="N24" t="s">
-        <v>1244</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
@@ -23252,13 +23308,13 @@
         <v>22031304</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1251</v>
+        <v>1245</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>1316</v>
+        <v>1310</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -23276,14 +23332,14 @@
         <v>15</v>
       </c>
       <c r="J25" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K25" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="M25" s="15"/>
       <c r="N25" t="s">
-        <v>1252</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
@@ -23291,13 +23347,13 @@
         <v>22031305</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1249</v>
+        <v>1243</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -23315,14 +23371,14 @@
         <v>15</v>
       </c>
       <c r="J26" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K26" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="M26" s="15"/>
       <c r="N26" t="s">
-        <v>1250</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
@@ -23330,13 +23386,13 @@
         <v>22031401</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>1292</v>
+        <v>1286</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>1318</v>
+        <v>1312</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -23354,14 +23410,14 @@
         <v>15</v>
       </c>
       <c r="J27" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K27" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="M27" s="15"/>
       <c r="N27" t="s">
-        <v>1268</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
@@ -23369,13 +23425,13 @@
         <v>22031402</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>1291</v>
+        <v>1285</v>
       </c>
       <c r="C28" s="7">
         <v>1</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>1319</v>
+        <v>1313</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -23393,14 +23449,14 @@
         <v>15</v>
       </c>
       <c r="J28" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K28" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="M28" s="15"/>
       <c r="N28" t="s">
-        <v>1269</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
@@ -23408,13 +23464,13 @@
         <v>22031403</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>1293</v>
+        <v>1287</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -23432,14 +23488,14 @@
         <v>15</v>
       </c>
       <c r="J29" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K29" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" t="s">
-        <v>1270</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
@@ -23447,13 +23503,13 @@
         <v>22031404</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="C30" s="7">
         <v>1</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>1321</v>
+        <v>1315</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -23471,14 +23527,14 @@
         <v>15</v>
       </c>
       <c r="J30" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K30" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="M30" s="15"/>
       <c r="N30" t="s">
-        <v>1271</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
@@ -23486,13 +23542,13 @@
         <v>22031405</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>1295</v>
+        <v>1289</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>1322</v>
+        <v>1316</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -23510,14 +23566,14 @@
         <v>15</v>
       </c>
       <c r="J31" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K31" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="M31" s="15"/>
       <c r="N31" t="s">
-        <v>1272</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
@@ -23525,13 +23581,13 @@
         <v>22031406</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>1296</v>
+        <v>1290</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>1323</v>
+        <v>1317</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -23549,14 +23605,14 @@
         <v>15</v>
       </c>
       <c r="J32" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K32" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="M32" s="15"/>
       <c r="N32" t="s">
-        <v>1273</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
@@ -23564,13 +23620,13 @@
         <v>22031407</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>1297</v>
+        <v>1291</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>1324</v>
+        <v>1318</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -23588,14 +23644,14 @@
         <v>15</v>
       </c>
       <c r="J33" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K33" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="M33" s="15"/>
       <c r="N33" t="s">
-        <v>1274</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
@@ -23603,13 +23659,13 @@
         <v>22031501</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1298</v>
+        <v>1292</v>
       </c>
       <c r="C34" s="7">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>1325</v>
+        <v>1319</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -23627,13 +23683,13 @@
         <v>15</v>
       </c>
       <c r="J34" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K34" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N34" t="s">
-        <v>1275</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
@@ -23641,13 +23697,13 @@
         <v>22031502</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>1326</v>
+        <v>1320</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -23665,13 +23721,13 @@
         <v>15</v>
       </c>
       <c r="J35" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K35" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N35" t="s">
-        <v>1276</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
@@ -23679,13 +23735,13 @@
         <v>22031503</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1300</v>
+        <v>1294</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>1327</v>
+        <v>1321</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -23703,13 +23759,13 @@
         <v>15</v>
       </c>
       <c r="J36" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K36" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N36" t="s">
-        <v>1277</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
@@ -23717,13 +23773,13 @@
         <v>22031504</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1301</v>
+        <v>1295</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>1328</v>
+        <v>1322</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -23741,13 +23797,13 @@
         <v>15</v>
       </c>
       <c r="J37" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K37" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N37" t="s">
-        <v>1278</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
@@ -23755,13 +23811,13 @@
         <v>22031505</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1302</v>
+        <v>1296</v>
       </c>
       <c r="C38" s="7">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>1329</v>
+        <v>1323</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -23779,13 +23835,13 @@
         <v>15</v>
       </c>
       <c r="J38" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K38" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N38" t="s">
-        <v>1279</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
@@ -23793,13 +23849,13 @@
         <v>22031506</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1303</v>
+        <v>1297</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>1330</v>
+        <v>1324</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -23817,13 +23873,13 @@
         <v>15</v>
       </c>
       <c r="J39" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K39" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N39" t="s">
-        <v>1280</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
@@ -23831,13 +23887,13 @@
         <v>22031507</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1304</v>
+        <v>1298</v>
       </c>
       <c r="C40" s="7">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>1331</v>
+        <v>1325</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -23855,13 +23911,13 @@
         <v>15</v>
       </c>
       <c r="J40" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K40" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N40" t="s">
-        <v>1281</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
@@ -23869,13 +23925,13 @@
         <v>22031508</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1305</v>
+        <v>1299</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>1332</v>
+        <v>1326</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -23893,13 +23949,13 @@
         <v>15</v>
       </c>
       <c r="J41" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K41" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N41" t="s">
-        <v>1282</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
@@ -23907,13 +23963,13 @@
         <v>22031509</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1306</v>
+        <v>1300</v>
       </c>
       <c r="C42" s="7">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>1333</v>
+        <v>1327</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -23931,13 +23987,13 @@
         <v>15</v>
       </c>
       <c r="J42" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K42" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N42" t="s">
-        <v>1283</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
@@ -23945,13 +24001,13 @@
         <v>22031510</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>1307</v>
+        <v>1301</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -23969,13 +24025,13 @@
         <v>15</v>
       </c>
       <c r="J43" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K43" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N43" t="s">
-        <v>1284</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
@@ -23983,13 +24039,13 @@
         <v>22031511</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>1308</v>
+        <v>1302</v>
       </c>
       <c r="C44" s="7">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>1335</v>
+        <v>1329</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -24007,13 +24063,13 @@
         <v>15</v>
       </c>
       <c r="J44" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K44" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N44" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
@@ -24021,13 +24077,13 @@
         <v>22031512</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>1309</v>
+        <v>1303</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>1336</v>
+        <v>1330</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -24045,13 +24101,13 @@
         <v>15</v>
       </c>
       <c r="J45" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K45" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N45" t="s">
-        <v>1286</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
@@ -24059,13 +24115,13 @@
         <v>22031513</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>1310</v>
+        <v>1304</v>
       </c>
       <c r="C46" s="7">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>1337</v>
+        <v>1331</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -24083,13 +24139,13 @@
         <v>15</v>
       </c>
       <c r="J46" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K46" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N46" t="s">
-        <v>1287</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
@@ -24097,13 +24153,13 @@
         <v>22031514</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>1311</v>
+        <v>1305</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>1338</v>
+        <v>1332</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -24121,13 +24177,13 @@
         <v>15</v>
       </c>
       <c r="J47" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K47" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N47" t="s">
-        <v>1288</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
@@ -24135,13 +24191,13 @@
         <v>22031515</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>1312</v>
+        <v>1306</v>
       </c>
       <c r="C48" s="7">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>1339</v>
+        <v>1333</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -24159,13 +24215,13 @@
         <v>15</v>
       </c>
       <c r="J48" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K48" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N48" t="s">
-        <v>1289</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
@@ -24173,13 +24229,13 @@
         <v>22031516</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>1313</v>
+        <v>1307</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>1340</v>
+        <v>1334</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -24197,13 +24253,13 @@
         <v>15</v>
       </c>
       <c r="J49" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K49" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="N49" t="s">
-        <v>1290</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.15">
@@ -24217,7 +24273,7 @@
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -24232,10 +24288,10 @@
         <v>13</v>
       </c>
       <c r="J50" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K50" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="N50" t="s">
         <v>927</v>
@@ -24252,7 +24308,7 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -24267,10 +24323,10 @@
         <v>13</v>
       </c>
       <c r="J51" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K51" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="N51" t="s">
         <v>929</v>
@@ -24287,7 +24343,7 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -24302,10 +24358,10 @@
         <v>13</v>
       </c>
       <c r="J52" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K52" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="N52" t="s">
         <v>931</v>
@@ -24322,7 +24378,7 @@
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -24337,10 +24393,10 @@
         <v>13</v>
       </c>
       <c r="J53" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K53" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="N53" t="s">
         <v>933</v>
@@ -24357,7 +24413,7 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -24372,10 +24428,10 @@
         <v>13</v>
       </c>
       <c r="J54" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K54" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="N54" t="s">
         <v>935</v>
@@ -24392,7 +24448,7 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -24407,10 +24463,10 @@
         <v>13</v>
       </c>
       <c r="J55" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K55" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="N55" t="s">
         <v>937</v>
@@ -24427,7 +24483,7 @@
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -24442,10 +24498,10 @@
         <v>13</v>
       </c>
       <c r="J56" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K56" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="N56" t="s">
         <v>939</v>
@@ -24456,13 +24512,13 @@
         <v>22032008</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="C57" s="7">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -24477,13 +24533,13 @@
         <v>13</v>
       </c>
       <c r="J57" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K57" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="N57" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.15">
@@ -24497,7 +24553,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>1212</v>
+        <v>1206</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -24515,10 +24571,10 @@
         <v>11</v>
       </c>
       <c r="J58" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K58" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="M58">
         <v>2</v>
@@ -24538,7 +24594,7 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -24556,10 +24612,10 @@
         <v>11</v>
       </c>
       <c r="J59" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="K59" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="M59">
         <v>2</v>
@@ -24579,7 +24635,7 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>1214</v>
+        <v>1208</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -24597,10 +24653,10 @@
         <v>11</v>
       </c>
       <c r="J60" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K60" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="M60">
         <v>2</v>
@@ -24620,7 +24676,7 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>1215</v>
+        <v>1209</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -24638,16 +24694,16 @@
         <v>11</v>
       </c>
       <c r="J61" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K61" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="M61">
         <v>3</v>
       </c>
       <c r="N61" t="s">
-        <v>1206</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.15">
@@ -24661,7 +24717,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>1216</v>
+        <v>1210</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -24679,16 +24735,16 @@
         <v>11</v>
       </c>
       <c r="J62" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K62" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="M62">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>1207</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.15">
@@ -24702,7 +24758,7 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>1217</v>
+        <v>1211</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -24720,16 +24776,16 @@
         <v>11</v>
       </c>
       <c r="J63" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K63" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="M63">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>1208</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.15">
@@ -24737,13 +24793,13 @@
         <v>22033007</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1209</v>
+        <v>1203</v>
       </c>
       <c r="C64" s="7">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>1218</v>
+        <v>1212</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -24761,10 +24817,10 @@
         <v>11</v>
       </c>
       <c r="J64" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K64" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="M64">
         <v>1</v>
@@ -24778,13 +24834,13 @@
         <v>22033008</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1210</v>
+        <v>1204</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>1219</v>
+        <v>1213</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -24802,10 +24858,10 @@
         <v>11</v>
       </c>
       <c r="J65" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K65" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="M65">
         <v>1</v>
@@ -24819,13 +24875,13 @@
         <v>22033009</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="C66" s="7">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>1220</v>
+        <v>1214</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -24843,10 +24899,10 @@
         <v>11</v>
       </c>
       <c r="J66" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K66" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="M66">
         <v>1</v>
@@ -24860,13 +24916,13 @@
         <v>22033013</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="C67" s="7">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>1221</v>
+        <v>1215</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -24884,10 +24940,10 @@
         <v>11</v>
       </c>
       <c r="J67" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K67" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="M67">
         <v>1</v>
@@ -24907,7 +24963,7 @@
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>1222</v>
+        <v>1216</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -24925,10 +24981,10 @@
         <v>11</v>
       </c>
       <c r="J68" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K68" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="M68">
         <v>4</v>
@@ -24948,7 +25004,7 @@
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>1223</v>
+        <v>1217</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -24966,10 +25022,10 @@
         <v>11</v>
       </c>
       <c r="J69" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K69" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="M69">
         <v>4</v>
@@ -24989,7 +25045,7 @@
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>1224</v>
+        <v>1218</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -25007,10 +25063,10 @@
         <v>11</v>
       </c>
       <c r="J70" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="K70" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="M70">
         <v>4</v>
@@ -25030,7 +25086,7 @@
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>1225</v>
+        <v>1219</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -25048,10 +25104,10 @@
         <v>11</v>
       </c>
       <c r="J71" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K71" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="M71">
         <v>4</v>
@@ -25071,7 +25127,7 @@
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>1226</v>
+        <v>1220</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -25089,10 +25145,10 @@
         <v>11</v>
       </c>
       <c r="J72" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K72" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="M72">
         <v>4</v>
@@ -25106,13 +25162,13 @@
         <v>22033030</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="C73" s="7">
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -25130,16 +25186,16 @@
         <v>11</v>
       </c>
       <c r="J73" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K73" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="M73">
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>1236</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.15">
@@ -25147,13 +25203,13 @@
         <v>22033031</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="C74" s="7">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>1234</v>
+        <v>1228</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -25171,16 +25227,16 @@
         <v>11</v>
       </c>
       <c r="J74" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K74" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="M74">
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.15">
@@ -25188,13 +25244,13 @@
         <v>22033032</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="C75" s="7">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>1235</v>
+        <v>1229</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -25212,16 +25268,16 @@
         <v>11</v>
       </c>
       <c r="J75" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K75" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="M75">
         <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.15">
@@ -25235,7 +25291,7 @@
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -25253,10 +25309,10 @@
         <v>13</v>
       </c>
       <c r="J76" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="K76" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="N76" t="s">
         <v>963</v>
@@ -25273,7 +25329,7 @@
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -25291,10 +25347,10 @@
         <v>13</v>
       </c>
       <c r="J77" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K77" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="N77" t="s">
         <v>965</v>
@@ -25305,13 +25361,13 @@
         <v>22034003</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="C78" s="7">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -25329,10 +25385,10 @@
         <v>11</v>
       </c>
       <c r="J78" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K78" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="M78">
         <v>4</v>
@@ -25352,7 +25408,7 @@
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>1227</v>
+        <v>1221</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -25370,10 +25426,10 @@
         <v>11</v>
       </c>
       <c r="J79" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K79" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="M79">
         <v>4</v>
@@ -25393,7 +25449,7 @@
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>1228</v>
+        <v>1222</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -25411,10 +25467,10 @@
         <v>11</v>
       </c>
       <c r="J80" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K80" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="M80">
         <v>4</v>
@@ -25434,7 +25490,7 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>1229</v>
+        <v>1223</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -25452,10 +25508,10 @@
         <v>11</v>
       </c>
       <c r="J81" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K81" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="M81">
         <v>4</v>
@@ -25475,7 +25531,7 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>1230</v>
+        <v>1224</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -25493,10 +25549,10 @@
         <v>11</v>
       </c>
       <c r="J82" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K82" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="M82">
         <v>4</v>
@@ -25516,7 +25572,7 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>1231</v>
+        <v>1225</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -25534,10 +25590,10 @@
         <v>11</v>
       </c>
       <c r="J83" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K83" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="M83">
         <v>4</v>
@@ -25551,13 +25607,13 @@
         <v>22034009</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>1205</v>
+        <v>1199</v>
       </c>
       <c r="C84" s="7">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>1232</v>
+        <v>1226</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -25575,10 +25631,10 @@
         <v>11</v>
       </c>
       <c r="J84" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K84" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="M84">
         <v>4</v>
@@ -25592,13 +25648,13 @@
         <v>22034010</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>1204</v>
+        <v>1381</v>
       </c>
       <c r="C85" s="7">
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>978</v>
+        <v>1375</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -25613,19 +25669,19 @@
         <v>200</v>
       </c>
       <c r="I85">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J85" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K85" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="M85">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>979</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.15">
@@ -25633,19 +25689,19 @@
         <v>22034011</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>980</v>
+        <v>1382</v>
       </c>
       <c r="C86" s="7">
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>981</v>
+        <v>1376</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G86">
         <v>99</v>
@@ -25657,33 +25713,33 @@
         <v>13</v>
       </c>
       <c r="J86" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K86" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="N86" t="s">
-        <v>982</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A87">
-        <v>22035001</v>
+        <v>22034012</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>983</v>
+        <v>1383</v>
       </c>
       <c r="C87" s="7">
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>1183</v>
+        <v>1377</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
       <c r="F87">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G87">
         <v>99</v>
@@ -25692,36 +25748,36 @@
         <v>200</v>
       </c>
       <c r="I87">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J87" t="s">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="K87" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="N87" t="s">
-        <v>984</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A88">
-        <v>22035002</v>
+        <v>22035001</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="C88" s="7">
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
       <c r="F88">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G88">
         <v>99</v>
@@ -25733,33 +25789,33 @@
         <v>16</v>
       </c>
       <c r="J88" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="K88" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="N88" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A89">
-        <v>22035003</v>
+        <v>22035002</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C89" s="7">
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>1183</v>
+        <v>1178</v>
       </c>
       <c r="E89">
         <v>1</v>
       </c>
       <c r="F89">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G89">
         <v>99</v>
@@ -25771,62 +25827,65 @@
         <v>16</v>
       </c>
       <c r="J89" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K89" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="N89" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A90">
-        <v>22037001</v>
+        <v>22035003</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="C90" s="7">
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>990</v>
+        <v>1178</v>
       </c>
       <c r="E90">
         <v>1</v>
       </c>
+      <c r="F90">
+        <v>6</v>
+      </c>
       <c r="G90">
         <v>99</v>
       </c>
       <c r="H90">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="I90">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J90" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K90" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="N90" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A91">
-        <v>22037002</v>
+        <v>22037001</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>1246</v>
+        <v>984</v>
       </c>
       <c r="C91" s="7">
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -25841,27 +25900,27 @@
         <v>17</v>
       </c>
       <c r="J91" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K91" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="N91" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A92">
-        <v>22037003</v>
+        <v>22037002</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>994</v>
+        <v>1240</v>
       </c>
       <c r="C92" s="7">
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -25876,27 +25935,27 @@
         <v>17</v>
       </c>
       <c r="J92" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K92" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="N92" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A93">
-        <v>22037004</v>
+        <v>22037003</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C93" s="7">
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -25911,27 +25970,27 @@
         <v>17</v>
       </c>
       <c r="J93" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="K93" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="N93" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A94">
-        <v>22037101</v>
+        <v>22037004</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="C94" s="7">
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -25943,30 +26002,30 @@
         <v>50</v>
       </c>
       <c r="I94">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J94" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="K94" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="N94" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A95">
-        <v>22037102</v>
+        <v>22037101</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>1247</v>
+        <v>995</v>
       </c>
       <c r="C95" s="7">
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -25981,27 +26040,27 @@
         <v>13</v>
       </c>
       <c r="J95" t="s">
-        <v>1037</v>
+        <v>1039</v>
       </c>
       <c r="K95" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="N95" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A96">
-        <v>22037103</v>
+        <v>22037102</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>1005</v>
+        <v>1241</v>
       </c>
       <c r="C96" s="7">
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>1242</v>
+        <v>998</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -26013,31 +26072,71 @@
         <v>50</v>
       </c>
       <c r="I96">
+        <v>13</v>
+      </c>
+      <c r="J96" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K96" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N96" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A97">
+        <v>22037103</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C97" s="7">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>99</v>
+      </c>
+      <c r="H97">
+        <v>50</v>
+      </c>
+      <c r="I97">
         <v>11</v>
       </c>
-      <c r="J96" t="s">
-        <v>1037</v>
-      </c>
-      <c r="K96" t="s">
-        <v>1037</v>
-      </c>
-      <c r="M96">
-        <v>1</v>
-      </c>
-      <c r="N96" t="s">
-        <v>1006</v>
+      <c r="J97" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K97" t="s">
+        <v>1032</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s">
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="D4:N7 D8:K11 M8:N11 L8:L96 M15:N96 D15:K96 H5:H89">
-    <cfRule type="containsBlanks" dxfId="29" priority="2">
+  <conditionalFormatting sqref="D4:N7 D8:K11 M8:N11 L8:L86 M15:N86 D15:K84 H5:H86 D88:N97 J87:N87 J85:K86 D85:H87">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:K14 M12:N14">
-    <cfRule type="containsBlanks" dxfId="28" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(D12))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I85:I87">
+    <cfRule type="containsBlanks" dxfId="5" priority="1">
+      <formula>LEN(TRIM(I85))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ConfigData/Xlsx/HItem.xlsx
+++ b/ConfigData/Xlsx/HItem.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="任务" sheetId="3" r:id="rId2"/>
     <sheet name="其他" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="1384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2406" uniqueCount="1387">
   <si>
     <t>血蓟</t>
   </si>
@@ -4617,13 +4617,25 @@
   </si>
   <si>
     <t>蓝色胶囊</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuwen2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文-卡斯</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后可以看到本场景的所有事件</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5471,49 +5483,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="63">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="57">
     <dxf>
       <fill>
         <patternFill>
@@ -6869,74 +6839,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -6949,92 +6851,92 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:N347" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" tableBorderDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:N347" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" tableBorderDxfId="54">
   <autoFilter ref="A3:N347"/>
   <sortState ref="A4:N342">
     <sortCondition ref="A3:A342"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="59"/>
-    <tableColumn id="2" name="Name" dataDxfId="58"/>
-    <tableColumn id="3" name="Type" dataDxfId="57"/>
-    <tableColumn id="4" name="Descript" dataDxfId="56"/>
-    <tableColumn id="5" name="Level" dataDxfId="55"/>
-    <tableColumn id="6" name="Rare" dataDxfId="54"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="53"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="52"/>
-    <tableColumn id="9" name="SubType" dataDxfId="51"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="50"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="49"/>
-    <tableColumn id="15" name="RandomGroup" dataDxfId="48"/>
-    <tableColumn id="13" name="CdGroup" dataDxfId="47"/>
-    <tableColumn id="14" name="Url" dataDxfId="46"/>
+    <tableColumn id="1" name="Id" dataDxfId="53"/>
+    <tableColumn id="2" name="Name" dataDxfId="52"/>
+    <tableColumn id="3" name="Type" dataDxfId="51"/>
+    <tableColumn id="4" name="Descript" dataDxfId="50"/>
+    <tableColumn id="5" name="Level" dataDxfId="49"/>
+    <tableColumn id="6" name="Rare" dataDxfId="48"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="47"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="46"/>
+    <tableColumn id="9" name="SubType" dataDxfId="45"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="44"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="43"/>
+    <tableColumn id="15" name="RandomGroup" dataDxfId="42"/>
+    <tableColumn id="13" name="CdGroup" dataDxfId="41"/>
+    <tableColumn id="14" name="Url" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:N20" totalsRowShown="0" headerRowDxfId="45" dataDxfId="44" tableBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:N20" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" tableBorderDxfId="37">
   <autoFilter ref="A3:N20"/>
   <sortState ref="A4:O435">
     <sortCondition ref="A3:A435"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="42"/>
-    <tableColumn id="2" name="Name" dataDxfId="41"/>
-    <tableColumn id="3" name="Type" dataDxfId="40"/>
-    <tableColumn id="4" name="Descript" dataDxfId="39"/>
-    <tableColumn id="5" name="Level" dataDxfId="38"/>
-    <tableColumn id="6" name="Rare" dataDxfId="37"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="36"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="35"/>
-    <tableColumn id="9" name="SubType" dataDxfId="34"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="33"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="32"/>
-    <tableColumn id="15" name="RandomGroup" dataDxfId="31"/>
-    <tableColumn id="13" name="CdGroup" dataDxfId="30"/>
-    <tableColumn id="14" name="Url" dataDxfId="29"/>
+    <tableColumn id="1" name="Id" dataDxfId="36"/>
+    <tableColumn id="2" name="Name" dataDxfId="35"/>
+    <tableColumn id="3" name="Type" dataDxfId="34"/>
+    <tableColumn id="4" name="Descript" dataDxfId="33"/>
+    <tableColumn id="5" name="Level" dataDxfId="32"/>
+    <tableColumn id="6" name="Rare" dataDxfId="31"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="30"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="29"/>
+    <tableColumn id="9" name="SubType" dataDxfId="28"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="27"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="26"/>
+    <tableColumn id="15" name="RandomGroup" dataDxfId="25"/>
+    <tableColumn id="13" name="CdGroup" dataDxfId="24"/>
+    <tableColumn id="14" name="Url" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:N97" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" tableBorderDxfId="26">
-  <autoFilter ref="A3:N97"/>
-  <sortState ref="A4:N96">
-    <sortCondition ref="A3:A96"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:N98" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20">
+  <autoFilter ref="A3:N98"/>
+  <sortState ref="A4:N97">
+    <sortCondition ref="A3:A97"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="25"/>
-    <tableColumn id="2" name="Name" dataDxfId="24"/>
-    <tableColumn id="3" name="Type" dataDxfId="23"/>
-    <tableColumn id="4" name="Descript" dataDxfId="22"/>
-    <tableColumn id="5" name="Level" dataDxfId="21"/>
-    <tableColumn id="6" name="Rare" dataDxfId="20"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="19"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="18"/>
-    <tableColumn id="9" name="SubType" dataDxfId="17"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="16"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="15"/>
-    <tableColumn id="15" name="RandomGroup" dataDxfId="14"/>
-    <tableColumn id="13" name="CdGroup" dataDxfId="13"/>
-    <tableColumn id="14" name="Url" dataDxfId="12"/>
+    <tableColumn id="1" name="Id" dataDxfId="19"/>
+    <tableColumn id="2" name="Name" dataDxfId="18"/>
+    <tableColumn id="3" name="Type" dataDxfId="17"/>
+    <tableColumn id="4" name="Descript" dataDxfId="16"/>
+    <tableColumn id="5" name="Level" dataDxfId="15"/>
+    <tableColumn id="6" name="Rare" dataDxfId="14"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="13"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="12"/>
+    <tableColumn id="9" name="SubType" dataDxfId="11"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="10"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="9"/>
+    <tableColumn id="15" name="RandomGroup" dataDxfId="8"/>
+    <tableColumn id="13" name="CdGroup" dataDxfId="7"/>
+    <tableColumn id="14" name="Url" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CAEACD"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -7102,6 +7004,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7137,6 +7056,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -21601,7 +21537,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A4:N347">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="5" priority="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22332,12 +22268,12 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A4:N20">
-    <cfRule type="containsBlanks" dxfId="10" priority="2">
+    <cfRule type="containsBlanks" dxfId="4" priority="2">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:N20">
-    <cfRule type="containsBlanks" dxfId="9" priority="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(A15))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22352,13 +22288,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F87" sqref="F87"/>
+      <selection pane="bottomRight" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -25159,22 +25095,22 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>22033030</v>
+        <v>22033019</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>1233</v>
+        <v>1385</v>
       </c>
       <c r="C73" s="7">
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>1227</v>
+        <v>1386</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="F73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G73">
         <v>99</v>
@@ -25183,7 +25119,7 @@
         <v>200</v>
       </c>
       <c r="I73">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J73" t="s">
         <v>1032</v>
@@ -25191,31 +25127,28 @@
       <c r="K73" t="s">
         <v>1032</v>
       </c>
-      <c r="M73">
-        <v>1</v>
-      </c>
       <c r="N73" t="s">
-        <v>1230</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>22033031</v>
+        <v>22033030</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="C74" s="7">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G74">
         <v>99</v>
@@ -25236,27 +25169,27 @@
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A75">
-        <v>22033032</v>
+        <v>22033031</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="C75" s="7">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G75">
         <v>99</v>
@@ -25277,27 +25210,27 @@
         <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>22034001</v>
+        <v>22033032</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>962</v>
+        <v>1235</v>
       </c>
       <c r="C76" s="7">
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>1195</v>
+        <v>1229</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="F76">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G76">
         <v>99</v>
@@ -25306,36 +25239,39 @@
         <v>200</v>
       </c>
       <c r="I76">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J76" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="K76" t="s">
         <v>1032</v>
       </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
       <c r="N76" t="s">
-        <v>963</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>22034002</v>
+        <v>22034001</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C77" s="7">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G77">
         <v>99</v>
@@ -25347,33 +25283,33 @@
         <v>13</v>
       </c>
       <c r="J77" t="s">
-        <v>1032</v>
+        <v>1039</v>
       </c>
       <c r="K77" t="s">
         <v>1032</v>
       </c>
       <c r="N77" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>22034003</v>
+        <v>22034002</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>1198</v>
+        <v>964</v>
       </c>
       <c r="C78" s="7">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="E78">
         <v>1</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G78">
         <v>99</v>
@@ -25382,7 +25318,7 @@
         <v>200</v>
       </c>
       <c r="I78">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J78" t="s">
         <v>1032</v>
@@ -25390,25 +25326,22 @@
       <c r="K78" t="s">
         <v>1032</v>
       </c>
-      <c r="M78">
-        <v>4</v>
-      </c>
       <c r="N78" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>22034004</v>
+        <v>22034003</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>967</v>
+        <v>1198</v>
       </c>
       <c r="C79" s="7">
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>1221</v>
+        <v>1197</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -25435,21 +25368,21 @@
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A80">
-        <v>22034005</v>
+        <v>22034004</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C80" s="7">
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -25476,21 +25409,21 @@
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A81">
-        <v>22034006</v>
+        <v>22034005</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C81" s="7">
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -25517,21 +25450,21 @@
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A82">
-        <v>22034007</v>
+        <v>22034006</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C82" s="7">
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -25558,21 +25491,21 @@
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A83">
-        <v>22034008</v>
+        <v>22034007</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C83" s="7">
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -25599,21 +25532,21 @@
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A84">
-        <v>22034009</v>
+        <v>22034008</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>1199</v>
+        <v>975</v>
       </c>
       <c r="C84" s="7">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -25640,21 +25573,21 @@
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A85">
-        <v>22034010</v>
+        <v>22034009</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>1381</v>
+        <v>1199</v>
       </c>
       <c r="C85" s="7">
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>1375</v>
+        <v>1226</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -25669,7 +25602,7 @@
         <v>200</v>
       </c>
       <c r="I85">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J85" t="s">
         <v>1032</v>
@@ -25681,21 +25614,21 @@
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>1378</v>
+        <v>977</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A86">
-        <v>22034011</v>
+        <v>22034010</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="C86" s="7">
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -25718,22 +25651,25 @@
       <c r="K86" t="s">
         <v>1032</v>
       </c>
+      <c r="M86">
+        <v>4</v>
+      </c>
       <c r="N86" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A87">
-        <v>22034012</v>
+        <v>22034011</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="C87" s="7">
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -25757,27 +25693,27 @@
         <v>1032</v>
       </c>
       <c r="N87" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A88">
-        <v>22035001</v>
+        <v>22034012</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>978</v>
+        <v>1383</v>
       </c>
       <c r="C88" s="7">
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>1178</v>
+        <v>1377</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
       <c r="F88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G88">
         <v>99</v>
@@ -25786,24 +25722,24 @@
         <v>200</v>
       </c>
       <c r="I88">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J88" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="K88" t="s">
         <v>1032</v>
       </c>
       <c r="N88" t="s">
-        <v>979</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A89">
-        <v>22035002</v>
+        <v>22035001</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C89" s="7">
         <v>1</v>
@@ -25815,7 +25751,7 @@
         <v>1</v>
       </c>
       <c r="F89">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G89">
         <v>99</v>
@@ -25827,21 +25763,21 @@
         <v>16</v>
       </c>
       <c r="J89" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="K89" t="s">
         <v>1032</v>
       </c>
       <c r="N89" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A90">
-        <v>22035003</v>
+        <v>22035002</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="C90" s="7">
         <v>1</v>
@@ -25853,7 +25789,7 @@
         <v>1</v>
       </c>
       <c r="F90">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G90">
         <v>99</v>
@@ -25871,33 +25807,36 @@
         <v>1032</v>
       </c>
       <c r="N90" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A91">
-        <v>22037001</v>
+        <v>22035003</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="C91" s="7">
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>985</v>
+        <v>1178</v>
       </c>
       <c r="E91">
         <v>1</v>
       </c>
+      <c r="F91">
+        <v>6</v>
+      </c>
       <c r="G91">
         <v>99</v>
       </c>
       <c r="H91">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="I91">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J91" t="s">
         <v>1032</v>
@@ -25906,21 +25845,21 @@
         <v>1032</v>
       </c>
       <c r="N91" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A92">
-        <v>22037002</v>
+        <v>22037001</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>1240</v>
+        <v>984</v>
       </c>
       <c r="C92" s="7">
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -25941,21 +25880,21 @@
         <v>1032</v>
       </c>
       <c r="N92" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A93">
-        <v>22037003</v>
+        <v>22037002</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>989</v>
+        <v>1240</v>
       </c>
       <c r="C93" s="7">
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -25976,21 +25915,21 @@
         <v>1032</v>
       </c>
       <c r="N93" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A94">
-        <v>22037004</v>
+        <v>22037003</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C94" s="7">
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -26011,21 +25950,21 @@
         <v>1032</v>
       </c>
       <c r="N94" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A95">
-        <v>22037101</v>
+        <v>22037004</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C95" s="7">
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -26037,30 +25976,30 @@
         <v>50</v>
       </c>
       <c r="I95">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J95" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="K95" t="s">
         <v>1032</v>
       </c>
       <c r="N95" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A96">
-        <v>22037102</v>
+        <v>22037101</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>1241</v>
+        <v>995</v>
       </c>
       <c r="C96" s="7">
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -26075,27 +26014,27 @@
         <v>13</v>
       </c>
       <c r="J96" t="s">
-        <v>1032</v>
+        <v>1039</v>
       </c>
       <c r="K96" t="s">
         <v>1032</v>
       </c>
       <c r="N96" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A97">
-        <v>22037103</v>
+        <v>22037102</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>1000</v>
+        <v>1241</v>
       </c>
       <c r="C97" s="7">
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>1236</v>
+        <v>998</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -26107,36 +26046,71 @@
         <v>50</v>
       </c>
       <c r="I97">
+        <v>13</v>
+      </c>
+      <c r="J97" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K97" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N97" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A98">
+        <v>22037103</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C98" s="7">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>99</v>
+      </c>
+      <c r="H98">
+        <v>50</v>
+      </c>
+      <c r="I98">
         <v>11</v>
       </c>
-      <c r="J97" t="s">
-        <v>1032</v>
-      </c>
-      <c r="K97" t="s">
-        <v>1032</v>
-      </c>
-      <c r="M97">
-        <v>1</v>
-      </c>
-      <c r="N97" t="s">
+      <c r="J98" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K98" t="s">
+        <v>1032</v>
+      </c>
+      <c r="M98">
+        <v>1</v>
+      </c>
+      <c r="N98" t="s">
         <v>1001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="D4:N7 D8:K11 M8:N11 L8:L86 M15:N86 D15:K84 H5:H86 D88:N97 J87:N87 J85:K86 D85:H87">
-    <cfRule type="containsBlanks" dxfId="8" priority="3">
+  <conditionalFormatting sqref="D4:N7 D8:K11 M8:N11 D89:N98 J88:N88 J86:K87 D86:H88 L8:L72 M15:N72 D15:K72 H5:H72 D74:K85 H74:H87 L74:N87 D73:N73">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:K14 M12:N14">
-    <cfRule type="containsBlanks" dxfId="7" priority="2">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I85:I87">
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
-      <formula>LEN(TRIM(I85))=0</formula>
+  <conditionalFormatting sqref="I86:I88">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(I86))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ConfigData/Xlsx/HItem.xlsx
+++ b/ConfigData/Xlsx/HItem.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TOMClassic\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4620,15 +4620,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>fuwen2</t>
+    <t>使用后可以看到本场景的所有事件</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>符文-卡斯</t>
+    <t>水晶球</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>使用后可以看到本场景的所有事件</t>
+    <t>shuijingqiu</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -5485,48 +5485,6 @@
   </cellStyles>
   <dxfs count="57">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -5960,6 +5918,27 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="3" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6401,6 +6380,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -6837,6 +6830,13 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -6851,78 +6851,78 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:N347" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" tableBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:N347" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" tableBorderDxfId="53">
   <autoFilter ref="A3:N347"/>
   <sortState ref="A4:N342">
     <sortCondition ref="A3:A342"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="53"/>
-    <tableColumn id="2" name="Name" dataDxfId="52"/>
-    <tableColumn id="3" name="Type" dataDxfId="51"/>
-    <tableColumn id="4" name="Descript" dataDxfId="50"/>
-    <tableColumn id="5" name="Level" dataDxfId="49"/>
-    <tableColumn id="6" name="Rare" dataDxfId="48"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="47"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="46"/>
-    <tableColumn id="9" name="SubType" dataDxfId="45"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="44"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="43"/>
-    <tableColumn id="15" name="RandomGroup" dataDxfId="42"/>
-    <tableColumn id="13" name="CdGroup" dataDxfId="41"/>
-    <tableColumn id="14" name="Url" dataDxfId="40"/>
+    <tableColumn id="1" name="Id" dataDxfId="52"/>
+    <tableColumn id="2" name="Name" dataDxfId="51"/>
+    <tableColumn id="3" name="Type" dataDxfId="50"/>
+    <tableColumn id="4" name="Descript" dataDxfId="49"/>
+    <tableColumn id="5" name="Level" dataDxfId="48"/>
+    <tableColumn id="6" name="Rare" dataDxfId="47"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="46"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="45"/>
+    <tableColumn id="9" name="SubType" dataDxfId="44"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="43"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="42"/>
+    <tableColumn id="15" name="RandomGroup" dataDxfId="41"/>
+    <tableColumn id="13" name="CdGroup" dataDxfId="40"/>
+    <tableColumn id="14" name="Url" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:N20" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38" tableBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:N20" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" tableBorderDxfId="34">
   <autoFilter ref="A3:N20"/>
   <sortState ref="A4:O435">
     <sortCondition ref="A3:A435"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="36"/>
-    <tableColumn id="2" name="Name" dataDxfId="35"/>
-    <tableColumn id="3" name="Type" dataDxfId="34"/>
-    <tableColumn id="4" name="Descript" dataDxfId="33"/>
-    <tableColumn id="5" name="Level" dataDxfId="32"/>
-    <tableColumn id="6" name="Rare" dataDxfId="31"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="30"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="29"/>
-    <tableColumn id="9" name="SubType" dataDxfId="28"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="27"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="26"/>
-    <tableColumn id="15" name="RandomGroup" dataDxfId="25"/>
-    <tableColumn id="13" name="CdGroup" dataDxfId="24"/>
-    <tableColumn id="14" name="Url" dataDxfId="23"/>
+    <tableColumn id="1" name="Id" dataDxfId="33"/>
+    <tableColumn id="2" name="Name" dataDxfId="32"/>
+    <tableColumn id="3" name="Type" dataDxfId="31"/>
+    <tableColumn id="4" name="Descript" dataDxfId="30"/>
+    <tableColumn id="5" name="Level" dataDxfId="29"/>
+    <tableColumn id="6" name="Rare" dataDxfId="28"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="27"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="26"/>
+    <tableColumn id="9" name="SubType" dataDxfId="25"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="24"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="23"/>
+    <tableColumn id="15" name="RandomGroup" dataDxfId="22"/>
+    <tableColumn id="13" name="CdGroup" dataDxfId="21"/>
+    <tableColumn id="14" name="Url" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:N98" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" tableBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:N98" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="A3:N98"/>
-  <sortState ref="A4:N97">
-    <sortCondition ref="A3:A97"/>
+  <sortState ref="A4:N98">
+    <sortCondition ref="A3:A98"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="19"/>
-    <tableColumn id="2" name="Name" dataDxfId="18"/>
-    <tableColumn id="3" name="Type" dataDxfId="17"/>
-    <tableColumn id="4" name="Descript" dataDxfId="16"/>
-    <tableColumn id="5" name="Level" dataDxfId="15"/>
-    <tableColumn id="6" name="Rare" dataDxfId="14"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="13"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="12"/>
-    <tableColumn id="9" name="SubType" dataDxfId="11"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="10"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="9"/>
-    <tableColumn id="15" name="RandomGroup" dataDxfId="8"/>
-    <tableColumn id="13" name="CdGroup" dataDxfId="7"/>
-    <tableColumn id="14" name="Url" dataDxfId="6"/>
+    <tableColumn id="1" name="Id" dataDxfId="13"/>
+    <tableColumn id="2" name="Name" dataDxfId="12"/>
+    <tableColumn id="3" name="Type" dataDxfId="11"/>
+    <tableColumn id="4" name="Descript" dataDxfId="10"/>
+    <tableColumn id="5" name="Level" dataDxfId="9"/>
+    <tableColumn id="6" name="Rare" dataDxfId="8"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="7"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="6"/>
+    <tableColumn id="9" name="SubType" dataDxfId="5"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="4"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="3"/>
+    <tableColumn id="15" name="RandomGroup" dataDxfId="2"/>
+    <tableColumn id="13" name="CdGroup" dataDxfId="1"/>
+    <tableColumn id="14" name="Url" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -21537,7 +21537,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A4:N347">
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
+    <cfRule type="containsBlanks" dxfId="56" priority="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22268,12 +22268,12 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A4:N20">
-    <cfRule type="containsBlanks" dxfId="4" priority="2">
+    <cfRule type="containsBlanks" dxfId="38" priority="2">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:N20">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
+    <cfRule type="containsBlanks" dxfId="37" priority="1">
       <formula>LEN(TRIM(A15))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22291,10 +22291,10 @@
   <dimension ref="A1:N98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D73" sqref="D73"/>
+      <selection pane="bottomRight" activeCell="N88" sqref="N88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -25095,22 +25095,22 @@
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>22033019</v>
+        <v>22033030</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>1385</v>
+        <v>1233</v>
       </c>
       <c r="C73" s="7">
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>1386</v>
+        <v>1227</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="F73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G73">
         <v>99</v>
@@ -25119,7 +25119,7 @@
         <v>200</v>
       </c>
       <c r="I73">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J73" t="s">
         <v>1032</v>
@@ -25127,28 +25127,31 @@
       <c r="K73" t="s">
         <v>1032</v>
       </c>
+      <c r="M73">
+        <v>1</v>
+      </c>
       <c r="N73" t="s">
-        <v>1384</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>22033030</v>
+        <v>22033031</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="C74" s="7">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G74">
         <v>99</v>
@@ -25169,27 +25172,27 @@
         <v>1</v>
       </c>
       <c r="N74" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A75">
-        <v>22033031</v>
+        <v>22033032</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C75" s="7">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G75">
         <v>99</v>
@@ -25210,27 +25213,27 @@
         <v>1</v>
       </c>
       <c r="N75" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>22033032</v>
+        <v>22034001</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>1235</v>
+        <v>962</v>
       </c>
       <c r="C76" s="7">
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>1229</v>
+        <v>1195</v>
       </c>
       <c r="E76">
         <v>1</v>
       </c>
       <c r="F76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G76">
         <v>99</v>
@@ -25239,39 +25242,36 @@
         <v>200</v>
       </c>
       <c r="I76">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J76" t="s">
-        <v>1032</v>
+        <v>1039</v>
       </c>
       <c r="K76" t="s">
         <v>1032</v>
       </c>
-      <c r="M76">
-        <v>1</v>
-      </c>
       <c r="N76" t="s">
-        <v>1232</v>
+        <v>963</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>22034001</v>
+        <v>22034002</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="C77" s="7">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G77">
         <v>99</v>
@@ -25283,33 +25283,33 @@
         <v>13</v>
       </c>
       <c r="J77" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="K77" t="s">
         <v>1032</v>
       </c>
       <c r="N77" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>22034002</v>
+        <v>22034003</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>964</v>
+        <v>1198</v>
       </c>
       <c r="C78" s="7">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="E78">
         <v>1</v>
       </c>
       <c r="F78">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G78">
         <v>99</v>
@@ -25318,7 +25318,7 @@
         <v>200</v>
       </c>
       <c r="I78">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J78" t="s">
         <v>1032</v>
@@ -25326,22 +25326,25 @@
       <c r="K78" t="s">
         <v>1032</v>
       </c>
+      <c r="M78">
+        <v>4</v>
+      </c>
       <c r="N78" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>22034003</v>
+        <v>22034004</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>1198</v>
+        <v>967</v>
       </c>
       <c r="C79" s="7">
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>1197</v>
+        <v>1221</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -25368,21 +25371,21 @@
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A80">
-        <v>22034004</v>
+        <v>22034005</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
       <c r="C80" s="7">
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -25409,21 +25412,21 @@
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A81">
-        <v>22034005</v>
+        <v>22034006</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="C81" s="7">
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -25450,21 +25453,21 @@
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>970</v>
+        <v>972</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A82">
-        <v>22034006</v>
+        <v>22034007</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="C82" s="7">
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -25491,21 +25494,21 @@
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>972</v>
+        <v>974</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A83">
-        <v>22034007</v>
+        <v>22034008</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="C83" s="7">
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -25532,21 +25535,21 @@
         <v>4</v>
       </c>
       <c r="N83" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A84">
-        <v>22034008</v>
+        <v>22034009</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>975</v>
+        <v>1199</v>
       </c>
       <c r="C84" s="7">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -25573,21 +25576,21 @@
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A85">
-        <v>22034009</v>
+        <v>22034010</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>1199</v>
+        <v>1381</v>
       </c>
       <c r="C85" s="7">
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>1226</v>
+        <v>1375</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -25602,7 +25605,7 @@
         <v>200</v>
       </c>
       <c r="I85">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J85" t="s">
         <v>1032</v>
@@ -25614,21 +25617,21 @@
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>977</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A86">
-        <v>22034010</v>
+        <v>22034011</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="C86" s="7">
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -25651,25 +25654,22 @@
       <c r="K86" t="s">
         <v>1032</v>
       </c>
-      <c r="M86">
-        <v>4</v>
-      </c>
       <c r="N86" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A87">
-        <v>22034011</v>
+        <v>22034012</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="C87" s="7">
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -25693,27 +25693,27 @@
         <v>1032</v>
       </c>
       <c r="N87" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A88">
-        <v>22034012</v>
+        <v>22034013</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="C88" s="7">
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>1377</v>
+        <v>1384</v>
       </c>
       <c r="E88">
         <v>1</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G88">
         <v>99</v>
@@ -25731,7 +25731,7 @@
         <v>1032</v>
       </c>
       <c r="N88" t="s">
-        <v>1380</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.15">
@@ -26099,17 +26099,17 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="D4:N7 D8:K11 M8:N11 D89:N98 J88:N88 J86:K87 D86:H88 L8:L72 M15:N72 D15:K72 H5:H72 D74:K85 H74:H87 L74:N87 D73:N73">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" dxfId="19" priority="3">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:K14 M12:N14">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="18" priority="2">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86:I88">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="1">
       <formula>LEN(TRIM(I86))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/HItem.xlsx
+++ b/ConfigData/Xlsx/HItem.xlsx
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2406" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="1396">
   <si>
     <t>血蓟</t>
   </si>
@@ -4629,6 +4629,41 @@
   </si>
   <si>
     <t>shuijingqiu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在场景中移动距离提升至2，持续10回合</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在场景中移动距离提升至5，持续10回合</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐骑黑豹</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>坐骑鹰</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuoqibao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuoqiying</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuoqichuan</t>
+  </si>
+  <si>
+    <t>坐骑传送器</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>在场景中移动距离提升至99，持续10回合</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -5368,7 +5403,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5438,6 +5473,9 @@
     <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -5483,7 +5521,56 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="58">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5918,27 +6005,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="3" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6380,20 +6446,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -6830,13 +6882,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -6851,78 +6896,78 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:N347" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" tableBorderDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:N347" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56" tableBorderDxfId="55">
   <autoFilter ref="A3:N347"/>
   <sortState ref="A4:N342">
     <sortCondition ref="A3:A342"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="52"/>
-    <tableColumn id="2" name="Name" dataDxfId="51"/>
-    <tableColumn id="3" name="Type" dataDxfId="50"/>
-    <tableColumn id="4" name="Descript" dataDxfId="49"/>
-    <tableColumn id="5" name="Level" dataDxfId="48"/>
-    <tableColumn id="6" name="Rare" dataDxfId="47"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="46"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="45"/>
-    <tableColumn id="9" name="SubType" dataDxfId="44"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="43"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="42"/>
-    <tableColumn id="15" name="RandomGroup" dataDxfId="41"/>
-    <tableColumn id="13" name="CdGroup" dataDxfId="40"/>
-    <tableColumn id="14" name="Url" dataDxfId="39"/>
+    <tableColumn id="1" name="Id" dataDxfId="54"/>
+    <tableColumn id="2" name="Name" dataDxfId="53"/>
+    <tableColumn id="3" name="Type" dataDxfId="52"/>
+    <tableColumn id="4" name="Descript" dataDxfId="51"/>
+    <tableColumn id="5" name="Level" dataDxfId="50"/>
+    <tableColumn id="6" name="Rare" dataDxfId="49"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="48"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="47"/>
+    <tableColumn id="9" name="SubType" dataDxfId="46"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="45"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="44"/>
+    <tableColumn id="15" name="RandomGroup" dataDxfId="43"/>
+    <tableColumn id="13" name="CdGroup" dataDxfId="42"/>
+    <tableColumn id="14" name="Url" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:N20" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" tableBorderDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:N20" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38">
   <autoFilter ref="A3:N20"/>
   <sortState ref="A4:O435">
     <sortCondition ref="A3:A435"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="33"/>
-    <tableColumn id="2" name="Name" dataDxfId="32"/>
-    <tableColumn id="3" name="Type" dataDxfId="31"/>
-    <tableColumn id="4" name="Descript" dataDxfId="30"/>
-    <tableColumn id="5" name="Level" dataDxfId="29"/>
-    <tableColumn id="6" name="Rare" dataDxfId="28"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="27"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="26"/>
-    <tableColumn id="9" name="SubType" dataDxfId="25"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="24"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="23"/>
-    <tableColumn id="15" name="RandomGroup" dataDxfId="22"/>
-    <tableColumn id="13" name="CdGroup" dataDxfId="21"/>
-    <tableColumn id="14" name="Url" dataDxfId="20"/>
+    <tableColumn id="1" name="Id" dataDxfId="37"/>
+    <tableColumn id="2" name="Name" dataDxfId="36"/>
+    <tableColumn id="3" name="Type" dataDxfId="35"/>
+    <tableColumn id="4" name="Descript" dataDxfId="34"/>
+    <tableColumn id="5" name="Level" dataDxfId="33"/>
+    <tableColumn id="6" name="Rare" dataDxfId="32"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="31"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="30"/>
+    <tableColumn id="9" name="SubType" dataDxfId="29"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="28"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="27"/>
+    <tableColumn id="15" name="RandomGroup" dataDxfId="26"/>
+    <tableColumn id="13" name="CdGroup" dataDxfId="25"/>
+    <tableColumn id="14" name="Url" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:N98" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
-  <autoFilter ref="A3:N98"/>
-  <sortState ref="A4:N98">
-    <sortCondition ref="A3:A98"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:N101" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22" tableBorderDxfId="21">
+  <autoFilter ref="A3:N101"/>
+  <sortState ref="A4:N101">
+    <sortCondition ref="A3:A101"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="13"/>
-    <tableColumn id="2" name="Name" dataDxfId="12"/>
-    <tableColumn id="3" name="Type" dataDxfId="11"/>
-    <tableColumn id="4" name="Descript" dataDxfId="10"/>
-    <tableColumn id="5" name="Level" dataDxfId="9"/>
-    <tableColumn id="6" name="Rare" dataDxfId="8"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="7"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="6"/>
-    <tableColumn id="9" name="SubType" dataDxfId="5"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="4"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="3"/>
-    <tableColumn id="15" name="RandomGroup" dataDxfId="2"/>
-    <tableColumn id="13" name="CdGroup" dataDxfId="1"/>
-    <tableColumn id="14" name="Url" dataDxfId="0"/>
+    <tableColumn id="1" name="Id" dataDxfId="20"/>
+    <tableColumn id="2" name="Name" dataDxfId="19"/>
+    <tableColumn id="3" name="Type" dataDxfId="18"/>
+    <tableColumn id="4" name="Descript" dataDxfId="17"/>
+    <tableColumn id="5" name="Level" dataDxfId="16"/>
+    <tableColumn id="6" name="Rare" dataDxfId="15"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="14"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="13"/>
+    <tableColumn id="9" name="SubType" dataDxfId="12"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="11"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="10"/>
+    <tableColumn id="15" name="RandomGroup" dataDxfId="9"/>
+    <tableColumn id="13" name="CdGroup" dataDxfId="8"/>
+    <tableColumn id="14" name="Url" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -21537,7 +21582,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A4:N347">
-    <cfRule type="containsBlanks" dxfId="56" priority="1">
+    <cfRule type="containsBlanks" dxfId="6" priority="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22268,12 +22313,12 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A4:N20">
-    <cfRule type="containsBlanks" dxfId="38" priority="2">
+    <cfRule type="containsBlanks" dxfId="5" priority="2">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:N20">
-    <cfRule type="containsBlanks" dxfId="37" priority="1">
+    <cfRule type="containsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(A15))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22288,13 +22333,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N98"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N88" sqref="N88"/>
+      <selection pane="bottomRight" activeCell="D91" sqref="D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -25736,22 +25781,22 @@
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A89">
-        <v>22035001</v>
-      </c>
-      <c r="B89" s="7" t="s">
-        <v>978</v>
-      </c>
-      <c r="C89" s="7">
-        <v>1</v>
-      </c>
-      <c r="D89" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E89">
-        <v>1</v>
-      </c>
-      <c r="F89">
-        <v>4</v>
+        <v>22034014</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C89" s="15">
+        <v>1</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E89" s="15">
+        <v>1</v>
+      </c>
+      <c r="F89" s="15">
+        <v>2</v>
       </c>
       <c r="G89">
         <v>99</v>
@@ -25760,36 +25805,38 @@
         <v>200</v>
       </c>
       <c r="I89">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J89" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="K89" t="s">
         <v>1032</v>
       </c>
-      <c r="N89" t="s">
-        <v>979</v>
+      <c r="L89" s="23"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="15" t="s">
+        <v>1391</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A90">
-        <v>22035002</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>980</v>
-      </c>
-      <c r="C90" s="7">
-        <v>1</v>
-      </c>
-      <c r="D90" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E90">
-        <v>1</v>
-      </c>
-      <c r="F90">
-        <v>5</v>
+        <v>22034015</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C90" s="15">
+        <v>1</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E90" s="15">
+        <v>1</v>
+      </c>
+      <c r="F90" s="15">
+        <v>4</v>
       </c>
       <c r="G90">
         <v>99</v>
@@ -25798,7 +25845,7 @@
         <v>200</v>
       </c>
       <c r="I90">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J90" t="s">
         <v>1032</v>
@@ -25806,27 +25853,29 @@
       <c r="K90" t="s">
         <v>1032</v>
       </c>
-      <c r="N90" t="s">
-        <v>981</v>
+      <c r="L90" s="23"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="15" t="s">
+        <v>1392</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A91">
-        <v>22035003</v>
-      </c>
-      <c r="B91" s="7" t="s">
-        <v>982</v>
-      </c>
-      <c r="C91" s="7">
-        <v>1</v>
-      </c>
-      <c r="D91" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E91">
-        <v>1</v>
-      </c>
-      <c r="F91">
+        <v>22034016</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C91" s="15">
+        <v>1</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E91" s="15">
+        <v>1</v>
+      </c>
+      <c r="F91" s="15">
         <v>6</v>
       </c>
       <c r="G91">
@@ -25836,7 +25885,7 @@
         <v>200</v>
       </c>
       <c r="I91">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J91" t="s">
         <v>1032</v>
@@ -25844,69 +25893,77 @@
       <c r="K91" t="s">
         <v>1032</v>
       </c>
-      <c r="N91" t="s">
-        <v>983</v>
+      <c r="L91" s="23"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="15" t="s">
+        <v>1393</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A92">
-        <v>22037001</v>
+        <v>22035001</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="C92" s="7">
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>985</v>
+        <v>1178</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
+      <c r="F92">
+        <v>4</v>
+      </c>
       <c r="G92">
         <v>99</v>
       </c>
       <c r="H92">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="I92">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J92" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="K92" t="s">
         <v>1032</v>
       </c>
       <c r="N92" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A93">
-        <v>22037002</v>
+        <v>22035002</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>1240</v>
+        <v>980</v>
       </c>
       <c r="C93" s="7">
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>987</v>
+        <v>1178</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
+      <c r="F93">
+        <v>5</v>
+      </c>
       <c r="G93">
         <v>99</v>
       </c>
       <c r="H93">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="I93">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J93" t="s">
         <v>1032</v>
@@ -25915,33 +25972,36 @@
         <v>1032</v>
       </c>
       <c r="N93" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A94">
-        <v>22037003</v>
+        <v>22035003</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="C94" s="7">
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>990</v>
+        <v>1178</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
+      <c r="F94">
+        <v>6</v>
+      </c>
       <c r="G94">
         <v>99</v>
       </c>
       <c r="H94">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="I94">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J94" t="s">
         <v>1032</v>
@@ -25950,21 +26010,21 @@
         <v>1032</v>
       </c>
       <c r="N94" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A95">
-        <v>22037004</v>
+        <v>22037001</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="C95" s="7">
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -25985,21 +26045,21 @@
         <v>1032</v>
       </c>
       <c r="N95" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A96">
-        <v>22037101</v>
+        <v>22037002</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>995</v>
+        <v>1240</v>
       </c>
       <c r="C96" s="7">
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -26011,30 +26071,30 @@
         <v>50</v>
       </c>
       <c r="I96">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J96" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
       <c r="K96" t="s">
         <v>1032</v>
       </c>
       <c r="N96" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A97">
-        <v>22037102</v>
+        <v>22037003</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>1241</v>
+        <v>989</v>
       </c>
       <c r="C97" s="7">
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -26046,7 +26106,7 @@
         <v>50</v>
       </c>
       <c r="I97">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="J97" t="s">
         <v>1032</v>
@@ -26055,21 +26115,21 @@
         <v>1032</v>
       </c>
       <c r="N97" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A98">
-        <v>22037103</v>
+        <v>22037004</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="C98" s="7">
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>1236</v>
+        <v>993</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -26081,36 +26141,146 @@
         <v>50</v>
       </c>
       <c r="I98">
+        <v>17</v>
+      </c>
+      <c r="J98" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K98" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N98" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>22037101</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="C99" s="7">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>996</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <v>99</v>
+      </c>
+      <c r="H99">
+        <v>50</v>
+      </c>
+      <c r="I99">
+        <v>13</v>
+      </c>
+      <c r="J99" t="s">
+        <v>1039</v>
+      </c>
+      <c r="K99" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N99" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>22037102</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C100" s="7">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>998</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="G100">
+        <v>99</v>
+      </c>
+      <c r="H100">
+        <v>50</v>
+      </c>
+      <c r="I100">
+        <v>13</v>
+      </c>
+      <c r="J100" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K100" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N100" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>22037103</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C101" s="7">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>99</v>
+      </c>
+      <c r="H101">
+        <v>50</v>
+      </c>
+      <c r="I101">
         <v>11</v>
       </c>
-      <c r="J98" t="s">
-        <v>1032</v>
-      </c>
-      <c r="K98" t="s">
-        <v>1032</v>
-      </c>
-      <c r="M98">
-        <v>1</v>
-      </c>
-      <c r="N98" t="s">
+      <c r="J101" t="s">
+        <v>1032</v>
+      </c>
+      <c r="K101" t="s">
+        <v>1032</v>
+      </c>
+      <c r="M101">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s">
         <v>1001</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="D4:N7 D8:K11 M8:N11 D89:N98 J88:N88 J86:K87 D86:H88 L8:L72 M15:N72 D15:K72 H5:H72 D74:K85 H74:H87 L74:N87 D73:N73">
-    <cfRule type="containsBlanks" dxfId="19" priority="3">
+  <conditionalFormatting sqref="D4:N7 D8:K11 M8:N11 J86:K87 L8:L72 M15:N72 D15:K72 H5:H72 D74:K85 L74:N87 D73:N73 H74:H90 D92:N101 J88:N91 D86:H91">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:K14 M12:N14">
-    <cfRule type="containsBlanks" dxfId="18" priority="2">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I86:I88">
-    <cfRule type="containsBlanks" dxfId="17" priority="1">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(I86))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I89:I91">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(I89))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ConfigData/Xlsx/HItem.xlsx
+++ b/ConfigData/Xlsx/HItem.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2406" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2486" uniqueCount="1419">
   <si>
     <t>血蓟</t>
   </si>
@@ -3886,39 +3886,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>卡牌补给包（无）</t>
-  </si>
-  <si>
-    <t>卡牌补给包（水）</t>
-  </si>
-  <si>
-    <t>卡牌补给包（风）</t>
-  </si>
-  <si>
-    <t>卡牌补给包（地）</t>
-  </si>
-  <si>
-    <t>卡牌补给包（火）</t>
-  </si>
-  <si>
-    <t>卡牌补给包（光）</t>
-  </si>
-  <si>
-    <t>卡牌补给包（暗）</t>
-  </si>
-  <si>
-    <t>卡牌补给包（生物）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌补给包（武器）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌补给包（法术）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>获得一张随机生物卡牌</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -4083,18 +4050,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>资源袋(蓝)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>lidaihong</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>资源袋(红)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>种子-玉米</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -4107,18 +4066,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>资源袋(灰)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>lidaihui</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>资源袋(紫)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>lidaizi</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -4168,10 +4119,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>资源袋(绿)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>RandomGroup</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -4251,34 +4198,6 @@
     <t>libaor16</t>
   </si>
   <si>
-    <t>素材袋(水)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>素材袋(无)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>素材袋(风)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>素材袋(火)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>素材袋(地)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>素材袋(光)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>素材袋(暗)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>资源袋(恶魔)</t>
   </si>
   <si>
@@ -4637,6 +4556,168 @@
   <si>
     <t>在场景中移动距离提升至99，持续10回合</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡牌补给包(恶魔)</t>
+  </si>
+  <si>
+    <t>卡牌补给包(机械)</t>
+  </si>
+  <si>
+    <t>卡牌补给包(精灵)</t>
+  </si>
+  <si>
+    <t>卡牌补给包(昆虫)</t>
+  </si>
+  <si>
+    <t>卡牌补给包(龙)</t>
+  </si>
+  <si>
+    <t>卡牌补给包(鸟)</t>
+  </si>
+  <si>
+    <t>卡牌补给包(爬行)</t>
+  </si>
+  <si>
+    <t>卡牌补给包(人类)</t>
+  </si>
+  <si>
+    <t>卡牌补给包(兽人)</t>
+  </si>
+  <si>
+    <t>卡牌补给包(亡灵)</t>
+  </si>
+  <si>
+    <t>卡牌补给包(野兽)</t>
+  </si>
+  <si>
+    <t>卡牌补给包(鱼)</t>
+  </si>
+  <si>
+    <t>卡牌补给包(元素)</t>
+  </si>
+  <si>
+    <t>卡牌补给包(植物)</t>
+  </si>
+  <si>
+    <t>卡牌补给包(地精)</t>
+  </si>
+  <si>
+    <t>卡牌补给包(石像)</t>
+  </si>
+  <si>
+    <t>获得一张随机恶魔种族卡牌</t>
+  </si>
+  <si>
+    <t>获得一张随机机械种族卡牌</t>
+  </si>
+  <si>
+    <t>获得一张随机精灵种族卡牌</t>
+  </si>
+  <si>
+    <t>获得一张随机昆虫种族卡牌</t>
+  </si>
+  <si>
+    <t>获得一张随机龙种族卡牌</t>
+  </si>
+  <si>
+    <t>获得一张随机鸟种族卡牌</t>
+  </si>
+  <si>
+    <t>获得一张随机爬行种族卡牌</t>
+  </si>
+  <si>
+    <t>获得一张随机人类种族卡牌</t>
+  </si>
+  <si>
+    <t>获得一张随机兽人种族卡牌</t>
+  </si>
+  <si>
+    <t>获得一张随机亡灵种族卡牌</t>
+  </si>
+  <si>
+    <t>获得一张随机野兽种族卡牌</t>
+  </si>
+  <si>
+    <t>获得一张随机鱼种族卡牌</t>
+  </si>
+  <si>
+    <t>获得一张随机元素种族卡牌</t>
+  </si>
+  <si>
+    <t>获得一张随机植物种族卡牌</t>
+  </si>
+  <si>
+    <t>获得一张随机地精种族卡牌</t>
+  </si>
+  <si>
+    <t>获得一张随机石像种族卡牌</t>
+  </si>
+  <si>
+    <t>资源袋(绿)</t>
+  </si>
+  <si>
+    <t>资源袋(蓝)</t>
+  </si>
+  <si>
+    <t>资源袋(红)</t>
+  </si>
+  <si>
+    <t>资源袋(紫)</t>
+  </si>
+  <si>
+    <t>资源袋(灰)</t>
+  </si>
+  <si>
+    <t>素材袋(无)</t>
+  </si>
+  <si>
+    <t>素材袋(水)</t>
+  </si>
+  <si>
+    <t>素材袋(风)</t>
+  </si>
+  <si>
+    <t>素材袋(火)</t>
+  </si>
+  <si>
+    <t>素材袋(地)</t>
+  </si>
+  <si>
+    <t>素材袋(光)</t>
+  </si>
+  <si>
+    <t>素材袋(暗)</t>
+  </si>
+  <si>
+    <t>卡牌补给包(无)</t>
+  </si>
+  <si>
+    <t>卡牌补给包(水)</t>
+  </si>
+  <si>
+    <t>卡牌补给包(风)</t>
+  </si>
+  <si>
+    <t>卡牌补给包(地)</t>
+  </si>
+  <si>
+    <t>卡牌补给包(火)</t>
+  </si>
+  <si>
+    <t>卡牌补给包(光)</t>
+  </si>
+  <si>
+    <t>卡牌补给包(暗)</t>
+  </si>
+  <si>
+    <t>卡牌补给包(生物)</t>
+  </si>
+  <si>
+    <t>卡牌补给包(武器)</t>
+  </si>
+  <si>
+    <t>卡牌补给包(法术)</t>
   </si>
 </sst>
 </file>
@@ -5493,7 +5574,21 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="61">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6875,78 +6970,78 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:N347" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57" tableBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:N347" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" tableBorderDxfId="58">
   <autoFilter ref="A3:N347"/>
   <sortState ref="A4:N342">
     <sortCondition ref="A3:A342"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="55"/>
-    <tableColumn id="2" name="Name" dataDxfId="54"/>
-    <tableColumn id="3" name="Type" dataDxfId="53"/>
-    <tableColumn id="4" name="Descript" dataDxfId="52"/>
-    <tableColumn id="5" name="Level" dataDxfId="51"/>
-    <tableColumn id="6" name="Rare" dataDxfId="50"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="49"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="48"/>
-    <tableColumn id="9" name="SubType" dataDxfId="47"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="46"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="45"/>
-    <tableColumn id="15" name="RandomGroup" dataDxfId="44"/>
-    <tableColumn id="13" name="CdGroup" dataDxfId="43"/>
-    <tableColumn id="14" name="Url" dataDxfId="42"/>
+    <tableColumn id="1" name="Id" dataDxfId="57"/>
+    <tableColumn id="2" name="Name" dataDxfId="56"/>
+    <tableColumn id="3" name="Type" dataDxfId="55"/>
+    <tableColumn id="4" name="Descript" dataDxfId="54"/>
+    <tableColumn id="5" name="Level" dataDxfId="53"/>
+    <tableColumn id="6" name="Rare" dataDxfId="52"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="51"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="50"/>
+    <tableColumn id="9" name="SubType" dataDxfId="49"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="48"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="47"/>
+    <tableColumn id="15" name="RandomGroup" dataDxfId="46"/>
+    <tableColumn id="13" name="CdGroup" dataDxfId="45"/>
+    <tableColumn id="14" name="Url" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:N20" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" tableBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:N20" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
   <autoFilter ref="A3:N20"/>
   <sortState ref="A4:O435">
     <sortCondition ref="A3:A435"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="38"/>
-    <tableColumn id="2" name="Name" dataDxfId="37"/>
-    <tableColumn id="3" name="Type" dataDxfId="36"/>
-    <tableColumn id="4" name="Descript" dataDxfId="35"/>
-    <tableColumn id="5" name="Level" dataDxfId="34"/>
-    <tableColumn id="6" name="Rare" dataDxfId="33"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="32"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="31"/>
-    <tableColumn id="9" name="SubType" dataDxfId="30"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="29"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="28"/>
-    <tableColumn id="15" name="RandomGroup" dataDxfId="27"/>
-    <tableColumn id="13" name="CdGroup" dataDxfId="26"/>
-    <tableColumn id="14" name="Url" dataDxfId="25"/>
+    <tableColumn id="1" name="Id" dataDxfId="40"/>
+    <tableColumn id="2" name="Name" dataDxfId="39"/>
+    <tableColumn id="3" name="Type" dataDxfId="38"/>
+    <tableColumn id="4" name="Descript" dataDxfId="37"/>
+    <tableColumn id="5" name="Level" dataDxfId="36"/>
+    <tableColumn id="6" name="Rare" dataDxfId="35"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="34"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="33"/>
+    <tableColumn id="9" name="SubType" dataDxfId="32"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="31"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="30"/>
+    <tableColumn id="15" name="RandomGroup" dataDxfId="29"/>
+    <tableColumn id="13" name="CdGroup" dataDxfId="28"/>
+    <tableColumn id="14" name="Url" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:N98" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23" tableBorderDxfId="22">
-  <autoFilter ref="A3:N98"/>
-  <sortState ref="A4:N98">
-    <sortCondition ref="A3:A98"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:N114" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25" tableBorderDxfId="24">
+  <autoFilter ref="A3:N114"/>
+  <sortState ref="A4:N114">
+    <sortCondition ref="A3:A114"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="21"/>
-    <tableColumn id="2" name="Name" dataDxfId="20"/>
-    <tableColumn id="3" name="Type" dataDxfId="19"/>
-    <tableColumn id="4" name="Descript" dataDxfId="18"/>
-    <tableColumn id="5" name="Level" dataDxfId="17"/>
-    <tableColumn id="6" name="Rare" dataDxfId="16"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="15"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="14"/>
-    <tableColumn id="9" name="SubType" dataDxfId="13"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="12"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="11"/>
-    <tableColumn id="15" name="RandomGroup" dataDxfId="10"/>
-    <tableColumn id="13" name="CdGroup" dataDxfId="9"/>
-    <tableColumn id="14" name="Url" dataDxfId="8"/>
+    <tableColumn id="1" name="Id" dataDxfId="23"/>
+    <tableColumn id="2" name="Name" dataDxfId="22"/>
+    <tableColumn id="3" name="Type" dataDxfId="21"/>
+    <tableColumn id="4" name="Descript" dataDxfId="20"/>
+    <tableColumn id="5" name="Level" dataDxfId="19"/>
+    <tableColumn id="6" name="Rare" dataDxfId="18"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="17"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="16"/>
+    <tableColumn id="9" name="SubType" dataDxfId="15"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="14"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="13"/>
+    <tableColumn id="15" name="RandomGroup" dataDxfId="12"/>
+    <tableColumn id="13" name="CdGroup" dataDxfId="11"/>
+    <tableColumn id="14" name="Url" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7276,10 +7371,10 @@
   <dimension ref="A1:N347"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B253" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="G344" sqref="G344"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7372,7 +7467,7 @@
         <v>1023</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1252</v>
+        <v>1237</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>994</v>
@@ -7404,7 +7499,7 @@
         <v>1015</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>1349</v>
+        <v>1327</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>1016</v>
@@ -7416,7 +7511,7 @@
         <v>1021</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>1251</v>
+        <v>1236</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>1017</v>
@@ -17832,7 +17927,7 @@
         <v>22018002</v>
       </c>
       <c r="B257" t="s">
-        <v>1330</v>
+        <v>1308</v>
       </c>
       <c r="C257">
         <v>2</v>
@@ -17873,13 +17968,13 @@
         <v>22018003</v>
       </c>
       <c r="B258" t="s">
-        <v>1331</v>
+        <v>1309</v>
       </c>
       <c r="C258">
         <v>2</v>
       </c>
       <c r="D258" t="s">
-        <v>1340</v>
+        <v>1318</v>
       </c>
       <c r="E258">
         <v>1</v>
@@ -17947,7 +18042,7 @@
         <v>2</v>
       </c>
       <c r="N259" t="s">
-        <v>1363</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="260" spans="1:14" x14ac:dyDescent="0.15">
@@ -18002,7 +18097,7 @@
         <v>2</v>
       </c>
       <c r="D261" t="s">
-        <v>1343</v>
+        <v>1321</v>
       </c>
       <c r="E261">
         <v>1</v>
@@ -18037,13 +18132,13 @@
         <v>22018013</v>
       </c>
       <c r="B262" t="s">
-        <v>1332</v>
+        <v>1310</v>
       </c>
       <c r="C262">
         <v>2</v>
       </c>
       <c r="D262" t="s">
-        <v>1341</v>
+        <v>1319</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -18111,7 +18206,7 @@
         <v>2</v>
       </c>
       <c r="N263" t="s">
-        <v>1364</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="264" spans="1:14" x14ac:dyDescent="0.15">
@@ -18166,7 +18261,7 @@
         <v>2</v>
       </c>
       <c r="D265" t="s">
-        <v>1342</v>
+        <v>1320</v>
       </c>
       <c r="E265">
         <v>1</v>
@@ -18201,13 +18296,13 @@
         <v>22018023</v>
       </c>
       <c r="B266" t="s">
-        <v>1333</v>
+        <v>1311</v>
       </c>
       <c r="C266">
         <v>2</v>
       </c>
       <c r="D266" t="s">
-        <v>1344</v>
+        <v>1322</v>
       </c>
       <c r="E266">
         <v>1</v>
@@ -18275,7 +18370,7 @@
         <v>2</v>
       </c>
       <c r="N267" t="s">
-        <v>1359</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="268" spans="1:14" x14ac:dyDescent="0.15">
@@ -18365,13 +18460,13 @@
         <v>22018033</v>
       </c>
       <c r="B270" t="s">
-        <v>1334</v>
+        <v>1312</v>
       </c>
       <c r="C270">
         <v>2</v>
       </c>
       <c r="D270" t="s">
-        <v>1345</v>
+        <v>1323</v>
       </c>
       <c r="E270">
         <v>1</v>
@@ -18439,7 +18534,7 @@
         <v>2</v>
       </c>
       <c r="N271" t="s">
-        <v>1360</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="272" spans="1:14" x14ac:dyDescent="0.15">
@@ -18529,13 +18624,13 @@
         <v>22018043</v>
       </c>
       <c r="B274" t="s">
-        <v>1335</v>
+        <v>1313</v>
       </c>
       <c r="C274">
         <v>2</v>
       </c>
       <c r="D274" t="s">
-        <v>1346</v>
+        <v>1324</v>
       </c>
       <c r="E274">
         <v>1</v>
@@ -18603,7 +18698,7 @@
         <v>2</v>
       </c>
       <c r="N275" t="s">
-        <v>1361</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="276" spans="1:14" x14ac:dyDescent="0.15">
@@ -18652,7 +18747,7 @@
         <v>22018052</v>
       </c>
       <c r="B277" t="s">
-        <v>1336</v>
+        <v>1314</v>
       </c>
       <c r="C277">
         <v>2</v>
@@ -18693,13 +18788,13 @@
         <v>22018053</v>
       </c>
       <c r="B278" t="s">
-        <v>1337</v>
+        <v>1315</v>
       </c>
       <c r="C278">
         <v>2</v>
       </c>
       <c r="D278" t="s">
-        <v>1347</v>
+        <v>1325</v>
       </c>
       <c r="E278">
         <v>1</v>
@@ -18767,7 +18862,7 @@
         <v>2</v>
       </c>
       <c r="N279" t="s">
-        <v>1365</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.15">
@@ -18816,7 +18911,7 @@
         <v>22018062</v>
       </c>
       <c r="B281" t="s">
-        <v>1338</v>
+        <v>1316</v>
       </c>
       <c r="C281">
         <v>2</v>
@@ -18857,13 +18952,13 @@
         <v>22018063</v>
       </c>
       <c r="B282" t="s">
-        <v>1339</v>
+        <v>1317</v>
       </c>
       <c r="C282">
         <v>2</v>
       </c>
       <c r="D282" t="s">
-        <v>1348</v>
+        <v>1326</v>
       </c>
       <c r="E282">
         <v>1</v>
@@ -18931,7 +19026,7 @@
         <v>2</v>
       </c>
       <c r="N283" t="s">
-        <v>1362</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.15">
@@ -21399,13 +21494,13 @@
         <v>22019161</v>
       </c>
       <c r="B344" t="s">
-        <v>1355</v>
+        <v>1333</v>
       </c>
       <c r="C344">
         <v>2</v>
       </c>
       <c r="D344" t="s">
-        <v>1246</v>
+        <v>1232</v>
       </c>
       <c r="E344">
         <v>1</v>
@@ -21432,7 +21527,7 @@
         <v>2</v>
       </c>
       <c r="N344" t="s">
-        <v>1351</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.15">
@@ -21440,13 +21535,13 @@
         <v>22019162</v>
       </c>
       <c r="B345" t="s">
-        <v>1356</v>
+        <v>1334</v>
       </c>
       <c r="C345">
         <v>2</v>
       </c>
       <c r="D345" t="s">
-        <v>1247</v>
+        <v>1233</v>
       </c>
       <c r="E345">
         <v>1</v>
@@ -21473,7 +21568,7 @@
         <v>2</v>
       </c>
       <c r="N345" t="s">
-        <v>1352</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.15">
@@ -21481,13 +21576,13 @@
         <v>22019163</v>
       </c>
       <c r="B346" t="s">
-        <v>1357</v>
+        <v>1335</v>
       </c>
       <c r="C346">
         <v>2</v>
       </c>
       <c r="D346" t="s">
-        <v>1248</v>
+        <v>1234</v>
       </c>
       <c r="E346">
         <v>1</v>
@@ -21514,7 +21609,7 @@
         <v>2</v>
       </c>
       <c r="N346" t="s">
-        <v>1353</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.15">
@@ -21522,13 +21617,13 @@
         <v>22019164</v>
       </c>
       <c r="B347" t="s">
-        <v>1358</v>
+        <v>1336</v>
       </c>
       <c r="C347">
         <v>2</v>
       </c>
       <c r="D347" t="s">
-        <v>1249</v>
+        <v>1235</v>
       </c>
       <c r="E347">
         <v>1</v>
@@ -21555,13 +21650,13 @@
         <v>2</v>
       </c>
       <c r="N347" t="s">
-        <v>1354</v>
+        <v>1332</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A4:N347">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21674,7 +21769,7 @@
         <v>1023</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1252</v>
+        <v>1237</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>994</v>
@@ -21706,7 +21801,7 @@
         <v>1015</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>1350</v>
+        <v>1328</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>1016</v>
@@ -21718,7 +21813,7 @@
         <v>1021</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>1251</v>
+        <v>1236</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>1017</v>
@@ -22292,12 +22387,12 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A4:N20">
-    <cfRule type="containsBlanks" dxfId="6" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="2">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:N20">
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="1">
       <formula>LEN(TRIM(A15))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22312,19 +22407,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N98"/>
+  <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="I11" sqref="I9:I11"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="5.5" customWidth="1"/>
     <col min="4" max="4" width="31" customWidth="1"/>
     <col min="5" max="7" width="4.875" customWidth="1"/>
@@ -22412,7 +22507,7 @@
         <v>1023</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>1252</v>
+        <v>1237</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>994</v>
@@ -22444,7 +22539,7 @@
         <v>1015</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>1349</v>
+        <v>1327</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>1016</v>
@@ -22456,7 +22551,7 @@
         <v>1021</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>1251</v>
+        <v>1236</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>1017</v>
@@ -22505,13 +22600,13 @@
         <v>22031101</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>1242</v>
+        <v>1228</v>
       </c>
       <c r="C5" s="7">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>1326</v>
+        <v>1304</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -22535,7 +22630,7 @@
         <v>1026</v>
       </c>
       <c r="N5" t="s">
-        <v>1238</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -22543,13 +22638,13 @@
         <v>22031102</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>1243</v>
+        <v>1229</v>
       </c>
       <c r="C6" s="7">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>1327</v>
+        <v>1305</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -22573,7 +22668,7 @@
         <v>1026</v>
       </c>
       <c r="N6" t="s">
-        <v>1239</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -22581,13 +22676,13 @@
         <v>22031103</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>1244</v>
+        <v>1230</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>1328</v>
+        <v>1306</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -22611,7 +22706,7 @@
         <v>1026</v>
       </c>
       <c r="N7" t="s">
-        <v>1240</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -22619,13 +22714,13 @@
         <v>22031104</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>1245</v>
+        <v>1231</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>1329</v>
+        <v>1307</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -22649,7 +22744,7 @@
         <v>1026</v>
       </c>
       <c r="N8" t="s">
-        <v>1241</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
@@ -22771,7 +22866,7 @@
         <v>22031212</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>1170</v>
+        <v>1409</v>
       </c>
       <c r="C12" s="7">
         <v>1</v>
@@ -22809,7 +22904,7 @@
         <v>22031213</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>1171</v>
+        <v>1410</v>
       </c>
       <c r="C13" s="7">
         <v>1</v>
@@ -22847,7 +22942,7 @@
         <v>22031214</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>1172</v>
+        <v>1411</v>
       </c>
       <c r="C14" s="7">
         <v>1</v>
@@ -22885,7 +22980,7 @@
         <v>22031215</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>1173</v>
+        <v>1412</v>
       </c>
       <c r="C15" s="7">
         <v>1</v>
@@ -22923,7 +23018,7 @@
         <v>22031216</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1174</v>
+        <v>1413</v>
       </c>
       <c r="C16" s="7">
         <v>1</v>
@@ -22961,7 +23056,7 @@
         <v>22031217</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1175</v>
+        <v>1414</v>
       </c>
       <c r="C17" s="7">
         <v>1</v>
@@ -22999,7 +23094,7 @@
         <v>22031218</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>1176</v>
+        <v>1415</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
@@ -23037,13 +23132,13 @@
         <v>22031221</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>1177</v>
+        <v>1416</v>
       </c>
       <c r="C19" s="7">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>1180</v>
+        <v>1170</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -23067,7 +23162,7 @@
         <v>1026</v>
       </c>
       <c r="N19" t="s">
-        <v>1183</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.15">
@@ -23075,13 +23170,13 @@
         <v>22031222</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>1178</v>
+        <v>1417</v>
       </c>
       <c r="C20" s="7">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>1181</v>
+        <v>1171</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -23105,7 +23200,7 @@
         <v>1026</v>
       </c>
       <c r="N20" t="s">
-        <v>1184</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.15">
@@ -23113,13 +23208,13 @@
         <v>22031223</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>1179</v>
+        <v>1418</v>
       </c>
       <c r="C21" s="7">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>1182</v>
+        <v>1172</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -23143,26 +23238,26 @@
         <v>1026</v>
       </c>
       <c r="N21" t="s">
-        <v>1185</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22">
-        <v>22031301</v>
+        <v>22031231</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1250</v>
+        <v>1365</v>
       </c>
       <c r="C22" s="7">
         <v>1</v>
       </c>
-      <c r="D22" s="15" t="s">
-        <v>1233</v>
+      <c r="D22" t="s">
+        <v>1381</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F22">
         <v>3</v>
       </c>
       <c r="G22">
@@ -23172,7 +23267,7 @@
         <v>200</v>
       </c>
       <c r="I22">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J22" t="s">
         <v>1024</v>
@@ -23180,28 +23275,27 @@
       <c r="K22" t="s">
         <v>1026</v>
       </c>
-      <c r="M22" s="15"/>
       <c r="N22" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23">
-        <v>22031302</v>
+        <v>22031232</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>1228</v>
+        <v>1366</v>
       </c>
       <c r="C23" s="7">
         <v>1</v>
       </c>
-      <c r="D23" s="15" t="s">
-        <v>1299</v>
+      <c r="D23" t="s">
+        <v>1382</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23">
         <v>3</v>
       </c>
       <c r="G23">
@@ -23211,7 +23305,7 @@
         <v>200</v>
       </c>
       <c r="I23">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J23" t="s">
         <v>1024</v>
@@ -23219,28 +23313,27 @@
       <c r="K23" t="s">
         <v>1026</v>
       </c>
-      <c r="M23" s="15"/>
       <c r="N23" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24">
-        <v>22031303</v>
+        <v>22031233</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>1230</v>
+        <v>1367</v>
       </c>
       <c r="C24" s="7">
         <v>1</v>
       </c>
-      <c r="D24" s="15" t="s">
-        <v>1300</v>
+      <c r="D24" t="s">
+        <v>1383</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F24">
         <v>3</v>
       </c>
       <c r="G24">
@@ -23250,7 +23343,7 @@
         <v>200</v>
       </c>
       <c r="I24">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J24" t="s">
         <v>1024</v>
@@ -23258,28 +23351,27 @@
       <c r="K24" t="s">
         <v>1026</v>
       </c>
-      <c r="M24" s="15"/>
       <c r="N24" t="s">
-        <v>1229</v>
+        <v>912</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25">
-        <v>22031304</v>
+        <v>22031234</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>1236</v>
+        <v>1368</v>
       </c>
       <c r="C25" s="7">
         <v>1</v>
       </c>
-      <c r="D25" s="15" t="s">
-        <v>1301</v>
+      <c r="D25" t="s">
+        <v>1384</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25">
         <v>3</v>
       </c>
       <c r="G25">
@@ -23289,7 +23381,7 @@
         <v>200</v>
       </c>
       <c r="I25">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J25" t="s">
         <v>1024</v>
@@ -23297,28 +23389,27 @@
       <c r="K25" t="s">
         <v>1026</v>
       </c>
-      <c r="M25" s="15"/>
       <c r="N25" t="s">
-        <v>1237</v>
+        <v>912</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26">
-        <v>22031305</v>
+        <v>22031235</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>1234</v>
+        <v>1369</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="15" t="s">
-        <v>1302</v>
+      <c r="D26" t="s">
+        <v>1385</v>
       </c>
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26">
         <v>3</v>
       </c>
       <c r="G26">
@@ -23328,7 +23419,7 @@
         <v>200</v>
       </c>
       <c r="I26">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J26" t="s">
         <v>1024</v>
@@ -23336,28 +23427,27 @@
       <c r="K26" t="s">
         <v>1026</v>
       </c>
-      <c r="M26" s="15"/>
       <c r="N26" t="s">
-        <v>1235</v>
+        <v>912</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27">
-        <v>22031401</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>1277</v>
+        <v>22031236</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>1370</v>
       </c>
       <c r="C27" s="7">
         <v>1</v>
       </c>
-      <c r="D27" s="15" t="s">
-        <v>1303</v>
+      <c r="D27" t="s">
+        <v>1386</v>
       </c>
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F27">
         <v>3</v>
       </c>
       <c r="G27">
@@ -23367,7 +23457,7 @@
         <v>200</v>
       </c>
       <c r="I27">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J27" t="s">
         <v>1024</v>
@@ -23375,28 +23465,27 @@
       <c r="K27" t="s">
         <v>1026</v>
       </c>
-      <c r="M27" s="15"/>
       <c r="N27" t="s">
-        <v>1253</v>
+        <v>912</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>22031402</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>1276</v>
+        <v>22031237</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>1371</v>
       </c>
       <c r="C28" s="7">
         <v>1</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>1304</v>
+      <c r="D28" t="s">
+        <v>1387</v>
       </c>
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F28">
         <v>3</v>
       </c>
       <c r="G28">
@@ -23406,7 +23495,7 @@
         <v>200</v>
       </c>
       <c r="I28">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J28" t="s">
         <v>1024</v>
@@ -23414,28 +23503,27 @@
       <c r="K28" t="s">
         <v>1026</v>
       </c>
-      <c r="M28" s="15"/>
       <c r="N28" t="s">
-        <v>1254</v>
+        <v>912</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>22031403</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>1278</v>
+        <v>22031238</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>1372</v>
       </c>
       <c r="C29" s="7">
         <v>1</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>1305</v>
+      <c r="D29" t="s">
+        <v>1388</v>
       </c>
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" s="15">
+      <c r="F29">
         <v>3</v>
       </c>
       <c r="G29">
@@ -23445,7 +23533,7 @@
         <v>200</v>
       </c>
       <c r="I29">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J29" t="s">
         <v>1024</v>
@@ -23453,28 +23541,27 @@
       <c r="K29" t="s">
         <v>1026</v>
       </c>
-      <c r="M29" s="15"/>
       <c r="N29" t="s">
-        <v>1255</v>
+        <v>912</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>22031404</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>1279</v>
+        <v>22031239</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>1373</v>
       </c>
       <c r="C30" s="7">
         <v>1</v>
       </c>
-      <c r="D30" s="15" t="s">
-        <v>1306</v>
+      <c r="D30" t="s">
+        <v>1389</v>
       </c>
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F30">
         <v>3</v>
       </c>
       <c r="G30">
@@ -23484,7 +23571,7 @@
         <v>200</v>
       </c>
       <c r="I30">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J30" t="s">
         <v>1024</v>
@@ -23492,28 +23579,27 @@
       <c r="K30" t="s">
         <v>1026</v>
       </c>
-      <c r="M30" s="15"/>
       <c r="N30" t="s">
-        <v>1256</v>
+        <v>912</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>22031405</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>1280</v>
+        <v>22031240</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>1374</v>
       </c>
       <c r="C31" s="7">
         <v>1</v>
       </c>
-      <c r="D31" s="15" t="s">
-        <v>1307</v>
+      <c r="D31" t="s">
+        <v>1390</v>
       </c>
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F31">
         <v>3</v>
       </c>
       <c r="G31">
@@ -23523,7 +23609,7 @@
         <v>200</v>
       </c>
       <c r="I31">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J31" t="s">
         <v>1024</v>
@@ -23531,28 +23617,27 @@
       <c r="K31" t="s">
         <v>1026</v>
       </c>
-      <c r="M31" s="15"/>
       <c r="N31" t="s">
-        <v>1257</v>
+        <v>912</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>22031406</v>
-      </c>
-      <c r="B32" s="15" t="s">
-        <v>1281</v>
+        <v>22031241</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>1375</v>
       </c>
       <c r="C32" s="7">
         <v>1</v>
       </c>
-      <c r="D32" s="15" t="s">
-        <v>1308</v>
+      <c r="D32" t="s">
+        <v>1391</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F32">
         <v>3</v>
       </c>
       <c r="G32">
@@ -23562,7 +23647,7 @@
         <v>200</v>
       </c>
       <c r="I32">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J32" t="s">
         <v>1024</v>
@@ -23570,28 +23655,27 @@
       <c r="K32" t="s">
         <v>1026</v>
       </c>
-      <c r="M32" s="15"/>
       <c r="N32" t="s">
-        <v>1258</v>
+        <v>912</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>22031407</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>1282</v>
+        <v>22031242</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>1376</v>
       </c>
       <c r="C33" s="7">
         <v>1</v>
       </c>
-      <c r="D33" s="15" t="s">
-        <v>1309</v>
+      <c r="D33" t="s">
+        <v>1392</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F33">
         <v>3</v>
       </c>
       <c r="G33">
@@ -23601,7 +23685,7 @@
         <v>200</v>
       </c>
       <c r="I33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J33" t="s">
         <v>1024</v>
@@ -23609,28 +23693,27 @@
       <c r="K33" t="s">
         <v>1026</v>
       </c>
-      <c r="M33" s="15"/>
       <c r="N33" t="s">
-        <v>1259</v>
+        <v>912</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>22031501</v>
+        <v>22031243</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>1283</v>
+        <v>1377</v>
       </c>
       <c r="C34" s="7">
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>1310</v>
+        <v>1393</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34">
         <v>3</v>
       </c>
       <c r="G34">
@@ -23640,7 +23723,7 @@
         <v>200</v>
       </c>
       <c r="I34">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J34" t="s">
         <v>1024</v>
@@ -23649,26 +23732,26 @@
         <v>1026</v>
       </c>
       <c r="N34" t="s">
-        <v>1260</v>
+        <v>912</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>22031502</v>
+        <v>22031244</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>1284</v>
+        <v>1378</v>
       </c>
       <c r="C35" s="7">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>1311</v>
+        <v>1394</v>
       </c>
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F35">
         <v>3</v>
       </c>
       <c r="G35">
@@ -23678,7 +23761,7 @@
         <v>200</v>
       </c>
       <c r="I35">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J35" t="s">
         <v>1024</v>
@@ -23687,26 +23770,26 @@
         <v>1026</v>
       </c>
       <c r="N35" t="s">
-        <v>1261</v>
+        <v>912</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>22031503</v>
+        <v>22031245</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>1285</v>
+        <v>1379</v>
       </c>
       <c r="C36" s="7">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>1312</v>
+        <v>1395</v>
       </c>
       <c r="E36">
         <v>1</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F36">
         <v>3</v>
       </c>
       <c r="G36">
@@ -23716,7 +23799,7 @@
         <v>200</v>
       </c>
       <c r="I36">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J36" t="s">
         <v>1024</v>
@@ -23725,26 +23808,26 @@
         <v>1026</v>
       </c>
       <c r="N36" t="s">
-        <v>1262</v>
+        <v>912</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>22031504</v>
+        <v>22031246</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>1286</v>
+        <v>1380</v>
       </c>
       <c r="C37" s="7">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>1313</v>
+        <v>1396</v>
       </c>
       <c r="E37">
         <v>1</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F37">
         <v>3</v>
       </c>
       <c r="G37">
@@ -23754,7 +23837,7 @@
         <v>200</v>
       </c>
       <c r="I37">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J37" t="s">
         <v>1024</v>
@@ -23763,21 +23846,21 @@
         <v>1026</v>
       </c>
       <c r="N37" t="s">
-        <v>1263</v>
+        <v>912</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>22031505</v>
+        <v>22031301</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>1287</v>
+        <v>1397</v>
       </c>
       <c r="C38" s="7">
         <v>1</v>
       </c>
-      <c r="D38" t="s">
-        <v>1314</v>
+      <c r="D38" s="15" t="s">
+        <v>1221</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -23800,22 +23883,23 @@
       <c r="K38" t="s">
         <v>1026</v>
       </c>
+      <c r="M38" s="15"/>
       <c r="N38" t="s">
-        <v>1264</v>
+        <v>916</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>22031506</v>
+        <v>22031302</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>1288</v>
+        <v>1398</v>
       </c>
       <c r="C39" s="7">
         <v>1</v>
       </c>
-      <c r="D39" t="s">
-        <v>1315</v>
+      <c r="D39" s="15" t="s">
+        <v>1277</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -23838,22 +23922,23 @@
       <c r="K39" t="s">
         <v>1026</v>
       </c>
+      <c r="M39" s="15"/>
       <c r="N39" t="s">
-        <v>1265</v>
+        <v>917</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>22031507</v>
+        <v>22031303</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>1289</v>
+        <v>1399</v>
       </c>
       <c r="C40" s="7">
         <v>1</v>
       </c>
-      <c r="D40" t="s">
-        <v>1316</v>
+      <c r="D40" s="15" t="s">
+        <v>1278</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -23876,22 +23961,23 @@
       <c r="K40" t="s">
         <v>1026</v>
       </c>
+      <c r="M40" s="15"/>
       <c r="N40" t="s">
-        <v>1266</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>22031508</v>
+        <v>22031304</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>1290</v>
+        <v>1400</v>
       </c>
       <c r="C41" s="7">
         <v>1</v>
       </c>
-      <c r="D41" t="s">
-        <v>1317</v>
+      <c r="D41" s="15" t="s">
+        <v>1279</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -23914,22 +24000,23 @@
       <c r="K41" t="s">
         <v>1026</v>
       </c>
+      <c r="M41" s="15"/>
       <c r="N41" t="s">
-        <v>1267</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>22031509</v>
+        <v>22031305</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>1291</v>
+        <v>1401</v>
       </c>
       <c r="C42" s="7">
         <v>1</v>
       </c>
-      <c r="D42" t="s">
-        <v>1318</v>
+      <c r="D42" s="15" t="s">
+        <v>1280</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -23952,22 +24039,23 @@
       <c r="K42" t="s">
         <v>1026</v>
       </c>
+      <c r="M42" s="15"/>
       <c r="N42" t="s">
-        <v>1268</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>22031510</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>1292</v>
+        <v>22031401</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>1402</v>
       </c>
       <c r="C43" s="7">
         <v>1</v>
       </c>
-      <c r="D43" t="s">
-        <v>1319</v>
+      <c r="D43" s="15" t="s">
+        <v>1281</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -23990,22 +24078,23 @@
       <c r="K43" t="s">
         <v>1026</v>
       </c>
+      <c r="M43" s="15"/>
       <c r="N43" t="s">
-        <v>1269</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>22031511</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>1293</v>
+        <v>22031402</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>1403</v>
       </c>
       <c r="C44" s="7">
         <v>1</v>
       </c>
-      <c r="D44" t="s">
-        <v>1320</v>
+      <c r="D44" s="15" t="s">
+        <v>1282</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -24028,22 +24117,23 @@
       <c r="K44" t="s">
         <v>1026</v>
       </c>
+      <c r="M44" s="15"/>
       <c r="N44" t="s">
-        <v>1270</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>22031512</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>1294</v>
+        <v>22031403</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>1404</v>
       </c>
       <c r="C45" s="7">
         <v>1</v>
       </c>
-      <c r="D45" t="s">
-        <v>1321</v>
+      <c r="D45" s="15" t="s">
+        <v>1283</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -24066,22 +24156,23 @@
       <c r="K45" t="s">
         <v>1026</v>
       </c>
+      <c r="M45" s="15"/>
       <c r="N45" t="s">
-        <v>1271</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>22031513</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>1295</v>
+        <v>22031404</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>1405</v>
       </c>
       <c r="C46" s="7">
         <v>1</v>
       </c>
-      <c r="D46" t="s">
-        <v>1322</v>
+      <c r="D46" s="15" t="s">
+        <v>1284</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -24104,22 +24195,23 @@
       <c r="K46" t="s">
         <v>1026</v>
       </c>
+      <c r="M46" s="15"/>
       <c r="N46" t="s">
-        <v>1272</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>22031514</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>1296</v>
+        <v>22031405</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>1406</v>
       </c>
       <c r="C47" s="7">
         <v>1</v>
       </c>
-      <c r="D47" t="s">
-        <v>1323</v>
+      <c r="D47" s="15" t="s">
+        <v>1285</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -24142,22 +24234,23 @@
       <c r="K47" t="s">
         <v>1026</v>
       </c>
+      <c r="M47" s="15"/>
       <c r="N47" t="s">
-        <v>1273</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>22031515</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>1297</v>
+        <v>22031406</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>1407</v>
       </c>
       <c r="C48" s="7">
         <v>1</v>
       </c>
-      <c r="D48" t="s">
-        <v>1324</v>
+      <c r="D48" s="15" t="s">
+        <v>1286</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -24180,22 +24273,23 @@
       <c r="K48" t="s">
         <v>1026</v>
       </c>
+      <c r="M48" s="15"/>
       <c r="N48" t="s">
-        <v>1274</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A49">
-        <v>22031516</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>1298</v>
+        <v>22031407</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>1408</v>
       </c>
       <c r="C49" s="7">
         <v>1</v>
       </c>
-      <c r="D49" t="s">
-        <v>1325</v>
+      <c r="D49" s="15" t="s">
+        <v>1287</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -24218,630 +24312,631 @@
       <c r="K49" t="s">
         <v>1026</v>
       </c>
+      <c r="M49" s="15"/>
       <c r="N49" t="s">
-        <v>1275</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A50">
-        <v>22032001</v>
+        <v>22031501</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>924</v>
+        <v>1261</v>
       </c>
       <c r="C50" s="7">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>1040</v>
+        <v>1288</v>
       </c>
       <c r="E50">
         <v>1</v>
       </c>
-      <c r="F50">
-        <v>4</v>
+      <c r="F50" s="15">
+        <v>3</v>
       </c>
       <c r="G50">
-        <v>99</v>
+        <v>20</v>
+      </c>
+      <c r="H50">
+        <v>200</v>
       </c>
       <c r="I50">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J50" t="s">
         <v>1024</v>
       </c>
       <c r="K50" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="N50" t="s">
-        <v>925</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A51">
-        <v>22032002</v>
+        <v>22031502</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>926</v>
+        <v>1262</v>
       </c>
       <c r="C51" s="7">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>1039</v>
+        <v>1289</v>
       </c>
       <c r="E51">
         <v>1</v>
       </c>
-      <c r="F51">
-        <v>4</v>
+      <c r="F51" s="15">
+        <v>3</v>
       </c>
       <c r="G51">
-        <v>99</v>
+        <v>20</v>
+      </c>
+      <c r="H51">
+        <v>200</v>
       </c>
       <c r="I51">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J51" t="s">
         <v>1024</v>
       </c>
       <c r="K51" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="N51" t="s">
-        <v>927</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A52">
-        <v>22032003</v>
+        <v>22031503</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>928</v>
+        <v>1263</v>
       </c>
       <c r="C52" s="7">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>1035</v>
+        <v>1290</v>
       </c>
       <c r="E52">
         <v>1</v>
       </c>
-      <c r="F52">
-        <v>4</v>
+      <c r="F52" s="15">
+        <v>3</v>
       </c>
       <c r="G52">
-        <v>99</v>
+        <v>20</v>
+      </c>
+      <c r="H52">
+        <v>200</v>
       </c>
       <c r="I52">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J52" t="s">
         <v>1024</v>
       </c>
       <c r="K52" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="N52" t="s">
-        <v>929</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A53">
-        <v>22032004</v>
+        <v>22031504</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>930</v>
+        <v>1264</v>
       </c>
       <c r="C53" s="7">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>1036</v>
+        <v>1291</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
-      <c r="F53">
-        <v>4</v>
+      <c r="F53" s="15">
+        <v>3</v>
       </c>
       <c r="G53">
-        <v>99</v>
+        <v>20</v>
+      </c>
+      <c r="H53">
+        <v>200</v>
       </c>
       <c r="I53">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J53" t="s">
         <v>1024</v>
       </c>
       <c r="K53" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="N53" t="s">
-        <v>931</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A54">
-        <v>22032005</v>
+        <v>22031505</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>932</v>
+        <v>1265</v>
       </c>
       <c r="C54" s="7">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>1037</v>
+        <v>1292</v>
       </c>
       <c r="E54">
         <v>1</v>
       </c>
-      <c r="F54">
-        <v>4</v>
+      <c r="F54" s="15">
+        <v>3</v>
       </c>
       <c r="G54">
-        <v>99</v>
+        <v>20</v>
+      </c>
+      <c r="H54">
+        <v>200</v>
       </c>
       <c r="I54">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J54" t="s">
         <v>1024</v>
       </c>
       <c r="K54" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="N54" t="s">
-        <v>933</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A55">
-        <v>22032006</v>
+        <v>22031506</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>934</v>
+        <v>1266</v>
       </c>
       <c r="C55" s="7">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>1038</v>
+        <v>1293</v>
       </c>
       <c r="E55">
         <v>1</v>
       </c>
-      <c r="F55">
-        <v>4</v>
+      <c r="F55" s="15">
+        <v>3</v>
       </c>
       <c r="G55">
-        <v>99</v>
+        <v>20</v>
+      </c>
+      <c r="H55">
+        <v>200</v>
       </c>
       <c r="I55">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J55" t="s">
         <v>1024</v>
       </c>
       <c r="K55" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="N55" t="s">
-        <v>935</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A56">
-        <v>22032007</v>
+        <v>22031507</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>936</v>
+        <v>1267</v>
       </c>
       <c r="C56" s="7">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>1019</v>
+        <v>1294</v>
       </c>
       <c r="E56">
         <v>1</v>
       </c>
-      <c r="F56">
-        <v>4</v>
+      <c r="F56" s="15">
+        <v>3</v>
       </c>
       <c r="G56">
-        <v>99</v>
+        <v>20</v>
+      </c>
+      <c r="H56">
+        <v>200</v>
       </c>
       <c r="I56">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J56" t="s">
         <v>1024</v>
       </c>
       <c r="K56" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="N56" t="s">
-        <v>937</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A57">
-        <v>22032008</v>
+        <v>22031508</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1034</v>
+        <v>1268</v>
       </c>
       <c r="C57" s="7">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>1033</v>
+        <v>1295</v>
       </c>
       <c r="E57">
         <v>1</v>
       </c>
-      <c r="F57">
-        <v>4</v>
+      <c r="F57" s="15">
+        <v>3</v>
       </c>
       <c r="G57">
-        <v>99</v>
+        <v>20</v>
+      </c>
+      <c r="H57">
+        <v>200</v>
       </c>
       <c r="I57">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J57" t="s">
         <v>1024</v>
       </c>
       <c r="K57" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="N57" t="s">
-        <v>1032</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A58">
-        <v>22033001</v>
+        <v>22031509</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>938</v>
+        <v>1269</v>
       </c>
       <c r="C58" s="7">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>1197</v>
+        <v>1296</v>
       </c>
       <c r="E58">
         <v>1</v>
       </c>
-      <c r="F58">
-        <v>2</v>
+      <c r="F58" s="15">
+        <v>3</v>
       </c>
       <c r="G58">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H58">
         <v>200</v>
       </c>
       <c r="I58">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J58" t="s">
         <v>1024</v>
       </c>
       <c r="K58" t="s">
-        <v>1024</v>
-      </c>
-      <c r="M58">
-        <v>2</v>
+        <v>1026</v>
       </c>
       <c r="N58" t="s">
-        <v>888</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A59">
-        <v>22033002</v>
+        <v>22031510</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>939</v>
+        <v>1270</v>
       </c>
       <c r="C59" s="7">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>1198</v>
+        <v>1297</v>
       </c>
       <c r="E59">
         <v>1</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="15">
         <v>3</v>
       </c>
       <c r="G59">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H59">
         <v>200</v>
       </c>
       <c r="I59">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J59" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="K59" t="s">
-        <v>1024</v>
-      </c>
-      <c r="M59">
-        <v>2</v>
+        <v>1026</v>
       </c>
       <c r="N59" t="s">
-        <v>940</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A60">
-        <v>22033003</v>
+        <v>22031511</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>941</v>
+        <v>1271</v>
       </c>
       <c r="C60" s="7">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>1199</v>
+        <v>1298</v>
       </c>
       <c r="E60">
         <v>1</v>
       </c>
-      <c r="F60">
-        <v>4</v>
+      <c r="F60" s="15">
+        <v>3</v>
       </c>
       <c r="G60">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H60">
         <v>200</v>
       </c>
       <c r="I60">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J60" t="s">
         <v>1024</v>
       </c>
       <c r="K60" t="s">
-        <v>1024</v>
-      </c>
-      <c r="M60">
-        <v>2</v>
+        <v>1026</v>
       </c>
       <c r="N60" t="s">
-        <v>942</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A61">
-        <v>22033004</v>
+        <v>22031512</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>943</v>
+        <v>1272</v>
       </c>
       <c r="C61" s="7">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>1200</v>
+        <v>1299</v>
       </c>
       <c r="E61">
         <v>1</v>
       </c>
-      <c r="F61">
-        <v>2</v>
+      <c r="F61" s="15">
+        <v>3</v>
       </c>
       <c r="G61">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H61">
         <v>200</v>
       </c>
       <c r="I61">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J61" t="s">
         <v>1024</v>
       </c>
       <c r="K61" t="s">
-        <v>1024</v>
-      </c>
-      <c r="M61">
-        <v>3</v>
+        <v>1026</v>
       </c>
       <c r="N61" t="s">
-        <v>1191</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A62">
-        <v>22033005</v>
+        <v>22031513</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>945</v>
+        <v>1273</v>
       </c>
       <c r="C62" s="7">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>1201</v>
+        <v>1300</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="15">
         <v>3</v>
       </c>
       <c r="G62">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H62">
         <v>200</v>
       </c>
       <c r="I62">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J62" t="s">
         <v>1024</v>
       </c>
       <c r="K62" t="s">
-        <v>1024</v>
-      </c>
-      <c r="M62">
-        <v>3</v>
+        <v>1026</v>
       </c>
       <c r="N62" t="s">
-        <v>1192</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A63">
-        <v>22033006</v>
+        <v>22031514</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>947</v>
+        <v>1274</v>
       </c>
       <c r="C63" s="7">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>1202</v>
+        <v>1301</v>
       </c>
       <c r="E63">
         <v>1</v>
       </c>
-      <c r="F63">
-        <v>4</v>
+      <c r="F63" s="15">
+        <v>3</v>
       </c>
       <c r="G63">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H63">
         <v>200</v>
       </c>
       <c r="I63">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J63" t="s">
         <v>1024</v>
       </c>
       <c r="K63" t="s">
-        <v>1024</v>
-      </c>
-      <c r="M63">
-        <v>3</v>
+        <v>1026</v>
       </c>
       <c r="N63" t="s">
-        <v>1193</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A64">
-        <v>22033007</v>
+        <v>22031515</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>1194</v>
+        <v>1275</v>
       </c>
       <c r="C64" s="7">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>1203</v>
+        <v>1302</v>
       </c>
       <c r="E64">
         <v>1</v>
       </c>
-      <c r="F64">
-        <v>2</v>
+      <c r="F64" s="15">
+        <v>3</v>
       </c>
       <c r="G64">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H64">
         <v>200</v>
       </c>
       <c r="I64">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J64" t="s">
         <v>1024</v>
       </c>
       <c r="K64" t="s">
-        <v>1024</v>
-      </c>
-      <c r="M64">
-        <v>1</v>
+        <v>1026</v>
       </c>
       <c r="N64" t="s">
-        <v>944</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A65">
-        <v>22033008</v>
+        <v>22031516</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>1195</v>
+        <v>1276</v>
       </c>
       <c r="C65" s="7">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>1204</v>
+        <v>1303</v>
       </c>
       <c r="E65">
         <v>1</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="15">
         <v>3</v>
       </c>
       <c r="G65">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="H65">
         <v>200</v>
       </c>
       <c r="I65">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J65" t="s">
         <v>1024</v>
       </c>
       <c r="K65" t="s">
-        <v>1024</v>
-      </c>
-      <c r="M65">
-        <v>1</v>
+        <v>1026</v>
       </c>
       <c r="N65" t="s">
-        <v>946</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A66">
-        <v>22033009</v>
+        <v>22032001</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>1196</v>
+        <v>924</v>
       </c>
       <c r="C66" s="7">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>1205</v>
+        <v>1040</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -24852,11 +24947,8 @@
       <c r="G66">
         <v>99</v>
       </c>
-      <c r="H66">
-        <v>200</v>
-      </c>
       <c r="I66">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J66" t="s">
         <v>1024</v>
@@ -24864,40 +24956,34 @@
       <c r="K66" t="s">
         <v>1024</v>
       </c>
-      <c r="M66">
-        <v>1</v>
-      </c>
       <c r="N66" t="s">
-        <v>948</v>
+        <v>925</v>
       </c>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A67">
-        <v>22033013</v>
+        <v>22032002</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>1027</v>
+        <v>926</v>
       </c>
       <c r="C67" s="7">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>1206</v>
+        <v>1039</v>
       </c>
       <c r="E67">
         <v>1</v>
       </c>
       <c r="F67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G67">
         <v>99</v>
       </c>
-      <c r="H67">
-        <v>200</v>
-      </c>
       <c r="I67">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J67" t="s">
         <v>1024</v>
@@ -24905,40 +24991,34 @@
       <c r="K67" t="s">
         <v>1024</v>
       </c>
-      <c r="M67">
-        <v>1</v>
-      </c>
       <c r="N67" t="s">
-        <v>949</v>
+        <v>927</v>
       </c>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A68">
-        <v>22033014</v>
+        <v>22032003</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>950</v>
+        <v>928</v>
       </c>
       <c r="C68" s="7">
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>1207</v>
+        <v>1035</v>
       </c>
       <c r="E68">
         <v>1</v>
       </c>
       <c r="F68">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G68">
         <v>99</v>
       </c>
-      <c r="H68">
-        <v>200</v>
-      </c>
       <c r="I68">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J68" t="s">
         <v>1024</v>
@@ -24946,40 +25026,34 @@
       <c r="K68" t="s">
         <v>1024</v>
       </c>
-      <c r="M68">
-        <v>4</v>
-      </c>
       <c r="N68" t="s">
-        <v>951</v>
+        <v>929</v>
       </c>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A69">
-        <v>22033015</v>
+        <v>22032004</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>952</v>
+        <v>930</v>
       </c>
       <c r="C69" s="7">
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>1208</v>
+        <v>1036</v>
       </c>
       <c r="E69">
         <v>1</v>
       </c>
       <c r="F69">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G69">
         <v>99</v>
       </c>
-      <c r="H69">
-        <v>200</v>
-      </c>
       <c r="I69">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J69" t="s">
         <v>1024</v>
@@ -24987,66 +25061,57 @@
       <c r="K69" t="s">
         <v>1024</v>
       </c>
-      <c r="M69">
-        <v>4</v>
-      </c>
       <c r="N69" t="s">
-        <v>953</v>
+        <v>931</v>
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A70">
-        <v>22033016</v>
+        <v>22032005</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>954</v>
+        <v>932</v>
       </c>
       <c r="C70" s="7">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>1209</v>
+        <v>1037</v>
       </c>
       <c r="E70">
         <v>1</v>
       </c>
       <c r="F70">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G70">
         <v>99</v>
       </c>
-      <c r="H70">
-        <v>200</v>
-      </c>
       <c r="I70">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J70" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="K70" t="s">
         <v>1024</v>
       </c>
-      <c r="M70">
-        <v>4</v>
-      </c>
       <c r="N70" t="s">
-        <v>955</v>
+        <v>933</v>
       </c>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A71">
-        <v>22033017</v>
+        <v>22032006</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>956</v>
+        <v>934</v>
       </c>
       <c r="C71" s="7">
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>1210</v>
+        <v>1038</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -25057,11 +25122,8 @@
       <c r="G71">
         <v>99</v>
       </c>
-      <c r="H71">
-        <v>200</v>
-      </c>
       <c r="I71">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J71" t="s">
         <v>1024</v>
@@ -25069,40 +25131,34 @@
       <c r="K71" t="s">
         <v>1024</v>
       </c>
-      <c r="M71">
-        <v>4</v>
-      </c>
       <c r="N71" t="s">
-        <v>957</v>
+        <v>935</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A72">
-        <v>22033018</v>
+        <v>22032007</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>958</v>
+        <v>936</v>
       </c>
       <c r="C72" s="7">
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>1211</v>
+        <v>1019</v>
       </c>
       <c r="E72">
         <v>1</v>
       </c>
       <c r="F72">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G72">
         <v>99</v>
       </c>
-      <c r="H72">
-        <v>200</v>
-      </c>
       <c r="I72">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J72" t="s">
         <v>1024</v>
@@ -25110,40 +25166,34 @@
       <c r="K72" t="s">
         <v>1024</v>
       </c>
-      <c r="M72">
-        <v>4</v>
-      </c>
       <c r="N72" t="s">
-        <v>959</v>
+        <v>937</v>
       </c>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A73">
-        <v>22033030</v>
+        <v>22032008</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>1224</v>
+        <v>1034</v>
       </c>
       <c r="C73" s="7">
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>1218</v>
+        <v>1033</v>
       </c>
       <c r="E73">
         <v>1</v>
       </c>
       <c r="F73">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G73">
         <v>99</v>
       </c>
-      <c r="H73">
-        <v>200</v>
-      </c>
       <c r="I73">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J73" t="s">
         <v>1024</v>
@@ -25151,31 +25201,28 @@
       <c r="K73" t="s">
         <v>1024</v>
       </c>
-      <c r="M73">
-        <v>1</v>
-      </c>
       <c r="N73" t="s">
-        <v>1221</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>22033031</v>
+        <v>22033001</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>1225</v>
+        <v>938</v>
       </c>
       <c r="C74" s="7">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>1219</v>
+        <v>1187</v>
       </c>
       <c r="E74">
         <v>1</v>
       </c>
       <c r="F74">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G74">
         <v>99</v>
@@ -25193,30 +25240,30 @@
         <v>1024</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N74" t="s">
-        <v>1222</v>
+        <v>888</v>
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A75">
-        <v>22033032</v>
+        <v>22033002</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>1226</v>
+        <v>939</v>
       </c>
       <c r="C75" s="7">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>1220</v>
+        <v>1188</v>
       </c>
       <c r="E75">
         <v>1</v>
       </c>
       <c r="F75">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G75">
         <v>99</v>
@@ -25228,30 +25275,30 @@
         <v>11</v>
       </c>
       <c r="J75" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="K75" t="s">
         <v>1024</v>
       </c>
       <c r="M75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N75" t="s">
-        <v>1223</v>
+        <v>940</v>
       </c>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>22034001</v>
+        <v>22033003</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>960</v>
+        <v>941</v>
       </c>
       <c r="C76" s="7">
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>1186</v>
+        <v>1189</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -25266,36 +25313,39 @@
         <v>200</v>
       </c>
       <c r="I76">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J76" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="K76" t="s">
         <v>1024</v>
       </c>
+      <c r="M76">
+        <v>2</v>
+      </c>
       <c r="N76" t="s">
-        <v>961</v>
+        <v>942</v>
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>22034002</v>
+        <v>22033004</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>962</v>
+        <v>943</v>
       </c>
       <c r="C77" s="7">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>1187</v>
+        <v>1190</v>
       </c>
       <c r="E77">
         <v>1</v>
       </c>
       <c r="F77">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G77">
         <v>99</v>
@@ -25304,7 +25354,7 @@
         <v>200</v>
       </c>
       <c r="I77">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J77" t="s">
         <v>1024</v>
@@ -25312,28 +25362,31 @@
       <c r="K77" t="s">
         <v>1024</v>
       </c>
+      <c r="M77">
+        <v>3</v>
+      </c>
       <c r="N77" t="s">
-        <v>963</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>22034003</v>
+        <v>22033005</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>1189</v>
+        <v>945</v>
       </c>
       <c r="C78" s="7">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>1188</v>
+        <v>1191</v>
       </c>
       <c r="E78">
         <v>1</v>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G78">
         <v>99</v>
@@ -25351,30 +25404,30 @@
         <v>1024</v>
       </c>
       <c r="M78">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N78" t="s">
-        <v>964</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>22034004</v>
+        <v>22033006</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>965</v>
+        <v>947</v>
       </c>
       <c r="C79" s="7">
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>1212</v>
+        <v>1192</v>
       </c>
       <c r="E79">
         <v>1</v>
       </c>
       <c r="F79">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G79">
         <v>99</v>
@@ -25392,24 +25445,24 @@
         <v>1024</v>
       </c>
       <c r="M79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>966</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A80">
-        <v>22034005</v>
+        <v>22033007</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>967</v>
+        <v>1184</v>
       </c>
       <c r="C80" s="7">
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>1213</v>
+        <v>1193</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -25433,30 +25486,30 @@
         <v>1024</v>
       </c>
       <c r="M80">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N80" t="s">
-        <v>968</v>
+        <v>944</v>
       </c>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A81">
-        <v>22034006</v>
+        <v>22033008</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>969</v>
+        <v>1185</v>
       </c>
       <c r="C81" s="7">
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>1214</v>
+        <v>1194</v>
       </c>
       <c r="E81">
         <v>1</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G81">
         <v>99</v>
@@ -25474,30 +25527,30 @@
         <v>1024</v>
       </c>
       <c r="M81">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N81" t="s">
-        <v>970</v>
+        <v>946</v>
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A82">
-        <v>22034007</v>
+        <v>22033009</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>971</v>
+        <v>1186</v>
       </c>
       <c r="C82" s="7">
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>1215</v>
+        <v>1195</v>
       </c>
       <c r="E82">
         <v>1</v>
       </c>
       <c r="F82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G82">
         <v>99</v>
@@ -25515,30 +25568,30 @@
         <v>1024</v>
       </c>
       <c r="M82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N82" t="s">
-        <v>972</v>
+        <v>948</v>
       </c>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A83">
-        <v>22034008</v>
+        <v>22033013</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>973</v>
+        <v>1027</v>
       </c>
       <c r="C83" s="7">
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>1216</v>
+        <v>1196</v>
       </c>
       <c r="E83">
         <v>1</v>
       </c>
       <c r="F83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G83">
         <v>99</v>
@@ -25556,30 +25609,30 @@
         <v>1024</v>
       </c>
       <c r="M83">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N83" t="s">
-        <v>974</v>
+        <v>949</v>
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A84">
-        <v>22034009</v>
+        <v>22033014</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>1190</v>
+        <v>950</v>
       </c>
       <c r="C84" s="7">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>1217</v>
+        <v>1197</v>
       </c>
       <c r="E84">
         <v>1</v>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G84">
         <v>99</v>
@@ -25600,27 +25653,27 @@
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>975</v>
+        <v>951</v>
       </c>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A85">
-        <v>22034010</v>
+        <v>22033015</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>1372</v>
+        <v>952</v>
       </c>
       <c r="C85" s="7">
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>1366</v>
+        <v>1198</v>
       </c>
       <c r="E85">
         <v>1</v>
       </c>
       <c r="F85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G85">
         <v>99</v>
@@ -25629,7 +25682,7 @@
         <v>200</v>
       </c>
       <c r="I85">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J85" t="s">
         <v>1024</v>
@@ -25641,27 +25694,27 @@
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>1369</v>
+        <v>953</v>
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A86">
-        <v>22034011</v>
+        <v>22033016</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>1373</v>
+        <v>954</v>
       </c>
       <c r="C86" s="7">
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>1367</v>
+        <v>1199</v>
       </c>
       <c r="E86">
         <v>1</v>
       </c>
       <c r="F86">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G86">
         <v>99</v>
@@ -25670,36 +25723,39 @@
         <v>200</v>
       </c>
       <c r="I86">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J86" t="s">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="K86" t="s">
         <v>1024</v>
       </c>
+      <c r="M86">
+        <v>4</v>
+      </c>
       <c r="N86" t="s">
-        <v>1370</v>
+        <v>955</v>
       </c>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A87">
-        <v>22034012</v>
+        <v>22033017</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>1374</v>
+        <v>956</v>
       </c>
       <c r="C87" s="7">
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>1368</v>
+        <v>1200</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
       <c r="F87">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G87">
         <v>99</v>
@@ -25708,7 +25764,7 @@
         <v>200</v>
       </c>
       <c r="I87">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J87" t="s">
         <v>1024</v>
@@ -25716,22 +25772,25 @@
       <c r="K87" t="s">
         <v>1024</v>
       </c>
+      <c r="M87">
+        <v>4</v>
+      </c>
       <c r="N87" t="s">
-        <v>1371</v>
+        <v>957</v>
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A88">
-        <v>22034013</v>
+        <v>22033018</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>1376</v>
+        <v>958</v>
       </c>
       <c r="C88" s="7">
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>1375</v>
+        <v>1201</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -25746,7 +25805,7 @@
         <v>200</v>
       </c>
       <c r="I88">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J88" t="s">
         <v>1024</v>
@@ -25754,28 +25813,31 @@
       <c r="K88" t="s">
         <v>1024</v>
       </c>
+      <c r="M88">
+        <v>4</v>
+      </c>
       <c r="N88" t="s">
-        <v>1377</v>
+        <v>959</v>
       </c>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A89">
-        <v>22034014</v>
-      </c>
-      <c r="B89" s="15" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C89" s="15">
-        <v>1</v>
-      </c>
-      <c r="D89" s="15" t="s">
-        <v>1378</v>
-      </c>
-      <c r="E89" s="15">
-        <v>1</v>
-      </c>
-      <c r="F89" s="15">
-        <v>2</v>
+        <v>22033030</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C89" s="7">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>3</v>
       </c>
       <c r="G89">
         <v>99</v>
@@ -25784,7 +25846,7 @@
         <v>200</v>
       </c>
       <c r="I89">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J89" t="s">
         <v>1024</v>
@@ -25792,29 +25854,30 @@
       <c r="K89" t="s">
         <v>1024</v>
       </c>
-      <c r="L89" s="23"/>
-      <c r="M89" s="15"/>
-      <c r="N89" s="15" t="s">
-        <v>1382</v>
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
+        <v>1211</v>
       </c>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A90">
-        <v>22034015</v>
-      </c>
-      <c r="B90" s="15" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C90" s="15">
-        <v>1</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>1379</v>
-      </c>
-      <c r="E90" s="15">
-        <v>1</v>
-      </c>
-      <c r="F90" s="15">
+        <v>22033031</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C90" s="7">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
         <v>4</v>
       </c>
       <c r="G90">
@@ -25824,7 +25887,7 @@
         <v>200</v>
       </c>
       <c r="I90">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J90" t="s">
         <v>1024</v>
@@ -25832,30 +25895,31 @@
       <c r="K90" t="s">
         <v>1024</v>
       </c>
-      <c r="L90" s="23"/>
-      <c r="M90" s="15"/>
-      <c r="N90" s="15" t="s">
-        <v>1383</v>
+      <c r="M90">
+        <v>1</v>
+      </c>
+      <c r="N90" t="s">
+        <v>1212</v>
       </c>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A91">
-        <v>22034016</v>
-      </c>
-      <c r="B91" s="15" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C91" s="15">
-        <v>1</v>
-      </c>
-      <c r="D91" s="15" t="s">
-        <v>1386</v>
-      </c>
-      <c r="E91" s="15">
-        <v>1</v>
-      </c>
-      <c r="F91" s="15">
-        <v>6</v>
+        <v>22033032</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C91" s="7">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1210</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>5</v>
       </c>
       <c r="G91">
         <v>99</v>
@@ -25864,7 +25928,7 @@
         <v>200</v>
       </c>
       <c r="I91">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J91" t="s">
         <v>1024</v>
@@ -25872,71 +25936,78 @@
       <c r="K91" t="s">
         <v>1024</v>
       </c>
-      <c r="L91" s="23"/>
-      <c r="M91" s="15"/>
-      <c r="N91" s="15" t="s">
-        <v>1384</v>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91" t="s">
+        <v>1213</v>
       </c>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A92">
-        <v>22037001</v>
+        <v>22034001</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>976</v>
+        <v>960</v>
       </c>
       <c r="C92" s="7">
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>977</v>
+        <v>1176</v>
       </c>
       <c r="E92">
         <v>1</v>
       </c>
+      <c r="F92">
+        <v>4</v>
+      </c>
       <c r="G92">
         <v>99</v>
       </c>
       <c r="H92">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="I92">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J92" t="s">
-        <v>1024</v>
+        <v>1031</v>
       </c>
       <c r="K92" t="s">
         <v>1024</v>
       </c>
       <c r="N92" t="s">
-        <v>978</v>
+        <v>961</v>
       </c>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A93">
-        <v>22037002</v>
+        <v>22034002</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>1231</v>
+        <v>962</v>
       </c>
       <c r="C93" s="7">
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>979</v>
+        <v>1177</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
+      <c r="F93">
+        <v>6</v>
+      </c>
       <c r="G93">
         <v>99</v>
       </c>
       <c r="H93">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="I93">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J93" t="s">
         <v>1024</v>
@@ -25945,33 +26016,36 @@
         <v>1024</v>
       </c>
       <c r="N93" t="s">
-        <v>980</v>
+        <v>963</v>
       </c>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A94">
-        <v>22037003</v>
+        <v>22034003</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>981</v>
+        <v>1179</v>
       </c>
       <c r="C94" s="7">
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>982</v>
+        <v>1178</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
       <c r="G94">
         <v>99</v>
       </c>
       <c r="H94">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="I94">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J94" t="s">
         <v>1024</v>
@@ -25979,34 +26053,40 @@
       <c r="K94" t="s">
         <v>1024</v>
       </c>
+      <c r="M94">
+        <v>4</v>
+      </c>
       <c r="N94" t="s">
-        <v>983</v>
+        <v>964</v>
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A95">
-        <v>22037004</v>
+        <v>22034004</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>984</v>
+        <v>965</v>
       </c>
       <c r="C95" s="7">
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>985</v>
+        <v>1202</v>
       </c>
       <c r="E95">
         <v>1</v>
       </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
       <c r="G95">
         <v>99</v>
       </c>
       <c r="H95">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="I95">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J95" t="s">
         <v>1024</v>
@@ -26014,69 +26094,81 @@
       <c r="K95" t="s">
         <v>1024</v>
       </c>
+      <c r="M95">
+        <v>4</v>
+      </c>
       <c r="N95" t="s">
-        <v>986</v>
+        <v>966</v>
       </c>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A96">
-        <v>22037101</v>
+        <v>22034005</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>987</v>
+        <v>967</v>
       </c>
       <c r="C96" s="7">
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>988</v>
+        <v>1203</v>
       </c>
       <c r="E96">
         <v>1</v>
       </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
       <c r="G96">
         <v>99</v>
       </c>
       <c r="H96">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="I96">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J96" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="K96" t="s">
         <v>1024</v>
       </c>
+      <c r="M96">
+        <v>4</v>
+      </c>
       <c r="N96" t="s">
-        <v>989</v>
+        <v>968</v>
       </c>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A97">
-        <v>22037102</v>
+        <v>22034006</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>1232</v>
+        <v>969</v>
       </c>
       <c r="C97" s="7">
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>990</v>
+        <v>1204</v>
       </c>
       <c r="E97">
         <v>1</v>
       </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
       <c r="G97">
         <v>99</v>
       </c>
       <c r="H97">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="I97">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J97" t="s">
         <v>1024</v>
@@ -26084,31 +26176,37 @@
       <c r="K97" t="s">
         <v>1024</v>
       </c>
+      <c r="M97">
+        <v>4</v>
+      </c>
       <c r="N97" t="s">
-        <v>991</v>
+        <v>970</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A98">
-        <v>22037103</v>
+        <v>22034007</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>992</v>
+        <v>971</v>
       </c>
       <c r="C98" s="7">
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>1227</v>
+        <v>1205</v>
       </c>
       <c r="E98">
         <v>1</v>
       </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
       <c r="G98">
         <v>99</v>
       </c>
       <c r="H98">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="I98">
         <v>11</v>
@@ -26120,37 +26218,652 @@
         <v>1024</v>
       </c>
       <c r="M98">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N98" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A99">
+        <v>22034008</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>973</v>
+      </c>
+      <c r="C99" s="7">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+      <c r="G99">
+        <v>99</v>
+      </c>
+      <c r="H99">
+        <v>200</v>
+      </c>
+      <c r="I99">
+        <v>11</v>
+      </c>
+      <c r="J99" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K99" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M99">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A100">
+        <v>22034009</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>1180</v>
+      </c>
+      <c r="C100" s="7">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>2</v>
+      </c>
+      <c r="G100">
+        <v>99</v>
+      </c>
+      <c r="H100">
+        <v>200</v>
+      </c>
+      <c r="I100">
+        <v>11</v>
+      </c>
+      <c r="J100" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K100" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M100">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A101">
+        <v>22034010</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C101" s="7">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>2</v>
+      </c>
+      <c r="G101">
+        <v>99</v>
+      </c>
+      <c r="H101">
+        <v>200</v>
+      </c>
+      <c r="I101">
+        <v>13</v>
+      </c>
+      <c r="J101" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K101" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M101">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A102">
+        <v>22034011</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C102" s="7">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102">
+        <v>99</v>
+      </c>
+      <c r="H102">
+        <v>200</v>
+      </c>
+      <c r="I102">
+        <v>13</v>
+      </c>
+      <c r="J102" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K102" t="s">
+        <v>1024</v>
+      </c>
+      <c r="N102" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A103">
+        <v>22034012</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C103" s="7">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1346</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103">
+        <v>99</v>
+      </c>
+      <c r="H103">
+        <v>200</v>
+      </c>
+      <c r="I103">
+        <v>13</v>
+      </c>
+      <c r="J103" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K103" t="s">
+        <v>1024</v>
+      </c>
+      <c r="N103" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A104">
+        <v>22034013</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C104" s="7">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1353</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>5</v>
+      </c>
+      <c r="G104">
+        <v>99</v>
+      </c>
+      <c r="H104">
+        <v>200</v>
+      </c>
+      <c r="I104">
+        <v>13</v>
+      </c>
+      <c r="J104" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K104" t="s">
+        <v>1024</v>
+      </c>
+      <c r="N104" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A105">
+        <v>22034014</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C105" s="15">
+        <v>1</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E105" s="15">
+        <v>1</v>
+      </c>
+      <c r="F105" s="15">
+        <v>2</v>
+      </c>
+      <c r="G105">
+        <v>99</v>
+      </c>
+      <c r="H105">
+        <v>200</v>
+      </c>
+      <c r="I105">
+        <v>13</v>
+      </c>
+      <c r="J105" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K105" t="s">
+        <v>1024</v>
+      </c>
+      <c r="L105" s="23"/>
+      <c r="M105" s="15"/>
+      <c r="N105" s="15" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A106">
+        <v>22034015</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C106" s="15">
+        <v>1</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E106" s="15">
+        <v>1</v>
+      </c>
+      <c r="F106" s="15">
+        <v>4</v>
+      </c>
+      <c r="G106">
+        <v>99</v>
+      </c>
+      <c r="H106">
+        <v>200</v>
+      </c>
+      <c r="I106">
+        <v>13</v>
+      </c>
+      <c r="J106" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K106" t="s">
+        <v>1024</v>
+      </c>
+      <c r="L106" s="23"/>
+      <c r="M106" s="15"/>
+      <c r="N106" s="15" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A107">
+        <v>22034016</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C107" s="15">
+        <v>1</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>1364</v>
+      </c>
+      <c r="E107" s="15">
+        <v>1</v>
+      </c>
+      <c r="F107" s="15">
+        <v>6</v>
+      </c>
+      <c r="G107">
+        <v>99</v>
+      </c>
+      <c r="H107">
+        <v>200</v>
+      </c>
+      <c r="I107">
+        <v>13</v>
+      </c>
+      <c r="J107" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K107" t="s">
+        <v>1024</v>
+      </c>
+      <c r="L107" s="23"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="15" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A108">
+        <v>22037001</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>976</v>
+      </c>
+      <c r="C108" s="7">
+        <v>1</v>
+      </c>
+      <c r="D108" t="s">
+        <v>977</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="G108">
+        <v>99</v>
+      </c>
+      <c r="H108">
+        <v>50</v>
+      </c>
+      <c r="I108">
+        <v>17</v>
+      </c>
+      <c r="J108" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K108" t="s">
+        <v>1024</v>
+      </c>
+      <c r="N108" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A109">
+        <v>22037002</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C109" s="7">
+        <v>1</v>
+      </c>
+      <c r="D109" t="s">
+        <v>979</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="G109">
+        <v>99</v>
+      </c>
+      <c r="H109">
+        <v>50</v>
+      </c>
+      <c r="I109">
+        <v>17</v>
+      </c>
+      <c r="J109" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K109" t="s">
+        <v>1024</v>
+      </c>
+      <c r="N109" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A110">
+        <v>22037003</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="C110" s="7">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>982</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="G110">
+        <v>99</v>
+      </c>
+      <c r="H110">
+        <v>50</v>
+      </c>
+      <c r="I110">
+        <v>17</v>
+      </c>
+      <c r="J110" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K110" t="s">
+        <v>1024</v>
+      </c>
+      <c r="N110" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A111">
+        <v>22037004</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="C111" s="7">
+        <v>1</v>
+      </c>
+      <c r="D111" t="s">
+        <v>985</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="G111">
+        <v>99</v>
+      </c>
+      <c r="H111">
+        <v>50</v>
+      </c>
+      <c r="I111">
+        <v>17</v>
+      </c>
+      <c r="J111" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K111" t="s">
+        <v>1024</v>
+      </c>
+      <c r="N111" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A112">
+        <v>22037101</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="C112" s="7">
+        <v>1</v>
+      </c>
+      <c r="D112" t="s">
+        <v>988</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <v>99</v>
+      </c>
+      <c r="H112">
+        <v>50</v>
+      </c>
+      <c r="I112">
+        <v>13</v>
+      </c>
+      <c r="J112" t="s">
+        <v>1031</v>
+      </c>
+      <c r="K112" t="s">
+        <v>1024</v>
+      </c>
+      <c r="N112" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A113">
+        <v>22037102</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C113" s="7">
+        <v>1</v>
+      </c>
+      <c r="D113" t="s">
+        <v>990</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="G113">
+        <v>99</v>
+      </c>
+      <c r="H113">
+        <v>50</v>
+      </c>
+      <c r="I113">
+        <v>13</v>
+      </c>
+      <c r="J113" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K113" t="s">
+        <v>1024</v>
+      </c>
+      <c r="N113" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A114">
+        <v>22037103</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>992</v>
+      </c>
+      <c r="C114" s="7">
+        <v>1</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="G114">
+        <v>99</v>
+      </c>
+      <c r="H114">
+        <v>50</v>
+      </c>
+      <c r="I114">
+        <v>11</v>
+      </c>
+      <c r="J114" t="s">
+        <v>1024</v>
+      </c>
+      <c r="K114" t="s">
+        <v>1024</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114" t="s">
         <v>993</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="D4:N7 D8:K8 M8:N11 J86:K87 L8:L72 M15:N72 H5:H72 D74:K85 L74:N87 D73:N73 H74:H90 J88:N91 D86:H91 D15:K72 D92:N98 D9:H11 J9:K11">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
+  <conditionalFormatting sqref="D4:N7 D8:K8 M8:N11 J102:K103 D90:K101 L90:N103 H90:H106 J104:N107 D102:H107 D108:N114 D9:H11 J9:K11 H5:H21 L8:L21 M15:N21 D15:K21 D38:N89">
+    <cfRule type="containsBlanks" dxfId="6" priority="7">
       <formula>LEN(TRIM(D4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:K14 M12:N14">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
+    <cfRule type="containsBlanks" dxfId="5" priority="6">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I86:I88">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
-      <formula>LEN(TRIM(I86))=0</formula>
+  <conditionalFormatting sqref="I102:I104">
+    <cfRule type="containsBlanks" dxfId="4" priority="5">
+      <formula>LEN(TRIM(I102))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I89:I91">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(I89))=0</formula>
+  <conditionalFormatting sqref="I105:I107">
+    <cfRule type="containsBlanks" dxfId="3" priority="4">
+      <formula>LEN(TRIM(I105))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9:I11">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(I9))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22:H37 L22:L37">
+    <cfRule type="containsBlanks" dxfId="1" priority="2">
+      <formula>LEN(TRIM(H22))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:K37 M22:N37">
     <cfRule type="containsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(I9))=0</formula>
+      <formula>LEN(TRIM(D22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ConfigData/Xlsx/HItem.xlsx
+++ b/ConfigData/Xlsx/HItem.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TOMClassic\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="材料" sheetId="1" r:id="rId1"/>
@@ -6571,69 +6571,6 @@
   </cellStyles>
   <dxfs count="59">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -7075,6 +7012,55 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -7504,6 +7490,13 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -7913,6 +7906,13 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -7927,78 +7927,78 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:N347" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57" tableBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:N347" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56" tableBorderDxfId="55">
   <autoFilter ref="A3:N347"/>
   <sortState ref="A4:N347">
     <sortCondition ref="A3:A347"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="55"/>
-    <tableColumn id="2" name="Name" dataDxfId="54"/>
+    <tableColumn id="1" name="Id" dataDxfId="54"/>
+    <tableColumn id="2" name="Name" dataDxfId="53"/>
     <tableColumn id="10" name="Ename"/>
-    <tableColumn id="3" name="Type" dataDxfId="53"/>
-    <tableColumn id="4" name="Descript" dataDxfId="52"/>
-    <tableColumn id="5" name="Level" dataDxfId="51"/>
-    <tableColumn id="6" name="Rare" dataDxfId="50"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="49"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="48"/>
-    <tableColumn id="9" name="SubType" dataDxfId="47"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="46"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="45"/>
-    <tableColumn id="15" name="RandomGroup" dataDxfId="44"/>
-    <tableColumn id="14" name="Url" dataDxfId="43"/>
+    <tableColumn id="3" name="Type" dataDxfId="52"/>
+    <tableColumn id="4" name="Descript" dataDxfId="51"/>
+    <tableColumn id="5" name="Level" dataDxfId="50"/>
+    <tableColumn id="6" name="Rare" dataDxfId="49"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="48"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="47"/>
+    <tableColumn id="9" name="SubType" dataDxfId="46"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="45"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="44"/>
+    <tableColumn id="15" name="RandomGroup" dataDxfId="43"/>
+    <tableColumn id="14" name="Url" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:N20" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41" tableBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:N20" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38">
   <autoFilter ref="A3:N20"/>
   <sortState ref="A4:O435">
     <sortCondition ref="A3:A435"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="39"/>
-    <tableColumn id="2" name="Name" dataDxfId="38"/>
-    <tableColumn id="10" name="Ename" dataDxfId="37"/>
-    <tableColumn id="3" name="Type" dataDxfId="36"/>
-    <tableColumn id="4" name="Descript" dataDxfId="35"/>
-    <tableColumn id="5" name="Level" dataDxfId="34"/>
-    <tableColumn id="6" name="Rare" dataDxfId="33"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="32"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="31"/>
-    <tableColumn id="9" name="SubType" dataDxfId="30"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="29"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="28"/>
-    <tableColumn id="15" name="RandomGroup" dataDxfId="27"/>
-    <tableColumn id="14" name="Url" dataDxfId="26"/>
+    <tableColumn id="1" name="Id" dataDxfId="37"/>
+    <tableColumn id="2" name="Name" dataDxfId="36"/>
+    <tableColumn id="10" name="Ename" dataDxfId="35"/>
+    <tableColumn id="3" name="Type" dataDxfId="34"/>
+    <tableColumn id="4" name="Descript" dataDxfId="33"/>
+    <tableColumn id="5" name="Level" dataDxfId="32"/>
+    <tableColumn id="6" name="Rare" dataDxfId="31"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="30"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="29"/>
+    <tableColumn id="9" name="SubType" dataDxfId="28"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="27"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="26"/>
+    <tableColumn id="15" name="RandomGroup" dataDxfId="25"/>
+    <tableColumn id="14" name="Url" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:N114" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:N114" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="A3:N114"/>
   <sortState ref="A4:N114">
     <sortCondition ref="A3:A114"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="22"/>
-    <tableColumn id="2" name="Name" dataDxfId="21"/>
-    <tableColumn id="10" name="Ename" dataDxfId="20"/>
-    <tableColumn id="3" name="Type" dataDxfId="19"/>
-    <tableColumn id="4" name="Descript" dataDxfId="18"/>
-    <tableColumn id="5" name="Level" dataDxfId="17"/>
-    <tableColumn id="6" name="Rare" dataDxfId="16"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="15"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="14"/>
-    <tableColumn id="9" name="SubType" dataDxfId="13"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="12"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="11"/>
-    <tableColumn id="15" name="RandomGroup" dataDxfId="10"/>
-    <tableColumn id="14" name="Url" dataDxfId="9"/>
+    <tableColumn id="1" name="Id" dataDxfId="13"/>
+    <tableColumn id="2" name="Name" dataDxfId="12"/>
+    <tableColumn id="10" name="Ename" dataDxfId="11"/>
+    <tableColumn id="3" name="Type" dataDxfId="10"/>
+    <tableColumn id="4" name="Descript" dataDxfId="9"/>
+    <tableColumn id="5" name="Level" dataDxfId="8"/>
+    <tableColumn id="6" name="Rare" dataDxfId="7"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="6"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="5"/>
+    <tableColumn id="9" name="SubType" dataDxfId="4"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="3"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="2"/>
+    <tableColumn id="15" name="RandomGroup" dataDxfId="1"/>
+    <tableColumn id="14" name="Url" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8327,7 +8327,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N347"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -23616,7 +23616,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A4:N347">
-    <cfRule type="containsBlanks" dxfId="8" priority="1">
+    <cfRule type="containsBlanks" dxfId="58" priority="1">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23633,11 +23633,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1:N1048576"/>
+      <selection pane="bottomRight" activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -23805,10 +23805,10 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4" t="s">
-        <v>1020</v>
+        <v>16</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>1018</v>
       </c>
       <c r="L4" t="s">
         <v>1020</v>
@@ -24392,7 +24392,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="A4:N20">
-    <cfRule type="containsBlanks" dxfId="7" priority="2">
+    <cfRule type="containsBlanks" dxfId="41" priority="2">
       <formula>LEN(TRIM(A4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24410,7 +24410,7 @@
   <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="N1" sqref="N1:N1048576"/>
@@ -29070,37 +29070,37 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="E8:L8 K102:L103 E90:L101 I90:I106 E102:I107 E9:I11 K9:L11 I5:I21 M8:M21 E15:L21 E4:M7 M90:M103 K104:M107 E108:M114 E38:M89 N4:N114">
-    <cfRule type="containsBlanks" dxfId="6" priority="7">
+    <cfRule type="containsBlanks" dxfId="23" priority="7">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:L14">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
+    <cfRule type="containsBlanks" dxfId="22" priority="6">
       <formula>LEN(TRIM(E12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J102:J104">
-    <cfRule type="containsBlanks" dxfId="4" priority="5">
+    <cfRule type="containsBlanks" dxfId="21" priority="5">
       <formula>LEN(TRIM(J102))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J105:J107">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
+    <cfRule type="containsBlanks" dxfId="20" priority="4">
       <formula>LEN(TRIM(J105))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:J11">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" dxfId="19" priority="3">
       <formula>LEN(TRIM(J9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22:I37 M22:M37">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="18" priority="2">
       <formula>LEN(TRIM(I22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:L37">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="1">
       <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/HItem.xlsx
+++ b/ConfigData/Xlsx/HItem.xlsx
@@ -6532,100 +6532,6 @@
   </cellStyles>
   <dxfs count="57">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -6885,6 +6791,25 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -7036,6 +6961,41 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="3" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7299,6 +7259,25 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -7438,6 +7417,20 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="3" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7824,6 +7817,13 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -7838,78 +7838,78 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:N347" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" tableBorderDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:N347" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54" tableBorderDxfId="53">
   <autoFilter ref="A3:N347"/>
   <sortState ref="A4:N347">
     <sortCondition ref="A3:A347"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="53"/>
-    <tableColumn id="2" name="Name" dataDxfId="52"/>
+    <tableColumn id="1" name="Id" dataDxfId="52"/>
+    <tableColumn id="2" name="Name" dataDxfId="51"/>
     <tableColumn id="10" name="Ename"/>
-    <tableColumn id="3" name="Type" dataDxfId="51"/>
+    <tableColumn id="3" name="Type" dataDxfId="50"/>
     <tableColumn id="13" name="SubType"/>
-    <tableColumn id="4" name="Descript" dataDxfId="50"/>
-    <tableColumn id="5" name="Level" dataDxfId="49"/>
-    <tableColumn id="6" name="Rare" dataDxfId="48"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="47"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="46"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="45"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="44"/>
-    <tableColumn id="15" name="RandomGroup" dataDxfId="43"/>
-    <tableColumn id="14" name="Url" dataDxfId="42"/>
+    <tableColumn id="4" name="Descript" dataDxfId="49"/>
+    <tableColumn id="5" name="Level" dataDxfId="48"/>
+    <tableColumn id="6" name="Rare" dataDxfId="47"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="46"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="45"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="44"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="43"/>
+    <tableColumn id="15" name="RandomGroup" dataDxfId="42"/>
+    <tableColumn id="14" name="Url" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:N20" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" tableBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:N20" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37" tableBorderDxfId="36">
   <autoFilter ref="A3:N20"/>
   <sortState ref="A4:O435">
     <sortCondition ref="A3:A435"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="38"/>
-    <tableColumn id="2" name="Name" dataDxfId="37"/>
-    <tableColumn id="10" name="Ename" dataDxfId="36"/>
-    <tableColumn id="3" name="Type" dataDxfId="35"/>
-    <tableColumn id="13" name="SubType" dataDxfId="8"/>
-    <tableColumn id="4" name="Descript" dataDxfId="34"/>
-    <tableColumn id="5" name="Level" dataDxfId="33"/>
-    <tableColumn id="6" name="Rare" dataDxfId="32"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="31"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="30"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="29"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="28"/>
-    <tableColumn id="15" name="RandomGroup" dataDxfId="27"/>
-    <tableColumn id="14" name="Url" dataDxfId="26"/>
+    <tableColumn id="1" name="Id" dataDxfId="35"/>
+    <tableColumn id="2" name="Name" dataDxfId="34"/>
+    <tableColumn id="10" name="Ename" dataDxfId="33"/>
+    <tableColumn id="3" name="Type" dataDxfId="32"/>
+    <tableColumn id="13" name="SubType" dataDxfId="31"/>
+    <tableColumn id="4" name="Descript" dataDxfId="30"/>
+    <tableColumn id="5" name="Level" dataDxfId="29"/>
+    <tableColumn id="6" name="Rare" dataDxfId="28"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="27"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="26"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="25"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="24"/>
+    <tableColumn id="15" name="RandomGroup" dataDxfId="23"/>
+    <tableColumn id="14" name="Url" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:N115" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:N115" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
   <autoFilter ref="A3:N115"/>
   <sortState ref="A4:N115">
     <sortCondition ref="A3:A115"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="1" name="Id" dataDxfId="22"/>
-    <tableColumn id="2" name="Name" dataDxfId="21"/>
-    <tableColumn id="10" name="Ename" dataDxfId="20"/>
-    <tableColumn id="3" name="Type" dataDxfId="19"/>
+    <tableColumn id="1" name="Id" dataDxfId="13"/>
+    <tableColumn id="2" name="Name" dataDxfId="12"/>
+    <tableColumn id="10" name="Ename" dataDxfId="11"/>
+    <tableColumn id="3" name="Type" dataDxfId="10"/>
     <tableColumn id="13" name="SubType" dataDxfId="9"/>
-    <tableColumn id="4" name="Descript" dataDxfId="18"/>
-    <tableColumn id="5" name="Level" dataDxfId="17"/>
-    <tableColumn id="6" name="Rare" dataDxfId="16"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="15"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="14"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="13"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="12"/>
-    <tableColumn id="15" name="RandomGroup" dataDxfId="11"/>
-    <tableColumn id="14" name="Url" dataDxfId="10"/>
+    <tableColumn id="4" name="Descript" dataDxfId="8"/>
+    <tableColumn id="5" name="Level" dataDxfId="7"/>
+    <tableColumn id="6" name="Rare" dataDxfId="6"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="5"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="4"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="3"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="2"/>
+    <tableColumn id="15" name="RandomGroup" dataDxfId="1"/>
+    <tableColumn id="14" name="Url" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -23528,7 +23528,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="B4:N347">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="56" priority="1">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24305,12 +24305,12 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="B5:N20">
-    <cfRule type="containsBlanks" dxfId="6" priority="3">
+    <cfRule type="containsBlanks" dxfId="40" priority="3">
       <formula>LEN(TRIM(B5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:N4">
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
+    <cfRule type="containsBlanks" dxfId="39" priority="1">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24328,10 +24328,10 @@
   <dimension ref="A1:N115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B65" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B62" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C74" sqref="C74"/>
+      <selection pane="bottomRight" activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27477,7 +27477,7 @@
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>22301605</v>
+        <v>22301601</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>1738</v>
@@ -27515,7 +27515,7 @@
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>22301606</v>
+        <v>22301602</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>1739</v>
@@ -27553,7 +27553,7 @@
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A80">
-        <v>22301607</v>
+        <v>22301603</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>1740</v>
@@ -27591,7 +27591,7 @@
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A81">
-        <v>22301608</v>
+        <v>22301604</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>1741</v>
@@ -29030,27 +29030,27 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="J91:J107 F103:J108 F9:J11 J5:J21 M8:M21 E5:J8 E109:J115 K5:M7 K8:L37 E4:N4 N5:N80 K38:M80 E12:J80 E82:J102 K82:N115 E81:N81">
-    <cfRule type="containsBlanks" dxfId="4" priority="8">
+    <cfRule type="containsBlanks" dxfId="21" priority="8">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103:E105">
-    <cfRule type="containsBlanks" dxfId="3" priority="6">
+    <cfRule type="containsBlanks" dxfId="20" priority="6">
       <formula>LEN(TRIM(E103))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106:E108">
-    <cfRule type="containsBlanks" dxfId="2" priority="5">
+    <cfRule type="containsBlanks" dxfId="19" priority="5">
       <formula>LEN(TRIM(E106))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E11">
-    <cfRule type="containsBlanks" dxfId="1" priority="4">
+    <cfRule type="containsBlanks" dxfId="18" priority="4">
       <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J37 M22:M37">
-    <cfRule type="containsBlanks" dxfId="0" priority="3">
+    <cfRule type="containsBlanks" dxfId="17" priority="3">
       <formula>LEN(TRIM(J22))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ConfigData/Xlsx/HItem.xlsx
+++ b/ConfigData/Xlsx/HItem.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="3"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="材料" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'~素材类型分析'!$A$1:$B$19</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -4990,1661 +4990,1664 @@
     <t>jinbi</t>
   </si>
   <si>
+    <t>zhongxingmofayaoji</t>
+  </si>
+  <si>
+    <t>daxingmofayaoji</t>
+  </si>
+  <si>
+    <t>xiaoxinghuoliyaoji</t>
+  </si>
+  <si>
+    <t>zhongxinghuoliyaoji</t>
+  </si>
+  <si>
+    <t>daxinghuoliyaoji</t>
+  </si>
+  <si>
+    <t>xiaoxingtiliyaoji</t>
+  </si>
+  <si>
+    <t>zhongxingtiliyaoji</t>
+  </si>
+  <si>
+    <t>daxingtiliyaoji</t>
+  </si>
+  <si>
+    <t>suijiwuqika</t>
+  </si>
+  <si>
+    <t>suijimofaka</t>
+  </si>
+  <si>
+    <t>fuwen-chamu</t>
+  </si>
+  <si>
+    <t>fuwen-puer</t>
+  </si>
+  <si>
+    <t>fuwen-aier</t>
+  </si>
+  <si>
+    <t>muzhixiulichui</t>
+  </si>
+  <si>
+    <t>gangtiexiulichui</t>
+  </si>
+  <si>
+    <t>shenshengxiulichui</t>
+  </si>
+  <si>
+    <t>nenliangzhishu</t>
+  </si>
+  <si>
+    <t>gongsuyaoshui</t>
+  </si>
+  <si>
+    <t>shouhuyaoshui</t>
+  </si>
+  <si>
+    <t>fashuyaoshui</t>
+  </si>
+  <si>
+    <t>jiqiaoyaoshui</t>
+  </si>
+  <si>
+    <t>suduyaoshui</t>
+  </si>
+  <si>
+    <t>xingyunyaoshui</t>
+  </si>
+  <si>
+    <t>baojiyaoshui</t>
+  </si>
+  <si>
+    <t>binggan</t>
+  </si>
+  <si>
+    <t>hongsejiaonan</t>
+  </si>
+  <si>
+    <t>lansejiaonan</t>
+  </si>
+  <si>
+    <t>shuijingqiu</t>
+  </si>
+  <si>
+    <t>zuoqiheibao</t>
+  </si>
+  <si>
+    <t>zuoqiying</t>
+  </si>
+  <si>
+    <t>zuoqichuansongqi</t>
+  </si>
+  <si>
+    <t>蓝色卡包</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kabaolanse</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kabaohuangse</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kabaohongse</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sucaidaigaoji</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sucaidaiteji</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sucaidaijipin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kapaibugeibao(fashu)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝鱼鳞</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lanyulin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>judalonggu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨大龙骨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zycao1</t>
+  </si>
+  <si>
+    <t>zycao2</t>
+  </si>
+  <si>
+    <t>zycao3</t>
+  </si>
+  <si>
+    <t>zycao4</t>
+  </si>
+  <si>
+    <t>zycao5</t>
+  </si>
+  <si>
+    <t>zycao6</t>
+  </si>
+  <si>
+    <t>zycao7</t>
+  </si>
+  <si>
+    <t>zycao8</t>
+  </si>
+  <si>
+    <t>zyyu1</t>
+  </si>
+  <si>
+    <t>zyyu2</t>
+  </si>
+  <si>
+    <t>zyyu3</t>
+  </si>
+  <si>
+    <t>zyyu4</t>
+  </si>
+  <si>
+    <t>zyyu5</t>
+  </si>
+  <si>
+    <t>zyyu6</t>
+  </si>
+  <si>
+    <t>zyyu7</t>
+  </si>
+  <si>
+    <t>zyyu8</t>
+  </si>
+  <si>
+    <t>zyshi1</t>
+  </si>
+  <si>
+    <t>zyshi2</t>
+  </si>
+  <si>
+    <t>zyshi3</t>
+  </si>
+  <si>
+    <t>zyshi4</t>
+  </si>
+  <si>
+    <t>zyshi5</t>
+  </si>
+  <si>
+    <t>zyshi6</t>
+  </si>
+  <si>
+    <t>zyshi7</t>
+  </si>
+  <si>
+    <t>zyshi8</t>
+  </si>
+  <si>
+    <t>zygu1</t>
+  </si>
+  <si>
+    <t>zygu2</t>
+  </si>
+  <si>
+    <t>zygu3</t>
+  </si>
+  <si>
+    <t>zymu1</t>
+  </si>
+  <si>
+    <t>zymu2</t>
+  </si>
+  <si>
+    <t>zymu3</t>
+  </si>
+  <si>
+    <t>zymu4</t>
+  </si>
+  <si>
+    <t>scwu4</t>
+  </si>
+  <si>
+    <t>scshui4</t>
+  </si>
+  <si>
+    <t>scguang4</t>
+  </si>
+  <si>
+    <t>scdijing1</t>
+  </si>
+  <si>
+    <t>sctuteng1</t>
+  </si>
+  <si>
+    <t>sctuteng2</t>
+  </si>
+  <si>
+    <t>fuxilinghunshi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后可以获得一张高级野兽卡片</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>rwtaozhanjiangzhang</t>
+  </si>
+  <si>
+    <t>rwshenmiyaoji</t>
+  </si>
+  <si>
+    <t>rwjinghuayaoshui</t>
+  </si>
+  <si>
+    <t>rwmoguxiantang</t>
+  </si>
+  <si>
+    <t>rwshengzheyiwu</t>
+  </si>
+  <si>
+    <t>rwbingposuipian</t>
+  </si>
+  <si>
+    <t>rwhuixiangdan</t>
+  </si>
+  <si>
+    <t>rwtianshucanjuan</t>
+  </si>
+  <si>
+    <t>rwhuangchenglingpai</t>
+  </si>
+  <si>
+    <t>rwzunzhefu</t>
+  </si>
+  <si>
+    <t>rwtaozhanziwo</t>
+  </si>
+  <si>
+    <t>rwbianhuanmoce</t>
+  </si>
+  <si>
+    <t>rwzhiwuvsjiangshi</t>
+  </si>
+  <si>
+    <t>rwjixievswangling</t>
+  </si>
+  <si>
+    <t>rwfenqiudazuozhan</t>
+  </si>
+  <si>
+    <t>rwlongzhigu</t>
+  </si>
+  <si>
+    <t>rwqiongqi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xinshoulibao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>scwu1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>穷奇召唤</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>veg3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>veg4</t>
+  </si>
+  <si>
+    <t>使用后获得30金币</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>豌豆</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝莓</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zwwandou</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zwyumi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zwpingguo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zwlanmei</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzwandou</t>
+  </si>
+  <si>
+    <t>zzyumi</t>
+  </si>
+  <si>
+    <t>zzpingguo</t>
+  </si>
+  <si>
+    <t>zzlanmei</t>
+  </si>
+  <si>
+    <t>关键词</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>string[]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attributes</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机组</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jingjizao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>diedacao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>yeganghua</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>niqiu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>longxia</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲壳</t>
+  </si>
+  <si>
+    <t>甲壳</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>nianyu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>guiyu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>石材</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>木材</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>scfeng2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>石材;白色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>石材;蓝色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>石材;绿色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>石材;红色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>棕色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>石材;棕色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>石材;黄色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>scan1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>石材;紫色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>scemo1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>scjixie1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>scjingling1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sckunchong1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sclong1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>scniao1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>scpaxing1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>screnlei1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>布料</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>scshouren1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>scwangling1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨骼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>scyeshou1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色;皮毛</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>棕色;皮毛</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮毛</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>scyu1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>scyuansu1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sczhiwu1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shumao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuijingqiufen</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>yumao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jianguhui</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dushou</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lvguozi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>luosidao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangyuanjing</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hongshuidai</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shengdanmao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jian</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lvsebuliao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色;布料</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>huangsebuliao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色;布料</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色;宝石</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hongsebuliao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色;布料</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>toukui</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hongtoukui</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>feibiao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色;金属</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>yaodai</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>yeshoupi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shepi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hongmati</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bingjing</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>yachi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lansebuliao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色;布料</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zizhua</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shenmishi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mofamao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>布料;绿色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuidi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>guike</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>chengtu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>heisebuliao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色;布料</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hupo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>yinshi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色;宝石</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cansi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bianselin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lanbaoshi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色;宝石</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mingjiao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziguang</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>honglonglin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色;甲壳</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qinlonglin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色;甲壳</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hongfenmo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xieqian</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangyu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziqiu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tideng</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>anzhijiao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>guangzhijiao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>popi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>leilongpi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮毛;蓝色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dianliu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>huizhang</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dongwushu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>taidao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>heiqi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lanyumao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>yandou</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jinguan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhenci</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lujiao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>huluobo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiutong</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kongpin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lvyezi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lanyezi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bengdai</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xianggu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>moyingji</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lvshikuai</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zongfangshi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoudao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色;金属</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>nitu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jizhua</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziqiu2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuzhi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>longgu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhongbiao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shefa</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jingubang</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属;木材</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kunchongchi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bianfuchi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiangya</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zihuxu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hongyeti</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shayuqi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hulu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jinyezi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xieling</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dundao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lvchushou</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jixieyuyi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属</t>
+  </si>
+  <si>
+    <t>金属</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiechibang</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>emowang</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>longjianxia</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>骨骼</t>
+  </si>
+  <si>
+    <t>骨骼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>huipifeng</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>haidaoyanzhao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>布料</t>
+  </si>
+  <si>
+    <t>chongzu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hongchushou</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hongdoupeng</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色</t>
+  </si>
+  <si>
+    <t>红色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色</t>
+  </si>
+  <si>
+    <t>红色;布料</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>huangtoushi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色;宝石</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiulong1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>宝石</t>
+  </si>
+  <si>
+    <t>宝石</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jiulong2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhuangzhifeixing</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhuangfashe</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ziyumao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色</t>
+  </si>
+  <si>
+    <t>紫色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>duci</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色;骨骼</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bingyuan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色</t>
+  </si>
+  <si>
+    <t>绿色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaochoumao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>布料</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>leimoshi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>石材;红色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuimoshi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>石材;蓝色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>石材;绿色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>longhundun</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zipimao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮毛;紫色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>damukuai</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>木材</t>
+  </si>
+  <si>
+    <t>木材</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shipifu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>石材</t>
+  </si>
+  <si>
+    <t>石材</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jinlonglin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shilun</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>huilangpi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zonglangpi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮毛;棕色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>guangzhihuan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>anzhihuan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tieguan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>玻璃</t>
+  </si>
+  <si>
+    <t>玻璃</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zilonglin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲壳;紫色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhongmao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮毛</t>
+  </si>
+  <si>
+    <t>皮毛</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>baiyumao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lanmati</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色;金属</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuling</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>chuanshouxiang</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bingjing</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>石材;蓝色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>baotou</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuijiapian</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>liangqiu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>甲壳;黄色</t>
+  </si>
+  <si>
+    <t>jingjizao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kulouzhanghui</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>qiangzhi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lvdoupeng</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色;布料</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zimatitie</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属;紫色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lanmianju</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>baixiongpi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮毛;白色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>xieshici</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shenmisuipian</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色;金属</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>anubisi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>石材;黑色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>huangjiao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>egu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zongsha</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>棕色</t>
+  </si>
+  <si>
+    <t>棕色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dianguang</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shijiuyu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>dizi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>木材</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>lansekoushui</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>guihuo</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuanshiyan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色</t>
+  </si>
+  <si>
+    <t>白色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>baibuliao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色;布料</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jinjiake</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>huangbaoshi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄色;宝石</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zongbuliao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>棕色;布料</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>huangmoshui</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tengtiao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤条</t>
+  </si>
+  <si>
+    <t>藤条</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>guangshuijing</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色;石材</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色;石材</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jurenguajian</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>yinguangye</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色</t>
+  </si>
+  <si>
+    <t>蓝色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>金属;蓝色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色;宝石</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>heidan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangouheilong</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>huozhong</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>quantaokulou</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>chunbaijinshu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhangougoutou</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色;甲壳</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jumoyaodai</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiedun</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑色</t>
+  </si>
+  <si>
+    <t>计数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色;藤条</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>藤条;藤条</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>digencao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿色;藤条</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色染料</t>
+  </si>
+  <si>
+    <t>白色染料</t>
+  </si>
+  <si>
+    <t>绿色染料</t>
+  </si>
+  <si>
+    <t>黄色染料</t>
+  </si>
+  <si>
+    <t>蓝色染料</t>
+  </si>
+  <si>
+    <t>棕色染料</t>
+  </si>
+  <si>
+    <t>紫色染料</t>
+  </si>
+  <si>
+    <t>黑色染料</t>
+  </si>
+  <si>
+    <t>ranliaohong</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranliaobai</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranliaolv</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranliaohuang</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranliaolan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranliaozong</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranliaozi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ranliaohei</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种红色的染料</t>
+  </si>
+  <si>
+    <t>一种白色的染料</t>
+  </si>
+  <si>
+    <t>一种绿色的染料</t>
+  </si>
+  <si>
+    <t>一种黄色的染料</t>
+  </si>
+  <si>
+    <t>一种蓝色的染料</t>
+  </si>
+  <si>
+    <t>一种棕色的染料</t>
+  </si>
+  <si>
+    <t>一种紫色的染料</t>
+  </si>
+  <si>
+    <t>一种黑色的染料</t>
+  </si>
+  <si>
+    <t>sucaidai</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kapaibugeibao(wu)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>xiaoxingmofayaoji</t>
-  </si>
-  <si>
-    <t>zhongxingmofayaoji</t>
-  </si>
-  <si>
-    <t>daxingmofayaoji</t>
-  </si>
-  <si>
-    <t>xiaoxinghuoliyaoji</t>
-  </si>
-  <si>
-    <t>zhongxinghuoliyaoji</t>
-  </si>
-  <si>
-    <t>daxinghuoliyaoji</t>
-  </si>
-  <si>
-    <t>xiaoxingtiliyaoji</t>
-  </si>
-  <si>
-    <t>zhongxingtiliyaoji</t>
-  </si>
-  <si>
-    <t>daxingtiliyaoji</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jingyanzhishu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>suijihuanshouka</t>
-  </si>
-  <si>
-    <t>suijiwuqika</t>
-  </si>
-  <si>
-    <t>suijimofaka</t>
-  </si>
-  <si>
-    <t>fuwen-chamu</t>
-  </si>
-  <si>
-    <t>fuwen-puer</t>
-  </si>
-  <si>
-    <t>fuwen-aier</t>
-  </si>
-  <si>
-    <t>muzhixiulichui</t>
-  </si>
-  <si>
-    <t>gangtiexiulichui</t>
-  </si>
-  <si>
-    <t>shenshengxiulichui</t>
-  </si>
-  <si>
-    <t>jingyanzhishu</t>
-  </si>
-  <si>
-    <t>nenliangzhishu</t>
-  </si>
-  <si>
-    <t>gongsuyaoshui</t>
-  </si>
-  <si>
-    <t>shouhuyaoshui</t>
-  </si>
-  <si>
-    <t>fashuyaoshui</t>
-  </si>
-  <si>
-    <t>jiqiaoyaoshui</t>
-  </si>
-  <si>
-    <t>suduyaoshui</t>
-  </si>
-  <si>
-    <t>xingyunyaoshui</t>
-  </si>
-  <si>
-    <t>baojiyaoshui</t>
-  </si>
-  <si>
-    <t>binggan</t>
-  </si>
-  <si>
-    <t>hongsejiaonan</t>
-  </si>
-  <si>
-    <t>lansejiaonan</t>
-  </si>
-  <si>
-    <t>shuijingqiu</t>
-  </si>
-  <si>
-    <t>zuoqiheibao</t>
-  </si>
-  <si>
-    <t>zuoqiying</t>
-  </si>
-  <si>
-    <t>zuoqichuansongqi</t>
-  </si>
-  <si>
-    <t>sucaidai</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色卡包</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>kabaolanse</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>kabaohuangse</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>kabaohongse</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sucaidaigaoji</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sucaidaiteji</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sucaidaijipin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>kapaibugeibao(fashu)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝鱼鳞</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>lanyulin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>judalonggu</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨大龙骨</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zycao1</t>
-  </si>
-  <si>
-    <t>zycao2</t>
-  </si>
-  <si>
-    <t>zycao3</t>
-  </si>
-  <si>
-    <t>zycao4</t>
-  </si>
-  <si>
-    <t>zycao5</t>
-  </si>
-  <si>
-    <t>zycao6</t>
-  </si>
-  <si>
-    <t>zycao7</t>
-  </si>
-  <si>
-    <t>zycao8</t>
-  </si>
-  <si>
-    <t>zyyu1</t>
-  </si>
-  <si>
-    <t>zyyu2</t>
-  </si>
-  <si>
-    <t>zyyu3</t>
-  </si>
-  <si>
-    <t>zyyu4</t>
-  </si>
-  <si>
-    <t>zyyu5</t>
-  </si>
-  <si>
-    <t>zyyu6</t>
-  </si>
-  <si>
-    <t>zyyu7</t>
-  </si>
-  <si>
-    <t>zyyu8</t>
-  </si>
-  <si>
-    <t>zyshi1</t>
-  </si>
-  <si>
-    <t>zyshi2</t>
-  </si>
-  <si>
-    <t>zyshi3</t>
-  </si>
-  <si>
-    <t>zyshi4</t>
-  </si>
-  <si>
-    <t>zyshi5</t>
-  </si>
-  <si>
-    <t>zyshi6</t>
-  </si>
-  <si>
-    <t>zyshi7</t>
-  </si>
-  <si>
-    <t>zyshi8</t>
-  </si>
-  <si>
-    <t>zygu1</t>
-  </si>
-  <si>
-    <t>zygu2</t>
-  </si>
-  <si>
-    <t>zygu3</t>
-  </si>
-  <si>
-    <t>zymu1</t>
-  </si>
-  <si>
-    <t>zymu2</t>
-  </si>
-  <si>
-    <t>zymu3</t>
-  </si>
-  <si>
-    <t>zymu4</t>
-  </si>
-  <si>
-    <t>scwu4</t>
-  </si>
-  <si>
-    <t>scshui4</t>
-  </si>
-  <si>
-    <t>scguang4</t>
-  </si>
-  <si>
-    <t>scdijing1</t>
-  </si>
-  <si>
-    <t>sctuteng1</t>
-  </si>
-  <si>
-    <t>sctuteng2</t>
-  </si>
-  <si>
-    <t>fuxilinghunshi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用后可以获得一张高级野兽卡片</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>rwtaozhanjiangzhang</t>
-  </si>
-  <si>
-    <t>rwshenmiyaoji</t>
-  </si>
-  <si>
-    <t>rwjinghuayaoshui</t>
-  </si>
-  <si>
-    <t>rwmoguxiantang</t>
-  </si>
-  <si>
-    <t>rwshengzheyiwu</t>
-  </si>
-  <si>
-    <t>rwbingposuipian</t>
-  </si>
-  <si>
-    <t>rwhuixiangdan</t>
-  </si>
-  <si>
-    <t>rwtianshucanjuan</t>
-  </si>
-  <si>
-    <t>rwhuangchenglingpai</t>
-  </si>
-  <si>
-    <t>rwzunzhefu</t>
-  </si>
-  <si>
-    <t>rwtaozhanziwo</t>
-  </si>
-  <si>
-    <t>rwbianhuanmoce</t>
-  </si>
-  <si>
-    <t>rwzhiwuvsjiangshi</t>
-  </si>
-  <si>
-    <t>rwjixievswangling</t>
-  </si>
-  <si>
-    <t>rwfenqiudazuozhan</t>
-  </si>
-  <si>
-    <t>rwlongzhigu</t>
-  </si>
-  <si>
-    <t>rwqiongqi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>xinshoulibao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>kapaibugeibao(wu)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>scwu1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>穷奇召唤</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>veg3</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>veg4</t>
-  </si>
-  <si>
-    <t>使用后获得30金币</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>豌豆</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>玉米</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>苹果</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝莓</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zwwandou</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zwyumi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zwpingguo</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zwlanmei</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zzwandou</t>
-  </si>
-  <si>
-    <t>zzyumi</t>
-  </si>
-  <si>
-    <t>zzpingguo</t>
-  </si>
-  <si>
-    <t>zzlanmei</t>
-  </si>
-  <si>
-    <t>关键词</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>string[]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Attributes</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机组</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>白色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>jingjizao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>diedacao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>yeganghua</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>niqiu</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>longxia</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>甲壳</t>
-  </si>
-  <si>
-    <t>甲壳</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>nianyu</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>guiyu</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>石材</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>金属</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>木材</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>scfeng2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>石材;白色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>石材;蓝色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>石材;绿色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>石材;红色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>棕色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>石材;棕色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>石材;黄色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>scan1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>石材;紫色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>scemo1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>scjixie1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>scjingling1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sckunchong1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sclong1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>scniao1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>scpaxing1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>screnlei1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>布料</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>scshouren1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>scwangling1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>骨骼</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>scyeshou1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>白色;皮毛</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>棕色;皮毛</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮毛</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>scyu1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>scyuansu1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>sczhiwu1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shumao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuijingqiufen</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>yumao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>jianguhui</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>dushou</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>lvguozi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>luosidao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>wangyuanjing</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>hongshuidai</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shengdanmao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>jian</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>lvsebuliao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色;布料</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>huangsebuliao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄色;布料</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色;宝石</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>hongsebuliao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色;布料</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>toukui</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>hongtoukui</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>feibiao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色;金属</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>yaodai</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>yeshoupi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shepi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>hongmati</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bingjing</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>yachi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>lansebuliao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色;布料</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zizhua</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shenmishi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>mofamao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>布料;绿色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuidi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>guike</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>chengtu</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>heisebuliao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑色;布料</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>hupo</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>yinshi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑色;宝石</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>cansi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bianselin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>lanbaoshi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色;宝石</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>mingjiao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziguang</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>honglonglin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色;甲壳</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>qinlonglin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色;甲壳</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>hongfenmo</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>xieqian</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhangyu</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziqiu</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>tideng</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>anzhijiao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>guangzhijiao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>popi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>leilongpi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮毛;蓝色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>dianliu</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>huizhang</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>dongwushu</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>taidao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>heiqi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>玻璃</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>lanyumao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>yandou</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>jinguan</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhenci</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>lujiao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>huluobo</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiutong</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>kongpin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>lvyezi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>lanyezi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bengdai</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>xianggu</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>moyingji</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>lvshikuai</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zongfangshi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shoudao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色;金属</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>nitu</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>jizhua</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziqiu2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuzhi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>longgu</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhongbiao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shefa</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>jingubang</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>金属;木材</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>kunchongchi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bianfuchi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiangya</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zihuxu</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>hongyeti</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shayuqi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>hulu</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>jinyezi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>xieling</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>dundao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>lvchushou</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>jixieyuyi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>金属</t>
-  </si>
-  <si>
-    <t>金属</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiechibang</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>emowang</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>longjianxia</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>骨骼</t>
-  </si>
-  <si>
-    <t>骨骼</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>huipifeng</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>haidaoyanzhao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>布料</t>
-  </si>
-  <si>
-    <t>chongzu</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>hongchushou</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>hongdoupeng</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色</t>
-  </si>
-  <si>
-    <t>红色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄色</t>
-  </si>
-  <si>
-    <t>红色;布料</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>huangtoushi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄色;宝石</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiulong1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>宝石</t>
-  </si>
-  <si>
-    <t>宝石</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>jiulong2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhuangzhifeixing</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhuangfashe</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ziyumao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫色</t>
-  </si>
-  <si>
-    <t>紫色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>duci</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色;骨骼</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bingyuan</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色</t>
-  </si>
-  <si>
-    <t>绿色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiaochoumao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>布料</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>leimoshi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>石材;红色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuimoshi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>石材;蓝色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>石材;绿色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>longhundun</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zipimao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮毛;紫色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>damukuai</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>木材</t>
-  </si>
-  <si>
-    <t>木材</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shipifu</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>石材</t>
-  </si>
-  <si>
-    <t>石材</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>jinlonglin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shilun</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>huilangpi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zonglangpi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮毛;棕色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>guangzhihuan</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>anzhihuan</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>tieguan</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>玻璃</t>
-  </si>
-  <si>
-    <t>玻璃</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zilonglin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>甲壳;紫色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhongmao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮毛</t>
-  </si>
-  <si>
-    <t>皮毛</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>baiyumao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>lanmati</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色;金属</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shuling</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>chuanshouxiang</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>bingjing</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>石材;蓝色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>baotou</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>kuijiapian</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>liangqiu</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>甲壳;黄色</t>
-  </si>
-  <si>
-    <t>jingjizao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>kulouzhanghui</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>qiangzhi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>lvdoupeng</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色;布料</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zimatitie</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>金属;紫色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>lanmianju</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>baixiongpi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮毛;白色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>xieshici</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shenmisuipian</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色;金属</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>anubisi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>石材;黑色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>huangjiao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>egu</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zongsha</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>棕色</t>
-  </si>
-  <si>
-    <t>棕色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>dianguang</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>shijiuyu</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>dizi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>木材</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>lansekoushui</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>guihuo</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zuanshiyan</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>白色</t>
-  </si>
-  <si>
-    <t>白色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>baibuliao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>白色;布料</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>jinjiake</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>huangbaoshi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄色;宝石</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zongbuliao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>棕色;布料</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>huangmoshui</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>tengtiao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>藤条</t>
-  </si>
-  <si>
-    <t>藤条</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>guangshuijing</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>白色;石材</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫色;石材</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>jurenguajian</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>yinguangye</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色</t>
-  </si>
-  <si>
-    <t>蓝色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>金属;蓝色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色;宝石</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>heidan</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhangouheilong</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>huozhong</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>quantaokulou</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>chunbaijinshu</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>zhangougoutou</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色;甲壳</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>jumoyaodai</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiedun</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑色</t>
-  </si>
-  <si>
-    <t>计数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>白色;藤条</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>藤条;藤条</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>digencao</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿色;藤条</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色染料</t>
-  </si>
-  <si>
-    <t>白色染料</t>
-  </si>
-  <si>
-    <t>绿色染料</t>
-  </si>
-  <si>
-    <t>黄色染料</t>
-  </si>
-  <si>
-    <t>蓝色染料</t>
-  </si>
-  <si>
-    <t>棕色染料</t>
-  </si>
-  <si>
-    <t>紫色染料</t>
-  </si>
-  <si>
-    <t>黑色染料</t>
-  </si>
-  <si>
-    <t>ranliaohong</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranliaobai</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranliaolv</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranliaohuang</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranliaolan</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranliaozong</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranliaozi</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ranliaohei</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>一种红色的染料</t>
-  </si>
-  <si>
-    <t>一种白色的染料</t>
-  </si>
-  <si>
-    <t>一种绿色的染料</t>
-  </si>
-  <si>
-    <t>一种黄色的染料</t>
-  </si>
-  <si>
-    <t>一种蓝色的染料</t>
-  </si>
-  <si>
-    <t>一种棕色的染料</t>
-  </si>
-  <si>
-    <t>一种紫色的染料</t>
-  </si>
-  <si>
-    <t>一种黑色的染料</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6870,6 +6873,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -7462,62 +7466,6 @@
   </cellStyles>
   <dxfs count="59">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -7971,6 +7919,41 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -8412,6 +8395,20 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -8794,6 +8791,13 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -8808,81 +8812,81 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:O355" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57" tableBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:O355" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56" tableBorderDxfId="55">
   <autoFilter ref="A3:O355"/>
   <sortState ref="A4:O347">
     <sortCondition ref="A3:A347"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" name="Id" dataDxfId="55"/>
-    <tableColumn id="2" name="Name" dataDxfId="54"/>
+    <tableColumn id="1" name="Id" dataDxfId="54"/>
+    <tableColumn id="2" name="Name" dataDxfId="53"/>
     <tableColumn id="10" name="Ename"/>
-    <tableColumn id="3" name="Type" dataDxfId="53"/>
+    <tableColumn id="3" name="Type" dataDxfId="52"/>
     <tableColumn id="13" name="SubType"/>
-    <tableColumn id="4" name="Descript" dataDxfId="52"/>
-    <tableColumn id="5" name="Level" dataDxfId="51"/>
-    <tableColumn id="6" name="Rare" dataDxfId="50"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="49"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="48"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="47"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="46"/>
-    <tableColumn id="15" name="RandomGroup" dataDxfId="45"/>
+    <tableColumn id="4" name="Descript" dataDxfId="51"/>
+    <tableColumn id="5" name="Level" dataDxfId="50"/>
+    <tableColumn id="6" name="Rare" dataDxfId="49"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="48"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="47"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="46"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="45"/>
+    <tableColumn id="15" name="RandomGroup" dataDxfId="44"/>
     <tableColumn id="9" name="Attributes"/>
-    <tableColumn id="14" name="Url" dataDxfId="44"/>
+    <tableColumn id="14" name="Url" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:O20" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:O20" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38">
   <autoFilter ref="A3:O20"/>
   <sortState ref="A4:P435">
     <sortCondition ref="A3:A435"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" name="Id" dataDxfId="40"/>
-    <tableColumn id="2" name="Name" dataDxfId="39"/>
-    <tableColumn id="10" name="Ename" dataDxfId="38"/>
-    <tableColumn id="3" name="Type" dataDxfId="37"/>
-    <tableColumn id="13" name="SubType" dataDxfId="36"/>
-    <tableColumn id="4" name="Descript" dataDxfId="35"/>
-    <tableColumn id="5" name="Level" dataDxfId="34"/>
-    <tableColumn id="6" name="Rare" dataDxfId="33"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="32"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="31"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="30"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="29"/>
-    <tableColumn id="15" name="RandomGroup" dataDxfId="28"/>
-    <tableColumn id="9" name="Attributes" dataDxfId="27"/>
-    <tableColumn id="14" name="Url" dataDxfId="26"/>
+    <tableColumn id="1" name="Id" dataDxfId="37"/>
+    <tableColumn id="2" name="Name" dataDxfId="36"/>
+    <tableColumn id="10" name="Ename" dataDxfId="35"/>
+    <tableColumn id="3" name="Type" dataDxfId="34"/>
+    <tableColumn id="13" name="SubType" dataDxfId="33"/>
+    <tableColumn id="4" name="Descript" dataDxfId="32"/>
+    <tableColumn id="5" name="Level" dataDxfId="31"/>
+    <tableColumn id="6" name="Rare" dataDxfId="30"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="29"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="28"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="27"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="26"/>
+    <tableColumn id="15" name="RandomGroup" dataDxfId="25"/>
+    <tableColumn id="9" name="Attributes" dataDxfId="24"/>
+    <tableColumn id="14" name="Url" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:O115" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24" tableBorderDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:O115" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A3:O115"/>
   <sortState ref="A4:O115">
     <sortCondition ref="A3:A115"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" name="Id" dataDxfId="22"/>
-    <tableColumn id="2" name="Name" dataDxfId="21"/>
-    <tableColumn id="10" name="Ename" dataDxfId="20"/>
-    <tableColumn id="3" name="Type" dataDxfId="19"/>
-    <tableColumn id="13" name="SubType" dataDxfId="18"/>
-    <tableColumn id="4" name="Descript" dataDxfId="17"/>
-    <tableColumn id="5" name="Level" dataDxfId="16"/>
-    <tableColumn id="6" name="Rare" dataDxfId="15"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="14"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="13"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="12"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="11"/>
-    <tableColumn id="15" name="RandomGroup" dataDxfId="10"/>
-    <tableColumn id="9" name="Attributes" dataDxfId="9"/>
-    <tableColumn id="14" name="Url" dataDxfId="8"/>
+    <tableColumn id="1" name="Id" dataDxfId="14"/>
+    <tableColumn id="2" name="Name" dataDxfId="13"/>
+    <tableColumn id="10" name="Ename" dataDxfId="12"/>
+    <tableColumn id="3" name="Type" dataDxfId="11"/>
+    <tableColumn id="13" name="SubType" dataDxfId="10"/>
+    <tableColumn id="4" name="Descript" dataDxfId="9"/>
+    <tableColumn id="5" name="Level" dataDxfId="8"/>
+    <tableColumn id="6" name="Rare" dataDxfId="7"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="6"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="5"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="4"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="3"/>
+    <tableColumn id="15" name="RandomGroup" dataDxfId="2"/>
+    <tableColumn id="9" name="Attributes" dataDxfId="1"/>
+    <tableColumn id="14" name="Url" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9269,10 +9273,10 @@
         <v>893</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="O1" s="13" t="s">
         <v>894</v>
@@ -9316,10 +9320,10 @@
         <v>907</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>883</v>
@@ -9366,7 +9370,7 @@
         <v>1109</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>903</v>
@@ -9380,7 +9384,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -9413,7 +9417,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="O4" t="s">
         <v>2</v>
@@ -9427,7 +9431,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -9460,7 +9464,7 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>1929</v>
+        <v>1924</v>
       </c>
       <c r="O5" t="s">
         <v>5</v>
@@ -9474,7 +9478,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -9507,7 +9511,7 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="O6" t="s">
         <v>7</v>
@@ -9521,7 +9525,7 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -9554,10 +9558,10 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>1930</v>
+        <v>1925</v>
       </c>
       <c r="O7" t="s">
-        <v>1931</v>
+        <v>1926</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
@@ -9568,7 +9572,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -9601,7 +9605,7 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="O8" t="s">
         <v>11</v>
@@ -9615,7 +9619,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -9648,10 +9652,10 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="O9" t="s">
-        <v>1641</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
@@ -9662,7 +9666,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -9695,10 +9699,10 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>1932</v>
+        <v>1927</v>
       </c>
       <c r="O10" t="s">
-        <v>1642</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
@@ -9709,7 +9713,7 @@
         <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -9742,10 +9746,10 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="O11" t="s">
-        <v>1643</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
@@ -9756,7 +9760,7 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -9789,7 +9793,7 @@
         <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>1645</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
@@ -9800,7 +9804,7 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="D13">
         <v>2</v>
@@ -9833,10 +9837,10 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="O13" t="s">
-        <v>1646</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
@@ -9847,7 +9851,7 @@
         <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -9880,7 +9884,7 @@
         <v>1</v>
       </c>
       <c r="O14" t="s">
-        <v>1649</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
@@ -9891,7 +9895,7 @@
         <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -9924,7 +9928,7 @@
         <v>1</v>
       </c>
       <c r="O15" t="s">
-        <v>1650</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
@@ -9935,7 +9939,7 @@
         <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -9979,7 +9983,7 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -10023,7 +10027,7 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="D18">
         <v>2</v>
@@ -10067,7 +10071,7 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -10111,7 +10115,7 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -10144,7 +10148,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="O20" s="14" t="s">
         <v>35</v>
@@ -10158,7 +10162,7 @@
         <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="D21">
         <v>2</v>
@@ -10191,7 +10195,7 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="O21" t="s">
         <v>38</v>
@@ -10205,7 +10209,7 @@
         <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="D22">
         <v>2</v>
@@ -10238,7 +10242,7 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="O22" t="s">
         <v>41</v>
@@ -10252,7 +10256,7 @@
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="D23">
         <v>2</v>
@@ -10285,7 +10289,7 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="O23" t="s">
         <v>44</v>
@@ -10299,7 +10303,7 @@
         <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="D24">
         <v>2</v>
@@ -10332,7 +10336,7 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="O24" t="s">
         <v>47</v>
@@ -10346,7 +10350,7 @@
         <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="D25">
         <v>2</v>
@@ -10379,7 +10383,7 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="O25" t="s">
         <v>50</v>
@@ -10393,7 +10397,7 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -10426,7 +10430,7 @@
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="O26" t="s">
         <v>53</v>
@@ -10440,7 +10444,7 @@
         <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="D27">
         <v>2</v>
@@ -10473,7 +10477,7 @@
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="O27" t="s">
         <v>56</v>
@@ -10487,7 +10491,7 @@
         <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="D28">
         <v>2</v>
@@ -10531,7 +10535,7 @@
         <v>60</v>
       </c>
       <c r="C29" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -10575,7 +10579,7 @@
         <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -10619,7 +10623,7 @@
         <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -10652,7 +10656,7 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="O31" t="s">
         <v>67</v>
@@ -10666,7 +10670,7 @@
         <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -10699,7 +10703,7 @@
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="O32" t="s">
         <v>70</v>
@@ -10713,7 +10717,7 @@
         <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="D33">
         <v>2</v>
@@ -10746,7 +10750,7 @@
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="O33" t="s">
         <v>67</v>
@@ -10760,7 +10764,7 @@
         <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="D34">
         <v>2</v>
@@ -10793,7 +10797,7 @@
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="O34" t="s">
         <v>75</v>
@@ -10807,7 +10811,7 @@
         <v>535</v>
       </c>
       <c r="C35" t="s">
-        <v>1616</v>
+        <v>1611</v>
       </c>
       <c r="D35">
         <v>2</v>
@@ -10840,7 +10844,7 @@
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="O35" t="s">
         <v>537</v>
@@ -10887,7 +10891,7 @@
         <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="O36" t="s">
         <v>539</v>
@@ -10934,7 +10938,7 @@
         <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="O37" t="s">
         <v>542</v>
@@ -10948,7 +10952,7 @@
         <v>540</v>
       </c>
       <c r="C38" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="D38">
         <v>2</v>
@@ -10981,7 +10985,7 @@
         <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>1655</v>
+        <v>1650</v>
       </c>
       <c r="O38" t="s">
         <v>1213</v>
@@ -11028,7 +11032,7 @@
         <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="O39" t="s">
         <v>545</v>
@@ -11075,7 +11079,7 @@
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="O40" s="14" t="s">
         <v>547</v>
@@ -11122,7 +11126,7 @@
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="O41" t="s">
         <v>550</v>
@@ -11136,7 +11140,7 @@
         <v>548</v>
       </c>
       <c r="C42" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="D42">
         <v>2</v>
@@ -11169,7 +11173,7 @@
         <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="O42" s="14" t="s">
         <v>1214</v>
@@ -11216,7 +11220,7 @@
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="O43" t="s">
         <v>553</v>
@@ -11263,10 +11267,10 @@
         <v>2</v>
       </c>
       <c r="N44" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="O44" t="s">
-        <v>1654</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.15">
@@ -11310,7 +11314,7 @@
         <v>2</v>
       </c>
       <c r="N45" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="O45" t="s">
         <v>558</v>
@@ -11357,7 +11361,7 @@
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="O46" t="s">
         <v>1209</v>
@@ -11404,7 +11408,7 @@
         <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="O47" t="s">
         <v>561</v>
@@ -11451,7 +11455,7 @@
         <v>2</v>
       </c>
       <c r="N48" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="O48" t="s">
         <v>564</v>
@@ -11498,7 +11502,7 @@
         <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="O49" t="s">
         <v>567</v>
@@ -11545,7 +11549,7 @@
         <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="O50" t="s">
         <v>1210</v>
@@ -11592,7 +11596,7 @@
         <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="O51" t="s">
         <v>570</v>
@@ -11639,7 +11643,7 @@
         <v>2</v>
       </c>
       <c r="N52" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="O52" t="s">
         <v>573</v>
@@ -11686,7 +11690,7 @@
         <v>2</v>
       </c>
       <c r="N53" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="O53" t="s">
         <v>576</v>
@@ -11733,7 +11737,7 @@
         <v>2</v>
       </c>
       <c r="N54" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="O54" t="s">
         <v>1211</v>
@@ -11780,7 +11784,7 @@
         <v>2</v>
       </c>
       <c r="N55" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="O55" t="s">
         <v>579</v>
@@ -11827,7 +11831,7 @@
         <v>2</v>
       </c>
       <c r="N56" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
       <c r="O56" t="s">
         <v>581</v>
@@ -11874,7 +11878,7 @@
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
       <c r="O57" t="s">
         <v>584</v>
@@ -11888,7 +11892,7 @@
         <v>582</v>
       </c>
       <c r="C58" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="D58">
         <v>2</v>
@@ -11921,7 +11925,7 @@
         <v>2</v>
       </c>
       <c r="N58" t="s">
-        <v>1662</v>
+        <v>1657</v>
       </c>
       <c r="O58" t="s">
         <v>1215</v>
@@ -11968,10 +11972,10 @@
         <v>2</v>
       </c>
       <c r="N59" t="s">
-        <v>1664</v>
+        <v>1659</v>
       </c>
       <c r="O59" t="s">
-        <v>1663</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.15">
@@ -12015,7 +12019,7 @@
         <v>2</v>
       </c>
       <c r="N60" t="s">
-        <v>1665</v>
+        <v>1660</v>
       </c>
       <c r="O60" t="s">
         <v>589</v>
@@ -12062,7 +12066,7 @@
         <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>1665</v>
+        <v>1660</v>
       </c>
       <c r="O61" t="s">
         <v>592</v>
@@ -12109,7 +12113,7 @@
         <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>1665</v>
+        <v>1660</v>
       </c>
       <c r="O62" t="s">
         <v>1212</v>
@@ -12156,7 +12160,7 @@
         <v>2</v>
       </c>
       <c r="O63" t="s">
-        <v>1666</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.15">
@@ -12288,7 +12292,7 @@
         <v>2</v>
       </c>
       <c r="N66" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="O66" t="s">
         <v>615</v>
@@ -12335,10 +12339,10 @@
         <v>2</v>
       </c>
       <c r="N67" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="O67" t="s">
-        <v>1667</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.15">
@@ -12382,7 +12386,7 @@
         <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="O68" t="s">
         <v>621</v>
@@ -12429,7 +12433,7 @@
         <v>2</v>
       </c>
       <c r="N69" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="O69" t="s">
         <v>624</v>
@@ -12476,7 +12480,7 @@
         <v>2</v>
       </c>
       <c r="N70" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="O70" t="s">
         <v>627</v>
@@ -12523,10 +12527,10 @@
         <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="O71" t="s">
-        <v>1668</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.15">
@@ -12570,7 +12574,7 @@
         <v>2</v>
       </c>
       <c r="N72" t="s">
-        <v>1664</v>
+        <v>1659</v>
       </c>
       <c r="O72" t="s">
         <v>633</v>
@@ -12617,7 +12621,7 @@
         <v>2</v>
       </c>
       <c r="N73" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="O73" t="s">
         <v>636</v>
@@ -12664,7 +12668,7 @@
         <v>2</v>
       </c>
       <c r="N74" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="O74" t="s">
         <v>639</v>
@@ -12711,10 +12715,10 @@
         <v>2</v>
       </c>
       <c r="N75" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="O75" t="s">
-        <v>1669</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
@@ -12758,7 +12762,7 @@
         <v>2</v>
       </c>
       <c r="N76" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="O76" t="s">
         <v>645</v>
@@ -12805,7 +12809,7 @@
         <v>2</v>
       </c>
       <c r="N77" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="O77" t="s">
         <v>648</v>
@@ -12852,7 +12856,7 @@
         <v>2</v>
       </c>
       <c r="N78" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="O78" t="s">
         <v>651</v>
@@ -12899,10 +12903,10 @@
         <v>2</v>
       </c>
       <c r="N79" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="O79" t="s">
-        <v>1670</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
@@ -12946,7 +12950,7 @@
         <v>2</v>
       </c>
       <c r="N80" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="O80" t="s">
         <v>656</v>
@@ -13037,7 +13041,7 @@
         <v>2</v>
       </c>
       <c r="N82" t="s">
-        <v>1664</v>
+        <v>1659</v>
       </c>
       <c r="O82" t="s">
         <v>662</v>
@@ -13084,7 +13088,7 @@
         <v>2</v>
       </c>
       <c r="O83" t="s">
-        <v>1671</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.15">
@@ -13216,7 +13220,7 @@
         <v>2</v>
       </c>
       <c r="N86" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="O86" t="s">
         <v>674</v>
@@ -13263,7 +13267,7 @@
         <v>2</v>
       </c>
       <c r="O87" s="14" t="s">
-        <v>1672</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.15">
@@ -13307,7 +13311,7 @@
         <v>2</v>
       </c>
       <c r="N88" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="O88" t="s">
         <v>680</v>
@@ -13398,7 +13402,7 @@
         <v>2</v>
       </c>
       <c r="N90" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="O90" s="14" t="s">
         <v>686</v>
@@ -13445,10 +13449,10 @@
         <v>2</v>
       </c>
       <c r="N91" t="s">
-        <v>1674</v>
+        <v>1669</v>
       </c>
       <c r="O91" t="s">
-        <v>1673</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.15">
@@ -13492,7 +13496,7 @@
         <v>2</v>
       </c>
       <c r="N92" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="O92" t="s">
         <v>692</v>
@@ -13539,7 +13543,7 @@
         <v>2</v>
       </c>
       <c r="N93" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="O93" t="s">
         <v>695</v>
@@ -13586,7 +13590,7 @@
         <v>2</v>
       </c>
       <c r="N94" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="O94" t="s">
         <v>698</v>
@@ -13633,10 +13637,10 @@
         <v>2</v>
       </c>
       <c r="N95" t="s">
-        <v>1674</v>
+        <v>1669</v>
       </c>
       <c r="O95" t="s">
-        <v>1675</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.15">
@@ -13680,7 +13684,7 @@
         <v>2</v>
       </c>
       <c r="N96" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="O96" t="s">
         <v>704</v>
@@ -13727,7 +13731,7 @@
         <v>2</v>
       </c>
       <c r="N97" t="s">
-        <v>1674</v>
+        <v>1669</v>
       </c>
       <c r="O97" t="s">
         <v>707</v>
@@ -13774,7 +13778,7 @@
         <v>2</v>
       </c>
       <c r="N98" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="O98" t="s">
         <v>710</v>
@@ -13821,10 +13825,10 @@
         <v>2</v>
       </c>
       <c r="N99" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
       <c r="O99" t="s">
-        <v>1676</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.15">
@@ -13868,7 +13872,7 @@
         <v>2</v>
       </c>
       <c r="N100" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
       <c r="O100" t="s">
         <v>716</v>
@@ -13915,7 +13919,7 @@
         <v>2</v>
       </c>
       <c r="N101" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
       <c r="O101" t="s">
         <v>719</v>
@@ -13962,7 +13966,7 @@
         <v>2</v>
       </c>
       <c r="N102" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
       <c r="O102" t="s">
         <v>722</v>
@@ -14009,10 +14013,10 @@
         <v>2</v>
       </c>
       <c r="N103" t="s">
-        <v>1679</v>
+        <v>1674</v>
       </c>
       <c r="O103" t="s">
-        <v>1678</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.15">
@@ -14056,7 +14060,7 @@
         <v>2</v>
       </c>
       <c r="N104" t="s">
-        <v>1680</v>
+        <v>1675</v>
       </c>
       <c r="O104" t="s">
         <v>728</v>
@@ -14103,7 +14107,7 @@
         <v>2</v>
       </c>
       <c r="N105" t="s">
-        <v>1681</v>
+        <v>1676</v>
       </c>
       <c r="O105" t="s">
         <v>731</v>
@@ -14194,10 +14198,10 @@
         <v>2</v>
       </c>
       <c r="N107" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="O107" t="s">
-        <v>1682</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.15">
@@ -14329,7 +14333,7 @@
         <v>2</v>
       </c>
       <c r="N110" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="O110" t="s">
         <v>746</v>
@@ -14376,10 +14380,10 @@
         <v>2</v>
       </c>
       <c r="N111" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="O111" t="s">
-        <v>1683</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.15">
@@ -14423,7 +14427,7 @@
         <v>2</v>
       </c>
       <c r="N112" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="O112" t="s">
         <v>752</v>
@@ -14470,7 +14474,7 @@
         <v>2</v>
       </c>
       <c r="N113" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="O113" t="s">
         <v>755</v>
@@ -14517,7 +14521,7 @@
         <v>2</v>
       </c>
       <c r="N114" t="s">
-        <v>1664</v>
+        <v>1659</v>
       </c>
       <c r="O114" t="s">
         <v>758</v>
@@ -14564,10 +14568,10 @@
         <v>2</v>
       </c>
       <c r="N115" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="O115" t="s">
-        <v>1684</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.15">
@@ -14611,7 +14615,7 @@
         <v>2</v>
       </c>
       <c r="N116" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="O116" t="s">
         <v>764</v>
@@ -14658,7 +14662,7 @@
         <v>2</v>
       </c>
       <c r="N117" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="O117" t="s">
         <v>767</v>
@@ -14705,7 +14709,7 @@
         <v>2</v>
       </c>
       <c r="N118" t="s">
-        <v>1664</v>
+        <v>1659</v>
       </c>
       <c r="O118" t="s">
         <v>770</v>
@@ -14719,7 +14723,7 @@
         <v>593</v>
       </c>
       <c r="C119" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -14752,7 +14756,7 @@
         <v>2</v>
       </c>
       <c r="N119" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="O119" t="s">
         <v>1025</v>
@@ -14799,7 +14803,7 @@
         <v>2</v>
       </c>
       <c r="N120" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="O120" t="s">
         <v>597</v>
@@ -14846,7 +14850,7 @@
         <v>2</v>
       </c>
       <c r="N121" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="O121" t="s">
         <v>600</v>
@@ -14893,7 +14897,7 @@
         <v>2</v>
       </c>
       <c r="N122" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="O122" t="s">
         <v>603</v>
@@ -14907,7 +14911,7 @@
         <v>1205</v>
       </c>
       <c r="C123" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -14951,7 +14955,7 @@
         <v>1206</v>
       </c>
       <c r="C124" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -15116,10 +15120,10 @@
         <v>2</v>
       </c>
       <c r="N127" t="s">
-        <v>1681</v>
+        <v>1676</v>
       </c>
       <c r="O127" s="14" t="s">
-        <v>1685</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.15">
@@ -15163,10 +15167,10 @@
         <v>2</v>
       </c>
       <c r="N128" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="O128" t="s">
-        <v>1686</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.15">
@@ -15210,7 +15214,7 @@
         <v>2</v>
       </c>
       <c r="O129" t="s">
-        <v>1687</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.15">
@@ -15254,10 +15258,10 @@
         <v>2</v>
       </c>
       <c r="N130" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="O130" t="s">
-        <v>1688</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.15">
@@ -15301,7 +15305,7 @@
         <v>2</v>
       </c>
       <c r="O131" t="s">
-        <v>1689</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.15">
@@ -15345,10 +15349,10 @@
         <v>2</v>
       </c>
       <c r="N132" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="O132" t="s">
-        <v>1690</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.15">
@@ -15392,10 +15396,10 @@
         <v>2</v>
       </c>
       <c r="N133" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="O133" t="s">
-        <v>1691</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.15">
@@ -15439,10 +15443,10 @@
         <v>2</v>
       </c>
       <c r="N134" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="O134" t="s">
-        <v>1692</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.15">
@@ -15486,10 +15490,10 @@
         <v>2</v>
       </c>
       <c r="N135" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="O135" t="s">
-        <v>1693</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.15">
@@ -15533,7 +15537,7 @@
         <v>2</v>
       </c>
       <c r="N136" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="O136" t="s">
         <v>99</v>
@@ -15580,10 +15584,10 @@
         <v>2</v>
       </c>
       <c r="N137" t="s">
-        <v>1674</v>
+        <v>1669</v>
       </c>
       <c r="O137" s="14" t="s">
-        <v>1694</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.15">
@@ -15627,10 +15631,10 @@
         <v>2</v>
       </c>
       <c r="N138" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="O138" t="s">
-        <v>1695</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.15">
@@ -15674,10 +15678,10 @@
         <v>2</v>
       </c>
       <c r="N139" t="s">
-        <v>1697</v>
+        <v>1692</v>
       </c>
       <c r="O139" t="s">
-        <v>1696</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.15">
@@ -15721,10 +15725,10 @@
         <v>2</v>
       </c>
       <c r="N140" t="s">
-        <v>1699</v>
+        <v>1694</v>
       </c>
       <c r="O140" t="s">
-        <v>1698</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.15">
@@ -15768,7 +15772,7 @@
         <v>2</v>
       </c>
       <c r="N141" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="O141" t="s">
         <v>114</v>
@@ -15815,10 +15819,10 @@
         <v>2</v>
       </c>
       <c r="N142" t="s">
-        <v>1702</v>
+        <v>1697</v>
       </c>
       <c r="O142" t="s">
-        <v>1701</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.15">
@@ -15862,10 +15866,10 @@
         <v>2</v>
       </c>
       <c r="N143" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="O143" t="s">
-        <v>1703</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.15">
@@ -15909,10 +15913,10 @@
         <v>2</v>
       </c>
       <c r="N144" t="s">
-        <v>1706</v>
+        <v>1701</v>
       </c>
       <c r="O144" t="s">
-        <v>1704</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.15">
@@ -15956,10 +15960,10 @@
         <v>2</v>
       </c>
       <c r="N145" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="O145" s="14" t="s">
-        <v>1705</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.15">
@@ -16003,10 +16007,10 @@
         <v>2</v>
       </c>
       <c r="N146" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="O146" t="s">
-        <v>1707</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.15">
@@ -16050,7 +16054,7 @@
         <v>2</v>
       </c>
       <c r="N147" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="O147" t="s">
         <v>128</v>
@@ -16097,7 +16101,7 @@
         <v>2</v>
       </c>
       <c r="N148" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="O148" t="s">
         <v>131</v>
@@ -16144,10 +16148,10 @@
         <v>2</v>
       </c>
       <c r="N149" t="s">
-        <v>1681</v>
+        <v>1676</v>
       </c>
       <c r="O149" t="s">
-        <v>1708</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.15">
@@ -16191,7 +16195,7 @@
         <v>2</v>
       </c>
       <c r="O150" s="14" t="s">
-        <v>1709</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.15">
@@ -16235,7 +16239,7 @@
         <v>2</v>
       </c>
       <c r="N151" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="O151" t="s">
         <v>139</v>
@@ -16282,10 +16286,10 @@
         <v>2</v>
       </c>
       <c r="N152" t="s">
-        <v>1706</v>
+        <v>1701</v>
       </c>
       <c r="O152" t="s">
-        <v>1710</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.15">
@@ -16329,10 +16333,10 @@
         <v>2</v>
       </c>
       <c r="N153" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="O153" t="s">
-        <v>1711</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.15">
@@ -16376,10 +16380,10 @@
         <v>2</v>
       </c>
       <c r="N154" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="O154" t="s">
-        <v>1712</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.15">
@@ -16423,10 +16427,10 @@
         <v>2</v>
       </c>
       <c r="N155" t="s">
-        <v>1714</v>
+        <v>1709</v>
       </c>
       <c r="O155" t="s">
-        <v>1713</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.15">
@@ -16470,7 +16474,7 @@
         <v>2</v>
       </c>
       <c r="O156" t="s">
-        <v>1715</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.15">
@@ -16514,10 +16518,10 @@
         <v>2</v>
       </c>
       <c r="N157" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="O157" s="14" t="s">
-        <v>1716</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.15">
@@ -16561,10 +16565,10 @@
         <v>2</v>
       </c>
       <c r="N158" t="s">
-        <v>1718</v>
+        <v>1713</v>
       </c>
       <c r="O158" t="s">
-        <v>1717</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.15">
@@ -16608,7 +16612,7 @@
         <v>2</v>
       </c>
       <c r="O159" s="14" t="s">
-        <v>1719</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.15">
@@ -16652,10 +16656,10 @@
         <v>2</v>
       </c>
       <c r="N160" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="O160" t="s">
-        <v>1720</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="161" spans="1:15" x14ac:dyDescent="0.15">
@@ -16699,10 +16703,10 @@
         <v>2</v>
       </c>
       <c r="N161" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="O161" t="s">
-        <v>1721</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.15">
@@ -16746,10 +16750,10 @@
         <v>2</v>
       </c>
       <c r="N162" t="s">
-        <v>1723</v>
+        <v>1718</v>
       </c>
       <c r="O162" t="s">
-        <v>1722</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.15">
@@ -16793,10 +16797,10 @@
         <v>2</v>
       </c>
       <c r="N163" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="O163" t="s">
-        <v>1724</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.15">
@@ -16840,10 +16844,10 @@
         <v>2</v>
       </c>
       <c r="N164" t="s">
-        <v>1726</v>
+        <v>1721</v>
       </c>
       <c r="O164" t="s">
-        <v>1725</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.15">
@@ -16887,7 +16891,7 @@
         <v>2</v>
       </c>
       <c r="O165" t="s">
-        <v>1727</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.15">
@@ -16931,10 +16935,10 @@
         <v>2</v>
       </c>
       <c r="N166" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="O166" t="s">
-        <v>1728</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.15">
@@ -16978,7 +16982,7 @@
         <v>2</v>
       </c>
       <c r="O167" t="s">
-        <v>1727</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.15">
@@ -17022,10 +17026,10 @@
         <v>2</v>
       </c>
       <c r="N168" t="s">
-        <v>1730</v>
+        <v>1725</v>
       </c>
       <c r="O168" t="s">
-        <v>1729</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.15">
@@ -17069,7 +17073,7 @@
         <v>2</v>
       </c>
       <c r="N169" t="s">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="O169" t="s">
         <v>183</v>
@@ -17116,10 +17120,10 @@
         <v>2</v>
       </c>
       <c r="N170" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="O170" t="s">
-        <v>1731</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.15">
@@ -17163,10 +17167,10 @@
         <v>2</v>
       </c>
       <c r="N171" t="s">
-        <v>1664</v>
+        <v>1659</v>
       </c>
       <c r="O171" t="s">
-        <v>1732</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.15">
@@ -17210,10 +17214,10 @@
         <v>2</v>
       </c>
       <c r="N172" t="s">
-        <v>1734</v>
+        <v>1729</v>
       </c>
       <c r="O172" t="s">
-        <v>1733</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.15">
@@ -17257,10 +17261,10 @@
         <v>2</v>
       </c>
       <c r="N173" t="s">
-        <v>1736</v>
+        <v>1731</v>
       </c>
       <c r="O173" t="s">
-        <v>1735</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.15">
@@ -17304,7 +17308,7 @@
         <v>2</v>
       </c>
       <c r="N174" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
       <c r="O174" t="s">
         <v>139</v>
@@ -17351,10 +17355,10 @@
         <v>2</v>
       </c>
       <c r="N175" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="O175" t="s">
-        <v>1737</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.15">
@@ -17398,10 +17402,10 @@
         <v>2</v>
       </c>
       <c r="N176" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="O176" t="s">
-        <v>1738</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.15">
@@ -17445,10 +17449,10 @@
         <v>2</v>
       </c>
       <c r="N177" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="O177" t="s">
-        <v>1739</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.15">
@@ -17492,10 +17496,10 @@
         <v>2</v>
       </c>
       <c r="N178" t="s">
-        <v>1664</v>
+        <v>1659</v>
       </c>
       <c r="O178" t="s">
-        <v>1740</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.15">
@@ -17539,10 +17543,10 @@
         <v>2</v>
       </c>
       <c r="N179" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="O179" t="s">
-        <v>1741</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.15">
@@ -17586,10 +17590,10 @@
         <v>2</v>
       </c>
       <c r="N180" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
       <c r="O180" t="s">
-        <v>1742</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.15">
@@ -17633,10 +17637,10 @@
         <v>2</v>
       </c>
       <c r="N181" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
       <c r="O181" t="s">
-        <v>1743</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.15">
@@ -17680,10 +17684,10 @@
         <v>2</v>
       </c>
       <c r="N182" t="s">
-        <v>1681</v>
+        <v>1676</v>
       </c>
       <c r="O182" t="s">
-        <v>1744</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.15">
@@ -17727,7 +17731,7 @@
         <v>2</v>
       </c>
       <c r="N183" t="s">
-        <v>1659</v>
+        <v>1654</v>
       </c>
       <c r="O183" t="s">
         <v>943</v>
@@ -17774,10 +17778,10 @@
         <v>2</v>
       </c>
       <c r="N184" t="s">
-        <v>1746</v>
+        <v>1741</v>
       </c>
       <c r="O184" t="s">
-        <v>1745</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.15">
@@ -17821,7 +17825,7 @@
         <v>2</v>
       </c>
       <c r="O185" t="s">
-        <v>1747</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.15">
@@ -17865,10 +17869,10 @@
         <v>2</v>
       </c>
       <c r="N186" t="s">
-        <v>1706</v>
+        <v>1701</v>
       </c>
       <c r="O186" s="14" t="s">
-        <v>1748</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.15">
@@ -17912,10 +17916,10 @@
         <v>2</v>
       </c>
       <c r="N187" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="O187" t="s">
-        <v>1749</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.15">
@@ -17959,10 +17963,10 @@
         <v>2</v>
       </c>
       <c r="N188" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="O188" t="s">
-        <v>1750</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.15">
@@ -18006,7 +18010,7 @@
         <v>2</v>
       </c>
       <c r="N189" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="O189" t="s">
         <v>226</v>
@@ -18053,10 +18057,10 @@
         <v>2</v>
       </c>
       <c r="N190" t="s">
-        <v>1752</v>
+        <v>1747</v>
       </c>
       <c r="O190" t="s">
-        <v>1751</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.15">
@@ -18100,10 +18104,10 @@
         <v>2</v>
       </c>
       <c r="N191" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="O191" s="14" t="s">
-        <v>1753</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.15">
@@ -18147,10 +18151,10 @@
         <v>2</v>
       </c>
       <c r="N192" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="O192" t="s">
-        <v>1754</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.15">
@@ -18194,10 +18198,10 @@
         <v>2</v>
       </c>
       <c r="N193" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="O193" t="s">
-        <v>1755</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.15">
@@ -18241,7 +18245,7 @@
         <v>2</v>
       </c>
       <c r="O194" t="s">
-        <v>1756</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.15">
@@ -18285,10 +18289,10 @@
         <v>2</v>
       </c>
       <c r="N195" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
       <c r="O195" t="s">
-        <v>1757</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.15">
@@ -18332,10 +18336,10 @@
         <v>2</v>
       </c>
       <c r="N196" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="O196" t="s">
-        <v>1758</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.15">
@@ -18379,10 +18383,10 @@
         <v>2</v>
       </c>
       <c r="N197" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="O197" t="s">
-        <v>1759</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.15">
@@ -18426,7 +18430,7 @@
         <v>2</v>
       </c>
       <c r="N198" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="O198" t="s">
         <v>947</v>
@@ -18473,10 +18477,10 @@
         <v>2</v>
       </c>
       <c r="N199" t="s">
-        <v>1752</v>
+        <v>1747</v>
       </c>
       <c r="O199" t="s">
-        <v>1760</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.15">
@@ -18520,10 +18524,10 @@
         <v>2</v>
       </c>
       <c r="N200" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="O200" t="s">
-        <v>1761</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.15">
@@ -18567,10 +18571,10 @@
         <v>2</v>
       </c>
       <c r="N201" t="s">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="O201" t="s">
-        <v>1762</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.15">
@@ -18614,10 +18618,10 @@
         <v>2</v>
       </c>
       <c r="N202" t="s">
-        <v>1718</v>
+        <v>1713</v>
       </c>
       <c r="O202" t="s">
-        <v>1763</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.15">
@@ -18661,7 +18665,7 @@
         <v>2</v>
       </c>
       <c r="O203" t="s">
-        <v>1764</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.15">
@@ -18705,10 +18709,10 @@
         <v>2</v>
       </c>
       <c r="N204" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="O204" t="s">
-        <v>1765</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.15">
@@ -18752,10 +18756,10 @@
         <v>2</v>
       </c>
       <c r="N205" t="s">
-        <v>1658</v>
+        <v>1653</v>
       </c>
       <c r="O205" t="s">
-        <v>1766</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.15">
@@ -18799,10 +18803,10 @@
         <v>2</v>
       </c>
       <c r="N206" t="s">
-        <v>1661</v>
+        <v>1656</v>
       </c>
       <c r="O206" t="s">
-        <v>1767</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.15">
@@ -18846,10 +18850,10 @@
         <v>2</v>
       </c>
       <c r="N207" t="s">
-        <v>1769</v>
+        <v>1764</v>
       </c>
       <c r="O207" s="14" t="s">
-        <v>1768</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.15">
@@ -18893,10 +18897,10 @@
         <v>2</v>
       </c>
       <c r="N208" t="s">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="O208" t="s">
-        <v>1770</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.15">
@@ -18940,7 +18944,7 @@
         <v>2</v>
       </c>
       <c r="O209" t="s">
-        <v>1771</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.15">
@@ -18984,10 +18988,10 @@
         <v>2</v>
       </c>
       <c r="N210" t="s">
-        <v>1664</v>
+        <v>1659</v>
       </c>
       <c r="O210" t="s">
-        <v>1772</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.15">
@@ -19031,10 +19035,10 @@
         <v>2</v>
       </c>
       <c r="N211" t="s">
-        <v>1653</v>
+        <v>1648</v>
       </c>
       <c r="O211" t="s">
-        <v>1773</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.15">
@@ -19042,10 +19046,10 @@
         <v>22110086</v>
       </c>
       <c r="B212" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="C212" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="D212">
         <v>2</v>
@@ -19078,10 +19082,10 @@
         <v>2</v>
       </c>
       <c r="N212" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
       <c r="O212" t="s">
-        <v>1774</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.15">
@@ -19125,10 +19129,10 @@
         <v>2</v>
       </c>
       <c r="N213" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="O213" t="s">
-        <v>1775</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.15">
@@ -19172,10 +19176,10 @@
         <v>2</v>
       </c>
       <c r="N214" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="O214" s="14" t="s">
-        <v>1776</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.15">
@@ -19219,10 +19223,10 @@
         <v>2</v>
       </c>
       <c r="N215" t="s">
-        <v>1778</v>
+        <v>1773</v>
       </c>
       <c r="O215" t="s">
-        <v>1777</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.15">
@@ -19266,10 +19270,10 @@
         <v>2</v>
       </c>
       <c r="N216" t="s">
-        <v>1639</v>
+        <v>1634</v>
       </c>
       <c r="O216" t="s">
-        <v>1779</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.15">
@@ -19313,7 +19317,7 @@
         <v>2</v>
       </c>
       <c r="O217" t="s">
-        <v>1780</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.15">
@@ -19357,10 +19361,10 @@
         <v>2</v>
       </c>
       <c r="N218" t="s">
-        <v>1677</v>
+        <v>1672</v>
       </c>
       <c r="O218" t="s">
-        <v>1781</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.15">
@@ -19404,10 +19408,10 @@
         <v>2</v>
       </c>
       <c r="N219" t="s">
-        <v>1664</v>
+        <v>1659</v>
       </c>
       <c r="O219" t="s">
-        <v>1782</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.15">
@@ -19451,10 +19455,10 @@
         <v>2</v>
       </c>
       <c r="N220" t="s">
-        <v>1638</v>
+        <v>1633</v>
       </c>
       <c r="O220" t="s">
-        <v>1783</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.15">
@@ -19498,7 +19502,7 @@
         <v>2</v>
       </c>
       <c r="O221" s="14" t="s">
-        <v>1784</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.15">
@@ -19542,10 +19546,10 @@
         <v>2</v>
       </c>
       <c r="N222" t="s">
-        <v>1648</v>
+        <v>1643</v>
       </c>
       <c r="O222" t="s">
-        <v>1720</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.15">
@@ -19589,10 +19593,10 @@
         <v>2</v>
       </c>
       <c r="N223" t="s">
-        <v>1644</v>
+        <v>1639</v>
       </c>
       <c r="O223" t="s">
-        <v>1785</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.15">
@@ -19636,10 +19640,10 @@
         <v>2</v>
       </c>
       <c r="N224" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="O224" s="15" t="s">
-        <v>1786</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.15">
@@ -19683,10 +19687,10 @@
         <v>2</v>
       </c>
       <c r="N225" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="O225" s="15" t="s">
-        <v>1787</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.15">
@@ -19730,10 +19734,10 @@
         <v>2</v>
       </c>
       <c r="N226" t="s">
-        <v>1652</v>
+        <v>1647</v>
       </c>
       <c r="O226" s="15" t="s">
-        <v>1788</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.15">
@@ -19777,10 +19781,10 @@
         <v>2</v>
       </c>
       <c r="N227" t="s">
-        <v>1640</v>
+        <v>1635</v>
       </c>
       <c r="O227" s="15" t="s">
-        <v>1789</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.15">
@@ -19824,10 +19828,10 @@
         <v>2</v>
       </c>
       <c r="N228" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="O228" s="15" t="s">
-        <v>1790</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.15">
@@ -19871,10 +19875,10 @@
         <v>2</v>
       </c>
       <c r="N229" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="O229" s="15" t="s">
-        <v>1793</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.15">
@@ -19918,7 +19922,7 @@
         <v>2</v>
       </c>
       <c r="O230" s="15" t="s">
-        <v>1794</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.15">
@@ -19962,10 +19966,10 @@
         <v>2</v>
       </c>
       <c r="N231" t="s">
-        <v>1797</v>
+        <v>1792</v>
       </c>
       <c r="O231" s="15" t="s">
-        <v>1795</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.15">
@@ -20009,10 +20013,10 @@
         <v>2</v>
       </c>
       <c r="N232" t="s">
-        <v>1825</v>
+        <v>1820</v>
       </c>
       <c r="O232" s="15" t="s">
-        <v>1798</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.15">
@@ -20056,10 +20060,10 @@
         <v>2</v>
       </c>
       <c r="N233" t="s">
-        <v>1800</v>
+        <v>1795</v>
       </c>
       <c r="O233" s="15" t="s">
-        <v>1799</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.15">
@@ -20103,7 +20107,7 @@
         <v>2</v>
       </c>
       <c r="O234" s="15" t="s">
-        <v>1801</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.15">
@@ -20147,10 +20151,10 @@
         <v>2</v>
       </c>
       <c r="N235" t="s">
-        <v>1805</v>
+        <v>1800</v>
       </c>
       <c r="O235" s="15" t="s">
-        <v>1802</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.15">
@@ -20194,10 +20198,10 @@
         <v>2</v>
       </c>
       <c r="N236" t="s">
-        <v>1807</v>
+        <v>1802</v>
       </c>
       <c r="O236" s="15" t="s">
-        <v>1803</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.15">
@@ -20241,10 +20245,10 @@
         <v>2</v>
       </c>
       <c r="N237" t="s">
-        <v>1809</v>
+        <v>1804</v>
       </c>
       <c r="O237" s="15" t="s">
-        <v>1808</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.15">
@@ -20288,10 +20292,10 @@
         <v>2</v>
       </c>
       <c r="N238" t="s">
-        <v>1812</v>
+        <v>1807</v>
       </c>
       <c r="O238" s="15" t="s">
-        <v>1810</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.15">
@@ -20335,10 +20339,10 @@
         <v>2</v>
       </c>
       <c r="N239" t="s">
-        <v>1812</v>
+        <v>1807</v>
       </c>
       <c r="O239" s="15" t="s">
-        <v>1813</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.15">
@@ -20382,7 +20386,7 @@
         <v>2</v>
       </c>
       <c r="N240" t="s">
-        <v>1812</v>
+        <v>1807</v>
       </c>
       <c r="O240" s="15" t="s">
         <v>347</v>
@@ -20429,7 +20433,7 @@
         <v>2</v>
       </c>
       <c r="N241" t="s">
-        <v>1812</v>
+        <v>1807</v>
       </c>
       <c r="O241" s="15" t="s">
         <v>350</v>
@@ -20476,7 +20480,7 @@
         <v>2</v>
       </c>
       <c r="N242" t="s">
-        <v>1812</v>
+        <v>1807</v>
       </c>
       <c r="O242" s="15" t="s">
         <v>353</v>
@@ -20523,7 +20527,7 @@
         <v>2</v>
       </c>
       <c r="N243" t="s">
-        <v>1812</v>
+        <v>1807</v>
       </c>
       <c r="O243" s="15" t="s">
         <v>356</v>
@@ -20570,7 +20574,7 @@
         <v>2</v>
       </c>
       <c r="N244" t="s">
-        <v>1812</v>
+        <v>1807</v>
       </c>
       <c r="O244" s="15" t="s">
         <v>359</v>
@@ -20584,7 +20588,7 @@
         <v>360</v>
       </c>
       <c r="C245" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="D245">
         <v>2</v>
@@ -20617,7 +20621,7 @@
         <v>2</v>
       </c>
       <c r="N245" t="s">
-        <v>1812</v>
+        <v>1807</v>
       </c>
       <c r="O245" s="15" t="s">
         <v>362</v>
@@ -20664,7 +20668,7 @@
         <v>2</v>
       </c>
       <c r="N246" t="s">
-        <v>1812</v>
+        <v>1807</v>
       </c>
       <c r="O246" s="15" t="s">
         <v>365</v>
@@ -20711,10 +20715,10 @@
         <v>2</v>
       </c>
       <c r="N247" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="O247" s="15" t="s">
-        <v>1814</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.15">
@@ -20758,10 +20762,10 @@
         <v>2</v>
       </c>
       <c r="N248" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="O248" s="15" t="s">
-        <v>1815</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.15">
@@ -20805,10 +20809,10 @@
         <v>2</v>
       </c>
       <c r="N249" t="s">
-        <v>1818</v>
+        <v>1813</v>
       </c>
       <c r="O249" s="15" t="s">
-        <v>1816</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.15">
@@ -20852,10 +20856,10 @@
         <v>2</v>
       </c>
       <c r="N250" t="s">
-        <v>1820</v>
+        <v>1815</v>
       </c>
       <c r="O250" s="15" t="s">
-        <v>1819</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.15">
@@ -20899,10 +20903,10 @@
         <v>2</v>
       </c>
       <c r="N251" t="s">
-        <v>1823</v>
+        <v>1818</v>
       </c>
       <c r="O251" s="15" t="s">
-        <v>1821</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.15">
@@ -20946,10 +20950,10 @@
         <v>2</v>
       </c>
       <c r="N252" t="s">
-        <v>1825</v>
+        <v>1820</v>
       </c>
       <c r="O252" s="15" t="s">
-        <v>1824</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.15">
@@ -20993,10 +20997,10 @@
         <v>2</v>
       </c>
       <c r="N253" t="s">
-        <v>1827</v>
+        <v>1822</v>
       </c>
       <c r="O253" t="s">
-        <v>1826</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.15">
@@ -21040,10 +21044,10 @@
         <v>2</v>
       </c>
       <c r="N254" t="s">
-        <v>1829</v>
+        <v>1824</v>
       </c>
       <c r="O254" s="14" t="s">
-        <v>1828</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.15">
@@ -21087,7 +21091,7 @@
         <v>2</v>
       </c>
       <c r="N255" t="s">
-        <v>1830</v>
+        <v>1825</v>
       </c>
       <c r="O255" t="s">
         <v>388</v>
@@ -21134,10 +21138,10 @@
         <v>2</v>
       </c>
       <c r="N256" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="O256" t="s">
-        <v>1831</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.15">
@@ -21181,10 +21185,10 @@
         <v>2</v>
       </c>
       <c r="N257" t="s">
-        <v>1833</v>
+        <v>1828</v>
       </c>
       <c r="O257" t="s">
-        <v>1832</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.15">
@@ -21228,10 +21232,10 @@
         <v>2</v>
       </c>
       <c r="N258" t="s">
-        <v>1836</v>
+        <v>1831</v>
       </c>
       <c r="O258" t="s">
-        <v>1834</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.15">
@@ -21275,10 +21279,10 @@
         <v>2</v>
       </c>
       <c r="N259" t="s">
-        <v>1839</v>
+        <v>1834</v>
       </c>
       <c r="O259" s="14" t="s">
-        <v>1837</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.15">
@@ -21322,10 +21326,10 @@
         <v>2</v>
       </c>
       <c r="N260" t="s">
-        <v>1867</v>
+        <v>1862</v>
       </c>
       <c r="O260" t="s">
-        <v>1840</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.15">
@@ -21369,10 +21373,10 @@
         <v>2</v>
       </c>
       <c r="N261" t="s">
-        <v>1839</v>
+        <v>1834</v>
       </c>
       <c r="O261" t="s">
-        <v>1841</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.15">
@@ -21416,7 +21420,7 @@
         <v>2</v>
       </c>
       <c r="N262" t="s">
-        <v>1839</v>
+        <v>1834</v>
       </c>
       <c r="O262" t="s">
         <v>405</v>
@@ -21463,10 +21467,10 @@
         <v>2</v>
       </c>
       <c r="N263" t="s">
-        <v>1854</v>
+        <v>1849</v>
       </c>
       <c r="O263" t="s">
-        <v>1842</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.15">
@@ -21510,10 +21514,10 @@
         <v>2</v>
       </c>
       <c r="N264" t="s">
-        <v>1844</v>
+        <v>1839</v>
       </c>
       <c r="O264" t="s">
-        <v>1843</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.15">
@@ -21557,10 +21561,10 @@
         <v>2</v>
       </c>
       <c r="N265" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="O265" t="s">
-        <v>1845</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.15">
@@ -21604,10 +21608,10 @@
         <v>2</v>
       </c>
       <c r="N266" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="O266" t="s">
-        <v>1846</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.15">
@@ -21651,10 +21655,10 @@
         <v>2</v>
       </c>
       <c r="N267" t="s">
-        <v>1849</v>
+        <v>1844</v>
       </c>
       <c r="O267" t="s">
-        <v>1847</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.15">
@@ -21698,10 +21702,10 @@
         <v>2</v>
       </c>
       <c r="N268" t="s">
-        <v>1851</v>
+        <v>1846</v>
       </c>
       <c r="O268" t="s">
-        <v>1850</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.15">
@@ -21745,10 +21749,10 @@
         <v>2</v>
       </c>
       <c r="N269" t="s">
-        <v>1854</v>
+        <v>1849</v>
       </c>
       <c r="O269" t="s">
-        <v>1852</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.15">
@@ -21792,7 +21796,7 @@
         <v>2</v>
       </c>
       <c r="O270" t="s">
-        <v>1855</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.15">
@@ -21880,10 +21884,10 @@
         <v>2</v>
       </c>
       <c r="N272" t="s">
-        <v>1857</v>
+        <v>1852</v>
       </c>
       <c r="O272" t="s">
-        <v>1856</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.15">
@@ -21927,7 +21931,7 @@
         <v>2</v>
       </c>
       <c r="O273" s="14" t="s">
-        <v>1858</v>
+        <v>1853</v>
       </c>
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.15">
@@ -21971,10 +21975,10 @@
         <v>2</v>
       </c>
       <c r="N274" t="s">
-        <v>1839</v>
+        <v>1834</v>
       </c>
       <c r="O274" t="s">
-        <v>1859</v>
+        <v>1854</v>
       </c>
     </row>
     <row r="275" spans="1:15" x14ac:dyDescent="0.15">
@@ -22018,10 +22022,10 @@
         <v>2</v>
       </c>
       <c r="N275" t="s">
-        <v>1861</v>
+        <v>1856</v>
       </c>
       <c r="O275" t="s">
-        <v>1860</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.15">
@@ -22065,10 +22069,10 @@
         <v>2</v>
       </c>
       <c r="N276" t="s">
-        <v>1820</v>
+        <v>1815</v>
       </c>
       <c r="O276" t="s">
-        <v>1819</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="277" spans="1:15" x14ac:dyDescent="0.15">
@@ -22112,7 +22116,7 @@
         <v>2</v>
       </c>
       <c r="O277" t="s">
-        <v>1862</v>
+        <v>1857</v>
       </c>
     </row>
     <row r="278" spans="1:15" x14ac:dyDescent="0.15">
@@ -22156,10 +22160,10 @@
         <v>2</v>
       </c>
       <c r="N278" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="O278" t="s">
-        <v>1863</v>
+        <v>1858</v>
       </c>
     </row>
     <row r="279" spans="1:15" x14ac:dyDescent="0.15">
@@ -22203,10 +22207,10 @@
         <v>2</v>
       </c>
       <c r="N279" t="s">
-        <v>1865</v>
+        <v>1860</v>
       </c>
       <c r="O279" s="14" t="s">
-        <v>1864</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="280" spans="1:15" x14ac:dyDescent="0.15">
@@ -22250,10 +22254,10 @@
         <v>2</v>
       </c>
       <c r="N280" t="s">
-        <v>1869</v>
+        <v>1864</v>
       </c>
       <c r="O280" t="s">
-        <v>1868</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="281" spans="1:15" x14ac:dyDescent="0.15">
@@ -22297,7 +22301,7 @@
         <v>2</v>
       </c>
       <c r="N281" t="s">
-        <v>1866</v>
+        <v>1861</v>
       </c>
       <c r="O281" t="s">
         <v>448</v>
@@ -22344,10 +22348,10 @@
         <v>2</v>
       </c>
       <c r="N282" t="s">
-        <v>1797</v>
+        <v>1792</v>
       </c>
       <c r="O282" t="s">
-        <v>1870</v>
+        <v>1865</v>
       </c>
     </row>
     <row r="283" spans="1:15" x14ac:dyDescent="0.15">
@@ -22391,10 +22395,10 @@
         <v>2</v>
       </c>
       <c r="N283" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="O283" t="s">
-        <v>1871</v>
+        <v>1866</v>
       </c>
     </row>
     <row r="284" spans="1:15" x14ac:dyDescent="0.15">
@@ -22438,10 +22442,10 @@
         <v>2</v>
       </c>
       <c r="N284" t="s">
-        <v>1873</v>
+        <v>1868</v>
       </c>
       <c r="O284" t="s">
-        <v>1872</v>
+        <v>1867</v>
       </c>
     </row>
     <row r="285" spans="1:15" x14ac:dyDescent="0.15">
@@ -22485,10 +22489,10 @@
         <v>2</v>
       </c>
       <c r="N285" t="s">
-        <v>1875</v>
+        <v>1870</v>
       </c>
       <c r="O285" t="s">
-        <v>1874</v>
+        <v>1869</v>
       </c>
     </row>
     <row r="286" spans="1:15" x14ac:dyDescent="0.15">
@@ -22532,10 +22536,10 @@
         <v>2</v>
       </c>
       <c r="N286" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="O286" t="s">
-        <v>1876</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="287" spans="1:15" x14ac:dyDescent="0.15">
@@ -22579,7 +22583,7 @@
         <v>2</v>
       </c>
       <c r="N287" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="O287" t="s">
         <v>950</v>
@@ -22626,10 +22630,10 @@
         <v>2</v>
       </c>
       <c r="N288" t="s">
-        <v>1878</v>
+        <v>1873</v>
       </c>
       <c r="O288" t="s">
-        <v>1877</v>
+        <v>1872</v>
       </c>
     </row>
     <row r="289" spans="1:15" x14ac:dyDescent="0.15">
@@ -22673,7 +22677,7 @@
         <v>2</v>
       </c>
       <c r="O289" t="s">
-        <v>1879</v>
+        <v>1874</v>
       </c>
     </row>
     <row r="290" spans="1:15" x14ac:dyDescent="0.15">
@@ -22717,10 +22721,10 @@
         <v>2</v>
       </c>
       <c r="N290" t="s">
-        <v>1881</v>
+        <v>1876</v>
       </c>
       <c r="O290" s="14" t="s">
-        <v>1880</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="291" spans="1:15" x14ac:dyDescent="0.15">
@@ -22764,10 +22768,10 @@
         <v>2</v>
       </c>
       <c r="N291" t="s">
-        <v>1883</v>
+        <v>1878</v>
       </c>
       <c r="O291" t="s">
-        <v>1882</v>
+        <v>1877</v>
       </c>
     </row>
     <row r="292" spans="1:15" x14ac:dyDescent="0.15">
@@ -22811,10 +22815,10 @@
         <v>2</v>
       </c>
       <c r="N292" t="s">
-        <v>1865</v>
+        <v>1860</v>
       </c>
       <c r="O292" t="s">
-        <v>1884</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="293" spans="1:15" x14ac:dyDescent="0.15">
@@ -22858,10 +22862,10 @@
         <v>2</v>
       </c>
       <c r="N293" t="s">
-        <v>1797</v>
+        <v>1792</v>
       </c>
       <c r="O293" t="s">
-        <v>1885</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="294" spans="1:15" x14ac:dyDescent="0.15">
@@ -22905,10 +22909,10 @@
         <v>2</v>
       </c>
       <c r="N294" t="s">
-        <v>1888</v>
+        <v>1883</v>
       </c>
       <c r="O294" t="s">
-        <v>1886</v>
+        <v>1881</v>
       </c>
     </row>
     <row r="295" spans="1:15" x14ac:dyDescent="0.15">
@@ -22996,7 +23000,7 @@
         <v>2</v>
       </c>
       <c r="O296" t="s">
-        <v>1889</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="297" spans="1:15" x14ac:dyDescent="0.15">
@@ -23040,7 +23044,7 @@
         <v>2</v>
       </c>
       <c r="O297" s="14" t="s">
-        <v>1890</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="298" spans="1:15" x14ac:dyDescent="0.15">
@@ -23084,10 +23088,10 @@
         <v>2</v>
       </c>
       <c r="N298" t="s">
-        <v>1892</v>
+        <v>1887</v>
       </c>
       <c r="O298" t="s">
-        <v>1891</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="299" spans="1:15" x14ac:dyDescent="0.15">
@@ -23131,10 +23135,10 @@
         <v>2</v>
       </c>
       <c r="N299" t="s">
-        <v>1857</v>
+        <v>1852</v>
       </c>
       <c r="O299" t="s">
-        <v>1893</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="300" spans="1:15" x14ac:dyDescent="0.15">
@@ -23178,7 +23182,7 @@
         <v>2</v>
       </c>
       <c r="N300" t="s">
-        <v>1797</v>
+        <v>1792</v>
       </c>
       <c r="O300" t="s">
         <v>490</v>
@@ -23225,7 +23229,7 @@
         <v>2</v>
       </c>
       <c r="O301" t="s">
-        <v>1894</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.15">
@@ -23269,10 +23273,10 @@
         <v>2</v>
       </c>
       <c r="N302" t="s">
-        <v>1897</v>
+        <v>1892</v>
       </c>
       <c r="O302" t="s">
-        <v>1895</v>
+        <v>1890</v>
       </c>
     </row>
     <row r="303" spans="1:15" x14ac:dyDescent="0.15">
@@ -23316,10 +23320,10 @@
         <v>2</v>
       </c>
       <c r="N303" t="s">
-        <v>1899</v>
+        <v>1894</v>
       </c>
       <c r="O303" t="s">
-        <v>1898</v>
+        <v>1893</v>
       </c>
     </row>
     <row r="304" spans="1:15" x14ac:dyDescent="0.15">
@@ -23363,10 +23367,10 @@
         <v>2</v>
       </c>
       <c r="N304" t="s">
-        <v>1865</v>
+        <v>1860</v>
       </c>
       <c r="O304" t="s">
-        <v>1900</v>
+        <v>1895</v>
       </c>
     </row>
     <row r="305" spans="1:15" x14ac:dyDescent="0.15">
@@ -23410,7 +23414,7 @@
         <v>2</v>
       </c>
       <c r="N305" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="O305" s="14" t="s">
         <v>999</v>
@@ -23457,10 +23461,10 @@
         <v>2</v>
       </c>
       <c r="N306" t="s">
-        <v>1902</v>
+        <v>1897</v>
       </c>
       <c r="O306" t="s">
-        <v>1901</v>
+        <v>1896</v>
       </c>
     </row>
     <row r="307" spans="1:15" x14ac:dyDescent="0.15">
@@ -23504,10 +23508,10 @@
         <v>2</v>
       </c>
       <c r="N307" t="s">
-        <v>1904</v>
+        <v>1899</v>
       </c>
       <c r="O307" t="s">
-        <v>1903</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="308" spans="1:15" x14ac:dyDescent="0.15">
@@ -23551,10 +23555,10 @@
         <v>2</v>
       </c>
       <c r="N308" t="s">
-        <v>1865</v>
+        <v>1860</v>
       </c>
       <c r="O308" s="14" t="s">
-        <v>1905</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="309" spans="1:15" x14ac:dyDescent="0.15">
@@ -23598,10 +23602,10 @@
         <v>2</v>
       </c>
       <c r="N309" t="s">
-        <v>1908</v>
+        <v>1903</v>
       </c>
       <c r="O309" t="s">
-        <v>1906</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="310" spans="1:15" x14ac:dyDescent="0.15">
@@ -23645,10 +23649,10 @@
         <v>2</v>
       </c>
       <c r="N310" t="s">
-        <v>1910</v>
+        <v>1905</v>
       </c>
       <c r="O310" t="s">
-        <v>1909</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="311" spans="1:15" x14ac:dyDescent="0.15">
@@ -23692,7 +23696,7 @@
         <v>2</v>
       </c>
       <c r="N311" t="s">
-        <v>1911</v>
+        <v>1906</v>
       </c>
       <c r="O311" t="s">
         <v>516</v>
@@ -23703,10 +23707,10 @@
         <v>22110186</v>
       </c>
       <c r="B312" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="C312" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="D312">
         <v>2</v>
@@ -23783,10 +23787,10 @@
         <v>2</v>
       </c>
       <c r="N313" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="O313" t="s">
-        <v>1912</v>
+        <v>1907</v>
       </c>
     </row>
     <row r="314" spans="1:15" x14ac:dyDescent="0.15">
@@ -23830,7 +23834,7 @@
         <v>2</v>
       </c>
       <c r="N314" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="O314" t="s">
         <v>929</v>
@@ -23877,10 +23881,10 @@
         <v>2</v>
       </c>
       <c r="N315" t="s">
-        <v>1915</v>
+        <v>1910</v>
       </c>
       <c r="O315" t="s">
-        <v>1913</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="316" spans="1:15" x14ac:dyDescent="0.15">
@@ -23924,7 +23928,7 @@
         <v>2</v>
       </c>
       <c r="N316" t="s">
-        <v>1797</v>
+        <v>1792</v>
       </c>
       <c r="O316" s="16" t="s">
         <v>934</v>
@@ -23971,7 +23975,7 @@
         <v>2</v>
       </c>
       <c r="N317" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="O317" s="16" t="s">
         <v>937</v>
@@ -24018,7 +24022,7 @@
         <v>2</v>
       </c>
       <c r="N318" t="s">
-        <v>1797</v>
+        <v>1792</v>
       </c>
       <c r="O318" s="16" t="s">
         <v>940</v>
@@ -24065,7 +24069,7 @@
         <v>2</v>
       </c>
       <c r="N319" t="s">
-        <v>1797</v>
+        <v>1792</v>
       </c>
       <c r="O319" s="16" t="s">
         <v>952</v>
@@ -24200,7 +24204,7 @@
         <v>2</v>
       </c>
       <c r="N322" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="O322" s="16" t="s">
         <v>961</v>
@@ -24247,7 +24251,7 @@
         <v>2</v>
       </c>
       <c r="N323" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="O323" s="16" t="s">
         <v>964</v>
@@ -24294,7 +24298,7 @@
         <v>2</v>
       </c>
       <c r="N324" t="s">
-        <v>1839</v>
+        <v>1834</v>
       </c>
       <c r="O324" s="16" t="s">
         <v>967</v>
@@ -24341,7 +24345,7 @@
         <v>2</v>
       </c>
       <c r="N325" t="s">
-        <v>1849</v>
+        <v>1844</v>
       </c>
       <c r="O325" s="16" t="s">
         <v>970</v>
@@ -24432,7 +24436,7 @@
         <v>2</v>
       </c>
       <c r="N327" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="O327" s="16" t="s">
         <v>1027</v>
@@ -24479,7 +24483,7 @@
         <v>2</v>
       </c>
       <c r="N328" t="s">
-        <v>1916</v>
+        <v>1911</v>
       </c>
       <c r="O328" s="16" t="s">
         <v>976</v>
@@ -24526,7 +24530,7 @@
         <v>2</v>
       </c>
       <c r="N329" t="s">
-        <v>1892</v>
+        <v>1887</v>
       </c>
       <c r="O329" s="16" t="s">
         <v>979</v>
@@ -24617,7 +24621,7 @@
         <v>2</v>
       </c>
       <c r="N331" t="s">
-        <v>1825</v>
+        <v>1820</v>
       </c>
       <c r="O331" s="16" t="s">
         <v>985</v>
@@ -24708,7 +24712,7 @@
         <v>2</v>
       </c>
       <c r="N333" t="s">
-        <v>1917</v>
+        <v>1912</v>
       </c>
       <c r="O333" s="16" t="s">
         <v>991</v>
@@ -24755,7 +24759,7 @@
         <v>2</v>
       </c>
       <c r="O334" s="16" t="s">
-        <v>1918</v>
+        <v>1913</v>
       </c>
     </row>
     <row r="335" spans="1:15" x14ac:dyDescent="0.15">
@@ -24799,7 +24803,7 @@
         <v>2</v>
       </c>
       <c r="N335" t="s">
-        <v>1869</v>
+        <v>1864</v>
       </c>
       <c r="O335" s="16" t="s">
         <v>996</v>
@@ -24846,10 +24850,10 @@
         <v>2</v>
       </c>
       <c r="N336" t="s">
-        <v>1883</v>
+        <v>1878</v>
       </c>
       <c r="O336" s="16" t="s">
-        <v>1919</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="337" spans="1:15" x14ac:dyDescent="0.15">
@@ -24893,7 +24897,7 @@
         <v>2</v>
       </c>
       <c r="N337" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="O337" s="16" t="s">
         <v>1002</v>
@@ -24940,10 +24944,10 @@
         <v>2</v>
       </c>
       <c r="N338" t="s">
-        <v>1849</v>
+        <v>1844</v>
       </c>
       <c r="O338" s="16" t="s">
-        <v>1920</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="339" spans="1:15" x14ac:dyDescent="0.15">
@@ -24987,7 +24991,7 @@
         <v>2</v>
       </c>
       <c r="N339" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="O339" s="16" t="s">
         <v>1007</v>
@@ -25078,10 +25082,10 @@
         <v>2</v>
       </c>
       <c r="N341" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="O341" s="16" t="s">
-        <v>1921</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="342" spans="1:15" x14ac:dyDescent="0.15">
@@ -25125,10 +25129,10 @@
         <v>2</v>
       </c>
       <c r="N342" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="O342" s="16" t="s">
-        <v>1922</v>
+        <v>1917</v>
       </c>
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.15">
@@ -25172,10 +25176,10 @@
         <v>2</v>
       </c>
       <c r="N343" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="O343" s="16" t="s">
-        <v>1923</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="344" spans="1:15" x14ac:dyDescent="0.15">
@@ -25219,7 +25223,7 @@
         <v>2</v>
       </c>
       <c r="N344" t="s">
-        <v>1866</v>
+        <v>1861</v>
       </c>
       <c r="O344" s="16" t="s">
         <v>1019</v>
@@ -25266,7 +25270,7 @@
         <v>2</v>
       </c>
       <c r="N345" t="s">
-        <v>1924</v>
+        <v>1919</v>
       </c>
       <c r="O345" t="s">
         <v>1022</v>
@@ -25313,10 +25317,10 @@
         <v>2</v>
       </c>
       <c r="N346" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="O346" t="s">
-        <v>1925</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="347" spans="1:15" x14ac:dyDescent="0.15">
@@ -25360,10 +25364,10 @@
         <v>2</v>
       </c>
       <c r="N347" t="s">
-        <v>1792</v>
+        <v>1787</v>
       </c>
       <c r="O347" t="s">
-        <v>1926</v>
+        <v>1921</v>
       </c>
     </row>
     <row r="348" spans="1:15" x14ac:dyDescent="0.15">
@@ -25371,10 +25375,10 @@
         <v>22120001</v>
       </c>
       <c r="B348" t="s">
-        <v>1933</v>
+        <v>1928</v>
       </c>
       <c r="C348" t="s">
-        <v>1941</v>
+        <v>1936</v>
       </c>
       <c r="D348">
         <v>2</v>
@@ -25383,7 +25387,7 @@
         <v>10</v>
       </c>
       <c r="F348" t="s">
-        <v>1949</v>
+        <v>1944</v>
       </c>
       <c r="G348">
         <v>1</v>
@@ -25407,10 +25411,10 @@
         <v>2</v>
       </c>
       <c r="N348" t="s">
-        <v>1804</v>
+        <v>1799</v>
       </c>
       <c r="O348" t="s">
-        <v>1941</v>
+        <v>1936</v>
       </c>
     </row>
     <row r="349" spans="1:15" x14ac:dyDescent="0.15">
@@ -25418,10 +25422,10 @@
         <v>22120002</v>
       </c>
       <c r="B349" t="s">
-        <v>1934</v>
+        <v>1929</v>
       </c>
       <c r="C349" t="s">
-        <v>1942</v>
+        <v>1937</v>
       </c>
       <c r="D349">
         <v>2</v>
@@ -25430,7 +25434,7 @@
         <v>10</v>
       </c>
       <c r="F349" s="6" t="s">
-        <v>1950</v>
+        <v>1945</v>
       </c>
       <c r="G349">
         <v>1</v>
@@ -25454,10 +25458,10 @@
         <v>2</v>
       </c>
       <c r="N349" t="s">
-        <v>1896</v>
+        <v>1891</v>
       </c>
       <c r="O349" t="s">
-        <v>1942</v>
+        <v>1937</v>
       </c>
     </row>
     <row r="350" spans="1:15" x14ac:dyDescent="0.15">
@@ -25465,10 +25469,10 @@
         <v>22120003</v>
       </c>
       <c r="B350" t="s">
-        <v>1935</v>
+        <v>1930</v>
       </c>
       <c r="C350" t="s">
-        <v>1943</v>
+        <v>1938</v>
       </c>
       <c r="D350">
         <v>2</v>
@@ -25477,7 +25481,7 @@
         <v>10</v>
       </c>
       <c r="F350" s="16" t="s">
-        <v>1951</v>
+        <v>1946</v>
       </c>
       <c r="G350">
         <v>1</v>
@@ -25501,10 +25505,10 @@
         <v>2</v>
       </c>
       <c r="N350" t="s">
-        <v>1822</v>
+        <v>1817</v>
       </c>
       <c r="O350" t="s">
-        <v>1943</v>
+        <v>1938</v>
       </c>
     </row>
     <row r="351" spans="1:15" x14ac:dyDescent="0.15">
@@ -25512,10 +25516,10 @@
         <v>22120004</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>1936</v>
+        <v>1931</v>
       </c>
       <c r="C351" t="s">
-        <v>1944</v>
+        <v>1939</v>
       </c>
       <c r="D351">
         <v>2</v>
@@ -25524,7 +25528,7 @@
         <v>10</v>
       </c>
       <c r="F351" s="6" t="s">
-        <v>1952</v>
+        <v>1947</v>
       </c>
       <c r="G351">
         <v>1</v>
@@ -25548,10 +25552,10 @@
         <v>2</v>
       </c>
       <c r="N351" t="s">
-        <v>1806</v>
+        <v>1801</v>
       </c>
       <c r="O351" t="s">
-        <v>1944</v>
+        <v>1939</v>
       </c>
     </row>
     <row r="352" spans="1:15" x14ac:dyDescent="0.15">
@@ -25559,10 +25563,10 @@
         <v>22120005</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>1937</v>
+        <v>1932</v>
       </c>
       <c r="C352" t="s">
-        <v>1945</v>
+        <v>1940</v>
       </c>
       <c r="D352">
         <v>2</v>
@@ -25571,7 +25575,7 @@
         <v>10</v>
       </c>
       <c r="F352" s="6" t="s">
-        <v>1953</v>
+        <v>1948</v>
       </c>
       <c r="G352">
         <v>1</v>
@@ -25595,10 +25599,10 @@
         <v>2</v>
       </c>
       <c r="N352" t="s">
-        <v>1914</v>
+        <v>1909</v>
       </c>
       <c r="O352" t="s">
-        <v>1945</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="353" spans="1:15" x14ac:dyDescent="0.15">
@@ -25606,10 +25610,10 @@
         <v>22120006</v>
       </c>
       <c r="B353" s="16" t="s">
-        <v>1938</v>
+        <v>1933</v>
       </c>
       <c r="C353" t="s">
-        <v>1946</v>
+        <v>1941</v>
       </c>
       <c r="D353">
         <v>2</v>
@@ -25618,7 +25622,7 @@
         <v>10</v>
       </c>
       <c r="F353" s="16" t="s">
-        <v>1954</v>
+        <v>1949</v>
       </c>
       <c r="G353">
         <v>1</v>
@@ -25642,10 +25646,10 @@
         <v>2</v>
       </c>
       <c r="N353" t="s">
-        <v>1887</v>
+        <v>1882</v>
       </c>
       <c r="O353" t="s">
-        <v>1946</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="354" spans="1:15" x14ac:dyDescent="0.15">
@@ -25653,10 +25657,10 @@
         <v>22120007</v>
       </c>
       <c r="B354" s="16" t="s">
-        <v>1939</v>
+        <v>1934</v>
       </c>
       <c r="C354" t="s">
-        <v>1947</v>
+        <v>1942</v>
       </c>
       <c r="D354">
         <v>2</v>
@@ -25665,7 +25669,7 @@
         <v>10</v>
       </c>
       <c r="F354" s="16" t="s">
-        <v>1955</v>
+        <v>1950</v>
       </c>
       <c r="G354">
         <v>1</v>
@@ -25689,10 +25693,10 @@
         <v>2</v>
       </c>
       <c r="N354" t="s">
-        <v>1817</v>
+        <v>1812</v>
       </c>
       <c r="O354" t="s">
-        <v>1947</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="355" spans="1:15" x14ac:dyDescent="0.15">
@@ -25700,10 +25704,10 @@
         <v>22120008</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>1940</v>
+        <v>1935</v>
       </c>
       <c r="C355" t="s">
-        <v>1948</v>
+        <v>1943</v>
       </c>
       <c r="D355">
         <v>2</v>
@@ -25712,7 +25716,7 @@
         <v>10</v>
       </c>
       <c r="F355" s="6" t="s">
-        <v>1956</v>
+        <v>1951</v>
       </c>
       <c r="G355">
         <v>1</v>
@@ -25736,16 +25740,16 @@
         <v>2</v>
       </c>
       <c r="N355" t="s">
-        <v>1927</v>
+        <v>1922</v>
       </c>
       <c r="O355" t="s">
-        <v>1948</v>
+        <v>1943</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="B4:O355">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="58" priority="1">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25819,10 +25823,10 @@
         <v>893</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="O1" s="13" t="s">
         <v>894</v>
@@ -25866,10 +25870,10 @@
         <v>907</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>883</v>
@@ -25916,7 +25920,7 @@
         <v>1109</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>903</v>
@@ -25927,10 +25931,10 @@
         <v>22200001</v>
       </c>
       <c r="B4" t="s">
-        <v>1617</v>
+        <v>1612</v>
       </c>
       <c r="C4" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -25939,7 +25943,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -25965,7 +25969,7 @@
         <v>772</v>
       </c>
       <c r="C5" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -26000,7 +26004,7 @@
         <v>775</v>
       </c>
       <c r="C6" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -26035,7 +26039,7 @@
         <v>778</v>
       </c>
       <c r="C7" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -26070,7 +26074,7 @@
         <v>781</v>
       </c>
       <c r="C8" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -26105,7 +26109,7 @@
         <v>784</v>
       </c>
       <c r="C9" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -26140,7 +26144,7 @@
         <v>787</v>
       </c>
       <c r="C10" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -26175,7 +26179,7 @@
         <v>790</v>
       </c>
       <c r="C11" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -26210,7 +26214,7 @@
         <v>793</v>
       </c>
       <c r="C12" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -26245,7 +26249,7 @@
         <v>796</v>
       </c>
       <c r="C13" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -26280,7 +26284,7 @@
         <v>799</v>
       </c>
       <c r="C14" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -26315,7 +26319,7 @@
         <v>517</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -26353,7 +26357,7 @@
         <v>520</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -26391,7 +26395,7 @@
         <v>523</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -26429,7 +26433,7 @@
         <v>526</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -26467,7 +26471,7 @@
         <v>529</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -26505,7 +26509,7 @@
         <v>532</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -26538,12 +26542,12 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="B5:O20">
-    <cfRule type="containsBlanks" dxfId="6" priority="3">
+    <cfRule type="containsBlanks" dxfId="42" priority="3">
       <formula>LEN(TRIM(B5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:O4">
-    <cfRule type="containsBlanks" dxfId="5" priority="1">
+    <cfRule type="containsBlanks" dxfId="41" priority="1">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26560,11 +26564,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B70" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1:M3"/>
+      <selection pane="bottomRight" activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -26619,10 +26623,10 @@
         <v>893</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>1636</v>
+        <v>1631</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>1633</v>
+        <v>1628</v>
       </c>
       <c r="O1" s="13" t="s">
         <v>894</v>
@@ -26666,10 +26670,10 @@
         <v>907</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1634</v>
+        <v>1629</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>883</v>
@@ -26716,7 +26720,7 @@
         <v>1109</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>1635</v>
+        <v>1630</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>903</v>
@@ -26730,7 +26734,7 @@
         <v>802</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -26765,10 +26769,10 @@
         <v>22301201</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -26809,7 +26813,7 @@
         <v>811</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -26850,7 +26854,7 @@
         <v>813</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -26891,7 +26895,7 @@
         <v>1281</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1615</v>
+        <v>1953</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -27260,7 +27264,7 @@
         <v>1290</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -28162,7 +28166,7 @@
         <v>1101</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1545</v>
+        <v>1952</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -28203,7 +28207,7 @@
         <v>1102</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -28244,7 +28248,7 @@
         <v>1103</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -28285,7 +28289,7 @@
         <v>1104</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -29573,7 +29577,7 @@
         <v>867</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>1629</v>
+        <v>1624</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -29611,7 +29615,7 @@
         <v>1093</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>1630</v>
+        <v>1625</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
@@ -29649,7 +29653,7 @@
         <v>872</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>1631</v>
+        <v>1626</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -29687,7 +29691,7 @@
         <v>875</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>1632</v>
+        <v>1627</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
@@ -29722,10 +29726,10 @@
         <v>22301601</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>1621</v>
+        <v>1616</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -29760,10 +29764,10 @@
         <v>22301602</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>1622</v>
+        <v>1617</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>1626</v>
+        <v>1621</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -29798,10 +29802,10 @@
         <v>22301603</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>1623</v>
+        <v>1618</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>1627</v>
+        <v>1622</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -29828,7 +29832,7 @@
         <v>908</v>
       </c>
       <c r="O80" t="s">
-        <v>1618</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.15">
@@ -29836,10 +29840,10 @@
         <v>22301604</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>1628</v>
+        <v>1623</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -29848,7 +29852,7 @@
         <v>13</v>
       </c>
       <c r="F81" t="s">
-        <v>1620</v>
+        <v>1615</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -29866,7 +29870,7 @@
         <v>908</v>
       </c>
       <c r="O81" t="s">
-        <v>1619</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.15">
@@ -29877,7 +29881,7 @@
         <v>829</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>1511</v>
+        <v>1954</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -29918,7 +29922,7 @@
         <v>830</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -29959,7 +29963,7 @@
         <v>832</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -30000,7 +30004,7 @@
         <v>834</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -30041,7 +30045,7 @@
         <v>836</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -30082,7 +30086,7 @@
         <v>838</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -30123,7 +30127,7 @@
         <v>1058</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -30164,7 +30168,7 @@
         <v>1059</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -30205,7 +30209,7 @@
         <v>1060</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -30246,7 +30250,7 @@
         <v>911</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>1520</v>
+        <v>1956</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -30287,7 +30291,7 @@
         <v>841</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>1521</v>
+        <v>1519</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -30328,7 +30332,7 @@
         <v>843</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>1522</v>
+        <v>1520</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -30369,7 +30373,7 @@
         <v>845</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>1523</v>
+        <v>1521</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -30410,7 +30414,7 @@
         <v>847</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>1524</v>
+        <v>1522</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -30451,7 +30455,7 @@
         <v>849</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -30492,7 +30496,7 @@
         <v>1088</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>1526</v>
+        <v>1524</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -30533,7 +30537,7 @@
         <v>1089</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>1527</v>
+        <v>1525</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -30574,7 +30578,7 @@
         <v>1090</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>1528</v>
+        <v>1526</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -30615,7 +30619,7 @@
         <v>851</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>1529</v>
+        <v>1955</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -30656,7 +30660,7 @@
         <v>853</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>1530</v>
+        <v>1527</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -30697,7 +30701,7 @@
         <v>1053</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>1531</v>
+        <v>1528</v>
       </c>
       <c r="D102" s="4">
         <v>1</v>
@@ -30738,7 +30742,7 @@
         <v>856</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>1532</v>
+        <v>1529</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -30779,7 +30783,7 @@
         <v>858</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>1533</v>
+        <v>1530</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
@@ -30820,7 +30824,7 @@
         <v>860</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>1534</v>
+        <v>1531</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
@@ -30861,7 +30865,7 @@
         <v>862</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>1535</v>
+        <v>1532</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
@@ -30904,7 +30908,7 @@
         <v>864</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>1536</v>
+        <v>1533</v>
       </c>
       <c r="D107" s="4">
         <v>1</v>
@@ -30947,7 +30951,7 @@
         <v>1054</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="D108" s="4">
         <v>1</v>
@@ -30990,7 +30994,7 @@
         <v>1222</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -31031,7 +31035,7 @@
         <v>1223</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>1539</v>
+        <v>1536</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
@@ -31072,7 +31076,7 @@
         <v>1224</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>1540</v>
+        <v>1537</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -31113,7 +31117,7 @@
         <v>1226</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>1541</v>
+        <v>1538</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
@@ -31154,7 +31158,7 @@
         <v>1230</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>1542</v>
+        <v>1539</v>
       </c>
       <c r="D113" s="6">
         <v>1</v>
@@ -31197,7 +31201,7 @@
         <v>1231</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>1543</v>
+        <v>1540</v>
       </c>
       <c r="D114" s="6">
         <v>1</v>
@@ -31240,7 +31244,7 @@
         <v>1235</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>1544</v>
+        <v>1541</v>
       </c>
       <c r="D115" s="6">
         <v>1</v>
@@ -31278,27 +31282,27 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="J91:J107 F103:J108 F9:J11 J5:J21 M8:N21 E5:J8 E109:J115 K5:N7 K8:L37 E4:O4 O5:O80 K38:N80 E12:J80 E82:J102 K82:O115 E81:O81">
-    <cfRule type="containsBlanks" dxfId="4" priority="8">
+    <cfRule type="containsBlanks" dxfId="22" priority="8">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E103:E105">
-    <cfRule type="containsBlanks" dxfId="3" priority="6">
+    <cfRule type="containsBlanks" dxfId="21" priority="6">
       <formula>LEN(TRIM(E103))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E106:E108">
-    <cfRule type="containsBlanks" dxfId="2" priority="5">
+    <cfRule type="containsBlanks" dxfId="20" priority="5">
       <formula>LEN(TRIM(E106))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E11">
-    <cfRule type="containsBlanks" dxfId="1" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="4">
       <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J37 M22:N37">
-    <cfRule type="containsBlanks" dxfId="0" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="3">
       <formula>LEN(TRIM(J22))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31315,7 +31319,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -31323,12 +31327,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>1928</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>1804</v>
+        <v>1799</v>
       </c>
       <c r="B2">
         <f>COUNTIF(材料!N:N,"*"&amp;A2&amp;"*")</f>
@@ -31337,7 +31341,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>1896</v>
+        <v>1891</v>
       </c>
       <c r="B3">
         <f>COUNTIF(材料!N:N,"*"&amp;A3&amp;"*")</f>
@@ -31346,7 +31350,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>1822</v>
+        <v>1817</v>
       </c>
       <c r="B4">
         <f>COUNTIF(材料!N:N,"*"&amp;A4&amp;"*")</f>
@@ -31355,7 +31359,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>1907</v>
+        <v>1902</v>
       </c>
       <c r="B5">
         <f>COUNTIF(材料!N:N,"*"&amp;A5&amp;"*")</f>
@@ -31364,7 +31368,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>1806</v>
+        <v>1801</v>
       </c>
       <c r="B6">
         <f>COUNTIF(材料!N:N,"*"&amp;A6&amp;"*")</f>
@@ -31373,7 +31377,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>1647</v>
+        <v>1642</v>
       </c>
       <c r="B7">
         <f>COUNTIF(材料!N:N,"*"&amp;A7&amp;"*")</f>
@@ -31382,7 +31386,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>1838</v>
+        <v>1833</v>
       </c>
       <c r="B8">
         <f>COUNTIF(材料!N:N,"*"&amp;A8&amp;"*")</f>
@@ -31391,7 +31395,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>1791</v>
+        <v>1786</v>
       </c>
       <c r="B9">
         <f>COUNTIF(材料!N:N,"*"&amp;A9&amp;"*")</f>
@@ -31400,7 +31404,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>1835</v>
+        <v>1830</v>
       </c>
       <c r="B10">
         <f>COUNTIF(材料!N:N,"*"&amp;A10&amp;"*")</f>
@@ -31409,7 +31413,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>1914</v>
+        <v>1909</v>
       </c>
       <c r="B11">
         <f>COUNTIF(材料!N:N,"*"&amp;A11&amp;"*")</f>
@@ -31418,7 +31422,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>1887</v>
+        <v>1882</v>
       </c>
       <c r="B12">
         <f>COUNTIF(材料!N:N,"*"&amp;A12&amp;"*")</f>
@@ -31427,7 +31431,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>1817</v>
+        <v>1812</v>
       </c>
       <c r="B13">
         <f>COUNTIF(材料!N:N,"*"&amp;A13&amp;"*")</f>
@@ -31436,7 +31440,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>1800</v>
+        <v>1795</v>
       </c>
       <c r="B14">
         <f>COUNTIF(材料!N:N,"*"&amp;A14&amp;"*")</f>
@@ -31445,7 +31449,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>1796</v>
+        <v>1791</v>
       </c>
       <c r="B15">
         <f>COUNTIF(材料!N:N,"*"&amp;A15&amp;"*")</f>
@@ -31454,7 +31458,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>1853</v>
+        <v>1848</v>
       </c>
       <c r="B16">
         <f>COUNTIF(材料!N:N,"*"&amp;A16&amp;"*")</f>
@@ -31463,7 +31467,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>1811</v>
+        <v>1806</v>
       </c>
       <c r="B17">
         <f>COUNTIF(材料!N:N,"*"&amp;A17&amp;"*")</f>
@@ -31472,7 +31476,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>1927</v>
+        <v>1922</v>
       </c>
       <c r="B18">
         <f>COUNTIF(材料!N:N,"*"&amp;A18&amp;"*")</f>
@@ -31481,7 +31485,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>1848</v>
+        <v>1843</v>
       </c>
       <c r="B19">
         <f>COUNTIF(材料!N:N,"*"&amp;A19&amp;"*")</f>

--- a/ConfigData/Xlsx/HItem.xlsx
+++ b/ConfigData/Xlsx/HItem.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="材料" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3334" uniqueCount="1955">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3370" uniqueCount="1961">
   <si>
     <t>血蓟</t>
   </si>
@@ -6648,6 +6648,30 @@
   </si>
   <si>
     <t>这封信件除了许愿的内容之外，还夹带了一些其他东西，使用后查看</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>mucaibugeiche2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>kuangshibugeiche2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuiyinbugeiche2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>hongbaoshibugeiche2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>liuhuangbugeiche2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>shuijingbugeiche2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -7465,7 +7489,91 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="63">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -7920,41 +8028,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -8396,41 +8469,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -8813,13 +8851,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -8834,81 +8865,81 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A3:O355" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59" tableBorderDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A3:O355" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61" tableBorderDxfId="60">
   <autoFilter ref="A3:O355" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A4:O347">
     <sortCondition ref="A3:A347"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="59"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="58"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Ename"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Type" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Type" dataDxfId="57"/>
     <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="SubType"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Descript" dataDxfId="54"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Level" dataDxfId="53"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Rare" dataDxfId="52"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MaxPile" dataDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ValueFactor" dataDxfId="50"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="IsUsable" dataDxfId="49"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="IsThrowable" dataDxfId="48"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="RandomGroup" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Descript" dataDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Level" dataDxfId="55"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Rare" dataDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MaxPile" dataDxfId="53"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ValueFactor" dataDxfId="52"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="IsUsable" dataDxfId="51"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="IsThrowable" dataDxfId="50"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="RandomGroup" dataDxfId="49"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Attributes"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Url" dataDxfId="46"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Url" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表1_3" displayName="表1_3" ref="A3:O20" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39" tableBorderDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表1_3" displayName="表1_3" ref="A3:O20" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46" tableBorderDxfId="45">
   <autoFilter ref="A3:O20" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState ref="A4:P435">
     <sortCondition ref="A3:A435"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Id" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="36"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Ename" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type" dataDxfId="34"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="SubType" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Descript" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Level" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Rare" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="MaxPile" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="ValueFactor" dataDxfId="28"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="IsUsable" dataDxfId="27"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="IsThrowable" dataDxfId="26"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="RandomGroup" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Attributes" dataDxfId="24"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Url" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Id" dataDxfId="44"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="43"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Ename" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type" dataDxfId="41"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="SubType" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Descript" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Level" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Rare" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="MaxPile" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="ValueFactor" dataDxfId="35"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="IsUsable" dataDxfId="34"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="IsThrowable" dataDxfId="33"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="RandomGroup" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Attributes" dataDxfId="31"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Url" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表1_34" displayName="表1_34" ref="A3:O115" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="A3:O115" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState ref="A4:O115">
-    <sortCondition ref="A3:A115"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表1_34" displayName="表1_34" ref="A3:O121" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27">
+  <autoFilter ref="A3:O121" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <sortState ref="A4:O121">
+    <sortCondition ref="A3:A121"/>
   </sortState>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Id" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="13"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Ename" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Type" dataDxfId="11"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="SubType" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Descript" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Level" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Rare" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="MaxPile" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="ValueFactor" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="IsUsable" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="IsThrowable" dataDxfId="3"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="RandomGroup" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Attributes" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Url" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Id" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Ename" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Type" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="SubType" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Descript" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Level" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Rare" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="MaxPile" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="ValueFactor" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="IsUsable" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="IsThrowable" dataDxfId="15"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="RandomGroup" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Attributes" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Url" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -25771,7 +25802,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="B4:O355">
-    <cfRule type="containsBlanks" dxfId="61" priority="1">
+    <cfRule type="containsBlanks" dxfId="11" priority="1">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25788,7 +25819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -26564,27 +26595,27 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="B6:O20 B5:D5 L5:N5 F5:J5">
-    <cfRule type="containsBlanks" dxfId="45" priority="6">
+    <cfRule type="containsBlanks" dxfId="10" priority="6">
       <formula>LEN(TRIM(B5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:O4">
-    <cfRule type="containsBlanks" dxfId="44" priority="4">
+    <cfRule type="containsBlanks" dxfId="9" priority="4">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="containsBlanks" dxfId="43" priority="3">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(O5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="containsBlanks" dxfId="42" priority="2">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(K5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsBlanks" dxfId="41" priority="1">
+    <cfRule type="containsBlanks" dxfId="6" priority="1">
       <formula>LEN(TRIM(E5))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26599,13 +26630,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O115"/>
+  <dimension ref="A1:O121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B34" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomRight" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -29608,32 +29639,32 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A74">
-        <v>22301501</v>
+        <v>22301411</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>864</v>
+        <v>812</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>1614</v>
+        <v>1955</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
       </c>
       <c r="E74">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F74" t="s">
-        <v>865</v>
+        <v>920</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
       <c r="I74">
         <v>99</v>
       </c>
-      <c r="J74">
-        <v>50</v>
-      </c>
       <c r="K74" t="s">
         <v>905</v>
       </c>
@@ -29641,37 +29672,37 @@
         <v>905</v>
       </c>
       <c r="O74" t="s">
-        <v>866</v>
+        <v>813</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A75">
-        <v>22301502</v>
+        <v>22301412</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>1089</v>
+        <v>814</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>1615</v>
+        <v>1956</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
       </c>
       <c r="E75">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F75" t="s">
-        <v>867</v>
+        <v>919</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
       <c r="I75">
         <v>99</v>
       </c>
-      <c r="J75">
-        <v>50</v>
-      </c>
       <c r="K75" t="s">
         <v>905</v>
       </c>
@@ -29679,37 +29710,37 @@
         <v>905</v>
       </c>
       <c r="O75" t="s">
-        <v>868</v>
+        <v>815</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A76">
-        <v>22301503</v>
+        <v>22301413</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>869</v>
+        <v>816</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>1616</v>
+        <v>1957</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
       </c>
       <c r="E76">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F76" t="s">
-        <v>870</v>
+        <v>915</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
       <c r="I76">
         <v>99</v>
       </c>
-      <c r="J76">
-        <v>50</v>
-      </c>
       <c r="K76" t="s">
         <v>905</v>
       </c>
@@ -29717,37 +29748,37 @@
         <v>905</v>
       </c>
       <c r="O76" t="s">
-        <v>871</v>
+        <v>817</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A77">
-        <v>22301504</v>
+        <v>22301414</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>872</v>
+        <v>818</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>1617</v>
+        <v>1958</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
       </c>
       <c r="E77">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F77" t="s">
-        <v>873</v>
+        <v>916</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
+      <c r="H77">
+        <v>2</v>
+      </c>
       <c r="I77">
         <v>99</v>
       </c>
-      <c r="J77">
-        <v>50</v>
-      </c>
       <c r="K77" t="s">
         <v>905</v>
       </c>
@@ -29755,18 +29786,18 @@
         <v>905</v>
       </c>
       <c r="O77" t="s">
-        <v>874</v>
+        <v>819</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A78">
-        <v>22301601</v>
+        <v>22301415</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>1606</v>
+        <v>820</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>1610</v>
+        <v>1959</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -29775,36 +29806,36 @@
         <v>13</v>
       </c>
       <c r="F78" t="s">
-        <v>875</v>
+        <v>917</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
       <c r="I78">
         <v>99</v>
       </c>
-      <c r="J78">
-        <v>50</v>
-      </c>
       <c r="K78" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="L78" t="s">
         <v>905</v>
       </c>
       <c r="O78" t="s">
-        <v>876</v>
+        <v>821</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A79">
-        <v>22301602</v>
+        <v>22301416</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>1607</v>
+        <v>822</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>1611</v>
+        <v>1960</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -29813,17 +29844,17 @@
         <v>13</v>
       </c>
       <c r="F79" t="s">
-        <v>877</v>
+        <v>918</v>
       </c>
       <c r="G79">
         <v>1</v>
       </c>
+      <c r="H79">
+        <v>2</v>
+      </c>
       <c r="I79">
         <v>99</v>
       </c>
-      <c r="J79">
-        <v>50</v>
-      </c>
       <c r="K79" t="s">
         <v>905</v>
       </c>
@@ -29831,27 +29862,27 @@
         <v>905</v>
       </c>
       <c r="O79" t="s">
-        <v>878</v>
+        <v>823</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A80">
-        <v>22301603</v>
+        <v>22301501</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>1608</v>
+        <v>864</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
       </c>
       <c r="E80">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F80" t="s">
-        <v>1087</v>
+        <v>865</v>
       </c>
       <c r="G80">
         <v>1</v>
@@ -29869,27 +29900,27 @@
         <v>905</v>
       </c>
       <c r="O80" t="s">
-        <v>1603</v>
+        <v>866</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A81">
-        <v>22301604</v>
+        <v>22301502</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>1609</v>
+        <v>1089</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
       </c>
       <c r="E81">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F81" t="s">
-        <v>1605</v>
+        <v>867</v>
       </c>
       <c r="G81">
         <v>1</v>
@@ -29907,39 +29938,36 @@
         <v>905</v>
       </c>
       <c r="O81" t="s">
-        <v>1604</v>
+        <v>868</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A82">
-        <v>22302001</v>
+        <v>22301503</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>826</v>
+        <v>869</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>1944</v>
+        <v>1616</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
       </c>
       <c r="E82">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F82" t="s">
-        <v>1057</v>
+        <v>870</v>
       </c>
       <c r="G82">
         <v>1</v>
       </c>
-      <c r="H82">
-        <v>2</v>
-      </c>
       <c r="I82">
         <v>99</v>
       </c>
       <c r="J82">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K82" t="s">
         <v>905</v>
@@ -29948,121 +29976,112 @@
         <v>905</v>
       </c>
       <c r="O82" t="s">
-        <v>777</v>
+        <v>871</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A83">
-        <v>22302002</v>
+        <v>22301504</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>827</v>
+        <v>872</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>1505</v>
+        <v>1617</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
       </c>
       <c r="E83">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F83" t="s">
-        <v>1058</v>
+        <v>873</v>
       </c>
       <c r="G83">
         <v>1</v>
       </c>
-      <c r="H83">
-        <v>3</v>
-      </c>
       <c r="I83">
         <v>99</v>
       </c>
       <c r="J83">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K83" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="L83" t="s">
         <v>905</v>
       </c>
       <c r="O83" t="s">
-        <v>828</v>
+        <v>874</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A84">
-        <v>22302003</v>
+        <v>22301601</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>829</v>
+        <v>1606</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>1506</v>
+        <v>1610</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
       </c>
       <c r="E84">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F84" t="s">
-        <v>1059</v>
+        <v>875</v>
       </c>
       <c r="G84">
         <v>1</v>
       </c>
-      <c r="H84">
-        <v>4</v>
-      </c>
       <c r="I84">
         <v>99</v>
       </c>
       <c r="J84">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K84" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="L84" t="s">
         <v>905</v>
       </c>
       <c r="O84" t="s">
-        <v>830</v>
+        <v>876</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A85">
-        <v>22302004</v>
+        <v>22301602</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>831</v>
+        <v>1607</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>1507</v>
+        <v>1611</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
       </c>
       <c r="E85">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F85" t="s">
-        <v>1060</v>
+        <v>877</v>
       </c>
       <c r="G85">
         <v>1</v>
       </c>
-      <c r="H85">
-        <v>2</v>
-      </c>
       <c r="I85">
         <v>99</v>
       </c>
       <c r="J85">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K85" t="s">
         <v>905</v>
@@ -30071,18 +30090,18 @@
         <v>905</v>
       </c>
       <c r="O85" t="s">
-        <v>1051</v>
+        <v>878</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A86">
-        <v>22302005</v>
+        <v>22301603</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>833</v>
+        <v>1608</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>1508</v>
+        <v>1612</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -30091,19 +30110,16 @@
         <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>1061</v>
+        <v>1087</v>
       </c>
       <c r="G86">
         <v>1</v>
       </c>
-      <c r="H86">
-        <v>3</v>
-      </c>
       <c r="I86">
         <v>99</v>
       </c>
       <c r="J86">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K86" t="s">
         <v>905</v>
@@ -30112,39 +30128,36 @@
         <v>905</v>
       </c>
       <c r="O86" t="s">
-        <v>1052</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A87">
-        <v>22302006</v>
+        <v>22301604</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>835</v>
+        <v>1609</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>1509</v>
+        <v>1613</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
       </c>
       <c r="E87">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>1062</v>
+        <v>1605</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
-      <c r="H87">
-        <v>4</v>
-      </c>
       <c r="I87">
         <v>99</v>
       </c>
       <c r="J87">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="K87" t="s">
         <v>905</v>
@@ -30153,18 +30166,18 @@
         <v>905</v>
       </c>
       <c r="O87" t="s">
-        <v>1053</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A88">
-        <v>22302007</v>
+        <v>22302001</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>1054</v>
+        <v>826</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>1510</v>
+        <v>1944</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -30173,7 +30186,7 @@
         <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>1063</v>
+        <v>1057</v>
       </c>
       <c r="G88">
         <v>1</v>
@@ -30194,18 +30207,18 @@
         <v>905</v>
       </c>
       <c r="O88" t="s">
-        <v>832</v>
+        <v>777</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A89">
-        <v>22302008</v>
+        <v>22302002</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>1055</v>
+        <v>827</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>1511</v>
+        <v>1505</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -30214,7 +30227,7 @@
         <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>1064</v>
+        <v>1058</v>
       </c>
       <c r="G89">
         <v>1</v>
@@ -30229,24 +30242,24 @@
         <v>200</v>
       </c>
       <c r="K89" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="L89" t="s">
         <v>905</v>
       </c>
       <c r="O89" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A90">
-        <v>22302009</v>
+        <v>22302003</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>1056</v>
+        <v>829</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>1512</v>
+        <v>1506</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -30255,7 +30268,7 @@
         <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>1065</v>
+        <v>1059</v>
       </c>
       <c r="G90">
         <v>1</v>
@@ -30276,18 +30289,18 @@
         <v>905</v>
       </c>
       <c r="O90" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A91">
-        <v>22302013</v>
+        <v>22302004</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>908</v>
+        <v>831</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>1946</v>
+        <v>1507</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -30296,13 +30309,13 @@
         <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>1066</v>
+        <v>1060</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I91">
         <v>99</v>
@@ -30317,18 +30330,18 @@
         <v>905</v>
       </c>
       <c r="O91" t="s">
-        <v>837</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A92">
-        <v>22302014</v>
+        <v>22302005</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>1513</v>
+        <v>1508</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -30337,7 +30350,7 @@
         <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>1067</v>
+        <v>1061</v>
       </c>
       <c r="G92">
         <v>1</v>
@@ -30358,18 +30371,18 @@
         <v>905</v>
       </c>
       <c r="O92" t="s">
-        <v>839</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A93">
-        <v>22302015</v>
+        <v>22302006</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>1514</v>
+        <v>1509</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -30378,13 +30391,13 @@
         <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>1068</v>
+        <v>1062</v>
       </c>
       <c r="G93">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I93">
         <v>99</v>
@@ -30399,18 +30412,18 @@
         <v>905</v>
       </c>
       <c r="O93" t="s">
-        <v>841</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A94">
-        <v>22302016</v>
+        <v>22302007</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>842</v>
+        <v>1054</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>1515</v>
+        <v>1510</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -30419,13 +30432,13 @@
         <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>1069</v>
+        <v>1063</v>
       </c>
       <c r="G94">
         <v>1</v>
       </c>
       <c r="H94">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I94">
         <v>99</v>
@@ -30434,24 +30447,24 @@
         <v>200</v>
       </c>
       <c r="K94" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="L94" t="s">
         <v>905</v>
       </c>
       <c r="O94" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A95">
-        <v>22302017</v>
+        <v>22302008</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>844</v>
+        <v>1055</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>1516</v>
+        <v>1511</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -30460,13 +30473,13 @@
         <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>1070</v>
+        <v>1064</v>
       </c>
       <c r="G95">
         <v>1</v>
       </c>
       <c r="H95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I95">
         <v>99</v>
@@ -30481,18 +30494,18 @@
         <v>905</v>
       </c>
       <c r="O95" t="s">
-        <v>845</v>
+        <v>834</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A96">
-        <v>22302018</v>
+        <v>22302009</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>846</v>
+        <v>1056</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>1517</v>
+        <v>1512</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -30501,13 +30514,13 @@
         <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>1071</v>
+        <v>1065</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
       <c r="H96">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I96">
         <v>99</v>
@@ -30522,18 +30535,18 @@
         <v>905</v>
       </c>
       <c r="O96" t="s">
-        <v>847</v>
+        <v>836</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A97">
-        <v>22302030</v>
+        <v>22302013</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>1084</v>
+        <v>908</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>1518</v>
+        <v>1946</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -30542,7 +30555,7 @@
         <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="G97">
         <v>1</v>
@@ -30563,18 +30576,18 @@
         <v>905</v>
       </c>
       <c r="O97" t="s">
-        <v>1081</v>
+        <v>837</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A98">
-        <v>22302031</v>
+        <v>22302014</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>1085</v>
+        <v>838</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>1519</v>
+        <v>1513</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -30583,13 +30596,13 @@
         <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="G98">
         <v>1</v>
       </c>
       <c r="H98">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I98">
         <v>99</v>
@@ -30604,18 +30617,18 @@
         <v>905</v>
       </c>
       <c r="O98" t="s">
-        <v>1082</v>
+        <v>839</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A99">
-        <v>22302032</v>
+        <v>22302015</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>1086</v>
+        <v>840</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>1520</v>
+        <v>1514</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -30624,13 +30637,13 @@
         <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="G99">
         <v>1</v>
       </c>
       <c r="H99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I99">
         <v>99</v>
@@ -30645,33 +30658,33 @@
         <v>905</v>
       </c>
       <c r="O99" t="s">
-        <v>1083</v>
+        <v>841</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A100">
-        <v>22302101</v>
+        <v>22302016</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>1945</v>
+        <v>1515</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
       </c>
       <c r="E100">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>1046</v>
+        <v>1069</v>
       </c>
       <c r="G100">
         <v>1</v>
       </c>
       <c r="H100">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I100">
         <v>99</v>
@@ -30680,39 +30693,39 @@
         <v>200</v>
       </c>
       <c r="K100" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L100" t="s">
         <v>905</v>
       </c>
       <c r="O100" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A101">
-        <v>22302102</v>
+        <v>22302017</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>1521</v>
+        <v>1516</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
       </c>
       <c r="E101">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>1047</v>
+        <v>1070</v>
       </c>
       <c r="G101">
         <v>1</v>
       </c>
       <c r="H101">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I101">
         <v>99</v>
@@ -30727,18 +30740,18 @@
         <v>905</v>
       </c>
       <c r="O101" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A102">
-        <v>22302103</v>
+        <v>22302018</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>1049</v>
+        <v>846</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>1522</v>
+        <v>1517</v>
       </c>
       <c r="D102" s="4">
         <v>1</v>
@@ -30747,13 +30760,13 @@
         <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>1048</v>
+        <v>1071</v>
       </c>
       <c r="G102">
         <v>1</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I102">
         <v>99</v>
@@ -30768,18 +30781,18 @@
         <v>905</v>
       </c>
       <c r="O102" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A103">
-        <v>22302104</v>
+        <v>22302030</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>853</v>
+        <v>1084</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>1523</v>
+        <v>1518</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -30788,13 +30801,13 @@
         <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>1072</v>
+        <v>1078</v>
       </c>
       <c r="G103">
         <v>1</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I103">
         <v>99</v>
@@ -30809,18 +30822,18 @@
         <v>905</v>
       </c>
       <c r="O103" t="s">
-        <v>854</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A104">
-        <v>22302105</v>
+        <v>22302031</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>855</v>
+        <v>1085</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>1524</v>
+        <v>1519</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
@@ -30829,13 +30842,13 @@
         <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="G104">
         <v>1</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I104">
         <v>99</v>
@@ -30850,18 +30863,18 @@
         <v>905</v>
       </c>
       <c r="O104" t="s">
-        <v>856</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A105">
-        <v>22302106</v>
+        <v>22302032</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>857</v>
+        <v>1086</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>1525</v>
+        <v>1520</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
@@ -30870,13 +30883,13 @@
         <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>1074</v>
+        <v>1080</v>
       </c>
       <c r="G105">
         <v>1</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I105">
         <v>99</v>
@@ -30891,33 +30904,33 @@
         <v>905</v>
       </c>
       <c r="O105" t="s">
-        <v>858</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A106">
-        <v>22302107</v>
+        <v>22302101</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>859</v>
+        <v>848</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>1526</v>
+        <v>1945</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
       </c>
       <c r="E106">
-        <v>11</v>
-      </c>
-      <c r="F106" s="15" t="s">
-        <v>1075</v>
-      </c>
-      <c r="G106" s="15">
-        <v>1</v>
-      </c>
-      <c r="H106" s="15">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>4</v>
       </c>
       <c r="I106">
         <v>99</v>
@@ -30926,41 +30939,39 @@
         <v>200</v>
       </c>
       <c r="K106" t="s">
-        <v>905</v>
+        <v>911</v>
       </c>
       <c r="L106" t="s">
         <v>905</v>
       </c>
-      <c r="M106" s="15"/>
-      <c r="N106" s="15"/>
-      <c r="O106" s="15" t="s">
-        <v>860</v>
+      <c r="O106" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A107">
-        <v>22302108</v>
+        <v>22302102</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>1527</v>
+        <v>1521</v>
       </c>
       <c r="D107" s="4">
         <v>1</v>
       </c>
       <c r="E107">
-        <v>11</v>
-      </c>
-      <c r="F107" s="15" t="s">
-        <v>1076</v>
-      </c>
-      <c r="G107" s="15">
-        <v>1</v>
-      </c>
-      <c r="H107" s="15">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>6</v>
       </c>
       <c r="I107">
         <v>99</v>
@@ -30974,21 +30985,19 @@
       <c r="L107" t="s">
         <v>905</v>
       </c>
-      <c r="M107" s="15"/>
-      <c r="N107" s="15"/>
-      <c r="O107" s="15" t="s">
-        <v>862</v>
+      <c r="O107" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A108">
-        <v>22302109</v>
+        <v>22302103</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>1528</v>
+        <v>1522</v>
       </c>
       <c r="D108" s="4">
         <v>1</v>
@@ -30996,13 +31005,13 @@
       <c r="E108">
         <v>11</v>
       </c>
-      <c r="F108" s="15" t="s">
-        <v>1077</v>
-      </c>
-      <c r="G108" s="15">
-        <v>1</v>
-      </c>
-      <c r="H108" s="15">
+      <c r="F108" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108">
         <v>2</v>
       </c>
       <c r="I108">
@@ -31017,30 +31026,28 @@
       <c r="L108" t="s">
         <v>905</v>
       </c>
-      <c r="M108" s="15"/>
-      <c r="N108" s="15"/>
-      <c r="O108" s="15" t="s">
-        <v>863</v>
+      <c r="O108" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A109">
-        <v>22302110</v>
+        <v>22302104</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>1218</v>
+        <v>853</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>1529</v>
+        <v>1523</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
       </c>
       <c r="E109">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>1212</v>
+        <v>1072</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -31061,27 +31068,27 @@
         <v>905</v>
       </c>
       <c r="O109" t="s">
-        <v>1215</v>
+        <v>854</v>
       </c>
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A110">
-        <v>22302111</v>
+        <v>22302105</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>1219</v>
+        <v>855</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>1530</v>
+        <v>1524</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
       </c>
       <c r="E110">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>1213</v>
+        <v>1073</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -31102,27 +31109,27 @@
         <v>905</v>
       </c>
       <c r="O110" t="s">
-        <v>1216</v>
+        <v>856</v>
       </c>
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A111">
-        <v>22302112</v>
+        <v>22302106</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>1220</v>
+        <v>857</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>1531</v>
+        <v>1525</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
       </c>
       <c r="E111">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>1214</v>
+        <v>1074</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -31143,33 +31150,33 @@
         <v>905</v>
       </c>
       <c r="O111" t="s">
-        <v>1217</v>
+        <v>858</v>
       </c>
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A112">
-        <v>22302113</v>
+        <v>22302107</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>1222</v>
+        <v>859</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>1532</v>
+        <v>1526</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
       </c>
       <c r="E112">
-        <v>13</v>
-      </c>
-      <c r="F112" t="s">
-        <v>1221</v>
-      </c>
-      <c r="G112">
-        <v>1</v>
-      </c>
-      <c r="H112">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="F112" s="15" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G112" s="15">
+        <v>1</v>
+      </c>
+      <c r="H112" s="15">
+        <v>2</v>
       </c>
       <c r="I112">
         <v>99</v>
@@ -31183,33 +31190,35 @@
       <c r="L112" t="s">
         <v>905</v>
       </c>
-      <c r="O112" t="s">
-        <v>1223</v>
+      <c r="M112" s="15"/>
+      <c r="N112" s="15"/>
+      <c r="O112" s="15" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A113">
-        <v>22302114</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C113" s="6" t="s">
-        <v>1533</v>
-      </c>
-      <c r="D113" s="6">
+        <v>22302108</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>861</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D113" s="4">
         <v>1</v>
       </c>
       <c r="E113">
-        <v>13</v>
-      </c>
-      <c r="F113" s="16" t="s">
-        <v>1224</v>
-      </c>
-      <c r="G113" s="16">
-        <v>1</v>
-      </c>
-      <c r="H113" s="16">
+        <v>11</v>
+      </c>
+      <c r="F113" s="15" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G113" s="15">
+        <v>1</v>
+      </c>
+      <c r="H113" s="15">
         <v>2</v>
       </c>
       <c r="I113">
@@ -31224,36 +31233,36 @@
       <c r="L113" t="s">
         <v>905</v>
       </c>
-      <c r="M113" s="17"/>
-      <c r="N113" s="17"/>
-      <c r="O113" s="16" t="s">
-        <v>1228</v>
+      <c r="M113" s="15"/>
+      <c r="N113" s="15"/>
+      <c r="O113" s="15" t="s">
+        <v>862</v>
       </c>
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A114">
-        <v>22302115</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>1534</v>
-      </c>
-      <c r="D114" s="6">
+        <v>22302109</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>1528</v>
+      </c>
+      <c r="D114" s="4">
         <v>1</v>
       </c>
       <c r="E114">
-        <v>13</v>
-      </c>
-      <c r="F114" s="16" t="s">
-        <v>1225</v>
-      </c>
-      <c r="G114" s="16">
-        <v>1</v>
-      </c>
-      <c r="H114" s="16">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="F114" s="15" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G114" s="15">
+        <v>1</v>
+      </c>
+      <c r="H114" s="15">
+        <v>2</v>
       </c>
       <c r="I114">
         <v>99</v>
@@ -31267,36 +31276,36 @@
       <c r="L114" t="s">
         <v>905</v>
       </c>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="16" t="s">
-        <v>1229</v>
+      <c r="M114" s="15"/>
+      <c r="N114" s="15"/>
+      <c r="O114" s="15" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A115">
-        <v>22302116</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D115" s="6">
+        <v>22302110</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D115" s="4">
         <v>1</v>
       </c>
       <c r="E115">
         <v>13</v>
       </c>
-      <c r="F115" s="16" t="s">
-        <v>1232</v>
-      </c>
-      <c r="G115" s="16">
-        <v>1</v>
-      </c>
-      <c r="H115" s="16">
-        <v>6</v>
+      <c r="F115" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>2</v>
       </c>
       <c r="I115">
         <v>99</v>
@@ -31310,37 +31319,292 @@
       <c r="L115" t="s">
         <v>905</v>
       </c>
-      <c r="M115" s="17"/>
-      <c r="N115" s="17"/>
-      <c r="O115" s="16" t="s">
+      <c r="O115" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A116">
+        <v>22302111</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>1530</v>
+      </c>
+      <c r="D116" s="4">
+        <v>1</v>
+      </c>
+      <c r="E116">
+        <v>13</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1213</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116">
+        <v>2</v>
+      </c>
+      <c r="I116">
+        <v>99</v>
+      </c>
+      <c r="J116">
+        <v>200</v>
+      </c>
+      <c r="K116" t="s">
+        <v>905</v>
+      </c>
+      <c r="L116" t="s">
+        <v>905</v>
+      </c>
+      <c r="O116" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A117">
+        <v>22302112</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D117" s="4">
+        <v>1</v>
+      </c>
+      <c r="E117">
+        <v>13</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+      <c r="H117">
+        <v>2</v>
+      </c>
+      <c r="I117">
+        <v>99</v>
+      </c>
+      <c r="J117">
+        <v>200</v>
+      </c>
+      <c r="K117" t="s">
+        <v>905</v>
+      </c>
+      <c r="L117" t="s">
+        <v>905</v>
+      </c>
+      <c r="O117" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A118">
+        <v>22302113</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D118" s="4">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>13</v>
+      </c>
+      <c r="F118" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>5</v>
+      </c>
+      <c r="I118">
+        <v>99</v>
+      </c>
+      <c r="J118">
+        <v>200</v>
+      </c>
+      <c r="K118" t="s">
+        <v>905</v>
+      </c>
+      <c r="L118" t="s">
+        <v>905</v>
+      </c>
+      <c r="O118" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A119">
+        <v>22302114</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D119" s="6">
+        <v>1</v>
+      </c>
+      <c r="E119">
+        <v>13</v>
+      </c>
+      <c r="F119" s="16" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G119" s="16">
+        <v>1</v>
+      </c>
+      <c r="H119" s="16">
+        <v>2</v>
+      </c>
+      <c r="I119">
+        <v>99</v>
+      </c>
+      <c r="J119">
+        <v>200</v>
+      </c>
+      <c r="K119" t="s">
+        <v>905</v>
+      </c>
+      <c r="L119" t="s">
+        <v>905</v>
+      </c>
+      <c r="M119" s="17"/>
+      <c r="N119" s="17"/>
+      <c r="O119" s="16" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A120">
+        <v>22302115</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C120" s="6" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D120" s="6">
+        <v>1</v>
+      </c>
+      <c r="E120">
+        <v>13</v>
+      </c>
+      <c r="F120" s="16" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G120" s="16">
+        <v>1</v>
+      </c>
+      <c r="H120" s="16">
+        <v>4</v>
+      </c>
+      <c r="I120">
+        <v>99</v>
+      </c>
+      <c r="J120">
+        <v>200</v>
+      </c>
+      <c r="K120" t="s">
+        <v>905</v>
+      </c>
+      <c r="L120" t="s">
+        <v>905</v>
+      </c>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="16" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A121">
+        <v>22302116</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D121" s="6">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>13</v>
+      </c>
+      <c r="F121" s="16" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G121" s="16">
+        <v>1</v>
+      </c>
+      <c r="H121" s="16">
+        <v>6</v>
+      </c>
+      <c r="I121">
+        <v>99</v>
+      </c>
+      <c r="J121">
+        <v>200</v>
+      </c>
+      <c r="K121" t="s">
+        <v>905</v>
+      </c>
+      <c r="L121" t="s">
+        <v>905</v>
+      </c>
+      <c r="M121" s="17"/>
+      <c r="N121" s="17"/>
+      <c r="O121" s="16" t="s">
         <v>1230</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="J91:J107 F103:J108 F9:J11 J5:J21 M8:N21 E5:J8 E109:J115 K5:N7 K8:L37 E4:O4 O5:O80 K38:N80 E12:J80 E82:J102 K82:O115 E81:O81">
-    <cfRule type="containsBlanks" dxfId="22" priority="8">
+  <conditionalFormatting sqref="J97:J113 F109:J114 F9:J11 J5:J21 M8:N21 E5:J8 E115:J121 K5:N7 K8:L37 E4:O4 E88:J108 K88:O121 O5:O73 K38:N73 E12:J73 E80:O87">
+    <cfRule type="containsBlanks" dxfId="5" priority="9">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E103:E105">
-    <cfRule type="containsBlanks" dxfId="21" priority="6">
-      <formula>LEN(TRIM(E103))=0</formula>
+  <conditionalFormatting sqref="E109:E111">
+    <cfRule type="containsBlanks" dxfId="4" priority="7">
+      <formula>LEN(TRIM(E109))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E106:E108">
-    <cfRule type="containsBlanks" dxfId="20" priority="5">
-      <formula>LEN(TRIM(E106))=0</formula>
+  <conditionalFormatting sqref="E112:E114">
+    <cfRule type="containsBlanks" dxfId="3" priority="6">
+      <formula>LEN(TRIM(E112))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E11">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="2" priority="5">
       <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J37 M22:N37">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="1" priority="4">
       <formula>LEN(TRIM(J22))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E74:O79">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(E74))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ConfigData/Xlsx/HItem.xlsx
+++ b/ConfigData/Xlsx/HItem.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TOMClassic\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="材料" sheetId="1" r:id="rId1"/>
@@ -20,17 +20,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'~素材类型分析'!$A$1:$B$19</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Real</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -89,12 +89,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Real</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -153,12 +153,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Real</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3379" uniqueCount="1964">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3463" uniqueCount="1995">
   <si>
     <t>血蓟</t>
   </si>
@@ -6684,13 +6684,137 @@
   </si>
   <si>
     <t>RandomGroup</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>盐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>spyan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种调味剂</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>spyan</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>糖</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sptang</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sptang</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>香料</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>spxiangliao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>面粉</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>spmianfen</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶叶</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>spcha</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖啡</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>spkafei</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>可可</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>spkeke</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大豆</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>水稻</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>spdadou</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>spyumi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>spshuidao</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麦</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>spxiaomai</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>土豆</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>sptudou</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>地瓜</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>spdigua</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>南瓜</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>spnangua</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -7600,26 +7724,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
         <scheme val="minor"/>
       </font>
       <border diagonalUp="0" diagonalDown="0">
@@ -8133,6 +8237,26 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <font>
@@ -8897,84 +9021,84 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:P355" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" tableBorderDxfId="61">
-  <autoFilter ref="A3:P355"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A3:P369" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" tableBorderDxfId="61">
+  <autoFilter ref="A3:P369" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A4:P347">
     <sortCondition ref="A3:A347"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" name="Id" dataDxfId="60"/>
-    <tableColumn id="2" name="Name" dataDxfId="59"/>
-    <tableColumn id="10" name="Ename"/>
-    <tableColumn id="3" name="Type" dataDxfId="58"/>
-    <tableColumn id="13" name="SubType"/>
-    <tableColumn id="4" name="Descript" dataDxfId="57"/>
-    <tableColumn id="5" name="Level" dataDxfId="56"/>
-    <tableColumn id="6" name="Rare" dataDxfId="55"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="54"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="53"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="52"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="51"/>
-    <tableColumn id="16" name="RandomGroup"/>
-    <tableColumn id="15" name="Frequency" dataDxfId="50"/>
-    <tableColumn id="9" name="Attributes"/>
-    <tableColumn id="14" name="Url" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="59"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Ename"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Type" dataDxfId="58"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="SubType"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Descript" dataDxfId="57"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Level" dataDxfId="56"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Rare" dataDxfId="55"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MaxPile" dataDxfId="54"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ValueFactor" dataDxfId="53"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="IsUsable" dataDxfId="52"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="IsThrowable" dataDxfId="51"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="RandomGroup"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Frequency" dataDxfId="50"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Attributes"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Url" dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:P20" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47" tableBorderDxfId="46">
-  <autoFilter ref="A3:P20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表1_3" displayName="表1_3" ref="A3:P20" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47" tableBorderDxfId="46">
+  <autoFilter ref="A3:P20" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState ref="A4:Q435">
     <sortCondition ref="A3:A435"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" name="Id" dataDxfId="45"/>
-    <tableColumn id="2" name="Name" dataDxfId="44"/>
-    <tableColumn id="10" name="Ename" dataDxfId="43"/>
-    <tableColumn id="3" name="Type" dataDxfId="42"/>
-    <tableColumn id="13" name="SubType" dataDxfId="41"/>
-    <tableColumn id="4" name="Descript" dataDxfId="40"/>
-    <tableColumn id="5" name="Level" dataDxfId="39"/>
-    <tableColumn id="6" name="Rare" dataDxfId="38"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="37"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="36"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="35"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="34"/>
-    <tableColumn id="16" name="RandomGroup" dataDxfId="12"/>
-    <tableColumn id="15" name="Frequency" dataDxfId="33"/>
-    <tableColumn id="9" name="Attributes" dataDxfId="32"/>
-    <tableColumn id="14" name="Url" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Id" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="44"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Ename" dataDxfId="43"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type" dataDxfId="42"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="SubType" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Descript" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Level" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Rare" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="MaxPile" dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="ValueFactor" dataDxfId="36"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="IsUsable" dataDxfId="35"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="IsThrowable" dataDxfId="34"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="RandomGroup" dataDxfId="33"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Frequency" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Attributes" dataDxfId="31"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Url" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:P121" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" tableBorderDxfId="28">
-  <autoFilter ref="A3:P121"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表1_34" displayName="表1_34" ref="A3:P121" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27">
+  <autoFilter ref="A3:P121" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState ref="A4:P121">
     <sortCondition ref="A3:A121"/>
   </sortState>
   <tableColumns count="16">
-    <tableColumn id="1" name="Id" dataDxfId="27"/>
-    <tableColumn id="2" name="Name" dataDxfId="26"/>
-    <tableColumn id="10" name="Ename" dataDxfId="25"/>
-    <tableColumn id="3" name="Type" dataDxfId="24"/>
-    <tableColumn id="13" name="SubType" dataDxfId="23"/>
-    <tableColumn id="4" name="Descript" dataDxfId="22"/>
-    <tableColumn id="5" name="Level" dataDxfId="21"/>
-    <tableColumn id="6" name="Rare" dataDxfId="20"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="19"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="18"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="17"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="16"/>
-    <tableColumn id="16" name="RandomGroup"/>
-    <tableColumn id="15" name="Frequency" dataDxfId="15"/>
-    <tableColumn id="9" name="Attributes" dataDxfId="14"/>
-    <tableColumn id="14" name="Url" dataDxfId="13"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Id" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="25"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Ename" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Type" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="SubType" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Descript" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Level" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Rare" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="MaxPile" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="ValueFactor" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="IsUsable" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="IsThrowable" dataDxfId="15"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="RandomGroup"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="Frequency" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Attributes" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Url" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9300,21 +9424,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P355"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P369"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B342" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1:M3"/>
+      <selection pane="bottomRight" activeCell="O369" sqref="O369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5" customWidth="1"/>
-    <col min="5" max="5" width="6.5" customWidth="1"/>
+    <col min="4" max="5" width="3.25" customWidth="1"/>
     <col min="6" max="6" width="22.75" customWidth="1"/>
     <col min="7" max="9" width="4.75" customWidth="1"/>
     <col min="10" max="12" width="6.5" customWidth="1"/>
@@ -26900,9 +27023,667 @@
         <v>1931</v>
       </c>
     </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A356" s="19">
+        <v>22120100</v>
+      </c>
+      <c r="B356" s="6" t="s">
+        <v>1964</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D356" s="6">
+        <v>2</v>
+      </c>
+      <c r="E356">
+        <v>10</v>
+      </c>
+      <c r="F356" s="6" t="s">
+        <v>1966</v>
+      </c>
+      <c r="G356" s="6">
+        <v>1</v>
+      </c>
+      <c r="H356" s="6">
+        <v>1</v>
+      </c>
+      <c r="I356" s="6">
+        <v>99</v>
+      </c>
+      <c r="J356" s="6">
+        <v>100</v>
+      </c>
+      <c r="K356" t="s">
+        <v>907</v>
+      </c>
+      <c r="L356" t="s">
+        <v>905</v>
+      </c>
+      <c r="M356">
+        <v>3</v>
+      </c>
+      <c r="N356">
+        <v>100</v>
+      </c>
+      <c r="P356" s="6" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A357" s="19">
+        <v>22120101</v>
+      </c>
+      <c r="B357" s="6" t="s">
+        <v>1968</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D357" s="6">
+        <v>2</v>
+      </c>
+      <c r="E357">
+        <v>10</v>
+      </c>
+      <c r="F357" s="6" t="s">
+        <v>1966</v>
+      </c>
+      <c r="G357" s="6">
+        <v>1</v>
+      </c>
+      <c r="H357" s="6">
+        <v>1</v>
+      </c>
+      <c r="I357" s="6">
+        <v>99</v>
+      </c>
+      <c r="J357" s="6">
+        <v>100</v>
+      </c>
+      <c r="K357" t="s">
+        <v>907</v>
+      </c>
+      <c r="L357" t="s">
+        <v>905</v>
+      </c>
+      <c r="M357">
+        <v>3</v>
+      </c>
+      <c r="N357">
+        <v>100</v>
+      </c>
+      <c r="P357" s="6" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A358" s="19">
+        <v>22120102</v>
+      </c>
+      <c r="B358" s="6" t="s">
+        <v>1971</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1972</v>
+      </c>
+      <c r="D358" s="6">
+        <v>2</v>
+      </c>
+      <c r="E358">
+        <v>10</v>
+      </c>
+      <c r="F358" s="6" t="s">
+        <v>1966</v>
+      </c>
+      <c r="G358" s="6">
+        <v>1</v>
+      </c>
+      <c r="H358" s="6">
+        <v>1</v>
+      </c>
+      <c r="I358" s="6">
+        <v>99</v>
+      </c>
+      <c r="J358" s="6">
+        <v>100</v>
+      </c>
+      <c r="K358" t="s">
+        <v>907</v>
+      </c>
+      <c r="L358" t="s">
+        <v>905</v>
+      </c>
+      <c r="M358">
+        <v>3</v>
+      </c>
+      <c r="N358">
+        <v>100</v>
+      </c>
+      <c r="P358" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A359" s="19">
+        <v>22120103</v>
+      </c>
+      <c r="B359" s="6" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1974</v>
+      </c>
+      <c r="D359" s="6">
+        <v>2</v>
+      </c>
+      <c r="E359">
+        <v>10</v>
+      </c>
+      <c r="F359" s="6" t="s">
+        <v>1966</v>
+      </c>
+      <c r="G359" s="6">
+        <v>1</v>
+      </c>
+      <c r="H359" s="6">
+        <v>1</v>
+      </c>
+      <c r="I359" s="6">
+        <v>99</v>
+      </c>
+      <c r="J359" s="6">
+        <v>100</v>
+      </c>
+      <c r="K359" t="s">
+        <v>907</v>
+      </c>
+      <c r="L359" t="s">
+        <v>905</v>
+      </c>
+      <c r="M359">
+        <v>3</v>
+      </c>
+      <c r="N359">
+        <v>100</v>
+      </c>
+      <c r="P359" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A360" s="19">
+        <v>22120104</v>
+      </c>
+      <c r="B360" s="6" t="s">
+        <v>1975</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1976</v>
+      </c>
+      <c r="D360" s="6">
+        <v>2</v>
+      </c>
+      <c r="E360">
+        <v>10</v>
+      </c>
+      <c r="F360" s="6" t="s">
+        <v>1966</v>
+      </c>
+      <c r="G360" s="6">
+        <v>1</v>
+      </c>
+      <c r="H360" s="6">
+        <v>5</v>
+      </c>
+      <c r="I360" s="6">
+        <v>99</v>
+      </c>
+      <c r="J360" s="6">
+        <v>100</v>
+      </c>
+      <c r="K360" t="s">
+        <v>907</v>
+      </c>
+      <c r="L360" t="s">
+        <v>905</v>
+      </c>
+      <c r="M360">
+        <v>3</v>
+      </c>
+      <c r="N360">
+        <v>100</v>
+      </c>
+      <c r="P360" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A361" s="19">
+        <v>22120105</v>
+      </c>
+      <c r="B361" s="6" t="s">
+        <v>1977</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1978</v>
+      </c>
+      <c r="D361" s="6">
+        <v>2</v>
+      </c>
+      <c r="E361">
+        <v>10</v>
+      </c>
+      <c r="F361" s="6" t="s">
+        <v>1966</v>
+      </c>
+      <c r="G361" s="6">
+        <v>1</v>
+      </c>
+      <c r="H361" s="6">
+        <v>5</v>
+      </c>
+      <c r="I361" s="6">
+        <v>99</v>
+      </c>
+      <c r="J361" s="6">
+        <v>100</v>
+      </c>
+      <c r="K361" t="s">
+        <v>907</v>
+      </c>
+      <c r="L361" t="s">
+        <v>905</v>
+      </c>
+      <c r="M361">
+        <v>3</v>
+      </c>
+      <c r="N361">
+        <v>100</v>
+      </c>
+      <c r="P361" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A362" s="19">
+        <v>22120106</v>
+      </c>
+      <c r="B362" s="6" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1980</v>
+      </c>
+      <c r="D362" s="6">
+        <v>2</v>
+      </c>
+      <c r="E362">
+        <v>10</v>
+      </c>
+      <c r="F362" s="6" t="s">
+        <v>1966</v>
+      </c>
+      <c r="G362" s="6">
+        <v>1</v>
+      </c>
+      <c r="H362" s="6">
+        <v>5</v>
+      </c>
+      <c r="I362" s="6">
+        <v>99</v>
+      </c>
+      <c r="J362" s="6">
+        <v>100</v>
+      </c>
+      <c r="K362" t="s">
+        <v>907</v>
+      </c>
+      <c r="L362" t="s">
+        <v>905</v>
+      </c>
+      <c r="M362">
+        <v>3</v>
+      </c>
+      <c r="N362">
+        <v>100</v>
+      </c>
+      <c r="P362" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A363" s="19">
+        <v>22120107</v>
+      </c>
+      <c r="B363" s="6" t="s">
+        <v>1981</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D363" s="6">
+        <v>2</v>
+      </c>
+      <c r="E363">
+        <v>10</v>
+      </c>
+      <c r="F363" s="6" t="s">
+        <v>1966</v>
+      </c>
+      <c r="G363" s="6">
+        <v>1</v>
+      </c>
+      <c r="H363" s="6">
+        <v>3</v>
+      </c>
+      <c r="I363" s="6">
+        <v>99</v>
+      </c>
+      <c r="J363" s="6">
+        <v>100</v>
+      </c>
+      <c r="K363" t="s">
+        <v>907</v>
+      </c>
+      <c r="L363" t="s">
+        <v>905</v>
+      </c>
+      <c r="M363">
+        <v>3</v>
+      </c>
+      <c r="N363">
+        <v>100</v>
+      </c>
+      <c r="P363" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A364" s="19">
+        <v>22120108</v>
+      </c>
+      <c r="B364" s="6" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C364" t="s">
+        <v>1985</v>
+      </c>
+      <c r="D364" s="6">
+        <v>2</v>
+      </c>
+      <c r="E364">
+        <v>10</v>
+      </c>
+      <c r="F364" s="6" t="s">
+        <v>1966</v>
+      </c>
+      <c r="G364" s="6">
+        <v>1</v>
+      </c>
+      <c r="H364" s="6">
+        <v>3</v>
+      </c>
+      <c r="I364" s="6">
+        <v>99</v>
+      </c>
+      <c r="J364" s="6">
+        <v>100</v>
+      </c>
+      <c r="K364" t="s">
+        <v>907</v>
+      </c>
+      <c r="L364" t="s">
+        <v>905</v>
+      </c>
+      <c r="M364">
+        <v>3</v>
+      </c>
+      <c r="N364">
+        <v>100</v>
+      </c>
+      <c r="P364" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A365" s="19">
+        <v>22120109</v>
+      </c>
+      <c r="B365" s="6" t="s">
+        <v>1983</v>
+      </c>
+      <c r="C365" t="s">
+        <v>1986</v>
+      </c>
+      <c r="D365" s="6">
+        <v>2</v>
+      </c>
+      <c r="E365">
+        <v>10</v>
+      </c>
+      <c r="F365" s="6" t="s">
+        <v>1966</v>
+      </c>
+      <c r="G365" s="6">
+        <v>1</v>
+      </c>
+      <c r="H365" s="6">
+        <v>3</v>
+      </c>
+      <c r="I365" s="6">
+        <v>99</v>
+      </c>
+      <c r="J365" s="6">
+        <v>100</v>
+      </c>
+      <c r="K365" t="s">
+        <v>907</v>
+      </c>
+      <c r="L365" t="s">
+        <v>905</v>
+      </c>
+      <c r="M365">
+        <v>3</v>
+      </c>
+      <c r="N365">
+        <v>100</v>
+      </c>
+      <c r="P365" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A366" s="19">
+        <v>22120110</v>
+      </c>
+      <c r="B366" s="6" t="s">
+        <v>1987</v>
+      </c>
+      <c r="C366" t="s">
+        <v>1988</v>
+      </c>
+      <c r="D366" s="6">
+        <v>2</v>
+      </c>
+      <c r="E366">
+        <v>10</v>
+      </c>
+      <c r="F366" s="6" t="s">
+        <v>1966</v>
+      </c>
+      <c r="G366" s="6">
+        <v>1</v>
+      </c>
+      <c r="H366" s="6">
+        <v>3</v>
+      </c>
+      <c r="I366" s="6">
+        <v>99</v>
+      </c>
+      <c r="J366" s="6">
+        <v>100</v>
+      </c>
+      <c r="K366" t="s">
+        <v>907</v>
+      </c>
+      <c r="L366" t="s">
+        <v>905</v>
+      </c>
+      <c r="M366">
+        <v>3</v>
+      </c>
+      <c r="N366">
+        <v>100</v>
+      </c>
+      <c r="P366" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A367" s="19">
+        <v>22120111</v>
+      </c>
+      <c r="B367" s="6" t="s">
+        <v>1989</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1990</v>
+      </c>
+      <c r="D367" s="6">
+        <v>2</v>
+      </c>
+      <c r="E367">
+        <v>10</v>
+      </c>
+      <c r="F367" s="6" t="s">
+        <v>1966</v>
+      </c>
+      <c r="G367" s="6">
+        <v>1</v>
+      </c>
+      <c r="H367" s="6">
+        <v>2</v>
+      </c>
+      <c r="I367" s="6">
+        <v>99</v>
+      </c>
+      <c r="J367" s="6">
+        <v>100</v>
+      </c>
+      <c r="K367" t="s">
+        <v>907</v>
+      </c>
+      <c r="L367" t="s">
+        <v>905</v>
+      </c>
+      <c r="M367">
+        <v>3</v>
+      </c>
+      <c r="N367">
+        <v>100</v>
+      </c>
+      <c r="P367" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A368" s="19">
+        <v>22120112</v>
+      </c>
+      <c r="B368" s="6" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1992</v>
+      </c>
+      <c r="D368" s="6">
+        <v>2</v>
+      </c>
+      <c r="E368">
+        <v>10</v>
+      </c>
+      <c r="F368" s="6" t="s">
+        <v>1966</v>
+      </c>
+      <c r="G368" s="6">
+        <v>1</v>
+      </c>
+      <c r="H368" s="6">
+        <v>2</v>
+      </c>
+      <c r="I368" s="6">
+        <v>99</v>
+      </c>
+      <c r="J368" s="6">
+        <v>100</v>
+      </c>
+      <c r="K368" t="s">
+        <v>907</v>
+      </c>
+      <c r="L368" t="s">
+        <v>905</v>
+      </c>
+      <c r="M368">
+        <v>3</v>
+      </c>
+      <c r="N368">
+        <v>100</v>
+      </c>
+      <c r="P368" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A369" s="19">
+        <v>22120113</v>
+      </c>
+      <c r="B369" s="6" t="s">
+        <v>1993</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1994</v>
+      </c>
+      <c r="D369" s="6">
+        <v>2</v>
+      </c>
+      <c r="E369">
+        <v>10</v>
+      </c>
+      <c r="F369" s="6" t="s">
+        <v>1966</v>
+      </c>
+      <c r="G369" s="6">
+        <v>1</v>
+      </c>
+      <c r="H369" s="6">
+        <v>2</v>
+      </c>
+      <c r="I369" s="6">
+        <v>99</v>
+      </c>
+      <c r="J369" s="6">
+        <v>100</v>
+      </c>
+      <c r="K369" t="s">
+        <v>907</v>
+      </c>
+      <c r="L369" t="s">
+        <v>905</v>
+      </c>
+      <c r="M369">
+        <v>3</v>
+      </c>
+      <c r="N369">
+        <v>100</v>
+      </c>
+      <c r="P369" t="s">
+        <v>1994</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="B4:P355">
+  <conditionalFormatting sqref="B4:P369">
     <cfRule type="containsBlanks" dxfId="11" priority="1">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
@@ -26917,21 +27698,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="4" max="4" width="7.25" customWidth="1"/>
-    <col min="5" max="5" width="6.5" customWidth="1"/>
+    <col min="4" max="5" width="3.25" customWidth="1"/>
     <col min="6" max="6" width="34" customWidth="1"/>
     <col min="7" max="9" width="5.75" customWidth="1"/>
     <col min="10" max="12" width="6.5" customWidth="1"/>
@@ -27746,14 +28526,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27761,8 +28541,7 @@
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="11.125" customWidth="1"/>
-    <col min="4" max="4" width="5.5" customWidth="1"/>
-    <col min="5" max="5" width="6.5" customWidth="1"/>
+    <col min="4" max="5" width="3.75" customWidth="1"/>
     <col min="6" max="6" width="31" customWidth="1"/>
     <col min="7" max="9" width="4.875" customWidth="1"/>
     <col min="10" max="12" width="6.5" customWidth="1"/>
@@ -32743,7 +33522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -32920,7 +33699,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B19"/>
+  <autoFilter ref="A1:B19" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ConfigData/Xlsx/HItem.xlsx
+++ b/ConfigData/Xlsx/HItem.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3487" uniqueCount="2020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3493" uniqueCount="2023">
   <si>
     <t>血蓟</t>
   </si>
@@ -6908,6 +6908,17 @@
   </si>
   <si>
     <t>一种作物，能制成卷烟</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>spxiangjiaonai</t>
+  </si>
+  <si>
+    <t>香蕉牛奶</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[特产]一种香蕉和牛奶结合而成的美味</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -7645,7 +7656,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7737,6 +7748,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -9180,8 +9194,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A3:P373" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" tableBorderDxfId="61">
-  <autoFilter ref="A3:P373" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A3:P374" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" tableBorderDxfId="61">
+  <autoFilter ref="A3:P374" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A4:P347">
     <sortCondition ref="A3:A347"/>
   </sortState>
@@ -9584,10 +9598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P373"/>
+  <dimension ref="A1:P374"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B348" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B345" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="F373" sqref="F373"/>
@@ -27192,7 +27206,7 @@
       <c r="B356" s="30" t="s">
         <v>1964</v>
       </c>
-      <c r="C356" s="20" t="s">
+      <c r="C356" s="31" t="s">
         <v>1965</v>
       </c>
       <c r="D356" s="30">
@@ -27333,7 +27347,7 @@
       <c r="B359" s="30" t="s">
         <v>1993</v>
       </c>
-      <c r="C359" s="20" t="s">
+      <c r="C359" s="31" t="s">
         <v>1972</v>
       </c>
       <c r="D359" s="30">
@@ -27756,7 +27770,7 @@
       <c r="B368" s="30" t="s">
         <v>2009</v>
       </c>
-      <c r="C368" s="20" t="s">
+      <c r="C368" s="31" t="s">
         <v>1983</v>
       </c>
       <c r="D368" s="30">
@@ -27803,7 +27817,7 @@
       <c r="B369" s="30" t="s">
         <v>2011</v>
       </c>
-      <c r="C369" s="20" t="s">
+      <c r="C369" s="31" t="s">
         <v>1984</v>
       </c>
       <c r="D369" s="30">
@@ -27991,7 +28005,7 @@
       <c r="B373" s="30" t="s">
         <v>1988</v>
       </c>
-      <c r="C373" s="20" t="s">
+      <c r="C373" s="31" t="s">
         <v>1989</v>
       </c>
       <c r="D373" s="30">
@@ -28031,9 +28045,56 @@
         <v>1989</v>
       </c>
     </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.15">
+      <c r="A374" s="29">
+        <v>22120201</v>
+      </c>
+      <c r="B374" s="6" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C374" s="31" t="s">
+        <v>2020</v>
+      </c>
+      <c r="D374" s="30">
+        <v>2</v>
+      </c>
+      <c r="E374" s="20">
+        <v>10</v>
+      </c>
+      <c r="F374" s="6" t="s">
+        <v>2022</v>
+      </c>
+      <c r="G374" s="30">
+        <v>1</v>
+      </c>
+      <c r="H374" s="30">
+        <v>4</v>
+      </c>
+      <c r="I374" s="30">
+        <v>99</v>
+      </c>
+      <c r="J374" s="30">
+        <v>100</v>
+      </c>
+      <c r="K374" s="20" t="s">
+        <v>907</v>
+      </c>
+      <c r="L374" s="20" t="s">
+        <v>905</v>
+      </c>
+      <c r="M374" s="20">
+        <v>3</v>
+      </c>
+      <c r="N374" s="20">
+        <v>100</v>
+      </c>
+      <c r="P374" s="20" t="s">
+        <v>2020</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="B4:P373">
+  <conditionalFormatting sqref="B4:P374">
     <cfRule type="containsBlanks" dxfId="11" priority="1">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>

--- a/ConfigData/Xlsx/HItem.xlsx
+++ b/ConfigData/Xlsx/HItem.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="材料" sheetId="1" r:id="rId1"/>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3533" uniqueCount="1996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3533" uniqueCount="1997">
   <si>
     <t>血蓟</t>
   </si>
@@ -6872,6 +6872,10 @@
   </si>
   <si>
     <t>zygu3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>一种生活在湖中的鱼类</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -7751,7 +7755,275 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="66">
+  <dxfs count="84">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="宋体"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -7872,33 +8144,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -8407,33 +8652,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -9083,33 +9301,6 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="4"/>
@@ -9165,13 +9356,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -9186,87 +9370,87 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:Q374" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63" tableBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:Q374" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82" tableBorderDxfId="81">
   <autoFilter ref="A3:Q374"/>
   <sortState ref="A4:Q347">
     <sortCondition ref="A3:A347"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" name="Id" dataDxfId="61"/>
-    <tableColumn id="2" name="Name" dataDxfId="60"/>
+    <tableColumn id="1" name="Id" dataDxfId="80"/>
+    <tableColumn id="2" name="Name" dataDxfId="79"/>
     <tableColumn id="10" name="Ename"/>
-    <tableColumn id="3" name="Type" dataDxfId="59"/>
+    <tableColumn id="3" name="Type" dataDxfId="78"/>
     <tableColumn id="13" name="SubType"/>
-    <tableColumn id="4" name="Descript" dataDxfId="58"/>
-    <tableColumn id="5" name="Level" dataDxfId="57"/>
-    <tableColumn id="6" name="Rare" dataDxfId="56"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="55"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="54"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="53"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="52"/>
-    <tableColumn id="17" name="ShowCollectTip" dataDxfId="51"/>
+    <tableColumn id="4" name="Descript" dataDxfId="77"/>
+    <tableColumn id="5" name="Level" dataDxfId="76"/>
+    <tableColumn id="6" name="Rare" dataDxfId="14"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="75"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="74"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="73"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="72"/>
+    <tableColumn id="17" name="ShowCollectTip" dataDxfId="71"/>
     <tableColumn id="16" name="RandomGroup"/>
-    <tableColumn id="15" name="Frequency" dataDxfId="50"/>
+    <tableColumn id="15" name="Frequency" dataDxfId="70"/>
     <tableColumn id="9" name="Attributes"/>
-    <tableColumn id="14" name="Url" dataDxfId="49"/>
+    <tableColumn id="14" name="Url" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:Q20" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:Q20" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62" tableBorderDxfId="61">
   <autoFilter ref="A3:Q20"/>
   <sortState ref="A4:R435">
     <sortCondition ref="A3:A435"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" name="Id" dataDxfId="40"/>
-    <tableColumn id="2" name="Name" dataDxfId="39"/>
-    <tableColumn id="10" name="Ename" dataDxfId="38"/>
-    <tableColumn id="3" name="Type" dataDxfId="37"/>
-    <tableColumn id="13" name="SubType" dataDxfId="36"/>
-    <tableColumn id="4" name="Descript" dataDxfId="35"/>
-    <tableColumn id="5" name="Level" dataDxfId="34"/>
-    <tableColumn id="6" name="Rare" dataDxfId="33"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="32"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="31"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="30"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="29"/>
-    <tableColumn id="17" name="ShowCollectTip" dataDxfId="28"/>
-    <tableColumn id="16" name="RandomGroup" dataDxfId="27"/>
-    <tableColumn id="15" name="Frequency" dataDxfId="26"/>
-    <tableColumn id="9" name="Attributes" dataDxfId="25"/>
-    <tableColumn id="14" name="Url" dataDxfId="24"/>
+    <tableColumn id="1" name="Id" dataDxfId="60"/>
+    <tableColumn id="2" name="Name" dataDxfId="59"/>
+    <tableColumn id="10" name="Ename" dataDxfId="58"/>
+    <tableColumn id="3" name="Type" dataDxfId="57"/>
+    <tableColumn id="13" name="SubType" dataDxfId="56"/>
+    <tableColumn id="4" name="Descript" dataDxfId="55"/>
+    <tableColumn id="5" name="Level" dataDxfId="54"/>
+    <tableColumn id="6" name="Rare" dataDxfId="7"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="53"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="52"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="51"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="50"/>
+    <tableColumn id="17" name="ShowCollectTip" dataDxfId="49"/>
+    <tableColumn id="16" name="RandomGroup" dataDxfId="48"/>
+    <tableColumn id="15" name="Frequency" dataDxfId="47"/>
+    <tableColumn id="9" name="Attributes" dataDxfId="46"/>
+    <tableColumn id="14" name="Url" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:Q121" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:Q121" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37" tableBorderDxfId="36">
   <autoFilter ref="A3:Q121"/>
   <sortState ref="A4:Q121">
     <sortCondition ref="A3:A121"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" name="Id" dataDxfId="14"/>
-    <tableColumn id="2" name="Name" dataDxfId="13"/>
-    <tableColumn id="10" name="Ename" dataDxfId="12"/>
-    <tableColumn id="3" name="Type" dataDxfId="11"/>
-    <tableColumn id="13" name="SubType" dataDxfId="10"/>
-    <tableColumn id="4" name="Descript" dataDxfId="9"/>
-    <tableColumn id="5" name="Level" dataDxfId="8"/>
-    <tableColumn id="6" name="Rare" dataDxfId="7"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="6"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="5"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="4"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="3"/>
+    <tableColumn id="1" name="Id" dataDxfId="35"/>
+    <tableColumn id="2" name="Name" dataDxfId="34"/>
+    <tableColumn id="10" name="Ename" dataDxfId="33"/>
+    <tableColumn id="3" name="Type" dataDxfId="32"/>
+    <tableColumn id="13" name="SubType" dataDxfId="31"/>
+    <tableColumn id="4" name="Descript" dataDxfId="30"/>
+    <tableColumn id="5" name="Level" dataDxfId="29"/>
+    <tableColumn id="6" name="Rare" dataDxfId="0"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="28"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="27"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="26"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="25"/>
     <tableColumn id="17" name="ShowCollectTip"/>
     <tableColumn id="16" name="RandomGroup"/>
-    <tableColumn id="15" name="Frequency" dataDxfId="2"/>
-    <tableColumn id="9" name="Attributes" dataDxfId="1"/>
-    <tableColumn id="14" name="Url" dataDxfId="0"/>
+    <tableColumn id="15" name="Frequency" dataDxfId="24"/>
+    <tableColumn id="9" name="Attributes" dataDxfId="23"/>
+    <tableColumn id="14" name="Url" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9595,11 +9779,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q374"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="Q4" sqref="Q4:Q34"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10470,8 +10654,8 @@
       <c r="E17" s="20">
         <v>10</v>
       </c>
-      <c r="F17" s="20" t="s">
-        <v>19</v>
+      <c r="F17" s="31" t="s">
+        <v>1996</v>
       </c>
       <c r="G17" s="20">
         <v>1</v>
@@ -27318,7 +27502,7 @@
       <c r="G356" s="30">
         <v>1</v>
       </c>
-      <c r="H356" s="30">
+      <c r="H356" s="20">
         <v>1</v>
       </c>
       <c r="I356" s="30">
@@ -27365,7 +27549,7 @@
       <c r="G357" s="30">
         <v>1</v>
       </c>
-      <c r="H357" s="30">
+      <c r="H357" s="20">
         <v>1</v>
       </c>
       <c r="I357" s="30">
@@ -27412,7 +27596,7 @@
       <c r="G358" s="30">
         <v>1</v>
       </c>
-      <c r="H358" s="30">
+      <c r="H358" s="20">
         <v>1</v>
       </c>
       <c r="I358" s="30">
@@ -27459,7 +27643,7 @@
       <c r="G359" s="30">
         <v>1</v>
       </c>
-      <c r="H359" s="30">
+      <c r="H359" s="20">
         <v>1</v>
       </c>
       <c r="I359" s="30">
@@ -27506,7 +27690,7 @@
       <c r="G360" s="30">
         <v>1</v>
       </c>
-      <c r="H360" s="30">
+      <c r="H360" s="20">
         <v>4</v>
       </c>
       <c r="I360" s="30">
@@ -27553,7 +27737,7 @@
       <c r="G361" s="30">
         <v>1</v>
       </c>
-      <c r="H361" s="30">
+      <c r="H361" s="20">
         <v>4</v>
       </c>
       <c r="I361" s="30">
@@ -27600,7 +27784,7 @@
       <c r="G362" s="30">
         <v>1</v>
       </c>
-      <c r="H362" s="30">
+      <c r="H362" s="20">
         <v>4</v>
       </c>
       <c r="I362" s="30">
@@ -27647,7 +27831,7 @@
       <c r="G363" s="30">
         <v>1</v>
       </c>
-      <c r="H363" s="30">
+      <c r="H363" s="20">
         <v>3</v>
       </c>
       <c r="I363" s="30">
@@ -27694,7 +27878,7 @@
       <c r="G364" s="30">
         <v>1</v>
       </c>
-      <c r="H364" s="30">
+      <c r="H364" s="20">
         <v>3</v>
       </c>
       <c r="I364" s="30">
@@ -27741,7 +27925,7 @@
       <c r="G365" s="30">
         <v>1</v>
       </c>
-      <c r="H365" s="30">
+      <c r="H365" s="20">
         <v>3</v>
       </c>
       <c r="I365" s="30">
@@ -27788,7 +27972,7 @@
       <c r="G366" s="30">
         <v>1</v>
       </c>
-      <c r="H366" s="30">
+      <c r="H366" s="20">
         <v>5</v>
       </c>
       <c r="I366" s="30">
@@ -27835,7 +28019,7 @@
       <c r="G367" s="30">
         <v>1</v>
       </c>
-      <c r="H367" s="30">
+      <c r="H367" s="20">
         <v>2</v>
       </c>
       <c r="I367" s="30">
@@ -27882,7 +28066,7 @@
       <c r="G368" s="30">
         <v>1</v>
       </c>
-      <c r="H368" s="30">
+      <c r="H368" s="20">
         <v>2</v>
       </c>
       <c r="I368" s="30">
@@ -27929,7 +28113,7 @@
       <c r="G369" s="30">
         <v>1</v>
       </c>
-      <c r="H369" s="30">
+      <c r="H369" s="20">
         <v>2</v>
       </c>
       <c r="I369" s="30">
@@ -27976,7 +28160,7 @@
       <c r="G370" s="30">
         <v>1</v>
       </c>
-      <c r="H370" s="30">
+      <c r="H370" s="20">
         <v>5</v>
       </c>
       <c r="I370" s="30">
@@ -28023,7 +28207,7 @@
       <c r="G371" s="30">
         <v>1</v>
       </c>
-      <c r="H371" s="30">
+      <c r="H371" s="20">
         <v>5</v>
       </c>
       <c r="I371" s="30">
@@ -28070,7 +28254,7 @@
       <c r="G372" s="30">
         <v>1</v>
       </c>
-      <c r="H372" s="30">
+      <c r="H372" s="20">
         <v>6</v>
       </c>
       <c r="I372" s="30">
@@ -28117,7 +28301,7 @@
       <c r="G373" s="30">
         <v>1</v>
       </c>
-      <c r="H373" s="30">
+      <c r="H373" s="20">
         <v>6</v>
       </c>
       <c r="I373" s="30">
@@ -28164,7 +28348,7 @@
       <c r="G374" s="30">
         <v>1</v>
       </c>
-      <c r="H374" s="30">
+      <c r="H374" s="20">
         <v>4</v>
       </c>
       <c r="I374" s="30">
@@ -28192,8 +28376,27 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="B4:Q374">
-    <cfRule type="containsBlanks" dxfId="65" priority="1">
+    <cfRule type="containsBlanks" dxfId="21" priority="6">
       <formula>LEN(TRIM(B4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H374">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="between">
+      <formula>1</formula>
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+      <formula>7</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28209,18 +28412,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1:M3"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="4" max="5" width="3.25" customWidth="1"/>
-    <col min="6" max="6" width="34" customWidth="1"/>
+    <col min="6" max="6" width="29.875" customWidth="1"/>
     <col min="7" max="9" width="5.75" customWidth="1"/>
     <col min="10" max="13" width="6.5" customWidth="1"/>
     <col min="14" max="14" width="4.375" customWidth="1"/>
@@ -28409,6 +28612,7 @@
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4" s="20"/>
       <c r="I4">
         <v>1</v>
       </c>
@@ -28444,6 +28648,7 @@
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5" s="20"/>
       <c r="I5">
         <v>1</v>
       </c>
@@ -28479,6 +28684,7 @@
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6" s="20"/>
       <c r="I6">
         <v>1</v>
       </c>
@@ -28514,6 +28720,7 @@
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7" s="20"/>
       <c r="I7">
         <v>1</v>
       </c>
@@ -28549,6 +28756,7 @@
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8" s="20"/>
       <c r="I8">
         <v>1</v>
       </c>
@@ -28584,6 +28792,7 @@
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9" s="20"/>
       <c r="I9">
         <v>1</v>
       </c>
@@ -28619,6 +28828,7 @@
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10" s="20"/>
       <c r="I10">
         <v>1</v>
       </c>
@@ -28654,6 +28864,7 @@
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11" s="20"/>
       <c r="I11">
         <v>1</v>
       </c>
@@ -28689,6 +28900,7 @@
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12" s="20"/>
       <c r="I12">
         <v>1</v>
       </c>
@@ -28724,6 +28936,7 @@
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13" s="20"/>
       <c r="I13">
         <v>1</v>
       </c>
@@ -28759,6 +28972,7 @@
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14" s="20"/>
       <c r="I14">
         <v>1</v>
       </c>
@@ -28794,7 +29008,7 @@
       <c r="G15" s="7">
         <v>1</v>
       </c>
-      <c r="H15" s="7"/>
+      <c r="H15" s="20"/>
       <c r="I15" s="7">
         <v>99</v>
       </c>
@@ -28834,7 +29048,7 @@
       <c r="G16" s="8">
         <v>1</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="20"/>
       <c r="I16" s="8">
         <v>99</v>
       </c>
@@ -28874,7 +29088,7 @@
       <c r="G17" s="8">
         <v>1</v>
       </c>
-      <c r="H17" s="8"/>
+      <c r="H17" s="20"/>
       <c r="I17" s="8">
         <v>99</v>
       </c>
@@ -28914,7 +29128,7 @@
       <c r="G18" s="8">
         <v>1</v>
       </c>
-      <c r="H18" s="8"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="8">
         <v>99</v>
       </c>
@@ -28954,7 +29168,7 @@
       <c r="G19" s="8">
         <v>1</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="20"/>
       <c r="I19" s="8">
         <v>99</v>
       </c>
@@ -28994,7 +29208,7 @@
       <c r="G20" s="8">
         <v>1</v>
       </c>
-      <c r="H20" s="8"/>
+      <c r="H20" s="20"/>
       <c r="I20" s="8">
         <v>99</v>
       </c>
@@ -29015,28 +29229,52 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="B6:Q20 B5:D5 L5:P5 F5:J5">
-    <cfRule type="containsBlanks" dxfId="48" priority="6">
+    <cfRule type="containsBlanks" dxfId="68" priority="12">
       <formula>LEN(TRIM(B5))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:Q4">
-    <cfRule type="containsBlanks" dxfId="47" priority="4">
+  <conditionalFormatting sqref="B4:G4 I4:Q4">
+    <cfRule type="containsBlanks" dxfId="67" priority="10">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="containsBlanks" dxfId="46" priority="3">
+    <cfRule type="containsBlanks" dxfId="66" priority="9">
       <formula>LEN(TRIM(Q5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="containsBlanks" dxfId="45" priority="2">
+    <cfRule type="containsBlanks" dxfId="65" priority="8">
       <formula>LEN(TRIM(K5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsBlanks" dxfId="44" priority="1">
+    <cfRule type="containsBlanks" dxfId="64" priority="7">
       <formula>LEN(TRIM(E5))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H20">
+    <cfRule type="containsBlanks" dxfId="13" priority="6">
+      <formula>LEN(TRIM(H4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H20">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="between">
+      <formula>1</formula>
+      <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29053,19 +29291,19 @@
   <dimension ref="A1:Q121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B100" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M1" sqref="M1:M3"/>
+      <selection pane="bottomRight" activeCell="G111" sqref="G111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="10.625" customWidth="1"/>
     <col min="3" max="3" width="11.125" customWidth="1"/>
     <col min="4" max="5" width="3.75" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="6" max="6" width="25.875" customWidth="1"/>
     <col min="7" max="9" width="4.875" customWidth="1"/>
     <col min="10" max="13" width="6.5" customWidth="1"/>
     <col min="14" max="16" width="3.75" customWidth="1"/>
@@ -29253,7 +29491,7 @@
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="20">
         <v>3</v>
       </c>
       <c r="I4">
@@ -29291,7 +29529,7 @@
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="20">
         <v>4</v>
       </c>
       <c r="I5">
@@ -29332,7 +29570,7 @@
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="20">
         <v>5</v>
       </c>
       <c r="I6">
@@ -29373,7 +29611,7 @@
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="20">
         <v>6</v>
       </c>
       <c r="I7">
@@ -29414,7 +29652,7 @@
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="20">
         <v>3</v>
       </c>
       <c r="I8">
@@ -29455,7 +29693,7 @@
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="20">
         <v>3</v>
       </c>
       <c r="I9">
@@ -29496,7 +29734,7 @@
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="20">
         <v>3</v>
       </c>
       <c r="I10">
@@ -29537,7 +29775,7 @@
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="20">
         <v>3</v>
       </c>
       <c r="I11">
@@ -29578,7 +29816,7 @@
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="20">
         <v>3</v>
       </c>
       <c r="I12">
@@ -29619,7 +29857,7 @@
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="20">
         <v>3</v>
       </c>
       <c r="I13">
@@ -29660,7 +29898,7 @@
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="20">
         <v>3</v>
       </c>
       <c r="I14">
@@ -29701,7 +29939,7 @@
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="20">
         <v>3</v>
       </c>
       <c r="I15">
@@ -29742,7 +29980,7 @@
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="20">
         <v>3</v>
       </c>
       <c r="I16">
@@ -29783,7 +30021,7 @@
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="20">
         <v>3</v>
       </c>
       <c r="I17">
@@ -29824,7 +30062,7 @@
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="20">
         <v>3</v>
       </c>
       <c r="I18">
@@ -29865,7 +30103,7 @@
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="20">
         <v>3</v>
       </c>
       <c r="I19">
@@ -29906,7 +30144,7 @@
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="20">
         <v>3</v>
       </c>
       <c r="I20">
@@ -29947,7 +30185,7 @@
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="20">
         <v>3</v>
       </c>
       <c r="I21">
@@ -29988,7 +30226,7 @@
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="20">
         <v>3</v>
       </c>
       <c r="I22">
@@ -30029,7 +30267,7 @@
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="20">
         <v>3</v>
       </c>
       <c r="I23">
@@ -30070,7 +30308,7 @@
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="20">
         <v>3</v>
       </c>
       <c r="I24">
@@ -30111,7 +30349,7 @@
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="20">
         <v>3</v>
       </c>
       <c r="I25">
@@ -30152,7 +30390,7 @@
       <c r="G26">
         <v>1</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="20">
         <v>3</v>
       </c>
       <c r="I26">
@@ -30193,7 +30431,7 @@
       <c r="G27">
         <v>1</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="20">
         <v>3</v>
       </c>
       <c r="I27">
@@ -30234,7 +30472,7 @@
       <c r="G28">
         <v>1</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="20">
         <v>3</v>
       </c>
       <c r="I28">
@@ -30275,7 +30513,7 @@
       <c r="G29">
         <v>1</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="20">
         <v>3</v>
       </c>
       <c r="I29">
@@ -30316,7 +30554,7 @@
       <c r="G30">
         <v>1</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="20">
         <v>3</v>
       </c>
       <c r="I30">
@@ -30357,7 +30595,7 @@
       <c r="G31">
         <v>1</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="20">
         <v>3</v>
       </c>
       <c r="I31">
@@ -30398,7 +30636,7 @@
       <c r="G32">
         <v>1</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="20">
         <v>3</v>
       </c>
       <c r="I32">
@@ -30439,7 +30677,7 @@
       <c r="G33">
         <v>1</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="20">
         <v>3</v>
       </c>
       <c r="I33">
@@ -30480,7 +30718,7 @@
       <c r="G34">
         <v>1</v>
       </c>
-      <c r="H34" s="15">
+      <c r="H34" s="20">
         <v>3</v>
       </c>
       <c r="I34">
@@ -30521,7 +30759,7 @@
       <c r="G35">
         <v>1</v>
       </c>
-      <c r="H35" s="15">
+      <c r="H35" s="20">
         <v>3</v>
       </c>
       <c r="I35">
@@ -30562,7 +30800,7 @@
       <c r="G36">
         <v>1</v>
       </c>
-      <c r="H36" s="15">
+      <c r="H36" s="20">
         <v>3</v>
       </c>
       <c r="I36">
@@ -30603,7 +30841,7 @@
       <c r="G37">
         <v>1</v>
       </c>
-      <c r="H37" s="15">
+      <c r="H37" s="20">
         <v>3</v>
       </c>
       <c r="I37">
@@ -30644,7 +30882,7 @@
       <c r="G38">
         <v>1</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="20">
         <v>3</v>
       </c>
       <c r="I38">
@@ -30685,7 +30923,7 @@
       <c r="G39">
         <v>1</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="20">
         <v>1</v>
       </c>
       <c r="I39">
@@ -30726,7 +30964,7 @@
       <c r="G40">
         <v>1</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H40" s="20">
         <v>2</v>
       </c>
       <c r="I40">
@@ -30767,7 +31005,7 @@
       <c r="G41">
         <v>1</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="20">
         <v>4</v>
       </c>
       <c r="I41">
@@ -30808,7 +31046,7 @@
       <c r="G42">
         <v>1</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="20">
         <v>6</v>
       </c>
       <c r="I42">
@@ -30849,7 +31087,7 @@
       <c r="G43">
         <v>1</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="20">
         <v>3</v>
       </c>
       <c r="I43">
@@ -30890,7 +31128,7 @@
       <c r="G44">
         <v>1</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="20">
         <v>3</v>
       </c>
       <c r="I44">
@@ -30931,7 +31169,7 @@
       <c r="G45">
         <v>1</v>
       </c>
-      <c r="H45" s="6">
+      <c r="H45" s="20">
         <v>3</v>
       </c>
       <c r="I45">
@@ -30972,7 +31210,7 @@
       <c r="G46">
         <v>1</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="20">
         <v>3</v>
       </c>
       <c r="I46">
@@ -31013,7 +31251,7 @@
       <c r="G47">
         <v>1</v>
       </c>
-      <c r="H47" s="6">
+      <c r="H47" s="20">
         <v>3</v>
       </c>
       <c r="I47">
@@ -31054,7 +31292,7 @@
       <c r="G48">
         <v>1</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="20">
         <v>3</v>
       </c>
       <c r="I48">
@@ -31095,7 +31333,7 @@
       <c r="G49">
         <v>1</v>
       </c>
-      <c r="H49" s="6">
+      <c r="H49" s="20">
         <v>3</v>
       </c>
       <c r="I49">
@@ -31136,7 +31374,7 @@
       <c r="G50">
         <v>1</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="20">
         <v>3</v>
       </c>
       <c r="I50">
@@ -31177,7 +31415,7 @@
       <c r="G51">
         <v>1</v>
       </c>
-      <c r="H51" s="6">
+      <c r="H51" s="20">
         <v>3</v>
       </c>
       <c r="I51">
@@ -31218,7 +31456,7 @@
       <c r="G52">
         <v>1</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="20">
         <v>3</v>
       </c>
       <c r="I52">
@@ -31259,7 +31497,7 @@
       <c r="G53">
         <v>1</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53" s="20">
         <v>3</v>
       </c>
       <c r="I53">
@@ -31300,7 +31538,7 @@
       <c r="G54">
         <v>1</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54" s="20">
         <v>3</v>
       </c>
       <c r="I54">
@@ -31341,7 +31579,7 @@
       <c r="G55">
         <v>1</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55" s="20">
         <v>3</v>
       </c>
       <c r="I55">
@@ -31382,7 +31620,7 @@
       <c r="G56">
         <v>1</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H56" s="20">
         <v>3</v>
       </c>
       <c r="I56">
@@ -31423,7 +31661,7 @@
       <c r="G57">
         <v>1</v>
       </c>
-      <c r="H57" s="6">
+      <c r="H57" s="20">
         <v>3</v>
       </c>
       <c r="I57">
@@ -31464,7 +31702,7 @@
       <c r="G58">
         <v>1</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58" s="20">
         <v>3</v>
       </c>
       <c r="I58">
@@ -31505,7 +31743,7 @@
       <c r="G59">
         <v>1</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59" s="20">
         <v>3</v>
       </c>
       <c r="I59">
@@ -31546,7 +31784,7 @@
       <c r="G60">
         <v>1</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H60" s="20">
         <v>3</v>
       </c>
       <c r="I60">
@@ -31587,7 +31825,7 @@
       <c r="G61">
         <v>1</v>
       </c>
-      <c r="H61" s="6">
+      <c r="H61" s="20">
         <v>3</v>
       </c>
       <c r="I61">
@@ -31628,7 +31866,7 @@
       <c r="G62">
         <v>1</v>
       </c>
-      <c r="H62" s="6">
+      <c r="H62" s="20">
         <v>3</v>
       </c>
       <c r="I62">
@@ -31669,7 +31907,7 @@
       <c r="G63">
         <v>1</v>
       </c>
-      <c r="H63" s="6">
+      <c r="H63" s="20">
         <v>3</v>
       </c>
       <c r="I63">
@@ -31710,7 +31948,7 @@
       <c r="G64">
         <v>1</v>
       </c>
-      <c r="H64" s="6">
+      <c r="H64" s="20">
         <v>3</v>
       </c>
       <c r="I64">
@@ -31751,7 +31989,7 @@
       <c r="G65">
         <v>1</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H65" s="20">
         <v>3</v>
       </c>
       <c r="I65">
@@ -31792,7 +32030,7 @@
       <c r="G66">
         <v>1</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="20">
         <v>4</v>
       </c>
       <c r="I66">
@@ -31830,7 +32068,7 @@
       <c r="G67">
         <v>1</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="20">
         <v>4</v>
       </c>
       <c r="I67">
@@ -31868,7 +32106,7 @@
       <c r="G68">
         <v>1</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="20">
         <v>4</v>
       </c>
       <c r="I68">
@@ -31906,7 +32144,7 @@
       <c r="G69">
         <v>1</v>
       </c>
-      <c r="H69">
+      <c r="H69" s="20">
         <v>4</v>
       </c>
       <c r="I69">
@@ -31944,7 +32182,7 @@
       <c r="G70">
         <v>1</v>
       </c>
-      <c r="H70">
+      <c r="H70" s="20">
         <v>4</v>
       </c>
       <c r="I70">
@@ -31982,7 +32220,7 @@
       <c r="G71">
         <v>1</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="20">
         <v>4</v>
       </c>
       <c r="I71">
@@ -32020,7 +32258,7 @@
       <c r="G72">
         <v>1</v>
       </c>
-      <c r="H72">
+      <c r="H72" s="20">
         <v>4</v>
       </c>
       <c r="I72">
@@ -32058,7 +32296,7 @@
       <c r="G73">
         <v>1</v>
       </c>
-      <c r="H73">
+      <c r="H73" s="20">
         <v>4</v>
       </c>
       <c r="I73">
@@ -32096,7 +32334,7 @@
       <c r="G74">
         <v>1</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="20">
         <v>2</v>
       </c>
       <c r="I74">
@@ -32134,7 +32372,7 @@
       <c r="G75">
         <v>1</v>
       </c>
-      <c r="H75">
+      <c r="H75" s="20">
         <v>2</v>
       </c>
       <c r="I75">
@@ -32172,7 +32410,7 @@
       <c r="G76">
         <v>1</v>
       </c>
-      <c r="H76">
+      <c r="H76" s="20">
         <v>2</v>
       </c>
       <c r="I76">
@@ -32210,7 +32448,7 @@
       <c r="G77">
         <v>1</v>
       </c>
-      <c r="H77">
+      <c r="H77" s="20">
         <v>2</v>
       </c>
       <c r="I77">
@@ -32248,7 +32486,7 @@
       <c r="G78">
         <v>1</v>
       </c>
-      <c r="H78">
+      <c r="H78" s="20">
         <v>2</v>
       </c>
       <c r="I78">
@@ -32286,7 +32524,7 @@
       <c r="G79">
         <v>1</v>
       </c>
-      <c r="H79">
+      <c r="H79" s="20">
         <v>2</v>
       </c>
       <c r="I79">
@@ -32324,6 +32562,7 @@
       <c r="G80">
         <v>1</v>
       </c>
+      <c r="H80" s="20"/>
       <c r="I80">
         <v>99</v>
       </c>
@@ -32362,6 +32601,7 @@
       <c r="G81">
         <v>1</v>
       </c>
+      <c r="H81" s="20"/>
       <c r="I81">
         <v>99</v>
       </c>
@@ -32400,6 +32640,7 @@
       <c r="G82">
         <v>1</v>
       </c>
+      <c r="H82" s="20"/>
       <c r="I82">
         <v>99</v>
       </c>
@@ -32438,6 +32679,7 @@
       <c r="G83">
         <v>1</v>
       </c>
+      <c r="H83" s="20"/>
       <c r="I83">
         <v>99</v>
       </c>
@@ -32476,6 +32718,7 @@
       <c r="G84">
         <v>1</v>
       </c>
+      <c r="H84" s="20"/>
       <c r="I84">
         <v>99</v>
       </c>
@@ -32514,6 +32757,7 @@
       <c r="G85">
         <v>1</v>
       </c>
+      <c r="H85" s="20"/>
       <c r="I85">
         <v>99</v>
       </c>
@@ -32552,6 +32796,7 @@
       <c r="G86">
         <v>1</v>
       </c>
+      <c r="H86" s="20"/>
       <c r="I86">
         <v>99</v>
       </c>
@@ -32590,6 +32835,7 @@
       <c r="G87">
         <v>1</v>
       </c>
+      <c r="H87" s="20"/>
       <c r="I87">
         <v>99</v>
       </c>
@@ -32628,7 +32874,7 @@
       <c r="G88">
         <v>1</v>
       </c>
-      <c r="H88">
+      <c r="H88" s="20">
         <v>2</v>
       </c>
       <c r="I88">
@@ -32669,7 +32915,7 @@
       <c r="G89">
         <v>1</v>
       </c>
-      <c r="H89">
+      <c r="H89" s="20">
         <v>3</v>
       </c>
       <c r="I89">
@@ -32710,7 +32956,7 @@
       <c r="G90">
         <v>1</v>
       </c>
-      <c r="H90">
+      <c r="H90" s="20">
         <v>4</v>
       </c>
       <c r="I90">
@@ -32751,7 +32997,7 @@
       <c r="G91">
         <v>1</v>
       </c>
-      <c r="H91">
+      <c r="H91" s="20">
         <v>2</v>
       </c>
       <c r="I91">
@@ -32792,7 +33038,7 @@
       <c r="G92">
         <v>1</v>
       </c>
-      <c r="H92">
+      <c r="H92" s="20">
         <v>3</v>
       </c>
       <c r="I92">
@@ -32833,7 +33079,7 @@
       <c r="G93">
         <v>1</v>
       </c>
-      <c r="H93">
+      <c r="H93" s="20">
         <v>4</v>
       </c>
       <c r="I93">
@@ -32874,7 +33120,7 @@
       <c r="G94">
         <v>1</v>
       </c>
-      <c r="H94">
+      <c r="H94" s="20">
         <v>2</v>
       </c>
       <c r="I94">
@@ -32915,7 +33161,7 @@
       <c r="G95">
         <v>1</v>
       </c>
-      <c r="H95">
+      <c r="H95" s="20">
         <v>3</v>
       </c>
       <c r="I95">
@@ -32956,7 +33202,7 @@
       <c r="G96">
         <v>1</v>
       </c>
-      <c r="H96">
+      <c r="H96" s="20">
         <v>4</v>
       </c>
       <c r="I96">
@@ -32997,7 +33243,7 @@
       <c r="G97">
         <v>1</v>
       </c>
-      <c r="H97">
+      <c r="H97" s="20">
         <v>3</v>
       </c>
       <c r="I97">
@@ -33038,7 +33284,7 @@
       <c r="G98">
         <v>1</v>
       </c>
-      <c r="H98">
+      <c r="H98" s="20">
         <v>3</v>
       </c>
       <c r="I98">
@@ -33079,7 +33325,7 @@
       <c r="G99">
         <v>1</v>
       </c>
-      <c r="H99">
+      <c r="H99" s="20">
         <v>3</v>
       </c>
       <c r="I99">
@@ -33120,7 +33366,7 @@
       <c r="G100">
         <v>1</v>
       </c>
-      <c r="H100">
+      <c r="H100" s="20">
         <v>7</v>
       </c>
       <c r="I100">
@@ -33161,7 +33407,7 @@
       <c r="G101">
         <v>1</v>
       </c>
-      <c r="H101">
+      <c r="H101" s="20">
         <v>4</v>
       </c>
       <c r="I101">
@@ -33202,7 +33448,7 @@
       <c r="G102">
         <v>1</v>
       </c>
-      <c r="H102">
+      <c r="H102" s="20">
         <v>5</v>
       </c>
       <c r="I102">
@@ -33243,7 +33489,7 @@
       <c r="G103">
         <v>1</v>
       </c>
-      <c r="H103">
+      <c r="H103" s="20">
         <v>3</v>
       </c>
       <c r="I103">
@@ -33284,7 +33530,7 @@
       <c r="G104">
         <v>1</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="20">
         <v>4</v>
       </c>
       <c r="I104">
@@ -33325,7 +33571,7 @@
       <c r="G105">
         <v>1</v>
       </c>
-      <c r="H105">
+      <c r="H105" s="20">
         <v>5</v>
       </c>
       <c r="I105">
@@ -33366,7 +33612,7 @@
       <c r="G106">
         <v>1</v>
       </c>
-      <c r="H106">
+      <c r="H106" s="20">
         <v>4</v>
       </c>
       <c r="I106">
@@ -33407,7 +33653,7 @@
       <c r="G107">
         <v>1</v>
       </c>
-      <c r="H107">
+      <c r="H107" s="20">
         <v>6</v>
       </c>
       <c r="I107">
@@ -33448,7 +33694,7 @@
       <c r="G108">
         <v>1</v>
       </c>
-      <c r="H108">
+      <c r="H108" s="20">
         <v>2</v>
       </c>
       <c r="I108">
@@ -33489,7 +33735,7 @@
       <c r="G109">
         <v>1</v>
       </c>
-      <c r="H109">
+      <c r="H109" s="20">
         <v>2</v>
       </c>
       <c r="I109">
@@ -33530,7 +33776,7 @@
       <c r="G110">
         <v>1</v>
       </c>
-      <c r="H110">
+      <c r="H110" s="20">
         <v>2</v>
       </c>
       <c r="I110">
@@ -33571,7 +33817,7 @@
       <c r="G111">
         <v>1</v>
       </c>
-      <c r="H111">
+      <c r="H111" s="20">
         <v>2</v>
       </c>
       <c r="I111">
@@ -33612,7 +33858,7 @@
       <c r="G112" s="14">
         <v>1</v>
       </c>
-      <c r="H112" s="14">
+      <c r="H112" s="20">
         <v>2</v>
       </c>
       <c r="I112">
@@ -33655,7 +33901,7 @@
       <c r="G113" s="14">
         <v>1</v>
       </c>
-      <c r="H113" s="14">
+      <c r="H113" s="20">
         <v>2</v>
       </c>
       <c r="I113">
@@ -33698,7 +33944,7 @@
       <c r="G114" s="14">
         <v>1</v>
       </c>
-      <c r="H114" s="14">
+      <c r="H114" s="20">
         <v>2</v>
       </c>
       <c r="I114">
@@ -33741,7 +33987,7 @@
       <c r="G115">
         <v>1</v>
       </c>
-      <c r="H115">
+      <c r="H115" s="20">
         <v>2</v>
       </c>
       <c r="I115">
@@ -33782,7 +34028,7 @@
       <c r="G116">
         <v>1</v>
       </c>
-      <c r="H116">
+      <c r="H116" s="20">
         <v>2</v>
       </c>
       <c r="I116">
@@ -33823,7 +34069,7 @@
       <c r="G117">
         <v>1</v>
       </c>
-      <c r="H117">
+      <c r="H117" s="20">
         <v>2</v>
       </c>
       <c r="I117">
@@ -33864,7 +34110,7 @@
       <c r="G118">
         <v>1</v>
       </c>
-      <c r="H118">
+      <c r="H118" s="20">
         <v>5</v>
       </c>
       <c r="I118">
@@ -33905,7 +34151,7 @@
       <c r="G119" s="15">
         <v>1</v>
       </c>
-      <c r="H119" s="15">
+      <c r="H119" s="20">
         <v>2</v>
       </c>
       <c r="I119">
@@ -33948,7 +34194,7 @@
       <c r="G120" s="15">
         <v>1</v>
       </c>
-      <c r="H120" s="15">
+      <c r="H120" s="20">
         <v>4</v>
       </c>
       <c r="I120">
@@ -33991,7 +34237,7 @@
       <c r="G121" s="15">
         <v>1</v>
       </c>
-      <c r="H121" s="15">
+      <c r="H121" s="20">
         <v>6</v>
       </c>
       <c r="I121">
@@ -34014,34 +34260,58 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="J97:J113 F109:J114 F9:J11 J5:J21 O8:P21 E5:J8 E115:J121 K5:P7 K8:N37 E4:Q4 E88:J108 K88:Q121 Q5:Q73 K38:P73 E12:J73 E80:Q87">
-    <cfRule type="containsBlanks" dxfId="23" priority="9">
+  <conditionalFormatting sqref="J97:J113 F109:J114 F9:J11 J5:J21 O8:P21 E5:J8 E115:J121 K5:P7 K8:N37 E4:G4 E88:J108 K88:Q121 Q5:Q73 K38:P73 E12:J73 E80:Q87 I4:Q4">
+    <cfRule type="containsBlanks" dxfId="44" priority="15">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109:E111">
-    <cfRule type="containsBlanks" dxfId="22" priority="7">
+    <cfRule type="containsBlanks" dxfId="43" priority="13">
       <formula>LEN(TRIM(E109))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112:E114">
-    <cfRule type="containsBlanks" dxfId="21" priority="6">
+    <cfRule type="containsBlanks" dxfId="42" priority="12">
       <formula>LEN(TRIM(E112))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E11">
-    <cfRule type="containsBlanks" dxfId="20" priority="5">
+    <cfRule type="containsBlanks" dxfId="41" priority="11">
       <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J37 O22:P37">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="40" priority="10">
       <formula>LEN(TRIM(J22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:Q79">
-    <cfRule type="containsBlanks" dxfId="18" priority="1">
+    <cfRule type="containsBlanks" dxfId="39" priority="7">
       <formula>LEN(TRIM(E74))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H121">
+    <cfRule type="containsBlanks" dxfId="6" priority="6">
+      <formula>LEN(TRIM(H4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4:H121">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>7</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>6</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="between">
+      <formula>3</formula>
+      <formula>4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="between">
+      <formula>1</formula>
+      <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ConfigData/Xlsx/HItem.xlsx
+++ b/ConfigData/Xlsx/HItem.xlsx
@@ -7342,442 +7342,6 @@
   <dxfs count="102">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -8224,6 +7788,110 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="3" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8708,6 +8376,103 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -9106,6 +8871,241 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -9120,87 +9120,87 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:Q352" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100" tableBorderDxfId="99">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:Q352" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75" tableBorderDxfId="74">
   <autoFilter ref="A3:Q352"/>
   <sortState ref="A4:Q352">
     <sortCondition ref="A3:A352"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" name="Id" dataDxfId="98"/>
-    <tableColumn id="2" name="Name" dataDxfId="97"/>
+    <tableColumn id="1" name="Id" dataDxfId="73"/>
+    <tableColumn id="2" name="Name" dataDxfId="72"/>
     <tableColumn id="10" name="Ename"/>
-    <tableColumn id="3" name="Type" dataDxfId="96"/>
+    <tableColumn id="3" name="Type" dataDxfId="71"/>
     <tableColumn id="13" name="SubType"/>
-    <tableColumn id="4" name="Descript" dataDxfId="95"/>
-    <tableColumn id="5" name="Level" dataDxfId="94"/>
-    <tableColumn id="6" name="Rare" dataDxfId="93"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="92"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="91"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="90"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="89"/>
-    <tableColumn id="17" name="ShowCollectTip" dataDxfId="88"/>
+    <tableColumn id="4" name="Descript" dataDxfId="70"/>
+    <tableColumn id="5" name="Level" dataDxfId="69"/>
+    <tableColumn id="6" name="Rare" dataDxfId="68"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="67"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="66"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="65"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="64"/>
+    <tableColumn id="17" name="ShowCollectTip" dataDxfId="63"/>
     <tableColumn id="16" name="RandomGroup"/>
-    <tableColumn id="15" name="Frequency" dataDxfId="87"/>
+    <tableColumn id="15" name="Frequency" dataDxfId="62"/>
     <tableColumn id="9" name="Attributes"/>
-    <tableColumn id="14" name="Url" dataDxfId="86"/>
+    <tableColumn id="14" name="Url" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:Q20" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84" tableBorderDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:Q20" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48" tableBorderDxfId="47">
   <autoFilter ref="A3:Q20"/>
   <sortState ref="A4:R435">
     <sortCondition ref="A3:A435"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" name="Id" dataDxfId="82"/>
-    <tableColumn id="2" name="Name" dataDxfId="81"/>
-    <tableColumn id="10" name="Ename" dataDxfId="80"/>
-    <tableColumn id="3" name="Type" dataDxfId="79"/>
-    <tableColumn id="13" name="SubType" dataDxfId="78"/>
-    <tableColumn id="4" name="Descript" dataDxfId="77"/>
-    <tableColumn id="5" name="Level" dataDxfId="76"/>
-    <tableColumn id="6" name="Rare" dataDxfId="75"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="74"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="73"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="72"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="71"/>
-    <tableColumn id="17" name="ShowCollectTip" dataDxfId="70"/>
-    <tableColumn id="16" name="RandomGroup" dataDxfId="69"/>
-    <tableColumn id="15" name="Frequency" dataDxfId="68"/>
-    <tableColumn id="9" name="Attributes" dataDxfId="67"/>
-    <tableColumn id="14" name="Url" dataDxfId="66"/>
+    <tableColumn id="1" name="Id" dataDxfId="46"/>
+    <tableColumn id="2" name="Name" dataDxfId="45"/>
+    <tableColumn id="10" name="Ename" dataDxfId="44"/>
+    <tableColumn id="3" name="Type" dataDxfId="43"/>
+    <tableColumn id="13" name="SubType" dataDxfId="42"/>
+    <tableColumn id="4" name="Descript" dataDxfId="41"/>
+    <tableColumn id="5" name="Level" dataDxfId="40"/>
+    <tableColumn id="6" name="Rare" dataDxfId="39"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="38"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="37"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="36"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="35"/>
+    <tableColumn id="17" name="ShowCollectTip" dataDxfId="34"/>
+    <tableColumn id="16" name="RandomGroup" dataDxfId="33"/>
+    <tableColumn id="15" name="Frequency" dataDxfId="32"/>
+    <tableColumn id="9" name="Attributes" dataDxfId="31"/>
+    <tableColumn id="14" name="Url" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:Q121" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64" tableBorderDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:Q121" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A3:Q121"/>
   <sortState ref="A4:Q121">
     <sortCondition ref="A3:A121"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" name="Id" dataDxfId="62"/>
-    <tableColumn id="2" name="Name" dataDxfId="61"/>
-    <tableColumn id="10" name="Ename" dataDxfId="60"/>
-    <tableColumn id="3" name="Type" dataDxfId="59"/>
-    <tableColumn id="13" name="SubType" dataDxfId="58"/>
-    <tableColumn id="4" name="Descript" dataDxfId="57"/>
-    <tableColumn id="5" name="Level" dataDxfId="56"/>
-    <tableColumn id="6" name="Rare" dataDxfId="55"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="54"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="53"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="52"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="51"/>
+    <tableColumn id="1" name="Id" dataDxfId="14"/>
+    <tableColumn id="2" name="Name" dataDxfId="13"/>
+    <tableColumn id="10" name="Ename" dataDxfId="12"/>
+    <tableColumn id="3" name="Type" dataDxfId="11"/>
+    <tableColumn id="13" name="SubType" dataDxfId="10"/>
+    <tableColumn id="4" name="Descript" dataDxfId="9"/>
+    <tableColumn id="5" name="Level" dataDxfId="8"/>
+    <tableColumn id="6" name="Rare" dataDxfId="7"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="6"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="5"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="4"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="3"/>
     <tableColumn id="17" name="ShowCollectTip"/>
     <tableColumn id="16" name="RandomGroup"/>
-    <tableColumn id="15" name="Frequency" dataDxfId="50"/>
-    <tableColumn id="9" name="Attributes" dataDxfId="49"/>
-    <tableColumn id="14" name="Url" dataDxfId="48"/>
+    <tableColumn id="15" name="Frequency" dataDxfId="2"/>
+    <tableColumn id="9" name="Attributes" dataDxfId="1"/>
+    <tableColumn id="14" name="Url" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9530,10 +9530,10 @@
   <dimension ref="A1:Q352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B224" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B312" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E241" sqref="E241"/>
+      <selection pane="bottomRight" activeCell="A320" sqref="A320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21709,7 +21709,7 @@
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A242" s="20">
-        <v>22110064</v>
+        <v>22110063</v>
       </c>
       <c r="B242" s="43" t="s">
         <v>120</v>
@@ -21759,7 +21759,7 @@
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A243" s="20">
-        <v>22110065</v>
+        <v>22110064</v>
       </c>
       <c r="B243" s="43" t="s">
         <v>192</v>
@@ -21809,7 +21809,7 @@
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A244" s="20">
-        <v>22110066</v>
+        <v>22110065</v>
       </c>
       <c r="B244" s="43" t="s">
         <v>313</v>
@@ -21859,7 +21859,7 @@
     </row>
     <row r="245" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A245" s="20">
-        <v>22110067</v>
+        <v>22110066</v>
       </c>
       <c r="B245" s="40" t="s">
         <v>183</v>
@@ -21909,7 +21909,7 @@
     </row>
     <row r="246" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A246" s="20">
-        <v>22110068</v>
+        <v>22110067</v>
       </c>
       <c r="B246" s="40" t="s">
         <v>185</v>
@@ -21956,7 +21956,7 @@
     </row>
     <row r="247" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A247" s="20">
-        <v>22110069</v>
+        <v>22110068</v>
       </c>
       <c r="B247" s="40" t="s">
         <v>210</v>
@@ -22006,7 +22006,7 @@
     </row>
     <row r="248" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A248" s="20">
-        <v>22110070</v>
+        <v>22110069</v>
       </c>
       <c r="B248" s="40" t="s">
         <v>213</v>
@@ -22056,7 +22056,7 @@
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A249" s="20">
-        <v>22110071</v>
+        <v>22110070</v>
       </c>
       <c r="B249" s="34" t="s">
         <v>129</v>
@@ -22106,7 +22106,7 @@
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A250" s="20">
-        <v>22110072</v>
+        <v>22110071</v>
       </c>
       <c r="B250" s="34" t="s">
         <v>150</v>
@@ -22156,7 +22156,7 @@
     </row>
     <row r="251" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A251" s="20">
-        <v>22110073</v>
+        <v>22110072</v>
       </c>
       <c r="B251" s="34" t="s">
         <v>190</v>
@@ -22206,7 +22206,7 @@
     </row>
     <row r="252" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A252" s="20">
-        <v>22110074</v>
+        <v>22110073</v>
       </c>
       <c r="B252" s="34" t="s">
         <v>202</v>
@@ -22256,7 +22256,7 @@
     </row>
     <row r="253" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A253" s="20">
-        <v>22110075</v>
+        <v>22110074</v>
       </c>
       <c r="B253" s="34" t="s">
         <v>288</v>
@@ -22303,7 +22303,7 @@
     </row>
     <row r="254" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A254" s="20">
-        <v>22110076</v>
+        <v>22110075</v>
       </c>
       <c r="B254" s="34" t="s">
         <v>173</v>
@@ -22353,7 +22353,7 @@
     </row>
     <row r="255" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A255" s="20">
-        <v>22110077</v>
+        <v>22110076</v>
       </c>
       <c r="B255" s="34" t="s">
         <v>208</v>
@@ -22403,7 +22403,7 @@
     </row>
     <row r="256" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A256" s="20">
-        <v>22110078</v>
+        <v>22110077</v>
       </c>
       <c r="B256" s="34" t="s">
         <v>342</v>
@@ -22453,7 +22453,7 @@
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A257" s="20">
-        <v>22110079</v>
+        <v>22110078</v>
       </c>
       <c r="B257" s="39" t="s">
         <v>134</v>
@@ -22503,7 +22503,7 @@
     </row>
     <row r="258" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A258" s="20">
-        <v>22110080</v>
+        <v>22110079</v>
       </c>
       <c r="B258" s="39" t="s">
         <v>180</v>
@@ -22553,7 +22553,7 @@
     </row>
     <row r="259" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A259" s="20">
-        <v>22110081</v>
+        <v>22110080</v>
       </c>
       <c r="B259" s="39" t="s">
         <v>194</v>
@@ -22600,7 +22600,7 @@
     </row>
     <row r="260" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A260" s="20">
-        <v>22110082</v>
+        <v>22110081</v>
       </c>
       <c r="B260" s="39" t="s">
         <v>317</v>
@@ -22647,7 +22647,7 @@
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A261" s="20">
-        <v>22110083</v>
+        <v>22110082</v>
       </c>
       <c r="B261" s="39" t="s">
         <v>1244</v>
@@ -22694,7 +22694,7 @@
     </row>
     <row r="262" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A262" s="20">
-        <v>22110084</v>
+        <v>22110083</v>
       </c>
       <c r="B262" s="39" t="s">
         <v>779</v>
@@ -22741,7 +22741,7 @@
     </row>
     <row r="263" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A263" s="20">
-        <v>22110085</v>
+        <v>22110084</v>
       </c>
       <c r="B263" s="39" t="s">
         <v>218</v>
@@ -22791,7 +22791,7 @@
     </row>
     <row r="264" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A264" s="20">
-        <v>22110086</v>
+        <v>22110085</v>
       </c>
       <c r="B264" s="45" t="s">
         <v>123</v>
@@ -22841,7 +22841,7 @@
     </row>
     <row r="265" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A265" s="20">
-        <v>22110087</v>
+        <v>22110086</v>
       </c>
       <c r="B265" s="45" t="s">
         <v>125</v>
@@ -22891,7 +22891,7 @@
     </row>
     <row r="266" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A266" s="20">
-        <v>22110088</v>
+        <v>22110087</v>
       </c>
       <c r="B266" s="45" t="s">
         <v>110</v>
@@ -22941,7 +22941,7 @@
     </row>
     <row r="267" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A267" s="20">
-        <v>22110089</v>
+        <v>22110088</v>
       </c>
       <c r="B267" s="45" t="s">
         <v>269</v>
@@ -22991,7 +22991,7 @@
     </row>
     <row r="268" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A268" s="20">
-        <v>22110090</v>
+        <v>22110089</v>
       </c>
       <c r="B268" s="45" t="s">
         <v>277</v>
@@ -23041,7 +23041,7 @@
     </row>
     <row r="269" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A269" s="20">
-        <v>22110091</v>
+        <v>22110090</v>
       </c>
       <c r="B269" s="45" t="s">
         <v>802</v>
@@ -23091,7 +23091,7 @@
     </row>
     <row r="270" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A270" s="20">
-        <v>22110092</v>
+        <v>22110091</v>
       </c>
       <c r="B270" s="46" t="s">
         <v>251</v>
@@ -23141,7 +23141,7 @@
     </row>
     <row r="271" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A271" s="20">
-        <v>22110093</v>
+        <v>22110092</v>
       </c>
       <c r="B271" s="46" t="s">
         <v>55</v>
@@ -23188,7 +23188,7 @@
     </row>
     <row r="272" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A272" s="20">
-        <v>22110094</v>
+        <v>22110093</v>
       </c>
       <c r="B272" s="46" t="s">
         <v>281</v>
@@ -23235,7 +23235,7 @@
     </row>
     <row r="273" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A273" s="20">
-        <v>22110095</v>
+        <v>22110094</v>
       </c>
       <c r="B273" s="46" t="s">
         <v>322</v>
@@ -23282,7 +23282,7 @@
     </row>
     <row r="274" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A274" s="20">
-        <v>22110096</v>
+        <v>22110095</v>
       </c>
       <c r="B274" s="46" t="s">
         <v>283</v>
@@ -23329,7 +23329,7 @@
     </row>
     <row r="275" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A275" s="20">
-        <v>22110097</v>
+        <v>22110096</v>
       </c>
       <c r="B275" s="47" t="s">
         <v>273</v>
@@ -23379,7 +23379,7 @@
     </row>
     <row r="276" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A276" s="20">
-        <v>22110098</v>
+        <v>22110097</v>
       </c>
       <c r="B276" s="47" t="s">
         <v>275</v>
@@ -23429,7 +23429,7 @@
     </row>
     <row r="277" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A277" s="20">
-        <v>22110099</v>
+        <v>22110098</v>
       </c>
       <c r="B277" s="47" t="s">
         <v>295</v>
@@ -23476,7 +23476,7 @@
     </row>
     <row r="278" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A278" s="20">
-        <v>22110100</v>
+        <v>22110099</v>
       </c>
       <c r="B278" s="47" t="s">
         <v>297</v>
@@ -23526,7 +23526,7 @@
     </row>
     <row r="279" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A279" s="20">
-        <v>22110101</v>
+        <v>22110100</v>
       </c>
       <c r="B279" s="47" t="s">
         <v>299</v>
@@ -23576,7 +23576,7 @@
     </row>
     <row r="280" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A280" s="20">
-        <v>22110102</v>
+        <v>22110101</v>
       </c>
       <c r="B280" s="47" t="s">
         <v>329</v>
@@ -23626,7 +23626,7 @@
     </row>
     <row r="281" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A281" s="20">
-        <v>22110103</v>
+        <v>22110102</v>
       </c>
       <c r="B281" s="47" t="s">
         <v>333</v>
@@ -23676,7 +23676,7 @@
     </row>
     <row r="282" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A282" s="20">
-        <v>22110104</v>
+        <v>22110103</v>
       </c>
       <c r="B282" s="47" t="s">
         <v>335</v>
@@ -23726,7 +23726,7 @@
     </row>
     <row r="283" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A283" s="20">
-        <v>22110105</v>
+        <v>22110104</v>
       </c>
       <c r="B283" s="47" t="s">
         <v>302</v>
@@ -23776,7 +23776,7 @@
     </row>
     <row r="284" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A284" s="20">
-        <v>22110106</v>
+        <v>22110105</v>
       </c>
       <c r="B284" s="47" t="s">
         <v>787</v>
@@ -23826,7 +23826,7 @@
     </row>
     <row r="285" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A285" s="20">
-        <v>22110107</v>
+        <v>22110106</v>
       </c>
       <c r="B285" s="47" t="s">
         <v>798</v>
@@ -23876,7 +23876,7 @@
     </row>
     <row r="286" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A286" s="20">
-        <v>22110108</v>
+        <v>22110107</v>
       </c>
       <c r="B286" s="47" t="s">
         <v>784</v>
@@ -23973,7 +23973,7 @@
     </row>
     <row r="288" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A288" s="20">
-        <v>22110108</v>
+        <v>22110109</v>
       </c>
       <c r="B288" s="47" t="s">
         <v>224</v>
@@ -24023,7 +24023,7 @@
     </row>
     <row r="289" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A289" s="20">
-        <v>22110108</v>
+        <v>22110110</v>
       </c>
       <c r="B289" s="47" t="s">
         <v>226</v>
@@ -24073,7 +24073,7 @@
     </row>
     <row r="290" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A290" s="20">
-        <v>22110108</v>
+        <v>22110111</v>
       </c>
       <c r="B290" s="47" t="s">
         <v>229</v>
@@ -24123,7 +24123,7 @@
     </row>
     <row r="291" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A291" s="20">
-        <v>22110108</v>
+        <v>22110112</v>
       </c>
       <c r="B291" s="47" t="s">
         <v>232</v>
@@ -24173,7 +24173,7 @@
     </row>
     <row r="292" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A292" s="20">
-        <v>22110108</v>
+        <v>22110113</v>
       </c>
       <c r="B292" s="47" t="s">
         <v>235</v>
@@ -24223,7 +24223,7 @@
     </row>
     <row r="293" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A293" s="20">
-        <v>22110108</v>
+        <v>22110114</v>
       </c>
       <c r="B293" s="47" t="s">
         <v>238</v>
@@ -24273,7 +24273,7 @@
     </row>
     <row r="294" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A294" s="20">
-        <v>22110108</v>
+        <v>22110115</v>
       </c>
       <c r="B294" s="47" t="s">
         <v>241</v>
@@ -24323,7 +24323,7 @@
     </row>
     <row r="295" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A295" s="20">
-        <v>22110108</v>
+        <v>22110116</v>
       </c>
       <c r="B295" s="47" t="s">
         <v>244</v>
@@ -24373,7 +24373,7 @@
     </row>
     <row r="296" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A296" s="20">
-        <v>22110108</v>
+        <v>22110117</v>
       </c>
       <c r="B296" s="47" t="s">
         <v>147</v>
@@ -24423,7 +24423,7 @@
     </row>
     <row r="297" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A297" s="20">
-        <v>22110109</v>
+        <v>22110118</v>
       </c>
       <c r="B297" s="44" t="s">
         <v>344</v>
@@ -24473,7 +24473,7 @@
     </row>
     <row r="298" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A298" s="20">
-        <v>22110110</v>
+        <v>22110119</v>
       </c>
       <c r="B298" s="44" t="s">
         <v>347</v>
@@ -24523,7 +24523,7 @@
     </row>
     <row r="299" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A299" s="20">
-        <v>22110111</v>
+        <v>22110120</v>
       </c>
       <c r="B299" s="44" t="s">
         <v>220</v>
@@ -24573,7 +24573,7 @@
     </row>
     <row r="300" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A300" s="20">
-        <v>22110112</v>
+        <v>22110121</v>
       </c>
       <c r="B300" s="44" t="s">
         <v>117</v>
@@ -24623,7 +24623,7 @@
     </row>
     <row r="301" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A301" s="20">
-        <v>22110113</v>
+        <v>22110122</v>
       </c>
       <c r="B301" s="44" t="s">
         <v>114</v>
@@ -24673,7 +24673,7 @@
     </row>
     <row r="302" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A302" s="20">
-        <v>22110114</v>
+        <v>22110123</v>
       </c>
       <c r="B302" s="44" t="s">
         <v>337</v>
@@ -24723,7 +24723,7 @@
     </row>
     <row r="303" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A303" s="20">
-        <v>22110115</v>
+        <v>22110124</v>
       </c>
       <c r="B303" s="44" t="s">
         <v>74</v>
@@ -24773,7 +24773,7 @@
     </row>
     <row r="304" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A304" s="20">
-        <v>22110116</v>
+        <v>22110125</v>
       </c>
       <c r="B304" s="44" t="s">
         <v>53</v>
@@ -24823,7 +24823,7 @@
     </row>
     <row r="305" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A305" s="20">
-        <v>22110117</v>
+        <v>22110126</v>
       </c>
       <c r="B305" s="44" t="s">
         <v>782</v>
@@ -24873,7 +24873,7 @@
     </row>
     <row r="306" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A306" s="20">
-        <v>22110118</v>
+        <v>22110127</v>
       </c>
       <c r="B306" s="44" t="s">
         <v>102</v>
@@ -24923,7 +24923,7 @@
     </row>
     <row r="307" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A307" s="20">
-        <v>22110119</v>
+        <v>22110128</v>
       </c>
       <c r="B307" s="44" t="s">
         <v>105</v>
@@ -25173,7 +25173,7 @@
     </row>
     <row r="312" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A312" s="20">
-        <v>22110134</v>
+        <v>22110133</v>
       </c>
       <c r="B312" s="20" t="s">
         <v>205</v>
@@ -25223,7 +25223,7 @@
     </row>
     <row r="313" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A313" s="20">
-        <v>22110135</v>
+        <v>22110134</v>
       </c>
       <c r="B313" s="20" t="s">
         <v>59</v>
@@ -25270,7 +25270,7 @@
     </row>
     <row r="314" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A314" s="20">
-        <v>22110136</v>
+        <v>22110135</v>
       </c>
       <c r="B314" s="20" t="s">
         <v>291</v>
@@ -25320,7 +25320,7 @@
     </row>
     <row r="315" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A315" s="20">
-        <v>22110137</v>
+        <v>22110136</v>
       </c>
       <c r="B315" s="20" t="s">
         <v>167</v>
@@ -25370,7 +25370,7 @@
     </row>
     <row r="316" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A316" s="20">
-        <v>22110138</v>
+        <v>22110137</v>
       </c>
       <c r="B316" s="20" t="s">
         <v>169</v>
@@ -25420,7 +25420,7 @@
     </row>
     <row r="317" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A317" s="20">
-        <v>22110139</v>
+        <v>22110138</v>
       </c>
       <c r="B317" s="20" t="s">
         <v>171</v>
@@ -25470,7 +25470,7 @@
     </row>
     <row r="318" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A318" s="20">
-        <v>22110140</v>
+        <v>22110139</v>
       </c>
       <c r="B318" s="20" t="s">
         <v>311</v>
@@ -25520,7 +25520,7 @@
     </row>
     <row r="319" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A319" s="20">
-        <v>22110141</v>
+        <v>22110140</v>
       </c>
       <c r="B319" s="20" t="s">
         <v>320</v>
@@ -25567,7 +25567,7 @@
     </row>
     <row r="320" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A320" s="20">
-        <v>22110142</v>
+        <v>22110141</v>
       </c>
       <c r="B320" s="20" t="s">
         <v>324</v>
@@ -25617,7 +25617,7 @@
     </row>
     <row r="321" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A321" s="20">
-        <v>22110143</v>
+        <v>22110142</v>
       </c>
       <c r="B321" s="20" t="s">
         <v>773</v>
@@ -25667,7 +25667,7 @@
     </row>
     <row r="322" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A322" s="20">
-        <v>22110144</v>
+        <v>22110143</v>
       </c>
       <c r="B322" s="20" t="s">
         <v>793</v>
@@ -25717,7 +25717,7 @@
     </row>
     <row r="323" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A323" s="20">
-        <v>22110145</v>
+        <v>22110144</v>
       </c>
       <c r="B323" s="20" t="s">
         <v>796</v>
@@ -25764,7 +25764,7 @@
     </row>
     <row r="324" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A324" s="20">
-        <v>22110146</v>
+        <v>22110145</v>
       </c>
       <c r="B324" s="20" t="s">
         <v>764</v>
@@ -25811,7 +25811,7 @@
     </row>
     <row r="325" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A325" s="20">
-        <v>22110147</v>
+        <v>22110146</v>
       </c>
       <c r="B325" s="20" t="s">
         <v>767</v>
@@ -27155,109 +27155,109 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="B4:Q29 B41:Q352">
-    <cfRule type="containsBlanks" dxfId="47" priority="25">
+    <cfRule type="containsBlanks" dxfId="101" priority="25">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H29 H41:H352">
-    <cfRule type="cellIs" dxfId="46" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="20" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="21" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="22" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="97" priority="23" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="96" priority="24" operator="between">
       <formula>1</formula>
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:Q31 G32:Q32 B32:E40 I33:Q37 I39:Q40 I38:O38 Q38">
-    <cfRule type="containsBlanks" dxfId="41" priority="19">
+    <cfRule type="containsBlanks" dxfId="95" priority="19">
       <formula>LEN(TRIM(B30))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:H32">
-    <cfRule type="cellIs" dxfId="40" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="14" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="91" priority="17" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="90" priority="18" operator="between">
       <formula>1</formula>
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsBlanks" dxfId="35" priority="13">
+    <cfRule type="containsBlanks" dxfId="89" priority="13">
       <formula>LEN(TRIM(F32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:H33 G34:H40">
-    <cfRule type="containsBlanks" dxfId="34" priority="12">
+    <cfRule type="containsBlanks" dxfId="88" priority="12">
       <formula>LEN(TRIM(F33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H40">
-    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="9" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="84" priority="10" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="83" priority="11" operator="between">
       <formula>1</formula>
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsBlanks" dxfId="28" priority="6">
+    <cfRule type="containsBlanks" dxfId="82" priority="6">
       <formula>LEN(TRIM(F34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F37">
-    <cfRule type="containsBlanks" dxfId="27" priority="5">
+    <cfRule type="containsBlanks" dxfId="81" priority="5">
       <formula>LEN(TRIM(F35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="containsBlanks" dxfId="26" priority="4">
+    <cfRule type="containsBlanks" dxfId="80" priority="4">
       <formula>LEN(TRIM(F38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="containsBlanks" dxfId="25" priority="3">
+    <cfRule type="containsBlanks" dxfId="79" priority="3">
       <formula>LEN(TRIM(F39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="containsBlanks" dxfId="24" priority="2">
+    <cfRule type="containsBlanks" dxfId="78" priority="2">
       <formula>LEN(TRIM(F40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P38">
-    <cfRule type="containsBlanks" dxfId="23" priority="1">
+    <cfRule type="containsBlanks" dxfId="77" priority="1">
       <formula>LEN(TRIM(P38))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28091,50 +28091,50 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="B6:Q20 B5:D5 L5:P5 F5:J5">
-    <cfRule type="containsBlanks" dxfId="22" priority="12">
+    <cfRule type="containsBlanks" dxfId="60" priority="12">
       <formula>LEN(TRIM(B5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:G4 I4:Q4">
-    <cfRule type="containsBlanks" dxfId="21" priority="10">
+    <cfRule type="containsBlanks" dxfId="59" priority="10">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="containsBlanks" dxfId="20" priority="9">
+    <cfRule type="containsBlanks" dxfId="58" priority="9">
       <formula>LEN(TRIM(Q5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="containsBlanks" dxfId="19" priority="8">
+    <cfRule type="containsBlanks" dxfId="57" priority="8">
       <formula>LEN(TRIM(K5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsBlanks" dxfId="18" priority="7">
+    <cfRule type="containsBlanks" dxfId="56" priority="7">
       <formula>LEN(TRIM(E5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H20">
-    <cfRule type="containsBlanks" dxfId="17" priority="6">
+    <cfRule type="containsBlanks" dxfId="55" priority="6">
       <formula>LEN(TRIM(H4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H20">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="3" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="51" priority="4" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="50" priority="5" operator="between">
       <formula>1</formula>
       <formula>2</formula>
     </cfRule>
@@ -33123,55 +33123,55 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="J97:J113 F109:J114 F9:J11 J5:J21 O8:P21 E5:J8 E115:J121 K5:P7 K8:N37 E4:G4 E88:J108 K88:Q121 Q5:Q73 K38:P73 E12:J73 E80:Q87 I4:Q4">
-    <cfRule type="containsBlanks" dxfId="11" priority="15">
+    <cfRule type="containsBlanks" dxfId="29" priority="15">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E109:E111">
-    <cfRule type="containsBlanks" dxfId="10" priority="13">
+    <cfRule type="containsBlanks" dxfId="28" priority="13">
       <formula>LEN(TRIM(E109))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E112:E114">
-    <cfRule type="containsBlanks" dxfId="9" priority="12">
+    <cfRule type="containsBlanks" dxfId="27" priority="12">
       <formula>LEN(TRIM(E112))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E11">
-    <cfRule type="containsBlanks" dxfId="8" priority="11">
+    <cfRule type="containsBlanks" dxfId="26" priority="11">
       <formula>LEN(TRIM(E9))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J37 O22:P37">
-    <cfRule type="containsBlanks" dxfId="7" priority="10">
+    <cfRule type="containsBlanks" dxfId="25" priority="10">
       <formula>LEN(TRIM(J22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E74:Q79">
-    <cfRule type="containsBlanks" dxfId="6" priority="7">
+    <cfRule type="containsBlanks" dxfId="24" priority="7">
       <formula>LEN(TRIM(E74))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H121">
-    <cfRule type="containsBlanks" dxfId="5" priority="6">
+    <cfRule type="containsBlanks" dxfId="23" priority="6">
       <formula>LEN(TRIM(H4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H121">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="between">
       <formula>1</formula>
       <formula>2</formula>
     </cfRule>

--- a/ConfigData/Xlsx/HItem.xlsx
+++ b/ConfigData/Xlsx/HItem.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView minimized="1" xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="材料" sheetId="1" r:id="rId1"/>
@@ -9108,6 +9108,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -9214,7 +9282,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -9530,10 +9598,10 @@
   <dimension ref="A1:Q352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B312" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A320" sqref="A320"/>
+      <selection pane="bottomRight" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/ConfigData/Xlsx/HItem.xlsx
+++ b/ConfigData/Xlsx/HItem.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TOMClassic\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="材料" sheetId="1" r:id="rId1"/>
@@ -9108,74 +9108,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -9282,7 +9214,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -9598,10 +9530,10 @@
   <dimension ref="A1:Q352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A72" sqref="A72"/>
+      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10585,7 +10517,7 @@
         <v>1665</v>
       </c>
       <c r="D19" s="26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E19" s="20">
         <v>10</v>
@@ -10638,7 +10570,7 @@
         <v>1669</v>
       </c>
       <c r="D20" s="26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E20" s="20">
         <v>10</v>

--- a/ConfigData/Xlsx/HItem.xlsx
+++ b/ConfigData/Xlsx/HItem.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3422" uniqueCount="1818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="1818">
   <si>
     <t>血蓟</t>
   </si>
@@ -28173,7 +28173,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28363,9 +28363,6 @@
       </c>
       <c r="E4">
         <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>631</v>
       </c>
       <c r="G4">
         <v>1</v>

--- a/ConfigData/Xlsx/HItem.xlsx
+++ b/ConfigData/Xlsx/HItem.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="材料" sheetId="1" r:id="rId1"/>
@@ -9546,11 +9546,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q352"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomRight" activeCell="M75" sqref="M75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10670,7 +10670,7 @@
         <v>727</v>
       </c>
       <c r="N21" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O21" s="20">
         <v>500</v>
@@ -10720,7 +10720,7 @@
         <v>727</v>
       </c>
       <c r="N22" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O22" s="20">
         <v>500</v>
@@ -10773,7 +10773,7 @@
         <v>727</v>
       </c>
       <c r="N23" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O23" s="20">
         <v>500</v>
@@ -10823,7 +10823,7 @@
         <v>727</v>
       </c>
       <c r="N24" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O24" s="20">
         <v>500</v>
@@ -10873,7 +10873,7 @@
         <v>727</v>
       </c>
       <c r="N25" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O25" s="20">
         <v>500</v>
@@ -10923,7 +10923,7 @@
         <v>727</v>
       </c>
       <c r="N26" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O26" s="20">
         <v>500</v>
@@ -10973,7 +10973,7 @@
         <v>727</v>
       </c>
       <c r="N27" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O27" s="20">
         <v>500</v>
@@ -11023,7 +11023,7 @@
         <v>727</v>
       </c>
       <c r="N28" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O28" s="20">
         <v>500</v>
@@ -11073,7 +11073,7 @@
         <v>727</v>
       </c>
       <c r="N29" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O29" s="20">
         <v>500</v>
@@ -11123,7 +11123,7 @@
         <v>727</v>
       </c>
       <c r="N30" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O30" s="20">
         <v>500</v>
@@ -11173,7 +11173,7 @@
         <v>727</v>
       </c>
       <c r="N31" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O31" s="20">
         <v>500</v>
@@ -11223,7 +11223,7 @@
         <v>727</v>
       </c>
       <c r="N32" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O32" s="20">
         <v>500</v>
@@ -11273,7 +11273,7 @@
         <v>727</v>
       </c>
       <c r="N33" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O33" s="20">
         <v>500</v>
@@ -11323,7 +11323,7 @@
         <v>727</v>
       </c>
       <c r="N34" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O34" s="20">
         <v>500</v>
@@ -11373,7 +11373,7 @@
         <v>727</v>
       </c>
       <c r="N35" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O35" s="20">
         <v>500</v>
@@ -11423,7 +11423,7 @@
         <v>727</v>
       </c>
       <c r="N36" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O36" s="20">
         <v>500</v>
@@ -11473,7 +11473,7 @@
         <v>727</v>
       </c>
       <c r="N37" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O37" s="20">
         <v>500</v>
@@ -11523,7 +11523,7 @@
         <v>727</v>
       </c>
       <c r="N38" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O38" s="20">
         <v>500</v>
@@ -11576,7 +11576,7 @@
         <v>727</v>
       </c>
       <c r="N39" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O39" s="20">
         <v>500</v>
@@ -11626,7 +11626,7 @@
         <v>727</v>
       </c>
       <c r="N40" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O40" s="20">
         <v>500</v>
@@ -11676,7 +11676,7 @@
         <v>727</v>
       </c>
       <c r="N41" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O41" s="20">
         <v>500</v>
@@ -11729,7 +11729,7 @@
         <v>727</v>
       </c>
       <c r="N42" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O42" s="20">
         <v>500</v>
@@ -11782,7 +11782,7 @@
         <v>727</v>
       </c>
       <c r="N43" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O43" s="20">
         <v>500</v>
@@ -11835,7 +11835,7 @@
         <v>727</v>
       </c>
       <c r="N44" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O44" s="20">
         <v>500</v>
@@ -11888,7 +11888,7 @@
         <v>727</v>
       </c>
       <c r="N45" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O45" s="20">
         <v>500</v>
@@ -11941,7 +11941,7 @@
         <v>727</v>
       </c>
       <c r="N46" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O46" s="20">
         <v>500</v>
@@ -11994,7 +11994,7 @@
         <v>727</v>
       </c>
       <c r="N47" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O47" s="20">
         <v>500</v>
@@ -12047,7 +12047,7 @@
         <v>727</v>
       </c>
       <c r="N48" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O48" s="20">
         <v>500</v>
@@ -12100,7 +12100,7 @@
         <v>727</v>
       </c>
       <c r="N49" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O49" s="20">
         <v>500</v>
@@ -12153,7 +12153,7 @@
         <v>727</v>
       </c>
       <c r="N50" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O50" s="20">
         <v>500</v>
@@ -12206,7 +12206,7 @@
         <v>727</v>
       </c>
       <c r="N51" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O51" s="20">
         <v>500</v>
@@ -12259,7 +12259,7 @@
         <v>727</v>
       </c>
       <c r="N52" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O52" s="20">
         <v>500</v>
@@ -12312,7 +12312,7 @@
         <v>727</v>
       </c>
       <c r="N53" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O53" s="20">
         <v>500</v>
@@ -12365,7 +12365,7 @@
         <v>727</v>
       </c>
       <c r="N54" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O54" s="20">
         <v>500</v>
@@ -12418,7 +12418,7 @@
         <v>727</v>
       </c>
       <c r="N55" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O55" s="20">
         <v>500</v>
@@ -12471,7 +12471,7 @@
         <v>727</v>
       </c>
       <c r="N56" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O56" s="20">
         <v>500</v>
@@ -12524,7 +12524,7 @@
         <v>727</v>
       </c>
       <c r="N57" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O57" s="20">
         <v>500</v>
@@ -12577,7 +12577,7 @@
         <v>727</v>
       </c>
       <c r="N58" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O58" s="20">
         <v>500</v>
@@ -12630,7 +12630,7 @@
         <v>727</v>
       </c>
       <c r="N59" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O59" s="20">
         <v>500</v>
@@ -12683,7 +12683,7 @@
         <v>727</v>
       </c>
       <c r="N60" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O60" s="20">
         <v>500</v>
@@ -12733,7 +12733,7 @@
         <v>727</v>
       </c>
       <c r="N61" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O61" s="20">
         <v>500</v>
@@ -12783,7 +12783,7 @@
         <v>727</v>
       </c>
       <c r="N62" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O62" s="20">
         <v>500</v>
@@ -12833,7 +12833,7 @@
         <v>727</v>
       </c>
       <c r="N63" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O63" s="20">
         <v>500</v>
@@ -12883,7 +12883,7 @@
         <v>727</v>
       </c>
       <c r="N64" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O64" s="20">
         <v>500</v>
@@ -12933,7 +12933,7 @@
         <v>727</v>
       </c>
       <c r="N65" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O65" s="20">
         <v>500</v>
@@ -12983,7 +12983,7 @@
         <v>727</v>
       </c>
       <c r="N66" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O66" s="20">
         <v>500</v>
@@ -13033,7 +13033,7 @@
         <v>727</v>
       </c>
       <c r="N67" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O67" s="20">
         <v>500</v>
@@ -13083,7 +13083,7 @@
         <v>727</v>
       </c>
       <c r="N68" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O68" s="20">
         <v>500</v>
@@ -13133,7 +13133,7 @@
         <v>727</v>
       </c>
       <c r="N69" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O69" s="20">
         <v>500</v>
@@ -13183,7 +13183,7 @@
         <v>727</v>
       </c>
       <c r="N70" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O70" s="20">
         <v>500</v>
@@ -13233,7 +13233,7 @@
         <v>727</v>
       </c>
       <c r="N71" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O71" s="20">
         <v>500</v>
@@ -13286,7 +13286,7 @@
         <v>727</v>
       </c>
       <c r="N72" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O72" s="20">
         <v>500</v>
@@ -13339,7 +13339,7 @@
         <v>727</v>
       </c>
       <c r="N73" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O73" s="20">
         <v>500</v>
@@ -13392,7 +13392,7 @@
         <v>727</v>
       </c>
       <c r="N74" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O74" s="20">
         <v>500</v>
@@ -13445,7 +13445,7 @@
         <v>727</v>
       </c>
       <c r="N75" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O75" s="20">
         <v>500</v>
@@ -13498,7 +13498,7 @@
         <v>727</v>
       </c>
       <c r="N76" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O76" s="20">
         <v>500</v>
@@ -13551,7 +13551,7 @@
         <v>727</v>
       </c>
       <c r="N77" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O77" s="20">
         <v>500</v>
@@ -13604,7 +13604,7 @@
         <v>727</v>
       </c>
       <c r="N78" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O78" s="20">
         <v>500</v>
@@ -13657,7 +13657,7 @@
         <v>727</v>
       </c>
       <c r="N79" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O79" s="20">
         <v>500</v>
@@ -13710,7 +13710,7 @@
         <v>727</v>
       </c>
       <c r="N80" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O80" s="20">
         <v>500</v>
@@ -13763,7 +13763,7 @@
         <v>727</v>
       </c>
       <c r="N81" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O81" s="20">
         <v>500</v>
@@ -13816,7 +13816,7 @@
         <v>727</v>
       </c>
       <c r="N82" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O82" s="20">
         <v>500</v>
@@ -13869,7 +13869,7 @@
         <v>727</v>
       </c>
       <c r="N83" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O83" s="20">
         <v>500</v>
@@ -13922,7 +13922,7 @@
         <v>727</v>
       </c>
       <c r="N84" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O84" s="20">
         <v>500</v>
@@ -13975,7 +13975,7 @@
         <v>727</v>
       </c>
       <c r="N85" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O85" s="20">
         <v>500</v>
@@ -14028,7 +14028,7 @@
         <v>727</v>
       </c>
       <c r="N86" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O86" s="20">
         <v>500</v>
@@ -14081,7 +14081,7 @@
         <v>727</v>
       </c>
       <c r="N87" s="20">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O87" s="20">
         <v>500</v>
@@ -14131,7 +14131,7 @@
         <v>727</v>
       </c>
       <c r="N88" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O88" s="20">
         <v>500</v>
@@ -14181,7 +14181,7 @@
         <v>727</v>
       </c>
       <c r="N89" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O89" s="20">
         <v>500</v>
@@ -14231,7 +14231,7 @@
         <v>727</v>
       </c>
       <c r="N90" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O90" s="20">
         <v>500</v>
@@ -14281,7 +14281,7 @@
         <v>727</v>
       </c>
       <c r="N91" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O91" s="20">
         <v>500</v>
@@ -14331,7 +14331,7 @@
         <v>727</v>
       </c>
       <c r="N92" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O92" s="20">
         <v>500</v>
@@ -14381,7 +14381,7 @@
         <v>727</v>
       </c>
       <c r="N93" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O93" s="20">
         <v>500</v>
@@ -14431,7 +14431,7 @@
         <v>727</v>
       </c>
       <c r="N94" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O94" s="20">
         <v>500</v>
@@ -14481,7 +14481,7 @@
         <v>727</v>
       </c>
       <c r="N95" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O95" s="20">
         <v>500</v>
@@ -14531,7 +14531,7 @@
         <v>727</v>
       </c>
       <c r="N96" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O96" s="20">
         <v>500</v>
@@ -14581,7 +14581,7 @@
         <v>727</v>
       </c>
       <c r="N97" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O97" s="20">
         <v>500</v>
@@ -14631,7 +14631,7 @@
         <v>727</v>
       </c>
       <c r="N98" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O98" s="20">
         <v>500</v>
@@ -14681,7 +14681,7 @@
         <v>727</v>
       </c>
       <c r="N99" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O99" s="20">
         <v>500</v>
@@ -14731,7 +14731,7 @@
         <v>727</v>
       </c>
       <c r="N100" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O100" s="20">
         <v>500</v>
@@ -14781,7 +14781,7 @@
         <v>727</v>
       </c>
       <c r="N101" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O101" s="20">
         <v>500</v>
@@ -14831,7 +14831,7 @@
         <v>727</v>
       </c>
       <c r="N102" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O102" s="20">
         <v>500</v>
@@ -14881,7 +14881,7 @@
         <v>727</v>
       </c>
       <c r="N103" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O103" s="20">
         <v>500</v>
@@ -14931,7 +14931,7 @@
         <v>727</v>
       </c>
       <c r="N104" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O104" s="20">
         <v>500</v>
@@ -14981,7 +14981,7 @@
         <v>727</v>
       </c>
       <c r="N105" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O105" s="20">
         <v>500</v>
@@ -15031,7 +15031,7 @@
         <v>727</v>
       </c>
       <c r="N106" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O106" s="20">
         <v>500</v>
@@ -15081,7 +15081,7 @@
         <v>727</v>
       </c>
       <c r="N107" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O107" s="20">
         <v>500</v>
@@ -15131,7 +15131,7 @@
         <v>727</v>
       </c>
       <c r="N108" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O108" s="20">
         <v>500</v>
@@ -15181,7 +15181,7 @@
         <v>727</v>
       </c>
       <c r="N109" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O109" s="20">
         <v>500</v>
@@ -15231,7 +15231,7 @@
         <v>727</v>
       </c>
       <c r="N110" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O110" s="20">
         <v>500</v>
@@ -15281,7 +15281,7 @@
         <v>727</v>
       </c>
       <c r="N111" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O111" s="20">
         <v>500</v>
@@ -15331,7 +15331,7 @@
         <v>727</v>
       </c>
       <c r="N112" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O112" s="20">
         <v>500</v>
@@ -15381,7 +15381,7 @@
         <v>727</v>
       </c>
       <c r="N113" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O113" s="20">
         <v>500</v>
@@ -15431,7 +15431,7 @@
         <v>727</v>
       </c>
       <c r="N114" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O114" s="20">
         <v>500</v>
@@ -15481,7 +15481,7 @@
         <v>727</v>
       </c>
       <c r="N115" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O115" s="20">
         <v>500</v>
@@ -15531,7 +15531,7 @@
         <v>727</v>
       </c>
       <c r="N116" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O116" s="20">
         <v>300</v>
@@ -15578,7 +15578,7 @@
         <v>727</v>
       </c>
       <c r="N117" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O117" s="20">
         <v>300</v>
@@ -15625,7 +15625,7 @@
         <v>727</v>
       </c>
       <c r="N118" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O118" s="20">
         <v>300</v>
@@ -15672,7 +15672,7 @@
         <v>727</v>
       </c>
       <c r="N119" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O119" s="20">
         <v>300</v>
@@ -15722,7 +15722,7 @@
         <v>727</v>
       </c>
       <c r="N120" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O120" s="20">
         <v>300</v>
@@ -15772,7 +15772,7 @@
         <v>727</v>
       </c>
       <c r="N121" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O121" s="20">
         <v>300</v>
@@ -15822,7 +15822,7 @@
         <v>727</v>
       </c>
       <c r="N122" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O122" s="20">
         <v>300</v>
@@ -15872,7 +15872,7 @@
         <v>727</v>
       </c>
       <c r="N123" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O123" s="20">
         <v>300</v>
@@ -15922,7 +15922,7 @@
         <v>727</v>
       </c>
       <c r="N124" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O124" s="20">
         <v>300</v>
@@ -15972,7 +15972,7 @@
         <v>727</v>
       </c>
       <c r="N125" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O125" s="20">
         <v>300</v>
@@ -16022,7 +16022,7 @@
         <v>727</v>
       </c>
       <c r="N126" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O126" s="20">
         <v>300</v>
@@ -16072,7 +16072,7 @@
         <v>727</v>
       </c>
       <c r="N127" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O127" s="20">
         <v>300</v>
@@ -16122,7 +16122,7 @@
         <v>727</v>
       </c>
       <c r="N128" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O128" s="20">
         <v>300</v>
@@ -16172,7 +16172,7 @@
         <v>727</v>
       </c>
       <c r="N129" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O129" s="20">
         <v>300</v>
@@ -16222,7 +16222,7 @@
         <v>727</v>
       </c>
       <c r="N130" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O130" s="20">
         <v>300</v>
@@ -16272,7 +16272,7 @@
         <v>727</v>
       </c>
       <c r="N131" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O131" s="20">
         <v>300</v>
@@ -16322,7 +16322,7 @@
         <v>727</v>
       </c>
       <c r="N132" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O132" s="20">
         <v>300</v>
@@ -16372,7 +16372,7 @@
         <v>727</v>
       </c>
       <c r="N133" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O133" s="20">
         <v>300</v>
@@ -16422,7 +16422,7 @@
         <v>727</v>
       </c>
       <c r="N134" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O134" s="20">
         <v>300</v>
@@ -16469,7 +16469,7 @@
         <v>727</v>
       </c>
       <c r="N135" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O135" s="20">
         <v>300</v>
@@ -16519,7 +16519,7 @@
         <v>727</v>
       </c>
       <c r="N136" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O136" s="20">
         <v>300</v>
@@ -16566,7 +16566,7 @@
         <v>727</v>
       </c>
       <c r="N137" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O137" s="20">
         <v>300</v>
@@ -16613,7 +16613,7 @@
         <v>727</v>
       </c>
       <c r="N138" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O138" s="20">
         <v>300</v>
@@ -16660,7 +16660,7 @@
         <v>727</v>
       </c>
       <c r="N139" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O139" s="20">
         <v>300</v>
@@ -16710,7 +16710,7 @@
         <v>727</v>
       </c>
       <c r="N140" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O140" s="20">
         <v>300</v>
@@ -16757,7 +16757,7 @@
         <v>727</v>
       </c>
       <c r="N141" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O141" s="20">
         <v>300</v>
@@ -16807,7 +16807,7 @@
         <v>727</v>
       </c>
       <c r="N142" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O142" s="20">
         <v>300</v>
@@ -16854,7 +16854,7 @@
         <v>727</v>
       </c>
       <c r="N143" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O143" s="20">
         <v>300</v>
@@ -16904,7 +16904,7 @@
         <v>727</v>
       </c>
       <c r="N144" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O144" s="20">
         <v>300</v>
@@ -16954,7 +16954,7 @@
         <v>727</v>
       </c>
       <c r="N145" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O145" s="20">
         <v>300</v>
@@ -17004,7 +17004,7 @@
         <v>727</v>
       </c>
       <c r="N146" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O146" s="20">
         <v>300</v>
@@ -17054,7 +17054,7 @@
         <v>727</v>
       </c>
       <c r="N147" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O147" s="20">
         <v>300</v>
@@ -17104,7 +17104,7 @@
         <v>727</v>
       </c>
       <c r="N148" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O148" s="20">
         <v>300</v>
@@ -17154,7 +17154,7 @@
         <v>727</v>
       </c>
       <c r="N149" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O149" s="20">
         <v>300</v>
@@ -17204,7 +17204,7 @@
         <v>727</v>
       </c>
       <c r="N150" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O150" s="20">
         <v>300</v>
@@ -17254,7 +17254,7 @@
         <v>727</v>
       </c>
       <c r="N151" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O151" s="20">
         <v>300</v>
@@ -17304,7 +17304,7 @@
         <v>727</v>
       </c>
       <c r="N152" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O152" s="20">
         <v>300</v>
@@ -17354,7 +17354,7 @@
         <v>727</v>
       </c>
       <c r="N153" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O153" s="20">
         <v>300</v>
@@ -17404,7 +17404,7 @@
         <v>727</v>
       </c>
       <c r="N154" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O154" s="20">
         <v>300</v>
@@ -17454,7 +17454,7 @@
         <v>727</v>
       </c>
       <c r="N155" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O155" s="20">
         <v>300</v>
@@ -17504,7 +17504,7 @@
         <v>727</v>
       </c>
       <c r="N156" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O156" s="20">
         <v>300</v>
@@ -17554,7 +17554,7 @@
         <v>727</v>
       </c>
       <c r="N157" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O157" s="20">
         <v>300</v>
@@ -17604,7 +17604,7 @@
         <v>727</v>
       </c>
       <c r="N158" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O158" s="20">
         <v>300</v>
@@ -17654,7 +17654,7 @@
         <v>727</v>
       </c>
       <c r="N159" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O159" s="20">
         <v>300</v>
@@ -17701,7 +17701,7 @@
         <v>727</v>
       </c>
       <c r="N160" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O160" s="20">
         <v>300</v>
@@ -17751,7 +17751,7 @@
         <v>727</v>
       </c>
       <c r="N161" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O161" s="20">
         <v>300</v>
@@ -17798,7 +17798,7 @@
         <v>727</v>
       </c>
       <c r="N162" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O162" s="20">
         <v>300</v>
@@ -17845,7 +17845,7 @@
         <v>727</v>
       </c>
       <c r="N163" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O163" s="20">
         <v>300</v>
@@ -17895,7 +17895,7 @@
         <v>727</v>
       </c>
       <c r="N164" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O164" s="20">
         <v>300</v>
@@ -17945,7 +17945,7 @@
         <v>727</v>
       </c>
       <c r="N165" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O165" s="20">
         <v>300</v>
@@ -17995,7 +17995,7 @@
         <v>727</v>
       </c>
       <c r="N166" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O166" s="20">
         <v>300</v>
@@ -18045,7 +18045,7 @@
         <v>727</v>
       </c>
       <c r="N167" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O167" s="20">
         <v>300</v>
@@ -18095,7 +18095,7 @@
         <v>727</v>
       </c>
       <c r="N168" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O168" s="20">
         <v>300</v>
@@ -18145,7 +18145,7 @@
         <v>727</v>
       </c>
       <c r="N169" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O169" s="20">
         <v>300</v>
@@ -18195,7 +18195,7 @@
         <v>727</v>
       </c>
       <c r="N170" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O170" s="20">
         <v>300</v>
@@ -18245,7 +18245,7 @@
         <v>727</v>
       </c>
       <c r="N171" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O171" s="20">
         <v>300</v>
@@ -18295,7 +18295,7 @@
         <v>727</v>
       </c>
       <c r="N172" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O172" s="20">
         <v>300</v>
@@ -18345,7 +18345,7 @@
         <v>727</v>
       </c>
       <c r="N173" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O173" s="20">
         <v>300</v>
@@ -18395,7 +18395,7 @@
         <v>727</v>
       </c>
       <c r="N174" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O174" s="20">
         <v>300</v>
@@ -18445,7 +18445,7 @@
         <v>727</v>
       </c>
       <c r="N175" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O175" s="20">
         <v>300</v>
@@ -18495,7 +18495,7 @@
         <v>727</v>
       </c>
       <c r="N176" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O176" s="20">
         <v>300</v>
@@ -18542,7 +18542,7 @@
         <v>727</v>
       </c>
       <c r="N177" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O177" s="20">
         <v>300</v>
@@ -18589,7 +18589,7 @@
         <v>727</v>
       </c>
       <c r="N178" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O178" s="20">
         <v>300</v>
@@ -18636,7 +18636,7 @@
         <v>727</v>
       </c>
       <c r="N179" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O179" s="20">
         <v>300</v>
@@ -18683,7 +18683,7 @@
         <v>727</v>
       </c>
       <c r="N180" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O180" s="20">
         <v>100</v>
@@ -18733,7 +18733,7 @@
         <v>727</v>
       </c>
       <c r="N181" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O181" s="20">
         <v>100</v>
@@ -18783,7 +18783,7 @@
         <v>727</v>
       </c>
       <c r="N182" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O182" s="20">
         <v>100</v>
@@ -18833,7 +18833,7 @@
         <v>727</v>
       </c>
       <c r="N183" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O183" s="20">
         <v>100</v>
@@ -18883,7 +18883,7 @@
         <v>727</v>
       </c>
       <c r="N184" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O184" s="20">
         <v>100</v>
@@ -18933,7 +18933,7 @@
         <v>727</v>
       </c>
       <c r="N185" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O185" s="20">
         <v>100</v>
@@ -18983,7 +18983,7 @@
         <v>727</v>
       </c>
       <c r="N186" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O186" s="20">
         <v>100</v>
@@ -19033,7 +19033,7 @@
         <v>727</v>
       </c>
       <c r="N187" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O187" s="20">
         <v>100</v>
@@ -19083,7 +19083,7 @@
         <v>727</v>
       </c>
       <c r="N188" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O188" s="20">
         <v>100</v>
@@ -19133,7 +19133,7 @@
         <v>727</v>
       </c>
       <c r="N189" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O189" s="20">
         <v>100</v>
@@ -19183,7 +19183,7 @@
         <v>727</v>
       </c>
       <c r="N190" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O190" s="20">
         <v>100</v>
@@ -19233,7 +19233,7 @@
         <v>727</v>
       </c>
       <c r="N191" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O191" s="20">
         <v>100</v>
@@ -19280,7 +19280,7 @@
         <v>727</v>
       </c>
       <c r="N192" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O192" s="20">
         <v>100</v>
@@ -19330,7 +19330,7 @@
         <v>727</v>
       </c>
       <c r="N193" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O193" s="20">
         <v>100</v>
@@ -19380,7 +19380,7 @@
         <v>727</v>
       </c>
       <c r="N194" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O194" s="20">
         <v>100</v>
@@ -19430,7 +19430,7 @@
         <v>727</v>
       </c>
       <c r="N195" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O195" s="20">
         <v>100</v>
@@ -19480,7 +19480,7 @@
         <v>727</v>
       </c>
       <c r="N196" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O196" s="20">
         <v>100</v>
@@ -19530,7 +19530,7 @@
         <v>727</v>
       </c>
       <c r="N197" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O197" s="20">
         <v>100</v>
@@ -19580,7 +19580,7 @@
         <v>727</v>
       </c>
       <c r="N198" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O198" s="20">
         <v>100</v>
@@ -19630,7 +19630,7 @@
         <v>727</v>
       </c>
       <c r="N199" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O199" s="20">
         <v>100</v>
@@ -19680,7 +19680,7 @@
         <v>727</v>
       </c>
       <c r="N200" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O200" s="20">
         <v>100</v>
@@ -19730,7 +19730,7 @@
         <v>727</v>
       </c>
       <c r="N201" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O201" s="20">
         <v>100</v>
@@ -19780,7 +19780,7 @@
         <v>727</v>
       </c>
       <c r="N202" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O202" s="20">
         <v>100</v>
@@ -19830,7 +19830,7 @@
         <v>727</v>
       </c>
       <c r="N203" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O203" s="20">
         <v>100</v>
@@ -19880,7 +19880,7 @@
         <v>727</v>
       </c>
       <c r="N204" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O204" s="20">
         <v>100</v>
@@ -19930,7 +19930,7 @@
         <v>727</v>
       </c>
       <c r="N205" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O205" s="20">
         <v>100</v>
@@ -19980,7 +19980,7 @@
         <v>727</v>
       </c>
       <c r="N206" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O206" s="20">
         <v>100</v>
@@ -20030,7 +20030,7 @@
         <v>727</v>
       </c>
       <c r="N207" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O207" s="20">
         <v>100</v>
@@ -20080,7 +20080,7 @@
         <v>727</v>
       </c>
       <c r="N208" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O208" s="20">
         <v>100</v>
@@ -20130,7 +20130,7 @@
         <v>727</v>
       </c>
       <c r="N209" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O209" s="20">
         <v>100</v>
@@ -20180,7 +20180,7 @@
         <v>727</v>
       </c>
       <c r="N210" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O210" s="20">
         <v>100</v>
@@ -20230,7 +20230,7 @@
         <v>727</v>
       </c>
       <c r="N211" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O211" s="20">
         <v>100</v>
@@ -20280,7 +20280,7 @@
         <v>727</v>
       </c>
       <c r="N212" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O212" s="20">
         <v>100</v>
@@ -20327,7 +20327,7 @@
         <v>727</v>
       </c>
       <c r="N213" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O213" s="20">
         <v>100</v>
@@ -20377,7 +20377,7 @@
         <v>727</v>
       </c>
       <c r="N214" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O214" s="20">
         <v>100</v>
@@ -20427,7 +20427,7 @@
         <v>727</v>
       </c>
       <c r="N215" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O215" s="20">
         <v>100</v>
@@ -20477,7 +20477,7 @@
         <v>727</v>
       </c>
       <c r="N216" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O216" s="20">
         <v>100</v>
@@ -20527,7 +20527,7 @@
         <v>727</v>
       </c>
       <c r="N217" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O217" s="20">
         <v>100</v>
@@ -20577,7 +20577,7 @@
         <v>727</v>
       </c>
       <c r="N218" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O218" s="20">
         <v>100</v>
@@ -20627,7 +20627,7 @@
         <v>727</v>
       </c>
       <c r="N219" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O219" s="20">
         <v>100</v>
@@ -20677,7 +20677,7 @@
         <v>727</v>
       </c>
       <c r="N220" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O220" s="20">
         <v>100</v>
@@ -20727,7 +20727,7 @@
         <v>727</v>
       </c>
       <c r="N221" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O221" s="20">
         <v>100</v>
@@ -20777,7 +20777,7 @@
         <v>727</v>
       </c>
       <c r="N222" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O222" s="20">
         <v>100</v>
@@ -20824,7 +20824,7 @@
         <v>727</v>
       </c>
       <c r="N223" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O223" s="20">
         <v>100</v>
@@ -20871,7 +20871,7 @@
         <v>727</v>
       </c>
       <c r="N224" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O224" s="20">
         <v>100</v>
@@ -20921,7 +20921,7 @@
         <v>727</v>
       </c>
       <c r="N225" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O225" s="20">
         <v>100</v>
@@ -20971,7 +20971,7 @@
         <v>727</v>
       </c>
       <c r="N226" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O226" s="20">
         <v>100</v>
@@ -21021,7 +21021,7 @@
         <v>727</v>
       </c>
       <c r="N227" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O227" s="20">
         <v>100</v>
@@ -21071,7 +21071,7 @@
         <v>727</v>
       </c>
       <c r="N228" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O228" s="20">
         <v>100</v>
@@ -21118,7 +21118,7 @@
         <v>727</v>
       </c>
       <c r="N229" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O229" s="20">
         <v>100</v>
@@ -21168,7 +21168,7 @@
         <v>727</v>
       </c>
       <c r="N230" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O230" s="20">
         <v>100</v>
@@ -21218,7 +21218,7 @@
         <v>727</v>
       </c>
       <c r="N231" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O231" s="20">
         <v>100</v>
@@ -21268,7 +21268,7 @@
         <v>727</v>
       </c>
       <c r="N232" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O232" s="20">
         <v>100</v>
@@ -21318,7 +21318,7 @@
         <v>727</v>
       </c>
       <c r="N233" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O233" s="20">
         <v>100</v>
@@ -21368,7 +21368,7 @@
         <v>727</v>
       </c>
       <c r="N234" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O234" s="20">
         <v>100</v>
@@ -21418,7 +21418,7 @@
         <v>727</v>
       </c>
       <c r="N235" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O235" s="20">
         <v>100</v>
@@ -21468,7 +21468,7 @@
         <v>727</v>
       </c>
       <c r="N236" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O236" s="20">
         <v>100</v>
@@ -21518,7 +21518,7 @@
         <v>727</v>
       </c>
       <c r="N237" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O237" s="20">
         <v>100</v>
@@ -21568,7 +21568,7 @@
         <v>727</v>
       </c>
       <c r="N238" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O238" s="20">
         <v>100</v>
@@ -21618,7 +21618,7 @@
         <v>727</v>
       </c>
       <c r="N239" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O239" s="20">
         <v>100</v>
@@ -21668,7 +21668,7 @@
         <v>727</v>
       </c>
       <c r="N240" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O240" s="20">
         <v>100</v>
@@ -21715,7 +21715,7 @@
         <v>727</v>
       </c>
       <c r="N241" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O241" s="20">
         <v>100</v>
@@ -21762,7 +21762,7 @@
         <v>727</v>
       </c>
       <c r="N242" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O242" s="20">
         <v>100</v>
@@ -21812,7 +21812,7 @@
         <v>727</v>
       </c>
       <c r="N243" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O243" s="20">
         <v>100</v>
@@ -21862,7 +21862,7 @@
         <v>727</v>
       </c>
       <c r="N244" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O244" s="20">
         <v>100</v>
@@ -21912,7 +21912,7 @@
         <v>727</v>
       </c>
       <c r="N245" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O245" s="20">
         <v>100</v>
@@ -21962,7 +21962,7 @@
         <v>727</v>
       </c>
       <c r="N246" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O246" s="20">
         <v>100</v>
@@ -22009,7 +22009,7 @@
         <v>727</v>
       </c>
       <c r="N247" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O247" s="20">
         <v>100</v>
@@ -22059,7 +22059,7 @@
         <v>727</v>
       </c>
       <c r="N248" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O248" s="20">
         <v>100</v>
@@ -22109,7 +22109,7 @@
         <v>727</v>
       </c>
       <c r="N249" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O249" s="20">
         <v>100</v>
@@ -22159,7 +22159,7 @@
         <v>727</v>
       </c>
       <c r="N250" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O250" s="20">
         <v>100</v>
@@ -22209,7 +22209,7 @@
         <v>727</v>
       </c>
       <c r="N251" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O251" s="20">
         <v>100</v>
@@ -22259,7 +22259,7 @@
         <v>727</v>
       </c>
       <c r="N252" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O252" s="20">
         <v>100</v>
@@ -22309,7 +22309,7 @@
         <v>727</v>
       </c>
       <c r="N253" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O253" s="20">
         <v>100</v>
@@ -22356,7 +22356,7 @@
         <v>727</v>
       </c>
       <c r="N254" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O254" s="20">
         <v>100</v>
@@ -22406,7 +22406,7 @@
         <v>727</v>
       </c>
       <c r="N255" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O255" s="20">
         <v>100</v>
@@ -22456,7 +22456,7 @@
         <v>727</v>
       </c>
       <c r="N256" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O256" s="20">
         <v>100</v>
@@ -22506,7 +22506,7 @@
         <v>727</v>
       </c>
       <c r="N257" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O257" s="20">
         <v>100</v>
@@ -22556,7 +22556,7 @@
         <v>727</v>
       </c>
       <c r="N258" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O258" s="20">
         <v>100</v>
@@ -22606,7 +22606,7 @@
         <v>727</v>
       </c>
       <c r="N259" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O259" s="20">
         <v>100</v>
@@ -22653,7 +22653,7 @@
         <v>727</v>
       </c>
       <c r="N260" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O260" s="20">
         <v>100</v>
@@ -22700,7 +22700,7 @@
         <v>727</v>
       </c>
       <c r="N261" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O261" s="20">
         <v>100</v>
@@ -22747,7 +22747,7 @@
         <v>727</v>
       </c>
       <c r="N262" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O262" s="20">
         <v>100</v>
@@ -22794,7 +22794,7 @@
         <v>727</v>
       </c>
       <c r="N263" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O263" s="20">
         <v>100</v>
@@ -22844,7 +22844,7 @@
         <v>727</v>
       </c>
       <c r="N264" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O264" s="20">
         <v>100</v>
@@ -22894,7 +22894,7 @@
         <v>727</v>
       </c>
       <c r="N265" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O265" s="20">
         <v>100</v>
@@ -22944,7 +22944,7 @@
         <v>727</v>
       </c>
       <c r="N266" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O266" s="20">
         <v>100</v>
@@ -22994,7 +22994,7 @@
         <v>727</v>
       </c>
       <c r="N267" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O267" s="20">
         <v>100</v>
@@ -23044,7 +23044,7 @@
         <v>727</v>
       </c>
       <c r="N268" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O268" s="20">
         <v>100</v>
@@ -23094,7 +23094,7 @@
         <v>727</v>
       </c>
       <c r="N269" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O269" s="20">
         <v>100</v>
@@ -23144,7 +23144,7 @@
         <v>727</v>
       </c>
       <c r="N270" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O270" s="20">
         <v>100</v>
@@ -23194,7 +23194,7 @@
         <v>727</v>
       </c>
       <c r="N271" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O271" s="20">
         <v>100</v>
@@ -23241,7 +23241,7 @@
         <v>727</v>
       </c>
       <c r="N272" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O272" s="20">
         <v>100</v>
@@ -23288,7 +23288,7 @@
         <v>727</v>
       </c>
       <c r="N273" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O273" s="20">
         <v>100</v>
@@ -23335,7 +23335,7 @@
         <v>727</v>
       </c>
       <c r="N274" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O274" s="20">
         <v>100</v>
@@ -23382,7 +23382,7 @@
         <v>727</v>
       </c>
       <c r="N275" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O275" s="20">
         <v>100</v>
@@ -23432,7 +23432,7 @@
         <v>727</v>
       </c>
       <c r="N276" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O276" s="20">
         <v>100</v>
@@ -23482,7 +23482,7 @@
         <v>727</v>
       </c>
       <c r="N277" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O277" s="20">
         <v>100</v>
@@ -23529,7 +23529,7 @@
         <v>727</v>
       </c>
       <c r="N278" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O278" s="20">
         <v>100</v>
@@ -23579,7 +23579,7 @@
         <v>727</v>
       </c>
       <c r="N279" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O279" s="20">
         <v>100</v>
@@ -23629,7 +23629,7 @@
         <v>727</v>
       </c>
       <c r="N280" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O280" s="20">
         <v>100</v>
@@ -23679,7 +23679,7 @@
         <v>727</v>
       </c>
       <c r="N281" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O281" s="20">
         <v>100</v>
@@ -23729,7 +23729,7 @@
         <v>727</v>
       </c>
       <c r="N282" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O282" s="20">
         <v>100</v>
@@ -23779,7 +23779,7 @@
         <v>727</v>
       </c>
       <c r="N283" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O283" s="20">
         <v>100</v>
@@ -23829,7 +23829,7 @@
         <v>727</v>
       </c>
       <c r="N284" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O284" s="20">
         <v>100</v>
@@ -23879,7 +23879,7 @@
         <v>727</v>
       </c>
       <c r="N285" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O285" s="20">
         <v>100</v>
@@ -23929,7 +23929,7 @@
         <v>727</v>
       </c>
       <c r="N286" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O286" s="20">
         <v>100</v>
@@ -23976,7 +23976,7 @@
         <v>727</v>
       </c>
       <c r="N287" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O287" s="20">
         <v>100</v>
@@ -24026,7 +24026,7 @@
         <v>727</v>
       </c>
       <c r="N288" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O288" s="20">
         <v>100</v>
@@ -24076,7 +24076,7 @@
         <v>727</v>
       </c>
       <c r="N289" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O289" s="20">
         <v>100</v>
@@ -24126,7 +24126,7 @@
         <v>727</v>
       </c>
       <c r="N290" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O290" s="20">
         <v>100</v>
@@ -24176,7 +24176,7 @@
         <v>727</v>
       </c>
       <c r="N291" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O291" s="20">
         <v>100</v>
@@ -24226,7 +24226,7 @@
         <v>727</v>
       </c>
       <c r="N292" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O292" s="20">
         <v>100</v>
@@ -24276,7 +24276,7 @@
         <v>727</v>
       </c>
       <c r="N293" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O293" s="20">
         <v>100</v>
@@ -24326,7 +24326,7 @@
         <v>727</v>
       </c>
       <c r="N294" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O294" s="20">
         <v>100</v>
@@ -24376,7 +24376,7 @@
         <v>727</v>
       </c>
       <c r="N295" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O295" s="20">
         <v>100</v>
@@ -24426,7 +24426,7 @@
         <v>727</v>
       </c>
       <c r="N296" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O296" s="20">
         <v>100</v>
@@ -24476,7 +24476,7 @@
         <v>727</v>
       </c>
       <c r="N297" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O297" s="20">
         <v>100</v>
@@ -24526,7 +24526,7 @@
         <v>727</v>
       </c>
       <c r="N298" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O298" s="20">
         <v>100</v>
@@ -24576,7 +24576,7 @@
         <v>727</v>
       </c>
       <c r="N299" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O299" s="20">
         <v>100</v>
@@ -24626,7 +24626,7 @@
         <v>727</v>
       </c>
       <c r="N300" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O300" s="20">
         <v>100</v>
@@ -24676,7 +24676,7 @@
         <v>727</v>
       </c>
       <c r="N301" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O301" s="20">
         <v>100</v>
@@ -24726,7 +24726,7 @@
         <v>727</v>
       </c>
       <c r="N302" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O302" s="20">
         <v>100</v>
@@ -24776,7 +24776,7 @@
         <v>727</v>
       </c>
       <c r="N303" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O303" s="20">
         <v>100</v>
@@ -24826,7 +24826,7 @@
         <v>727</v>
       </c>
       <c r="N304" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O304" s="20">
         <v>100</v>
@@ -24876,7 +24876,7 @@
         <v>727</v>
       </c>
       <c r="N305" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O305" s="20">
         <v>100</v>
@@ -24926,7 +24926,7 @@
         <v>727</v>
       </c>
       <c r="N306" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O306" s="20">
         <v>100</v>
@@ -24976,7 +24976,7 @@
         <v>727</v>
       </c>
       <c r="N307" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O307" s="20">
         <v>100</v>
@@ -25026,7 +25026,7 @@
         <v>727</v>
       </c>
       <c r="N308" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O308" s="20">
         <v>100</v>
@@ -25076,7 +25076,7 @@
         <v>727</v>
       </c>
       <c r="N309" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O309" s="20">
         <v>100</v>
@@ -25126,7 +25126,7 @@
         <v>727</v>
       </c>
       <c r="N310" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O310" s="20">
         <v>100</v>
@@ -25176,7 +25176,7 @@
         <v>727</v>
       </c>
       <c r="N311" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O311" s="20">
         <v>100</v>
@@ -25226,7 +25226,7 @@
         <v>727</v>
       </c>
       <c r="N312" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O312" s="20">
         <v>100</v>
@@ -25276,7 +25276,7 @@
         <v>727</v>
       </c>
       <c r="N313" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O313" s="20">
         <v>100</v>
@@ -25323,7 +25323,7 @@
         <v>727</v>
       </c>
       <c r="N314" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O314" s="20">
         <v>100</v>
@@ -25373,7 +25373,7 @@
         <v>727</v>
       </c>
       <c r="N315" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O315" s="20">
         <v>100</v>
@@ -25423,7 +25423,7 @@
         <v>727</v>
       </c>
       <c r="N316" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O316" s="20">
         <v>100</v>
@@ -25473,7 +25473,7 @@
         <v>727</v>
       </c>
       <c r="N317" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O317" s="20">
         <v>100</v>
@@ -25523,7 +25523,7 @@
         <v>727</v>
       </c>
       <c r="N318" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O318" s="20">
         <v>100</v>
@@ -25573,7 +25573,7 @@
         <v>727</v>
       </c>
       <c r="N319" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O319" s="20">
         <v>100</v>
@@ -25620,7 +25620,7 @@
         <v>727</v>
       </c>
       <c r="N320" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O320" s="20">
         <v>100</v>
@@ -25670,7 +25670,7 @@
         <v>727</v>
       </c>
       <c r="N321" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O321" s="20">
         <v>100</v>
@@ -25720,7 +25720,7 @@
         <v>727</v>
       </c>
       <c r="N322" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O322" s="20">
         <v>100</v>
@@ -25770,7 +25770,7 @@
         <v>727</v>
       </c>
       <c r="N323" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O323" s="20">
         <v>100</v>
@@ -25817,7 +25817,7 @@
         <v>727</v>
       </c>
       <c r="N324" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O324" s="20">
         <v>100</v>
@@ -25864,7 +25864,7 @@
         <v>727</v>
       </c>
       <c r="N325" s="20">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O325" s="20">
         <v>100</v>
@@ -25914,7 +25914,7 @@
         <v>727</v>
       </c>
       <c r="N326" s="20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O326" s="20">
         <v>500</v>
@@ -25964,7 +25964,7 @@
         <v>727</v>
       </c>
       <c r="N327" s="20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O327" s="20">
         <v>500</v>
@@ -26014,7 +26014,7 @@
         <v>727</v>
       </c>
       <c r="N328" s="20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O328" s="20">
         <v>500</v>
@@ -26064,7 +26064,7 @@
         <v>727</v>
       </c>
       <c r="N329" s="20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O329" s="20">
         <v>500</v>
@@ -26114,7 +26114,7 @@
         <v>727</v>
       </c>
       <c r="N330" s="20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O330" s="20">
         <v>500</v>
@@ -26164,7 +26164,7 @@
         <v>727</v>
       </c>
       <c r="N331" s="20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O331" s="20">
         <v>500</v>
@@ -26214,7 +26214,7 @@
         <v>727</v>
       </c>
       <c r="N332" s="20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O332" s="20">
         <v>500</v>
@@ -26264,7 +26264,7 @@
         <v>727</v>
       </c>
       <c r="N333" s="20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O333" s="20">
         <v>500</v>
@@ -26314,7 +26314,7 @@
         <v>727</v>
       </c>
       <c r="N334" s="20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O334" s="20">
         <v>100</v>
@@ -26361,7 +26361,7 @@
         <v>727</v>
       </c>
       <c r="N335" s="20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O335" s="20">
         <v>100</v>
@@ -26408,7 +26408,7 @@
         <v>727</v>
       </c>
       <c r="N336" s="20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O336" s="20">
         <v>100</v>
@@ -26455,7 +26455,7 @@
         <v>727</v>
       </c>
       <c r="N337" s="20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O337" s="20">
         <v>100</v>
@@ -26502,7 +26502,7 @@
         <v>727</v>
       </c>
       <c r="N338" s="20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O338" s="20">
         <v>100</v>
@@ -26549,7 +26549,7 @@
         <v>727</v>
       </c>
       <c r="N339" s="20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O339" s="20">
         <v>100</v>
@@ -26596,7 +26596,7 @@
         <v>727</v>
       </c>
       <c r="N340" s="20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O340" s="20">
         <v>100</v>
@@ -26643,7 +26643,7 @@
         <v>727</v>
       </c>
       <c r="N341" s="20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O341" s="20">
         <v>100</v>
@@ -26690,7 +26690,7 @@
         <v>727</v>
       </c>
       <c r="N342" s="20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O342" s="20">
         <v>100</v>
@@ -26737,7 +26737,7 @@
         <v>727</v>
       </c>
       <c r="N343" s="20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O343" s="20">
         <v>100</v>
@@ -26784,7 +26784,7 @@
         <v>727</v>
       </c>
       <c r="N344" s="20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O344" s="20">
         <v>100</v>
@@ -26831,7 +26831,7 @@
         <v>727</v>
       </c>
       <c r="N345" s="20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O345" s="20">
         <v>100</v>
@@ -26878,7 +26878,7 @@
         <v>727</v>
       </c>
       <c r="N346" s="20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O346" s="20">
         <v>100</v>
@@ -26925,7 +26925,7 @@
         <v>727</v>
       </c>
       <c r="N347" s="20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O347" s="20">
         <v>100</v>
@@ -26972,7 +26972,7 @@
         <v>727</v>
       </c>
       <c r="N348" s="20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O348" s="20">
         <v>100</v>
@@ -27019,7 +27019,7 @@
         <v>727</v>
       </c>
       <c r="N349" s="20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O349" s="20">
         <v>100</v>
@@ -27066,7 +27066,7 @@
         <v>727</v>
       </c>
       <c r="N350" s="20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O350" s="20">
         <v>100</v>
@@ -27113,7 +27113,7 @@
         <v>727</v>
       </c>
       <c r="N351" s="20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O351" s="20">
         <v>100</v>
@@ -27160,7 +27160,7 @@
         <v>727</v>
       </c>
       <c r="N352" s="20">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="O352" s="20">
         <v>100</v>
@@ -27171,7 +27171,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="B4:Q29 B41:Q352">
+  <conditionalFormatting sqref="B4:Q29 N21:N87 B41:Q352">
     <cfRule type="containsBlanks" dxfId="101" priority="25">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
@@ -28169,8 +28169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="F5" sqref="F5"/>

--- a/ConfigData/Xlsx/HItem.xlsx
+++ b/ConfigData/Xlsx/HItem.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="材料" sheetId="1" r:id="rId1"/>
@@ -3948,9 +3948,6 @@
     <t>chushiziyuanbao</t>
   </si>
   <si>
-    <t>jinbi</t>
-  </si>
-  <si>
     <t>zhongxingmofayaoji</t>
   </si>
   <si>
@@ -6357,6 +6354,10 @@
   </si>
   <si>
     <t>使用后获得5张随机经典卡片</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jinbi</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -9546,11 +9547,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q352"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="M75" sqref="M75"/>
+      <selection pane="bottomRight" activeCell="D73" sqref="D73:D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9607,16 +9608,16 @@
         <v>712</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="N1" s="18" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="Q1" s="19" t="s">
         <v>713</v>
@@ -9660,16 +9661,16 @@
         <v>726</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="P2" s="22" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="Q2" s="23" t="s">
         <v>702</v>
@@ -9713,16 +9714,16 @@
         <v>725</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="O3" s="24" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="Q3" s="24" t="s">
         <v>722</v>
@@ -9736,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
       <c r="D4" s="26">
         <v>2</v>
@@ -9775,10 +9776,10 @@
         <v>500</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>1586</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -9789,7 +9790,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
       <c r="D5" s="26">
         <v>2</v>
@@ -9798,7 +9799,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="G5" s="26">
         <v>1</v>
@@ -9828,10 +9829,10 @@
         <v>500</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="Q5" s="31" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
@@ -9842,7 +9843,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
       <c r="D6" s="26">
         <v>2</v>
@@ -9851,7 +9852,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="G6" s="26">
         <v>1</v>
@@ -9881,10 +9882,10 @@
         <v>500</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="Q6" s="31" t="s">
-        <v>1587</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -9895,7 +9896,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="D7" s="26">
         <v>2</v>
@@ -9934,10 +9935,10 @@
         <v>500</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="Q7" s="31" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
@@ -9948,7 +9949,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
       <c r="D8" s="26">
         <v>2</v>
@@ -9987,10 +9988,10 @@
         <v>500</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="Q8" s="31" t="s">
-        <v>1588</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
@@ -10001,7 +10002,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="D9" s="26">
         <v>2</v>
@@ -10040,10 +10041,10 @@
         <v>500</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="Q9" s="31" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
@@ -10054,7 +10055,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="D10" s="26">
         <v>2</v>
@@ -10093,10 +10094,10 @@
         <v>500</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="Q10" s="31" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
@@ -10107,7 +10108,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
       <c r="D11" s="26">
         <v>2</v>
@@ -10146,10 +10147,10 @@
         <v>500</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="Q11" s="31" t="s">
-        <v>1591</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
@@ -10157,10 +10158,10 @@
         <v>22100009</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="D12" s="26">
         <v>2</v>
@@ -10199,10 +10200,10 @@
         <v>500</v>
       </c>
       <c r="P12" s="20" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="Q12" s="31" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
@@ -10210,10 +10211,10 @@
         <v>22100010</v>
       </c>
       <c r="B13" s="32" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C13" s="31" t="s">
         <v>1614</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>1615</v>
       </c>
       <c r="D13" s="26">
         <v>2</v>
@@ -10252,10 +10253,10 @@
         <v>500</v>
       </c>
       <c r="P13" s="31" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="Q13" s="31" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
@@ -10263,10 +10264,10 @@
         <v>22100011</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="D14" s="26">
         <v>2</v>
@@ -10305,10 +10306,10 @@
         <v>500</v>
       </c>
       <c r="P14" s="20" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="Q14" s="31" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
@@ -10316,10 +10317,10 @@
         <v>22100012</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="D15" s="26">
         <v>2</v>
@@ -10328,7 +10329,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="G15" s="26">
         <v>1</v>
@@ -10358,10 +10359,10 @@
         <v>500</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Q15" s="31" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
@@ -10369,10 +10370,10 @@
         <v>22100013</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="D16" s="26">
         <v>2</v>
@@ -10381,7 +10382,7 @@
         <v>10</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="G16" s="26">
         <v>1</v>
@@ -10411,10 +10412,10 @@
         <v>500</v>
       </c>
       <c r="P16" s="20" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="Q16" s="31" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -10422,10 +10423,10 @@
         <v>22100014</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="D17" s="26">
         <v>2</v>
@@ -10434,7 +10435,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="G17" s="26">
         <v>1</v>
@@ -10464,10 +10465,10 @@
         <v>500</v>
       </c>
       <c r="P17" s="31" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="Q17" s="31" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -10475,19 +10476,19 @@
         <v>22100015</v>
       </c>
       <c r="B18" s="32" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D18" s="26">
+        <v>2</v>
+      </c>
+      <c r="E18" s="20">
+        <v>10</v>
+      </c>
+      <c r="F18" s="32" t="s">
         <v>1631</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>1630</v>
-      </c>
-      <c r="D18" s="26">
-        <v>2</v>
-      </c>
-      <c r="E18" s="20">
-        <v>10</v>
-      </c>
-      <c r="F18" s="32" t="s">
-        <v>1632</v>
       </c>
       <c r="G18" s="26">
         <v>1</v>
@@ -10517,10 +10518,10 @@
         <v>500</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="Q18" s="31" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -10528,19 +10529,19 @@
         <v>22100016</v>
       </c>
       <c r="B19" s="32" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D19" s="26">
+        <v>2</v>
+      </c>
+      <c r="E19" s="20">
+        <v>10</v>
+      </c>
+      <c r="F19" s="32" t="s">
         <v>1635</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>1633</v>
-      </c>
-      <c r="D19" s="26">
-        <v>2</v>
-      </c>
-      <c r="E19" s="20">
-        <v>10</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>1636</v>
       </c>
       <c r="G19" s="26">
         <v>1</v>
@@ -10570,10 +10571,10 @@
         <v>500</v>
       </c>
       <c r="P19" s="31" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="Q19" s="31" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -10581,10 +10582,10 @@
         <v>22100017</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="D20" s="26">
         <v>2</v>
@@ -10593,7 +10594,7 @@
         <v>10</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="G20" s="26">
         <v>1</v>
@@ -10623,10 +10624,10 @@
         <v>500</v>
       </c>
       <c r="P20" s="31" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="Q20" s="31" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -10637,7 +10638,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
       <c r="D21" s="26">
         <v>2</v>
@@ -10676,7 +10677,7 @@
         <v>500</v>
       </c>
       <c r="Q21" s="32" t="s">
-        <v>1592</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
@@ -10687,7 +10688,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="D22" s="26">
         <v>2</v>
@@ -10726,10 +10727,10 @@
         <v>500</v>
       </c>
       <c r="P22" s="20" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="Q22" s="32" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
@@ -10740,7 +10741,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
       <c r="D23" s="20">
         <v>2</v>
@@ -10779,7 +10780,7 @@
         <v>500</v>
       </c>
       <c r="Q23" s="31" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
@@ -10790,7 +10791,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
       <c r="D24" s="20">
         <v>2</v>
@@ -10829,7 +10830,7 @@
         <v>500</v>
       </c>
       <c r="Q24" s="31" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
@@ -10840,7 +10841,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
       <c r="D25" s="20">
         <v>2</v>
@@ -10879,7 +10880,7 @@
         <v>500</v>
       </c>
       <c r="Q25" s="31" t="s">
-        <v>1595</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
@@ -10890,7 +10891,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="D26" s="20">
         <v>2</v>
@@ -10899,7 +10900,7 @@
         <v>10</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="G26" s="20">
         <v>1</v>
@@ -10929,7 +10930,7 @@
         <v>500</v>
       </c>
       <c r="Q26" s="31" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
@@ -10940,7 +10941,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="D27" s="20">
         <v>2</v>
@@ -10949,7 +10950,7 @@
         <v>10</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="G27" s="20">
         <v>1</v>
@@ -10979,7 +10980,7 @@
         <v>500</v>
       </c>
       <c r="Q27" s="31" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
@@ -10990,7 +10991,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
       <c r="D28" s="20">
         <v>2</v>
@@ -10999,7 +11000,7 @@
         <v>10</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="G28" s="20">
         <v>1</v>
@@ -11029,7 +11030,7 @@
         <v>500</v>
       </c>
       <c r="Q28" s="31" t="s">
-        <v>1598</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
@@ -11037,19 +11038,19 @@
         <v>22100109</v>
       </c>
       <c r="B29" s="31" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D29" s="20">
+        <v>2</v>
+      </c>
+      <c r="E29" s="20">
+        <v>10</v>
+      </c>
+      <c r="F29" s="32" t="s">
         <v>1640</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>1639</v>
-      </c>
-      <c r="D29" s="20">
-        <v>2</v>
-      </c>
-      <c r="E29" s="20">
-        <v>10</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>1641</v>
       </c>
       <c r="G29" s="20">
         <v>1</v>
@@ -11079,7 +11080,7 @@
         <v>500</v>
       </c>
       <c r="Q29" s="31" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -11087,10 +11088,10 @@
         <v>22100110</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="D30" s="20">
         <v>2</v>
@@ -11129,7 +11130,7 @@
         <v>500</v>
       </c>
       <c r="Q30" s="31" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -11137,10 +11138,10 @@
         <v>22100111</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="D31" s="20">
         <v>2</v>
@@ -11149,7 +11150,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="G31" s="20">
         <v>1</v>
@@ -11179,7 +11180,7 @@
         <v>500</v>
       </c>
       <c r="Q31" s="31" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -11187,10 +11188,10 @@
         <v>22100112</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
       <c r="D32" s="20">
         <v>2</v>
@@ -11229,7 +11230,7 @@
         <v>500</v>
       </c>
       <c r="Q32" s="31" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -11237,10 +11238,10 @@
         <v>22100113</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="D33" s="20">
         <v>2</v>
@@ -11249,7 +11250,7 @@
         <v>10</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="G33" s="20">
         <v>1</v>
@@ -11279,7 +11280,7 @@
         <v>500</v>
       </c>
       <c r="Q33" s="31" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -11287,10 +11288,10 @@
         <v>22100114</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="D34" s="20">
         <v>2</v>
@@ -11299,7 +11300,7 @@
         <v>10</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="G34" s="20">
         <v>1</v>
@@ -11329,7 +11330,7 @@
         <v>500</v>
       </c>
       <c r="Q34" s="31" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -11337,10 +11338,10 @@
         <v>22100115</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="D35" s="20">
         <v>2</v>
@@ -11349,7 +11350,7 @@
         <v>10</v>
       </c>
       <c r="F35" s="31" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="G35" s="20">
         <v>1</v>
@@ -11379,7 +11380,7 @@
         <v>500</v>
       </c>
       <c r="Q35" s="31" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
@@ -11387,10 +11388,10 @@
         <v>22100116</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="D36" s="20">
         <v>2</v>
@@ -11399,7 +11400,7 @@
         <v>10</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="G36" s="20">
         <v>1</v>
@@ -11429,7 +11430,7 @@
         <v>500</v>
       </c>
       <c r="Q36" s="31" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
@@ -11437,11 +11438,11 @@
         <v>22100117</v>
       </c>
       <c r="B37" s="31" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C37" s="31" t="s">
         <v>1657</v>
       </c>
-      <c r="C37" s="31" t="s">
-        <v>1658</v>
-      </c>
       <c r="D37" s="20">
         <v>2</v>
       </c>
@@ -11449,7 +11450,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="31" t="s">
-        <v>1641</v>
+        <v>1640</v>
       </c>
       <c r="G37" s="20">
         <v>1</v>
@@ -11479,7 +11480,7 @@
         <v>500</v>
       </c>
       <c r="Q37" s="31" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
@@ -11487,19 +11488,19 @@
         <v>22100118</v>
       </c>
       <c r="B38" s="31" t="s">
+        <v>1660</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D38" s="20">
+        <v>2</v>
+      </c>
+      <c r="E38" s="20">
+        <v>10</v>
+      </c>
+      <c r="F38" s="31" t="s">
         <v>1661</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>1659</v>
-      </c>
-      <c r="D38" s="20">
-        <v>2</v>
-      </c>
-      <c r="E38" s="20">
-        <v>10</v>
-      </c>
-      <c r="F38" s="31" t="s">
-        <v>1662</v>
       </c>
       <c r="G38" s="20">
         <v>1</v>
@@ -11529,10 +11530,10 @@
         <v>500</v>
       </c>
       <c r="P38" s="20" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="Q38" s="31" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
@@ -11540,10 +11541,10 @@
         <v>22100119</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="D39" s="20">
         <v>2</v>
@@ -11582,7 +11583,7 @@
         <v>500</v>
       </c>
       <c r="Q39" s="31" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
@@ -11590,10 +11591,10 @@
         <v>22100120</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="D40" s="20">
         <v>2</v>
@@ -11602,7 +11603,7 @@
         <v>10</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="G40" s="20">
         <v>1</v>
@@ -11632,7 +11633,7 @@
         <v>500</v>
       </c>
       <c r="Q40" s="31" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
@@ -11640,19 +11641,19 @@
         <v>22100201</v>
       </c>
       <c r="B41" s="31" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C41" s="31" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D41" s="20">
+        <v>2</v>
+      </c>
+      <c r="E41" s="20">
+        <v>10</v>
+      </c>
+      <c r="F41" s="31" t="s">
         <v>1691</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>1599</v>
-      </c>
-      <c r="D41" s="20">
-        <v>2</v>
-      </c>
-      <c r="E41" s="20">
-        <v>10</v>
-      </c>
-      <c r="F41" s="31" t="s">
-        <v>1692</v>
       </c>
       <c r="G41" s="20">
         <v>1</v>
@@ -11682,10 +11683,10 @@
         <v>500</v>
       </c>
       <c r="P41" s="20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Q41" s="31" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.15">
@@ -11696,7 +11697,7 @@
         <v>23</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
       <c r="D42" s="20">
         <v>2</v>
@@ -11735,10 +11736,10 @@
         <v>500</v>
       </c>
       <c r="P42" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q42" s="31" t="s">
-        <v>1600</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.15">
@@ -11749,7 +11750,7 @@
         <v>25</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
       <c r="D43" s="20">
         <v>2</v>
@@ -11788,10 +11789,10 @@
         <v>500</v>
       </c>
       <c r="P43" s="20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Q43" s="31" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.15">
@@ -11802,7 +11803,7 @@
         <v>27</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
       <c r="D44" s="20">
         <v>2</v>
@@ -11841,10 +11842,10 @@
         <v>500</v>
       </c>
       <c r="P44" s="20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Q44" s="31" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
@@ -11855,7 +11856,7 @@
         <v>29</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
       <c r="D45" s="20">
         <v>2</v>
@@ -11894,10 +11895,10 @@
         <v>500</v>
       </c>
       <c r="P45" s="20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Q45" s="31" t="s">
-        <v>1603</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.15">
@@ -11908,7 +11909,7 @@
         <v>31</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="D46" s="20">
         <v>2</v>
@@ -11947,10 +11948,10 @@
         <v>500</v>
       </c>
       <c r="P46" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q46" s="31" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.15">
@@ -11961,7 +11962,7 @@
         <v>33</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="D47" s="20">
         <v>2</v>
@@ -12000,10 +12001,10 @@
         <v>500</v>
       </c>
       <c r="P47" s="20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Q47" s="31" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.15">
@@ -12014,7 +12015,7 @@
         <v>35</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
       <c r="D48" s="20">
         <v>2</v>
@@ -12053,10 +12054,10 @@
         <v>500</v>
       </c>
       <c r="P48" s="20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Q48" s="31" t="s">
-        <v>1606</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.15">
@@ -12064,10 +12065,10 @@
         <v>22100209</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="D49" s="20">
         <v>2</v>
@@ -12076,7 +12077,7 @@
         <v>10</v>
       </c>
       <c r="F49" s="31" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="G49" s="20">
         <v>1</v>
@@ -12106,10 +12107,10 @@
         <v>500</v>
       </c>
       <c r="P49" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q49" s="31" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.15">
@@ -12117,19 +12118,19 @@
         <v>22100210</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="C50" s="31" t="s">
+        <v>1685</v>
+      </c>
+      <c r="D50" s="20">
+        <v>2</v>
+      </c>
+      <c r="E50" s="20">
+        <v>10</v>
+      </c>
+      <c r="F50" s="31" t="s">
         <v>1686</v>
-      </c>
-      <c r="D50" s="20">
-        <v>2</v>
-      </c>
-      <c r="E50" s="20">
-        <v>10</v>
-      </c>
-      <c r="F50" s="31" t="s">
-        <v>1687</v>
       </c>
       <c r="G50" s="20">
         <v>1</v>
@@ -12159,10 +12160,10 @@
         <v>500</v>
       </c>
       <c r="P50" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q50" s="31" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.15">
@@ -12170,10 +12171,10 @@
         <v>22100211</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D51" s="20">
         <v>2</v>
@@ -12182,7 +12183,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="31" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="G51" s="20">
         <v>1</v>
@@ -12212,10 +12213,10 @@
         <v>500</v>
       </c>
       <c r="P51" s="20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Q51" s="31" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.15">
@@ -12223,19 +12224,19 @@
         <v>22100212</v>
       </c>
       <c r="B52" s="31" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C52" s="31" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D52" s="20">
+        <v>2</v>
+      </c>
+      <c r="E52" s="20">
+        <v>10</v>
+      </c>
+      <c r="F52" s="31" t="s">
         <v>1694</v>
-      </c>
-      <c r="C52" s="31" t="s">
-        <v>1693</v>
-      </c>
-      <c r="D52" s="20">
-        <v>2</v>
-      </c>
-      <c r="E52" s="20">
-        <v>10</v>
-      </c>
-      <c r="F52" s="31" t="s">
-        <v>1695</v>
       </c>
       <c r="G52" s="20">
         <v>1</v>
@@ -12265,10 +12266,10 @@
         <v>500</v>
       </c>
       <c r="P52" s="20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Q52" s="31" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.15">
@@ -12276,19 +12277,19 @@
         <v>22100213</v>
       </c>
       <c r="B53" s="31" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C53" s="31" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D53" s="20">
+        <v>2</v>
+      </c>
+      <c r="E53" s="20">
+        <v>10</v>
+      </c>
+      <c r="F53" s="31" t="s">
         <v>1697</v>
-      </c>
-      <c r="C53" s="31" t="s">
-        <v>1696</v>
-      </c>
-      <c r="D53" s="20">
-        <v>2</v>
-      </c>
-      <c r="E53" s="20">
-        <v>10</v>
-      </c>
-      <c r="F53" s="31" t="s">
-        <v>1698</v>
       </c>
       <c r="G53" s="20">
         <v>1</v>
@@ -12318,10 +12319,10 @@
         <v>500</v>
       </c>
       <c r="P53" s="20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Q53" s="31" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.15">
@@ -12329,10 +12330,10 @@
         <v>22100214</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="D54" s="20">
         <v>2</v>
@@ -12341,7 +12342,7 @@
         <v>10</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="G54" s="20">
         <v>1</v>
@@ -12371,10 +12372,10 @@
         <v>500</v>
       </c>
       <c r="P54" s="20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Q54" s="31" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.15">
@@ -12382,10 +12383,10 @@
         <v>22100215</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="D55" s="20">
         <v>2</v>
@@ -12394,7 +12395,7 @@
         <v>10</v>
       </c>
       <c r="F55" s="31" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="G55" s="20">
         <v>1</v>
@@ -12424,10 +12425,10 @@
         <v>500</v>
       </c>
       <c r="P55" s="20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Q55" s="31" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.15">
@@ -12435,10 +12436,10 @@
         <v>22100216</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="D56" s="20">
         <v>2</v>
@@ -12447,7 +12448,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="31" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="G56" s="20">
         <v>1</v>
@@ -12477,10 +12478,10 @@
         <v>500</v>
       </c>
       <c r="P56" s="20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Q56" s="31" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.15">
@@ -12488,10 +12489,10 @@
         <v>22100217</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D57" s="20">
         <v>2</v>
@@ -12500,7 +12501,7 @@
         <v>10</v>
       </c>
       <c r="F57" s="31" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="G57" s="20">
         <v>1</v>
@@ -12530,10 +12531,10 @@
         <v>500</v>
       </c>
       <c r="P57" s="20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Q57" s="31" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.15">
@@ -12541,10 +12542,10 @@
         <v>22100218</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D58" s="20">
         <v>2</v>
@@ -12553,7 +12554,7 @@
         <v>10</v>
       </c>
       <c r="F58" s="31" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="G58" s="20">
         <v>1</v>
@@ -12583,10 +12584,10 @@
         <v>500</v>
       </c>
       <c r="P58" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q58" s="31" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.15">
@@ -12594,19 +12595,19 @@
         <v>22100219</v>
       </c>
       <c r="B59" s="31" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D59" s="20">
+        <v>2</v>
+      </c>
+      <c r="E59" s="20">
+        <v>10</v>
+      </c>
+      <c r="F59" s="31" t="s">
         <v>1710</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>1709</v>
-      </c>
-      <c r="D59" s="20">
-        <v>2</v>
-      </c>
-      <c r="E59" s="20">
-        <v>10</v>
-      </c>
-      <c r="F59" s="31" t="s">
-        <v>1711</v>
       </c>
       <c r="G59" s="20">
         <v>1</v>
@@ -12636,10 +12637,10 @@
         <v>500</v>
       </c>
       <c r="P59" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q59" s="31" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.15">
@@ -12650,7 +12651,7 @@
         <v>37</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="D60" s="20">
         <v>2</v>
@@ -12689,7 +12690,7 @@
         <v>500</v>
       </c>
       <c r="Q60" s="31" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.15">
@@ -12700,7 +12701,7 @@
         <v>39</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
       <c r="D61" s="20">
         <v>2</v>
@@ -12739,7 +12740,7 @@
         <v>500</v>
       </c>
       <c r="Q61" s="31" t="s">
-        <v>1608</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.15">
@@ -12750,7 +12751,7 @@
         <v>41</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="D62" s="20">
         <v>2</v>
@@ -12789,7 +12790,7 @@
         <v>500</v>
       </c>
       <c r="Q62" s="31" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.15">
@@ -12797,19 +12798,19 @@
         <v>22100304</v>
       </c>
       <c r="B63" s="31" t="s">
+        <v>1624</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D63" s="20">
+        <v>2</v>
+      </c>
+      <c r="E63" s="20">
+        <v>10</v>
+      </c>
+      <c r="F63" s="31" t="s">
         <v>1625</v>
-      </c>
-      <c r="C63" s="31" t="s">
-        <v>1624</v>
-      </c>
-      <c r="D63" s="20">
-        <v>2</v>
-      </c>
-      <c r="E63" s="20">
-        <v>10</v>
-      </c>
-      <c r="F63" s="31" t="s">
-        <v>1626</v>
       </c>
       <c r="G63" s="20">
         <v>1</v>
@@ -12839,7 +12840,7 @@
         <v>500</v>
       </c>
       <c r="Q63" s="31" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.15">
@@ -12847,10 +12848,10 @@
         <v>22100305</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="D64" s="20">
         <v>2</v>
@@ -12889,7 +12890,7 @@
         <v>500</v>
       </c>
       <c r="Q64" s="31" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.15">
@@ -12897,10 +12898,10 @@
         <v>22100306</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="D65" s="20">
         <v>2</v>
@@ -12939,7 +12940,7 @@
         <v>500</v>
       </c>
       <c r="Q65" s="31" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.15">
@@ -12947,19 +12948,19 @@
         <v>22100307</v>
       </c>
       <c r="B66" s="31" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D66" s="20">
+        <v>2</v>
+      </c>
+      <c r="E66" s="20">
+        <v>10</v>
+      </c>
+      <c r="F66" s="31" t="s">
         <v>1672</v>
-      </c>
-      <c r="C66" s="31" t="s">
-        <v>1671</v>
-      </c>
-      <c r="D66" s="20">
-        <v>2</v>
-      </c>
-      <c r="E66" s="20">
-        <v>10</v>
-      </c>
-      <c r="F66" s="31" t="s">
-        <v>1673</v>
       </c>
       <c r="G66" s="20">
         <v>1</v>
@@ -12989,7 +12990,7 @@
         <v>500</v>
       </c>
       <c r="Q66" s="31" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.15">
@@ -12997,10 +12998,10 @@
         <v>22100308</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="D67" s="20">
         <v>2</v>
@@ -13039,7 +13040,7 @@
         <v>500</v>
       </c>
       <c r="Q67" s="31" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.15">
@@ -13047,10 +13048,10 @@
         <v>22100309</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="D68" s="20">
         <v>2</v>
@@ -13089,7 +13090,7 @@
         <v>500</v>
       </c>
       <c r="Q68" s="31" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.15">
@@ -13097,10 +13098,10 @@
         <v>22100310</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="D69" s="20">
         <v>2</v>
@@ -13139,7 +13140,7 @@
         <v>500</v>
       </c>
       <c r="Q69" s="31" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.15">
@@ -13147,10 +13148,10 @@
         <v>22100311</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="D70" s="20">
         <v>2</v>
@@ -13159,7 +13160,7 @@
         <v>10</v>
       </c>
       <c r="F70" s="31" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="G70" s="20">
         <v>1</v>
@@ -13189,7 +13190,7 @@
         <v>500</v>
       </c>
       <c r="Q70" s="31" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.15">
@@ -13200,7 +13201,7 @@
         <v>42</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
       <c r="D71" s="20">
         <v>2</v>
@@ -13239,10 +13240,10 @@
         <v>500</v>
       </c>
       <c r="P71" s="20" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q71" s="31" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.15">
@@ -13253,7 +13254,7 @@
         <v>44</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="D72" s="20">
         <v>2</v>
@@ -13292,10 +13293,10 @@
         <v>500</v>
       </c>
       <c r="P72" s="20" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q72" s="20" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.15">
@@ -13306,7 +13307,7 @@
         <v>46</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="D73" s="20">
         <v>2</v>
@@ -13345,10 +13346,10 @@
         <v>500</v>
       </c>
       <c r="P73" s="20" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q73" s="20" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.15">
@@ -13359,7 +13360,7 @@
         <v>48</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="D74" s="20">
         <v>2</v>
@@ -13398,10 +13399,10 @@
         <v>500</v>
       </c>
       <c r="P74" s="20" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q74" s="20" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.15">
@@ -13409,10 +13410,10 @@
         <v>22100405</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C75" s="20" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="D75" s="20">
         <v>2</v>
@@ -13421,7 +13422,7 @@
         <v>10</v>
       </c>
       <c r="F75" s="31" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="G75" s="20">
         <v>1</v>
@@ -13451,10 +13452,10 @@
         <v>500</v>
       </c>
       <c r="P75" s="20" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q75" s="20" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.15">
@@ -13462,10 +13463,10 @@
         <v>22100406</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D76" s="20">
         <v>2</v>
@@ -13474,7 +13475,7 @@
         <v>10</v>
       </c>
       <c r="F76" s="31" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="G76" s="20">
         <v>1</v>
@@ -13504,10 +13505,10 @@
         <v>500</v>
       </c>
       <c r="P76" s="20" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q76" s="20" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.15">
@@ -13515,10 +13516,10 @@
         <v>22100407</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D77" s="20">
         <v>2</v>
@@ -13527,7 +13528,7 @@
         <v>10</v>
       </c>
       <c r="F77" s="31" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="G77" s="20">
         <v>1</v>
@@ -13557,10 +13558,10 @@
         <v>500</v>
       </c>
       <c r="P77" s="20" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q77" s="20" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.15">
@@ -13568,10 +13569,10 @@
         <v>22100408</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="D78" s="20">
         <v>2</v>
@@ -13580,7 +13581,7 @@
         <v>10</v>
       </c>
       <c r="F78" s="31" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="G78" s="20">
         <v>1</v>
@@ -13610,10 +13611,10 @@
         <v>500</v>
       </c>
       <c r="P78" s="20" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q78" s="20" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.15">
@@ -13621,10 +13622,10 @@
         <v>22100409</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D79" s="20">
         <v>2</v>
@@ -13633,7 +13634,7 @@
         <v>10</v>
       </c>
       <c r="F79" s="31" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="G79" s="20">
         <v>1</v>
@@ -13663,10 +13664,10 @@
         <v>500</v>
       </c>
       <c r="P79" s="20" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q79" s="20" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.15">
@@ -13674,10 +13675,10 @@
         <v>22100410</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="D80" s="20">
         <v>2</v>
@@ -13686,7 +13687,7 @@
         <v>10</v>
       </c>
       <c r="F80" s="31" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="G80" s="20">
         <v>1</v>
@@ -13716,10 +13717,10 @@
         <v>500</v>
       </c>
       <c r="P80" s="20" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q80" s="20" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.15">
@@ -13727,10 +13728,10 @@
         <v>22100411</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="D81" s="20">
         <v>2</v>
@@ -13739,7 +13740,7 @@
         <v>10</v>
       </c>
       <c r="F81" s="31" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="G81" s="20">
         <v>1</v>
@@ -13769,10 +13770,10 @@
         <v>500</v>
       </c>
       <c r="P81" s="20" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q81" s="20" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.15">
@@ -13780,10 +13781,10 @@
         <v>22100412</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="D82" s="20">
         <v>2</v>
@@ -13792,7 +13793,7 @@
         <v>10</v>
       </c>
       <c r="F82" s="31" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="G82" s="20">
         <v>1</v>
@@ -13822,10 +13823,10 @@
         <v>500</v>
       </c>
       <c r="P82" s="20" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q82" s="20" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.15">
@@ -13833,10 +13834,10 @@
         <v>22100413</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="D83" s="20">
         <v>2</v>
@@ -13845,7 +13846,7 @@
         <v>10</v>
       </c>
       <c r="F83" s="31" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="G83" s="20">
         <v>1</v>
@@ -13875,10 +13876,10 @@
         <v>500</v>
       </c>
       <c r="P83" s="20" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q83" s="20" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.15">
@@ -13886,19 +13887,19 @@
         <v>22100414</v>
       </c>
       <c r="B84" s="31" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>1737</v>
+      </c>
+      <c r="D84" s="20">
+        <v>2</v>
+      </c>
+      <c r="E84" s="20">
+        <v>10</v>
+      </c>
+      <c r="F84" s="31" t="s">
         <v>1740</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>1738</v>
-      </c>
-      <c r="D84" s="20">
-        <v>2</v>
-      </c>
-      <c r="E84" s="20">
-        <v>10</v>
-      </c>
-      <c r="F84" s="31" t="s">
-        <v>1741</v>
       </c>
       <c r="G84" s="20">
         <v>1</v>
@@ -13928,10 +13929,10 @@
         <v>500</v>
       </c>
       <c r="P84" s="20" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q84" s="20" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.15">
@@ -13939,19 +13940,19 @@
         <v>22100415</v>
       </c>
       <c r="B85" s="31" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D85" s="20">
+        <v>2</v>
+      </c>
+      <c r="E85" s="20">
+        <v>10</v>
+      </c>
+      <c r="F85" s="31" t="s">
         <v>1742</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>1739</v>
-      </c>
-      <c r="D85" s="20">
-        <v>2</v>
-      </c>
-      <c r="E85" s="20">
-        <v>10</v>
-      </c>
-      <c r="F85" s="31" t="s">
-        <v>1743</v>
       </c>
       <c r="G85" s="20">
         <v>1</v>
@@ -13981,10 +13982,10 @@
         <v>500</v>
       </c>
       <c r="P85" s="20" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q85" s="20" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.15">
@@ -13992,19 +13993,19 @@
         <v>22100416</v>
       </c>
       <c r="B86" s="31" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D86" s="20">
+        <v>2</v>
+      </c>
+      <c r="E86" s="20">
+        <v>10</v>
+      </c>
+      <c r="F86" s="31" t="s">
         <v>1746</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>1745</v>
-      </c>
-      <c r="D86" s="20">
-        <v>2</v>
-      </c>
-      <c r="E86" s="20">
-        <v>10</v>
-      </c>
-      <c r="F86" s="31" t="s">
-        <v>1747</v>
       </c>
       <c r="G86" s="20">
         <v>1</v>
@@ -14034,10 +14035,10 @@
         <v>500</v>
       </c>
       <c r="P86" s="20" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q86" s="20" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.15">
@@ -14045,19 +14046,19 @@
         <v>22100417</v>
       </c>
       <c r="B87" s="31" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>1747</v>
+      </c>
+      <c r="D87" s="20">
+        <v>2</v>
+      </c>
+      <c r="E87" s="20">
+        <v>10</v>
+      </c>
+      <c r="F87" s="31" t="s">
         <v>1749</v>
-      </c>
-      <c r="C87" s="20" t="s">
-        <v>1748</v>
-      </c>
-      <c r="D87" s="20">
-        <v>2</v>
-      </c>
-      <c r="E87" s="20">
-        <v>10</v>
-      </c>
-      <c r="F87" s="31" t="s">
-        <v>1750</v>
       </c>
       <c r="G87" s="20">
         <v>1</v>
@@ -14087,10 +14088,10 @@
         <v>500</v>
       </c>
       <c r="P87" s="20" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q87" s="20" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.15">
@@ -14101,7 +14102,7 @@
         <v>367</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="D88" s="20">
         <v>2</v>
@@ -14137,7 +14138,7 @@
         <v>500</v>
       </c>
       <c r="P88" s="20" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="Q88" s="20" t="s">
         <v>369</v>
@@ -14187,7 +14188,7 @@
         <v>500</v>
       </c>
       <c r="P89" s="20" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="Q89" s="20" t="s">
         <v>371</v>
@@ -14237,7 +14238,7 @@
         <v>500</v>
       </c>
       <c r="P90" s="20" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="Q90" s="20" t="s">
         <v>374</v>
@@ -14251,7 +14252,7 @@
         <v>372</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="D91" s="20">
         <v>2</v>
@@ -14287,7 +14288,7 @@
         <v>500</v>
       </c>
       <c r="P91" s="20" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="Q91" s="20" t="s">
         <v>966</v>
@@ -14337,7 +14338,7 @@
         <v>500</v>
       </c>
       <c r="P92" s="20" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="Q92" s="20" t="s">
         <v>377</v>
@@ -14387,7 +14388,7 @@
         <v>500</v>
       </c>
       <c r="P93" s="20" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="Q93" s="26" t="s">
         <v>379</v>
@@ -14437,7 +14438,7 @@
         <v>500</v>
       </c>
       <c r="P94" s="20" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="Q94" s="20" t="s">
         <v>382</v>
@@ -14451,7 +14452,7 @@
         <v>380</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="D95" s="20">
         <v>2</v>
@@ -14487,7 +14488,7 @@
         <v>500</v>
       </c>
       <c r="P95" s="20" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="Q95" s="26" t="s">
         <v>967</v>
@@ -14537,7 +14538,7 @@
         <v>500</v>
       </c>
       <c r="P96" s="20" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="Q96" s="20" t="s">
         <v>385</v>
@@ -14587,10 +14588,10 @@
         <v>500</v>
       </c>
       <c r="P97" s="20" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="Q97" s="20" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.15">
@@ -14637,7 +14638,7 @@
         <v>500</v>
       </c>
       <c r="P98" s="20" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="Q98" s="20" t="s">
         <v>390</v>
@@ -14687,7 +14688,7 @@
         <v>500</v>
       </c>
       <c r="P99" s="20" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="Q99" s="20" t="s">
         <v>962</v>
@@ -14737,7 +14738,7 @@
         <v>500</v>
       </c>
       <c r="P100" s="20" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Q100" s="20" t="s">
         <v>393</v>
@@ -14787,7 +14788,7 @@
         <v>500</v>
       </c>
       <c r="P101" s="20" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="Q101" s="20" t="s">
         <v>396</v>
@@ -14837,7 +14838,7 @@
         <v>500</v>
       </c>
       <c r="P102" s="20" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="Q102" s="26" t="s">
         <v>399</v>
@@ -14887,7 +14888,7 @@
         <v>500</v>
       </c>
       <c r="P103" s="20" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="Q103" s="26" t="s">
         <v>963</v>
@@ -14937,7 +14938,7 @@
         <v>500</v>
       </c>
       <c r="P104" s="20" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="Q104" s="26" t="s">
         <v>402</v>
@@ -14987,7 +14988,7 @@
         <v>500</v>
       </c>
       <c r="P105" s="20" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="Q105" s="26" t="s">
         <v>405</v>
@@ -15037,7 +15038,7 @@
         <v>500</v>
       </c>
       <c r="P106" s="20" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="Q106" s="26" t="s">
         <v>408</v>
@@ -15087,7 +15088,7 @@
         <v>500</v>
       </c>
       <c r="P107" s="20" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="Q107" s="26" t="s">
         <v>964</v>
@@ -15137,7 +15138,7 @@
         <v>500</v>
       </c>
       <c r="P108" s="20" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="Q108" s="26" t="s">
         <v>411</v>
@@ -15187,7 +15188,7 @@
         <v>500</v>
       </c>
       <c r="P109" s="20" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="Q109" s="26" t="s">
         <v>413</v>
@@ -15237,7 +15238,7 @@
         <v>500</v>
       </c>
       <c r="P110" s="20" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="Q110" s="26" t="s">
         <v>416</v>
@@ -15251,7 +15252,7 @@
         <v>414</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="D111" s="20">
         <v>2</v>
@@ -15287,7 +15288,7 @@
         <v>500</v>
       </c>
       <c r="P111" s="20" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="Q111" s="26" t="s">
         <v>968</v>
@@ -15337,10 +15338,10 @@
         <v>500</v>
       </c>
       <c r="P112" s="20" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="Q112" s="26" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.15">
@@ -15387,7 +15388,7 @@
         <v>500</v>
       </c>
       <c r="P113" s="20" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="Q113" s="26" t="s">
         <v>421</v>
@@ -15437,7 +15438,7 @@
         <v>500</v>
       </c>
       <c r="P114" s="20" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="Q114" s="26" t="s">
         <v>424</v>
@@ -15487,7 +15488,7 @@
         <v>500</v>
       </c>
       <c r="P115" s="20" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="Q115" s="26" t="s">
         <v>965</v>
@@ -15537,7 +15538,7 @@
         <v>300</v>
       </c>
       <c r="Q116" s="26" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.15">
@@ -15678,7 +15679,7 @@
         <v>300</v>
       </c>
       <c r="P119" s="20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Q119" s="26" t="s">
         <v>447</v>
@@ -15728,10 +15729,10 @@
         <v>300</v>
       </c>
       <c r="P120" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q120" s="26" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.15">
@@ -15778,7 +15779,7 @@
         <v>300</v>
       </c>
       <c r="P121" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q121" s="26" t="s">
         <v>453</v>
@@ -15828,7 +15829,7 @@
         <v>300</v>
       </c>
       <c r="P122" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q122" s="26" t="s">
         <v>456</v>
@@ -15878,7 +15879,7 @@
         <v>300</v>
       </c>
       <c r="P123" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q123" s="26" t="s">
         <v>459</v>
@@ -15928,10 +15929,10 @@
         <v>300</v>
       </c>
       <c r="P124" s="20" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="Q124" s="26" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.15">
@@ -15978,7 +15979,7 @@
         <v>300</v>
       </c>
       <c r="P125" s="20" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="Q125" s="26" t="s">
         <v>465</v>
@@ -16028,7 +16029,7 @@
         <v>300</v>
       </c>
       <c r="P126" s="20" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="Q126" s="20" t="s">
         <v>468</v>
@@ -16078,7 +16079,7 @@
         <v>300</v>
       </c>
       <c r="P127" s="20" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="Q127" s="20" t="s">
         <v>471</v>
@@ -16128,10 +16129,10 @@
         <v>300</v>
       </c>
       <c r="P128" s="20" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="Q128" s="20" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.15">
@@ -16178,7 +16179,7 @@
         <v>300</v>
       </c>
       <c r="P129" s="20" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="Q129" s="20" t="s">
         <v>477</v>
@@ -16228,7 +16229,7 @@
         <v>300</v>
       </c>
       <c r="P130" s="20" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="Q130" s="20" t="s">
         <v>480</v>
@@ -16278,7 +16279,7 @@
         <v>300</v>
       </c>
       <c r="P131" s="20" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="Q131" s="20" t="s">
         <v>483</v>
@@ -16328,10 +16329,10 @@
         <v>300</v>
       </c>
       <c r="P132" s="20" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="Q132" s="20" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.15">
@@ -16378,7 +16379,7 @@
         <v>300</v>
       </c>
       <c r="P133" s="20" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="Q133" s="20" t="s">
         <v>488</v>
@@ -16475,7 +16476,7 @@
         <v>300</v>
       </c>
       <c r="P135" s="20" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="Q135" s="20" t="s">
         <v>494</v>
@@ -16525,7 +16526,7 @@
         <v>300</v>
       </c>
       <c r="Q136" s="20" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.15">
@@ -16666,7 +16667,7 @@
         <v>300</v>
       </c>
       <c r="P139" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q139" s="20" t="s">
         <v>506</v>
@@ -16716,7 +16717,7 @@
         <v>300</v>
       </c>
       <c r="Q140" s="26" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.15">
@@ -16763,7 +16764,7 @@
         <v>300</v>
       </c>
       <c r="P141" s="20" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="Q141" s="20" t="s">
         <v>512</v>
@@ -16860,7 +16861,7 @@
         <v>300</v>
       </c>
       <c r="P143" s="20" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="Q143" s="26" t="s">
         <v>518</v>
@@ -16910,10 +16911,10 @@
         <v>300</v>
       </c>
       <c r="P144" s="20" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="Q144" s="20" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.15">
@@ -16960,7 +16961,7 @@
         <v>300</v>
       </c>
       <c r="P145" s="20" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="Q145" s="20" t="s">
         <v>524</v>
@@ -17010,7 +17011,7 @@
         <v>300</v>
       </c>
       <c r="P146" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q146" s="20" t="s">
         <v>527</v>
@@ -17060,7 +17061,7 @@
         <v>300</v>
       </c>
       <c r="P147" s="20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Q147" s="20" t="s">
         <v>530</v>
@@ -17110,10 +17111,10 @@
         <v>300</v>
       </c>
       <c r="P148" s="20" t="s">
+        <v>1293</v>
+      </c>
+      <c r="Q148" s="20" t="s">
         <v>1294</v>
-      </c>
-      <c r="Q148" s="20" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.15">
@@ -17160,7 +17161,7 @@
         <v>300</v>
       </c>
       <c r="P149" s="20" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Q149" s="20" t="s">
         <v>536</v>
@@ -17210,7 +17211,7 @@
         <v>300</v>
       </c>
       <c r="P150" s="20" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="Q150" s="20" t="s">
         <v>539</v>
@@ -17260,7 +17261,7 @@
         <v>300</v>
       </c>
       <c r="P151" s="20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Q151" s="20" t="s">
         <v>542</v>
@@ -17310,10 +17311,10 @@
         <v>300</v>
       </c>
       <c r="P152" s="20" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="Q152" s="20" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.15">
@@ -17360,7 +17361,7 @@
         <v>300</v>
       </c>
       <c r="P153" s="20" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="Q153" s="20" t="s">
         <v>548</v>
@@ -17410,7 +17411,7 @@
         <v>300</v>
       </c>
       <c r="P154" s="20" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="Q154" s="20" t="s">
         <v>551</v>
@@ -17460,7 +17461,7 @@
         <v>300</v>
       </c>
       <c r="P155" s="20" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="Q155" s="20" t="s">
         <v>554</v>
@@ -17510,10 +17511,10 @@
         <v>300</v>
       </c>
       <c r="P156" s="20" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="Q156" s="20" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.15">
@@ -17560,7 +17561,7 @@
         <v>300</v>
       </c>
       <c r="P157" s="20" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="Q157" s="20" t="s">
         <v>560</v>
@@ -17610,7 +17611,7 @@
         <v>300</v>
       </c>
       <c r="P158" s="20" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="Q158" s="20" t="s">
         <v>563</v>
@@ -17707,10 +17708,10 @@
         <v>300</v>
       </c>
       <c r="P160" s="20" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="Q160" s="20" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.15">
@@ -17851,7 +17852,7 @@
         <v>300</v>
       </c>
       <c r="P163" s="20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Q163" s="20" t="s">
         <v>578</v>
@@ -17901,10 +17902,10 @@
         <v>300</v>
       </c>
       <c r="P164" s="20" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Q164" s="20" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.15">
@@ -17951,7 +17952,7 @@
         <v>300</v>
       </c>
       <c r="P165" s="20" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="Q165" s="20" t="s">
         <v>584</v>
@@ -18001,7 +18002,7 @@
         <v>300</v>
       </c>
       <c r="P166" s="20" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="Q166" s="20" t="s">
         <v>587</v>
@@ -18051,7 +18052,7 @@
         <v>300</v>
       </c>
       <c r="P167" s="20" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="Q167" s="20" t="s">
         <v>590</v>
@@ -18101,10 +18102,10 @@
         <v>300</v>
       </c>
       <c r="P168" s="20" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="Q168" s="20" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.15">
@@ -18151,7 +18152,7 @@
         <v>300</v>
       </c>
       <c r="P169" s="20" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="Q169" s="20" t="s">
         <v>596</v>
@@ -18201,7 +18202,7 @@
         <v>300</v>
       </c>
       <c r="P170" s="20" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="Q170" s="20" t="s">
         <v>599</v>
@@ -18251,7 +18252,7 @@
         <v>300</v>
       </c>
       <c r="P171" s="20" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="Q171" s="20" t="s">
         <v>602</v>
@@ -18265,7 +18266,7 @@
         <v>425</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="D172" s="20">
         <v>2</v>
@@ -18301,7 +18302,7 @@
         <v>300</v>
       </c>
       <c r="P172" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q172" s="20" t="s">
         <v>793</v>
@@ -18351,7 +18352,7 @@
         <v>300</v>
       </c>
       <c r="P173" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q173" s="20" t="s">
         <v>429</v>
@@ -18401,7 +18402,7 @@
         <v>300</v>
       </c>
       <c r="P174" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q174" s="20" t="s">
         <v>432</v>
@@ -18451,7 +18452,7 @@
         <v>300</v>
       </c>
       <c r="P175" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q175" s="20" t="s">
         <v>435</v>
@@ -18465,7 +18466,7 @@
         <v>958</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="D176" s="20">
         <v>2</v>
@@ -18512,7 +18513,7 @@
         <v>959</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="D177" s="20">
         <v>2</v>
@@ -18689,10 +18690,10 @@
         <v>100</v>
       </c>
       <c r="P180" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q180" s="20" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.15">
@@ -18739,10 +18740,10 @@
         <v>100</v>
       </c>
       <c r="P181" s="20" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q181" s="20" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.15">
@@ -18789,10 +18790,10 @@
         <v>100</v>
       </c>
       <c r="P182" s="20" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="Q182" s="26" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.15">
@@ -18803,7 +18804,7 @@
         <v>160</v>
       </c>
       <c r="C183" s="31" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="D183" s="20">
         <v>2</v>
@@ -18839,10 +18840,10 @@
         <v>100</v>
       </c>
       <c r="P183" s="20" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q183" s="20" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.15">
@@ -18853,7 +18854,7 @@
         <v>780</v>
       </c>
       <c r="C184" s="31" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="D184" s="20">
         <v>2</v>
@@ -18889,7 +18890,7 @@
         <v>100</v>
       </c>
       <c r="P184" s="20" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="Q184" s="28" t="s">
         <v>779</v>
@@ -18939,7 +18940,7 @@
         <v>100</v>
       </c>
       <c r="P185" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q185" s="20" t="s">
         <v>752</v>
@@ -18989,10 +18990,10 @@
         <v>100</v>
       </c>
       <c r="P186" s="20" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="Q186" s="20" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.15">
@@ -19039,10 +19040,10 @@
         <v>100</v>
       </c>
       <c r="P187" s="20" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="Q187" s="26" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.15">
@@ -19089,10 +19090,10 @@
         <v>100</v>
       </c>
       <c r="P188" s="20" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="Q188" s="20" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.15">
@@ -19139,10 +19140,10 @@
         <v>100</v>
       </c>
       <c r="P189" s="20" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="Q189" s="20" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.15">
@@ -19189,10 +19190,10 @@
         <v>100</v>
       </c>
       <c r="P190" s="20" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="Q190" s="20" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.15">
@@ -19286,7 +19287,7 @@
         <v>100</v>
       </c>
       <c r="P192" s="20" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="Q192" s="28" t="s">
         <v>795</v>
@@ -19336,10 +19337,10 @@
         <v>100</v>
       </c>
       <c r="P193" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q193" s="26" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.15">
@@ -19386,10 +19387,10 @@
         <v>100</v>
       </c>
       <c r="P194" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q194" s="20" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.15">
@@ -19397,7 +19398,7 @@
         <v>22110016</v>
       </c>
       <c r="B195" s="36" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="C195" s="20" t="s">
         <v>1050</v>
@@ -19436,7 +19437,7 @@
         <v>100</v>
       </c>
       <c r="P195" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q195" s="20" t="s">
         <v>83</v>
@@ -19450,7 +19451,7 @@
         <v>67</v>
       </c>
       <c r="C196" s="31" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="D196" s="20">
         <v>2</v>
@@ -19486,10 +19487,10 @@
         <v>100</v>
       </c>
       <c r="P196" s="20" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q196" s="20" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.15">
@@ -19497,19 +19498,19 @@
         <v>22110018</v>
       </c>
       <c r="B197" s="36" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C197" s="31" t="s">
         <v>1753</v>
       </c>
-      <c r="C197" s="31" t="s">
+      <c r="D197" s="20">
+        <v>2</v>
+      </c>
+      <c r="E197" s="20">
+        <v>10</v>
+      </c>
+      <c r="F197" s="31" t="s">
         <v>1754</v>
-      </c>
-      <c r="D197" s="20">
-        <v>2</v>
-      </c>
-      <c r="E197" s="20">
-        <v>10</v>
-      </c>
-      <c r="F197" s="31" t="s">
-        <v>1755</v>
       </c>
       <c r="G197" s="20">
         <v>1</v>
@@ -19536,10 +19537,10 @@
         <v>100</v>
       </c>
       <c r="P197" s="20" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="Q197" s="31" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.15">
@@ -19586,10 +19587,10 @@
         <v>100</v>
       </c>
       <c r="P198" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q198" s="20" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.15">
@@ -19636,10 +19637,10 @@
         <v>100</v>
       </c>
       <c r="P199" s="20" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="Q199" s="26" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.15">
@@ -19686,10 +19687,10 @@
         <v>100</v>
       </c>
       <c r="P200" s="20" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="Q200" s="26" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.15">
@@ -19700,7 +19701,7 @@
         <v>93</v>
       </c>
       <c r="C201" s="31" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
       <c r="D201" s="20">
         <v>2</v>
@@ -19736,10 +19737,10 @@
         <v>100</v>
       </c>
       <c r="P201" s="20" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="Q201" s="20" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.15">
@@ -19786,10 +19787,10 @@
         <v>100</v>
       </c>
       <c r="P202" s="20" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="Q202" s="20" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.15">
@@ -19836,10 +19837,10 @@
         <v>100</v>
       </c>
       <c r="P203" s="20" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="Q203" s="20" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.15">
@@ -19886,10 +19887,10 @@
         <v>100</v>
       </c>
       <c r="P204" s="20" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="Q204" s="20" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.15">
@@ -19900,7 +19901,7 @@
         <v>72</v>
       </c>
       <c r="C205" s="31" t="s">
-        <v>1783</v>
+        <v>1782</v>
       </c>
       <c r="D205" s="20">
         <v>2</v>
@@ -19936,10 +19937,10 @@
         <v>100</v>
       </c>
       <c r="P205" s="20" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="Q205" s="20" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.15">
@@ -19950,7 +19951,7 @@
         <v>331</v>
       </c>
       <c r="C206" s="31" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
       <c r="D206" s="20">
         <v>2</v>
@@ -19986,10 +19987,10 @@
         <v>100</v>
       </c>
       <c r="P206" s="20" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="Q206" s="20" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.15">
@@ -20036,10 +20037,10 @@
         <v>100</v>
       </c>
       <c r="P207" s="20" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="Q207" s="20" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.15">
@@ -20086,7 +20087,7 @@
         <v>100</v>
       </c>
       <c r="P208" s="20" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="Q208" s="28" t="s">
         <v>765</v>
@@ -20100,7 +20101,7 @@
         <v>84</v>
       </c>
       <c r="C209" s="31" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="D209" s="20">
         <v>2</v>
@@ -20136,10 +20137,10 @@
         <v>100</v>
       </c>
       <c r="P209" s="20" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="Q209" s="20" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.15">
@@ -20186,10 +20187,10 @@
         <v>100</v>
       </c>
       <c r="P210" s="20" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="Q210" s="20" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.15">
@@ -20236,10 +20237,10 @@
         <v>100</v>
       </c>
       <c r="P211" s="20" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="Q211" s="26" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.15">
@@ -20250,7 +20251,7 @@
         <v>86</v>
       </c>
       <c r="C212" s="31" t="s">
-        <v>1781</v>
+        <v>1780</v>
       </c>
       <c r="D212" s="20">
         <v>2</v>
@@ -20286,7 +20287,7 @@
         <v>100</v>
       </c>
       <c r="Q212" s="26" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.15">
@@ -20333,10 +20334,10 @@
         <v>100</v>
       </c>
       <c r="P213" s="20" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="Q213" s="20" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.15">
@@ -20347,7 +20348,7 @@
         <v>265</v>
       </c>
       <c r="C214" s="31" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="D214" s="20">
         <v>2</v>
@@ -20383,10 +20384,10 @@
         <v>100</v>
       </c>
       <c r="P214" s="20" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="Q214" s="26" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.15">
@@ -20433,10 +20434,10 @@
         <v>100</v>
       </c>
       <c r="P215" s="20" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="Q215" s="26" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.15">
@@ -20444,7 +20445,7 @@
         <v>22110037</v>
       </c>
       <c r="B216" s="38" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="C216" s="20" t="s">
         <v>272</v>
@@ -20483,10 +20484,10 @@
         <v>100</v>
       </c>
       <c r="P216" s="20" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="Q216" s="20" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.15">
@@ -20533,10 +20534,10 @@
         <v>100</v>
       </c>
       <c r="P217" s="20" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="Q217" s="20" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.15">
@@ -20583,10 +20584,10 @@
         <v>100</v>
       </c>
       <c r="P218" s="20" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="Q218" s="20" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.15">
@@ -20633,7 +20634,7 @@
         <v>100</v>
       </c>
       <c r="P219" s="20" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="Q219" s="20" t="s">
         <v>90</v>
@@ -20683,7 +20684,7 @@
         <v>100</v>
       </c>
       <c r="P220" s="20" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="Q220" s="28" t="s">
         <v>745</v>
@@ -20733,10 +20734,10 @@
         <v>100</v>
       </c>
       <c r="P221" s="20" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="Q221" s="20" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.15">
@@ -20747,7 +20748,7 @@
         <v>309</v>
       </c>
       <c r="C222" s="31" t="s">
-        <v>1780</v>
+        <v>1779</v>
       </c>
       <c r="D222" s="20">
         <v>2</v>
@@ -20783,7 +20784,7 @@
         <v>100</v>
       </c>
       <c r="Q222" s="20" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.15">
@@ -20830,7 +20831,7 @@
         <v>100</v>
       </c>
       <c r="Q223" s="20" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.15">
@@ -20877,7 +20878,7 @@
         <v>100</v>
       </c>
       <c r="P224" s="20" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="Q224" s="20" t="s">
         <v>90</v>
@@ -20927,10 +20928,10 @@
         <v>100</v>
       </c>
       <c r="P225" s="20" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="Q225" s="20" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.15">
@@ -20977,10 +20978,10 @@
         <v>100</v>
       </c>
       <c r="P226" s="20" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="Q226" s="20" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.15">
@@ -21027,10 +21028,10 @@
         <v>100</v>
       </c>
       <c r="P227" s="20" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="Q227" s="20" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.15">
@@ -21077,7 +21078,7 @@
         <v>100</v>
       </c>
       <c r="Q228" s="20" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.15">
@@ -21124,10 +21125,10 @@
         <v>100</v>
       </c>
       <c r="P229" s="20" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="Q229" s="26" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.15">
@@ -21174,10 +21175,10 @@
         <v>100</v>
       </c>
       <c r="P230" s="20" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="Q230" s="26" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.15">
@@ -21224,10 +21225,10 @@
         <v>100</v>
       </c>
       <c r="P231" s="20" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="Q231" s="20" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.15">
@@ -21274,10 +21275,10 @@
         <v>100</v>
       </c>
       <c r="P232" s="20" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="Q232" s="20" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.15">
@@ -21324,10 +21325,10 @@
         <v>100</v>
       </c>
       <c r="P233" s="20" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="Q233" s="26" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.15">
@@ -21338,7 +21339,7 @@
         <v>293</v>
       </c>
       <c r="C234" s="31" t="s">
-        <v>1784</v>
+        <v>1783</v>
       </c>
       <c r="D234" s="20">
         <v>2</v>
@@ -21374,10 +21375,10 @@
         <v>100</v>
       </c>
       <c r="P234" s="20" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="Q234" s="20" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.15">
@@ -21424,10 +21425,10 @@
         <v>100</v>
       </c>
       <c r="P235" s="20" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="Q235" s="20" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.15">
@@ -21474,7 +21475,7 @@
         <v>100</v>
       </c>
       <c r="P236" s="20" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="Q236" s="20" t="s">
         <v>328</v>
@@ -21524,10 +21525,10 @@
         <v>100</v>
       </c>
       <c r="P237" s="20" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="Q237" s="32" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.15">
@@ -21535,10 +21536,10 @@
         <v>22110059</v>
       </c>
       <c r="B238" s="42" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="C238" s="20" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="D238" s="20">
         <v>2</v>
@@ -21574,10 +21575,10 @@
         <v>100</v>
       </c>
       <c r="P238" s="20" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="Q238" s="26" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.15">
@@ -21588,7 +21589,7 @@
         <v>749</v>
       </c>
       <c r="C239" s="31" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="D239" s="20">
         <v>2</v>
@@ -21624,7 +21625,7 @@
         <v>100</v>
       </c>
       <c r="P239" s="20" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="Q239" s="28" t="s">
         <v>748</v>
@@ -21674,7 +21675,7 @@
         <v>100</v>
       </c>
       <c r="Q240" s="20" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.15">
@@ -21685,7 +21686,7 @@
         <v>112</v>
       </c>
       <c r="C241" s="31" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="D241" s="20">
         <v>2</v>
@@ -21721,7 +21722,7 @@
         <v>100</v>
       </c>
       <c r="Q241" s="20" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.15">
@@ -21768,10 +21769,10 @@
         <v>100</v>
       </c>
       <c r="P242" s="20" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="Q242" s="20" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.15">
@@ -21818,10 +21819,10 @@
         <v>100</v>
       </c>
       <c r="P243" s="20" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Q243" s="26" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.15">
@@ -21868,10 +21869,10 @@
         <v>100</v>
       </c>
       <c r="P244" s="20" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="Q244" s="26" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="245" spans="1:17" x14ac:dyDescent="0.15">
@@ -21918,10 +21919,10 @@
         <v>100</v>
       </c>
       <c r="P245" s="20" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="Q245" s="26" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="246" spans="1:17" x14ac:dyDescent="0.15">
@@ -21968,7 +21969,7 @@
         <v>100</v>
       </c>
       <c r="Q246" s="26" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="247" spans="1:17" x14ac:dyDescent="0.15">
@@ -22015,10 +22016,10 @@
         <v>100</v>
       </c>
       <c r="P247" s="20" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="Q247" s="27" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="248" spans="1:17" x14ac:dyDescent="0.15">
@@ -22065,10 +22066,10 @@
         <v>100</v>
       </c>
       <c r="P248" s="20" t="s">
+        <v>1378</v>
+      </c>
+      <c r="Q248" s="27" t="s">
         <v>1379</v>
-      </c>
-      <c r="Q248" s="27" t="s">
-        <v>1380</v>
       </c>
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.15">
@@ -22115,10 +22116,10 @@
         <v>100</v>
       </c>
       <c r="P249" s="20" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Q249" s="27" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.15">
@@ -22165,10 +22166,10 @@
         <v>100</v>
       </c>
       <c r="P250" s="20" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="Q250" s="27" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="251" spans="1:17" x14ac:dyDescent="0.15">
@@ -22215,10 +22216,10 @@
         <v>100</v>
       </c>
       <c r="P251" s="20" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="Q251" s="27" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="252" spans="1:17" x14ac:dyDescent="0.15">
@@ -22265,10 +22266,10 @@
         <v>100</v>
       </c>
       <c r="P252" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q252" s="27" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="253" spans="1:17" x14ac:dyDescent="0.15">
@@ -22315,7 +22316,7 @@
         <v>100</v>
       </c>
       <c r="Q253" s="27" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="254" spans="1:17" x14ac:dyDescent="0.15">
@@ -22362,10 +22363,10 @@
         <v>100</v>
       </c>
       <c r="P254" s="20" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="Q254" s="27" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="255" spans="1:17" x14ac:dyDescent="0.15">
@@ -22376,7 +22377,7 @@
         <v>208</v>
       </c>
       <c r="C255" s="31" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="D255" s="20">
         <v>2</v>
@@ -22412,10 +22413,10 @@
         <v>100</v>
       </c>
       <c r="P255" s="20" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="Q255" s="4" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="256" spans="1:17" x14ac:dyDescent="0.15">
@@ -22462,10 +22463,10 @@
         <v>100</v>
       </c>
       <c r="P256" s="20" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="Q256" s="27" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.15">
@@ -22512,10 +22513,10 @@
         <v>100</v>
       </c>
       <c r="P257" s="20" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="Q257" s="27" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="258" spans="1:17" x14ac:dyDescent="0.15">
@@ -22562,10 +22563,10 @@
         <v>100</v>
       </c>
       <c r="P258" s="20" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="Q258" s="27" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="259" spans="1:17" x14ac:dyDescent="0.15">
@@ -22612,7 +22613,7 @@
         <v>100</v>
       </c>
       <c r="Q259" s="27" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="260" spans="1:17" x14ac:dyDescent="0.15">
@@ -22667,10 +22668,10 @@
         <v>22110082</v>
       </c>
       <c r="B261" s="39" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C261" s="20" t="s">
         <v>1212</v>
-      </c>
-      <c r="C261" s="20" t="s">
-        <v>1213</v>
       </c>
       <c r="D261" s="20">
         <v>2</v>
@@ -22800,10 +22801,10 @@
         <v>100</v>
       </c>
       <c r="P263" s="20" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="Q263" s="27" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="264" spans="1:17" x14ac:dyDescent="0.15">
@@ -22850,10 +22851,10 @@
         <v>100</v>
       </c>
       <c r="P264" s="20" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="Q264" s="27" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="265" spans="1:17" x14ac:dyDescent="0.15">
@@ -22900,10 +22901,10 @@
         <v>100</v>
       </c>
       <c r="P265" s="20" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="Q265" s="27" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="266" spans="1:17" x14ac:dyDescent="0.15">
@@ -22950,10 +22951,10 @@
         <v>100</v>
       </c>
       <c r="P266" s="20" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="Q266" s="27" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="267" spans="1:17" x14ac:dyDescent="0.15">
@@ -23000,10 +23001,10 @@
         <v>100</v>
       </c>
       <c r="P267" s="20" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="Q267" s="27" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="268" spans="1:17" x14ac:dyDescent="0.15">
@@ -23050,10 +23051,10 @@
         <v>100</v>
       </c>
       <c r="P268" s="20" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="Q268" s="27" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="269" spans="1:17" x14ac:dyDescent="0.15">
@@ -23100,7 +23101,7 @@
         <v>100</v>
       </c>
       <c r="P269" s="20" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="Q269" s="27" t="s">
         <v>790</v>
@@ -23150,10 +23151,10 @@
         <v>100</v>
       </c>
       <c r="P270" s="20" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="Q270" s="26" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="271" spans="1:17" x14ac:dyDescent="0.15">
@@ -23200,7 +23201,7 @@
         <v>100</v>
       </c>
       <c r="Q271" s="26" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="272" spans="1:17" x14ac:dyDescent="0.15">
@@ -23211,7 +23212,7 @@
         <v>281</v>
       </c>
       <c r="C272" s="31" t="s">
-        <v>1779</v>
+        <v>1778</v>
       </c>
       <c r="D272" s="20">
         <v>2</v>
@@ -23247,7 +23248,7 @@
         <v>100</v>
       </c>
       <c r="Q272" s="26" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="273" spans="1:17" x14ac:dyDescent="0.15">
@@ -23294,7 +23295,7 @@
         <v>100</v>
       </c>
       <c r="Q273" s="26" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="274" spans="1:17" x14ac:dyDescent="0.15">
@@ -23352,7 +23353,7 @@
         <v>273</v>
       </c>
       <c r="C275" s="31" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="D275" s="20">
         <v>2</v>
@@ -23388,10 +23389,10 @@
         <v>100</v>
       </c>
       <c r="P275" s="20" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="Q275" s="31" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="276" spans="1:17" x14ac:dyDescent="0.15">
@@ -23438,10 +23439,10 @@
         <v>100</v>
       </c>
       <c r="P276" s="20" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="Q276" s="20" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="277" spans="1:17" x14ac:dyDescent="0.15">
@@ -23452,7 +23453,7 @@
         <v>295</v>
       </c>
       <c r="C277" s="31" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="D277" s="20">
         <v>2</v>
@@ -23488,7 +23489,7 @@
         <v>100</v>
       </c>
       <c r="Q277" s="20" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="278" spans="1:17" x14ac:dyDescent="0.15">
@@ -23535,10 +23536,10 @@
         <v>100</v>
       </c>
       <c r="P278" s="20" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="Q278" s="26" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="279" spans="1:17" x14ac:dyDescent="0.15">
@@ -23585,7 +23586,7 @@
         <v>100</v>
       </c>
       <c r="P279" s="20" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="Q279" s="20" t="s">
         <v>301</v>
@@ -23635,10 +23636,10 @@
         <v>100</v>
       </c>
       <c r="P280" s="20" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="Q280" s="20" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="281" spans="1:17" x14ac:dyDescent="0.15">
@@ -23685,10 +23686,10 @@
         <v>100</v>
       </c>
       <c r="P281" s="20" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="Q281" s="20" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="282" spans="1:17" x14ac:dyDescent="0.15">
@@ -23735,7 +23736,7 @@
         <v>100</v>
       </c>
       <c r="P282" s="20" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="Q282" s="26" t="s">
         <v>776</v>
@@ -23785,10 +23786,10 @@
         <v>100</v>
       </c>
       <c r="P283" s="20" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="Q283" s="20" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="284" spans="1:17" x14ac:dyDescent="0.15">
@@ -23835,10 +23836,10 @@
         <v>100</v>
       </c>
       <c r="P284" s="20" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="Q284" s="28" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="285" spans="1:17" x14ac:dyDescent="0.15">
@@ -23885,10 +23886,10 @@
         <v>100</v>
       </c>
       <c r="P285" s="20" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="Q285" s="28" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="286" spans="1:17" x14ac:dyDescent="0.15">
@@ -23935,7 +23936,7 @@
         <v>100</v>
       </c>
       <c r="Q286" s="28" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="287" spans="1:17" x14ac:dyDescent="0.15">
@@ -23982,10 +23983,10 @@
         <v>100</v>
       </c>
       <c r="P287" s="20" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="Q287" s="26" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="288" spans="1:17" x14ac:dyDescent="0.15">
@@ -24032,10 +24033,10 @@
         <v>100</v>
       </c>
       <c r="P288" s="20" t="s">
+        <v>1392</v>
+      </c>
+      <c r="Q288" s="26" t="s">
         <v>1393</v>
-      </c>
-      <c r="Q288" s="26" t="s">
-        <v>1394</v>
       </c>
     </row>
     <row r="289" spans="1:17" x14ac:dyDescent="0.15">
@@ -24082,7 +24083,7 @@
         <v>100</v>
       </c>
       <c r="P289" s="20" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="Q289" s="26" t="s">
         <v>228</v>
@@ -24132,7 +24133,7 @@
         <v>100</v>
       </c>
       <c r="P290" s="20" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="Q290" s="26" t="s">
         <v>231</v>
@@ -24182,7 +24183,7 @@
         <v>100</v>
       </c>
       <c r="P291" s="20" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="Q291" s="26" t="s">
         <v>234</v>
@@ -24232,7 +24233,7 @@
         <v>100</v>
       </c>
       <c r="P292" s="20" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="Q292" s="26" t="s">
         <v>237</v>
@@ -24282,7 +24283,7 @@
         <v>100</v>
       </c>
       <c r="P293" s="20" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="Q293" s="26" t="s">
         <v>240</v>
@@ -24296,7 +24297,7 @@
         <v>241</v>
       </c>
       <c r="C294" s="20" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="D294" s="20">
         <v>2</v>
@@ -24332,7 +24333,7 @@
         <v>100</v>
       </c>
       <c r="P294" s="20" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="Q294" s="26" t="s">
         <v>243</v>
@@ -24382,7 +24383,7 @@
         <v>100</v>
       </c>
       <c r="P295" s="20" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="Q295" s="26" t="s">
         <v>246</v>
@@ -24432,7 +24433,7 @@
         <v>100</v>
       </c>
       <c r="P296" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q296" s="26" t="s">
         <v>149</v>
@@ -24482,10 +24483,10 @@
         <v>100</v>
       </c>
       <c r="P297" s="31" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="Q297" s="20" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="298" spans="1:17" x14ac:dyDescent="0.15">
@@ -24496,7 +24497,7 @@
         <v>347</v>
       </c>
       <c r="C298" s="31" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="D298" s="20">
         <v>2</v>
@@ -24532,10 +24533,10 @@
         <v>100</v>
       </c>
       <c r="P298" s="31" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="Q298" s="31" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="299" spans="1:17" x14ac:dyDescent="0.15">
@@ -24582,10 +24583,10 @@
         <v>100</v>
       </c>
       <c r="P299" s="20" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="Q299" s="26" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="300" spans="1:17" x14ac:dyDescent="0.15">
@@ -24632,7 +24633,7 @@
         <v>100</v>
       </c>
       <c r="P300" s="20" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="Q300" s="20" t="s">
         <v>119</v>
@@ -24682,10 +24683,10 @@
         <v>100</v>
       </c>
       <c r="P301" s="20" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="Q301" s="20" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="302" spans="1:17" x14ac:dyDescent="0.15">
@@ -24732,10 +24733,10 @@
         <v>100</v>
       </c>
       <c r="P302" s="20" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="Q302" s="20" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="303" spans="1:17" x14ac:dyDescent="0.15">
@@ -24782,7 +24783,7 @@
         <v>100</v>
       </c>
       <c r="P303" s="20" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="Q303" s="20" t="s">
         <v>76</v>
@@ -24832,10 +24833,10 @@
         <v>100</v>
       </c>
       <c r="P304" s="20" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="Q304" s="20" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="305" spans="1:17" x14ac:dyDescent="0.15">
@@ -24882,7 +24883,7 @@
         <v>100</v>
       </c>
       <c r="P305" s="31" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="Q305" s="28" t="s">
         <v>771</v>
@@ -24932,10 +24933,10 @@
         <v>100</v>
       </c>
       <c r="P306" s="20" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="Q306" s="20" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="307" spans="1:17" x14ac:dyDescent="0.15">
@@ -24982,10 +24983,10 @@
         <v>100</v>
       </c>
       <c r="P307" s="20" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="Q307" s="20" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="308" spans="1:17" x14ac:dyDescent="0.15">
@@ -25032,10 +25033,10 @@
         <v>100</v>
       </c>
       <c r="P308" s="20" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="Q308" s="26" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="309" spans="1:17" x14ac:dyDescent="0.15">
@@ -25082,10 +25083,10 @@
         <v>100</v>
       </c>
       <c r="P309" s="20" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="Q309" s="26" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="310" spans="1:17" x14ac:dyDescent="0.15">
@@ -25132,7 +25133,7 @@
         <v>100</v>
       </c>
       <c r="P310" s="20" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="Q310" s="26" t="s">
         <v>264</v>
@@ -25182,10 +25183,10 @@
         <v>100</v>
       </c>
       <c r="P311" s="20" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="Q311" s="26" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="312" spans="1:17" x14ac:dyDescent="0.15">
@@ -25232,10 +25233,10 @@
         <v>100</v>
       </c>
       <c r="P312" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="Q312" s="26" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="313" spans="1:17" x14ac:dyDescent="0.15">
@@ -25246,7 +25247,7 @@
         <v>59</v>
       </c>
       <c r="C313" s="31" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="D313" s="20">
         <v>2</v>
@@ -25282,7 +25283,7 @@
         <v>100</v>
       </c>
       <c r="Q313" s="26" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="314" spans="1:17" x14ac:dyDescent="0.15">
@@ -25329,10 +25330,10 @@
         <v>100</v>
       </c>
       <c r="P314" s="20" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="Q314" s="31" t="s">
-        <v>1767</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="315" spans="1:17" x14ac:dyDescent="0.15">
@@ -25343,7 +25344,7 @@
         <v>167</v>
       </c>
       <c r="C315" s="31" t="s">
-        <v>1768</v>
+        <v>1767</v>
       </c>
       <c r="D315" s="20">
         <v>2</v>
@@ -25379,10 +25380,10 @@
         <v>100</v>
       </c>
       <c r="P315" s="20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="Q315" s="26" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="316" spans="1:17" x14ac:dyDescent="0.15">
@@ -25393,7 +25394,7 @@
         <v>169</v>
       </c>
       <c r="C316" s="31" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="D316" s="20">
         <v>2</v>
@@ -25429,10 +25430,10 @@
         <v>100</v>
       </c>
       <c r="P316" s="20" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="Q316" s="26" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="317" spans="1:17" x14ac:dyDescent="0.15">
@@ -25479,10 +25480,10 @@
         <v>100</v>
       </c>
       <c r="P317" s="20" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="Q317" s="32" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="318" spans="1:17" x14ac:dyDescent="0.15">
@@ -25493,7 +25494,7 @@
         <v>311</v>
       </c>
       <c r="C318" s="31" t="s">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="D318" s="20">
         <v>2</v>
@@ -25529,10 +25530,10 @@
         <v>100</v>
       </c>
       <c r="P318" s="20" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="Q318" s="26" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="319" spans="1:17" x14ac:dyDescent="0.15">
@@ -25543,7 +25544,7 @@
         <v>320</v>
       </c>
       <c r="C319" s="31" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="D319" s="20">
         <v>2</v>
@@ -25579,7 +25580,7 @@
         <v>100</v>
       </c>
       <c r="Q319" s="31" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="320" spans="1:17" x14ac:dyDescent="0.15">
@@ -25590,7 +25591,7 @@
         <v>324</v>
       </c>
       <c r="C320" s="31" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="D320" s="20">
         <v>2</v>
@@ -25626,10 +25627,10 @@
         <v>100</v>
       </c>
       <c r="P320" s="20" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="Q320" s="20" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="321" spans="1:17" x14ac:dyDescent="0.15">
@@ -25640,7 +25641,7 @@
         <v>763</v>
       </c>
       <c r="C321" s="31" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D321" s="20">
         <v>2</v>
@@ -25676,7 +25677,7 @@
         <v>100</v>
       </c>
       <c r="P321" s="20" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="Q321" s="28" t="s">
         <v>762</v>
@@ -25690,7 +25691,7 @@
         <v>783</v>
       </c>
       <c r="C322" s="31" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="D322" s="20">
         <v>2</v>
@@ -25726,7 +25727,7 @@
         <v>100</v>
       </c>
       <c r="P322" s="20" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="Q322" s="28" t="s">
         <v>782</v>
@@ -25740,7 +25741,7 @@
         <v>786</v>
       </c>
       <c r="C323" s="31" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="D323" s="20">
         <v>2</v>
@@ -25787,7 +25788,7 @@
         <v>754</v>
       </c>
       <c r="C324" s="31" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="D324" s="20">
         <v>2</v>
@@ -25823,7 +25824,7 @@
         <v>100</v>
       </c>
       <c r="Q324" s="15" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="325" spans="1:17" x14ac:dyDescent="0.15">
@@ -25870,7 +25871,7 @@
         <v>100</v>
       </c>
       <c r="P325" s="20" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="Q325" s="28" t="s">
         <v>756</v>
@@ -25881,10 +25882,10 @@
         <v>22120001</v>
       </c>
       <c r="B326" s="20" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C326" s="20" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="D326" s="20">
         <v>2</v>
@@ -25893,7 +25894,7 @@
         <v>10</v>
       </c>
       <c r="F326" s="20" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="G326" s="20">
         <v>1</v>
@@ -25920,10 +25921,10 @@
         <v>500</v>
       </c>
       <c r="P326" s="20" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="Q326" s="20" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="327" spans="1:17" x14ac:dyDescent="0.15">
@@ -25931,10 +25932,10 @@
         <v>22120002</v>
       </c>
       <c r="B327" s="20" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C327" s="20" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="D327" s="20">
         <v>2</v>
@@ -25943,7 +25944,7 @@
         <v>10</v>
       </c>
       <c r="F327" s="30" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
       <c r="G327" s="20">
         <v>1</v>
@@ -25970,10 +25971,10 @@
         <v>500</v>
       </c>
       <c r="P327" s="20" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="Q327" s="20" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="328" spans="1:17" x14ac:dyDescent="0.15">
@@ -25981,10 +25982,10 @@
         <v>22120003</v>
       </c>
       <c r="B328" s="20" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C328" s="20" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="D328" s="20">
         <v>2</v>
@@ -25993,7 +25994,7 @@
         <v>10</v>
       </c>
       <c r="F328" s="28" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="G328" s="20">
         <v>1</v>
@@ -26020,10 +26021,10 @@
         <v>500</v>
       </c>
       <c r="P328" s="20" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="Q328" s="20" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="329" spans="1:17" x14ac:dyDescent="0.15">
@@ -26031,10 +26032,10 @@
         <v>22120004</v>
       </c>
       <c r="B329" s="30" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C329" s="20" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D329" s="20">
         <v>2</v>
@@ -26043,7 +26044,7 @@
         <v>10</v>
       </c>
       <c r="F329" s="30" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="G329" s="20">
         <v>1</v>
@@ -26070,10 +26071,10 @@
         <v>500</v>
       </c>
       <c r="P329" s="20" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="Q329" s="20" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="330" spans="1:17" x14ac:dyDescent="0.15">
@@ -26081,10 +26082,10 @@
         <v>22120005</v>
       </c>
       <c r="B330" s="30" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C330" s="20" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="D330" s="20">
         <v>2</v>
@@ -26093,7 +26094,7 @@
         <v>10</v>
       </c>
       <c r="F330" s="30" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="G330" s="20">
         <v>1</v>
@@ -26120,10 +26121,10 @@
         <v>500</v>
       </c>
       <c r="P330" s="20" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="Q330" s="20" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="331" spans="1:17" x14ac:dyDescent="0.15">
@@ -26131,10 +26132,10 @@
         <v>22120006</v>
       </c>
       <c r="B331" s="28" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C331" s="20" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="D331" s="20">
         <v>2</v>
@@ -26143,7 +26144,7 @@
         <v>10</v>
       </c>
       <c r="F331" s="28" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="G331" s="20">
         <v>1</v>
@@ -26170,10 +26171,10 @@
         <v>500</v>
       </c>
       <c r="P331" s="20" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="Q331" s="20" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="332" spans="1:17" x14ac:dyDescent="0.15">
@@ -26181,10 +26182,10 @@
         <v>22120007</v>
       </c>
       <c r="B332" s="28" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C332" s="20" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="D332" s="20">
         <v>2</v>
@@ -26193,7 +26194,7 @@
         <v>10</v>
       </c>
       <c r="F332" s="28" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="G332" s="20">
         <v>1</v>
@@ -26220,10 +26221,10 @@
         <v>500</v>
       </c>
       <c r="P332" s="20" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="Q332" s="20" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="333" spans="1:17" x14ac:dyDescent="0.15">
@@ -26231,10 +26232,10 @@
         <v>22120008</v>
       </c>
       <c r="B333" s="30" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C333" s="20" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="D333" s="20">
         <v>2</v>
@@ -26243,7 +26244,7 @@
         <v>10</v>
       </c>
       <c r="F333" s="30" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="G333" s="20">
         <v>1</v>
@@ -26270,10 +26271,10 @@
         <v>500</v>
       </c>
       <c r="P333" s="20" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="Q333" s="20" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="334" spans="1:17" x14ac:dyDescent="0.15">
@@ -26281,11 +26282,11 @@
         <v>22120100</v>
       </c>
       <c r="B334" s="30" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C334" s="31" t="s">
         <v>1524</v>
       </c>
-      <c r="C334" s="31" t="s">
-        <v>1525</v>
-      </c>
       <c r="D334" s="30">
         <v>2</v>
       </c>
@@ -26293,7 +26294,7 @@
         <v>10</v>
       </c>
       <c r="F334" s="30" t="s">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="G334" s="30">
         <v>1</v>
@@ -26320,7 +26321,7 @@
         <v>100</v>
       </c>
       <c r="Q334" s="30" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="335" spans="1:17" x14ac:dyDescent="0.15">
@@ -26328,11 +26329,11 @@
         <v>22120101</v>
       </c>
       <c r="B335" s="30" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C335" s="20" t="s">
         <v>1527</v>
       </c>
-      <c r="C335" s="20" t="s">
-        <v>1528</v>
-      </c>
       <c r="D335" s="30">
         <v>2</v>
       </c>
@@ -26340,7 +26341,7 @@
         <v>10</v>
       </c>
       <c r="F335" s="30" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="G335" s="30">
         <v>1</v>
@@ -26367,7 +26368,7 @@
         <v>100</v>
       </c>
       <c r="Q335" s="30" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="336" spans="1:17" x14ac:dyDescent="0.15">
@@ -26375,11 +26376,11 @@
         <v>22120102</v>
       </c>
       <c r="B336" s="30" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C336" s="20" t="s">
         <v>1530</v>
       </c>
-      <c r="C336" s="20" t="s">
-        <v>1531</v>
-      </c>
       <c r="D336" s="30">
         <v>2</v>
       </c>
@@ -26387,7 +26388,7 @@
         <v>10</v>
       </c>
       <c r="F336" s="30" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="G336" s="30">
         <v>1</v>
@@ -26414,7 +26415,7 @@
         <v>100</v>
       </c>
       <c r="Q336" s="20" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="337" spans="1:17" x14ac:dyDescent="0.15">
@@ -26422,19 +26423,19 @@
         <v>22120103</v>
       </c>
       <c r="B337" s="30" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C337" s="31" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D337" s="30">
+        <v>2</v>
+      </c>
+      <c r="E337" s="20">
+        <v>10</v>
+      </c>
+      <c r="F337" s="30" t="s">
         <v>1553</v>
-      </c>
-      <c r="C337" s="31" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D337" s="30">
-        <v>2</v>
-      </c>
-      <c r="E337" s="20">
-        <v>10</v>
-      </c>
-      <c r="F337" s="30" t="s">
-        <v>1554</v>
       </c>
       <c r="G337" s="30">
         <v>1</v>
@@ -26461,7 +26462,7 @@
         <v>100</v>
       </c>
       <c r="Q337" s="20" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="338" spans="1:17" x14ac:dyDescent="0.15">
@@ -26469,19 +26470,19 @@
         <v>22120104</v>
       </c>
       <c r="B338" s="30" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C338" s="20" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D338" s="30">
+        <v>2</v>
+      </c>
+      <c r="E338" s="20">
+        <v>10</v>
+      </c>
+      <c r="F338" s="30" t="s">
         <v>1555</v>
-      </c>
-      <c r="C338" s="20" t="s">
-        <v>1533</v>
-      </c>
-      <c r="D338" s="30">
-        <v>2</v>
-      </c>
-      <c r="E338" s="20">
-        <v>10</v>
-      </c>
-      <c r="F338" s="30" t="s">
-        <v>1556</v>
       </c>
       <c r="G338" s="30">
         <v>1</v>
@@ -26508,7 +26509,7 @@
         <v>100</v>
       </c>
       <c r="Q338" s="20" t="s">
-        <v>1533</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="339" spans="1:17" x14ac:dyDescent="0.15">
@@ -26516,19 +26517,19 @@
         <v>22120105</v>
       </c>
       <c r="B339" s="30" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C339" s="20" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D339" s="30">
+        <v>2</v>
+      </c>
+      <c r="E339" s="20">
+        <v>10</v>
+      </c>
+      <c r="F339" s="30" t="s">
         <v>1557</v>
-      </c>
-      <c r="C339" s="20" t="s">
-        <v>1534</v>
-      </c>
-      <c r="D339" s="30">
-        <v>2</v>
-      </c>
-      <c r="E339" s="20">
-        <v>10</v>
-      </c>
-      <c r="F339" s="30" t="s">
-        <v>1558</v>
       </c>
       <c r="G339" s="30">
         <v>1</v>
@@ -26555,7 +26556,7 @@
         <v>100</v>
       </c>
       <c r="Q339" s="20" t="s">
-        <v>1534</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="340" spans="1:17" x14ac:dyDescent="0.15">
@@ -26563,19 +26564,19 @@
         <v>22120106</v>
       </c>
       <c r="B340" s="30" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C340" s="20" t="s">
+        <v>1534</v>
+      </c>
+      <c r="D340" s="30">
+        <v>2</v>
+      </c>
+      <c r="E340" s="20">
+        <v>10</v>
+      </c>
+      <c r="F340" s="30" t="s">
         <v>1559</v>
-      </c>
-      <c r="C340" s="20" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D340" s="30">
-        <v>2</v>
-      </c>
-      <c r="E340" s="20">
-        <v>10</v>
-      </c>
-      <c r="F340" s="30" t="s">
-        <v>1560</v>
       </c>
       <c r="G340" s="30">
         <v>1</v>
@@ -26602,7 +26603,7 @@
         <v>100</v>
       </c>
       <c r="Q340" s="20" t="s">
-        <v>1535</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="341" spans="1:17" x14ac:dyDescent="0.15">
@@ -26610,19 +26611,19 @@
         <v>22120107</v>
       </c>
       <c r="B341" s="30" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C341" s="20" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D341" s="30">
+        <v>2</v>
+      </c>
+      <c r="E341" s="20">
+        <v>10</v>
+      </c>
+      <c r="F341" s="30" t="s">
         <v>1561</v>
-      </c>
-      <c r="C341" s="20" t="s">
-        <v>1538</v>
-      </c>
-      <c r="D341" s="30">
-        <v>2</v>
-      </c>
-      <c r="E341" s="20">
-        <v>10</v>
-      </c>
-      <c r="F341" s="30" t="s">
-        <v>1562</v>
       </c>
       <c r="G341" s="30">
         <v>1</v>
@@ -26649,7 +26650,7 @@
         <v>100</v>
       </c>
       <c r="Q341" s="20" t="s">
-        <v>1538</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="342" spans="1:17" x14ac:dyDescent="0.15">
@@ -26657,19 +26658,19 @@
         <v>22120108</v>
       </c>
       <c r="B342" s="30" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C342" s="20" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D342" s="30">
+        <v>2</v>
+      </c>
+      <c r="E342" s="20">
+        <v>10</v>
+      </c>
+      <c r="F342" s="30" t="s">
         <v>1563</v>
-      </c>
-      <c r="C342" s="20" t="s">
-        <v>1539</v>
-      </c>
-      <c r="D342" s="30">
-        <v>2</v>
-      </c>
-      <c r="E342" s="20">
-        <v>10</v>
-      </c>
-      <c r="F342" s="30" t="s">
-        <v>1564</v>
       </c>
       <c r="G342" s="30">
         <v>1</v>
@@ -26696,7 +26697,7 @@
         <v>100</v>
       </c>
       <c r="Q342" s="20" t="s">
-        <v>1539</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="343" spans="1:17" x14ac:dyDescent="0.15">
@@ -26704,19 +26705,19 @@
         <v>22120109</v>
       </c>
       <c r="B343" s="30" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C343" s="20" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D343" s="30">
+        <v>2</v>
+      </c>
+      <c r="E343" s="20">
+        <v>10</v>
+      </c>
+      <c r="F343" s="30" t="s">
         <v>1565</v>
-      </c>
-      <c r="C343" s="20" t="s">
-        <v>1540</v>
-      </c>
-      <c r="D343" s="30">
-        <v>2</v>
-      </c>
-      <c r="E343" s="20">
-        <v>10</v>
-      </c>
-      <c r="F343" s="30" t="s">
-        <v>1566</v>
       </c>
       <c r="G343" s="30">
         <v>1</v>
@@ -26743,7 +26744,7 @@
         <v>100</v>
       </c>
       <c r="Q343" s="20" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="344" spans="1:17" x14ac:dyDescent="0.15">
@@ -26751,10 +26752,10 @@
         <v>22120110</v>
       </c>
       <c r="B344" s="30" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
       <c r="C344" s="20" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="D344" s="30">
         <v>2</v>
@@ -26763,7 +26764,7 @@
         <v>10</v>
       </c>
       <c r="F344" s="30" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="G344" s="30">
         <v>1</v>
@@ -26790,7 +26791,7 @@
         <v>100</v>
       </c>
       <c r="Q344" s="20" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="345" spans="1:17" x14ac:dyDescent="0.15">
@@ -26798,10 +26799,10 @@
         <v>22120111</v>
       </c>
       <c r="B345" s="30" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
       <c r="C345" s="20" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
       <c r="D345" s="30">
         <v>2</v>
@@ -26810,7 +26811,7 @@
         <v>10</v>
       </c>
       <c r="F345" s="30" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="G345" s="30">
         <v>1</v>
@@ -26837,7 +26838,7 @@
         <v>100</v>
       </c>
       <c r="Q345" s="20" t="s">
-        <v>1542</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="346" spans="1:17" x14ac:dyDescent="0.15">
@@ -26845,19 +26846,19 @@
         <v>22120112</v>
       </c>
       <c r="B346" s="30" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C346" s="31" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D346" s="30">
+        <v>2</v>
+      </c>
+      <c r="E346" s="20">
+        <v>10</v>
+      </c>
+      <c r="F346" s="30" t="s">
         <v>1569</v>
-      </c>
-      <c r="C346" s="31" t="s">
-        <v>1543</v>
-      </c>
-      <c r="D346" s="30">
-        <v>2</v>
-      </c>
-      <c r="E346" s="20">
-        <v>10</v>
-      </c>
-      <c r="F346" s="30" t="s">
-        <v>1570</v>
       </c>
       <c r="G346" s="30">
         <v>1</v>
@@ -26884,7 +26885,7 @@
         <v>100</v>
       </c>
       <c r="Q346" s="20" t="s">
-        <v>1543</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="347" spans="1:17" x14ac:dyDescent="0.15">
@@ -26892,19 +26893,19 @@
         <v>22120113</v>
       </c>
       <c r="B347" s="30" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C347" s="31" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D347" s="30">
+        <v>2</v>
+      </c>
+      <c r="E347" s="20">
+        <v>10</v>
+      </c>
+      <c r="F347" s="30" t="s">
         <v>1571</v>
-      </c>
-      <c r="C347" s="31" t="s">
-        <v>1544</v>
-      </c>
-      <c r="D347" s="30">
-        <v>2</v>
-      </c>
-      <c r="E347" s="20">
-        <v>10</v>
-      </c>
-      <c r="F347" s="30" t="s">
-        <v>1572</v>
       </c>
       <c r="G347" s="30">
         <v>1</v>
@@ -26931,7 +26932,7 @@
         <v>100</v>
       </c>
       <c r="Q347" s="20" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="348" spans="1:17" x14ac:dyDescent="0.15">
@@ -26939,19 +26940,19 @@
         <v>22120114</v>
       </c>
       <c r="B348" s="30" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C348" s="20" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D348" s="30">
+        <v>2</v>
+      </c>
+      <c r="E348" s="20">
+        <v>10</v>
+      </c>
+      <c r="F348" s="30" t="s">
         <v>1573</v>
-      </c>
-      <c r="C348" s="20" t="s">
-        <v>1545</v>
-      </c>
-      <c r="D348" s="30">
-        <v>2</v>
-      </c>
-      <c r="E348" s="20">
-        <v>10</v>
-      </c>
-      <c r="F348" s="30" t="s">
-        <v>1574</v>
       </c>
       <c r="G348" s="30">
         <v>1</v>
@@ -26978,7 +26979,7 @@
         <v>100</v>
       </c>
       <c r="Q348" s="20" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="349" spans="1:17" x14ac:dyDescent="0.15">
@@ -26986,19 +26987,19 @@
         <v>22120115</v>
       </c>
       <c r="B349" s="30" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C349" s="20" t="s">
+        <v>1545</v>
+      </c>
+      <c r="D349" s="30">
+        <v>2</v>
+      </c>
+      <c r="E349" s="20">
+        <v>10</v>
+      </c>
+      <c r="F349" s="30" t="s">
         <v>1575</v>
-      </c>
-      <c r="C349" s="20" t="s">
-        <v>1546</v>
-      </c>
-      <c r="D349" s="30">
-        <v>2</v>
-      </c>
-      <c r="E349" s="20">
-        <v>10</v>
-      </c>
-      <c r="F349" s="30" t="s">
-        <v>1576</v>
       </c>
       <c r="G349" s="30">
         <v>1</v>
@@ -27025,7 +27026,7 @@
         <v>100</v>
       </c>
       <c r="Q349" s="20" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="350" spans="1:17" x14ac:dyDescent="0.15">
@@ -27033,19 +27034,19 @@
         <v>22120116</v>
       </c>
       <c r="B350" s="30" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C350" s="20" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D350" s="30">
+        <v>2</v>
+      </c>
+      <c r="E350" s="20">
+        <v>10</v>
+      </c>
+      <c r="F350" s="30" t="s">
         <v>1577</v>
-      </c>
-      <c r="C350" s="20" t="s">
-        <v>1547</v>
-      </c>
-      <c r="D350" s="30">
-        <v>2</v>
-      </c>
-      <c r="E350" s="20">
-        <v>10</v>
-      </c>
-      <c r="F350" s="30" t="s">
-        <v>1578</v>
       </c>
       <c r="G350" s="30">
         <v>1</v>
@@ -27072,7 +27073,7 @@
         <v>100</v>
       </c>
       <c r="Q350" s="20" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="351" spans="1:17" x14ac:dyDescent="0.15">
@@ -27080,11 +27081,11 @@
         <v>22120117</v>
       </c>
       <c r="B351" s="30" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C351" s="31" t="s">
         <v>1548</v>
       </c>
-      <c r="C351" s="31" t="s">
-        <v>1549</v>
-      </c>
       <c r="D351" s="30">
         <v>2</v>
       </c>
@@ -27092,7 +27093,7 @@
         <v>10</v>
       </c>
       <c r="F351" s="30" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="G351" s="30">
         <v>1</v>
@@ -27119,7 +27120,7 @@
         <v>100</v>
       </c>
       <c r="Q351" s="20" t="s">
-        <v>1549</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="352" spans="1:17" x14ac:dyDescent="0.15">
@@ -27127,19 +27128,19 @@
         <v>22120201</v>
       </c>
       <c r="B352" s="6" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C352" s="31" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D352" s="30">
+        <v>2</v>
+      </c>
+      <c r="E352" s="20">
+        <v>10</v>
+      </c>
+      <c r="F352" s="6" t="s">
         <v>1581</v>
-      </c>
-      <c r="C352" s="31" t="s">
-        <v>1580</v>
-      </c>
-      <c r="D352" s="30">
-        <v>2</v>
-      </c>
-      <c r="E352" s="20">
-        <v>10</v>
-      </c>
-      <c r="F352" s="6" t="s">
-        <v>1582</v>
       </c>
       <c r="G352" s="30">
         <v>1</v>
@@ -27166,7 +27167,7 @@
         <v>100</v>
       </c>
       <c r="Q352" s="20" t="s">
-        <v>1580</v>
+        <v>1579</v>
       </c>
     </row>
   </sheetData>
@@ -27348,16 +27349,16 @@
         <v>712</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>713</v>
@@ -27401,16 +27402,16 @@
         <v>726</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>701</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>702</v>
@@ -27454,16 +27455,16 @@
         <v>725</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>722</v>
@@ -27474,10 +27475,10 @@
         <v>22200001</v>
       </c>
       <c r="B4" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="C4" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -27486,7 +27487,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -27510,10 +27511,10 @@
         <v>22200002</v>
       </c>
       <c r="B5" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C5" t="s">
         <v>1506</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1507</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -27522,7 +27523,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -27549,7 +27550,7 @@
         <v>604</v>
       </c>
       <c r="C6" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -27585,7 +27586,7 @@
         <v>607</v>
       </c>
       <c r="C7" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -27621,7 +27622,7 @@
         <v>610</v>
       </c>
       <c r="C8" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -27657,7 +27658,7 @@
         <v>613</v>
       </c>
       <c r="C9" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -27693,7 +27694,7 @@
         <v>616</v>
       </c>
       <c r="C10" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -27729,7 +27730,7 @@
         <v>619</v>
       </c>
       <c r="C11" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -27765,7 +27766,7 @@
         <v>622</v>
       </c>
       <c r="C12" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -27801,7 +27802,7 @@
         <v>625</v>
       </c>
       <c r="C13" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -27837,7 +27838,7 @@
         <v>628</v>
       </c>
       <c r="C14" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -27873,7 +27874,7 @@
         <v>349</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -27913,7 +27914,7 @@
         <v>352</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -27953,7 +27954,7 @@
         <v>355</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -27993,7 +27994,7 @@
         <v>358</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -28033,7 +28034,7 @@
         <v>361</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -28073,7 +28074,7 @@
         <v>364</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -28169,11 +28170,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q121"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B40" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28227,16 +28228,16 @@
         <v>712</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>713</v>
@@ -28280,16 +28281,16 @@
         <v>726</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1584</v>
+        <v>1583</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>701</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>702</v>
@@ -28333,16 +28334,16 @@
         <v>725</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>1519</v>
+        <v>1518</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>722</v>
@@ -28356,7 +28357,7 @@
         <v>631</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -28388,10 +28389,10 @@
         <v>22301201</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1811</v>
+        <v>1810</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -28400,7 +28401,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -28421,7 +28422,7 @@
         <v>729</v>
       </c>
       <c r="Q5" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
@@ -28429,10 +28430,10 @@
         <v>22301202</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1812</v>
+        <v>1811</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -28441,7 +28442,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -28462,7 +28463,7 @@
         <v>729</v>
       </c>
       <c r="Q6" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -28470,10 +28471,10 @@
         <v>22301203</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -28482,7 +28483,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -28503,7 +28504,7 @@
         <v>729</v>
       </c>
       <c r="Q7" t="s">
-        <v>1810</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
@@ -28514,7 +28515,7 @@
         <v>1034</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -28555,7 +28556,7 @@
         <v>1035</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -28883,7 +28884,7 @@
         <v>1043</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -29047,7 +29048,7 @@
         <v>993</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -29621,7 +29622,7 @@
         <v>1023</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -29785,7 +29786,7 @@
         <v>855</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -29826,7 +29827,7 @@
         <v>856</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -29867,7 +29868,7 @@
         <v>857</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -29908,7 +29909,7 @@
         <v>858</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -31158,7 +31159,7 @@
         <v>736</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>1183</v>
+        <v>1817</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -31196,7 +31197,7 @@
         <v>639</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -31234,7 +31235,7 @@
         <v>641</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
@@ -31272,7 +31273,7 @@
         <v>643</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -31310,7 +31311,7 @@
         <v>645</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
@@ -31348,7 +31349,7 @@
         <v>647</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -31386,7 +31387,7 @@
         <v>649</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -31424,7 +31425,7 @@
         <v>686</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -31463,7 +31464,7 @@
         <v>847</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -31502,7 +31503,7 @@
         <v>691</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -31541,7 +31542,7 @@
         <v>694</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -31577,10 +31578,10 @@
         <v>22301601</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -31616,10 +31617,10 @@
         <v>22301602</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -31655,10 +31656,10 @@
         <v>22301603</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -31686,7 +31687,7 @@
         <v>727</v>
       </c>
       <c r="Q86" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.15">
@@ -31694,10 +31695,10 @@
         <v>22301604</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -31706,7 +31707,7 @@
         <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -31725,7 +31726,7 @@
         <v>727</v>
       </c>
       <c r="Q87" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.15">
@@ -31736,7 +31737,7 @@
         <v>653</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -31777,7 +31778,7 @@
         <v>654</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -31818,7 +31819,7 @@
         <v>656</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -31859,7 +31860,7 @@
         <v>658</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -31900,7 +31901,7 @@
         <v>660</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -31941,7 +31942,7 @@
         <v>662</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -31982,7 +31983,7 @@
         <v>818</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -32023,7 +32024,7 @@
         <v>819</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -32064,7 +32065,7 @@
         <v>820</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -32105,7 +32106,7 @@
         <v>730</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -32146,7 +32147,7 @@
         <v>665</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -32187,7 +32188,7 @@
         <v>667</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -32228,7 +32229,7 @@
         <v>669</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -32269,7 +32270,7 @@
         <v>671</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -32310,7 +32311,7 @@
         <v>673</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="D102" s="4">
         <v>1</v>
@@ -32351,7 +32352,7 @@
         <v>842</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -32392,7 +32393,7 @@
         <v>843</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
@@ -32433,7 +32434,7 @@
         <v>844</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
@@ -32474,7 +32475,7 @@
         <v>675</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
@@ -32515,7 +32516,7 @@
         <v>677</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="D107" s="4">
         <v>1</v>
@@ -32553,10 +32554,10 @@
         <v>22302103</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="D108" s="4">
         <v>1</v>
@@ -32565,7 +32566,7 @@
         <v>13</v>
       </c>
       <c r="F108" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -32594,10 +32595,10 @@
         <v>22302104</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -32606,7 +32607,7 @@
         <v>13</v>
       </c>
       <c r="F109" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -32635,10 +32636,10 @@
         <v>22302105</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
@@ -32647,7 +32648,7 @@
         <v>13</v>
       </c>
       <c r="F110" t="s">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -32676,10 +32677,10 @@
         <v>22302106</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -32688,7 +32689,7 @@
         <v>13</v>
       </c>
       <c r="F111" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -32717,10 +32718,10 @@
         <v>22302107</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>1805</v>
+        <v>1804</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
@@ -32729,7 +32730,7 @@
         <v>13</v>
       </c>
       <c r="F112" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="G112" s="14">
         <v>1</v>
@@ -32760,10 +32761,10 @@
         <v>22302108</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>1807</v>
+        <v>1806</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
@@ -32772,7 +32773,7 @@
         <v>13</v>
       </c>
       <c r="F113" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
       <c r="G113" s="14">
         <v>1</v>
@@ -32803,10 +32804,10 @@
         <v>22302109</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="D114" s="4">
         <v>1</v>
@@ -32815,7 +32816,7 @@
         <v>13</v>
       </c>
       <c r="F114" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="G114" s="14">
         <v>1</v>
@@ -32849,7 +32850,7 @@
         <v>975</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="D115" s="4">
         <v>1</v>
@@ -32890,7 +32891,7 @@
         <v>976</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="D116" s="4">
         <v>1</v>
@@ -32931,7 +32932,7 @@
         <v>977</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="D117" s="4">
         <v>1</v>
@@ -32972,7 +32973,7 @@
         <v>979</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>
@@ -33013,7 +33014,7 @@
         <v>983</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="D119" s="6">
         <v>1</v>
@@ -33056,7 +33057,7 @@
         <v>984</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="D120" s="6">
         <v>1</v>
@@ -33099,7 +33100,7 @@
         <v>988</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="D121" s="6">
         <v>1</v>
@@ -33211,12 +33212,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="B2">
         <f>COUNTIF(材料!P:P,"*"&amp;A2&amp;"*")</f>
@@ -33225,7 +33226,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="B3">
         <f>COUNTIF(材料!P:P,"*"&amp;A3&amp;"*")</f>
@@ -33234,7 +33235,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="B4">
         <f>COUNTIF(材料!P:P,"*"&amp;A4&amp;"*")</f>
@@ -33243,7 +33244,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="B5">
         <f>COUNTIF(材料!P:P,"*"&amp;A5&amp;"*")</f>
@@ -33252,7 +33253,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="B6">
         <f>COUNTIF(材料!P:P,"*"&amp;A6&amp;"*")</f>
@@ -33261,7 +33262,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="B7">
         <f>COUNTIF(材料!P:P,"*"&amp;A7&amp;"*")</f>
@@ -33270,7 +33271,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B8">
         <f>COUNTIF(材料!P:P,"*"&amp;A8&amp;"*")</f>
@@ -33279,7 +33280,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B9">
         <f>COUNTIF(材料!P:P,"*"&amp;A9&amp;"*")</f>
@@ -33288,7 +33289,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="B10">
         <f>COUNTIF(材料!P:P,"*"&amp;A10&amp;"*")</f>
@@ -33297,7 +33298,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B11">
         <f>COUNTIF(材料!P:P,"*"&amp;A11&amp;"*")</f>
@@ -33306,7 +33307,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="B12">
         <f>COUNTIF(材料!P:P,"*"&amp;A12&amp;"*")</f>
@@ -33315,7 +33316,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B13">
         <f>COUNTIF(材料!P:P,"*"&amp;A13&amp;"*")</f>
@@ -33324,7 +33325,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B14">
         <f>COUNTIF(材料!P:P,"*"&amp;A14&amp;"*")</f>
@@ -33333,7 +33334,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="B15">
         <f>COUNTIF(材料!P:P,"*"&amp;A15&amp;"*")</f>
@@ -33342,7 +33343,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="B16">
         <f>COUNTIF(材料!P:P,"*"&amp;A16&amp;"*")</f>
@@ -33351,7 +33352,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="B17">
         <f>COUNTIF(材料!P:P,"*"&amp;A17&amp;"*")</f>
@@ -33360,7 +33361,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="B18">
         <f>COUNTIF(材料!P:P,"*"&amp;A18&amp;"*")</f>
@@ -33369,7 +33370,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B19">
         <f>COUNTIF(材料!P:P,"*"&amp;A19&amp;"*")</f>

--- a/ConfigData/Xlsx/HItem.xlsx
+++ b/ConfigData/Xlsx/HItem.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TOMClassic\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{E130C083-C360-42AA-8A84-03CE4F0761B4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="2"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="材料" sheetId="1" r:id="rId1"/>
@@ -25,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Real</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -89,12 +90,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Real</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -153,12 +154,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Real</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -217,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="1818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="1817">
   <si>
     <t>血蓟</t>
   </si>
@@ -3335,10 +3336,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>在场景中移动距离提升至5，持续10回合</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>坐骑黑豹</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -3355,13 +3352,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>zuoqichuan</t>
-  </si>
-  <si>
-    <t>坐骑传送器</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>在场景中移动距离提升至99，持续10回合</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -4015,9 +4005,6 @@
   </si>
   <si>
     <t>zuoqiying</t>
-  </si>
-  <si>
-    <t>zuoqichuansongqi</t>
   </si>
   <si>
     <t>sucaidaigaoji</t>
@@ -6360,11 +6347,23 @@
     <t>jinbi</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>珏玉</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>jueyu</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用后提升5点城堡能量值</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -9138,87 +9137,87 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:Q352" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75" tableBorderDxfId="74">
-  <autoFilter ref="A3:Q352"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A3:Q352" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75" tableBorderDxfId="74">
+  <autoFilter ref="A3:Q352" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A4:Q352">
     <sortCondition ref="A3:A352"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" name="Id" dataDxfId="73"/>
-    <tableColumn id="2" name="Name" dataDxfId="72"/>
-    <tableColumn id="10" name="Ename"/>
-    <tableColumn id="3" name="Type" dataDxfId="71"/>
-    <tableColumn id="13" name="SubType"/>
-    <tableColumn id="4" name="Descript" dataDxfId="70"/>
-    <tableColumn id="5" name="Level" dataDxfId="69"/>
-    <tableColumn id="6" name="Rare" dataDxfId="68"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="67"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="66"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="65"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="64"/>
-    <tableColumn id="17" name="ShowCollectTip" dataDxfId="63"/>
-    <tableColumn id="16" name="RandomGroup"/>
-    <tableColumn id="15" name="Frequency" dataDxfId="62"/>
-    <tableColumn id="9" name="Attributes"/>
-    <tableColumn id="14" name="Url" dataDxfId="61"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="73"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="72"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Ename"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Type" dataDxfId="71"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="SubType"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Descript" dataDxfId="70"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Level" dataDxfId="69"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Rare" dataDxfId="68"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MaxPile" dataDxfId="67"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ValueFactor" dataDxfId="66"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="IsUsable" dataDxfId="65"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="IsThrowable" dataDxfId="64"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="ShowCollectTip" dataDxfId="63"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="RandomGroup"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Frequency" dataDxfId="62"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Attributes"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Url" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:Q20" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48" tableBorderDxfId="47">
-  <autoFilter ref="A3:Q20"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表1_3" displayName="表1_3" ref="A3:Q20" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48" tableBorderDxfId="47">
+  <autoFilter ref="A3:Q20" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState ref="A4:R435">
     <sortCondition ref="A3:A435"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" name="Id" dataDxfId="46"/>
-    <tableColumn id="2" name="Name" dataDxfId="45"/>
-    <tableColumn id="10" name="Ename" dataDxfId="44"/>
-    <tableColumn id="3" name="Type" dataDxfId="43"/>
-    <tableColumn id="13" name="SubType" dataDxfId="42"/>
-    <tableColumn id="4" name="Descript" dataDxfId="41"/>
-    <tableColumn id="5" name="Level" dataDxfId="40"/>
-    <tableColumn id="6" name="Rare" dataDxfId="39"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="38"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="37"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="36"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="35"/>
-    <tableColumn id="17" name="ShowCollectTip" dataDxfId="34"/>
-    <tableColumn id="16" name="RandomGroup" dataDxfId="33"/>
-    <tableColumn id="15" name="Frequency" dataDxfId="32"/>
-    <tableColumn id="9" name="Attributes" dataDxfId="31"/>
-    <tableColumn id="14" name="Url" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Id" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="45"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Ename" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type" dataDxfId="43"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="SubType" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Descript" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Level" dataDxfId="40"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Rare" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="MaxPile" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="ValueFactor" dataDxfId="37"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="IsUsable" dataDxfId="36"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="IsThrowable" dataDxfId="35"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="ShowCollectTip" dataDxfId="34"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="RandomGroup" dataDxfId="33"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Frequency" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Attributes" dataDxfId="31"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Url" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:Q121" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="A3:Q121"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表1_34" displayName="表1_34" ref="A3:Q121" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="A3:Q121" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <sortState ref="A4:Q121">
     <sortCondition ref="A3:A121"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" name="Id" dataDxfId="14"/>
-    <tableColumn id="2" name="Name" dataDxfId="13"/>
-    <tableColumn id="10" name="Ename" dataDxfId="12"/>
-    <tableColumn id="3" name="Type" dataDxfId="11"/>
-    <tableColumn id="13" name="SubType" dataDxfId="10"/>
-    <tableColumn id="4" name="Descript" dataDxfId="9"/>
-    <tableColumn id="5" name="Level" dataDxfId="8"/>
-    <tableColumn id="6" name="Rare" dataDxfId="7"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="6"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="5"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="4"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="3"/>
-    <tableColumn id="17" name="ShowCollectTip"/>
-    <tableColumn id="16" name="RandomGroup"/>
-    <tableColumn id="15" name="Frequency" dataDxfId="2"/>
-    <tableColumn id="9" name="Attributes" dataDxfId="1"/>
-    <tableColumn id="14" name="Url" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Id" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Ename" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Type" dataDxfId="11"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="SubType" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Descript" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Level" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Rare" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="MaxPile" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="ValueFactor" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="IsUsable" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="IsThrowable" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="ShowCollectTip"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="RandomGroup"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="Frequency" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Attributes" dataDxfId="1"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Url" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9544,7 +9543,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9578,7 +9577,7 @@
         <v>704</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>705</v>
@@ -9608,16 +9607,16 @@
         <v>712</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="N1" s="18" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="Q1" s="19" t="s">
         <v>713</v>
@@ -9631,7 +9630,7 @@
         <v>702</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>701</v>
@@ -9661,16 +9660,16 @@
         <v>726</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="N2" s="22" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="O2" s="22" t="s">
-        <v>1263</v>
+        <v>1259</v>
       </c>
       <c r="P2" s="22" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="Q2" s="23" t="s">
         <v>702</v>
@@ -9684,7 +9683,7 @@
         <v>715</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>716</v>
@@ -9714,16 +9713,16 @@
         <v>725</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="N3" s="24" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="O3" s="24" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="P3" s="24" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q3" s="24" t="s">
         <v>722</v>
@@ -9737,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
       <c r="D4" s="26">
         <v>2</v>
@@ -9776,10 +9775,10 @@
         <v>500</v>
       </c>
       <c r="P4" s="20" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>1585</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
@@ -9790,7 +9789,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="D5" s="26">
         <v>2</v>
@@ -9799,7 +9798,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>1621</v>
+        <v>1617</v>
       </c>
       <c r="G5" s="26">
         <v>1</v>
@@ -9829,10 +9828,10 @@
         <v>500</v>
       </c>
       <c r="P5" s="20" t="s">
-        <v>1473</v>
+        <v>1469</v>
       </c>
       <c r="Q5" s="31" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
@@ -9843,7 +9842,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
       <c r="D6" s="26">
         <v>2</v>
@@ -9852,7 +9851,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="G6" s="26">
         <v>1</v>
@@ -9882,10 +9881,10 @@
         <v>500</v>
       </c>
       <c r="P6" s="20" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="Q6" s="31" t="s">
-        <v>1586</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -9896,7 +9895,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
       <c r="D7" s="26">
         <v>2</v>
@@ -9935,10 +9934,10 @@
         <v>500</v>
       </c>
       <c r="P7" s="20" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="Q7" s="31" t="s">
-        <v>1510</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
@@ -9949,7 +9948,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
       <c r="D8" s="26">
         <v>2</v>
@@ -9988,10 +9987,10 @@
         <v>500</v>
       </c>
       <c r="P8" s="20" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="Q8" s="31" t="s">
-        <v>1587</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
@@ -10002,7 +10001,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
       <c r="D9" s="26">
         <v>2</v>
@@ -10041,10 +10040,10 @@
         <v>500</v>
       </c>
       <c r="P9" s="20" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="Q9" s="31" t="s">
-        <v>1588</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
@@ -10055,7 +10054,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
       <c r="D10" s="26">
         <v>2</v>
@@ -10094,10 +10093,10 @@
         <v>500</v>
       </c>
       <c r="P10" s="20" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="Q10" s="31" t="s">
-        <v>1589</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
@@ -10108,7 +10107,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
       <c r="D11" s="26">
         <v>2</v>
@@ -10147,10 +10146,10 @@
         <v>500</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="Q11" s="31" t="s">
-        <v>1590</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
@@ -10158,10 +10157,10 @@
         <v>22100009</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>1612</v>
+        <v>1608</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
       <c r="D12" s="26">
         <v>2</v>
@@ -10200,10 +10199,10 @@
         <v>500</v>
       </c>
       <c r="P12" s="20" t="s">
-        <v>1474</v>
+        <v>1470</v>
       </c>
       <c r="Q12" s="31" t="s">
-        <v>1611</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
@@ -10211,10 +10210,10 @@
         <v>22100010</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>1613</v>
+        <v>1609</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
       <c r="D13" s="26">
         <v>2</v>
@@ -10253,10 +10252,10 @@
         <v>500</v>
       </c>
       <c r="P13" s="31" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="Q13" s="31" t="s">
-        <v>1614</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
@@ -10264,10 +10263,10 @@
         <v>22100011</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>1616</v>
+        <v>1612</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="D14" s="26">
         <v>2</v>
@@ -10306,10 +10305,10 @@
         <v>500</v>
       </c>
       <c r="P14" s="20" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="Q14" s="31" t="s">
-        <v>1615</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
@@ -10317,19 +10316,19 @@
         <v>22100012</v>
       </c>
       <c r="B15" s="32" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D15" s="26">
+        <v>2</v>
+      </c>
+      <c r="E15" s="20">
+        <v>10</v>
+      </c>
+      <c r="F15" s="32" t="s">
         <v>1618</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>1617</v>
-      </c>
-      <c r="D15" s="26">
-        <v>2</v>
-      </c>
-      <c r="E15" s="20">
-        <v>10</v>
-      </c>
-      <c r="F15" s="32" t="s">
-        <v>1622</v>
       </c>
       <c r="G15" s="26">
         <v>1</v>
@@ -10359,10 +10358,10 @@
         <v>500</v>
       </c>
       <c r="P15" s="31" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="Q15" s="31" t="s">
-        <v>1617</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
@@ -10370,10 +10369,10 @@
         <v>22100013</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>1620</v>
+        <v>1616</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
       <c r="D16" s="26">
         <v>2</v>
@@ -10382,7 +10381,7 @@
         <v>10</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>1628</v>
+        <v>1624</v>
       </c>
       <c r="G16" s="26">
         <v>1</v>
@@ -10412,10 +10411,10 @@
         <v>500</v>
       </c>
       <c r="P16" s="20" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="Q16" s="31" t="s">
-        <v>1619</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
@@ -10423,19 +10422,19 @@
         <v>22100014</v>
       </c>
       <c r="B17" s="32" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D17" s="26">
+        <v>2</v>
+      </c>
+      <c r="E17" s="20">
+        <v>10</v>
+      </c>
+      <c r="F17" s="32" t="s">
         <v>1627</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>1626</v>
-      </c>
-      <c r="D17" s="26">
-        <v>2</v>
-      </c>
-      <c r="E17" s="20">
-        <v>10</v>
-      </c>
-      <c r="F17" s="32" t="s">
-        <v>1631</v>
       </c>
       <c r="G17" s="26">
         <v>1</v>
@@ -10465,10 +10464,10 @@
         <v>500</v>
       </c>
       <c r="P17" s="31" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="Q17" s="31" t="s">
-        <v>1626</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
@@ -10476,10 +10475,10 @@
         <v>22100015</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>1630</v>
+        <v>1626</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
       <c r="D18" s="26">
         <v>2</v>
@@ -10488,7 +10487,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="G18" s="26">
         <v>1</v>
@@ -10518,10 +10517,10 @@
         <v>500</v>
       </c>
       <c r="P18" s="31" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="Q18" s="31" t="s">
-        <v>1629</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -10529,10 +10528,10 @@
         <v>22100016</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>1634</v>
+        <v>1630</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
       <c r="D19" s="26">
         <v>2</v>
@@ -10541,7 +10540,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>1635</v>
+        <v>1631</v>
       </c>
       <c r="G19" s="26">
         <v>1</v>
@@ -10571,10 +10570,10 @@
         <v>500</v>
       </c>
       <c r="P19" s="31" t="s">
-        <v>1633</v>
+        <v>1629</v>
       </c>
       <c r="Q19" s="31" t="s">
-        <v>1632</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -10582,10 +10581,10 @@
         <v>22100017</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
       <c r="D20" s="26">
         <v>2</v>
@@ -10594,7 +10593,7 @@
         <v>10</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>1631</v>
+        <v>1627</v>
       </c>
       <c r="G20" s="26">
         <v>1</v>
@@ -10624,10 +10623,10 @@
         <v>500</v>
       </c>
       <c r="P20" s="31" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="Q20" s="31" t="s">
-        <v>1636</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -10638,7 +10637,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="D21" s="26">
         <v>2</v>
@@ -10677,7 +10676,7 @@
         <v>500</v>
       </c>
       <c r="Q21" s="32" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
@@ -10688,7 +10687,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="D22" s="26">
         <v>2</v>
@@ -10727,10 +10726,10 @@
         <v>500</v>
       </c>
       <c r="P22" s="20" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="Q22" s="32" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
@@ -10741,7 +10740,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="D23" s="20">
         <v>2</v>
@@ -10780,7 +10779,7 @@
         <v>500</v>
       </c>
       <c r="Q23" s="31" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
@@ -10791,7 +10790,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
       <c r="D24" s="20">
         <v>2</v>
@@ -10830,7 +10829,7 @@
         <v>500</v>
       </c>
       <c r="Q24" s="31" t="s">
-        <v>1593</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
@@ -10841,7 +10840,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
       <c r="D25" s="20">
         <v>2</v>
@@ -10880,7 +10879,7 @@
         <v>500</v>
       </c>
       <c r="Q25" s="31" t="s">
-        <v>1594</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
@@ -10891,7 +10890,7 @@
         <v>20</v>
       </c>
       <c r="C26" s="31" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
       <c r="D26" s="20">
         <v>2</v>
@@ -10900,7 +10899,7 @@
         <v>10</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="G26" s="20">
         <v>1</v>
@@ -10930,7 +10929,7 @@
         <v>500</v>
       </c>
       <c r="Q26" s="31" t="s">
-        <v>1595</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
@@ -10941,7 +10940,7 @@
         <v>21</v>
       </c>
       <c r="C27" s="31" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
       <c r="D27" s="20">
         <v>2</v>
@@ -10950,7 +10949,7 @@
         <v>10</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="G27" s="20">
         <v>1</v>
@@ -10980,7 +10979,7 @@
         <v>500</v>
       </c>
       <c r="Q27" s="31" t="s">
-        <v>1596</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
@@ -10991,7 +10990,7 @@
         <v>22</v>
       </c>
       <c r="C28" s="31" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
       <c r="D28" s="20">
         <v>2</v>
@@ -11000,7 +10999,7 @@
         <v>10</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="G28" s="20">
         <v>1</v>
@@ -11030,7 +11029,7 @@
         <v>500</v>
       </c>
       <c r="Q28" s="31" t="s">
-        <v>1597</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
@@ -11038,10 +11037,10 @@
         <v>22100109</v>
       </c>
       <c r="B29" s="31" t="s">
-        <v>1639</v>
+        <v>1635</v>
       </c>
       <c r="C29" s="31" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
       <c r="D29" s="20">
         <v>2</v>
@@ -11050,7 +11049,7 @@
         <v>10</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="G29" s="20">
         <v>1</v>
@@ -11080,7 +11079,7 @@
         <v>500</v>
       </c>
       <c r="Q29" s="31" t="s">
-        <v>1638</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -11088,10 +11087,10 @@
         <v>22100110</v>
       </c>
       <c r="B30" s="31" t="s">
-        <v>1642</v>
+        <v>1638</v>
       </c>
       <c r="C30" s="31" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
       <c r="D30" s="20">
         <v>2</v>
@@ -11130,7 +11129,7 @@
         <v>500</v>
       </c>
       <c r="Q30" s="31" t="s">
-        <v>1641</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -11138,10 +11137,10 @@
         <v>22100111</v>
       </c>
       <c r="B31" s="31" t="s">
-        <v>1644</v>
+        <v>1640</v>
       </c>
       <c r="C31" s="31" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
       <c r="D31" s="20">
         <v>2</v>
@@ -11150,7 +11149,7 @@
         <v>10</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="G31" s="20">
         <v>1</v>
@@ -11180,7 +11179,7 @@
         <v>500</v>
       </c>
       <c r="Q31" s="31" t="s">
-        <v>1643</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -11188,10 +11187,10 @@
         <v>22100112</v>
       </c>
       <c r="B32" s="31" t="s">
-        <v>1646</v>
+        <v>1642</v>
       </c>
       <c r="C32" s="31" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
       <c r="D32" s="20">
         <v>2</v>
@@ -11230,7 +11229,7 @@
         <v>500</v>
       </c>
       <c r="Q32" s="31" t="s">
-        <v>1645</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -11238,10 +11237,10 @@
         <v>22100113</v>
       </c>
       <c r="B33" s="31" t="s">
-        <v>1648</v>
+        <v>1644</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
       <c r="D33" s="20">
         <v>2</v>
@@ -11250,7 +11249,7 @@
         <v>10</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="G33" s="20">
         <v>1</v>
@@ -11280,7 +11279,7 @@
         <v>500</v>
       </c>
       <c r="Q33" s="31" t="s">
-        <v>1647</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -11288,10 +11287,10 @@
         <v>22100114</v>
       </c>
       <c r="B34" s="31" t="s">
-        <v>1650</v>
+        <v>1646</v>
       </c>
       <c r="C34" s="31" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
       <c r="D34" s="20">
         <v>2</v>
@@ -11300,7 +11299,7 @@
         <v>10</v>
       </c>
       <c r="F34" s="31" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="G34" s="20">
         <v>1</v>
@@ -11330,7 +11329,7 @@
         <v>500</v>
       </c>
       <c r="Q34" s="31" t="s">
-        <v>1649</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
@@ -11338,10 +11337,10 @@
         <v>22100115</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>1652</v>
+        <v>1648</v>
       </c>
       <c r="C35" s="31" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
       <c r="D35" s="20">
         <v>2</v>
@@ -11350,7 +11349,7 @@
         <v>10</v>
       </c>
       <c r="F35" s="31" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="G35" s="20">
         <v>1</v>
@@ -11380,7 +11379,7 @@
         <v>500</v>
       </c>
       <c r="Q35" s="31" t="s">
-        <v>1651</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
@@ -11388,10 +11387,10 @@
         <v>22100116</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>1654</v>
+        <v>1650</v>
       </c>
       <c r="C36" s="31" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
       <c r="D36" s="20">
         <v>2</v>
@@ -11400,7 +11399,7 @@
         <v>10</v>
       </c>
       <c r="F36" s="31" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="G36" s="20">
         <v>1</v>
@@ -11430,7 +11429,7 @@
         <v>500</v>
       </c>
       <c r="Q36" s="31" t="s">
-        <v>1653</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
@@ -11438,10 +11437,10 @@
         <v>22100117</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>1656</v>
+        <v>1652</v>
       </c>
       <c r="C37" s="31" t="s">
-        <v>1657</v>
+        <v>1653</v>
       </c>
       <c r="D37" s="20">
         <v>2</v>
@@ -11450,7 +11449,7 @@
         <v>10</v>
       </c>
       <c r="F37" s="31" t="s">
-        <v>1640</v>
+        <v>1636</v>
       </c>
       <c r="G37" s="20">
         <v>1</v>
@@ -11480,7 +11479,7 @@
         <v>500</v>
       </c>
       <c r="Q37" s="31" t="s">
-        <v>1655</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
@@ -11488,10 +11487,10 @@
         <v>22100118</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>1660</v>
+        <v>1656</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>1658</v>
+        <v>1654</v>
       </c>
       <c r="D38" s="20">
         <v>2</v>
@@ -11500,7 +11499,7 @@
         <v>10</v>
       </c>
       <c r="F38" s="31" t="s">
-        <v>1661</v>
+        <v>1657</v>
       </c>
       <c r="G38" s="20">
         <v>1</v>
@@ -11530,10 +11529,10 @@
         <v>500</v>
       </c>
       <c r="P38" s="20" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="Q38" s="31" t="s">
-        <v>1659</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
@@ -11541,10 +11540,10 @@
         <v>22100119</v>
       </c>
       <c r="B39" s="31" t="s">
-        <v>1663</v>
+        <v>1659</v>
       </c>
       <c r="C39" s="31" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
       <c r="D39" s="20">
         <v>2</v>
@@ -11583,7 +11582,7 @@
         <v>500</v>
       </c>
       <c r="Q39" s="31" t="s">
-        <v>1662</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
@@ -11591,10 +11590,10 @@
         <v>22100120</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>1665</v>
+        <v>1661</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
       <c r="D40" s="20">
         <v>2</v>
@@ -11603,7 +11602,7 @@
         <v>10</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>1610</v>
+        <v>1606</v>
       </c>
       <c r="G40" s="20">
         <v>1</v>
@@ -11633,7 +11632,7 @@
         <v>500</v>
       </c>
       <c r="Q40" s="31" t="s">
-        <v>1664</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
@@ -11641,10 +11640,10 @@
         <v>22100201</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>1690</v>
+        <v>1686</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
       <c r="D41" s="20">
         <v>2</v>
@@ -11653,7 +11652,7 @@
         <v>10</v>
       </c>
       <c r="F41" s="31" t="s">
-        <v>1691</v>
+        <v>1687</v>
       </c>
       <c r="G41" s="20">
         <v>1</v>
@@ -11683,10 +11682,10 @@
         <v>500</v>
       </c>
       <c r="P41" s="20" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="Q41" s="31" t="s">
-        <v>1598</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.15">
@@ -11697,7 +11696,7 @@
         <v>23</v>
       </c>
       <c r="C42" s="31" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
       <c r="D42" s="20">
         <v>2</v>
@@ -11736,10 +11735,10 @@
         <v>500</v>
       </c>
       <c r="P42" s="20" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="Q42" s="31" t="s">
-        <v>1599</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.15">
@@ -11750,7 +11749,7 @@
         <v>25</v>
       </c>
       <c r="C43" s="31" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
       <c r="D43" s="20">
         <v>2</v>
@@ -11789,10 +11788,10 @@
         <v>500</v>
       </c>
       <c r="P43" s="20" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="Q43" s="31" t="s">
-        <v>1600</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.15">
@@ -11803,7 +11802,7 @@
         <v>27</v>
       </c>
       <c r="C44" s="31" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
       <c r="D44" s="20">
         <v>2</v>
@@ -11842,10 +11841,10 @@
         <v>500</v>
       </c>
       <c r="P44" s="20" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="Q44" s="31" t="s">
-        <v>1601</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
@@ -11856,7 +11855,7 @@
         <v>29</v>
       </c>
       <c r="C45" s="31" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="D45" s="20">
         <v>2</v>
@@ -11895,10 +11894,10 @@
         <v>500</v>
       </c>
       <c r="P45" s="20" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="Q45" s="31" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.15">
@@ -11909,7 +11908,7 @@
         <v>31</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
       <c r="D46" s="20">
         <v>2</v>
@@ -11948,10 +11947,10 @@
         <v>500</v>
       </c>
       <c r="P46" s="20" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="Q46" s="31" t="s">
-        <v>1603</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.15">
@@ -11962,7 +11961,7 @@
         <v>33</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
       <c r="D47" s="20">
         <v>2</v>
@@ -12001,10 +12000,10 @@
         <v>500</v>
       </c>
       <c r="P47" s="20" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="Q47" s="31" t="s">
-        <v>1604</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.15">
@@ -12015,7 +12014,7 @@
         <v>35</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
       <c r="D48" s="20">
         <v>2</v>
@@ -12054,10 +12053,10 @@
         <v>500</v>
       </c>
       <c r="P48" s="20" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="Q48" s="31" t="s">
-        <v>1605</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.15">
@@ -12065,10 +12064,10 @@
         <v>22100209</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>1684</v>
+        <v>1680</v>
       </c>
       <c r="C49" s="31" t="s">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="D49" s="20">
         <v>2</v>
@@ -12077,7 +12076,7 @@
         <v>10</v>
       </c>
       <c r="F49" s="31" t="s">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="G49" s="20">
         <v>1</v>
@@ -12107,10 +12106,10 @@
         <v>500</v>
       </c>
       <c r="P49" s="20" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="Q49" s="31" t="s">
-        <v>1682</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.15">
@@ -12118,10 +12117,10 @@
         <v>22100210</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>1687</v>
+        <v>1683</v>
       </c>
       <c r="C50" s="31" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
       <c r="D50" s="20">
         <v>2</v>
@@ -12130,7 +12129,7 @@
         <v>10</v>
       </c>
       <c r="F50" s="31" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="G50" s="20">
         <v>1</v>
@@ -12160,10 +12159,10 @@
         <v>500</v>
       </c>
       <c r="P50" s="20" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="Q50" s="31" t="s">
-        <v>1685</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.15">
@@ -12171,10 +12170,10 @@
         <v>22100211</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>1689</v>
+        <v>1685</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
       <c r="D51" s="20">
         <v>2</v>
@@ -12183,7 +12182,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="31" t="s">
-        <v>1686</v>
+        <v>1682</v>
       </c>
       <c r="G51" s="20">
         <v>1</v>
@@ -12213,10 +12212,10 @@
         <v>500</v>
       </c>
       <c r="P51" s="20" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="Q51" s="31" t="s">
-        <v>1688</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.15">
@@ -12224,10 +12223,10 @@
         <v>22100212</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>1693</v>
+        <v>1689</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
       <c r="D52" s="20">
         <v>2</v>
@@ -12236,7 +12235,7 @@
         <v>10</v>
       </c>
       <c r="F52" s="31" t="s">
-        <v>1694</v>
+        <v>1690</v>
       </c>
       <c r="G52" s="20">
         <v>1</v>
@@ -12266,10 +12265,10 @@
         <v>500</v>
       </c>
       <c r="P52" s="20" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="Q52" s="31" t="s">
-        <v>1692</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.15">
@@ -12277,10 +12276,10 @@
         <v>22100213</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>1696</v>
+        <v>1692</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="D53" s="20">
         <v>2</v>
@@ -12289,7 +12288,7 @@
         <v>10</v>
       </c>
       <c r="F53" s="31" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="G53" s="20">
         <v>1</v>
@@ -12319,10 +12318,10 @@
         <v>500</v>
       </c>
       <c r="P53" s="20" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="Q53" s="31" t="s">
-        <v>1695</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.15">
@@ -12330,10 +12329,10 @@
         <v>22100214</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>1700</v>
+        <v>1696</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
       <c r="D54" s="20">
         <v>2</v>
@@ -12342,7 +12341,7 @@
         <v>10</v>
       </c>
       <c r="F54" s="31" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="G54" s="20">
         <v>1</v>
@@ -12372,10 +12371,10 @@
         <v>500</v>
       </c>
       <c r="P54" s="20" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="Q54" s="31" t="s">
-        <v>1698</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.15">
@@ -12383,10 +12382,10 @@
         <v>22100215</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="D55" s="20">
         <v>2</v>
@@ -12395,7 +12394,7 @@
         <v>10</v>
       </c>
       <c r="F55" s="31" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="G55" s="20">
         <v>1</v>
@@ -12425,10 +12424,10 @@
         <v>500</v>
       </c>
       <c r="P55" s="20" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="Q55" s="31" t="s">
-        <v>1699</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.15">
@@ -12436,10 +12435,10 @@
         <v>22100216</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="D56" s="20">
         <v>2</v>
@@ -12448,7 +12447,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="31" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="G56" s="20">
         <v>1</v>
@@ -12478,10 +12477,10 @@
         <v>500</v>
       </c>
       <c r="P56" s="20" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="Q56" s="31" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.15">
@@ -12489,10 +12488,10 @@
         <v>22100217</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="D57" s="20">
         <v>2</v>
@@ -12501,7 +12500,7 @@
         <v>10</v>
       </c>
       <c r="F57" s="31" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="G57" s="20">
         <v>1</v>
@@ -12531,10 +12530,10 @@
         <v>500</v>
       </c>
       <c r="P57" s="20" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="Q57" s="31" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.15">
@@ -12542,10 +12541,10 @@
         <v>22100218</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="D58" s="20">
         <v>2</v>
@@ -12554,7 +12553,7 @@
         <v>10</v>
       </c>
       <c r="F58" s="31" t="s">
-        <v>1697</v>
+        <v>1693</v>
       </c>
       <c r="G58" s="20">
         <v>1</v>
@@ -12584,10 +12583,10 @@
         <v>500</v>
       </c>
       <c r="P58" s="20" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="Q58" s="31" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.15">
@@ -12595,10 +12594,10 @@
         <v>22100219</v>
       </c>
       <c r="B59" s="31" t="s">
-        <v>1709</v>
+        <v>1705</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="D59" s="20">
         <v>2</v>
@@ -12607,7 +12606,7 @@
         <v>10</v>
       </c>
       <c r="F59" s="31" t="s">
-        <v>1710</v>
+        <v>1706</v>
       </c>
       <c r="G59" s="20">
         <v>1</v>
@@ -12637,10 +12636,10 @@
         <v>500</v>
       </c>
       <c r="P59" s="20" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="Q59" s="31" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.15">
@@ -12651,7 +12650,7 @@
         <v>37</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
       <c r="D60" s="20">
         <v>2</v>
@@ -12690,7 +12689,7 @@
         <v>500</v>
       </c>
       <c r="Q60" s="31" t="s">
-        <v>1606</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.15">
@@ -12701,7 +12700,7 @@
         <v>39</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
       <c r="D61" s="20">
         <v>2</v>
@@ -12740,7 +12739,7 @@
         <v>500</v>
       </c>
       <c r="Q61" s="31" t="s">
-        <v>1607</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.15">
@@ -12751,7 +12750,7 @@
         <v>41</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
       <c r="D62" s="20">
         <v>2</v>
@@ -12790,7 +12789,7 @@
         <v>500</v>
       </c>
       <c r="Q62" s="31" t="s">
-        <v>1609</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.15">
@@ -12798,10 +12797,10 @@
         <v>22100304</v>
       </c>
       <c r="B63" s="31" t="s">
-        <v>1624</v>
+        <v>1620</v>
       </c>
       <c r="C63" s="31" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
       <c r="D63" s="20">
         <v>2</v>
@@ -12810,7 +12809,7 @@
         <v>10</v>
       </c>
       <c r="F63" s="31" t="s">
-        <v>1625</v>
+        <v>1621</v>
       </c>
       <c r="G63" s="20">
         <v>1</v>
@@ -12840,7 +12839,7 @@
         <v>500</v>
       </c>
       <c r="Q63" s="31" t="s">
-        <v>1623</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.15">
@@ -12848,10 +12847,10 @@
         <v>22100305</v>
       </c>
       <c r="B64" s="31" t="s">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="C64" s="31" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
       <c r="D64" s="20">
         <v>2</v>
@@ -12890,7 +12889,7 @@
         <v>500</v>
       </c>
       <c r="Q64" s="31" t="s">
-        <v>1666</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.15">
@@ -12898,10 +12897,10 @@
         <v>22100306</v>
       </c>
       <c r="B65" s="31" t="s">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="C65" s="31" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
       <c r="D65" s="20">
         <v>2</v>
@@ -12940,7 +12939,7 @@
         <v>500</v>
       </c>
       <c r="Q65" s="31" t="s">
-        <v>1668</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.15">
@@ -12948,10 +12947,10 @@
         <v>22100307</v>
       </c>
       <c r="B66" s="31" t="s">
-        <v>1671</v>
+        <v>1667</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
       <c r="D66" s="20">
         <v>2</v>
@@ -12960,7 +12959,7 @@
         <v>10</v>
       </c>
       <c r="F66" s="31" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="G66" s="20">
         <v>1</v>
@@ -12990,7 +12989,7 @@
         <v>500</v>
       </c>
       <c r="Q66" s="31" t="s">
-        <v>1670</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.15">
@@ -12998,10 +12997,10 @@
         <v>22100308</v>
       </c>
       <c r="B67" s="31" t="s">
-        <v>1674</v>
+        <v>1670</v>
       </c>
       <c r="C67" s="31" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
       <c r="D67" s="20">
         <v>2</v>
@@ -13040,7 +13039,7 @@
         <v>500</v>
       </c>
       <c r="Q67" s="31" t="s">
-        <v>1673</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.15">
@@ -13048,10 +13047,10 @@
         <v>22100309</v>
       </c>
       <c r="B68" s="31" t="s">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="C68" s="31" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
       <c r="D68" s="20">
         <v>2</v>
@@ -13090,7 +13089,7 @@
         <v>500</v>
       </c>
       <c r="Q68" s="31" t="s">
-        <v>1675</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.15">
@@ -13098,10 +13097,10 @@
         <v>22100310</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>1678</v>
+        <v>1674</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
       <c r="D69" s="20">
         <v>2</v>
@@ -13140,7 +13139,7 @@
         <v>500</v>
       </c>
       <c r="Q69" s="31" t="s">
-        <v>1677</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.15">
@@ -13148,10 +13147,10 @@
         <v>22100311</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="C70" s="31" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
       <c r="D70" s="20">
         <v>2</v>
@@ -13160,7 +13159,7 @@
         <v>10</v>
       </c>
       <c r="F70" s="31" t="s">
-        <v>1672</v>
+        <v>1668</v>
       </c>
       <c r="G70" s="20">
         <v>1</v>
@@ -13190,7 +13189,7 @@
         <v>500</v>
       </c>
       <c r="Q70" s="31" t="s">
-        <v>1679</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.15">
@@ -13201,7 +13200,7 @@
         <v>42</v>
       </c>
       <c r="C71" s="31" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
       <c r="D71" s="20">
         <v>2</v>
@@ -13240,10 +13239,10 @@
         <v>500</v>
       </c>
       <c r="P71" s="20" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="Q71" s="31" t="s">
-        <v>1608</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.15">
@@ -13254,7 +13253,7 @@
         <v>44</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
       <c r="D72" s="20">
         <v>2</v>
@@ -13293,10 +13292,10 @@
         <v>500</v>
       </c>
       <c r="P72" s="20" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="Q72" s="20" t="s">
-        <v>1215</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.15">
@@ -13307,7 +13306,7 @@
         <v>46</v>
       </c>
       <c r="C73" s="20" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="D73" s="20">
         <v>2</v>
@@ -13346,10 +13345,10 @@
         <v>500</v>
       </c>
       <c r="P73" s="20" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="Q73" s="20" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.15">
@@ -13360,7 +13359,7 @@
         <v>48</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="D74" s="20">
         <v>2</v>
@@ -13399,10 +13398,10 @@
         <v>500</v>
       </c>
       <c r="P74" s="20" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="Q74" s="20" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.15">
@@ -13410,19 +13409,19 @@
         <v>22100405</v>
       </c>
       <c r="B75" s="31" t="s">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="C75" s="20" t="s">
+        <v>1707</v>
+      </c>
+      <c r="D75" s="20">
+        <v>2</v>
+      </c>
+      <c r="E75" s="20">
+        <v>10</v>
+      </c>
+      <c r="F75" s="31" t="s">
         <v>1711</v>
-      </c>
-      <c r="D75" s="20">
-        <v>2</v>
-      </c>
-      <c r="E75" s="20">
-        <v>10</v>
-      </c>
-      <c r="F75" s="31" t="s">
-        <v>1715</v>
       </c>
       <c r="G75" s="20">
         <v>1</v>
@@ -13452,10 +13451,10 @@
         <v>500</v>
       </c>
       <c r="P75" s="20" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="Q75" s="20" t="s">
-        <v>1711</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.15">
@@ -13463,19 +13462,19 @@
         <v>22100406</v>
       </c>
       <c r="B76" s="31" t="s">
-        <v>1714</v>
+        <v>1710</v>
       </c>
       <c r="C76" s="20" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D76" s="20">
+        <v>2</v>
+      </c>
+      <c r="E76" s="20">
+        <v>10</v>
+      </c>
+      <c r="F76" s="31" t="s">
         <v>1712</v>
-      </c>
-      <c r="D76" s="20">
-        <v>2</v>
-      </c>
-      <c r="E76" s="20">
-        <v>10</v>
-      </c>
-      <c r="F76" s="31" t="s">
-        <v>1716</v>
       </c>
       <c r="G76" s="20">
         <v>1</v>
@@ -13505,10 +13504,10 @@
         <v>500</v>
       </c>
       <c r="P76" s="20" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="Q76" s="20" t="s">
-        <v>1712</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.15">
@@ -13516,10 +13515,10 @@
         <v>22100407</v>
       </c>
       <c r="B77" s="31" t="s">
-        <v>1720</v>
+        <v>1716</v>
       </c>
       <c r="C77" s="20" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
       <c r="D77" s="20">
         <v>2</v>
@@ -13528,7 +13527,7 @@
         <v>10</v>
       </c>
       <c r="F77" s="31" t="s">
-        <v>1723</v>
+        <v>1719</v>
       </c>
       <c r="G77" s="20">
         <v>1</v>
@@ -13558,10 +13557,10 @@
         <v>500</v>
       </c>
       <c r="P77" s="20" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="Q77" s="20" t="s">
-        <v>1717</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.15">
@@ -13569,10 +13568,10 @@
         <v>22100408</v>
       </c>
       <c r="B78" s="31" t="s">
-        <v>1721</v>
+        <v>1717</v>
       </c>
       <c r="C78" s="20" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
       <c r="D78" s="20">
         <v>2</v>
@@ -13581,7 +13580,7 @@
         <v>10</v>
       </c>
       <c r="F78" s="31" t="s">
-        <v>1724</v>
+        <v>1720</v>
       </c>
       <c r="G78" s="20">
         <v>1</v>
@@ -13611,10 +13610,10 @@
         <v>500</v>
       </c>
       <c r="P78" s="20" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="Q78" s="20" t="s">
-        <v>1718</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.15">
@@ -13622,10 +13621,10 @@
         <v>22100409</v>
       </c>
       <c r="B79" s="31" t="s">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="C79" s="20" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
       <c r="D79" s="20">
         <v>2</v>
@@ -13634,7 +13633,7 @@
         <v>10</v>
       </c>
       <c r="F79" s="31" t="s">
-        <v>1725</v>
+        <v>1721</v>
       </c>
       <c r="G79" s="20">
         <v>1</v>
@@ -13664,10 +13663,10 @@
         <v>500</v>
       </c>
       <c r="P79" s="20" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="Q79" s="20" t="s">
-        <v>1719</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.15">
@@ -13675,19 +13674,19 @@
         <v>22100410</v>
       </c>
       <c r="B80" s="31" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="C80" s="20" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D80" s="20">
+        <v>2</v>
+      </c>
+      <c r="E80" s="20">
+        <v>10</v>
+      </c>
+      <c r="F80" s="31" t="s">
         <v>1726</v>
-      </c>
-      <c r="D80" s="20">
-        <v>2</v>
-      </c>
-      <c r="E80" s="20">
-        <v>10</v>
-      </c>
-      <c r="F80" s="31" t="s">
-        <v>1730</v>
       </c>
       <c r="G80" s="20">
         <v>1</v>
@@ -13717,10 +13716,10 @@
         <v>500</v>
       </c>
       <c r="P80" s="20" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="Q80" s="20" t="s">
-        <v>1726</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.15">
@@ -13728,19 +13727,19 @@
         <v>22100411</v>
       </c>
       <c r="B81" s="31" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="C81" s="20" t="s">
+        <v>1723</v>
+      </c>
+      <c r="D81" s="20">
+        <v>2</v>
+      </c>
+      <c r="E81" s="20">
+        <v>10</v>
+      </c>
+      <c r="F81" s="31" t="s">
         <v>1727</v>
-      </c>
-      <c r="D81" s="20">
-        <v>2</v>
-      </c>
-      <c r="E81" s="20">
-        <v>10</v>
-      </c>
-      <c r="F81" s="31" t="s">
-        <v>1731</v>
       </c>
       <c r="G81" s="20">
         <v>1</v>
@@ -13770,10 +13769,10 @@
         <v>500</v>
       </c>
       <c r="P81" s="20" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="Q81" s="20" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.15">
@@ -13781,19 +13780,19 @@
         <v>22100412</v>
       </c>
       <c r="B82" s="31" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="C82" s="20" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D82" s="20">
+        <v>2</v>
+      </c>
+      <c r="E82" s="20">
+        <v>10</v>
+      </c>
+      <c r="F82" s="31" t="s">
         <v>1732</v>
-      </c>
-      <c r="D82" s="20">
-        <v>2</v>
-      </c>
-      <c r="E82" s="20">
-        <v>10</v>
-      </c>
-      <c r="F82" s="31" t="s">
-        <v>1736</v>
       </c>
       <c r="G82" s="20">
         <v>1</v>
@@ -13823,10 +13822,10 @@
         <v>500</v>
       </c>
       <c r="P82" s="20" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="Q82" s="20" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.15">
@@ -13834,10 +13833,10 @@
         <v>22100413</v>
       </c>
       <c r="B83" s="31" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="D83" s="20">
         <v>2</v>
@@ -13846,7 +13845,7 @@
         <v>10</v>
       </c>
       <c r="F83" s="31" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="G83" s="20">
         <v>1</v>
@@ -13876,10 +13875,10 @@
         <v>500</v>
       </c>
       <c r="P83" s="20" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="Q83" s="20" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.15">
@@ -13887,10 +13886,10 @@
         <v>22100414</v>
       </c>
       <c r="B84" s="31" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="D84" s="20">
         <v>2</v>
@@ -13899,7 +13898,7 @@
         <v>10</v>
       </c>
       <c r="F84" s="31" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="G84" s="20">
         <v>1</v>
@@ -13929,10 +13928,10 @@
         <v>500</v>
       </c>
       <c r="P84" s="20" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="Q84" s="20" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.15">
@@ -13940,19 +13939,19 @@
         <v>22100415</v>
       </c>
       <c r="B85" s="31" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="C85" s="20" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D85" s="20">
+        <v>2</v>
+      </c>
+      <c r="E85" s="20">
+        <v>10</v>
+      </c>
+      <c r="F85" s="31" t="s">
         <v>1738</v>
-      </c>
-      <c r="D85" s="20">
-        <v>2</v>
-      </c>
-      <c r="E85" s="20">
-        <v>10</v>
-      </c>
-      <c r="F85" s="31" t="s">
-        <v>1742</v>
       </c>
       <c r="G85" s="20">
         <v>1</v>
@@ -13982,10 +13981,10 @@
         <v>500</v>
       </c>
       <c r="P85" s="20" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="Q85" s="20" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.15">
@@ -13993,10 +13992,10 @@
         <v>22100416</v>
       </c>
       <c r="B86" s="31" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="D86" s="20">
         <v>2</v>
@@ -14005,7 +14004,7 @@
         <v>10</v>
       </c>
       <c r="F86" s="31" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="G86" s="20">
         <v>1</v>
@@ -14035,10 +14034,10 @@
         <v>500</v>
       </c>
       <c r="P86" s="20" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="Q86" s="20" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.15">
@@ -14046,10 +14045,10 @@
         <v>22100417</v>
       </c>
       <c r="B87" s="31" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="D87" s="20">
         <v>2</v>
@@ -14058,7 +14057,7 @@
         <v>10</v>
       </c>
       <c r="F87" s="31" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="G87" s="20">
         <v>1</v>
@@ -14088,10 +14087,10 @@
         <v>500</v>
       </c>
       <c r="P87" s="20" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="Q87" s="20" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.15">
@@ -14102,7 +14101,7 @@
         <v>367</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>1243</v>
+        <v>1239</v>
       </c>
       <c r="D88" s="20">
         <v>2</v>
@@ -14138,7 +14137,7 @@
         <v>500</v>
       </c>
       <c r="P88" s="20" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="Q88" s="20" t="s">
         <v>369</v>
@@ -14188,7 +14187,7 @@
         <v>500</v>
       </c>
       <c r="P89" s="20" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="Q89" s="20" t="s">
         <v>371</v>
@@ -14238,7 +14237,7 @@
         <v>500</v>
       </c>
       <c r="P90" s="20" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="Q90" s="20" t="s">
         <v>374</v>
@@ -14252,7 +14251,7 @@
         <v>372</v>
       </c>
       <c r="C91" s="20" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="D91" s="20">
         <v>2</v>
@@ -14288,7 +14287,7 @@
         <v>500</v>
       </c>
       <c r="P91" s="20" t="s">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="Q91" s="20" t="s">
         <v>966</v>
@@ -14338,7 +14337,7 @@
         <v>500</v>
       </c>
       <c r="P92" s="20" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="Q92" s="20" t="s">
         <v>377</v>
@@ -14388,7 +14387,7 @@
         <v>500</v>
       </c>
       <c r="P93" s="20" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="Q93" s="26" t="s">
         <v>379</v>
@@ -14438,7 +14437,7 @@
         <v>500</v>
       </c>
       <c r="P94" s="20" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="Q94" s="20" t="s">
         <v>382</v>
@@ -14452,7 +14451,7 @@
         <v>380</v>
       </c>
       <c r="C95" s="20" t="s">
-        <v>1219</v>
+        <v>1215</v>
       </c>
       <c r="D95" s="20">
         <v>2</v>
@@ -14488,7 +14487,7 @@
         <v>500</v>
       </c>
       <c r="P95" s="20" t="s">
-        <v>1276</v>
+        <v>1272</v>
       </c>
       <c r="Q95" s="26" t="s">
         <v>967</v>
@@ -14538,7 +14537,7 @@
         <v>500</v>
       </c>
       <c r="P96" s="20" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="Q96" s="20" t="s">
         <v>385</v>
@@ -14588,10 +14587,10 @@
         <v>500</v>
       </c>
       <c r="P97" s="20" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="Q97" s="20" t="s">
-        <v>1273</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.15">
@@ -14638,7 +14637,7 @@
         <v>500</v>
       </c>
       <c r="P98" s="20" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="Q98" s="20" t="s">
         <v>390</v>
@@ -14688,7 +14687,7 @@
         <v>500</v>
       </c>
       <c r="P99" s="20" t="s">
-        <v>1277</v>
+        <v>1273</v>
       </c>
       <c r="Q99" s="20" t="s">
         <v>962</v>
@@ -14738,7 +14737,7 @@
         <v>500</v>
       </c>
       <c r="P100" s="20" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="Q100" s="20" t="s">
         <v>393</v>
@@ -14788,7 +14787,7 @@
         <v>500</v>
       </c>
       <c r="P101" s="20" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="Q101" s="20" t="s">
         <v>396</v>
@@ -14838,7 +14837,7 @@
         <v>500</v>
       </c>
       <c r="P102" s="20" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="Q102" s="26" t="s">
         <v>399</v>
@@ -14888,7 +14887,7 @@
         <v>500</v>
       </c>
       <c r="P103" s="20" t="s">
-        <v>1278</v>
+        <v>1274</v>
       </c>
       <c r="Q103" s="26" t="s">
         <v>963</v>
@@ -14938,7 +14937,7 @@
         <v>500</v>
       </c>
       <c r="P104" s="20" t="s">
-        <v>1279</v>
+        <v>1275</v>
       </c>
       <c r="Q104" s="26" t="s">
         <v>402</v>
@@ -14988,7 +14987,7 @@
         <v>500</v>
       </c>
       <c r="P105" s="20" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="Q105" s="26" t="s">
         <v>405</v>
@@ -15038,7 +15037,7 @@
         <v>500</v>
       </c>
       <c r="P106" s="20" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="Q106" s="26" t="s">
         <v>408</v>
@@ -15088,7 +15087,7 @@
         <v>500</v>
       </c>
       <c r="P107" s="20" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="Q107" s="26" t="s">
         <v>964</v>
@@ -15138,7 +15137,7 @@
         <v>500</v>
       </c>
       <c r="P108" s="20" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="Q108" s="26" t="s">
         <v>411</v>
@@ -15188,7 +15187,7 @@
         <v>500</v>
       </c>
       <c r="P109" s="20" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="Q109" s="26" t="s">
         <v>413</v>
@@ -15238,7 +15237,7 @@
         <v>500</v>
       </c>
       <c r="P110" s="20" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="Q110" s="26" t="s">
         <v>416</v>
@@ -15252,7 +15251,7 @@
         <v>414</v>
       </c>
       <c r="C111" s="20" t="s">
-        <v>1220</v>
+        <v>1216</v>
       </c>
       <c r="D111" s="20">
         <v>2</v>
@@ -15288,7 +15287,7 @@
         <v>500</v>
       </c>
       <c r="P111" s="20" t="s">
-        <v>1281</v>
+        <v>1277</v>
       </c>
       <c r="Q111" s="26" t="s">
         <v>968</v>
@@ -15338,10 +15337,10 @@
         <v>500</v>
       </c>
       <c r="P112" s="20" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="Q112" s="26" t="s">
-        <v>1282</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.15">
@@ -15388,7 +15387,7 @@
         <v>500</v>
       </c>
       <c r="P113" s="20" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="Q113" s="26" t="s">
         <v>421</v>
@@ -15438,7 +15437,7 @@
         <v>500</v>
       </c>
       <c r="P114" s="20" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="Q114" s="26" t="s">
         <v>424</v>
@@ -15488,7 +15487,7 @@
         <v>500</v>
       </c>
       <c r="P115" s="20" t="s">
-        <v>1284</v>
+        <v>1280</v>
       </c>
       <c r="Q115" s="26" t="s">
         <v>965</v>
@@ -15538,7 +15537,7 @@
         <v>300</v>
       </c>
       <c r="Q116" s="26" t="s">
-        <v>1285</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.15">
@@ -15679,7 +15678,7 @@
         <v>300</v>
       </c>
       <c r="P119" s="20" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="Q119" s="26" t="s">
         <v>447</v>
@@ -15729,10 +15728,10 @@
         <v>300</v>
       </c>
       <c r="P120" s="20" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="Q120" s="26" t="s">
-        <v>1286</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.15">
@@ -15779,7 +15778,7 @@
         <v>300</v>
       </c>
       <c r="P121" s="20" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="Q121" s="26" t="s">
         <v>453</v>
@@ -15829,7 +15828,7 @@
         <v>300</v>
       </c>
       <c r="P122" s="20" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="Q122" s="26" t="s">
         <v>456</v>
@@ -15879,7 +15878,7 @@
         <v>300</v>
       </c>
       <c r="P123" s="20" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="Q123" s="26" t="s">
         <v>459</v>
@@ -15929,10 +15928,10 @@
         <v>300</v>
       </c>
       <c r="P124" s="20" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="Q124" s="26" t="s">
-        <v>1287</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.15">
@@ -15979,7 +15978,7 @@
         <v>300</v>
       </c>
       <c r="P125" s="20" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="Q125" s="26" t="s">
         <v>465</v>
@@ -16029,7 +16028,7 @@
         <v>300</v>
       </c>
       <c r="P126" s="20" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="Q126" s="20" t="s">
         <v>468</v>
@@ -16079,7 +16078,7 @@
         <v>300</v>
       </c>
       <c r="P127" s="20" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="Q127" s="20" t="s">
         <v>471</v>
@@ -16129,10 +16128,10 @@
         <v>300</v>
       </c>
       <c r="P128" s="20" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="Q128" s="20" t="s">
-        <v>1288</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.15">
@@ -16179,7 +16178,7 @@
         <v>300</v>
       </c>
       <c r="P129" s="20" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="Q129" s="20" t="s">
         <v>477</v>
@@ -16229,7 +16228,7 @@
         <v>300</v>
       </c>
       <c r="P130" s="20" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="Q130" s="20" t="s">
         <v>480</v>
@@ -16279,7 +16278,7 @@
         <v>300</v>
       </c>
       <c r="P131" s="20" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="Q131" s="20" t="s">
         <v>483</v>
@@ -16329,10 +16328,10 @@
         <v>300</v>
       </c>
       <c r="P132" s="20" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="Q132" s="20" t="s">
-        <v>1289</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.15">
@@ -16379,7 +16378,7 @@
         <v>300</v>
       </c>
       <c r="P133" s="20" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="Q133" s="20" t="s">
         <v>488</v>
@@ -16476,7 +16475,7 @@
         <v>300</v>
       </c>
       <c r="P135" s="20" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="Q135" s="20" t="s">
         <v>494</v>
@@ -16526,7 +16525,7 @@
         <v>300</v>
       </c>
       <c r="Q136" s="20" t="s">
-        <v>1290</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.15">
@@ -16667,7 +16666,7 @@
         <v>300</v>
       </c>
       <c r="P139" s="20" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="Q139" s="20" t="s">
         <v>506</v>
@@ -16717,7 +16716,7 @@
         <v>300</v>
       </c>
       <c r="Q140" s="26" t="s">
-        <v>1291</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.15">
@@ -16764,7 +16763,7 @@
         <v>300</v>
       </c>
       <c r="P141" s="20" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="Q141" s="20" t="s">
         <v>512</v>
@@ -16861,7 +16860,7 @@
         <v>300</v>
       </c>
       <c r="P143" s="20" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="Q143" s="26" t="s">
         <v>518</v>
@@ -16911,10 +16910,10 @@
         <v>300</v>
       </c>
       <c r="P144" s="20" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="Q144" s="20" t="s">
-        <v>1292</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.15">
@@ -16961,7 +16960,7 @@
         <v>300</v>
       </c>
       <c r="P145" s="20" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="Q145" s="20" t="s">
         <v>524</v>
@@ -17011,7 +17010,7 @@
         <v>300</v>
       </c>
       <c r="P146" s="20" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="Q146" s="20" t="s">
         <v>527</v>
@@ -17061,7 +17060,7 @@
         <v>300</v>
       </c>
       <c r="P147" s="20" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="Q147" s="20" t="s">
         <v>530</v>
@@ -17111,10 +17110,10 @@
         <v>300</v>
       </c>
       <c r="P148" s="20" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="Q148" s="20" t="s">
-        <v>1294</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.15">
@@ -17161,7 +17160,7 @@
         <v>300</v>
       </c>
       <c r="P149" s="20" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="Q149" s="20" t="s">
         <v>536</v>
@@ -17211,7 +17210,7 @@
         <v>300</v>
       </c>
       <c r="P150" s="20" t="s">
-        <v>1293</v>
+        <v>1289</v>
       </c>
       <c r="Q150" s="20" t="s">
         <v>539</v>
@@ -17261,7 +17260,7 @@
         <v>300</v>
       </c>
       <c r="P151" s="20" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="Q151" s="20" t="s">
         <v>542</v>
@@ -17311,10 +17310,10 @@
         <v>300</v>
       </c>
       <c r="P152" s="20" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="Q152" s="20" t="s">
-        <v>1295</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.15">
@@ -17361,7 +17360,7 @@
         <v>300</v>
       </c>
       <c r="P153" s="20" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="Q153" s="20" t="s">
         <v>548</v>
@@ -17411,7 +17410,7 @@
         <v>300</v>
       </c>
       <c r="P154" s="20" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="Q154" s="20" t="s">
         <v>551</v>
@@ -17461,7 +17460,7 @@
         <v>300</v>
       </c>
       <c r="P155" s="20" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="Q155" s="20" t="s">
         <v>554</v>
@@ -17511,10 +17510,10 @@
         <v>300</v>
       </c>
       <c r="P156" s="20" t="s">
-        <v>1298</v>
+        <v>1294</v>
       </c>
       <c r="Q156" s="20" t="s">
-        <v>1297</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.15">
@@ -17561,7 +17560,7 @@
         <v>300</v>
       </c>
       <c r="P157" s="20" t="s">
-        <v>1299</v>
+        <v>1295</v>
       </c>
       <c r="Q157" s="20" t="s">
         <v>560</v>
@@ -17611,7 +17610,7 @@
         <v>300</v>
       </c>
       <c r="P158" s="20" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="Q158" s="20" t="s">
         <v>563</v>
@@ -17708,10 +17707,10 @@
         <v>300</v>
       </c>
       <c r="P160" s="20" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="Q160" s="20" t="s">
-        <v>1301</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.15">
@@ -17852,7 +17851,7 @@
         <v>300</v>
       </c>
       <c r="P163" s="20" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="Q163" s="20" t="s">
         <v>578</v>
@@ -17902,10 +17901,10 @@
         <v>300</v>
       </c>
       <c r="P164" s="20" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="Q164" s="20" t="s">
-        <v>1302</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.15">
@@ -17952,7 +17951,7 @@
         <v>300</v>
       </c>
       <c r="P165" s="20" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="Q165" s="20" t="s">
         <v>584</v>
@@ -18002,7 +18001,7 @@
         <v>300</v>
       </c>
       <c r="P166" s="20" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="Q166" s="20" t="s">
         <v>587</v>
@@ -18052,7 +18051,7 @@
         <v>300</v>
       </c>
       <c r="P167" s="20" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="Q167" s="20" t="s">
         <v>590</v>
@@ -18102,10 +18101,10 @@
         <v>300</v>
       </c>
       <c r="P168" s="20" t="s">
-        <v>1275</v>
+        <v>1271</v>
       </c>
       <c r="Q168" s="20" t="s">
-        <v>1303</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.15">
@@ -18152,7 +18151,7 @@
         <v>300</v>
       </c>
       <c r="P169" s="20" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="Q169" s="20" t="s">
         <v>596</v>
@@ -18202,7 +18201,7 @@
         <v>300</v>
       </c>
       <c r="P170" s="20" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="Q170" s="20" t="s">
         <v>599</v>
@@ -18252,7 +18251,7 @@
         <v>300</v>
       </c>
       <c r="P171" s="20" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="Q171" s="20" t="s">
         <v>602</v>
@@ -18266,7 +18265,7 @@
         <v>425</v>
       </c>
       <c r="C172" s="20" t="s">
-        <v>1221</v>
+        <v>1217</v>
       </c>
       <c r="D172" s="20">
         <v>2</v>
@@ -18302,7 +18301,7 @@
         <v>300</v>
       </c>
       <c r="P172" s="20" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="Q172" s="20" t="s">
         <v>793</v>
@@ -18352,7 +18351,7 @@
         <v>300</v>
       </c>
       <c r="P173" s="20" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="Q173" s="20" t="s">
         <v>429</v>
@@ -18402,7 +18401,7 @@
         <v>300</v>
       </c>
       <c r="P174" s="20" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="Q174" s="20" t="s">
         <v>432</v>
@@ -18452,7 +18451,7 @@
         <v>300</v>
       </c>
       <c r="P175" s="20" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="Q175" s="20" t="s">
         <v>435</v>
@@ -18466,7 +18465,7 @@
         <v>958</v>
       </c>
       <c r="C176" s="20" t="s">
-        <v>1222</v>
+        <v>1218</v>
       </c>
       <c r="D176" s="20">
         <v>2</v>
@@ -18513,7 +18512,7 @@
         <v>959</v>
       </c>
       <c r="C177" s="20" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="D177" s="20">
         <v>2</v>
@@ -18690,10 +18689,10 @@
         <v>100</v>
       </c>
       <c r="P180" s="20" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="Q180" s="20" t="s">
-        <v>1309</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.15">
@@ -18740,10 +18739,10 @@
         <v>100</v>
       </c>
       <c r="P181" s="20" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="Q181" s="20" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.15">
@@ -18790,10 +18789,10 @@
         <v>100</v>
       </c>
       <c r="P182" s="20" t="s">
-        <v>1327</v>
+        <v>1323</v>
       </c>
       <c r="Q182" s="26" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.15">
@@ -18804,7 +18803,7 @@
         <v>160</v>
       </c>
       <c r="C183" s="31" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="D183" s="20">
         <v>2</v>
@@ -18840,10 +18839,10 @@
         <v>100</v>
       </c>
       <c r="P183" s="20" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="Q183" s="20" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.15">
@@ -18854,7 +18853,7 @@
         <v>780</v>
       </c>
       <c r="C184" s="31" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="D184" s="20">
         <v>2</v>
@@ -18890,7 +18889,7 @@
         <v>100</v>
       </c>
       <c r="P184" s="20" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="Q184" s="28" t="s">
         <v>779</v>
@@ -18904,7 +18903,7 @@
         <v>751</v>
       </c>
       <c r="C185" s="20" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="D185" s="20">
         <v>2</v>
@@ -18940,7 +18939,7 @@
         <v>100</v>
       </c>
       <c r="P185" s="20" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="Q185" s="20" t="s">
         <v>752</v>
@@ -18954,7 +18953,7 @@
         <v>162</v>
       </c>
       <c r="C186" s="20" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="D186" s="20">
         <v>2</v>
@@ -18990,10 +18989,10 @@
         <v>100</v>
       </c>
       <c r="P186" s="20" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="Q186" s="20" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.15">
@@ -19040,10 +19039,10 @@
         <v>100</v>
       </c>
       <c r="P187" s="20" t="s">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="Q187" s="26" t="s">
-        <v>1372</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.15">
@@ -19054,7 +19053,7 @@
         <v>286</v>
       </c>
       <c r="C188" s="20" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="D188" s="20">
         <v>2</v>
@@ -19090,10 +19089,10 @@
         <v>100</v>
       </c>
       <c r="P188" s="20" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="Q188" s="20" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.15">
@@ -19104,7 +19103,7 @@
         <v>91</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="D189" s="20">
         <v>2</v>
@@ -19140,10 +19139,10 @@
         <v>100</v>
       </c>
       <c r="P189" s="20" t="s">
-        <v>1320</v>
+        <v>1316</v>
       </c>
       <c r="Q189" s="20" t="s">
-        <v>1323</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.15">
@@ -19154,7 +19153,7 @@
         <v>304</v>
       </c>
       <c r="C190" s="20" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="D190" s="20">
         <v>2</v>
@@ -19190,10 +19189,10 @@
         <v>100</v>
       </c>
       <c r="P190" s="20" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="Q190" s="20" t="s">
-        <v>1435</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.15">
@@ -19204,7 +19203,7 @@
         <v>760</v>
       </c>
       <c r="C191" s="20" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="D191" s="20">
         <v>2</v>
@@ -19251,7 +19250,7 @@
         <v>794</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="D192" s="20">
         <v>2</v>
@@ -19287,7 +19286,7 @@
         <v>100</v>
       </c>
       <c r="P192" s="20" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="Q192" s="28" t="s">
         <v>795</v>
@@ -19301,7 +19300,7 @@
         <v>80</v>
       </c>
       <c r="C193" s="20" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="D193" s="20">
         <v>2</v>
@@ -19337,10 +19336,10 @@
         <v>100</v>
       </c>
       <c r="P193" s="20" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="Q193" s="26" t="s">
-        <v>1319</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.15">
@@ -19387,10 +19386,10 @@
         <v>100</v>
       </c>
       <c r="P194" s="20" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="Q194" s="20" t="s">
-        <v>1310</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.15">
@@ -19398,10 +19397,10 @@
         <v>22110016</v>
       </c>
       <c r="B195" s="36" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
       <c r="C195" s="20" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D195" s="20">
         <v>2</v>
@@ -19437,7 +19436,7 @@
         <v>100</v>
       </c>
       <c r="P195" s="20" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="Q195" s="20" t="s">
         <v>83</v>
@@ -19451,7 +19450,7 @@
         <v>67</v>
       </c>
       <c r="C196" s="31" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
       <c r="D196" s="20">
         <v>2</v>
@@ -19487,10 +19486,10 @@
         <v>100</v>
       </c>
       <c r="P196" s="20" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="Q196" s="20" t="s">
-        <v>1311</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.15">
@@ -19498,10 +19497,10 @@
         <v>22110018</v>
       </c>
       <c r="B197" s="36" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="C197" s="31" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="D197" s="20">
         <v>2</v>
@@ -19510,7 +19509,7 @@
         <v>10</v>
       </c>
       <c r="F197" s="31" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="G197" s="20">
         <v>1</v>
@@ -19537,10 +19536,10 @@
         <v>100</v>
       </c>
       <c r="P197" s="20" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="Q197" s="31" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.15">
@@ -19587,10 +19586,10 @@
         <v>100</v>
       </c>
       <c r="P198" s="20" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="Q198" s="20" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.15">
@@ -19601,7 +19600,7 @@
         <v>247</v>
       </c>
       <c r="C199" s="20" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="D199" s="20">
         <v>2</v>
@@ -19637,10 +19636,10 @@
         <v>100</v>
       </c>
       <c r="P199" s="20" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="Q199" s="26" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.15">
@@ -19651,7 +19650,7 @@
         <v>249</v>
       </c>
       <c r="C200" s="20" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="D200" s="20">
         <v>2</v>
@@ -19687,10 +19686,10 @@
         <v>100</v>
       </c>
       <c r="P200" s="20" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="Q200" s="26" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.15">
@@ -19701,7 +19700,7 @@
         <v>93</v>
       </c>
       <c r="C201" s="31" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="D201" s="20">
         <v>2</v>
@@ -19737,10 +19736,10 @@
         <v>100</v>
       </c>
       <c r="P201" s="20" t="s">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="Q201" s="20" t="s">
-        <v>1324</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.15">
@@ -19787,10 +19786,10 @@
         <v>100</v>
       </c>
       <c r="P202" s="20" t="s">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="Q202" s="20" t="s">
-        <v>1317</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.15">
@@ -19837,10 +19836,10 @@
         <v>100</v>
       </c>
       <c r="P203" s="20" t="s">
-        <v>1330</v>
+        <v>1326</v>
       </c>
       <c r="Q203" s="20" t="s">
-        <v>1329</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.15">
@@ -19887,10 +19886,10 @@
         <v>100</v>
       </c>
       <c r="P204" s="20" t="s">
-        <v>1313</v>
+        <v>1309</v>
       </c>
       <c r="Q204" s="20" t="s">
-        <v>1312</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.15">
@@ -19901,7 +19900,7 @@
         <v>72</v>
       </c>
       <c r="C205" s="31" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
       <c r="D205" s="20">
         <v>2</v>
@@ -19937,10 +19936,10 @@
         <v>100</v>
       </c>
       <c r="P205" s="20" t="s">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="Q205" s="20" t="s">
-        <v>1314</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.15">
@@ -19951,7 +19950,7 @@
         <v>331</v>
       </c>
       <c r="C206" s="31" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="D206" s="20">
         <v>2</v>
@@ -19987,10 +19986,10 @@
         <v>100</v>
       </c>
       <c r="P206" s="20" t="s">
-        <v>1454</v>
+        <v>1450</v>
       </c>
       <c r="Q206" s="20" t="s">
-        <v>1453</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.15">
@@ -20001,7 +20000,7 @@
         <v>340</v>
       </c>
       <c r="C207" s="20" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="D207" s="20">
         <v>2</v>
@@ -20037,10 +20036,10 @@
         <v>100</v>
       </c>
       <c r="P207" s="20" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="Q207" s="20" t="s">
-        <v>1458</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.15">
@@ -20051,7 +20050,7 @@
         <v>766</v>
       </c>
       <c r="C208" s="20" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="D208" s="20">
         <v>2</v>
@@ -20087,7 +20086,7 @@
         <v>100</v>
       </c>
       <c r="P208" s="20" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="Q208" s="28" t="s">
         <v>765</v>
@@ -20101,7 +20100,7 @@
         <v>84</v>
       </c>
       <c r="C209" s="31" t="s">
-        <v>1784</v>
+        <v>1780</v>
       </c>
       <c r="D209" s="20">
         <v>2</v>
@@ -20137,10 +20136,10 @@
         <v>100</v>
       </c>
       <c r="P209" s="20" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="Q209" s="20" t="s">
-        <v>1321</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.15">
@@ -20151,7 +20150,7 @@
         <v>141</v>
       </c>
       <c r="C210" s="20" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="D210" s="20">
         <v>2</v>
@@ -20187,10 +20186,10 @@
         <v>100</v>
       </c>
       <c r="P210" s="20" t="s">
-        <v>1300</v>
+        <v>1296</v>
       </c>
       <c r="Q210" s="20" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.15">
@@ -20237,10 +20236,10 @@
         <v>100</v>
       </c>
       <c r="P211" s="20" t="s">
+        <v>1296</v>
+      </c>
+      <c r="Q211" s="26" t="s">
         <v>1300</v>
-      </c>
-      <c r="Q211" s="26" t="s">
-        <v>1304</v>
       </c>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.15">
@@ -20251,7 +20250,7 @@
         <v>86</v>
       </c>
       <c r="C212" s="31" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="D212" s="20">
         <v>2</v>
@@ -20287,7 +20286,7 @@
         <v>100</v>
       </c>
       <c r="Q212" s="26" t="s">
-        <v>1322</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.15">
@@ -20298,7 +20297,7 @@
         <v>143</v>
       </c>
       <c r="C213" s="20" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="D213" s="20">
         <v>2</v>
@@ -20334,10 +20333,10 @@
         <v>100</v>
       </c>
       <c r="P213" s="20" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="Q213" s="20" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.15">
@@ -20348,7 +20347,7 @@
         <v>265</v>
       </c>
       <c r="C214" s="31" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
       <c r="D214" s="20">
         <v>2</v>
@@ -20384,10 +20383,10 @@
         <v>100</v>
       </c>
       <c r="P214" s="20" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="Q214" s="26" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.15">
@@ -20398,7 +20397,7 @@
         <v>267</v>
       </c>
       <c r="C215" s="20" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="D215" s="20">
         <v>2</v>
@@ -20434,10 +20433,10 @@
         <v>100</v>
       </c>
       <c r="P215" s="20" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="Q215" s="26" t="s">
-        <v>1411</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.15">
@@ -20445,7 +20444,7 @@
         <v>22110037</v>
       </c>
       <c r="B216" s="38" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="C216" s="20" t="s">
         <v>272</v>
@@ -20484,10 +20483,10 @@
         <v>100</v>
       </c>
       <c r="P216" s="20" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="Q216" s="20" t="s">
-        <v>1415</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.15">
@@ -20498,7 +20497,7 @@
         <v>279</v>
       </c>
       <c r="C217" s="20" t="s">
-        <v>1095</v>
+        <v>1092</v>
       </c>
       <c r="D217" s="20">
         <v>2</v>
@@ -20534,10 +20533,10 @@
         <v>100</v>
       </c>
       <c r="P217" s="20" t="s">
-        <v>1424</v>
+        <v>1420</v>
       </c>
       <c r="Q217" s="20" t="s">
-        <v>1422</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.15">
@@ -20584,10 +20583,10 @@
         <v>100</v>
       </c>
       <c r="P218" s="20" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="Q218" s="20" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.15">
@@ -20634,7 +20633,7 @@
         <v>100</v>
       </c>
       <c r="P219" s="20" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="Q219" s="20" t="s">
         <v>90</v>
@@ -20648,7 +20647,7 @@
         <v>746</v>
       </c>
       <c r="C220" s="20" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="D220" s="20">
         <v>2</v>
@@ -20684,7 +20683,7 @@
         <v>100</v>
       </c>
       <c r="P220" s="20" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="Q220" s="28" t="s">
         <v>745</v>
@@ -20734,10 +20733,10 @@
         <v>100</v>
       </c>
       <c r="P221" s="20" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="Q221" s="20" t="s">
-        <v>1368</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.15">
@@ -20748,7 +20747,7 @@
         <v>309</v>
       </c>
       <c r="C222" s="31" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
       <c r="D222" s="20">
         <v>2</v>
@@ -20784,7 +20783,7 @@
         <v>100</v>
       </c>
       <c r="Q222" s="20" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.15">
@@ -20831,7 +20830,7 @@
         <v>100</v>
       </c>
       <c r="Q223" s="20" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.15">
@@ -20842,7 +20841,7 @@
         <v>127</v>
       </c>
       <c r="C224" s="20" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="D224" s="20">
         <v>2</v>
@@ -20878,7 +20877,7 @@
         <v>100</v>
       </c>
       <c r="P224" s="20" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="Q224" s="20" t="s">
         <v>90</v>
@@ -20892,7 +20891,7 @@
         <v>136</v>
       </c>
       <c r="C225" s="20" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="D225" s="20">
         <v>2</v>
@@ -20928,10 +20927,10 @@
         <v>100</v>
       </c>
       <c r="P225" s="20" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="Q225" s="20" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.15">
@@ -20978,10 +20977,10 @@
         <v>100</v>
       </c>
       <c r="P226" s="20" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="Q226" s="20" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.15">
@@ -20992,7 +20991,7 @@
         <v>158</v>
       </c>
       <c r="C227" s="20" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D227" s="20">
         <v>2</v>
@@ -21028,10 +21027,10 @@
         <v>100</v>
       </c>
       <c r="P227" s="20" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="Q227" s="20" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.15">
@@ -21042,7 +21041,7 @@
         <v>95</v>
       </c>
       <c r="C228" s="20" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="D228" s="20">
         <v>2</v>
@@ -21078,7 +21077,7 @@
         <v>100</v>
       </c>
       <c r="Q228" s="20" t="s">
-        <v>1326</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.15">
@@ -21089,7 +21088,7 @@
         <v>197</v>
       </c>
       <c r="C229" s="20" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="D229" s="20">
         <v>2</v>
@@ -21125,10 +21124,10 @@
         <v>100</v>
       </c>
       <c r="P229" s="20" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="Q229" s="26" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.15">
@@ -21175,10 +21174,10 @@
         <v>100</v>
       </c>
       <c r="P230" s="20" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="Q230" s="26" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.15">
@@ -21189,7 +21188,7 @@
         <v>97</v>
       </c>
       <c r="C231" s="20" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D231" s="20">
         <v>2</v>
@@ -21225,10 +21224,10 @@
         <v>100</v>
       </c>
       <c r="P231" s="20" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="Q231" s="20" t="s">
-        <v>1328</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.15">
@@ -21275,10 +21274,10 @@
         <v>100</v>
       </c>
       <c r="P232" s="20" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="Q232" s="20" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.15">
@@ -21289,7 +21288,7 @@
         <v>57</v>
       </c>
       <c r="C233" s="20" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D233" s="20">
         <v>2</v>
@@ -21325,10 +21324,10 @@
         <v>100</v>
       </c>
       <c r="P233" s="20" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="Q233" s="26" t="s">
-        <v>1307</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.15">
@@ -21339,7 +21338,7 @@
         <v>293</v>
       </c>
       <c r="C234" s="31" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
       <c r="D234" s="20">
         <v>2</v>
@@ -21375,10 +21374,10 @@
         <v>100</v>
       </c>
       <c r="P234" s="20" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="Q234" s="20" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.15">
@@ -21389,7 +21388,7 @@
         <v>315</v>
       </c>
       <c r="C235" s="20" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D235" s="20">
         <v>2</v>
@@ -21425,10 +21424,10 @@
         <v>100</v>
       </c>
       <c r="P235" s="20" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="Q235" s="20" t="s">
-        <v>1444</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.15">
@@ -21439,7 +21438,7 @@
         <v>326</v>
       </c>
       <c r="C236" s="20" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="D236" s="20">
         <v>2</v>
@@ -21475,7 +21474,7 @@
         <v>100</v>
       </c>
       <c r="P236" s="20" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="Q236" s="20" t="s">
         <v>328</v>
@@ -21489,7 +21488,7 @@
         <v>216</v>
       </c>
       <c r="C237" s="20" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="D237" s="20">
         <v>2</v>
@@ -21525,10 +21524,10 @@
         <v>100</v>
       </c>
       <c r="P237" s="20" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="Q237" s="32" t="s">
-        <v>1380</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.15">
@@ -21536,10 +21535,10 @@
         <v>22110059</v>
       </c>
       <c r="B238" s="42" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="C238" s="20" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="D238" s="20">
         <v>2</v>
@@ -21575,10 +21574,10 @@
         <v>100</v>
       </c>
       <c r="P238" s="20" t="s">
-        <v>1296</v>
+        <v>1292</v>
       </c>
       <c r="Q238" s="26" t="s">
-        <v>1363</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.15">
@@ -21589,7 +21588,7 @@
         <v>749</v>
       </c>
       <c r="C239" s="31" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="D239" s="20">
         <v>2</v>
@@ -21625,7 +21624,7 @@
         <v>100</v>
       </c>
       <c r="P239" s="20" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="Q239" s="28" t="s">
         <v>748</v>
@@ -21675,7 +21674,7 @@
         <v>100</v>
       </c>
       <c r="Q240" s="20" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.15">
@@ -21686,7 +21685,7 @@
         <v>112</v>
       </c>
       <c r="C241" s="31" t="s">
-        <v>1786</v>
+        <v>1782</v>
       </c>
       <c r="D241" s="20">
         <v>2</v>
@@ -21722,7 +21721,7 @@
         <v>100</v>
       </c>
       <c r="Q241" s="20" t="s">
-        <v>1334</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.15">
@@ -21769,10 +21768,10 @@
         <v>100</v>
       </c>
       <c r="P242" s="20" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="Q242" s="20" t="s">
-        <v>1338</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.15">
@@ -21783,7 +21782,7 @@
         <v>192</v>
       </c>
       <c r="C243" s="20" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="D243" s="20">
         <v>2</v>
@@ -21819,10 +21818,10 @@
         <v>100</v>
       </c>
       <c r="P243" s="20" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="Q243" s="26" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.15">
@@ -21833,7 +21832,7 @@
         <v>313</v>
       </c>
       <c r="C244" s="20" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="D244" s="20">
         <v>2</v>
@@ -21869,10 +21868,10 @@
         <v>100</v>
       </c>
       <c r="P244" s="20" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="Q244" s="26" t="s">
-        <v>1443</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="245" spans="1:17" x14ac:dyDescent="0.15">
@@ -21883,7 +21882,7 @@
         <v>183</v>
       </c>
       <c r="C245" s="20" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="D245" s="20">
         <v>2</v>
@@ -21919,10 +21918,10 @@
         <v>100</v>
       </c>
       <c r="P245" s="20" t="s">
-        <v>1265</v>
+        <v>1261</v>
       </c>
       <c r="Q245" s="26" t="s">
-        <v>1366</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="246" spans="1:17" x14ac:dyDescent="0.15">
@@ -21933,7 +21932,7 @@
         <v>185</v>
       </c>
       <c r="C246" s="20" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="D246" s="20">
         <v>2</v>
@@ -21969,7 +21968,7 @@
         <v>100</v>
       </c>
       <c r="Q246" s="26" t="s">
-        <v>1367</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="247" spans="1:17" x14ac:dyDescent="0.15">
@@ -22016,10 +22015,10 @@
         <v>100</v>
       </c>
       <c r="P247" s="20" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="Q247" s="27" t="s">
-        <v>1376</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="248" spans="1:17" x14ac:dyDescent="0.15">
@@ -22066,10 +22065,10 @@
         <v>100</v>
       </c>
       <c r="P248" s="20" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="Q248" s="27" t="s">
-        <v>1379</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.15">
@@ -22080,7 +22079,7 @@
         <v>129</v>
       </c>
       <c r="C249" s="20" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D249" s="20">
         <v>2</v>
@@ -22116,10 +22115,10 @@
         <v>100</v>
       </c>
       <c r="P249" s="20" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="Q249" s="27" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.15">
@@ -22130,7 +22129,7 @@
         <v>150</v>
       </c>
       <c r="C250" s="20" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D250" s="20">
         <v>2</v>
@@ -22166,10 +22165,10 @@
         <v>100</v>
       </c>
       <c r="P250" s="20" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="Q250" s="27" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="251" spans="1:17" x14ac:dyDescent="0.15">
@@ -22180,7 +22179,7 @@
         <v>190</v>
       </c>
       <c r="C251" s="20" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="D251" s="20">
         <v>2</v>
@@ -22216,10 +22215,10 @@
         <v>100</v>
       </c>
       <c r="P251" s="20" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="Q251" s="27" t="s">
-        <v>1369</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="252" spans="1:17" x14ac:dyDescent="0.15">
@@ -22266,10 +22265,10 @@
         <v>100</v>
       </c>
       <c r="P252" s="20" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="Q252" s="27" t="s">
-        <v>1373</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="253" spans="1:17" x14ac:dyDescent="0.15">
@@ -22316,7 +22315,7 @@
         <v>100</v>
       </c>
       <c r="Q253" s="27" t="s">
-        <v>1428</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="254" spans="1:17" x14ac:dyDescent="0.15">
@@ -22327,7 +22326,7 @@
         <v>173</v>
       </c>
       <c r="C254" s="20" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="D254" s="20">
         <v>2</v>
@@ -22363,10 +22362,10 @@
         <v>100</v>
       </c>
       <c r="P254" s="20" t="s">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="Q254" s="27" t="s">
-        <v>1362</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="255" spans="1:17" x14ac:dyDescent="0.15">
@@ -22377,7 +22376,7 @@
         <v>208</v>
       </c>
       <c r="C255" s="31" t="s">
-        <v>1785</v>
+        <v>1781</v>
       </c>
       <c r="D255" s="20">
         <v>2</v>
@@ -22413,10 +22412,10 @@
         <v>100</v>
       </c>
       <c r="P255" s="20" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="Q255" s="4" t="s">
-        <v>1375</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="256" spans="1:17" x14ac:dyDescent="0.15">
@@ -22427,7 +22426,7 @@
         <v>342</v>
       </c>
       <c r="C256" s="20" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="D256" s="20">
         <v>2</v>
@@ -22463,10 +22462,10 @@
         <v>100</v>
       </c>
       <c r="P256" s="20" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="Q256" s="27" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.15">
@@ -22477,7 +22476,7 @@
         <v>134</v>
       </c>
       <c r="C257" s="20" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="D257" s="20">
         <v>2</v>
@@ -22513,10 +22512,10 @@
         <v>100</v>
       </c>
       <c r="P257" s="20" t="s">
-        <v>1264</v>
+        <v>1260</v>
       </c>
       <c r="Q257" s="27" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="258" spans="1:17" x14ac:dyDescent="0.15">
@@ -22563,10 +22562,10 @@
         <v>100</v>
       </c>
       <c r="P258" s="20" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="Q258" s="27" t="s">
-        <v>1365</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="259" spans="1:17" x14ac:dyDescent="0.15">
@@ -22613,7 +22612,7 @@
         <v>100</v>
       </c>
       <c r="Q259" s="27" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="260" spans="1:17" x14ac:dyDescent="0.15">
@@ -22624,7 +22623,7 @@
         <v>317</v>
       </c>
       <c r="C260" s="20" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="D260" s="20">
         <v>2</v>
@@ -22668,10 +22667,10 @@
         <v>22110082</v>
       </c>
       <c r="B261" s="39" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="C261" s="20" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="D261" s="20">
         <v>2</v>
@@ -22718,7 +22717,7 @@
         <v>769</v>
       </c>
       <c r="C262" s="20" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="D262" s="20">
         <v>2</v>
@@ -22765,7 +22764,7 @@
         <v>218</v>
       </c>
       <c r="C263" s="20" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="D263" s="20">
         <v>2</v>
@@ -22801,10 +22800,10 @@
         <v>100</v>
       </c>
       <c r="P263" s="20" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="Q263" s="27" t="s">
-        <v>1384</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="264" spans="1:17" x14ac:dyDescent="0.15">
@@ -22815,7 +22814,7 @@
         <v>123</v>
       </c>
       <c r="C264" s="20" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D264" s="20">
         <v>2</v>
@@ -22851,10 +22850,10 @@
         <v>100</v>
       </c>
       <c r="P264" s="20" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="Q264" s="27" t="s">
-        <v>1339</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="265" spans="1:17" x14ac:dyDescent="0.15">
@@ -22865,7 +22864,7 @@
         <v>125</v>
       </c>
       <c r="C265" s="20" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="D265" s="20">
         <v>2</v>
@@ -22901,10 +22900,10 @@
         <v>100</v>
       </c>
       <c r="P265" s="20" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="Q265" s="27" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="266" spans="1:17" x14ac:dyDescent="0.15">
@@ -22915,7 +22914,7 @@
         <v>110</v>
       </c>
       <c r="C266" s="20" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="D266" s="20">
         <v>2</v>
@@ -22951,10 +22950,10 @@
         <v>100</v>
       </c>
       <c r="P266" s="20" t="s">
-        <v>1269</v>
+        <v>1265</v>
       </c>
       <c r="Q266" s="27" t="s">
-        <v>1335</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="267" spans="1:17" x14ac:dyDescent="0.15">
@@ -22965,7 +22964,7 @@
         <v>269</v>
       </c>
       <c r="C267" s="20" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="D267" s="20">
         <v>2</v>
@@ -23001,10 +23000,10 @@
         <v>100</v>
       </c>
       <c r="P267" s="20" t="s">
-        <v>1433</v>
+        <v>1429</v>
       </c>
       <c r="Q267" s="27" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="268" spans="1:17" x14ac:dyDescent="0.15">
@@ -23015,7 +23014,7 @@
         <v>277</v>
       </c>
       <c r="C268" s="20" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="D268" s="20">
         <v>2</v>
@@ -23051,10 +23050,10 @@
         <v>100</v>
       </c>
       <c r="P268" s="20" t="s">
-        <v>1421</v>
+        <v>1417</v>
       </c>
       <c r="Q268" s="27" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="269" spans="1:17" x14ac:dyDescent="0.15">
@@ -23065,7 +23064,7 @@
         <v>792</v>
       </c>
       <c r="C269" s="20" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="D269" s="20">
         <v>2</v>
@@ -23101,7 +23100,7 @@
         <v>100</v>
       </c>
       <c r="P269" s="20" t="s">
-        <v>1470</v>
+        <v>1466</v>
       </c>
       <c r="Q269" s="27" t="s">
         <v>790</v>
@@ -23115,7 +23114,7 @@
         <v>251</v>
       </c>
       <c r="C270" s="20" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="D270" s="20">
         <v>2</v>
@@ -23151,10 +23150,10 @@
         <v>100</v>
       </c>
       <c r="P270" s="20" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="Q270" s="26" t="s">
-        <v>1396</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="271" spans="1:17" x14ac:dyDescent="0.15">
@@ -23165,7 +23164,7 @@
         <v>55</v>
       </c>
       <c r="C271" s="20" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="D271" s="20">
         <v>2</v>
@@ -23201,7 +23200,7 @@
         <v>100</v>
       </c>
       <c r="Q271" s="26" t="s">
-        <v>1306</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="272" spans="1:17" x14ac:dyDescent="0.15">
@@ -23212,7 +23211,7 @@
         <v>281</v>
       </c>
       <c r="C272" s="31" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
       <c r="D272" s="20">
         <v>2</v>
@@ -23248,7 +23247,7 @@
         <v>100</v>
       </c>
       <c r="Q272" s="26" t="s">
-        <v>1425</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="273" spans="1:17" x14ac:dyDescent="0.15">
@@ -23259,7 +23258,7 @@
         <v>322</v>
       </c>
       <c r="C273" s="20" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="D273" s="20">
         <v>2</v>
@@ -23295,7 +23294,7 @@
         <v>100</v>
       </c>
       <c r="Q273" s="26" t="s">
-        <v>1447</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="274" spans="1:17" x14ac:dyDescent="0.15">
@@ -23306,7 +23305,7 @@
         <v>283</v>
       </c>
       <c r="C274" s="20" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="D274" s="20">
         <v>2</v>
@@ -23353,7 +23352,7 @@
         <v>273</v>
       </c>
       <c r="C275" s="31" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="D275" s="20">
         <v>2</v>
@@ -23389,10 +23388,10 @@
         <v>100</v>
       </c>
       <c r="P275" s="20" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="Q275" s="31" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="276" spans="1:17" x14ac:dyDescent="0.15">
@@ -23403,7 +23402,7 @@
         <v>275</v>
       </c>
       <c r="C276" s="20" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="D276" s="20">
         <v>2</v>
@@ -23439,10 +23438,10 @@
         <v>100</v>
       </c>
       <c r="P276" s="20" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="Q276" s="20" t="s">
-        <v>1417</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="277" spans="1:17" x14ac:dyDescent="0.15">
@@ -23453,7 +23452,7 @@
         <v>295</v>
       </c>
       <c r="C277" s="31" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="D277" s="20">
         <v>2</v>
@@ -23489,7 +23488,7 @@
         <v>100</v>
       </c>
       <c r="Q277" s="20" t="s">
-        <v>1429</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="278" spans="1:17" x14ac:dyDescent="0.15">
@@ -23500,7 +23499,7 @@
         <v>297</v>
       </c>
       <c r="C278" s="20" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="D278" s="20">
         <v>2</v>
@@ -23536,10 +23535,10 @@
         <v>100</v>
       </c>
       <c r="P278" s="20" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="Q278" s="26" t="s">
-        <v>1430</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="279" spans="1:17" x14ac:dyDescent="0.15">
@@ -23550,7 +23549,7 @@
         <v>299</v>
       </c>
       <c r="C279" s="20" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="D279" s="20">
         <v>2</v>
@@ -23586,7 +23585,7 @@
         <v>100</v>
       </c>
       <c r="P279" s="20" t="s">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="Q279" s="20" t="s">
         <v>301</v>
@@ -23600,7 +23599,7 @@
         <v>329</v>
       </c>
       <c r="C280" s="20" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="D280" s="20">
         <v>2</v>
@@ -23636,10 +23635,10 @@
         <v>100</v>
       </c>
       <c r="P280" s="20" t="s">
-        <v>1452</v>
+        <v>1448</v>
       </c>
       <c r="Q280" s="20" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="281" spans="1:17" x14ac:dyDescent="0.15">
@@ -23650,7 +23649,7 @@
         <v>333</v>
       </c>
       <c r="C281" s="20" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="D281" s="20">
         <v>2</v>
@@ -23686,10 +23685,10 @@
         <v>100</v>
       </c>
       <c r="P281" s="20" t="s">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="Q281" s="20" t="s">
-        <v>1455</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="282" spans="1:17" x14ac:dyDescent="0.15">
@@ -23700,7 +23699,7 @@
         <v>335</v>
       </c>
       <c r="C282" s="20" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="D282" s="20">
         <v>2</v>
@@ -23736,7 +23735,7 @@
         <v>100</v>
       </c>
       <c r="P282" s="20" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="Q282" s="26" t="s">
         <v>776</v>
@@ -23750,7 +23749,7 @@
         <v>302</v>
       </c>
       <c r="C283" s="20" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="D283" s="20">
         <v>2</v>
@@ -23786,10 +23785,10 @@
         <v>100</v>
       </c>
       <c r="P283" s="20" t="s">
-        <v>1382</v>
+        <v>1378</v>
       </c>
       <c r="Q283" s="20" t="s">
-        <v>1434</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="284" spans="1:17" x14ac:dyDescent="0.15">
@@ -23800,7 +23799,7 @@
         <v>777</v>
       </c>
       <c r="C284" s="20" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="D284" s="20">
         <v>2</v>
@@ -23836,10 +23835,10 @@
         <v>100</v>
       </c>
       <c r="P284" s="20" t="s">
-        <v>1442</v>
+        <v>1438</v>
       </c>
       <c r="Q284" s="28" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="285" spans="1:17" x14ac:dyDescent="0.15">
@@ -23850,7 +23849,7 @@
         <v>788</v>
       </c>
       <c r="C285" s="20" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="D285" s="20">
         <v>2</v>
@@ -23886,10 +23885,10 @@
         <v>100</v>
       </c>
       <c r="P285" s="20" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="Q285" s="28" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="286" spans="1:17" x14ac:dyDescent="0.15">
@@ -23900,7 +23899,7 @@
         <v>774</v>
       </c>
       <c r="C286" s="20" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="D286" s="20">
         <v>2</v>
@@ -23936,7 +23935,7 @@
         <v>100</v>
       </c>
       <c r="Q286" s="28" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="287" spans="1:17" x14ac:dyDescent="0.15">
@@ -23947,7 +23946,7 @@
         <v>222</v>
       </c>
       <c r="C287" s="20" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="D287" s="20">
         <v>2</v>
@@ -23983,10 +23982,10 @@
         <v>100</v>
       </c>
       <c r="P287" s="20" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="Q287" s="26" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="288" spans="1:17" x14ac:dyDescent="0.15">
@@ -23997,7 +23996,7 @@
         <v>224</v>
       </c>
       <c r="C288" s="20" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="D288" s="20">
         <v>2</v>
@@ -24033,10 +24032,10 @@
         <v>100</v>
       </c>
       <c r="P288" s="20" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="Q288" s="26" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="289" spans="1:17" x14ac:dyDescent="0.15">
@@ -24047,7 +24046,7 @@
         <v>226</v>
       </c>
       <c r="C289" s="20" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="D289" s="20">
         <v>2</v>
@@ -24083,7 +24082,7 @@
         <v>100</v>
       </c>
       <c r="P289" s="20" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="Q289" s="26" t="s">
         <v>228</v>
@@ -24097,7 +24096,7 @@
         <v>229</v>
       </c>
       <c r="C290" s="20" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="D290" s="20">
         <v>2</v>
@@ -24133,7 +24132,7 @@
         <v>100</v>
       </c>
       <c r="P290" s="20" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="Q290" s="26" t="s">
         <v>231</v>
@@ -24147,7 +24146,7 @@
         <v>232</v>
       </c>
       <c r="C291" s="20" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="D291" s="20">
         <v>2</v>
@@ -24183,7 +24182,7 @@
         <v>100</v>
       </c>
       <c r="P291" s="20" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="Q291" s="26" t="s">
         <v>234</v>
@@ -24197,7 +24196,7 @@
         <v>235</v>
       </c>
       <c r="C292" s="20" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="D292" s="20">
         <v>2</v>
@@ -24233,7 +24232,7 @@
         <v>100</v>
       </c>
       <c r="P292" s="20" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="Q292" s="26" t="s">
         <v>237</v>
@@ -24247,7 +24246,7 @@
         <v>238</v>
       </c>
       <c r="C293" s="20" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="D293" s="20">
         <v>2</v>
@@ -24283,7 +24282,7 @@
         <v>100</v>
       </c>
       <c r="P293" s="20" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="Q293" s="26" t="s">
         <v>240</v>
@@ -24297,7 +24296,7 @@
         <v>241</v>
       </c>
       <c r="C294" s="20" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="D294" s="20">
         <v>2</v>
@@ -24333,7 +24332,7 @@
         <v>100</v>
       </c>
       <c r="P294" s="20" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="Q294" s="26" t="s">
         <v>243</v>
@@ -24347,7 +24346,7 @@
         <v>244</v>
       </c>
       <c r="C295" s="20" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="D295" s="20">
         <v>2</v>
@@ -24383,7 +24382,7 @@
         <v>100</v>
       </c>
       <c r="P295" s="20" t="s">
-        <v>1392</v>
+        <v>1388</v>
       </c>
       <c r="Q295" s="26" t="s">
         <v>246</v>
@@ -24397,7 +24396,7 @@
         <v>147</v>
       </c>
       <c r="C296" s="20" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="D296" s="20">
         <v>2</v>
@@ -24433,7 +24432,7 @@
         <v>100</v>
       </c>
       <c r="P296" s="20" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="Q296" s="26" t="s">
         <v>149</v>
@@ -24483,10 +24482,10 @@
         <v>100</v>
       </c>
       <c r="P297" s="31" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="Q297" s="20" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="298" spans="1:17" x14ac:dyDescent="0.15">
@@ -24497,7 +24496,7 @@
         <v>347</v>
       </c>
       <c r="C298" s="31" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="D298" s="20">
         <v>2</v>
@@ -24533,10 +24532,10 @@
         <v>100</v>
       </c>
       <c r="P298" s="31" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="Q298" s="31" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="299" spans="1:17" x14ac:dyDescent="0.15">
@@ -24547,7 +24546,7 @@
         <v>220</v>
       </c>
       <c r="C299" s="20" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="D299" s="20">
         <v>2</v>
@@ -24583,10 +24582,10 @@
         <v>100</v>
       </c>
       <c r="P299" s="20" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="Q299" s="26" t="s">
-        <v>1388</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="300" spans="1:17" x14ac:dyDescent="0.15">
@@ -24633,7 +24632,7 @@
         <v>100</v>
       </c>
       <c r="P300" s="20" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="Q300" s="20" t="s">
         <v>119</v>
@@ -24683,10 +24682,10 @@
         <v>100</v>
       </c>
       <c r="P301" s="20" t="s">
-        <v>1337</v>
+        <v>1333</v>
       </c>
       <c r="Q301" s="20" t="s">
-        <v>1336</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="302" spans="1:17" x14ac:dyDescent="0.15">
@@ -24733,10 +24732,10 @@
         <v>100</v>
       </c>
       <c r="P302" s="20" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="Q302" s="20" t="s">
-        <v>1456</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="303" spans="1:17" x14ac:dyDescent="0.15">
@@ -24747,7 +24746,7 @@
         <v>74</v>
       </c>
       <c r="C303" s="20" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D303" s="20">
         <v>2</v>
@@ -24783,7 +24782,7 @@
         <v>100</v>
       </c>
       <c r="P303" s="20" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="Q303" s="20" t="s">
         <v>76</v>
@@ -24797,7 +24796,7 @@
         <v>53</v>
       </c>
       <c r="C304" s="20" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D304" s="20">
         <v>2</v>
@@ -24833,10 +24832,10 @@
         <v>100</v>
       </c>
       <c r="P304" s="20" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="Q304" s="20" t="s">
-        <v>1305</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="305" spans="1:17" x14ac:dyDescent="0.15">
@@ -24847,7 +24846,7 @@
         <v>772</v>
       </c>
       <c r="C305" s="20" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="D305" s="20">
         <v>2</v>
@@ -24883,7 +24882,7 @@
         <v>100</v>
       </c>
       <c r="P305" s="31" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="Q305" s="28" t="s">
         <v>771</v>
@@ -24933,10 +24932,10 @@
         <v>100</v>
       </c>
       <c r="P306" s="20" t="s">
-        <v>1316</v>
+        <v>1312</v>
       </c>
       <c r="Q306" s="20" t="s">
-        <v>1331</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="307" spans="1:17" x14ac:dyDescent="0.15">
@@ -24947,7 +24946,7 @@
         <v>105</v>
       </c>
       <c r="C307" s="20" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="D307" s="20">
         <v>2</v>
@@ -24983,10 +24982,10 @@
         <v>100</v>
       </c>
       <c r="P307" s="20" t="s">
-        <v>1333</v>
+        <v>1329</v>
       </c>
       <c r="Q307" s="20" t="s">
-        <v>1332</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="308" spans="1:17" x14ac:dyDescent="0.15">
@@ -25033,10 +25032,10 @@
         <v>100</v>
       </c>
       <c r="P308" s="20" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="Q308" s="26" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="309" spans="1:17" x14ac:dyDescent="0.15">
@@ -25083,10 +25082,10 @@
         <v>100</v>
       </c>
       <c r="P309" s="20" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="Q309" s="26" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="310" spans="1:17" x14ac:dyDescent="0.15">
@@ -25133,7 +25132,7 @@
         <v>100</v>
       </c>
       <c r="P310" s="20" t="s">
-        <v>1407</v>
+        <v>1403</v>
       </c>
       <c r="Q310" s="26" t="s">
         <v>264</v>
@@ -25147,7 +25146,7 @@
         <v>145</v>
       </c>
       <c r="C311" s="20" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="D311" s="20">
         <v>2</v>
@@ -25183,10 +25182,10 @@
         <v>100</v>
       </c>
       <c r="P311" s="20" t="s">
-        <v>1266</v>
+        <v>1262</v>
       </c>
       <c r="Q311" s="26" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="312" spans="1:17" x14ac:dyDescent="0.15">
@@ -25233,10 +25232,10 @@
         <v>100</v>
       </c>
       <c r="P312" s="20" t="s">
-        <v>1271</v>
+        <v>1267</v>
       </c>
       <c r="Q312" s="26" t="s">
-        <v>1374</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="313" spans="1:17" x14ac:dyDescent="0.15">
@@ -25247,7 +25246,7 @@
         <v>59</v>
       </c>
       <c r="C313" s="31" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="D313" s="20">
         <v>2</v>
@@ -25283,7 +25282,7 @@
         <v>100</v>
       </c>
       <c r="Q313" s="26" t="s">
-        <v>1308</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="314" spans="1:17" x14ac:dyDescent="0.15">
@@ -25294,7 +25293,7 @@
         <v>291</v>
       </c>
       <c r="C314" s="20" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="D314" s="20">
         <v>2</v>
@@ -25330,10 +25329,10 @@
         <v>100</v>
       </c>
       <c r="P314" s="20" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="Q314" s="31" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="315" spans="1:17" x14ac:dyDescent="0.15">
@@ -25344,7 +25343,7 @@
         <v>167</v>
       </c>
       <c r="C315" s="31" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="D315" s="20">
         <v>2</v>
@@ -25380,10 +25379,10 @@
         <v>100</v>
       </c>
       <c r="P315" s="20" t="s">
-        <v>1270</v>
+        <v>1266</v>
       </c>
       <c r="Q315" s="26" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="316" spans="1:17" x14ac:dyDescent="0.15">
@@ -25394,7 +25393,7 @@
         <v>169</v>
       </c>
       <c r="C316" s="31" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="D316" s="20">
         <v>2</v>
@@ -25430,10 +25429,10 @@
         <v>100</v>
       </c>
       <c r="P316" s="20" t="s">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="Q316" s="26" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="317" spans="1:17" x14ac:dyDescent="0.15">
@@ -25444,7 +25443,7 @@
         <v>171</v>
       </c>
       <c r="C317" s="20" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="D317" s="20">
         <v>2</v>
@@ -25480,10 +25479,10 @@
         <v>100</v>
       </c>
       <c r="P317" s="20" t="s">
-        <v>1283</v>
+        <v>1279</v>
       </c>
       <c r="Q317" s="32" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="318" spans="1:17" x14ac:dyDescent="0.15">
@@ -25494,7 +25493,7 @@
         <v>311</v>
       </c>
       <c r="C318" s="31" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="D318" s="20">
         <v>2</v>
@@ -25530,10 +25529,10 @@
         <v>100</v>
       </c>
       <c r="P318" s="20" t="s">
-        <v>1441</v>
+        <v>1437</v>
       </c>
       <c r="Q318" s="26" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="319" spans="1:17" x14ac:dyDescent="0.15">
@@ -25544,7 +25543,7 @@
         <v>320</v>
       </c>
       <c r="C319" s="31" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="D319" s="20">
         <v>2</v>
@@ -25580,7 +25579,7 @@
         <v>100</v>
       </c>
       <c r="Q319" s="31" t="s">
-        <v>1446</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="320" spans="1:17" x14ac:dyDescent="0.15">
@@ -25591,7 +25590,7 @@
         <v>324</v>
       </c>
       <c r="C320" s="31" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="D320" s="20">
         <v>2</v>
@@ -25627,10 +25626,10 @@
         <v>100</v>
       </c>
       <c r="P320" s="20" t="s">
-        <v>1449</v>
+        <v>1445</v>
       </c>
       <c r="Q320" s="20" t="s">
-        <v>1448</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="321" spans="1:17" x14ac:dyDescent="0.15">
@@ -25641,7 +25640,7 @@
         <v>763</v>
       </c>
       <c r="C321" s="31" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="D321" s="20">
         <v>2</v>
@@ -25677,7 +25676,7 @@
         <v>100</v>
       </c>
       <c r="P321" s="20" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="Q321" s="28" t="s">
         <v>762</v>
@@ -25691,7 +25690,7 @@
         <v>783</v>
       </c>
       <c r="C322" s="31" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="D322" s="20">
         <v>2</v>
@@ -25727,7 +25726,7 @@
         <v>100</v>
       </c>
       <c r="P322" s="20" t="s">
-        <v>1378</v>
+        <v>1374</v>
       </c>
       <c r="Q322" s="28" t="s">
         <v>782</v>
@@ -25741,7 +25740,7 @@
         <v>786</v>
       </c>
       <c r="C323" s="31" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
       <c r="D323" s="20">
         <v>2</v>
@@ -25788,7 +25787,7 @@
         <v>754</v>
       </c>
       <c r="C324" s="31" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="D324" s="20">
         <v>2</v>
@@ -25824,7 +25823,7 @@
         <v>100</v>
       </c>
       <c r="Q324" s="15" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="325" spans="1:17" x14ac:dyDescent="0.15">
@@ -25835,7 +25834,7 @@
         <v>757</v>
       </c>
       <c r="C325" s="20" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="D325" s="20">
         <v>2</v>
@@ -25871,7 +25870,7 @@
         <v>100</v>
       </c>
       <c r="P325" s="20" t="s">
-        <v>1419</v>
+        <v>1415</v>
       </c>
       <c r="Q325" s="28" t="s">
         <v>756</v>
@@ -25882,10 +25881,10 @@
         <v>22120001</v>
       </c>
       <c r="B326" s="20" t="s">
-        <v>1475</v>
+        <v>1471</v>
       </c>
       <c r="C326" s="20" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
       <c r="D326" s="20">
         <v>2</v>
@@ -25894,7 +25893,7 @@
         <v>10</v>
       </c>
       <c r="F326" s="20" t="s">
-        <v>1491</v>
+        <v>1487</v>
       </c>
       <c r="G326" s="20">
         <v>1</v>
@@ -25921,10 +25920,10 @@
         <v>500</v>
       </c>
       <c r="P326" s="20" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="Q326" s="20" t="s">
-        <v>1483</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="327" spans="1:17" x14ac:dyDescent="0.15">
@@ -25932,10 +25931,10 @@
         <v>22120002</v>
       </c>
       <c r="B327" s="20" t="s">
-        <v>1476</v>
+        <v>1472</v>
       </c>
       <c r="C327" s="20" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
       <c r="D327" s="20">
         <v>2</v>
@@ -25944,7 +25943,7 @@
         <v>10</v>
       </c>
       <c r="F327" s="30" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="G327" s="20">
         <v>1</v>
@@ -25971,10 +25970,10 @@
         <v>500</v>
       </c>
       <c r="P327" s="20" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="Q327" s="20" t="s">
-        <v>1484</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="328" spans="1:17" x14ac:dyDescent="0.15">
@@ -25982,10 +25981,10 @@
         <v>22120003</v>
       </c>
       <c r="B328" s="20" t="s">
-        <v>1477</v>
+        <v>1473</v>
       </c>
       <c r="C328" s="20" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
       <c r="D328" s="20">
         <v>2</v>
@@ -25994,7 +25993,7 @@
         <v>10</v>
       </c>
       <c r="F328" s="28" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="G328" s="20">
         <v>1</v>
@@ -26021,10 +26020,10 @@
         <v>500</v>
       </c>
       <c r="P328" s="20" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="Q328" s="20" t="s">
-        <v>1485</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="329" spans="1:17" x14ac:dyDescent="0.15">
@@ -26032,10 +26031,10 @@
         <v>22120004</v>
       </c>
       <c r="B329" s="30" t="s">
-        <v>1478</v>
+        <v>1474</v>
       </c>
       <c r="C329" s="20" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
       <c r="D329" s="20">
         <v>2</v>
@@ -26044,7 +26043,7 @@
         <v>10</v>
       </c>
       <c r="F329" s="30" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="G329" s="20">
         <v>1</v>
@@ -26071,10 +26070,10 @@
         <v>500</v>
       </c>
       <c r="P329" s="20" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="Q329" s="20" t="s">
-        <v>1486</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="330" spans="1:17" x14ac:dyDescent="0.15">
@@ -26082,10 +26081,10 @@
         <v>22120005</v>
       </c>
       <c r="B330" s="30" t="s">
-        <v>1479</v>
+        <v>1475</v>
       </c>
       <c r="C330" s="20" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
       <c r="D330" s="20">
         <v>2</v>
@@ -26094,7 +26093,7 @@
         <v>10</v>
       </c>
       <c r="F330" s="30" t="s">
-        <v>1495</v>
+        <v>1491</v>
       </c>
       <c r="G330" s="20">
         <v>1</v>
@@ -26121,10 +26120,10 @@
         <v>500</v>
       </c>
       <c r="P330" s="20" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="Q330" s="20" t="s">
-        <v>1487</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="331" spans="1:17" x14ac:dyDescent="0.15">
@@ -26132,10 +26131,10 @@
         <v>22120006</v>
       </c>
       <c r="B331" s="28" t="s">
-        <v>1480</v>
+        <v>1476</v>
       </c>
       <c r="C331" s="20" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
       <c r="D331" s="20">
         <v>2</v>
@@ -26144,7 +26143,7 @@
         <v>10</v>
       </c>
       <c r="F331" s="28" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="G331" s="20">
         <v>1</v>
@@ -26171,10 +26170,10 @@
         <v>500</v>
       </c>
       <c r="P331" s="20" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="Q331" s="20" t="s">
-        <v>1488</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="332" spans="1:17" x14ac:dyDescent="0.15">
@@ -26182,10 +26181,10 @@
         <v>22120007</v>
       </c>
       <c r="B332" s="28" t="s">
-        <v>1481</v>
+        <v>1477</v>
       </c>
       <c r="C332" s="20" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="D332" s="20">
         <v>2</v>
@@ -26194,7 +26193,7 @@
         <v>10</v>
       </c>
       <c r="F332" s="28" t="s">
-        <v>1497</v>
+        <v>1493</v>
       </c>
       <c r="G332" s="20">
         <v>1</v>
@@ -26221,10 +26220,10 @@
         <v>500</v>
       </c>
       <c r="P332" s="20" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="Q332" s="20" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="333" spans="1:17" x14ac:dyDescent="0.15">
@@ -26232,10 +26231,10 @@
         <v>22120008</v>
       </c>
       <c r="B333" s="30" t="s">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="C333" s="20" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="D333" s="20">
         <v>2</v>
@@ -26244,7 +26243,7 @@
         <v>10</v>
       </c>
       <c r="F333" s="30" t="s">
-        <v>1498</v>
+        <v>1494</v>
       </c>
       <c r="G333" s="20">
         <v>1</v>
@@ -26271,10 +26270,10 @@
         <v>500</v>
       </c>
       <c r="P333" s="20" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="Q333" s="20" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="334" spans="1:17" x14ac:dyDescent="0.15">
@@ -26282,10 +26281,10 @@
         <v>22120100</v>
       </c>
       <c r="B334" s="30" t="s">
-        <v>1523</v>
+        <v>1519</v>
       </c>
       <c r="C334" s="31" t="s">
-        <v>1524</v>
+        <v>1520</v>
       </c>
       <c r="D334" s="30">
         <v>2</v>
@@ -26294,7 +26293,7 @@
         <v>10</v>
       </c>
       <c r="F334" s="30" t="s">
-        <v>1549</v>
+        <v>1545</v>
       </c>
       <c r="G334" s="30">
         <v>1</v>
@@ -26321,7 +26320,7 @@
         <v>100</v>
       </c>
       <c r="Q334" s="30" t="s">
-        <v>1525</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="335" spans="1:17" x14ac:dyDescent="0.15">
@@ -26329,10 +26328,10 @@
         <v>22120101</v>
       </c>
       <c r="B335" s="30" t="s">
-        <v>1526</v>
+        <v>1522</v>
       </c>
       <c r="C335" s="20" t="s">
-        <v>1527</v>
+        <v>1523</v>
       </c>
       <c r="D335" s="30">
         <v>2</v>
@@ -26341,7 +26340,7 @@
         <v>10</v>
       </c>
       <c r="F335" s="30" t="s">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="G335" s="30">
         <v>1</v>
@@ -26368,7 +26367,7 @@
         <v>100</v>
       </c>
       <c r="Q335" s="30" t="s">
-        <v>1528</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="336" spans="1:17" x14ac:dyDescent="0.15">
@@ -26376,10 +26375,10 @@
         <v>22120102</v>
       </c>
       <c r="B336" s="30" t="s">
-        <v>1529</v>
+        <v>1525</v>
       </c>
       <c r="C336" s="20" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
       <c r="D336" s="30">
         <v>2</v>
@@ -26388,7 +26387,7 @@
         <v>10</v>
       </c>
       <c r="F336" s="30" t="s">
-        <v>1551</v>
+        <v>1547</v>
       </c>
       <c r="G336" s="30">
         <v>1</v>
@@ -26415,7 +26414,7 @@
         <v>100</v>
       </c>
       <c r="Q336" s="20" t="s">
-        <v>1530</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="337" spans="1:17" x14ac:dyDescent="0.15">
@@ -26423,10 +26422,10 @@
         <v>22120103</v>
       </c>
       <c r="B337" s="30" t="s">
-        <v>1552</v>
+        <v>1548</v>
       </c>
       <c r="C337" s="31" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
       <c r="D337" s="30">
         <v>2</v>
@@ -26435,7 +26434,7 @@
         <v>10</v>
       </c>
       <c r="F337" s="30" t="s">
-        <v>1553</v>
+        <v>1549</v>
       </c>
       <c r="G337" s="30">
         <v>1</v>
@@ -26462,7 +26461,7 @@
         <v>100</v>
       </c>
       <c r="Q337" s="20" t="s">
-        <v>1531</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="338" spans="1:17" x14ac:dyDescent="0.15">
@@ -26470,10 +26469,10 @@
         <v>22120104</v>
       </c>
       <c r="B338" s="30" t="s">
-        <v>1554</v>
+        <v>1550</v>
       </c>
       <c r="C338" s="20" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
       <c r="D338" s="30">
         <v>2</v>
@@ -26482,7 +26481,7 @@
         <v>10</v>
       </c>
       <c r="F338" s="30" t="s">
-        <v>1555</v>
+        <v>1551</v>
       </c>
       <c r="G338" s="30">
         <v>1</v>
@@ -26509,7 +26508,7 @@
         <v>100</v>
       </c>
       <c r="Q338" s="20" t="s">
-        <v>1532</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="339" spans="1:17" x14ac:dyDescent="0.15">
@@ -26517,10 +26516,10 @@
         <v>22120105</v>
       </c>
       <c r="B339" s="30" t="s">
-        <v>1556</v>
+        <v>1552</v>
       </c>
       <c r="C339" s="20" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
       <c r="D339" s="30">
         <v>2</v>
@@ -26529,7 +26528,7 @@
         <v>10</v>
       </c>
       <c r="F339" s="30" t="s">
-        <v>1557</v>
+        <v>1553</v>
       </c>
       <c r="G339" s="30">
         <v>1</v>
@@ -26556,7 +26555,7 @@
         <v>100</v>
       </c>
       <c r="Q339" s="20" t="s">
-        <v>1533</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="340" spans="1:17" x14ac:dyDescent="0.15">
@@ -26564,10 +26563,10 @@
         <v>22120106</v>
       </c>
       <c r="B340" s="30" t="s">
-        <v>1558</v>
+        <v>1554</v>
       </c>
       <c r="C340" s="20" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
       <c r="D340" s="30">
         <v>2</v>
@@ -26576,7 +26575,7 @@
         <v>10</v>
       </c>
       <c r="F340" s="30" t="s">
-        <v>1559</v>
+        <v>1555</v>
       </c>
       <c r="G340" s="30">
         <v>1</v>
@@ -26603,7 +26602,7 @@
         <v>100</v>
       </c>
       <c r="Q340" s="20" t="s">
-        <v>1534</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="341" spans="1:17" x14ac:dyDescent="0.15">
@@ -26611,10 +26610,10 @@
         <v>22120107</v>
       </c>
       <c r="B341" s="30" t="s">
-        <v>1560</v>
+        <v>1556</v>
       </c>
       <c r="C341" s="20" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
       <c r="D341" s="30">
         <v>2</v>
@@ -26623,7 +26622,7 @@
         <v>10</v>
       </c>
       <c r="F341" s="30" t="s">
-        <v>1561</v>
+        <v>1557</v>
       </c>
       <c r="G341" s="30">
         <v>1</v>
@@ -26650,7 +26649,7 @@
         <v>100</v>
       </c>
       <c r="Q341" s="20" t="s">
-        <v>1537</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="342" spans="1:17" x14ac:dyDescent="0.15">
@@ -26658,10 +26657,10 @@
         <v>22120108</v>
       </c>
       <c r="B342" s="30" t="s">
-        <v>1562</v>
+        <v>1558</v>
       </c>
       <c r="C342" s="20" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
       <c r="D342" s="30">
         <v>2</v>
@@ -26670,7 +26669,7 @@
         <v>10</v>
       </c>
       <c r="F342" s="30" t="s">
-        <v>1563</v>
+        <v>1559</v>
       </c>
       <c r="G342" s="30">
         <v>1</v>
@@ -26697,7 +26696,7 @@
         <v>100</v>
       </c>
       <c r="Q342" s="20" t="s">
-        <v>1538</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="343" spans="1:17" x14ac:dyDescent="0.15">
@@ -26705,10 +26704,10 @@
         <v>22120109</v>
       </c>
       <c r="B343" s="30" t="s">
-        <v>1564</v>
+        <v>1560</v>
       </c>
       <c r="C343" s="20" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
       <c r="D343" s="30">
         <v>2</v>
@@ -26717,7 +26716,7 @@
         <v>10</v>
       </c>
       <c r="F343" s="30" t="s">
-        <v>1565</v>
+        <v>1561</v>
       </c>
       <c r="G343" s="30">
         <v>1</v>
@@ -26744,7 +26743,7 @@
         <v>100</v>
       </c>
       <c r="Q343" s="20" t="s">
-        <v>1539</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="344" spans="1:17" x14ac:dyDescent="0.15">
@@ -26752,11 +26751,11 @@
         <v>22120110</v>
       </c>
       <c r="B344" s="30" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C344" s="20" t="s">
         <v>1536</v>
       </c>
-      <c r="C344" s="20" t="s">
-        <v>1540</v>
-      </c>
       <c r="D344" s="30">
         <v>2</v>
       </c>
@@ -26764,7 +26763,7 @@
         <v>10</v>
       </c>
       <c r="F344" s="30" t="s">
-        <v>1566</v>
+        <v>1562</v>
       </c>
       <c r="G344" s="30">
         <v>1</v>
@@ -26791,7 +26790,7 @@
         <v>100</v>
       </c>
       <c r="Q344" s="20" t="s">
-        <v>1540</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="345" spans="1:17" x14ac:dyDescent="0.15">
@@ -26799,10 +26798,10 @@
         <v>22120111</v>
       </c>
       <c r="B345" s="30" t="s">
-        <v>1535</v>
+        <v>1531</v>
       </c>
       <c r="C345" s="20" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
       <c r="D345" s="30">
         <v>2</v>
@@ -26811,7 +26810,7 @@
         <v>10</v>
       </c>
       <c r="F345" s="30" t="s">
-        <v>1567</v>
+        <v>1563</v>
       </c>
       <c r="G345" s="30">
         <v>1</v>
@@ -26838,7 +26837,7 @@
         <v>100</v>
       </c>
       <c r="Q345" s="20" t="s">
-        <v>1541</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="346" spans="1:17" x14ac:dyDescent="0.15">
@@ -26846,10 +26845,10 @@
         <v>22120112</v>
       </c>
       <c r="B346" s="30" t="s">
-        <v>1568</v>
+        <v>1564</v>
       </c>
       <c r="C346" s="31" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
       <c r="D346" s="30">
         <v>2</v>
@@ -26858,7 +26857,7 @@
         <v>10</v>
       </c>
       <c r="F346" s="30" t="s">
-        <v>1569</v>
+        <v>1565</v>
       </c>
       <c r="G346" s="30">
         <v>1</v>
@@ -26885,7 +26884,7 @@
         <v>100</v>
       </c>
       <c r="Q346" s="20" t="s">
-        <v>1542</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="347" spans="1:17" x14ac:dyDescent="0.15">
@@ -26893,10 +26892,10 @@
         <v>22120113</v>
       </c>
       <c r="B347" s="30" t="s">
-        <v>1570</v>
+        <v>1566</v>
       </c>
       <c r="C347" s="31" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
       <c r="D347" s="30">
         <v>2</v>
@@ -26905,7 +26904,7 @@
         <v>10</v>
       </c>
       <c r="F347" s="30" t="s">
-        <v>1571</v>
+        <v>1567</v>
       </c>
       <c r="G347" s="30">
         <v>1</v>
@@ -26932,7 +26931,7 @@
         <v>100</v>
       </c>
       <c r="Q347" s="20" t="s">
-        <v>1543</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="348" spans="1:17" x14ac:dyDescent="0.15">
@@ -26940,10 +26939,10 @@
         <v>22120114</v>
       </c>
       <c r="B348" s="30" t="s">
-        <v>1572</v>
+        <v>1568</v>
       </c>
       <c r="C348" s="20" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
       <c r="D348" s="30">
         <v>2</v>
@@ -26952,7 +26951,7 @@
         <v>10</v>
       </c>
       <c r="F348" s="30" t="s">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="G348" s="30">
         <v>1</v>
@@ -26979,7 +26978,7 @@
         <v>100</v>
       </c>
       <c r="Q348" s="20" t="s">
-        <v>1544</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="349" spans="1:17" x14ac:dyDescent="0.15">
@@ -26987,10 +26986,10 @@
         <v>22120115</v>
       </c>
       <c r="B349" s="30" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="C349" s="20" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
       <c r="D349" s="30">
         <v>2</v>
@@ -26999,7 +26998,7 @@
         <v>10</v>
       </c>
       <c r="F349" s="30" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
       <c r="G349" s="30">
         <v>1</v>
@@ -27026,7 +27025,7 @@
         <v>100</v>
       </c>
       <c r="Q349" s="20" t="s">
-        <v>1545</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="350" spans="1:17" x14ac:dyDescent="0.15">
@@ -27034,10 +27033,10 @@
         <v>22120116</v>
       </c>
       <c r="B350" s="30" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="C350" s="20" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
       <c r="D350" s="30">
         <v>2</v>
@@ -27046,7 +27045,7 @@
         <v>10</v>
       </c>
       <c r="F350" s="30" t="s">
-        <v>1577</v>
+        <v>1573</v>
       </c>
       <c r="G350" s="30">
         <v>1</v>
@@ -27073,7 +27072,7 @@
         <v>100</v>
       </c>
       <c r="Q350" s="20" t="s">
-        <v>1546</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="351" spans="1:17" x14ac:dyDescent="0.15">
@@ -27081,10 +27080,10 @@
         <v>22120117</v>
       </c>
       <c r="B351" s="30" t="s">
-        <v>1547</v>
+        <v>1543</v>
       </c>
       <c r="C351" s="31" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
       <c r="D351" s="30">
         <v>2</v>
@@ -27093,7 +27092,7 @@
         <v>10</v>
       </c>
       <c r="F351" s="30" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
       <c r="G351" s="30">
         <v>1</v>
@@ -27120,7 +27119,7 @@
         <v>100</v>
       </c>
       <c r="Q351" s="20" t="s">
-        <v>1548</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="352" spans="1:17" x14ac:dyDescent="0.15">
@@ -27128,10 +27127,10 @@
         <v>22120201</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
       <c r="C352" s="31" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
       <c r="D352" s="30">
         <v>2</v>
@@ -27140,7 +27139,7 @@
         <v>10</v>
       </c>
       <c r="F352" s="6" t="s">
-        <v>1581</v>
+        <v>1577</v>
       </c>
       <c r="G352" s="30">
         <v>1</v>
@@ -27167,7 +27166,7 @@
         <v>100</v>
       </c>
       <c r="Q352" s="20" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
     </row>
   </sheetData>
@@ -27289,7 +27288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27319,7 +27318,7 @@
         <v>704</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>705</v>
@@ -27349,16 +27348,16 @@
         <v>712</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>713</v>
@@ -27372,7 +27371,7 @@
         <v>702</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>701</v>
@@ -27402,16 +27401,16 @@
         <v>726</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>701</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>702</v>
@@ -27425,7 +27424,7 @@
         <v>715</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>716</v>
@@ -27455,16 +27454,16 @@
         <v>725</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>722</v>
@@ -27475,10 +27474,10 @@
         <v>22200001</v>
       </c>
       <c r="B4" t="s">
-        <v>1244</v>
+        <v>1240</v>
       </c>
       <c r="C4" t="s">
-        <v>1241</v>
+        <v>1237</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -27487,7 +27486,7 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>1225</v>
+        <v>1221</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -27511,10 +27510,10 @@
         <v>22200002</v>
       </c>
       <c r="B5" t="s">
-        <v>1505</v>
+        <v>1501</v>
       </c>
       <c r="C5" t="s">
-        <v>1506</v>
+        <v>1502</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -27523,7 +27522,7 @@
         <v>15</v>
       </c>
       <c r="F5" t="s">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -27550,7 +27549,7 @@
         <v>604</v>
       </c>
       <c r="C6" t="s">
-        <v>1226</v>
+        <v>1222</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -27586,7 +27585,7 @@
         <v>607</v>
       </c>
       <c r="C7" t="s">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -27622,7 +27621,7 @@
         <v>610</v>
       </c>
       <c r="C8" t="s">
-        <v>1228</v>
+        <v>1224</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -27658,7 +27657,7 @@
         <v>613</v>
       </c>
       <c r="C9" t="s">
-        <v>1229</v>
+        <v>1225</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -27694,7 +27693,7 @@
         <v>616</v>
       </c>
       <c r="C10" t="s">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -27730,7 +27729,7 @@
         <v>619</v>
       </c>
       <c r="C11" t="s">
-        <v>1231</v>
+        <v>1227</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -27766,7 +27765,7 @@
         <v>622</v>
       </c>
       <c r="C12" t="s">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -27802,7 +27801,7 @@
         <v>625</v>
       </c>
       <c r="C13" t="s">
-        <v>1233</v>
+        <v>1229</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -27838,7 +27837,7 @@
         <v>628</v>
       </c>
       <c r="C14" t="s">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -27874,7 +27873,7 @@
         <v>349</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>1235</v>
+        <v>1231</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -27914,7 +27913,7 @@
         <v>352</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>1236</v>
+        <v>1232</v>
       </c>
       <c r="D16">
         <v>3</v>
@@ -27954,7 +27953,7 @@
         <v>355</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -27994,7 +27993,7 @@
         <v>358</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>1238</v>
+        <v>1234</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -28034,7 +28033,7 @@
         <v>361</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>1239</v>
+        <v>1235</v>
       </c>
       <c r="D19">
         <v>3</v>
@@ -28074,7 +28073,7 @@
         <v>364</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>1240</v>
+        <v>1236</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -28167,14 +28166,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B100" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C73" sqref="C73"/>
+      <selection pane="bottomRight" activeCell="H121" sqref="H121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -28198,7 +28197,7 @@
         <v>704</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>705</v>
@@ -28228,16 +28227,16 @@
         <v>712</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
       <c r="N1" s="12" t="s">
-        <v>1520</v>
+        <v>1516</v>
       </c>
       <c r="O1" s="12" t="s">
-        <v>1519</v>
+        <v>1515</v>
       </c>
       <c r="P1" s="12" t="s">
-        <v>1260</v>
+        <v>1256</v>
       </c>
       <c r="Q1" s="13" t="s">
         <v>713</v>
@@ -28251,7 +28250,7 @@
         <v>702</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>701</v>
@@ -28281,16 +28280,16 @@
         <v>726</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1521</v>
+        <v>1517</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>701</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>1261</v>
+        <v>1257</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>702</v>
@@ -28304,7 +28303,7 @@
         <v>715</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>716</v>
@@ -28334,16 +28333,16 @@
         <v>725</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>1522</v>
+        <v>1518</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>1518</v>
+        <v>1514</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>1262</v>
+        <v>1258</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>722</v>
@@ -28357,7 +28356,7 @@
         <v>631</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>1242</v>
+        <v>1238</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -28389,10 +28388,10 @@
         <v>22301201</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
       <c r="D5" s="4">
         <v>1</v>
@@ -28401,7 +28400,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -28422,7 +28421,7 @@
         <v>729</v>
       </c>
       <c r="Q5" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
@@ -28430,10 +28429,10 @@
         <v>22301202</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
@@ -28442,7 +28441,7 @@
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -28463,7 +28462,7 @@
         <v>729</v>
       </c>
       <c r="Q6" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
@@ -28471,10 +28470,10 @@
         <v>22301203</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
@@ -28483,7 +28482,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -28504,7 +28503,7 @@
         <v>729</v>
       </c>
       <c r="Q7" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
@@ -28512,10 +28511,10 @@
         <v>22301212</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
@@ -28553,10 +28552,10 @@
         <v>22301213</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>1507</v>
+        <v>1503</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -28594,10 +28593,10 @@
         <v>22301214</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -28635,10 +28634,10 @@
         <v>22301215</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -28676,10 +28675,10 @@
         <v>22301216</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -28717,10 +28716,10 @@
         <v>22301217</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -28758,10 +28757,10 @@
         <v>22301218</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -28799,10 +28798,10 @@
         <v>22301221</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -28840,10 +28839,10 @@
         <v>22301222</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -28881,10 +28880,10 @@
         <v>22301223</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -28922,10 +28921,10 @@
         <v>22301231</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -28934,7 +28933,7 @@
         <v>16</v>
       </c>
       <c r="F18" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -28955,7 +28954,7 @@
         <v>729</v>
       </c>
       <c r="Q18" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
@@ -28963,10 +28962,10 @@
         <v>22301232</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -28975,7 +28974,7 @@
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -28996,7 +28995,7 @@
         <v>729</v>
       </c>
       <c r="Q19" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
@@ -29004,10 +29003,10 @@
         <v>22301233</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -29016,7 +29015,7 @@
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -29037,7 +29036,7 @@
         <v>729</v>
       </c>
       <c r="Q20" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
@@ -29045,10 +29044,10 @@
         <v>22301234</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -29057,7 +29056,7 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -29078,7 +29077,7 @@
         <v>729</v>
       </c>
       <c r="Q21" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
@@ -29086,10 +29085,10 @@
         <v>22301235</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -29098,7 +29097,7 @@
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -29119,7 +29118,7 @@
         <v>729</v>
       </c>
       <c r="Q22" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
@@ -29127,10 +29126,10 @@
         <v>22301236</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -29139,7 +29138,7 @@
         <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -29160,7 +29159,7 @@
         <v>729</v>
       </c>
       <c r="Q23" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
@@ -29168,10 +29167,10 @@
         <v>22301237</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -29180,7 +29179,7 @@
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -29201,7 +29200,7 @@
         <v>729</v>
       </c>
       <c r="Q24" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
@@ -29209,10 +29208,10 @@
         <v>22301238</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -29221,7 +29220,7 @@
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -29242,7 +29241,7 @@
         <v>729</v>
       </c>
       <c r="Q25" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
@@ -29250,10 +29249,10 @@
         <v>22301239</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -29262,7 +29261,7 @@
         <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="G26">
         <v>1</v>
@@ -29283,7 +29282,7 @@
         <v>729</v>
       </c>
       <c r="Q26" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
@@ -29291,10 +29290,10 @@
         <v>22301240</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -29303,7 +29302,7 @@
         <v>16</v>
       </c>
       <c r="F27" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="G27">
         <v>1</v>
@@ -29324,7 +29323,7 @@
         <v>729</v>
       </c>
       <c r="Q27" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
@@ -29332,10 +29331,10 @@
         <v>22301241</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -29344,7 +29343,7 @@
         <v>16</v>
       </c>
       <c r="F28" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="G28">
         <v>1</v>
@@ -29365,7 +29364,7 @@
         <v>729</v>
       </c>
       <c r="Q28" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
@@ -29373,10 +29372,10 @@
         <v>22301242</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -29385,7 +29384,7 @@
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -29406,7 +29405,7 @@
         <v>729</v>
       </c>
       <c r="Q29" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
@@ -29414,10 +29413,10 @@
         <v>22301243</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -29426,7 +29425,7 @@
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="G30">
         <v>1</v>
@@ -29447,7 +29446,7 @@
         <v>729</v>
       </c>
       <c r="Q30" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
@@ -29455,10 +29454,10 @@
         <v>22301244</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -29467,7 +29466,7 @@
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="G31">
         <v>1</v>
@@ -29488,7 +29487,7 @@
         <v>729</v>
       </c>
       <c r="Q31" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
@@ -29496,10 +29495,10 @@
         <v>22301245</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -29508,7 +29507,7 @@
         <v>16</v>
       </c>
       <c r="F32" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="G32">
         <v>1</v>
@@ -29529,7 +29528,7 @@
         <v>729</v>
       </c>
       <c r="Q32" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
@@ -29537,10 +29536,10 @@
         <v>22301246</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -29549,7 +29548,7 @@
         <v>16</v>
       </c>
       <c r="F33" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="G33">
         <v>1</v>
@@ -29570,7 +29569,7 @@
         <v>729</v>
       </c>
       <c r="Q33" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
@@ -29578,10 +29577,10 @@
         <v>22301301</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -29619,10 +29618,10 @@
         <v>22301302</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -29660,10 +29659,10 @@
         <v>22301303</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="D36" s="4">
         <v>1</v>
@@ -29701,10 +29700,10 @@
         <v>22301304</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="D37" s="4">
         <v>1</v>
@@ -29742,10 +29741,10 @@
         <v>22301305</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="D38" s="4">
         <v>1</v>
@@ -29786,7 +29785,7 @@
         <v>855</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="D39" s="4">
         <v>1</v>
@@ -29827,7 +29826,7 @@
         <v>856</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -29868,7 +29867,7 @@
         <v>857</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="D41" s="4">
         <v>1</v>
@@ -29909,7 +29908,7 @@
         <v>858</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="D42" s="4">
         <v>1</v>
@@ -29947,10 +29946,10 @@
         <v>22301321</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="D43" s="4">
         <v>1</v>
@@ -29988,10 +29987,10 @@
         <v>22301322</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="D44" s="4">
         <v>1</v>
@@ -30029,10 +30028,10 @@
         <v>22301323</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="D45" s="4">
         <v>1</v>
@@ -30070,10 +30069,10 @@
         <v>22301324</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="D46" s="4">
         <v>1</v>
@@ -30111,10 +30110,10 @@
         <v>22301325</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="D47" s="4">
         <v>1</v>
@@ -30152,10 +30151,10 @@
         <v>22301326</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="D48" s="4">
         <v>1</v>
@@ -30193,10 +30192,10 @@
         <v>22301327</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="D49" s="4">
         <v>1</v>
@@ -30237,7 +30236,7 @@
         <v>886</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="D50" s="4">
         <v>1</v>
@@ -30278,7 +30277,7 @@
         <v>887</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="D51" s="4">
         <v>1</v>
@@ -30319,7 +30318,7 @@
         <v>888</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="D52" s="4">
         <v>1</v>
@@ -30360,7 +30359,7 @@
         <v>889</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="D53" s="4">
         <v>1</v>
@@ -30401,7 +30400,7 @@
         <v>890</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="D54" s="4">
         <v>1</v>
@@ -30442,7 +30441,7 @@
         <v>891</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="D55" s="4">
         <v>1</v>
@@ -30483,7 +30482,7 @@
         <v>892</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="D56" s="4">
         <v>1</v>
@@ -30524,7 +30523,7 @@
         <v>893</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>1167</v>
+        <v>1164</v>
       </c>
       <c r="D57" s="4">
         <v>1</v>
@@ -30565,7 +30564,7 @@
         <v>894</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="D58" s="4">
         <v>1</v>
@@ -30606,7 +30605,7 @@
         <v>895</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>1169</v>
+        <v>1166</v>
       </c>
       <c r="D59" s="4">
         <v>1</v>
@@ -30647,7 +30646,7 @@
         <v>896</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>1170</v>
+        <v>1167</v>
       </c>
       <c r="D60" s="4">
         <v>1</v>
@@ -30688,7 +30687,7 @@
         <v>897</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>1171</v>
+        <v>1168</v>
       </c>
       <c r="D61" s="4">
         <v>1</v>
@@ -30729,7 +30728,7 @@
         <v>898</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>1172</v>
+        <v>1169</v>
       </c>
       <c r="D62" s="4">
         <v>1</v>
@@ -30770,7 +30769,7 @@
         <v>899</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>1173</v>
+        <v>1170</v>
       </c>
       <c r="D63" s="4">
         <v>1</v>
@@ -30811,7 +30810,7 @@
         <v>900</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>1174</v>
+        <v>1171</v>
       </c>
       <c r="D64" s="4">
         <v>1</v>
@@ -30852,7 +30851,7 @@
         <v>901</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>1175</v>
+        <v>1172</v>
       </c>
       <c r="D65" s="4">
         <v>1</v>
@@ -30893,7 +30892,7 @@
         <v>639</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>1176</v>
+        <v>1173</v>
       </c>
       <c r="D66" s="4">
         <v>1</v>
@@ -30931,7 +30930,7 @@
         <v>641</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>1177</v>
+        <v>1174</v>
       </c>
       <c r="D67" s="4">
         <v>1</v>
@@ -30969,7 +30968,7 @@
         <v>643</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="D68" s="4">
         <v>1</v>
@@ -31007,7 +31006,7 @@
         <v>645</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="D69" s="4">
         <v>1</v>
@@ -31045,7 +31044,7 @@
         <v>647</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>1180</v>
+        <v>1177</v>
       </c>
       <c r="D70" s="4">
         <v>1</v>
@@ -31083,7 +31082,7 @@
         <v>649</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="D71" s="4">
         <v>1</v>
@@ -31121,7 +31120,7 @@
         <v>651</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="D72" s="4">
         <v>1</v>
@@ -31159,7 +31158,7 @@
         <v>736</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="D73" s="4">
         <v>1</v>
@@ -31197,7 +31196,7 @@
         <v>639</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>1512</v>
+        <v>1508</v>
       </c>
       <c r="D74" s="4">
         <v>1</v>
@@ -31235,7 +31234,7 @@
         <v>641</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>1513</v>
+        <v>1509</v>
       </c>
       <c r="D75" s="4">
         <v>1</v>
@@ -31273,7 +31272,7 @@
         <v>643</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>1514</v>
+        <v>1510</v>
       </c>
       <c r="D76" s="4">
         <v>1</v>
@@ -31311,7 +31310,7 @@
         <v>645</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>1515</v>
+        <v>1511</v>
       </c>
       <c r="D77" s="4">
         <v>1</v>
@@ -31349,7 +31348,7 @@
         <v>647</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>1516</v>
+        <v>1512</v>
       </c>
       <c r="D78" s="4">
         <v>1</v>
@@ -31387,7 +31386,7 @@
         <v>649</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="D79" s="4">
         <v>1</v>
@@ -31425,7 +31424,7 @@
         <v>686</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>1256</v>
+        <v>1252</v>
       </c>
       <c r="D80" s="4">
         <v>1</v>
@@ -31464,7 +31463,7 @@
         <v>847</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>1257</v>
+        <v>1253</v>
       </c>
       <c r="D81" s="4">
         <v>1</v>
@@ -31503,7 +31502,7 @@
         <v>691</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>1258</v>
+        <v>1254</v>
       </c>
       <c r="D82" s="4">
         <v>1</v>
@@ -31542,7 +31541,7 @@
         <v>694</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>1259</v>
+        <v>1255</v>
       </c>
       <c r="D83" s="4">
         <v>1</v>
@@ -31578,10 +31577,10 @@
         <v>22301601</v>
       </c>
       <c r="B84" s="4" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>1248</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>1252</v>
       </c>
       <c r="D84" s="4">
         <v>1</v>
@@ -31617,10 +31616,10 @@
         <v>22301602</v>
       </c>
       <c r="B85" s="4" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>1249</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>1253</v>
       </c>
       <c r="D85" s="4">
         <v>1</v>
@@ -31656,10 +31655,10 @@
         <v>22301603</v>
       </c>
       <c r="B86" s="4" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C86" s="4" t="s">
         <v>1250</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>1254</v>
       </c>
       <c r="D86" s="4">
         <v>1</v>
@@ -31687,7 +31686,7 @@
         <v>727</v>
       </c>
       <c r="Q86" t="s">
-        <v>1245</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.15">
@@ -31695,10 +31694,10 @@
         <v>22301604</v>
       </c>
       <c r="B87" s="4" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C87" s="4" t="s">
         <v>1251</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>1255</v>
       </c>
       <c r="D87" s="4">
         <v>1</v>
@@ -31707,7 +31706,7 @@
         <v>13</v>
       </c>
       <c r="F87" t="s">
-        <v>1247</v>
+        <v>1243</v>
       </c>
       <c r="G87">
         <v>1</v>
@@ -31726,7 +31725,7 @@
         <v>727</v>
       </c>
       <c r="Q87" t="s">
-        <v>1246</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.15">
@@ -31737,7 +31736,7 @@
         <v>653</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="D88" s="4">
         <v>1</v>
@@ -31778,7 +31777,7 @@
         <v>654</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="D89" s="4">
         <v>1</v>
@@ -31819,7 +31818,7 @@
         <v>656</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="D90" s="4">
         <v>1</v>
@@ -31860,7 +31859,7 @@
         <v>658</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="D91" s="4">
         <v>1</v>
@@ -31901,7 +31900,7 @@
         <v>660</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="D92" s="4">
         <v>1</v>
@@ -31942,7 +31941,7 @@
         <v>662</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="D93" s="4">
         <v>1</v>
@@ -31983,7 +31982,7 @@
         <v>818</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="D94" s="4">
         <v>1</v>
@@ -32024,7 +32023,7 @@
         <v>819</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="D95" s="4">
         <v>1</v>
@@ -32065,7 +32064,7 @@
         <v>820</v>
       </c>
       <c r="C96" s="4" t="s">
-        <v>1190</v>
+        <v>1187</v>
       </c>
       <c r="D96" s="4">
         <v>1</v>
@@ -32106,7 +32105,7 @@
         <v>730</v>
       </c>
       <c r="C97" s="4" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="D97" s="4">
         <v>1</v>
@@ -32147,7 +32146,7 @@
         <v>665</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="D98" s="4">
         <v>1</v>
@@ -32188,7 +32187,7 @@
         <v>667</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>1192</v>
+        <v>1189</v>
       </c>
       <c r="D99" s="4">
         <v>1</v>
@@ -32229,7 +32228,7 @@
         <v>669</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
       <c r="D100" s="4">
         <v>1</v>
@@ -32270,7 +32269,7 @@
         <v>671</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>1194</v>
+        <v>1191</v>
       </c>
       <c r="D101" s="4">
         <v>1</v>
@@ -32311,7 +32310,7 @@
         <v>673</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D102" s="4">
         <v>1</v>
@@ -32352,7 +32351,7 @@
         <v>842</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="D103" s="4">
         <v>1</v>
@@ -32393,7 +32392,7 @@
         <v>843</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="D104" s="4">
         <v>1</v>
@@ -32434,7 +32433,7 @@
         <v>844</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>1198</v>
+        <v>1195</v>
       </c>
       <c r="D105" s="4">
         <v>1</v>
@@ -32475,7 +32474,7 @@
         <v>675</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="D106" s="4">
         <v>1</v>
@@ -32516,7 +32515,7 @@
         <v>677</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>1199</v>
+        <v>1196</v>
       </c>
       <c r="D107" s="4">
         <v>1</v>
@@ -32554,10 +32553,10 @@
         <v>22302103</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="C108" s="4" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
       <c r="D108" s="4">
         <v>1</v>
@@ -32566,7 +32565,7 @@
         <v>13</v>
       </c>
       <c r="F108" t="s">
-        <v>1793</v>
+        <v>1789</v>
       </c>
       <c r="G108">
         <v>1</v>
@@ -32595,10 +32594,10 @@
         <v>22302104</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="D109" s="4">
         <v>1</v>
@@ -32607,7 +32606,7 @@
         <v>13</v>
       </c>
       <c r="F109" t="s">
-        <v>1794</v>
+        <v>1790</v>
       </c>
       <c r="G109">
         <v>1</v>
@@ -32636,10 +32635,10 @@
         <v>22302105</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
       <c r="D110" s="4">
         <v>1</v>
@@ -32648,7 +32647,7 @@
         <v>13</v>
       </c>
       <c r="F110" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
       <c r="G110">
         <v>1</v>
@@ -32677,10 +32676,10 @@
         <v>22302106</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="D111" s="4">
         <v>1</v>
@@ -32689,7 +32688,7 @@
         <v>13</v>
       </c>
       <c r="F111" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
       <c r="G111">
         <v>1</v>
@@ -32718,10 +32717,10 @@
         <v>22302107</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
       <c r="D112" s="4">
         <v>1</v>
@@ -32730,7 +32729,7 @@
         <v>13</v>
       </c>
       <c r="F112" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
       <c r="G112" s="14">
         <v>1</v>
@@ -32761,10 +32760,10 @@
         <v>22302108</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
       <c r="C113" s="4" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="D113" s="4">
         <v>1</v>
@@ -32773,7 +32772,7 @@
         <v>13</v>
       </c>
       <c r="F113" t="s">
-        <v>1796</v>
+        <v>1792</v>
       </c>
       <c r="G113" s="14">
         <v>1</v>
@@ -32804,10 +32803,10 @@
         <v>22302109</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="D114" s="4">
         <v>1</v>
@@ -32816,7 +32815,7 @@
         <v>13</v>
       </c>
       <c r="F114" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
       <c r="G114" s="14">
         <v>1</v>
@@ -32850,7 +32849,7 @@
         <v>975</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>1200</v>
+        <v>1197</v>
       </c>
       <c r="D115" s="4">
         <v>1</v>
@@ -32891,7 +32890,7 @@
         <v>976</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>1201</v>
+        <v>1198</v>
       </c>
       <c r="D116" s="4">
         <v>1</v>
@@ -32932,7 +32931,7 @@
         <v>977</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>1202</v>
+        <v>1199</v>
       </c>
       <c r="D117" s="4">
         <v>1</v>
@@ -32973,7 +32972,7 @@
         <v>979</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>1203</v>
+        <v>1200</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>
@@ -33011,10 +33010,10 @@
         <v>22302114</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>1204</v>
+        <v>1201</v>
       </c>
       <c r="D119" s="6">
         <v>1</v>
@@ -33046,7 +33045,7 @@
       <c r="O119" s="16"/>
       <c r="P119" s="16"/>
       <c r="Q119" s="15" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.15">
@@ -33054,10 +33053,10 @@
         <v>22302115</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="D120" s="6">
         <v>1</v>
@@ -33066,7 +33065,7 @@
         <v>13</v>
       </c>
       <c r="F120" s="15" t="s">
-        <v>982</v>
+        <v>986</v>
       </c>
       <c r="G120" s="15">
         <v>1</v>
@@ -33089,7 +33088,7 @@
       <c r="O120" s="16"/>
       <c r="P120" s="16"/>
       <c r="Q120" s="15" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.15">
@@ -33097,10 +33096,10 @@
         <v>22302116</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>988</v>
+        <v>1814</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>1206</v>
+        <v>1815</v>
       </c>
       <c r="D121" s="6">
         <v>1</v>
@@ -33109,13 +33108,13 @@
         <v>13</v>
       </c>
       <c r="F121" s="15" t="s">
-        <v>989</v>
+        <v>1816</v>
       </c>
       <c r="G121" s="15">
         <v>1</v>
       </c>
       <c r="H121" s="20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I121">
         <v>99</v>
@@ -33132,12 +33131,12 @@
       <c r="O121" s="16"/>
       <c r="P121" s="16"/>
       <c r="Q121" s="15" t="s">
-        <v>987</v>
+        <v>1815</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="J97:J113 F9:J11 J5:J21 O8:P21 E115:J121 K5:P7 K8:N37 E4:G4 E88:J108 K88:Q121 K38:P73 E12:J73 E80:Q87 I4:Q4 E108:E114 F109:J114 Q5:Q73 E5:J8">
+  <conditionalFormatting sqref="J97:J113 F9:J11 J5:J21 O8:P21 K5:P7 K8:N37 E4:G4 E88:J108 K88:Q121 K38:P73 E12:J73 E80:Q87 I4:Q4 E108:E114 F109:J114 Q5:Q73 E5:J8 E115:J121">
     <cfRule type="containsBlanks" dxfId="29" priority="15">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
@@ -33201,7 +33200,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33212,12 +33211,12 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
-        <v>1472</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="B2">
         <f>COUNTIF(材料!P:P,"*"&amp;A2&amp;"*")</f>
@@ -33226,7 +33225,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>1451</v>
+        <v>1447</v>
       </c>
       <c r="B3">
         <f>COUNTIF(材料!P:P,"*"&amp;A3&amp;"*")</f>
@@ -33235,7 +33234,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="B4">
         <f>COUNTIF(材料!P:P,"*"&amp;A4&amp;"*")</f>
@@ -33244,7 +33243,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>1461</v>
+        <v>1457</v>
       </c>
       <c r="B5">
         <f>COUNTIF(材料!P:P,"*"&amp;A5&amp;"*")</f>
@@ -33253,7 +33252,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="B6">
         <f>COUNTIF(材料!P:P,"*"&amp;A6&amp;"*")</f>
@@ -33262,7 +33261,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>1268</v>
+        <v>1264</v>
       </c>
       <c r="B7">
         <f>COUNTIF(材料!P:P,"*"&amp;A7&amp;"*")</f>
@@ -33271,7 +33270,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="B8">
         <f>COUNTIF(材料!P:P,"*"&amp;A8&amp;"*")</f>
@@ -33280,7 +33279,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="B9">
         <f>COUNTIF(材料!P:P,"*"&amp;A9&amp;"*")</f>
@@ -33289,7 +33288,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="B10">
         <f>COUNTIF(材料!P:P,"*"&amp;A10&amp;"*")</f>
@@ -33298,7 +33297,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="B11">
         <f>COUNTIF(材料!P:P,"*"&amp;A11&amp;"*")</f>
@@ -33307,7 +33306,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>1445</v>
+        <v>1441</v>
       </c>
       <c r="B12">
         <f>COUNTIF(材料!P:P,"*"&amp;A12&amp;"*")</f>
@@ -33316,7 +33315,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="B13">
         <f>COUNTIF(材料!P:P,"*"&amp;A13&amp;"*")</f>
@@ -33325,7 +33324,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>1383</v>
+        <v>1379</v>
       </c>
       <c r="B14">
         <f>COUNTIF(材料!P:P,"*"&amp;A14&amp;"*")</f>
@@ -33334,7 +33333,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>1381</v>
+        <v>1377</v>
       </c>
       <c r="B15">
         <f>COUNTIF(材料!P:P,"*"&amp;A15&amp;"*")</f>
@@ -33343,7 +33342,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>1423</v>
+        <v>1419</v>
       </c>
       <c r="B16">
         <f>COUNTIF(材料!P:P,"*"&amp;A16&amp;"*")</f>
@@ -33352,7 +33351,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="B17">
         <f>COUNTIF(材料!P:P,"*"&amp;A17&amp;"*")</f>
@@ -33361,7 +33360,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>1471</v>
+        <v>1467</v>
       </c>
       <c r="B18">
         <f>COUNTIF(材料!P:P,"*"&amp;A18&amp;"*")</f>
@@ -33370,7 +33369,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="B19">
         <f>COUNTIF(材料!P:P,"*"&amp;A19&amp;"*")</f>
@@ -33378,7 +33377,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B19"/>
+  <autoFilter ref="A1:B19" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ConfigData/Xlsx/HItem.xlsx
+++ b/ConfigData/Xlsx/HItem.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TOMClassic\ConfigData\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Code\TOMClassicGit\ConfigData\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FBEBE9CB-260D-4A5E-A5A2-2F3C79107487}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="18135" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="材料" sheetId="1" r:id="rId1"/>
@@ -26,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Real</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,12 +89,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Real</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -154,12 +153,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Real</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3487" uniqueCount="1861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3493" uniqueCount="1865">
   <si>
     <t>血蓟</t>
   </si>
@@ -6532,11 +6531,26 @@
     <t>获得三个随机种子</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>fuwen2</t>
+  </si>
+  <si>
+    <t>符文-艾德</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuwen-aide</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次战斗召唤的所有单位获得圣盾</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6790,6 +6804,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -9272,6 +9287,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -9284,87 +9367,87 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="表1" displayName="表1" ref="A3:Q352" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94" tableBorderDxfId="93">
-  <autoFilter ref="A3:Q352" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:Q352" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94" tableBorderDxfId="93">
+  <autoFilter ref="A3:Q352"/>
   <sortState ref="A4:Q352">
     <sortCondition ref="A3:A352"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Id" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="91"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Ename"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Type" dataDxfId="90"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="SubType"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Descript" dataDxfId="89"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Level" dataDxfId="88"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Rare" dataDxfId="87"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="MaxPile" dataDxfId="86"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="ValueFactor" dataDxfId="85"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="IsUsable" dataDxfId="84"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="IsThrowable" dataDxfId="83"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="ShowCollectTip" dataDxfId="82"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="RandomGroup"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Frequency" dataDxfId="81"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Attributes"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Url" dataDxfId="80"/>
+    <tableColumn id="1" name="Id" dataDxfId="92"/>
+    <tableColumn id="2" name="Name" dataDxfId="91"/>
+    <tableColumn id="10" name="Ename"/>
+    <tableColumn id="3" name="Type" dataDxfId="90"/>
+    <tableColumn id="13" name="SubType"/>
+    <tableColumn id="4" name="Descript" dataDxfId="89"/>
+    <tableColumn id="5" name="Level" dataDxfId="88"/>
+    <tableColumn id="6" name="Rare" dataDxfId="87"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="86"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="85"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="84"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="83"/>
+    <tableColumn id="17" name="ShowCollectTip" dataDxfId="82"/>
+    <tableColumn id="16" name="RandomGroup"/>
+    <tableColumn id="15" name="Frequency" dataDxfId="81"/>
+    <tableColumn id="9" name="Attributes"/>
+    <tableColumn id="14" name="Url" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="表1_3" displayName="表1_3" ref="A3:Q20" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78" tableBorderDxfId="77">
-  <autoFilter ref="A3:Q20" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:Q20" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78" tableBorderDxfId="77">
+  <autoFilter ref="A3:Q20"/>
   <sortState ref="A4:R435">
     <sortCondition ref="A3:A435"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Id" dataDxfId="76"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataDxfId="75"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Ename" dataDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Type" dataDxfId="73"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="SubType" dataDxfId="72"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Descript" dataDxfId="71"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Level" dataDxfId="70"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Rare" dataDxfId="69"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="MaxPile" dataDxfId="68"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="ValueFactor" dataDxfId="67"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="IsUsable" dataDxfId="66"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="IsThrowable" dataDxfId="65"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="ShowCollectTip" dataDxfId="64"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="RandomGroup" dataDxfId="63"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Frequency" dataDxfId="62"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Attributes" dataDxfId="61"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Url" dataDxfId="60"/>
+    <tableColumn id="1" name="Id" dataDxfId="76"/>
+    <tableColumn id="2" name="Name" dataDxfId="75"/>
+    <tableColumn id="10" name="Ename" dataDxfId="74"/>
+    <tableColumn id="3" name="Type" dataDxfId="73"/>
+    <tableColumn id="13" name="SubType" dataDxfId="72"/>
+    <tableColumn id="4" name="Descript" dataDxfId="71"/>
+    <tableColumn id="5" name="Level" dataDxfId="70"/>
+    <tableColumn id="6" name="Rare" dataDxfId="69"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="68"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="67"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="66"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="65"/>
+    <tableColumn id="17" name="ShowCollectTip" dataDxfId="64"/>
+    <tableColumn id="16" name="RandomGroup" dataDxfId="63"/>
+    <tableColumn id="15" name="Frequency" dataDxfId="62"/>
+    <tableColumn id="9" name="Attributes" dataDxfId="61"/>
+    <tableColumn id="14" name="Url" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="表1_34" displayName="表1_34" ref="A3:Q132" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57">
-  <autoFilter ref="A3:Q132" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState ref="A4:Q132">
-    <sortCondition ref="A3:A132"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:Q133" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57">
+  <autoFilter ref="A3:Q133"/>
+  <sortState ref="A4:Q133">
+    <sortCondition ref="A3:A133"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Id" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="55"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0200-00000A000000}" name="Ename" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Type" dataDxfId="53"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0200-00000D000000}" name="SubType" dataDxfId="52"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Descript" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Level" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Rare" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="MaxPile" dataDxfId="48"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="ValueFactor" dataDxfId="47"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0200-00000B000000}" name="IsUsable" dataDxfId="46"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0200-00000C000000}" name="IsThrowable" dataDxfId="45"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0200-000011000000}" name="ShowCollectTip"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0200-000010000000}" name="RandomGroup"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0200-00000F000000}" name="Frequency" dataDxfId="44"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0200-000009000000}" name="Attributes" dataDxfId="43"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0200-00000E000000}" name="Url" dataDxfId="42"/>
+    <tableColumn id="1" name="Id" dataDxfId="56"/>
+    <tableColumn id="2" name="Name" dataDxfId="55"/>
+    <tableColumn id="10" name="Ename" dataDxfId="54"/>
+    <tableColumn id="3" name="Type" dataDxfId="53"/>
+    <tableColumn id="13" name="SubType" dataDxfId="52"/>
+    <tableColumn id="4" name="Descript" dataDxfId="51"/>
+    <tableColumn id="5" name="Level" dataDxfId="50"/>
+    <tableColumn id="6" name="Rare" dataDxfId="49"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="48"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="47"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="46"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="45"/>
+    <tableColumn id="17" name="ShowCollectTip"/>
+    <tableColumn id="16" name="RandomGroup"/>
+    <tableColumn id="15" name="Frequency" dataDxfId="44"/>
+    <tableColumn id="9" name="Attributes" dataDxfId="43"/>
+    <tableColumn id="14" name="Url" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9378,7 +9461,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -9690,7 +9773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -27435,7 +27518,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -28313,14 +28396,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B82" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B91" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F98" sqref="F98"/>
+      <selection pane="bottomRight" activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -32930,7 +33013,7 @@
         <v>1</v>
       </c>
       <c r="H112" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I112">
         <v>99</v>
@@ -32991,13 +33074,13 @@
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A114">
-        <v>22302030</v>
+        <v>22302019</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>834</v>
+        <v>1862</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>1168</v>
+        <v>1863</v>
       </c>
       <c r="D114" s="4">
         <v>1</v>
@@ -33006,7 +33089,7 @@
         <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>828</v>
+        <v>1864</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -33027,18 +33110,18 @@
         <v>719</v>
       </c>
       <c r="Q114" t="s">
-        <v>831</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A115">
-        <v>22302031</v>
+        <v>22302030</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="D115" s="4">
         <v>1</v>
@@ -33047,13 +33130,13 @@
         <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G115">
         <v>1</v>
       </c>
       <c r="H115" s="20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I115">
         <v>99</v>
@@ -33068,18 +33151,18 @@
         <v>719</v>
       </c>
       <c r="Q115" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A116">
-        <v>22302032</v>
+        <v>22302031</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="D116" s="4">
         <v>1</v>
@@ -33088,13 +33171,13 @@
         <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G116">
         <v>1</v>
       </c>
       <c r="H116" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I116">
         <v>99</v>
@@ -33109,33 +33192,33 @@
         <v>719</v>
       </c>
       <c r="Q116" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A117">
-        <v>22302101</v>
+        <v>22302032</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>673</v>
+        <v>836</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>1472</v>
+        <v>1170</v>
       </c>
       <c r="D117" s="4">
         <v>1</v>
       </c>
       <c r="E117">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>805</v>
+        <v>830</v>
       </c>
       <c r="G117">
         <v>1</v>
       </c>
       <c r="H117" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I117">
         <v>99</v>
@@ -33144,24 +33227,24 @@
         <v>200</v>
       </c>
       <c r="K117" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="L117" t="s">
         <v>719</v>
       </c>
       <c r="Q117" t="s">
-        <v>674</v>
+        <v>833</v>
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A118">
-        <v>22302102</v>
+        <v>22302101</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C118" s="4" t="s">
-        <v>1171</v>
+        <v>1472</v>
       </c>
       <c r="D118" s="4">
         <v>1</v>
@@ -33170,13 +33253,13 @@
         <v>13</v>
       </c>
       <c r="F118" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G118">
         <v>1</v>
       </c>
       <c r="H118" s="20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I118">
         <v>99</v>
@@ -33185,24 +33268,24 @@
         <v>200</v>
       </c>
       <c r="K118" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="L118" t="s">
         <v>719</v>
       </c>
       <c r="Q118" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A119">
-        <v>22302103</v>
+        <v>22302102</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>1757</v>
+        <v>675</v>
       </c>
       <c r="C119" s="4" t="s">
-        <v>1772</v>
+        <v>1171</v>
       </c>
       <c r="D119" s="4">
         <v>1</v>
@@ -33211,13 +33294,13 @@
         <v>13</v>
       </c>
       <c r="F119" t="s">
-        <v>1762</v>
+        <v>806</v>
       </c>
       <c r="G119">
         <v>1</v>
       </c>
       <c r="H119" s="20">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I119">
         <v>99</v>
@@ -33232,18 +33315,18 @@
         <v>719</v>
       </c>
       <c r="Q119" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A120">
-        <v>22302104</v>
+        <v>22302103</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>1759</v>
+        <v>1757</v>
       </c>
       <c r="C120" s="4" t="s">
-        <v>1774</v>
+        <v>1772</v>
       </c>
       <c r="D120" s="4">
         <v>1</v>
@@ -33252,7 +33335,7 @@
         <v>13</v>
       </c>
       <c r="F120" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="G120">
         <v>1</v>
@@ -33273,18 +33356,18 @@
         <v>719</v>
       </c>
       <c r="Q120" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A121">
-        <v>22302105</v>
+        <v>22302104</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>1768</v>
+        <v>1759</v>
       </c>
       <c r="C121" s="4" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
       <c r="D121" s="4">
         <v>1</v>
@@ -33293,13 +33376,13 @@
         <v>13</v>
       </c>
       <c r="F121" t="s">
-        <v>1769</v>
+        <v>1763</v>
       </c>
       <c r="G121">
         <v>1</v>
       </c>
       <c r="H121" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I121">
         <v>99</v>
@@ -33314,18 +33397,18 @@
         <v>719</v>
       </c>
       <c r="Q121" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A122">
-        <v>22302106</v>
+        <v>22302105</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="C122" s="4" t="s">
-        <v>1777</v>
+        <v>1771</v>
       </c>
       <c r="D122" s="4">
         <v>1</v>
@@ -33334,13 +33417,13 @@
         <v>13</v>
       </c>
       <c r="F122" t="s">
-        <v>1770</v>
+        <v>1769</v>
       </c>
       <c r="G122">
         <v>1</v>
       </c>
       <c r="H122" s="20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I122">
         <v>99</v>
@@ -33355,18 +33438,18 @@
         <v>719</v>
       </c>
       <c r="Q122" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A123">
-        <v>22302107</v>
+        <v>22302106</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>1758</v>
+        <v>1767</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>1773</v>
+        <v>1777</v>
       </c>
       <c r="D123" s="4">
         <v>1</v>
@@ -33375,13 +33458,13 @@
         <v>13</v>
       </c>
       <c r="F123" t="s">
-        <v>1764</v>
-      </c>
-      <c r="G123" s="14">
+        <v>1770</v>
+      </c>
+      <c r="G123">
         <v>1</v>
       </c>
       <c r="H123" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I123">
         <v>99</v>
@@ -33395,21 +33478,19 @@
       <c r="L123" t="s">
         <v>719</v>
       </c>
-      <c r="O123" s="14"/>
-      <c r="P123" s="14"/>
-      <c r="Q123" s="14" t="s">
-        <v>681</v>
+      <c r="Q123" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A124">
-        <v>22302108</v>
+        <v>22302107</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>1760</v>
+        <v>1758</v>
       </c>
       <c r="C124" s="4" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="D124" s="4">
         <v>1</v>
@@ -33418,7 +33499,7 @@
         <v>13</v>
       </c>
       <c r="F124" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="G124" s="14">
         <v>1</v>
@@ -33441,18 +33522,18 @@
       <c r="O124" s="14"/>
       <c r="P124" s="14"/>
       <c r="Q124" s="14" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A125">
-        <v>22302109</v>
+        <v>22302108</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="D125" s="4">
         <v>1</v>
@@ -33461,7 +33542,7 @@
         <v>13</v>
       </c>
       <c r="F125" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="G125" s="14">
         <v>1</v>
@@ -33484,18 +33565,18 @@
       <c r="O125" s="14"/>
       <c r="P125" s="14"/>
       <c r="Q125" s="14" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A126">
-        <v>22302110</v>
+        <v>22302109</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>959</v>
+        <v>1761</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>1172</v>
+        <v>1776</v>
       </c>
       <c r="D126" s="4">
         <v>1</v>
@@ -33504,9 +33585,9 @@
         <v>13</v>
       </c>
       <c r="F126" t="s">
-        <v>953</v>
-      </c>
-      <c r="G126">
+        <v>1766</v>
+      </c>
+      <c r="G126" s="14">
         <v>1</v>
       </c>
       <c r="H126" s="20">
@@ -33524,19 +33605,21 @@
       <c r="L126" t="s">
         <v>719</v>
       </c>
-      <c r="Q126" t="s">
-        <v>956</v>
+      <c r="O126" s="14"/>
+      <c r="P126" s="14"/>
+      <c r="Q126" s="14" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A127">
-        <v>22302111</v>
+        <v>22302110</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="D127" s="4">
         <v>1</v>
@@ -33545,7 +33628,7 @@
         <v>13</v>
       </c>
       <c r="F127" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="G127">
         <v>1</v>
@@ -33566,18 +33649,18 @@
         <v>719</v>
       </c>
       <c r="Q127" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A128">
-        <v>22302112</v>
+        <v>22302111</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="D128" s="4">
         <v>1</v>
@@ -33586,7 +33669,7 @@
         <v>13</v>
       </c>
       <c r="F128" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -33607,18 +33690,18 @@
         <v>719</v>
       </c>
       <c r="Q128" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A129">
-        <v>22302113</v>
+        <v>22302112</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="D129" s="4">
         <v>1</v>
@@ -33627,13 +33710,13 @@
         <v>13</v>
       </c>
       <c r="F129" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="G129">
         <v>1</v>
       </c>
       <c r="H129" s="20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I129">
         <v>99</v>
@@ -33648,33 +33731,33 @@
         <v>719</v>
       </c>
       <c r="Q129" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A130">
-        <v>22302114</v>
-      </c>
-      <c r="B130" s="6" t="s">
-        <v>966</v>
-      </c>
-      <c r="C130" s="6" t="s">
-        <v>1176</v>
-      </c>
-      <c r="D130" s="6">
+        <v>22302113</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>1175</v>
+      </c>
+      <c r="D130" s="4">
         <v>1</v>
       </c>
       <c r="E130">
         <v>13</v>
       </c>
-      <c r="F130" s="15" t="s">
-        <v>965</v>
-      </c>
-      <c r="G130" s="15">
+      <c r="F130" t="s">
+        <v>962</v>
+      </c>
+      <c r="G130">
         <v>1</v>
       </c>
       <c r="H130" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I130">
         <v>99</v>
@@ -33688,21 +33771,19 @@
       <c r="L130" t="s">
         <v>719</v>
       </c>
-      <c r="O130" s="16"/>
-      <c r="P130" s="16"/>
-      <c r="Q130" s="15" t="s">
-        <v>968</v>
+      <c r="Q130" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A131">
-        <v>22302115</v>
+        <v>22302114</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D131" s="6">
         <v>1</v>
@@ -33711,13 +33792,13 @@
         <v>13</v>
       </c>
       <c r="F131" s="15" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="G131" s="15">
         <v>1</v>
       </c>
       <c r="H131" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I131">
         <v>99</v>
@@ -33734,18 +33815,18 @@
       <c r="O131" s="16"/>
       <c r="P131" s="16"/>
       <c r="Q131" s="15" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A132">
-        <v>22302116</v>
+        <v>22302115</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>1787</v>
+        <v>967</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>1788</v>
+        <v>1177</v>
       </c>
       <c r="D132" s="6">
         <v>1</v>
@@ -33754,7 +33835,7 @@
         <v>13</v>
       </c>
       <c r="F132" s="15" t="s">
-        <v>1789</v>
+        <v>970</v>
       </c>
       <c r="G132" s="15">
         <v>1</v>
@@ -33777,17 +33858,60 @@
       <c r="O132" s="16"/>
       <c r="P132" s="16"/>
       <c r="Q132" s="15" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A133">
+        <v>22302116</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>1787</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D133" s="6">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>13</v>
+      </c>
+      <c r="F133" s="15" t="s">
+        <v>1789</v>
+      </c>
+      <c r="G133" s="15">
+        <v>1</v>
+      </c>
+      <c r="H133" s="20">
+        <v>4</v>
+      </c>
+      <c r="I133">
+        <v>99</v>
+      </c>
+      <c r="J133">
+        <v>200</v>
+      </c>
+      <c r="K133" t="s">
+        <v>719</v>
+      </c>
+      <c r="L133" t="s">
+        <v>719</v>
+      </c>
+      <c r="O133" s="16"/>
+      <c r="P133" s="16"/>
+      <c r="Q133" s="15" t="s">
         <v>1788</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
-  <conditionalFormatting sqref="F4:Q132">
+  <conditionalFormatting sqref="F4:Q133">
     <cfRule type="containsBlanks" dxfId="5" priority="15">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H4:H132">
+  <conditionalFormatting sqref="H4:H133">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>7</formula>
     </cfRule>
@@ -33816,7 +33940,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -33993,7 +34117,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B19" xr:uid="{00000000-0009-0000-0000-000003000000}"/>
+  <autoFilter ref="A1:B19"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ConfigData/Xlsx/HItem.xlsx
+++ b/ConfigData/Xlsx/HItem.xlsx
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3493" uniqueCount="1865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3499" uniqueCount="1869">
   <si>
     <t>血蓟</t>
   </si>
@@ -6544,6 +6544,22 @@
   </si>
   <si>
     <t>本次战斗召唤的所有单位获得圣盾</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>符文-爱斯</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuwen-aisi</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fuwen4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新后续的能量获取队列</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -7560,7 +7576,69 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="96">
+  <dxfs count="102">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -9367,87 +9445,87 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:Q352" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94" tableBorderDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:Q352" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100" tableBorderDxfId="99">
   <autoFilter ref="A3:Q352"/>
   <sortState ref="A4:Q352">
     <sortCondition ref="A3:A352"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" name="Id" dataDxfId="92"/>
-    <tableColumn id="2" name="Name" dataDxfId="91"/>
+    <tableColumn id="1" name="Id" dataDxfId="98"/>
+    <tableColumn id="2" name="Name" dataDxfId="97"/>
     <tableColumn id="10" name="Ename"/>
-    <tableColumn id="3" name="Type" dataDxfId="90"/>
+    <tableColumn id="3" name="Type" dataDxfId="96"/>
     <tableColumn id="13" name="SubType"/>
-    <tableColumn id="4" name="Descript" dataDxfId="89"/>
-    <tableColumn id="5" name="Level" dataDxfId="88"/>
-    <tableColumn id="6" name="Rare" dataDxfId="87"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="86"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="85"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="84"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="83"/>
-    <tableColumn id="17" name="ShowCollectTip" dataDxfId="82"/>
+    <tableColumn id="4" name="Descript" dataDxfId="95"/>
+    <tableColumn id="5" name="Level" dataDxfId="94"/>
+    <tableColumn id="6" name="Rare" dataDxfId="93"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="92"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="91"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="90"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="89"/>
+    <tableColumn id="17" name="ShowCollectTip" dataDxfId="88"/>
     <tableColumn id="16" name="RandomGroup"/>
-    <tableColumn id="15" name="Frequency" dataDxfId="81"/>
+    <tableColumn id="15" name="Frequency" dataDxfId="87"/>
     <tableColumn id="9" name="Attributes"/>
-    <tableColumn id="14" name="Url" dataDxfId="80"/>
+    <tableColumn id="14" name="Url" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:Q20" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78" tableBorderDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表1_3" displayName="表1_3" ref="A3:Q20" totalsRowShown="0" headerRowDxfId="85" dataDxfId="84" tableBorderDxfId="83">
   <autoFilter ref="A3:Q20"/>
   <sortState ref="A4:R435">
     <sortCondition ref="A3:A435"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" name="Id" dataDxfId="76"/>
-    <tableColumn id="2" name="Name" dataDxfId="75"/>
-    <tableColumn id="10" name="Ename" dataDxfId="74"/>
-    <tableColumn id="3" name="Type" dataDxfId="73"/>
-    <tableColumn id="13" name="SubType" dataDxfId="72"/>
-    <tableColumn id="4" name="Descript" dataDxfId="71"/>
-    <tableColumn id="5" name="Level" dataDxfId="70"/>
-    <tableColumn id="6" name="Rare" dataDxfId="69"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="68"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="67"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="66"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="65"/>
-    <tableColumn id="17" name="ShowCollectTip" dataDxfId="64"/>
-    <tableColumn id="16" name="RandomGroup" dataDxfId="63"/>
-    <tableColumn id="15" name="Frequency" dataDxfId="62"/>
-    <tableColumn id="9" name="Attributes" dataDxfId="61"/>
-    <tableColumn id="14" name="Url" dataDxfId="60"/>
+    <tableColumn id="1" name="Id" dataDxfId="82"/>
+    <tableColumn id="2" name="Name" dataDxfId="81"/>
+    <tableColumn id="10" name="Ename" dataDxfId="80"/>
+    <tableColumn id="3" name="Type" dataDxfId="79"/>
+    <tableColumn id="13" name="SubType" dataDxfId="78"/>
+    <tableColumn id="4" name="Descript" dataDxfId="77"/>
+    <tableColumn id="5" name="Level" dataDxfId="76"/>
+    <tableColumn id="6" name="Rare" dataDxfId="75"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="74"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="73"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="72"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="71"/>
+    <tableColumn id="17" name="ShowCollectTip" dataDxfId="70"/>
+    <tableColumn id="16" name="RandomGroup" dataDxfId="69"/>
+    <tableColumn id="15" name="Frequency" dataDxfId="68"/>
+    <tableColumn id="9" name="Attributes" dataDxfId="67"/>
+    <tableColumn id="14" name="Url" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:Q133" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57">
-  <autoFilter ref="A3:Q133"/>
-  <sortState ref="A4:Q133">
-    <sortCondition ref="A3:A133"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表1_34" displayName="表1_34" ref="A3:Q134" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64" tableBorderDxfId="63">
+  <autoFilter ref="A3:Q134"/>
+  <sortState ref="A4:Q134">
+    <sortCondition ref="A3:A134"/>
   </sortState>
   <tableColumns count="17">
-    <tableColumn id="1" name="Id" dataDxfId="56"/>
-    <tableColumn id="2" name="Name" dataDxfId="55"/>
-    <tableColumn id="10" name="Ename" dataDxfId="54"/>
-    <tableColumn id="3" name="Type" dataDxfId="53"/>
-    <tableColumn id="13" name="SubType" dataDxfId="52"/>
-    <tableColumn id="4" name="Descript" dataDxfId="51"/>
-    <tableColumn id="5" name="Level" dataDxfId="50"/>
-    <tableColumn id="6" name="Rare" dataDxfId="49"/>
-    <tableColumn id="7" name="MaxPile" dataDxfId="48"/>
-    <tableColumn id="8" name="ValueFactor" dataDxfId="47"/>
-    <tableColumn id="11" name="IsUsable" dataDxfId="46"/>
-    <tableColumn id="12" name="IsThrowable" dataDxfId="45"/>
+    <tableColumn id="1" name="Id" dataDxfId="62"/>
+    <tableColumn id="2" name="Name" dataDxfId="61"/>
+    <tableColumn id="10" name="Ename" dataDxfId="60"/>
+    <tableColumn id="3" name="Type" dataDxfId="59"/>
+    <tableColumn id="13" name="SubType" dataDxfId="58"/>
+    <tableColumn id="4" name="Descript" dataDxfId="57"/>
+    <tableColumn id="5" name="Level" dataDxfId="56"/>
+    <tableColumn id="6" name="Rare" dataDxfId="55"/>
+    <tableColumn id="7" name="MaxPile" dataDxfId="54"/>
+    <tableColumn id="8" name="ValueFactor" dataDxfId="53"/>
+    <tableColumn id="11" name="IsUsable" dataDxfId="52"/>
+    <tableColumn id="12" name="IsThrowable" dataDxfId="51"/>
     <tableColumn id="17" name="ShowCollectTip"/>
     <tableColumn id="16" name="RandomGroup"/>
-    <tableColumn id="15" name="Frequency" dataDxfId="44"/>
-    <tableColumn id="9" name="Attributes" dataDxfId="43"/>
-    <tableColumn id="14" name="Url" dataDxfId="42"/>
+    <tableColumn id="15" name="Frequency" dataDxfId="50"/>
+    <tableColumn id="9" name="Attributes" dataDxfId="49"/>
+    <tableColumn id="14" name="Url" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -27402,109 +27480,109 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="B4:Q29 N21:N87 B41:Q352">
-    <cfRule type="containsBlanks" dxfId="41" priority="25">
+    <cfRule type="containsBlanks" dxfId="47" priority="25">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H29 H41:H352">
-    <cfRule type="cellIs" dxfId="40" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="20" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="21" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="22" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="23" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="42" priority="24" operator="between">
       <formula>1</formula>
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:Q31 G32:Q32 B32:E40 I33:Q37 I39:Q40 I38:O38 Q38">
-    <cfRule type="containsBlanks" dxfId="35" priority="19">
+    <cfRule type="containsBlanks" dxfId="41" priority="19">
       <formula>LEN(TRIM(B30))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:H32">
-    <cfRule type="cellIs" dxfId="34" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="14" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="37" priority="17" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="18" operator="between">
       <formula>1</formula>
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsBlanks" dxfId="29" priority="13">
+    <cfRule type="containsBlanks" dxfId="35" priority="13">
       <formula>LEN(TRIM(F32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:H33 G34:H40">
-    <cfRule type="containsBlanks" dxfId="28" priority="12">
+    <cfRule type="containsBlanks" dxfId="34" priority="12">
       <formula>LEN(TRIM(F33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33:H40">
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="8" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="9" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="10" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="11" operator="between">
       <formula>1</formula>
       <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsBlanks" dxfId="22" priority="6">
+    <cfRule type="containsBlanks" dxfId="28" priority="6">
       <formula>LEN(TRIM(F34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F37">
-    <cfRule type="containsBlanks" dxfId="21" priority="5">
+    <cfRule type="containsBlanks" dxfId="27" priority="5">
       <formula>LEN(TRIM(F35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="containsBlanks" dxfId="20" priority="4">
+    <cfRule type="containsBlanks" dxfId="26" priority="4">
       <formula>LEN(TRIM(F38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="containsBlanks" dxfId="19" priority="3">
+    <cfRule type="containsBlanks" dxfId="25" priority="3">
       <formula>LEN(TRIM(F39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="containsBlanks" dxfId="18" priority="2">
+    <cfRule type="containsBlanks" dxfId="24" priority="2">
       <formula>LEN(TRIM(F40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P38">
-    <cfRule type="containsBlanks" dxfId="17" priority="1">
+    <cfRule type="containsBlanks" dxfId="23" priority="1">
       <formula>LEN(TRIM(P38))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28338,50 +28416,50 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="B6:Q20 B5:D5 L5:P5 F5:J5">
-    <cfRule type="containsBlanks" dxfId="16" priority="12">
+    <cfRule type="containsBlanks" dxfId="22" priority="12">
       <formula>LEN(TRIM(B5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:G4 I4:Q4">
-    <cfRule type="containsBlanks" dxfId="15" priority="10">
+    <cfRule type="containsBlanks" dxfId="21" priority="10">
       <formula>LEN(TRIM(B4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
-    <cfRule type="containsBlanks" dxfId="14" priority="9">
+    <cfRule type="containsBlanks" dxfId="20" priority="9">
       <formula>LEN(TRIM(Q5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K5">
-    <cfRule type="containsBlanks" dxfId="13" priority="8">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(K5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="containsBlanks" dxfId="12" priority="7">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(E5))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H20">
-    <cfRule type="containsBlanks" dxfId="11" priority="6">
+    <cfRule type="containsBlanks" dxfId="17" priority="6">
       <formula>LEN(TRIM(H4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H20">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>7</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="between">
       <formula>3</formula>
       <formula>4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="between">
       <formula>1</formula>
       <formula>2</formula>
     </cfRule>
@@ -28397,13 +28475,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q133"/>
+  <dimension ref="A1:Q134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B91" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B107" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H112" sqref="H112"/>
+      <selection pane="bottomRight" activeCell="F115" sqref="F115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -33115,13 +33193,13 @@
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A115">
-        <v>22302030</v>
+        <v>22302020</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>834</v>
+        <v>1865</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>1168</v>
+        <v>1866</v>
       </c>
       <c r="D115" s="4">
         <v>1</v>
@@ -33130,13 +33208,13 @@
         <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>828</v>
+        <v>1868</v>
       </c>
       <c r="G115">
         <v>1</v>
       </c>
       <c r="H115" s="20">
-        <v>3</v>
+        <v>1</v>
       </c>
 